--- a/database/imports/bang-gia-thuoc.xlsx
+++ b/database/imports/bang-gia-thuoc.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\var\www\adminlt\database\imports\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15D807BF-9AC8-4519-93B9-0CC03796FE60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27C6129C-FA7D-4442-BCC0-77FA2B85DE1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{AA2AB357-8B43-4900-A8BE-9AF4115D18D6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AA2AB357-8B43-4900-A8BE-9AF4115D18D6}"/>
   </bookViews>
   <sheets>
     <sheet name="TÂN DƯỢC-TRUNG-THAU" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
   </externalReferences>
   <definedNames>
     <definedName name="_Fill" hidden="1">#REF!</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'TÂN DƯỢC-TRUNG-THAU'!$A$9:$N$9</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'TÂN DƯỢC-TRUNG-THAU'!$A$9:$Q$9</definedName>
     <definedName name="_Key1" hidden="1">#REF!</definedName>
     <definedName name="_Key2" hidden="1">#REF!</definedName>
     <definedName name="_Order1" hidden="1">255</definedName>
@@ -107,7 +107,7 @@
     <definedName name="hyîa" hidden="1">{"'Sheet1'!$L$16"}</definedName>
     <definedName name="khoi" hidden="1">{"'Sheet1'!$L$16"}</definedName>
     <definedName name="MÊ_KONG">#REF!</definedName>
-    <definedName name="MINH">'[1]N.T.Minh'!$B$9:$AM$60</definedName>
+    <definedName name="MINH">[1]N.T.Minh!$B$9:$AM$60</definedName>
     <definedName name="minhư">#REF!</definedName>
     <definedName name="NAM_BỘ">#REF!</definedName>
     <definedName name="NAM_TRUNG_BỘ">#REF!</definedName>
@@ -158,7 +158,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="195">
   <si>
     <t>CÔNG TY TNHH INAFO VIỆT NAM</t>
   </si>
@@ -222,9 +222,6 @@
     <t>Tên biệt dược</t>
   </si>
   <si>
-    <t>Dạng bào chế, đường dùng</t>
-  </si>
-  <si>
     <t>Đơn vị tính</t>
   </si>
   <si>
@@ -235,15 +232,6 @@
   </si>
   <si>
     <t>Hạn dùng</t>
-  </si>
-  <si>
-    <t>Cơ sở sản xuất - Nước sản xuất</t>
-  </si>
-  <si>
-    <t>Đơn giá (VAT)</t>
-  </si>
-  <si>
-    <t>Giá KK/ KKL</t>
   </si>
   <si>
     <t>Piroxicam 20mg</t>
@@ -733,24 +721,58 @@
     <t>(Ký tên và đóng mộc công ty)</t>
   </si>
   <si>
-    <t>Chiết xuất quả Việt Quất, Cao Marrubium , chiết xuất tinh dầu trà, , dầu olive, nước….</t>
+    <t>Đường dùng</t>
   </si>
   <si>
-    <t>DE GLANZ( Dung dịch rửa phụ khoa)</t>
+    <t>Nước sản xuất</t>
   </si>
   <si>
-    <t>Dung diịch vệ sinh</t>
+    <t>Dạng bào chế</t>
   </si>
   <si>
-    <t>Hộp 01 lọ x 120ml</t>
+    <t>Uống</t>
   </si>
   <si>
-    <t>90740/14/CBMP-QLD</t>
+    <t>Tiêm</t>
   </si>
   <si>
-    <t>Eng Kah Enterprise
-Sdn. Bhd. (143577-
-M), Malaysia</t>
+    <t>Portugal</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Việt Nam</t>
+  </si>
+  <si>
+    <t>Slovakia</t>
+  </si>
+  <si>
+    <t>Spain</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>Moldova</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cơ sở sản xuất </t>
+  </si>
+  <si>
+    <t>Giá kê khai</t>
+  </si>
+  <si>
+    <t>Đơn giá</t>
+  </si>
+  <si>
+    <t>Giá vốn</t>
+  </si>
+  <si>
+    <t>Nhà phân phối</t>
+  </si>
+  <si>
+    <t>Nhóm thuốc</t>
+  </si>
+  <si>
+    <t>Link Hình ảnh</t>
   </si>
 </sst>
 </file>
@@ -765,7 +787,7 @@
     <numFmt numFmtId="167" formatCode="_-* #,##0.00\ _₫_-;\-* #,##0.00\ _₫_-;_-* &quot;-&quot;??\ _₫_-;_-@_-"/>
     <numFmt numFmtId="168" formatCode="_-* #,##0\ _₫_-;\-* #,##0\ _₫_-;_-* &quot;-&quot;??\ _₫_-;_-@_-"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="14"/>
       <color theme="1"/>
@@ -1134,7 +1156,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -1190,7 +1212,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -1246,7 +1268,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -1302,7 +1324,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -1358,7 +1380,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -1414,7 +1436,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -1470,7 +1492,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -1526,7 +1548,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -1582,7 +1604,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -1638,7 +1660,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -1694,7 +1716,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -1750,7 +1772,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -1806,7 +1828,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -1862,7 +1884,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -1918,7 +1940,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -1974,7 +1996,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -2030,7 +2052,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -2086,7 +2108,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -2142,7 +2164,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -2198,7 +2220,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -2254,7 +2276,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -2310,7 +2332,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -2366,7 +2388,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -2422,7 +2444,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -2478,7 +2500,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -2534,7 +2556,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -2590,7 +2612,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -2646,7 +2668,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -2702,7 +2724,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -2758,7 +2780,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -2814,7 +2836,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -2870,7 +2892,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -2926,7 +2948,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -2982,7 +3004,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -3038,7 +3060,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -3094,7 +3116,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -3150,7 +3172,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -3206,7 +3228,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -3262,7 +3284,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -3318,7 +3340,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -3376,7 +3398,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Tổng KV1"/>
@@ -30328,7 +30350,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="01. KH THUONG"/>
@@ -30471,7 +30493,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Thong_tin_co_hoi"/>
@@ -31460,7 +31482,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="CHiet tinh may khuay"/>
@@ -31845,1640 +31867,1647 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8326482F-38D0-4A78-9C12-23F885EAB698}">
-  <dimension ref="A1:N74"/>
+  <dimension ref="A1:T73"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N19" sqref="N19"/>
+      <selection activeCell="T10" sqref="T10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.36328125" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultColWidth="8.33203125" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.36328125" style="35" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.453125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="19.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.81640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15" style="1" customWidth="1"/>
-    <col min="11" max="11" width="8.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.6328125" style="3" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.36328125" style="3" bestFit="1" customWidth="1"/>
-    <col min="15" max="168" width="7.81640625" style="1" customWidth="1"/>
-    <col min="169" max="169" width="5.6328125" style="1" customWidth="1"/>
-    <col min="170" max="171" width="10.90625" style="1" customWidth="1"/>
-    <col min="172" max="172" width="9.08984375" style="1" customWidth="1"/>
-    <col min="173" max="174" width="8.6328125" style="1" customWidth="1"/>
-    <col min="175" max="175" width="24" style="1" customWidth="1"/>
-    <col min="176" max="176" width="17.81640625" style="1" customWidth="1"/>
-    <col min="177" max="178" width="12.81640625" style="1" customWidth="1"/>
-    <col min="179" max="179" width="20.1796875" style="1" customWidth="1"/>
-    <col min="180" max="215" width="8.36328125" style="1"/>
-    <col min="216" max="216" width="6.453125" style="1" customWidth="1"/>
-    <col min="217" max="219" width="8.6328125" style="1" customWidth="1"/>
-    <col min="220" max="220" width="21.08984375" style="1" customWidth="1"/>
-    <col min="221" max="221" width="25.08984375" style="1" customWidth="1"/>
-    <col min="222" max="222" width="14.90625" style="1" customWidth="1"/>
-    <col min="223" max="223" width="16.90625" style="1" customWidth="1"/>
-    <col min="224" max="224" width="7.81640625" style="1" customWidth="1"/>
-    <col min="225" max="225" width="14.90625" style="1" customWidth="1"/>
-    <col min="226" max="226" width="9.1796875" style="1" customWidth="1"/>
-    <col min="227" max="227" width="11.1796875" style="1" customWidth="1"/>
-    <col min="228" max="228" width="16.1796875" style="1" customWidth="1"/>
-    <col min="229" max="229" width="13.08984375" style="1" customWidth="1"/>
-    <col min="230" max="232" width="12.81640625" style="1" customWidth="1"/>
-    <col min="233" max="233" width="11.90625" style="1" customWidth="1"/>
-    <col min="234" max="234" width="12.81640625" style="1" customWidth="1"/>
-    <col min="235" max="424" width="7.81640625" style="1" customWidth="1"/>
-    <col min="425" max="425" width="5.6328125" style="1" customWidth="1"/>
-    <col min="426" max="427" width="10.90625" style="1" customWidth="1"/>
-    <col min="428" max="428" width="9.08984375" style="1" customWidth="1"/>
-    <col min="429" max="430" width="8.6328125" style="1" customWidth="1"/>
-    <col min="431" max="431" width="24" style="1" customWidth="1"/>
-    <col min="432" max="432" width="17.81640625" style="1" customWidth="1"/>
-    <col min="433" max="434" width="12.81640625" style="1" customWidth="1"/>
-    <col min="435" max="435" width="20.1796875" style="1" customWidth="1"/>
-    <col min="436" max="471" width="8.36328125" style="1"/>
-    <col min="472" max="472" width="6.453125" style="1" customWidth="1"/>
-    <col min="473" max="475" width="8.6328125" style="1" customWidth="1"/>
-    <col min="476" max="476" width="21.08984375" style="1" customWidth="1"/>
-    <col min="477" max="477" width="25.08984375" style="1" customWidth="1"/>
-    <col min="478" max="478" width="14.90625" style="1" customWidth="1"/>
-    <col min="479" max="479" width="16.90625" style="1" customWidth="1"/>
-    <col min="480" max="480" width="7.81640625" style="1" customWidth="1"/>
-    <col min="481" max="481" width="14.90625" style="1" customWidth="1"/>
-    <col min="482" max="482" width="9.1796875" style="1" customWidth="1"/>
-    <col min="483" max="483" width="11.1796875" style="1" customWidth="1"/>
-    <col min="484" max="484" width="16.1796875" style="1" customWidth="1"/>
-    <col min="485" max="485" width="13.08984375" style="1" customWidth="1"/>
-    <col min="486" max="488" width="12.81640625" style="1" customWidth="1"/>
-    <col min="489" max="489" width="11.90625" style="1" customWidth="1"/>
-    <col min="490" max="490" width="12.81640625" style="1" customWidth="1"/>
-    <col min="491" max="680" width="7.81640625" style="1" customWidth="1"/>
-    <col min="681" max="681" width="5.6328125" style="1" customWidth="1"/>
-    <col min="682" max="683" width="10.90625" style="1" customWidth="1"/>
-    <col min="684" max="684" width="9.08984375" style="1" customWidth="1"/>
-    <col min="685" max="686" width="8.6328125" style="1" customWidth="1"/>
-    <col min="687" max="687" width="24" style="1" customWidth="1"/>
-    <col min="688" max="688" width="17.81640625" style="1" customWidth="1"/>
-    <col min="689" max="690" width="12.81640625" style="1" customWidth="1"/>
-    <col min="691" max="691" width="20.1796875" style="1" customWidth="1"/>
-    <col min="692" max="727" width="8.36328125" style="1"/>
-    <col min="728" max="728" width="6.453125" style="1" customWidth="1"/>
-    <col min="729" max="731" width="8.6328125" style="1" customWidth="1"/>
-    <col min="732" max="732" width="21.08984375" style="1" customWidth="1"/>
-    <col min="733" max="733" width="25.08984375" style="1" customWidth="1"/>
-    <col min="734" max="734" width="14.90625" style="1" customWidth="1"/>
-    <col min="735" max="735" width="16.90625" style="1" customWidth="1"/>
-    <col min="736" max="736" width="7.81640625" style="1" customWidth="1"/>
-    <col min="737" max="737" width="14.90625" style="1" customWidth="1"/>
-    <col min="738" max="738" width="9.1796875" style="1" customWidth="1"/>
-    <col min="739" max="739" width="11.1796875" style="1" customWidth="1"/>
-    <col min="740" max="740" width="16.1796875" style="1" customWidth="1"/>
-    <col min="741" max="741" width="13.08984375" style="1" customWidth="1"/>
-    <col min="742" max="744" width="12.81640625" style="1" customWidth="1"/>
-    <col min="745" max="745" width="11.90625" style="1" customWidth="1"/>
-    <col min="746" max="746" width="12.81640625" style="1" customWidth="1"/>
-    <col min="747" max="936" width="7.81640625" style="1" customWidth="1"/>
-    <col min="937" max="937" width="5.6328125" style="1" customWidth="1"/>
-    <col min="938" max="939" width="10.90625" style="1" customWidth="1"/>
-    <col min="940" max="940" width="9.08984375" style="1" customWidth="1"/>
-    <col min="941" max="942" width="8.6328125" style="1" customWidth="1"/>
-    <col min="943" max="943" width="24" style="1" customWidth="1"/>
-    <col min="944" max="944" width="17.81640625" style="1" customWidth="1"/>
-    <col min="945" max="946" width="12.81640625" style="1" customWidth="1"/>
-    <col min="947" max="947" width="20.1796875" style="1" customWidth="1"/>
-    <col min="948" max="983" width="8.36328125" style="1"/>
-    <col min="984" max="984" width="6.453125" style="1" customWidth="1"/>
-    <col min="985" max="987" width="8.6328125" style="1" customWidth="1"/>
-    <col min="988" max="988" width="21.08984375" style="1" customWidth="1"/>
-    <col min="989" max="989" width="25.08984375" style="1" customWidth="1"/>
-    <col min="990" max="990" width="14.90625" style="1" customWidth="1"/>
-    <col min="991" max="991" width="16.90625" style="1" customWidth="1"/>
-    <col min="992" max="992" width="7.81640625" style="1" customWidth="1"/>
-    <col min="993" max="993" width="14.90625" style="1" customWidth="1"/>
-    <col min="994" max="994" width="9.1796875" style="1" customWidth="1"/>
-    <col min="995" max="995" width="11.1796875" style="1" customWidth="1"/>
-    <col min="996" max="996" width="16.1796875" style="1" customWidth="1"/>
-    <col min="997" max="997" width="13.08984375" style="1" customWidth="1"/>
-    <col min="998" max="1000" width="12.81640625" style="1" customWidth="1"/>
-    <col min="1001" max="1001" width="11.90625" style="1" customWidth="1"/>
-    <col min="1002" max="1002" width="12.81640625" style="1" customWidth="1"/>
-    <col min="1003" max="1192" width="7.81640625" style="1" customWidth="1"/>
-    <col min="1193" max="1193" width="5.6328125" style="1" customWidth="1"/>
-    <col min="1194" max="1195" width="10.90625" style="1" customWidth="1"/>
-    <col min="1196" max="1196" width="9.08984375" style="1" customWidth="1"/>
-    <col min="1197" max="1198" width="8.6328125" style="1" customWidth="1"/>
-    <col min="1199" max="1199" width="24" style="1" customWidth="1"/>
-    <col min="1200" max="1200" width="17.81640625" style="1" customWidth="1"/>
-    <col min="1201" max="1202" width="12.81640625" style="1" customWidth="1"/>
-    <col min="1203" max="1203" width="20.1796875" style="1" customWidth="1"/>
-    <col min="1204" max="1239" width="8.36328125" style="1"/>
-    <col min="1240" max="1240" width="6.453125" style="1" customWidth="1"/>
-    <col min="1241" max="1243" width="8.6328125" style="1" customWidth="1"/>
-    <col min="1244" max="1244" width="21.08984375" style="1" customWidth="1"/>
-    <col min="1245" max="1245" width="25.08984375" style="1" customWidth="1"/>
-    <col min="1246" max="1246" width="14.90625" style="1" customWidth="1"/>
-    <col min="1247" max="1247" width="16.90625" style="1" customWidth="1"/>
-    <col min="1248" max="1248" width="7.81640625" style="1" customWidth="1"/>
-    <col min="1249" max="1249" width="14.90625" style="1" customWidth="1"/>
-    <col min="1250" max="1250" width="9.1796875" style="1" customWidth="1"/>
-    <col min="1251" max="1251" width="11.1796875" style="1" customWidth="1"/>
-    <col min="1252" max="1252" width="16.1796875" style="1" customWidth="1"/>
-    <col min="1253" max="1253" width="13.08984375" style="1" customWidth="1"/>
-    <col min="1254" max="1256" width="12.81640625" style="1" customWidth="1"/>
-    <col min="1257" max="1257" width="11.90625" style="1" customWidth="1"/>
-    <col min="1258" max="1258" width="12.81640625" style="1" customWidth="1"/>
-    <col min="1259" max="1448" width="7.81640625" style="1" customWidth="1"/>
-    <col min="1449" max="1449" width="5.6328125" style="1" customWidth="1"/>
-    <col min="1450" max="1451" width="10.90625" style="1" customWidth="1"/>
-    <col min="1452" max="1452" width="9.08984375" style="1" customWidth="1"/>
-    <col min="1453" max="1454" width="8.6328125" style="1" customWidth="1"/>
-    <col min="1455" max="1455" width="24" style="1" customWidth="1"/>
-    <col min="1456" max="1456" width="17.81640625" style="1" customWidth="1"/>
-    <col min="1457" max="1458" width="12.81640625" style="1" customWidth="1"/>
-    <col min="1459" max="1459" width="20.1796875" style="1" customWidth="1"/>
-    <col min="1460" max="1495" width="8.36328125" style="1"/>
-    <col min="1496" max="1496" width="6.453125" style="1" customWidth="1"/>
-    <col min="1497" max="1499" width="8.6328125" style="1" customWidth="1"/>
-    <col min="1500" max="1500" width="21.08984375" style="1" customWidth="1"/>
-    <col min="1501" max="1501" width="25.08984375" style="1" customWidth="1"/>
-    <col min="1502" max="1502" width="14.90625" style="1" customWidth="1"/>
-    <col min="1503" max="1503" width="16.90625" style="1" customWidth="1"/>
-    <col min="1504" max="1504" width="7.81640625" style="1" customWidth="1"/>
-    <col min="1505" max="1505" width="14.90625" style="1" customWidth="1"/>
-    <col min="1506" max="1506" width="9.1796875" style="1" customWidth="1"/>
-    <col min="1507" max="1507" width="11.1796875" style="1" customWidth="1"/>
-    <col min="1508" max="1508" width="16.1796875" style="1" customWidth="1"/>
-    <col min="1509" max="1509" width="13.08984375" style="1" customWidth="1"/>
-    <col min="1510" max="1512" width="12.81640625" style="1" customWidth="1"/>
-    <col min="1513" max="1513" width="11.90625" style="1" customWidth="1"/>
-    <col min="1514" max="1514" width="12.81640625" style="1" customWidth="1"/>
-    <col min="1515" max="1704" width="7.81640625" style="1" customWidth="1"/>
-    <col min="1705" max="1705" width="5.6328125" style="1" customWidth="1"/>
-    <col min="1706" max="1707" width="10.90625" style="1" customWidth="1"/>
-    <col min="1708" max="1708" width="9.08984375" style="1" customWidth="1"/>
-    <col min="1709" max="1710" width="8.6328125" style="1" customWidth="1"/>
-    <col min="1711" max="1711" width="24" style="1" customWidth="1"/>
-    <col min="1712" max="1712" width="17.81640625" style="1" customWidth="1"/>
-    <col min="1713" max="1714" width="12.81640625" style="1" customWidth="1"/>
-    <col min="1715" max="1715" width="20.1796875" style="1" customWidth="1"/>
-    <col min="1716" max="1751" width="8.36328125" style="1"/>
-    <col min="1752" max="1752" width="6.453125" style="1" customWidth="1"/>
-    <col min="1753" max="1755" width="8.6328125" style="1" customWidth="1"/>
-    <col min="1756" max="1756" width="21.08984375" style="1" customWidth="1"/>
-    <col min="1757" max="1757" width="25.08984375" style="1" customWidth="1"/>
-    <col min="1758" max="1758" width="14.90625" style="1" customWidth="1"/>
-    <col min="1759" max="1759" width="16.90625" style="1" customWidth="1"/>
-    <col min="1760" max="1760" width="7.81640625" style="1" customWidth="1"/>
-    <col min="1761" max="1761" width="14.90625" style="1" customWidth="1"/>
-    <col min="1762" max="1762" width="9.1796875" style="1" customWidth="1"/>
-    <col min="1763" max="1763" width="11.1796875" style="1" customWidth="1"/>
-    <col min="1764" max="1764" width="16.1796875" style="1" customWidth="1"/>
-    <col min="1765" max="1765" width="13.08984375" style="1" customWidth="1"/>
-    <col min="1766" max="1768" width="12.81640625" style="1" customWidth="1"/>
-    <col min="1769" max="1769" width="11.90625" style="1" customWidth="1"/>
-    <col min="1770" max="1770" width="12.81640625" style="1" customWidth="1"/>
-    <col min="1771" max="1960" width="7.81640625" style="1" customWidth="1"/>
-    <col min="1961" max="1961" width="5.6328125" style="1" customWidth="1"/>
-    <col min="1962" max="1963" width="10.90625" style="1" customWidth="1"/>
-    <col min="1964" max="1964" width="9.08984375" style="1" customWidth="1"/>
-    <col min="1965" max="1966" width="8.6328125" style="1" customWidth="1"/>
-    <col min="1967" max="1967" width="24" style="1" customWidth="1"/>
-    <col min="1968" max="1968" width="17.81640625" style="1" customWidth="1"/>
-    <col min="1969" max="1970" width="12.81640625" style="1" customWidth="1"/>
-    <col min="1971" max="1971" width="20.1796875" style="1" customWidth="1"/>
-    <col min="1972" max="2007" width="8.36328125" style="1"/>
-    <col min="2008" max="2008" width="6.453125" style="1" customWidth="1"/>
-    <col min="2009" max="2011" width="8.6328125" style="1" customWidth="1"/>
-    <col min="2012" max="2012" width="21.08984375" style="1" customWidth="1"/>
-    <col min="2013" max="2013" width="25.08984375" style="1" customWidth="1"/>
-    <col min="2014" max="2014" width="14.90625" style="1" customWidth="1"/>
-    <col min="2015" max="2015" width="16.90625" style="1" customWidth="1"/>
-    <col min="2016" max="2016" width="7.81640625" style="1" customWidth="1"/>
-    <col min="2017" max="2017" width="14.90625" style="1" customWidth="1"/>
-    <col min="2018" max="2018" width="9.1796875" style="1" customWidth="1"/>
-    <col min="2019" max="2019" width="11.1796875" style="1" customWidth="1"/>
-    <col min="2020" max="2020" width="16.1796875" style="1" customWidth="1"/>
-    <col min="2021" max="2021" width="13.08984375" style="1" customWidth="1"/>
-    <col min="2022" max="2024" width="12.81640625" style="1" customWidth="1"/>
-    <col min="2025" max="2025" width="11.90625" style="1" customWidth="1"/>
-    <col min="2026" max="2026" width="12.81640625" style="1" customWidth="1"/>
-    <col min="2027" max="2216" width="7.81640625" style="1" customWidth="1"/>
-    <col min="2217" max="2217" width="5.6328125" style="1" customWidth="1"/>
-    <col min="2218" max="2219" width="10.90625" style="1" customWidth="1"/>
-    <col min="2220" max="2220" width="9.08984375" style="1" customWidth="1"/>
-    <col min="2221" max="2222" width="8.6328125" style="1" customWidth="1"/>
-    <col min="2223" max="2223" width="24" style="1" customWidth="1"/>
-    <col min="2224" max="2224" width="17.81640625" style="1" customWidth="1"/>
-    <col min="2225" max="2226" width="12.81640625" style="1" customWidth="1"/>
-    <col min="2227" max="2227" width="20.1796875" style="1" customWidth="1"/>
-    <col min="2228" max="2263" width="8.36328125" style="1"/>
-    <col min="2264" max="2264" width="6.453125" style="1" customWidth="1"/>
-    <col min="2265" max="2267" width="8.6328125" style="1" customWidth="1"/>
-    <col min="2268" max="2268" width="21.08984375" style="1" customWidth="1"/>
-    <col min="2269" max="2269" width="25.08984375" style="1" customWidth="1"/>
-    <col min="2270" max="2270" width="14.90625" style="1" customWidth="1"/>
-    <col min="2271" max="2271" width="16.90625" style="1" customWidth="1"/>
-    <col min="2272" max="2272" width="7.81640625" style="1" customWidth="1"/>
-    <col min="2273" max="2273" width="14.90625" style="1" customWidth="1"/>
-    <col min="2274" max="2274" width="9.1796875" style="1" customWidth="1"/>
-    <col min="2275" max="2275" width="11.1796875" style="1" customWidth="1"/>
-    <col min="2276" max="2276" width="16.1796875" style="1" customWidth="1"/>
-    <col min="2277" max="2277" width="13.08984375" style="1" customWidth="1"/>
-    <col min="2278" max="2280" width="12.81640625" style="1" customWidth="1"/>
-    <col min="2281" max="2281" width="11.90625" style="1" customWidth="1"/>
-    <col min="2282" max="2282" width="12.81640625" style="1" customWidth="1"/>
-    <col min="2283" max="2472" width="7.81640625" style="1" customWidth="1"/>
-    <col min="2473" max="2473" width="5.6328125" style="1" customWidth="1"/>
-    <col min="2474" max="2475" width="10.90625" style="1" customWidth="1"/>
-    <col min="2476" max="2476" width="9.08984375" style="1" customWidth="1"/>
-    <col min="2477" max="2478" width="8.6328125" style="1" customWidth="1"/>
-    <col min="2479" max="2479" width="24" style="1" customWidth="1"/>
-    <col min="2480" max="2480" width="17.81640625" style="1" customWidth="1"/>
-    <col min="2481" max="2482" width="12.81640625" style="1" customWidth="1"/>
-    <col min="2483" max="2483" width="20.1796875" style="1" customWidth="1"/>
-    <col min="2484" max="2519" width="8.36328125" style="1"/>
-    <col min="2520" max="2520" width="6.453125" style="1" customWidth="1"/>
-    <col min="2521" max="2523" width="8.6328125" style="1" customWidth="1"/>
-    <col min="2524" max="2524" width="21.08984375" style="1" customWidth="1"/>
-    <col min="2525" max="2525" width="25.08984375" style="1" customWidth="1"/>
-    <col min="2526" max="2526" width="14.90625" style="1" customWidth="1"/>
-    <col min="2527" max="2527" width="16.90625" style="1" customWidth="1"/>
-    <col min="2528" max="2528" width="7.81640625" style="1" customWidth="1"/>
-    <col min="2529" max="2529" width="14.90625" style="1" customWidth="1"/>
-    <col min="2530" max="2530" width="9.1796875" style="1" customWidth="1"/>
-    <col min="2531" max="2531" width="11.1796875" style="1" customWidth="1"/>
-    <col min="2532" max="2532" width="16.1796875" style="1" customWidth="1"/>
-    <col min="2533" max="2533" width="13.08984375" style="1" customWidth="1"/>
-    <col min="2534" max="2536" width="12.81640625" style="1" customWidth="1"/>
-    <col min="2537" max="2537" width="11.90625" style="1" customWidth="1"/>
-    <col min="2538" max="2538" width="12.81640625" style="1" customWidth="1"/>
-    <col min="2539" max="2728" width="7.81640625" style="1" customWidth="1"/>
-    <col min="2729" max="2729" width="5.6328125" style="1" customWidth="1"/>
-    <col min="2730" max="2731" width="10.90625" style="1" customWidth="1"/>
-    <col min="2732" max="2732" width="9.08984375" style="1" customWidth="1"/>
-    <col min="2733" max="2734" width="8.6328125" style="1" customWidth="1"/>
-    <col min="2735" max="2735" width="24" style="1" customWidth="1"/>
-    <col min="2736" max="2736" width="17.81640625" style="1" customWidth="1"/>
-    <col min="2737" max="2738" width="12.81640625" style="1" customWidth="1"/>
-    <col min="2739" max="2739" width="20.1796875" style="1" customWidth="1"/>
-    <col min="2740" max="2775" width="8.36328125" style="1"/>
-    <col min="2776" max="2776" width="6.453125" style="1" customWidth="1"/>
-    <col min="2777" max="2779" width="8.6328125" style="1" customWidth="1"/>
-    <col min="2780" max="2780" width="21.08984375" style="1" customWidth="1"/>
-    <col min="2781" max="2781" width="25.08984375" style="1" customWidth="1"/>
-    <col min="2782" max="2782" width="14.90625" style="1" customWidth="1"/>
-    <col min="2783" max="2783" width="16.90625" style="1" customWidth="1"/>
-    <col min="2784" max="2784" width="7.81640625" style="1" customWidth="1"/>
-    <col min="2785" max="2785" width="14.90625" style="1" customWidth="1"/>
-    <col min="2786" max="2786" width="9.1796875" style="1" customWidth="1"/>
-    <col min="2787" max="2787" width="11.1796875" style="1" customWidth="1"/>
-    <col min="2788" max="2788" width="16.1796875" style="1" customWidth="1"/>
-    <col min="2789" max="2789" width="13.08984375" style="1" customWidth="1"/>
-    <col min="2790" max="2792" width="12.81640625" style="1" customWidth="1"/>
-    <col min="2793" max="2793" width="11.90625" style="1" customWidth="1"/>
-    <col min="2794" max="2794" width="12.81640625" style="1" customWidth="1"/>
-    <col min="2795" max="2984" width="7.81640625" style="1" customWidth="1"/>
-    <col min="2985" max="2985" width="5.6328125" style="1" customWidth="1"/>
-    <col min="2986" max="2987" width="10.90625" style="1" customWidth="1"/>
-    <col min="2988" max="2988" width="9.08984375" style="1" customWidth="1"/>
-    <col min="2989" max="2990" width="8.6328125" style="1" customWidth="1"/>
-    <col min="2991" max="2991" width="24" style="1" customWidth="1"/>
-    <col min="2992" max="2992" width="17.81640625" style="1" customWidth="1"/>
-    <col min="2993" max="2994" width="12.81640625" style="1" customWidth="1"/>
-    <col min="2995" max="2995" width="20.1796875" style="1" customWidth="1"/>
-    <col min="2996" max="3031" width="8.36328125" style="1"/>
-    <col min="3032" max="3032" width="6.453125" style="1" customWidth="1"/>
-    <col min="3033" max="3035" width="8.6328125" style="1" customWidth="1"/>
-    <col min="3036" max="3036" width="21.08984375" style="1" customWidth="1"/>
-    <col min="3037" max="3037" width="25.08984375" style="1" customWidth="1"/>
-    <col min="3038" max="3038" width="14.90625" style="1" customWidth="1"/>
-    <col min="3039" max="3039" width="16.90625" style="1" customWidth="1"/>
-    <col min="3040" max="3040" width="7.81640625" style="1" customWidth="1"/>
-    <col min="3041" max="3041" width="14.90625" style="1" customWidth="1"/>
-    <col min="3042" max="3042" width="9.1796875" style="1" customWidth="1"/>
-    <col min="3043" max="3043" width="11.1796875" style="1" customWidth="1"/>
-    <col min="3044" max="3044" width="16.1796875" style="1" customWidth="1"/>
-    <col min="3045" max="3045" width="13.08984375" style="1" customWidth="1"/>
-    <col min="3046" max="3048" width="12.81640625" style="1" customWidth="1"/>
-    <col min="3049" max="3049" width="11.90625" style="1" customWidth="1"/>
-    <col min="3050" max="3050" width="12.81640625" style="1" customWidth="1"/>
-    <col min="3051" max="3240" width="7.81640625" style="1" customWidth="1"/>
-    <col min="3241" max="3241" width="5.6328125" style="1" customWidth="1"/>
-    <col min="3242" max="3243" width="10.90625" style="1" customWidth="1"/>
-    <col min="3244" max="3244" width="9.08984375" style="1" customWidth="1"/>
-    <col min="3245" max="3246" width="8.6328125" style="1" customWidth="1"/>
-    <col min="3247" max="3247" width="24" style="1" customWidth="1"/>
-    <col min="3248" max="3248" width="17.81640625" style="1" customWidth="1"/>
-    <col min="3249" max="3250" width="12.81640625" style="1" customWidth="1"/>
-    <col min="3251" max="3251" width="20.1796875" style="1" customWidth="1"/>
-    <col min="3252" max="3287" width="8.36328125" style="1"/>
-    <col min="3288" max="3288" width="6.453125" style="1" customWidth="1"/>
-    <col min="3289" max="3291" width="8.6328125" style="1" customWidth="1"/>
-    <col min="3292" max="3292" width="21.08984375" style="1" customWidth="1"/>
-    <col min="3293" max="3293" width="25.08984375" style="1" customWidth="1"/>
-    <col min="3294" max="3294" width="14.90625" style="1" customWidth="1"/>
-    <col min="3295" max="3295" width="16.90625" style="1" customWidth="1"/>
-    <col min="3296" max="3296" width="7.81640625" style="1" customWidth="1"/>
-    <col min="3297" max="3297" width="14.90625" style="1" customWidth="1"/>
-    <col min="3298" max="3298" width="9.1796875" style="1" customWidth="1"/>
-    <col min="3299" max="3299" width="11.1796875" style="1" customWidth="1"/>
-    <col min="3300" max="3300" width="16.1796875" style="1" customWidth="1"/>
-    <col min="3301" max="3301" width="13.08984375" style="1" customWidth="1"/>
-    <col min="3302" max="3304" width="12.81640625" style="1" customWidth="1"/>
-    <col min="3305" max="3305" width="11.90625" style="1" customWidth="1"/>
-    <col min="3306" max="3306" width="12.81640625" style="1" customWidth="1"/>
-    <col min="3307" max="3496" width="7.81640625" style="1" customWidth="1"/>
-    <col min="3497" max="3497" width="5.6328125" style="1" customWidth="1"/>
-    <col min="3498" max="3499" width="10.90625" style="1" customWidth="1"/>
-    <col min="3500" max="3500" width="9.08984375" style="1" customWidth="1"/>
-    <col min="3501" max="3502" width="8.6328125" style="1" customWidth="1"/>
-    <col min="3503" max="3503" width="24" style="1" customWidth="1"/>
-    <col min="3504" max="3504" width="17.81640625" style="1" customWidth="1"/>
-    <col min="3505" max="3506" width="12.81640625" style="1" customWidth="1"/>
-    <col min="3507" max="3507" width="20.1796875" style="1" customWidth="1"/>
-    <col min="3508" max="3543" width="8.36328125" style="1"/>
-    <col min="3544" max="3544" width="6.453125" style="1" customWidth="1"/>
-    <col min="3545" max="3547" width="8.6328125" style="1" customWidth="1"/>
-    <col min="3548" max="3548" width="21.08984375" style="1" customWidth="1"/>
-    <col min="3549" max="3549" width="25.08984375" style="1" customWidth="1"/>
-    <col min="3550" max="3550" width="14.90625" style="1" customWidth="1"/>
-    <col min="3551" max="3551" width="16.90625" style="1" customWidth="1"/>
-    <col min="3552" max="3552" width="7.81640625" style="1" customWidth="1"/>
-    <col min="3553" max="3553" width="14.90625" style="1" customWidth="1"/>
-    <col min="3554" max="3554" width="9.1796875" style="1" customWidth="1"/>
-    <col min="3555" max="3555" width="11.1796875" style="1" customWidth="1"/>
-    <col min="3556" max="3556" width="16.1796875" style="1" customWidth="1"/>
-    <col min="3557" max="3557" width="13.08984375" style="1" customWidth="1"/>
-    <col min="3558" max="3560" width="12.81640625" style="1" customWidth="1"/>
-    <col min="3561" max="3561" width="11.90625" style="1" customWidth="1"/>
-    <col min="3562" max="3562" width="12.81640625" style="1" customWidth="1"/>
-    <col min="3563" max="3752" width="7.81640625" style="1" customWidth="1"/>
-    <col min="3753" max="3753" width="5.6328125" style="1" customWidth="1"/>
-    <col min="3754" max="3755" width="10.90625" style="1" customWidth="1"/>
-    <col min="3756" max="3756" width="9.08984375" style="1" customWidth="1"/>
-    <col min="3757" max="3758" width="8.6328125" style="1" customWidth="1"/>
-    <col min="3759" max="3759" width="24" style="1" customWidth="1"/>
-    <col min="3760" max="3760" width="17.81640625" style="1" customWidth="1"/>
-    <col min="3761" max="3762" width="12.81640625" style="1" customWidth="1"/>
-    <col min="3763" max="3763" width="20.1796875" style="1" customWidth="1"/>
-    <col min="3764" max="3799" width="8.36328125" style="1"/>
-    <col min="3800" max="3800" width="6.453125" style="1" customWidth="1"/>
-    <col min="3801" max="3803" width="8.6328125" style="1" customWidth="1"/>
-    <col min="3804" max="3804" width="21.08984375" style="1" customWidth="1"/>
-    <col min="3805" max="3805" width="25.08984375" style="1" customWidth="1"/>
-    <col min="3806" max="3806" width="14.90625" style="1" customWidth="1"/>
-    <col min="3807" max="3807" width="16.90625" style="1" customWidth="1"/>
-    <col min="3808" max="3808" width="7.81640625" style="1" customWidth="1"/>
-    <col min="3809" max="3809" width="14.90625" style="1" customWidth="1"/>
-    <col min="3810" max="3810" width="9.1796875" style="1" customWidth="1"/>
-    <col min="3811" max="3811" width="11.1796875" style="1" customWidth="1"/>
-    <col min="3812" max="3812" width="16.1796875" style="1" customWidth="1"/>
-    <col min="3813" max="3813" width="13.08984375" style="1" customWidth="1"/>
-    <col min="3814" max="3816" width="12.81640625" style="1" customWidth="1"/>
-    <col min="3817" max="3817" width="11.90625" style="1" customWidth="1"/>
-    <col min="3818" max="3818" width="12.81640625" style="1" customWidth="1"/>
-    <col min="3819" max="4008" width="7.81640625" style="1" customWidth="1"/>
-    <col min="4009" max="4009" width="5.6328125" style="1" customWidth="1"/>
-    <col min="4010" max="4011" width="10.90625" style="1" customWidth="1"/>
-    <col min="4012" max="4012" width="9.08984375" style="1" customWidth="1"/>
-    <col min="4013" max="4014" width="8.6328125" style="1" customWidth="1"/>
-    <col min="4015" max="4015" width="24" style="1" customWidth="1"/>
-    <col min="4016" max="4016" width="17.81640625" style="1" customWidth="1"/>
-    <col min="4017" max="4018" width="12.81640625" style="1" customWidth="1"/>
-    <col min="4019" max="4019" width="20.1796875" style="1" customWidth="1"/>
-    <col min="4020" max="4055" width="8.36328125" style="1"/>
-    <col min="4056" max="4056" width="6.453125" style="1" customWidth="1"/>
-    <col min="4057" max="4059" width="8.6328125" style="1" customWidth="1"/>
-    <col min="4060" max="4060" width="21.08984375" style="1" customWidth="1"/>
-    <col min="4061" max="4061" width="25.08984375" style="1" customWidth="1"/>
-    <col min="4062" max="4062" width="14.90625" style="1" customWidth="1"/>
-    <col min="4063" max="4063" width="16.90625" style="1" customWidth="1"/>
-    <col min="4064" max="4064" width="7.81640625" style="1" customWidth="1"/>
-    <col min="4065" max="4065" width="14.90625" style="1" customWidth="1"/>
-    <col min="4066" max="4066" width="9.1796875" style="1" customWidth="1"/>
-    <col min="4067" max="4067" width="11.1796875" style="1" customWidth="1"/>
-    <col min="4068" max="4068" width="16.1796875" style="1" customWidth="1"/>
-    <col min="4069" max="4069" width="13.08984375" style="1" customWidth="1"/>
-    <col min="4070" max="4072" width="12.81640625" style="1" customWidth="1"/>
-    <col min="4073" max="4073" width="11.90625" style="1" customWidth="1"/>
-    <col min="4074" max="4074" width="12.81640625" style="1" customWidth="1"/>
-    <col min="4075" max="4264" width="7.81640625" style="1" customWidth="1"/>
-    <col min="4265" max="4265" width="5.6328125" style="1" customWidth="1"/>
-    <col min="4266" max="4267" width="10.90625" style="1" customWidth="1"/>
-    <col min="4268" max="4268" width="9.08984375" style="1" customWidth="1"/>
-    <col min="4269" max="4270" width="8.6328125" style="1" customWidth="1"/>
-    <col min="4271" max="4271" width="24" style="1" customWidth="1"/>
-    <col min="4272" max="4272" width="17.81640625" style="1" customWidth="1"/>
-    <col min="4273" max="4274" width="12.81640625" style="1" customWidth="1"/>
-    <col min="4275" max="4275" width="20.1796875" style="1" customWidth="1"/>
-    <col min="4276" max="4311" width="8.36328125" style="1"/>
-    <col min="4312" max="4312" width="6.453125" style="1" customWidth="1"/>
-    <col min="4313" max="4315" width="8.6328125" style="1" customWidth="1"/>
-    <col min="4316" max="4316" width="21.08984375" style="1" customWidth="1"/>
-    <col min="4317" max="4317" width="25.08984375" style="1" customWidth="1"/>
-    <col min="4318" max="4318" width="14.90625" style="1" customWidth="1"/>
-    <col min="4319" max="4319" width="16.90625" style="1" customWidth="1"/>
-    <col min="4320" max="4320" width="7.81640625" style="1" customWidth="1"/>
-    <col min="4321" max="4321" width="14.90625" style="1" customWidth="1"/>
-    <col min="4322" max="4322" width="9.1796875" style="1" customWidth="1"/>
-    <col min="4323" max="4323" width="11.1796875" style="1" customWidth="1"/>
-    <col min="4324" max="4324" width="16.1796875" style="1" customWidth="1"/>
-    <col min="4325" max="4325" width="13.08984375" style="1" customWidth="1"/>
-    <col min="4326" max="4328" width="12.81640625" style="1" customWidth="1"/>
-    <col min="4329" max="4329" width="11.90625" style="1" customWidth="1"/>
-    <col min="4330" max="4330" width="12.81640625" style="1" customWidth="1"/>
-    <col min="4331" max="4520" width="7.81640625" style="1" customWidth="1"/>
-    <col min="4521" max="4521" width="5.6328125" style="1" customWidth="1"/>
-    <col min="4522" max="4523" width="10.90625" style="1" customWidth="1"/>
-    <col min="4524" max="4524" width="9.08984375" style="1" customWidth="1"/>
-    <col min="4525" max="4526" width="8.6328125" style="1" customWidth="1"/>
-    <col min="4527" max="4527" width="24" style="1" customWidth="1"/>
-    <col min="4528" max="4528" width="17.81640625" style="1" customWidth="1"/>
-    <col min="4529" max="4530" width="12.81640625" style="1" customWidth="1"/>
-    <col min="4531" max="4531" width="20.1796875" style="1" customWidth="1"/>
-    <col min="4532" max="4567" width="8.36328125" style="1"/>
-    <col min="4568" max="4568" width="6.453125" style="1" customWidth="1"/>
-    <col min="4569" max="4571" width="8.6328125" style="1" customWidth="1"/>
-    <col min="4572" max="4572" width="21.08984375" style="1" customWidth="1"/>
-    <col min="4573" max="4573" width="25.08984375" style="1" customWidth="1"/>
-    <col min="4574" max="4574" width="14.90625" style="1" customWidth="1"/>
-    <col min="4575" max="4575" width="16.90625" style="1" customWidth="1"/>
-    <col min="4576" max="4576" width="7.81640625" style="1" customWidth="1"/>
-    <col min="4577" max="4577" width="14.90625" style="1" customWidth="1"/>
-    <col min="4578" max="4578" width="9.1796875" style="1" customWidth="1"/>
-    <col min="4579" max="4579" width="11.1796875" style="1" customWidth="1"/>
-    <col min="4580" max="4580" width="16.1796875" style="1" customWidth="1"/>
-    <col min="4581" max="4581" width="13.08984375" style="1" customWidth="1"/>
-    <col min="4582" max="4584" width="12.81640625" style="1" customWidth="1"/>
-    <col min="4585" max="4585" width="11.90625" style="1" customWidth="1"/>
-    <col min="4586" max="4586" width="12.81640625" style="1" customWidth="1"/>
-    <col min="4587" max="4776" width="7.81640625" style="1" customWidth="1"/>
-    <col min="4777" max="4777" width="5.6328125" style="1" customWidth="1"/>
-    <col min="4778" max="4779" width="10.90625" style="1" customWidth="1"/>
-    <col min="4780" max="4780" width="9.08984375" style="1" customWidth="1"/>
-    <col min="4781" max="4782" width="8.6328125" style="1" customWidth="1"/>
-    <col min="4783" max="4783" width="24" style="1" customWidth="1"/>
-    <col min="4784" max="4784" width="17.81640625" style="1" customWidth="1"/>
-    <col min="4785" max="4786" width="12.81640625" style="1" customWidth="1"/>
-    <col min="4787" max="4787" width="20.1796875" style="1" customWidth="1"/>
-    <col min="4788" max="4823" width="8.36328125" style="1"/>
-    <col min="4824" max="4824" width="6.453125" style="1" customWidth="1"/>
-    <col min="4825" max="4827" width="8.6328125" style="1" customWidth="1"/>
-    <col min="4828" max="4828" width="21.08984375" style="1" customWidth="1"/>
-    <col min="4829" max="4829" width="25.08984375" style="1" customWidth="1"/>
-    <col min="4830" max="4830" width="14.90625" style="1" customWidth="1"/>
-    <col min="4831" max="4831" width="16.90625" style="1" customWidth="1"/>
-    <col min="4832" max="4832" width="7.81640625" style="1" customWidth="1"/>
-    <col min="4833" max="4833" width="14.90625" style="1" customWidth="1"/>
-    <col min="4834" max="4834" width="9.1796875" style="1" customWidth="1"/>
-    <col min="4835" max="4835" width="11.1796875" style="1" customWidth="1"/>
-    <col min="4836" max="4836" width="16.1796875" style="1" customWidth="1"/>
-    <col min="4837" max="4837" width="13.08984375" style="1" customWidth="1"/>
-    <col min="4838" max="4840" width="12.81640625" style="1" customWidth="1"/>
-    <col min="4841" max="4841" width="11.90625" style="1" customWidth="1"/>
-    <col min="4842" max="4842" width="12.81640625" style="1" customWidth="1"/>
-    <col min="4843" max="5032" width="7.81640625" style="1" customWidth="1"/>
-    <col min="5033" max="5033" width="5.6328125" style="1" customWidth="1"/>
-    <col min="5034" max="5035" width="10.90625" style="1" customWidth="1"/>
-    <col min="5036" max="5036" width="9.08984375" style="1" customWidth="1"/>
-    <col min="5037" max="5038" width="8.6328125" style="1" customWidth="1"/>
-    <col min="5039" max="5039" width="24" style="1" customWidth="1"/>
-    <col min="5040" max="5040" width="17.81640625" style="1" customWidth="1"/>
-    <col min="5041" max="5042" width="12.81640625" style="1" customWidth="1"/>
-    <col min="5043" max="5043" width="20.1796875" style="1" customWidth="1"/>
-    <col min="5044" max="5079" width="8.36328125" style="1"/>
-    <col min="5080" max="5080" width="6.453125" style="1" customWidth="1"/>
-    <col min="5081" max="5083" width="8.6328125" style="1" customWidth="1"/>
-    <col min="5084" max="5084" width="21.08984375" style="1" customWidth="1"/>
-    <col min="5085" max="5085" width="25.08984375" style="1" customWidth="1"/>
-    <col min="5086" max="5086" width="14.90625" style="1" customWidth="1"/>
-    <col min="5087" max="5087" width="16.90625" style="1" customWidth="1"/>
-    <col min="5088" max="5088" width="7.81640625" style="1" customWidth="1"/>
-    <col min="5089" max="5089" width="14.90625" style="1" customWidth="1"/>
-    <col min="5090" max="5090" width="9.1796875" style="1" customWidth="1"/>
-    <col min="5091" max="5091" width="11.1796875" style="1" customWidth="1"/>
-    <col min="5092" max="5092" width="16.1796875" style="1" customWidth="1"/>
-    <col min="5093" max="5093" width="13.08984375" style="1" customWidth="1"/>
-    <col min="5094" max="5096" width="12.81640625" style="1" customWidth="1"/>
-    <col min="5097" max="5097" width="11.90625" style="1" customWidth="1"/>
-    <col min="5098" max="5098" width="12.81640625" style="1" customWidth="1"/>
-    <col min="5099" max="5288" width="7.81640625" style="1" customWidth="1"/>
-    <col min="5289" max="5289" width="5.6328125" style="1" customWidth="1"/>
-    <col min="5290" max="5291" width="10.90625" style="1" customWidth="1"/>
-    <col min="5292" max="5292" width="9.08984375" style="1" customWidth="1"/>
-    <col min="5293" max="5294" width="8.6328125" style="1" customWidth="1"/>
-    <col min="5295" max="5295" width="24" style="1" customWidth="1"/>
-    <col min="5296" max="5296" width="17.81640625" style="1" customWidth="1"/>
-    <col min="5297" max="5298" width="12.81640625" style="1" customWidth="1"/>
-    <col min="5299" max="5299" width="20.1796875" style="1" customWidth="1"/>
-    <col min="5300" max="5335" width="8.36328125" style="1"/>
-    <col min="5336" max="5336" width="6.453125" style="1" customWidth="1"/>
-    <col min="5337" max="5339" width="8.6328125" style="1" customWidth="1"/>
-    <col min="5340" max="5340" width="21.08984375" style="1" customWidth="1"/>
-    <col min="5341" max="5341" width="25.08984375" style="1" customWidth="1"/>
-    <col min="5342" max="5342" width="14.90625" style="1" customWidth="1"/>
-    <col min="5343" max="5343" width="16.90625" style="1" customWidth="1"/>
-    <col min="5344" max="5344" width="7.81640625" style="1" customWidth="1"/>
-    <col min="5345" max="5345" width="14.90625" style="1" customWidth="1"/>
-    <col min="5346" max="5346" width="9.1796875" style="1" customWidth="1"/>
-    <col min="5347" max="5347" width="11.1796875" style="1" customWidth="1"/>
-    <col min="5348" max="5348" width="16.1796875" style="1" customWidth="1"/>
-    <col min="5349" max="5349" width="13.08984375" style="1" customWidth="1"/>
-    <col min="5350" max="5352" width="12.81640625" style="1" customWidth="1"/>
-    <col min="5353" max="5353" width="11.90625" style="1" customWidth="1"/>
-    <col min="5354" max="5354" width="12.81640625" style="1" customWidth="1"/>
-    <col min="5355" max="5544" width="7.81640625" style="1" customWidth="1"/>
-    <col min="5545" max="5545" width="5.6328125" style="1" customWidth="1"/>
-    <col min="5546" max="5547" width="10.90625" style="1" customWidth="1"/>
-    <col min="5548" max="5548" width="9.08984375" style="1" customWidth="1"/>
-    <col min="5549" max="5550" width="8.6328125" style="1" customWidth="1"/>
-    <col min="5551" max="5551" width="24" style="1" customWidth="1"/>
-    <col min="5552" max="5552" width="17.81640625" style="1" customWidth="1"/>
-    <col min="5553" max="5554" width="12.81640625" style="1" customWidth="1"/>
-    <col min="5555" max="5555" width="20.1796875" style="1" customWidth="1"/>
-    <col min="5556" max="5591" width="8.36328125" style="1"/>
-    <col min="5592" max="5592" width="6.453125" style="1" customWidth="1"/>
-    <col min="5593" max="5595" width="8.6328125" style="1" customWidth="1"/>
-    <col min="5596" max="5596" width="21.08984375" style="1" customWidth="1"/>
-    <col min="5597" max="5597" width="25.08984375" style="1" customWidth="1"/>
-    <col min="5598" max="5598" width="14.90625" style="1" customWidth="1"/>
-    <col min="5599" max="5599" width="16.90625" style="1" customWidth="1"/>
-    <col min="5600" max="5600" width="7.81640625" style="1" customWidth="1"/>
-    <col min="5601" max="5601" width="14.90625" style="1" customWidth="1"/>
-    <col min="5602" max="5602" width="9.1796875" style="1" customWidth="1"/>
-    <col min="5603" max="5603" width="11.1796875" style="1" customWidth="1"/>
-    <col min="5604" max="5604" width="16.1796875" style="1" customWidth="1"/>
-    <col min="5605" max="5605" width="13.08984375" style="1" customWidth="1"/>
-    <col min="5606" max="5608" width="12.81640625" style="1" customWidth="1"/>
-    <col min="5609" max="5609" width="11.90625" style="1" customWidth="1"/>
-    <col min="5610" max="5610" width="12.81640625" style="1" customWidth="1"/>
-    <col min="5611" max="5800" width="7.81640625" style="1" customWidth="1"/>
-    <col min="5801" max="5801" width="5.6328125" style="1" customWidth="1"/>
-    <col min="5802" max="5803" width="10.90625" style="1" customWidth="1"/>
-    <col min="5804" max="5804" width="9.08984375" style="1" customWidth="1"/>
-    <col min="5805" max="5806" width="8.6328125" style="1" customWidth="1"/>
-    <col min="5807" max="5807" width="24" style="1" customWidth="1"/>
-    <col min="5808" max="5808" width="17.81640625" style="1" customWidth="1"/>
-    <col min="5809" max="5810" width="12.81640625" style="1" customWidth="1"/>
-    <col min="5811" max="5811" width="20.1796875" style="1" customWidth="1"/>
-    <col min="5812" max="5847" width="8.36328125" style="1"/>
-    <col min="5848" max="5848" width="6.453125" style="1" customWidth="1"/>
-    <col min="5849" max="5851" width="8.6328125" style="1" customWidth="1"/>
-    <col min="5852" max="5852" width="21.08984375" style="1" customWidth="1"/>
-    <col min="5853" max="5853" width="25.08984375" style="1" customWidth="1"/>
-    <col min="5854" max="5854" width="14.90625" style="1" customWidth="1"/>
-    <col min="5855" max="5855" width="16.90625" style="1" customWidth="1"/>
-    <col min="5856" max="5856" width="7.81640625" style="1" customWidth="1"/>
-    <col min="5857" max="5857" width="14.90625" style="1" customWidth="1"/>
-    <col min="5858" max="5858" width="9.1796875" style="1" customWidth="1"/>
-    <col min="5859" max="5859" width="11.1796875" style="1" customWidth="1"/>
-    <col min="5860" max="5860" width="16.1796875" style="1" customWidth="1"/>
-    <col min="5861" max="5861" width="13.08984375" style="1" customWidth="1"/>
-    <col min="5862" max="5864" width="12.81640625" style="1" customWidth="1"/>
-    <col min="5865" max="5865" width="11.90625" style="1" customWidth="1"/>
-    <col min="5866" max="5866" width="12.81640625" style="1" customWidth="1"/>
-    <col min="5867" max="6056" width="7.81640625" style="1" customWidth="1"/>
-    <col min="6057" max="6057" width="5.6328125" style="1" customWidth="1"/>
-    <col min="6058" max="6059" width="10.90625" style="1" customWidth="1"/>
-    <col min="6060" max="6060" width="9.08984375" style="1" customWidth="1"/>
-    <col min="6061" max="6062" width="8.6328125" style="1" customWidth="1"/>
-    <col min="6063" max="6063" width="24" style="1" customWidth="1"/>
-    <col min="6064" max="6064" width="17.81640625" style="1" customWidth="1"/>
-    <col min="6065" max="6066" width="12.81640625" style="1" customWidth="1"/>
-    <col min="6067" max="6067" width="20.1796875" style="1" customWidth="1"/>
-    <col min="6068" max="6103" width="8.36328125" style="1"/>
-    <col min="6104" max="6104" width="6.453125" style="1" customWidth="1"/>
-    <col min="6105" max="6107" width="8.6328125" style="1" customWidth="1"/>
-    <col min="6108" max="6108" width="21.08984375" style="1" customWidth="1"/>
-    <col min="6109" max="6109" width="25.08984375" style="1" customWidth="1"/>
-    <col min="6110" max="6110" width="14.90625" style="1" customWidth="1"/>
-    <col min="6111" max="6111" width="16.90625" style="1" customWidth="1"/>
-    <col min="6112" max="6112" width="7.81640625" style="1" customWidth="1"/>
-    <col min="6113" max="6113" width="14.90625" style="1" customWidth="1"/>
-    <col min="6114" max="6114" width="9.1796875" style="1" customWidth="1"/>
-    <col min="6115" max="6115" width="11.1796875" style="1" customWidth="1"/>
-    <col min="6116" max="6116" width="16.1796875" style="1" customWidth="1"/>
-    <col min="6117" max="6117" width="13.08984375" style="1" customWidth="1"/>
-    <col min="6118" max="6120" width="12.81640625" style="1" customWidth="1"/>
-    <col min="6121" max="6121" width="11.90625" style="1" customWidth="1"/>
-    <col min="6122" max="6122" width="12.81640625" style="1" customWidth="1"/>
-    <col min="6123" max="6312" width="7.81640625" style="1" customWidth="1"/>
-    <col min="6313" max="6313" width="5.6328125" style="1" customWidth="1"/>
-    <col min="6314" max="6315" width="10.90625" style="1" customWidth="1"/>
-    <col min="6316" max="6316" width="9.08984375" style="1" customWidth="1"/>
-    <col min="6317" max="6318" width="8.6328125" style="1" customWidth="1"/>
-    <col min="6319" max="6319" width="24" style="1" customWidth="1"/>
-    <col min="6320" max="6320" width="17.81640625" style="1" customWidth="1"/>
-    <col min="6321" max="6322" width="12.81640625" style="1" customWidth="1"/>
-    <col min="6323" max="6323" width="20.1796875" style="1" customWidth="1"/>
-    <col min="6324" max="6359" width="8.36328125" style="1"/>
-    <col min="6360" max="6360" width="6.453125" style="1" customWidth="1"/>
-    <col min="6361" max="6363" width="8.6328125" style="1" customWidth="1"/>
-    <col min="6364" max="6364" width="21.08984375" style="1" customWidth="1"/>
-    <col min="6365" max="6365" width="25.08984375" style="1" customWidth="1"/>
-    <col min="6366" max="6366" width="14.90625" style="1" customWidth="1"/>
-    <col min="6367" max="6367" width="16.90625" style="1" customWidth="1"/>
-    <col min="6368" max="6368" width="7.81640625" style="1" customWidth="1"/>
-    <col min="6369" max="6369" width="14.90625" style="1" customWidth="1"/>
-    <col min="6370" max="6370" width="9.1796875" style="1" customWidth="1"/>
-    <col min="6371" max="6371" width="11.1796875" style="1" customWidth="1"/>
-    <col min="6372" max="6372" width="16.1796875" style="1" customWidth="1"/>
-    <col min="6373" max="6373" width="13.08984375" style="1" customWidth="1"/>
-    <col min="6374" max="6376" width="12.81640625" style="1" customWidth="1"/>
-    <col min="6377" max="6377" width="11.90625" style="1" customWidth="1"/>
-    <col min="6378" max="6378" width="12.81640625" style="1" customWidth="1"/>
-    <col min="6379" max="6568" width="7.81640625" style="1" customWidth="1"/>
-    <col min="6569" max="6569" width="5.6328125" style="1" customWidth="1"/>
-    <col min="6570" max="6571" width="10.90625" style="1" customWidth="1"/>
-    <col min="6572" max="6572" width="9.08984375" style="1" customWidth="1"/>
-    <col min="6573" max="6574" width="8.6328125" style="1" customWidth="1"/>
-    <col min="6575" max="6575" width="24" style="1" customWidth="1"/>
-    <col min="6576" max="6576" width="17.81640625" style="1" customWidth="1"/>
-    <col min="6577" max="6578" width="12.81640625" style="1" customWidth="1"/>
-    <col min="6579" max="6579" width="20.1796875" style="1" customWidth="1"/>
-    <col min="6580" max="6615" width="8.36328125" style="1"/>
-    <col min="6616" max="6616" width="6.453125" style="1" customWidth="1"/>
-    <col min="6617" max="6619" width="8.6328125" style="1" customWidth="1"/>
-    <col min="6620" max="6620" width="21.08984375" style="1" customWidth="1"/>
-    <col min="6621" max="6621" width="25.08984375" style="1" customWidth="1"/>
-    <col min="6622" max="6622" width="14.90625" style="1" customWidth="1"/>
-    <col min="6623" max="6623" width="16.90625" style="1" customWidth="1"/>
-    <col min="6624" max="6624" width="7.81640625" style="1" customWidth="1"/>
-    <col min="6625" max="6625" width="14.90625" style="1" customWidth="1"/>
-    <col min="6626" max="6626" width="9.1796875" style="1" customWidth="1"/>
-    <col min="6627" max="6627" width="11.1796875" style="1" customWidth="1"/>
-    <col min="6628" max="6628" width="16.1796875" style="1" customWidth="1"/>
-    <col min="6629" max="6629" width="13.08984375" style="1" customWidth="1"/>
-    <col min="6630" max="6632" width="12.81640625" style="1" customWidth="1"/>
-    <col min="6633" max="6633" width="11.90625" style="1" customWidth="1"/>
-    <col min="6634" max="6634" width="12.81640625" style="1" customWidth="1"/>
-    <col min="6635" max="6824" width="7.81640625" style="1" customWidth="1"/>
-    <col min="6825" max="6825" width="5.6328125" style="1" customWidth="1"/>
-    <col min="6826" max="6827" width="10.90625" style="1" customWidth="1"/>
-    <col min="6828" max="6828" width="9.08984375" style="1" customWidth="1"/>
-    <col min="6829" max="6830" width="8.6328125" style="1" customWidth="1"/>
-    <col min="6831" max="6831" width="24" style="1" customWidth="1"/>
-    <col min="6832" max="6832" width="17.81640625" style="1" customWidth="1"/>
-    <col min="6833" max="6834" width="12.81640625" style="1" customWidth="1"/>
-    <col min="6835" max="6835" width="20.1796875" style="1" customWidth="1"/>
-    <col min="6836" max="6871" width="8.36328125" style="1"/>
-    <col min="6872" max="6872" width="6.453125" style="1" customWidth="1"/>
-    <col min="6873" max="6875" width="8.6328125" style="1" customWidth="1"/>
-    <col min="6876" max="6876" width="21.08984375" style="1" customWidth="1"/>
-    <col min="6877" max="6877" width="25.08984375" style="1" customWidth="1"/>
-    <col min="6878" max="6878" width="14.90625" style="1" customWidth="1"/>
-    <col min="6879" max="6879" width="16.90625" style="1" customWidth="1"/>
-    <col min="6880" max="6880" width="7.81640625" style="1" customWidth="1"/>
-    <col min="6881" max="6881" width="14.90625" style="1" customWidth="1"/>
-    <col min="6882" max="6882" width="9.1796875" style="1" customWidth="1"/>
-    <col min="6883" max="6883" width="11.1796875" style="1" customWidth="1"/>
-    <col min="6884" max="6884" width="16.1796875" style="1" customWidth="1"/>
-    <col min="6885" max="6885" width="13.08984375" style="1" customWidth="1"/>
-    <col min="6886" max="6888" width="12.81640625" style="1" customWidth="1"/>
-    <col min="6889" max="6889" width="11.90625" style="1" customWidth="1"/>
-    <col min="6890" max="6890" width="12.81640625" style="1" customWidth="1"/>
-    <col min="6891" max="7080" width="7.81640625" style="1" customWidth="1"/>
-    <col min="7081" max="7081" width="5.6328125" style="1" customWidth="1"/>
-    <col min="7082" max="7083" width="10.90625" style="1" customWidth="1"/>
-    <col min="7084" max="7084" width="9.08984375" style="1" customWidth="1"/>
-    <col min="7085" max="7086" width="8.6328125" style="1" customWidth="1"/>
-    <col min="7087" max="7087" width="24" style="1" customWidth="1"/>
-    <col min="7088" max="7088" width="17.81640625" style="1" customWidth="1"/>
-    <col min="7089" max="7090" width="12.81640625" style="1" customWidth="1"/>
-    <col min="7091" max="7091" width="20.1796875" style="1" customWidth="1"/>
-    <col min="7092" max="7127" width="8.36328125" style="1"/>
-    <col min="7128" max="7128" width="6.453125" style="1" customWidth="1"/>
-    <col min="7129" max="7131" width="8.6328125" style="1" customWidth="1"/>
-    <col min="7132" max="7132" width="21.08984375" style="1" customWidth="1"/>
-    <col min="7133" max="7133" width="25.08984375" style="1" customWidth="1"/>
-    <col min="7134" max="7134" width="14.90625" style="1" customWidth="1"/>
-    <col min="7135" max="7135" width="16.90625" style="1" customWidth="1"/>
-    <col min="7136" max="7136" width="7.81640625" style="1" customWidth="1"/>
-    <col min="7137" max="7137" width="14.90625" style="1" customWidth="1"/>
-    <col min="7138" max="7138" width="9.1796875" style="1" customWidth="1"/>
-    <col min="7139" max="7139" width="11.1796875" style="1" customWidth="1"/>
-    <col min="7140" max="7140" width="16.1796875" style="1" customWidth="1"/>
-    <col min="7141" max="7141" width="13.08984375" style="1" customWidth="1"/>
-    <col min="7142" max="7144" width="12.81640625" style="1" customWidth="1"/>
-    <col min="7145" max="7145" width="11.90625" style="1" customWidth="1"/>
-    <col min="7146" max="7146" width="12.81640625" style="1" customWidth="1"/>
-    <col min="7147" max="7336" width="7.81640625" style="1" customWidth="1"/>
-    <col min="7337" max="7337" width="5.6328125" style="1" customWidth="1"/>
-    <col min="7338" max="7339" width="10.90625" style="1" customWidth="1"/>
-    <col min="7340" max="7340" width="9.08984375" style="1" customWidth="1"/>
-    <col min="7341" max="7342" width="8.6328125" style="1" customWidth="1"/>
-    <col min="7343" max="7343" width="24" style="1" customWidth="1"/>
-    <col min="7344" max="7344" width="17.81640625" style="1" customWidth="1"/>
-    <col min="7345" max="7346" width="12.81640625" style="1" customWidth="1"/>
-    <col min="7347" max="7347" width="20.1796875" style="1" customWidth="1"/>
-    <col min="7348" max="7383" width="8.36328125" style="1"/>
-    <col min="7384" max="7384" width="6.453125" style="1" customWidth="1"/>
-    <col min="7385" max="7387" width="8.6328125" style="1" customWidth="1"/>
-    <col min="7388" max="7388" width="21.08984375" style="1" customWidth="1"/>
-    <col min="7389" max="7389" width="25.08984375" style="1" customWidth="1"/>
-    <col min="7390" max="7390" width="14.90625" style="1" customWidth="1"/>
-    <col min="7391" max="7391" width="16.90625" style="1" customWidth="1"/>
-    <col min="7392" max="7392" width="7.81640625" style="1" customWidth="1"/>
-    <col min="7393" max="7393" width="14.90625" style="1" customWidth="1"/>
-    <col min="7394" max="7394" width="9.1796875" style="1" customWidth="1"/>
-    <col min="7395" max="7395" width="11.1796875" style="1" customWidth="1"/>
-    <col min="7396" max="7396" width="16.1796875" style="1" customWidth="1"/>
-    <col min="7397" max="7397" width="13.08984375" style="1" customWidth="1"/>
-    <col min="7398" max="7400" width="12.81640625" style="1" customWidth="1"/>
-    <col min="7401" max="7401" width="11.90625" style="1" customWidth="1"/>
-    <col min="7402" max="7402" width="12.81640625" style="1" customWidth="1"/>
-    <col min="7403" max="7592" width="7.81640625" style="1" customWidth="1"/>
-    <col min="7593" max="7593" width="5.6328125" style="1" customWidth="1"/>
-    <col min="7594" max="7595" width="10.90625" style="1" customWidth="1"/>
-    <col min="7596" max="7596" width="9.08984375" style="1" customWidth="1"/>
-    <col min="7597" max="7598" width="8.6328125" style="1" customWidth="1"/>
-    <col min="7599" max="7599" width="24" style="1" customWidth="1"/>
-    <col min="7600" max="7600" width="17.81640625" style="1" customWidth="1"/>
-    <col min="7601" max="7602" width="12.81640625" style="1" customWidth="1"/>
-    <col min="7603" max="7603" width="20.1796875" style="1" customWidth="1"/>
-    <col min="7604" max="7639" width="8.36328125" style="1"/>
-    <col min="7640" max="7640" width="6.453125" style="1" customWidth="1"/>
-    <col min="7641" max="7643" width="8.6328125" style="1" customWidth="1"/>
-    <col min="7644" max="7644" width="21.08984375" style="1" customWidth="1"/>
-    <col min="7645" max="7645" width="25.08984375" style="1" customWidth="1"/>
-    <col min="7646" max="7646" width="14.90625" style="1" customWidth="1"/>
-    <col min="7647" max="7647" width="16.90625" style="1" customWidth="1"/>
-    <col min="7648" max="7648" width="7.81640625" style="1" customWidth="1"/>
-    <col min="7649" max="7649" width="14.90625" style="1" customWidth="1"/>
-    <col min="7650" max="7650" width="9.1796875" style="1" customWidth="1"/>
-    <col min="7651" max="7651" width="11.1796875" style="1" customWidth="1"/>
-    <col min="7652" max="7652" width="16.1796875" style="1" customWidth="1"/>
-    <col min="7653" max="7653" width="13.08984375" style="1" customWidth="1"/>
-    <col min="7654" max="7656" width="12.81640625" style="1" customWidth="1"/>
-    <col min="7657" max="7657" width="11.90625" style="1" customWidth="1"/>
-    <col min="7658" max="7658" width="12.81640625" style="1" customWidth="1"/>
-    <col min="7659" max="7848" width="7.81640625" style="1" customWidth="1"/>
-    <col min="7849" max="7849" width="5.6328125" style="1" customWidth="1"/>
-    <col min="7850" max="7851" width="10.90625" style="1" customWidth="1"/>
-    <col min="7852" max="7852" width="9.08984375" style="1" customWidth="1"/>
-    <col min="7853" max="7854" width="8.6328125" style="1" customWidth="1"/>
-    <col min="7855" max="7855" width="24" style="1" customWidth="1"/>
-    <col min="7856" max="7856" width="17.81640625" style="1" customWidth="1"/>
-    <col min="7857" max="7858" width="12.81640625" style="1" customWidth="1"/>
-    <col min="7859" max="7859" width="20.1796875" style="1" customWidth="1"/>
-    <col min="7860" max="7895" width="8.36328125" style="1"/>
-    <col min="7896" max="7896" width="6.453125" style="1" customWidth="1"/>
-    <col min="7897" max="7899" width="8.6328125" style="1" customWidth="1"/>
-    <col min="7900" max="7900" width="21.08984375" style="1" customWidth="1"/>
-    <col min="7901" max="7901" width="25.08984375" style="1" customWidth="1"/>
-    <col min="7902" max="7902" width="14.90625" style="1" customWidth="1"/>
-    <col min="7903" max="7903" width="16.90625" style="1" customWidth="1"/>
-    <col min="7904" max="7904" width="7.81640625" style="1" customWidth="1"/>
-    <col min="7905" max="7905" width="14.90625" style="1" customWidth="1"/>
-    <col min="7906" max="7906" width="9.1796875" style="1" customWidth="1"/>
-    <col min="7907" max="7907" width="11.1796875" style="1" customWidth="1"/>
-    <col min="7908" max="7908" width="16.1796875" style="1" customWidth="1"/>
-    <col min="7909" max="7909" width="13.08984375" style="1" customWidth="1"/>
-    <col min="7910" max="7912" width="12.81640625" style="1" customWidth="1"/>
-    <col min="7913" max="7913" width="11.90625" style="1" customWidth="1"/>
-    <col min="7914" max="7914" width="12.81640625" style="1" customWidth="1"/>
-    <col min="7915" max="8104" width="7.81640625" style="1" customWidth="1"/>
-    <col min="8105" max="8105" width="5.6328125" style="1" customWidth="1"/>
-    <col min="8106" max="8107" width="10.90625" style="1" customWidth="1"/>
-    <col min="8108" max="8108" width="9.08984375" style="1" customWidth="1"/>
-    <col min="8109" max="8110" width="8.6328125" style="1" customWidth="1"/>
-    <col min="8111" max="8111" width="24" style="1" customWidth="1"/>
-    <col min="8112" max="8112" width="17.81640625" style="1" customWidth="1"/>
-    <col min="8113" max="8114" width="12.81640625" style="1" customWidth="1"/>
-    <col min="8115" max="8115" width="20.1796875" style="1" customWidth="1"/>
-    <col min="8116" max="8151" width="8.36328125" style="1"/>
-    <col min="8152" max="8152" width="6.453125" style="1" customWidth="1"/>
-    <col min="8153" max="8155" width="8.6328125" style="1" customWidth="1"/>
-    <col min="8156" max="8156" width="21.08984375" style="1" customWidth="1"/>
-    <col min="8157" max="8157" width="25.08984375" style="1" customWidth="1"/>
-    <col min="8158" max="8158" width="14.90625" style="1" customWidth="1"/>
-    <col min="8159" max="8159" width="16.90625" style="1" customWidth="1"/>
-    <col min="8160" max="8160" width="7.81640625" style="1" customWidth="1"/>
-    <col min="8161" max="8161" width="14.90625" style="1" customWidth="1"/>
-    <col min="8162" max="8162" width="9.1796875" style="1" customWidth="1"/>
-    <col min="8163" max="8163" width="11.1796875" style="1" customWidth="1"/>
-    <col min="8164" max="8164" width="16.1796875" style="1" customWidth="1"/>
-    <col min="8165" max="8165" width="13.08984375" style="1" customWidth="1"/>
-    <col min="8166" max="8168" width="12.81640625" style="1" customWidth="1"/>
-    <col min="8169" max="8169" width="11.90625" style="1" customWidth="1"/>
-    <col min="8170" max="8170" width="12.81640625" style="1" customWidth="1"/>
-    <col min="8171" max="8360" width="7.81640625" style="1" customWidth="1"/>
-    <col min="8361" max="8361" width="5.6328125" style="1" customWidth="1"/>
-    <col min="8362" max="8363" width="10.90625" style="1" customWidth="1"/>
-    <col min="8364" max="8364" width="9.08984375" style="1" customWidth="1"/>
-    <col min="8365" max="8366" width="8.6328125" style="1" customWidth="1"/>
-    <col min="8367" max="8367" width="24" style="1" customWidth="1"/>
-    <col min="8368" max="8368" width="17.81640625" style="1" customWidth="1"/>
-    <col min="8369" max="8370" width="12.81640625" style="1" customWidth="1"/>
-    <col min="8371" max="8371" width="20.1796875" style="1" customWidth="1"/>
-    <col min="8372" max="8407" width="8.36328125" style="1"/>
-    <col min="8408" max="8408" width="6.453125" style="1" customWidth="1"/>
-    <col min="8409" max="8411" width="8.6328125" style="1" customWidth="1"/>
-    <col min="8412" max="8412" width="21.08984375" style="1" customWidth="1"/>
-    <col min="8413" max="8413" width="25.08984375" style="1" customWidth="1"/>
-    <col min="8414" max="8414" width="14.90625" style="1" customWidth="1"/>
-    <col min="8415" max="8415" width="16.90625" style="1" customWidth="1"/>
-    <col min="8416" max="8416" width="7.81640625" style="1" customWidth="1"/>
-    <col min="8417" max="8417" width="14.90625" style="1" customWidth="1"/>
-    <col min="8418" max="8418" width="9.1796875" style="1" customWidth="1"/>
-    <col min="8419" max="8419" width="11.1796875" style="1" customWidth="1"/>
-    <col min="8420" max="8420" width="16.1796875" style="1" customWidth="1"/>
-    <col min="8421" max="8421" width="13.08984375" style="1" customWidth="1"/>
-    <col min="8422" max="8424" width="12.81640625" style="1" customWidth="1"/>
-    <col min="8425" max="8425" width="11.90625" style="1" customWidth="1"/>
-    <col min="8426" max="8426" width="12.81640625" style="1" customWidth="1"/>
-    <col min="8427" max="8616" width="7.81640625" style="1" customWidth="1"/>
-    <col min="8617" max="8617" width="5.6328125" style="1" customWidth="1"/>
-    <col min="8618" max="8619" width="10.90625" style="1" customWidth="1"/>
-    <col min="8620" max="8620" width="9.08984375" style="1" customWidth="1"/>
-    <col min="8621" max="8622" width="8.6328125" style="1" customWidth="1"/>
-    <col min="8623" max="8623" width="24" style="1" customWidth="1"/>
-    <col min="8624" max="8624" width="17.81640625" style="1" customWidth="1"/>
-    <col min="8625" max="8626" width="12.81640625" style="1" customWidth="1"/>
-    <col min="8627" max="8627" width="20.1796875" style="1" customWidth="1"/>
-    <col min="8628" max="8663" width="8.36328125" style="1"/>
-    <col min="8664" max="8664" width="6.453125" style="1" customWidth="1"/>
-    <col min="8665" max="8667" width="8.6328125" style="1" customWidth="1"/>
-    <col min="8668" max="8668" width="21.08984375" style="1" customWidth="1"/>
-    <col min="8669" max="8669" width="25.08984375" style="1" customWidth="1"/>
-    <col min="8670" max="8670" width="14.90625" style="1" customWidth="1"/>
-    <col min="8671" max="8671" width="16.90625" style="1" customWidth="1"/>
-    <col min="8672" max="8672" width="7.81640625" style="1" customWidth="1"/>
-    <col min="8673" max="8673" width="14.90625" style="1" customWidth="1"/>
-    <col min="8674" max="8674" width="9.1796875" style="1" customWidth="1"/>
-    <col min="8675" max="8675" width="11.1796875" style="1" customWidth="1"/>
-    <col min="8676" max="8676" width="16.1796875" style="1" customWidth="1"/>
-    <col min="8677" max="8677" width="13.08984375" style="1" customWidth="1"/>
-    <col min="8678" max="8680" width="12.81640625" style="1" customWidth="1"/>
-    <col min="8681" max="8681" width="11.90625" style="1" customWidth="1"/>
-    <col min="8682" max="8682" width="12.81640625" style="1" customWidth="1"/>
-    <col min="8683" max="8872" width="7.81640625" style="1" customWidth="1"/>
-    <col min="8873" max="8873" width="5.6328125" style="1" customWidth="1"/>
-    <col min="8874" max="8875" width="10.90625" style="1" customWidth="1"/>
-    <col min="8876" max="8876" width="9.08984375" style="1" customWidth="1"/>
-    <col min="8877" max="8878" width="8.6328125" style="1" customWidth="1"/>
-    <col min="8879" max="8879" width="24" style="1" customWidth="1"/>
-    <col min="8880" max="8880" width="17.81640625" style="1" customWidth="1"/>
-    <col min="8881" max="8882" width="12.81640625" style="1" customWidth="1"/>
-    <col min="8883" max="8883" width="20.1796875" style="1" customWidth="1"/>
-    <col min="8884" max="8919" width="8.36328125" style="1"/>
-    <col min="8920" max="8920" width="6.453125" style="1" customWidth="1"/>
-    <col min="8921" max="8923" width="8.6328125" style="1" customWidth="1"/>
-    <col min="8924" max="8924" width="21.08984375" style="1" customWidth="1"/>
-    <col min="8925" max="8925" width="25.08984375" style="1" customWidth="1"/>
-    <col min="8926" max="8926" width="14.90625" style="1" customWidth="1"/>
-    <col min="8927" max="8927" width="16.90625" style="1" customWidth="1"/>
-    <col min="8928" max="8928" width="7.81640625" style="1" customWidth="1"/>
-    <col min="8929" max="8929" width="14.90625" style="1" customWidth="1"/>
-    <col min="8930" max="8930" width="9.1796875" style="1" customWidth="1"/>
-    <col min="8931" max="8931" width="11.1796875" style="1" customWidth="1"/>
-    <col min="8932" max="8932" width="16.1796875" style="1" customWidth="1"/>
-    <col min="8933" max="8933" width="13.08984375" style="1" customWidth="1"/>
-    <col min="8934" max="8936" width="12.81640625" style="1" customWidth="1"/>
-    <col min="8937" max="8937" width="11.90625" style="1" customWidth="1"/>
-    <col min="8938" max="8938" width="12.81640625" style="1" customWidth="1"/>
-    <col min="8939" max="9128" width="7.81640625" style="1" customWidth="1"/>
-    <col min="9129" max="9129" width="5.6328125" style="1" customWidth="1"/>
-    <col min="9130" max="9131" width="10.90625" style="1" customWidth="1"/>
-    <col min="9132" max="9132" width="9.08984375" style="1" customWidth="1"/>
-    <col min="9133" max="9134" width="8.6328125" style="1" customWidth="1"/>
-    <col min="9135" max="9135" width="24" style="1" customWidth="1"/>
-    <col min="9136" max="9136" width="17.81640625" style="1" customWidth="1"/>
-    <col min="9137" max="9138" width="12.81640625" style="1" customWidth="1"/>
-    <col min="9139" max="9139" width="20.1796875" style="1" customWidth="1"/>
-    <col min="9140" max="9175" width="8.36328125" style="1"/>
-    <col min="9176" max="9176" width="6.453125" style="1" customWidth="1"/>
-    <col min="9177" max="9179" width="8.6328125" style="1" customWidth="1"/>
-    <col min="9180" max="9180" width="21.08984375" style="1" customWidth="1"/>
-    <col min="9181" max="9181" width="25.08984375" style="1" customWidth="1"/>
-    <col min="9182" max="9182" width="14.90625" style="1" customWidth="1"/>
-    <col min="9183" max="9183" width="16.90625" style="1" customWidth="1"/>
-    <col min="9184" max="9184" width="7.81640625" style="1" customWidth="1"/>
-    <col min="9185" max="9185" width="14.90625" style="1" customWidth="1"/>
-    <col min="9186" max="9186" width="9.1796875" style="1" customWidth="1"/>
-    <col min="9187" max="9187" width="11.1796875" style="1" customWidth="1"/>
-    <col min="9188" max="9188" width="16.1796875" style="1" customWidth="1"/>
-    <col min="9189" max="9189" width="13.08984375" style="1" customWidth="1"/>
-    <col min="9190" max="9192" width="12.81640625" style="1" customWidth="1"/>
-    <col min="9193" max="9193" width="11.90625" style="1" customWidth="1"/>
-    <col min="9194" max="9194" width="12.81640625" style="1" customWidth="1"/>
-    <col min="9195" max="9384" width="7.81640625" style="1" customWidth="1"/>
-    <col min="9385" max="9385" width="5.6328125" style="1" customWidth="1"/>
-    <col min="9386" max="9387" width="10.90625" style="1" customWidth="1"/>
-    <col min="9388" max="9388" width="9.08984375" style="1" customWidth="1"/>
-    <col min="9389" max="9390" width="8.6328125" style="1" customWidth="1"/>
-    <col min="9391" max="9391" width="24" style="1" customWidth="1"/>
-    <col min="9392" max="9392" width="17.81640625" style="1" customWidth="1"/>
-    <col min="9393" max="9394" width="12.81640625" style="1" customWidth="1"/>
-    <col min="9395" max="9395" width="20.1796875" style="1" customWidth="1"/>
-    <col min="9396" max="9431" width="8.36328125" style="1"/>
-    <col min="9432" max="9432" width="6.453125" style="1" customWidth="1"/>
-    <col min="9433" max="9435" width="8.6328125" style="1" customWidth="1"/>
-    <col min="9436" max="9436" width="21.08984375" style="1" customWidth="1"/>
-    <col min="9437" max="9437" width="25.08984375" style="1" customWidth="1"/>
-    <col min="9438" max="9438" width="14.90625" style="1" customWidth="1"/>
-    <col min="9439" max="9439" width="16.90625" style="1" customWidth="1"/>
-    <col min="9440" max="9440" width="7.81640625" style="1" customWidth="1"/>
-    <col min="9441" max="9441" width="14.90625" style="1" customWidth="1"/>
-    <col min="9442" max="9442" width="9.1796875" style="1" customWidth="1"/>
-    <col min="9443" max="9443" width="11.1796875" style="1" customWidth="1"/>
-    <col min="9444" max="9444" width="16.1796875" style="1" customWidth="1"/>
-    <col min="9445" max="9445" width="13.08984375" style="1" customWidth="1"/>
-    <col min="9446" max="9448" width="12.81640625" style="1" customWidth="1"/>
-    <col min="9449" max="9449" width="11.90625" style="1" customWidth="1"/>
-    <col min="9450" max="9450" width="12.81640625" style="1" customWidth="1"/>
-    <col min="9451" max="9640" width="7.81640625" style="1" customWidth="1"/>
-    <col min="9641" max="9641" width="5.6328125" style="1" customWidth="1"/>
-    <col min="9642" max="9643" width="10.90625" style="1" customWidth="1"/>
-    <col min="9644" max="9644" width="9.08984375" style="1" customWidth="1"/>
-    <col min="9645" max="9646" width="8.6328125" style="1" customWidth="1"/>
-    <col min="9647" max="9647" width="24" style="1" customWidth="1"/>
-    <col min="9648" max="9648" width="17.81640625" style="1" customWidth="1"/>
-    <col min="9649" max="9650" width="12.81640625" style="1" customWidth="1"/>
-    <col min="9651" max="9651" width="20.1796875" style="1" customWidth="1"/>
-    <col min="9652" max="9687" width="8.36328125" style="1"/>
-    <col min="9688" max="9688" width="6.453125" style="1" customWidth="1"/>
-    <col min="9689" max="9691" width="8.6328125" style="1" customWidth="1"/>
-    <col min="9692" max="9692" width="21.08984375" style="1" customWidth="1"/>
-    <col min="9693" max="9693" width="25.08984375" style="1" customWidth="1"/>
-    <col min="9694" max="9694" width="14.90625" style="1" customWidth="1"/>
-    <col min="9695" max="9695" width="16.90625" style="1" customWidth="1"/>
-    <col min="9696" max="9696" width="7.81640625" style="1" customWidth="1"/>
-    <col min="9697" max="9697" width="14.90625" style="1" customWidth="1"/>
-    <col min="9698" max="9698" width="9.1796875" style="1" customWidth="1"/>
-    <col min="9699" max="9699" width="11.1796875" style="1" customWidth="1"/>
-    <col min="9700" max="9700" width="16.1796875" style="1" customWidth="1"/>
-    <col min="9701" max="9701" width="13.08984375" style="1" customWidth="1"/>
-    <col min="9702" max="9704" width="12.81640625" style="1" customWidth="1"/>
-    <col min="9705" max="9705" width="11.90625" style="1" customWidth="1"/>
-    <col min="9706" max="9706" width="12.81640625" style="1" customWidth="1"/>
-    <col min="9707" max="9896" width="7.81640625" style="1" customWidth="1"/>
-    <col min="9897" max="9897" width="5.6328125" style="1" customWidth="1"/>
-    <col min="9898" max="9899" width="10.90625" style="1" customWidth="1"/>
-    <col min="9900" max="9900" width="9.08984375" style="1" customWidth="1"/>
-    <col min="9901" max="9902" width="8.6328125" style="1" customWidth="1"/>
-    <col min="9903" max="9903" width="24" style="1" customWidth="1"/>
-    <col min="9904" max="9904" width="17.81640625" style="1" customWidth="1"/>
-    <col min="9905" max="9906" width="12.81640625" style="1" customWidth="1"/>
-    <col min="9907" max="9907" width="20.1796875" style="1" customWidth="1"/>
-    <col min="9908" max="9943" width="8.36328125" style="1"/>
-    <col min="9944" max="9944" width="6.453125" style="1" customWidth="1"/>
-    <col min="9945" max="9947" width="8.6328125" style="1" customWidth="1"/>
-    <col min="9948" max="9948" width="21.08984375" style="1" customWidth="1"/>
-    <col min="9949" max="9949" width="25.08984375" style="1" customWidth="1"/>
-    <col min="9950" max="9950" width="14.90625" style="1" customWidth="1"/>
-    <col min="9951" max="9951" width="16.90625" style="1" customWidth="1"/>
-    <col min="9952" max="9952" width="7.81640625" style="1" customWidth="1"/>
-    <col min="9953" max="9953" width="14.90625" style="1" customWidth="1"/>
-    <col min="9954" max="9954" width="9.1796875" style="1" customWidth="1"/>
-    <col min="9955" max="9955" width="11.1796875" style="1" customWidth="1"/>
-    <col min="9956" max="9956" width="16.1796875" style="1" customWidth="1"/>
-    <col min="9957" max="9957" width="13.08984375" style="1" customWidth="1"/>
-    <col min="9958" max="9960" width="12.81640625" style="1" customWidth="1"/>
-    <col min="9961" max="9961" width="11.90625" style="1" customWidth="1"/>
-    <col min="9962" max="9962" width="12.81640625" style="1" customWidth="1"/>
-    <col min="9963" max="10152" width="7.81640625" style="1" customWidth="1"/>
-    <col min="10153" max="10153" width="5.6328125" style="1" customWidth="1"/>
-    <col min="10154" max="10155" width="10.90625" style="1" customWidth="1"/>
-    <col min="10156" max="10156" width="9.08984375" style="1" customWidth="1"/>
-    <col min="10157" max="10158" width="8.6328125" style="1" customWidth="1"/>
-    <col min="10159" max="10159" width="24" style="1" customWidth="1"/>
-    <col min="10160" max="10160" width="17.81640625" style="1" customWidth="1"/>
-    <col min="10161" max="10162" width="12.81640625" style="1" customWidth="1"/>
-    <col min="10163" max="10163" width="20.1796875" style="1" customWidth="1"/>
-    <col min="10164" max="10199" width="8.36328125" style="1"/>
-    <col min="10200" max="10200" width="6.453125" style="1" customWidth="1"/>
-    <col min="10201" max="10203" width="8.6328125" style="1" customWidth="1"/>
-    <col min="10204" max="10204" width="21.08984375" style="1" customWidth="1"/>
-    <col min="10205" max="10205" width="25.08984375" style="1" customWidth="1"/>
-    <col min="10206" max="10206" width="14.90625" style="1" customWidth="1"/>
-    <col min="10207" max="10207" width="16.90625" style="1" customWidth="1"/>
-    <col min="10208" max="10208" width="7.81640625" style="1" customWidth="1"/>
-    <col min="10209" max="10209" width="14.90625" style="1" customWidth="1"/>
-    <col min="10210" max="10210" width="9.1796875" style="1" customWidth="1"/>
-    <col min="10211" max="10211" width="11.1796875" style="1" customWidth="1"/>
-    <col min="10212" max="10212" width="16.1796875" style="1" customWidth="1"/>
-    <col min="10213" max="10213" width="13.08984375" style="1" customWidth="1"/>
-    <col min="10214" max="10216" width="12.81640625" style="1" customWidth="1"/>
-    <col min="10217" max="10217" width="11.90625" style="1" customWidth="1"/>
-    <col min="10218" max="10218" width="12.81640625" style="1" customWidth="1"/>
-    <col min="10219" max="10408" width="7.81640625" style="1" customWidth="1"/>
-    <col min="10409" max="10409" width="5.6328125" style="1" customWidth="1"/>
-    <col min="10410" max="10411" width="10.90625" style="1" customWidth="1"/>
-    <col min="10412" max="10412" width="9.08984375" style="1" customWidth="1"/>
-    <col min="10413" max="10414" width="8.6328125" style="1" customWidth="1"/>
-    <col min="10415" max="10415" width="24" style="1" customWidth="1"/>
-    <col min="10416" max="10416" width="17.81640625" style="1" customWidth="1"/>
-    <col min="10417" max="10418" width="12.81640625" style="1" customWidth="1"/>
-    <col min="10419" max="10419" width="20.1796875" style="1" customWidth="1"/>
-    <col min="10420" max="10455" width="8.36328125" style="1"/>
-    <col min="10456" max="10456" width="6.453125" style="1" customWidth="1"/>
-    <col min="10457" max="10459" width="8.6328125" style="1" customWidth="1"/>
-    <col min="10460" max="10460" width="21.08984375" style="1" customWidth="1"/>
-    <col min="10461" max="10461" width="25.08984375" style="1" customWidth="1"/>
-    <col min="10462" max="10462" width="14.90625" style="1" customWidth="1"/>
-    <col min="10463" max="10463" width="16.90625" style="1" customWidth="1"/>
-    <col min="10464" max="10464" width="7.81640625" style="1" customWidth="1"/>
-    <col min="10465" max="10465" width="14.90625" style="1" customWidth="1"/>
-    <col min="10466" max="10466" width="9.1796875" style="1" customWidth="1"/>
-    <col min="10467" max="10467" width="11.1796875" style="1" customWidth="1"/>
-    <col min="10468" max="10468" width="16.1796875" style="1" customWidth="1"/>
-    <col min="10469" max="10469" width="13.08984375" style="1" customWidth="1"/>
-    <col min="10470" max="10472" width="12.81640625" style="1" customWidth="1"/>
-    <col min="10473" max="10473" width="11.90625" style="1" customWidth="1"/>
-    <col min="10474" max="10474" width="12.81640625" style="1" customWidth="1"/>
-    <col min="10475" max="10664" width="7.81640625" style="1" customWidth="1"/>
-    <col min="10665" max="10665" width="5.6328125" style="1" customWidth="1"/>
-    <col min="10666" max="10667" width="10.90625" style="1" customWidth="1"/>
-    <col min="10668" max="10668" width="9.08984375" style="1" customWidth="1"/>
-    <col min="10669" max="10670" width="8.6328125" style="1" customWidth="1"/>
-    <col min="10671" max="10671" width="24" style="1" customWidth="1"/>
-    <col min="10672" max="10672" width="17.81640625" style="1" customWidth="1"/>
-    <col min="10673" max="10674" width="12.81640625" style="1" customWidth="1"/>
-    <col min="10675" max="10675" width="20.1796875" style="1" customWidth="1"/>
-    <col min="10676" max="10711" width="8.36328125" style="1"/>
-    <col min="10712" max="10712" width="6.453125" style="1" customWidth="1"/>
-    <col min="10713" max="10715" width="8.6328125" style="1" customWidth="1"/>
-    <col min="10716" max="10716" width="21.08984375" style="1" customWidth="1"/>
-    <col min="10717" max="10717" width="25.08984375" style="1" customWidth="1"/>
-    <col min="10718" max="10718" width="14.90625" style="1" customWidth="1"/>
-    <col min="10719" max="10719" width="16.90625" style="1" customWidth="1"/>
-    <col min="10720" max="10720" width="7.81640625" style="1" customWidth="1"/>
-    <col min="10721" max="10721" width="14.90625" style="1" customWidth="1"/>
-    <col min="10722" max="10722" width="9.1796875" style="1" customWidth="1"/>
-    <col min="10723" max="10723" width="11.1796875" style="1" customWidth="1"/>
-    <col min="10724" max="10724" width="16.1796875" style="1" customWidth="1"/>
-    <col min="10725" max="10725" width="13.08984375" style="1" customWidth="1"/>
-    <col min="10726" max="10728" width="12.81640625" style="1" customWidth="1"/>
-    <col min="10729" max="10729" width="11.90625" style="1" customWidth="1"/>
-    <col min="10730" max="10730" width="12.81640625" style="1" customWidth="1"/>
-    <col min="10731" max="10920" width="7.81640625" style="1" customWidth="1"/>
-    <col min="10921" max="10921" width="5.6328125" style="1" customWidth="1"/>
-    <col min="10922" max="10923" width="10.90625" style="1" customWidth="1"/>
-    <col min="10924" max="10924" width="9.08984375" style="1" customWidth="1"/>
-    <col min="10925" max="10926" width="8.6328125" style="1" customWidth="1"/>
-    <col min="10927" max="10927" width="24" style="1" customWidth="1"/>
-    <col min="10928" max="10928" width="17.81640625" style="1" customWidth="1"/>
-    <col min="10929" max="10930" width="12.81640625" style="1" customWidth="1"/>
-    <col min="10931" max="10931" width="20.1796875" style="1" customWidth="1"/>
-    <col min="10932" max="10967" width="8.36328125" style="1"/>
-    <col min="10968" max="10968" width="6.453125" style="1" customWidth="1"/>
-    <col min="10969" max="10971" width="8.6328125" style="1" customWidth="1"/>
-    <col min="10972" max="10972" width="21.08984375" style="1" customWidth="1"/>
-    <col min="10973" max="10973" width="25.08984375" style="1" customWidth="1"/>
-    <col min="10974" max="10974" width="14.90625" style="1" customWidth="1"/>
-    <col min="10975" max="10975" width="16.90625" style="1" customWidth="1"/>
-    <col min="10976" max="10976" width="7.81640625" style="1" customWidth="1"/>
-    <col min="10977" max="10977" width="14.90625" style="1" customWidth="1"/>
-    <col min="10978" max="10978" width="9.1796875" style="1" customWidth="1"/>
-    <col min="10979" max="10979" width="11.1796875" style="1" customWidth="1"/>
-    <col min="10980" max="10980" width="16.1796875" style="1" customWidth="1"/>
-    <col min="10981" max="10981" width="13.08984375" style="1" customWidth="1"/>
-    <col min="10982" max="10984" width="12.81640625" style="1" customWidth="1"/>
-    <col min="10985" max="10985" width="11.90625" style="1" customWidth="1"/>
-    <col min="10986" max="10986" width="12.81640625" style="1" customWidth="1"/>
-    <col min="10987" max="11176" width="7.81640625" style="1" customWidth="1"/>
-    <col min="11177" max="11177" width="5.6328125" style="1" customWidth="1"/>
-    <col min="11178" max="11179" width="10.90625" style="1" customWidth="1"/>
-    <col min="11180" max="11180" width="9.08984375" style="1" customWidth="1"/>
-    <col min="11181" max="11182" width="8.6328125" style="1" customWidth="1"/>
-    <col min="11183" max="11183" width="24" style="1" customWidth="1"/>
-    <col min="11184" max="11184" width="17.81640625" style="1" customWidth="1"/>
-    <col min="11185" max="11186" width="12.81640625" style="1" customWidth="1"/>
-    <col min="11187" max="11187" width="20.1796875" style="1" customWidth="1"/>
-    <col min="11188" max="11223" width="8.36328125" style="1"/>
-    <col min="11224" max="11224" width="6.453125" style="1" customWidth="1"/>
-    <col min="11225" max="11227" width="8.6328125" style="1" customWidth="1"/>
-    <col min="11228" max="11228" width="21.08984375" style="1" customWidth="1"/>
-    <col min="11229" max="11229" width="25.08984375" style="1" customWidth="1"/>
-    <col min="11230" max="11230" width="14.90625" style="1" customWidth="1"/>
-    <col min="11231" max="11231" width="16.90625" style="1" customWidth="1"/>
-    <col min="11232" max="11232" width="7.81640625" style="1" customWidth="1"/>
-    <col min="11233" max="11233" width="14.90625" style="1" customWidth="1"/>
-    <col min="11234" max="11234" width="9.1796875" style="1" customWidth="1"/>
-    <col min="11235" max="11235" width="11.1796875" style="1" customWidth="1"/>
-    <col min="11236" max="11236" width="16.1796875" style="1" customWidth="1"/>
-    <col min="11237" max="11237" width="13.08984375" style="1" customWidth="1"/>
-    <col min="11238" max="11240" width="12.81640625" style="1" customWidth="1"/>
-    <col min="11241" max="11241" width="11.90625" style="1" customWidth="1"/>
-    <col min="11242" max="11242" width="12.81640625" style="1" customWidth="1"/>
-    <col min="11243" max="11432" width="7.81640625" style="1" customWidth="1"/>
-    <col min="11433" max="11433" width="5.6328125" style="1" customWidth="1"/>
-    <col min="11434" max="11435" width="10.90625" style="1" customWidth="1"/>
-    <col min="11436" max="11436" width="9.08984375" style="1" customWidth="1"/>
-    <col min="11437" max="11438" width="8.6328125" style="1" customWidth="1"/>
-    <col min="11439" max="11439" width="24" style="1" customWidth="1"/>
-    <col min="11440" max="11440" width="17.81640625" style="1" customWidth="1"/>
-    <col min="11441" max="11442" width="12.81640625" style="1" customWidth="1"/>
-    <col min="11443" max="11443" width="20.1796875" style="1" customWidth="1"/>
-    <col min="11444" max="11479" width="8.36328125" style="1"/>
-    <col min="11480" max="11480" width="6.453125" style="1" customWidth="1"/>
-    <col min="11481" max="11483" width="8.6328125" style="1" customWidth="1"/>
-    <col min="11484" max="11484" width="21.08984375" style="1" customWidth="1"/>
-    <col min="11485" max="11485" width="25.08984375" style="1" customWidth="1"/>
-    <col min="11486" max="11486" width="14.90625" style="1" customWidth="1"/>
-    <col min="11487" max="11487" width="16.90625" style="1" customWidth="1"/>
-    <col min="11488" max="11488" width="7.81640625" style="1" customWidth="1"/>
-    <col min="11489" max="11489" width="14.90625" style="1" customWidth="1"/>
-    <col min="11490" max="11490" width="9.1796875" style="1" customWidth="1"/>
-    <col min="11491" max="11491" width="11.1796875" style="1" customWidth="1"/>
-    <col min="11492" max="11492" width="16.1796875" style="1" customWidth="1"/>
-    <col min="11493" max="11493" width="13.08984375" style="1" customWidth="1"/>
-    <col min="11494" max="11496" width="12.81640625" style="1" customWidth="1"/>
-    <col min="11497" max="11497" width="11.90625" style="1" customWidth="1"/>
-    <col min="11498" max="11498" width="12.81640625" style="1" customWidth="1"/>
-    <col min="11499" max="11688" width="7.81640625" style="1" customWidth="1"/>
-    <col min="11689" max="11689" width="5.6328125" style="1" customWidth="1"/>
-    <col min="11690" max="11691" width="10.90625" style="1" customWidth="1"/>
-    <col min="11692" max="11692" width="9.08984375" style="1" customWidth="1"/>
-    <col min="11693" max="11694" width="8.6328125" style="1" customWidth="1"/>
-    <col min="11695" max="11695" width="24" style="1" customWidth="1"/>
-    <col min="11696" max="11696" width="17.81640625" style="1" customWidth="1"/>
-    <col min="11697" max="11698" width="12.81640625" style="1" customWidth="1"/>
-    <col min="11699" max="11699" width="20.1796875" style="1" customWidth="1"/>
-    <col min="11700" max="11735" width="8.36328125" style="1"/>
-    <col min="11736" max="11736" width="6.453125" style="1" customWidth="1"/>
-    <col min="11737" max="11739" width="8.6328125" style="1" customWidth="1"/>
-    <col min="11740" max="11740" width="21.08984375" style="1" customWidth="1"/>
-    <col min="11741" max="11741" width="25.08984375" style="1" customWidth="1"/>
-    <col min="11742" max="11742" width="14.90625" style="1" customWidth="1"/>
-    <col min="11743" max="11743" width="16.90625" style="1" customWidth="1"/>
-    <col min="11744" max="11744" width="7.81640625" style="1" customWidth="1"/>
-    <col min="11745" max="11745" width="14.90625" style="1" customWidth="1"/>
-    <col min="11746" max="11746" width="9.1796875" style="1" customWidth="1"/>
-    <col min="11747" max="11747" width="11.1796875" style="1" customWidth="1"/>
-    <col min="11748" max="11748" width="16.1796875" style="1" customWidth="1"/>
-    <col min="11749" max="11749" width="13.08984375" style="1" customWidth="1"/>
-    <col min="11750" max="11752" width="12.81640625" style="1" customWidth="1"/>
-    <col min="11753" max="11753" width="11.90625" style="1" customWidth="1"/>
-    <col min="11754" max="11754" width="12.81640625" style="1" customWidth="1"/>
-    <col min="11755" max="11944" width="7.81640625" style="1" customWidth="1"/>
-    <col min="11945" max="11945" width="5.6328125" style="1" customWidth="1"/>
-    <col min="11946" max="11947" width="10.90625" style="1" customWidth="1"/>
-    <col min="11948" max="11948" width="9.08984375" style="1" customWidth="1"/>
-    <col min="11949" max="11950" width="8.6328125" style="1" customWidth="1"/>
-    <col min="11951" max="11951" width="24" style="1" customWidth="1"/>
-    <col min="11952" max="11952" width="17.81640625" style="1" customWidth="1"/>
-    <col min="11953" max="11954" width="12.81640625" style="1" customWidth="1"/>
-    <col min="11955" max="11955" width="20.1796875" style="1" customWidth="1"/>
-    <col min="11956" max="11991" width="8.36328125" style="1"/>
-    <col min="11992" max="11992" width="6.453125" style="1" customWidth="1"/>
-    <col min="11993" max="11995" width="8.6328125" style="1" customWidth="1"/>
-    <col min="11996" max="11996" width="21.08984375" style="1" customWidth="1"/>
-    <col min="11997" max="11997" width="25.08984375" style="1" customWidth="1"/>
-    <col min="11998" max="11998" width="14.90625" style="1" customWidth="1"/>
-    <col min="11999" max="11999" width="16.90625" style="1" customWidth="1"/>
-    <col min="12000" max="12000" width="7.81640625" style="1" customWidth="1"/>
-    <col min="12001" max="12001" width="14.90625" style="1" customWidth="1"/>
-    <col min="12002" max="12002" width="9.1796875" style="1" customWidth="1"/>
-    <col min="12003" max="12003" width="11.1796875" style="1" customWidth="1"/>
-    <col min="12004" max="12004" width="16.1796875" style="1" customWidth="1"/>
-    <col min="12005" max="12005" width="13.08984375" style="1" customWidth="1"/>
-    <col min="12006" max="12008" width="12.81640625" style="1" customWidth="1"/>
-    <col min="12009" max="12009" width="11.90625" style="1" customWidth="1"/>
-    <col min="12010" max="12010" width="12.81640625" style="1" customWidth="1"/>
-    <col min="12011" max="12200" width="7.81640625" style="1" customWidth="1"/>
-    <col min="12201" max="12201" width="5.6328125" style="1" customWidth="1"/>
-    <col min="12202" max="12203" width="10.90625" style="1" customWidth="1"/>
-    <col min="12204" max="12204" width="9.08984375" style="1" customWidth="1"/>
-    <col min="12205" max="12206" width="8.6328125" style="1" customWidth="1"/>
-    <col min="12207" max="12207" width="24" style="1" customWidth="1"/>
-    <col min="12208" max="12208" width="17.81640625" style="1" customWidth="1"/>
-    <col min="12209" max="12210" width="12.81640625" style="1" customWidth="1"/>
-    <col min="12211" max="12211" width="20.1796875" style="1" customWidth="1"/>
-    <col min="12212" max="12247" width="8.36328125" style="1"/>
-    <col min="12248" max="12248" width="6.453125" style="1" customWidth="1"/>
-    <col min="12249" max="12251" width="8.6328125" style="1" customWidth="1"/>
-    <col min="12252" max="12252" width="21.08984375" style="1" customWidth="1"/>
-    <col min="12253" max="12253" width="25.08984375" style="1" customWidth="1"/>
-    <col min="12254" max="12254" width="14.90625" style="1" customWidth="1"/>
-    <col min="12255" max="12255" width="16.90625" style="1" customWidth="1"/>
-    <col min="12256" max="12256" width="7.81640625" style="1" customWidth="1"/>
-    <col min="12257" max="12257" width="14.90625" style="1" customWidth="1"/>
-    <col min="12258" max="12258" width="9.1796875" style="1" customWidth="1"/>
-    <col min="12259" max="12259" width="11.1796875" style="1" customWidth="1"/>
-    <col min="12260" max="12260" width="16.1796875" style="1" customWidth="1"/>
-    <col min="12261" max="12261" width="13.08984375" style="1" customWidth="1"/>
-    <col min="12262" max="12264" width="12.81640625" style="1" customWidth="1"/>
-    <col min="12265" max="12265" width="11.90625" style="1" customWidth="1"/>
-    <col min="12266" max="12266" width="12.81640625" style="1" customWidth="1"/>
-    <col min="12267" max="12456" width="7.81640625" style="1" customWidth="1"/>
-    <col min="12457" max="12457" width="5.6328125" style="1" customWidth="1"/>
-    <col min="12458" max="12459" width="10.90625" style="1" customWidth="1"/>
-    <col min="12460" max="12460" width="9.08984375" style="1" customWidth="1"/>
-    <col min="12461" max="12462" width="8.6328125" style="1" customWidth="1"/>
-    <col min="12463" max="12463" width="24" style="1" customWidth="1"/>
-    <col min="12464" max="12464" width="17.81640625" style="1" customWidth="1"/>
-    <col min="12465" max="12466" width="12.81640625" style="1" customWidth="1"/>
-    <col min="12467" max="12467" width="20.1796875" style="1" customWidth="1"/>
-    <col min="12468" max="12503" width="8.36328125" style="1"/>
-    <col min="12504" max="12504" width="6.453125" style="1" customWidth="1"/>
-    <col min="12505" max="12507" width="8.6328125" style="1" customWidth="1"/>
-    <col min="12508" max="12508" width="21.08984375" style="1" customWidth="1"/>
-    <col min="12509" max="12509" width="25.08984375" style="1" customWidth="1"/>
-    <col min="12510" max="12510" width="14.90625" style="1" customWidth="1"/>
-    <col min="12511" max="12511" width="16.90625" style="1" customWidth="1"/>
-    <col min="12512" max="12512" width="7.81640625" style="1" customWidth="1"/>
-    <col min="12513" max="12513" width="14.90625" style="1" customWidth="1"/>
-    <col min="12514" max="12514" width="9.1796875" style="1" customWidth="1"/>
-    <col min="12515" max="12515" width="11.1796875" style="1" customWidth="1"/>
-    <col min="12516" max="12516" width="16.1796875" style="1" customWidth="1"/>
-    <col min="12517" max="12517" width="13.08984375" style="1" customWidth="1"/>
-    <col min="12518" max="12520" width="12.81640625" style="1" customWidth="1"/>
-    <col min="12521" max="12521" width="11.90625" style="1" customWidth="1"/>
-    <col min="12522" max="12522" width="12.81640625" style="1" customWidth="1"/>
-    <col min="12523" max="12712" width="7.81640625" style="1" customWidth="1"/>
-    <col min="12713" max="12713" width="5.6328125" style="1" customWidth="1"/>
-    <col min="12714" max="12715" width="10.90625" style="1" customWidth="1"/>
-    <col min="12716" max="12716" width="9.08984375" style="1" customWidth="1"/>
-    <col min="12717" max="12718" width="8.6328125" style="1" customWidth="1"/>
-    <col min="12719" max="12719" width="24" style="1" customWidth="1"/>
-    <col min="12720" max="12720" width="17.81640625" style="1" customWidth="1"/>
-    <col min="12721" max="12722" width="12.81640625" style="1" customWidth="1"/>
-    <col min="12723" max="12723" width="20.1796875" style="1" customWidth="1"/>
-    <col min="12724" max="12759" width="8.36328125" style="1"/>
-    <col min="12760" max="12760" width="6.453125" style="1" customWidth="1"/>
-    <col min="12761" max="12763" width="8.6328125" style="1" customWidth="1"/>
-    <col min="12764" max="12764" width="21.08984375" style="1" customWidth="1"/>
-    <col min="12765" max="12765" width="25.08984375" style="1" customWidth="1"/>
-    <col min="12766" max="12766" width="14.90625" style="1" customWidth="1"/>
-    <col min="12767" max="12767" width="16.90625" style="1" customWidth="1"/>
-    <col min="12768" max="12768" width="7.81640625" style="1" customWidth="1"/>
-    <col min="12769" max="12769" width="14.90625" style="1" customWidth="1"/>
-    <col min="12770" max="12770" width="9.1796875" style="1" customWidth="1"/>
-    <col min="12771" max="12771" width="11.1796875" style="1" customWidth="1"/>
-    <col min="12772" max="12772" width="16.1796875" style="1" customWidth="1"/>
-    <col min="12773" max="12773" width="13.08984375" style="1" customWidth="1"/>
-    <col min="12774" max="12776" width="12.81640625" style="1" customWidth="1"/>
-    <col min="12777" max="12777" width="11.90625" style="1" customWidth="1"/>
-    <col min="12778" max="12778" width="12.81640625" style="1" customWidth="1"/>
-    <col min="12779" max="12968" width="7.81640625" style="1" customWidth="1"/>
-    <col min="12969" max="12969" width="5.6328125" style="1" customWidth="1"/>
-    <col min="12970" max="12971" width="10.90625" style="1" customWidth="1"/>
-    <col min="12972" max="12972" width="9.08984375" style="1" customWidth="1"/>
-    <col min="12973" max="12974" width="8.6328125" style="1" customWidth="1"/>
-    <col min="12975" max="12975" width="24" style="1" customWidth="1"/>
-    <col min="12976" max="12976" width="17.81640625" style="1" customWidth="1"/>
-    <col min="12977" max="12978" width="12.81640625" style="1" customWidth="1"/>
-    <col min="12979" max="12979" width="20.1796875" style="1" customWidth="1"/>
-    <col min="12980" max="13015" width="8.36328125" style="1"/>
-    <col min="13016" max="13016" width="6.453125" style="1" customWidth="1"/>
-    <col min="13017" max="13019" width="8.6328125" style="1" customWidth="1"/>
-    <col min="13020" max="13020" width="21.08984375" style="1" customWidth="1"/>
-    <col min="13021" max="13021" width="25.08984375" style="1" customWidth="1"/>
-    <col min="13022" max="13022" width="14.90625" style="1" customWidth="1"/>
-    <col min="13023" max="13023" width="16.90625" style="1" customWidth="1"/>
-    <col min="13024" max="13024" width="7.81640625" style="1" customWidth="1"/>
-    <col min="13025" max="13025" width="14.90625" style="1" customWidth="1"/>
-    <col min="13026" max="13026" width="9.1796875" style="1" customWidth="1"/>
-    <col min="13027" max="13027" width="11.1796875" style="1" customWidth="1"/>
-    <col min="13028" max="13028" width="16.1796875" style="1" customWidth="1"/>
-    <col min="13029" max="13029" width="13.08984375" style="1" customWidth="1"/>
-    <col min="13030" max="13032" width="12.81640625" style="1" customWidth="1"/>
-    <col min="13033" max="13033" width="11.90625" style="1" customWidth="1"/>
-    <col min="13034" max="13034" width="12.81640625" style="1" customWidth="1"/>
-    <col min="13035" max="13224" width="7.81640625" style="1" customWidth="1"/>
-    <col min="13225" max="13225" width="5.6328125" style="1" customWidth="1"/>
-    <col min="13226" max="13227" width="10.90625" style="1" customWidth="1"/>
-    <col min="13228" max="13228" width="9.08984375" style="1" customWidth="1"/>
-    <col min="13229" max="13230" width="8.6328125" style="1" customWidth="1"/>
-    <col min="13231" max="13231" width="24" style="1" customWidth="1"/>
-    <col min="13232" max="13232" width="17.81640625" style="1" customWidth="1"/>
-    <col min="13233" max="13234" width="12.81640625" style="1" customWidth="1"/>
-    <col min="13235" max="13235" width="20.1796875" style="1" customWidth="1"/>
-    <col min="13236" max="13271" width="8.36328125" style="1"/>
-    <col min="13272" max="13272" width="6.453125" style="1" customWidth="1"/>
-    <col min="13273" max="13275" width="8.6328125" style="1" customWidth="1"/>
-    <col min="13276" max="13276" width="21.08984375" style="1" customWidth="1"/>
-    <col min="13277" max="13277" width="25.08984375" style="1" customWidth="1"/>
-    <col min="13278" max="13278" width="14.90625" style="1" customWidth="1"/>
-    <col min="13279" max="13279" width="16.90625" style="1" customWidth="1"/>
-    <col min="13280" max="13280" width="7.81640625" style="1" customWidth="1"/>
-    <col min="13281" max="13281" width="14.90625" style="1" customWidth="1"/>
-    <col min="13282" max="13282" width="9.1796875" style="1" customWidth="1"/>
-    <col min="13283" max="13283" width="11.1796875" style="1" customWidth="1"/>
-    <col min="13284" max="13284" width="16.1796875" style="1" customWidth="1"/>
-    <col min="13285" max="13285" width="13.08984375" style="1" customWidth="1"/>
-    <col min="13286" max="13288" width="12.81640625" style="1" customWidth="1"/>
-    <col min="13289" max="13289" width="11.90625" style="1" customWidth="1"/>
-    <col min="13290" max="13290" width="12.81640625" style="1" customWidth="1"/>
-    <col min="13291" max="13480" width="7.81640625" style="1" customWidth="1"/>
-    <col min="13481" max="13481" width="5.6328125" style="1" customWidth="1"/>
-    <col min="13482" max="13483" width="10.90625" style="1" customWidth="1"/>
-    <col min="13484" max="13484" width="9.08984375" style="1" customWidth="1"/>
-    <col min="13485" max="13486" width="8.6328125" style="1" customWidth="1"/>
-    <col min="13487" max="13487" width="24" style="1" customWidth="1"/>
-    <col min="13488" max="13488" width="17.81640625" style="1" customWidth="1"/>
-    <col min="13489" max="13490" width="12.81640625" style="1" customWidth="1"/>
-    <col min="13491" max="13491" width="20.1796875" style="1" customWidth="1"/>
-    <col min="13492" max="13527" width="8.36328125" style="1"/>
-    <col min="13528" max="13528" width="6.453125" style="1" customWidth="1"/>
-    <col min="13529" max="13531" width="8.6328125" style="1" customWidth="1"/>
-    <col min="13532" max="13532" width="21.08984375" style="1" customWidth="1"/>
-    <col min="13533" max="13533" width="25.08984375" style="1" customWidth="1"/>
-    <col min="13534" max="13534" width="14.90625" style="1" customWidth="1"/>
-    <col min="13535" max="13535" width="16.90625" style="1" customWidth="1"/>
-    <col min="13536" max="13536" width="7.81640625" style="1" customWidth="1"/>
-    <col min="13537" max="13537" width="14.90625" style="1" customWidth="1"/>
-    <col min="13538" max="13538" width="9.1796875" style="1" customWidth="1"/>
-    <col min="13539" max="13539" width="11.1796875" style="1" customWidth="1"/>
-    <col min="13540" max="13540" width="16.1796875" style="1" customWidth="1"/>
-    <col min="13541" max="13541" width="13.08984375" style="1" customWidth="1"/>
-    <col min="13542" max="13544" width="12.81640625" style="1" customWidth="1"/>
-    <col min="13545" max="13545" width="11.90625" style="1" customWidth="1"/>
-    <col min="13546" max="13546" width="12.81640625" style="1" customWidth="1"/>
-    <col min="13547" max="13736" width="7.81640625" style="1" customWidth="1"/>
-    <col min="13737" max="13737" width="5.6328125" style="1" customWidth="1"/>
-    <col min="13738" max="13739" width="10.90625" style="1" customWidth="1"/>
-    <col min="13740" max="13740" width="9.08984375" style="1" customWidth="1"/>
-    <col min="13741" max="13742" width="8.6328125" style="1" customWidth="1"/>
-    <col min="13743" max="13743" width="24" style="1" customWidth="1"/>
-    <col min="13744" max="13744" width="17.81640625" style="1" customWidth="1"/>
-    <col min="13745" max="13746" width="12.81640625" style="1" customWidth="1"/>
-    <col min="13747" max="13747" width="20.1796875" style="1" customWidth="1"/>
-    <col min="13748" max="13783" width="8.36328125" style="1"/>
-    <col min="13784" max="13784" width="6.453125" style="1" customWidth="1"/>
-    <col min="13785" max="13787" width="8.6328125" style="1" customWidth="1"/>
-    <col min="13788" max="13788" width="21.08984375" style="1" customWidth="1"/>
-    <col min="13789" max="13789" width="25.08984375" style="1" customWidth="1"/>
-    <col min="13790" max="13790" width="14.90625" style="1" customWidth="1"/>
-    <col min="13791" max="13791" width="16.90625" style="1" customWidth="1"/>
-    <col min="13792" max="13792" width="7.81640625" style="1" customWidth="1"/>
-    <col min="13793" max="13793" width="14.90625" style="1" customWidth="1"/>
-    <col min="13794" max="13794" width="9.1796875" style="1" customWidth="1"/>
-    <col min="13795" max="13795" width="11.1796875" style="1" customWidth="1"/>
-    <col min="13796" max="13796" width="16.1796875" style="1" customWidth="1"/>
-    <col min="13797" max="13797" width="13.08984375" style="1" customWidth="1"/>
-    <col min="13798" max="13800" width="12.81640625" style="1" customWidth="1"/>
-    <col min="13801" max="13801" width="11.90625" style="1" customWidth="1"/>
-    <col min="13802" max="13802" width="12.81640625" style="1" customWidth="1"/>
-    <col min="13803" max="13992" width="7.81640625" style="1" customWidth="1"/>
-    <col min="13993" max="13993" width="5.6328125" style="1" customWidth="1"/>
-    <col min="13994" max="13995" width="10.90625" style="1" customWidth="1"/>
-    <col min="13996" max="13996" width="9.08984375" style="1" customWidth="1"/>
-    <col min="13997" max="13998" width="8.6328125" style="1" customWidth="1"/>
-    <col min="13999" max="13999" width="24" style="1" customWidth="1"/>
-    <col min="14000" max="14000" width="17.81640625" style="1" customWidth="1"/>
-    <col min="14001" max="14002" width="12.81640625" style="1" customWidth="1"/>
-    <col min="14003" max="14003" width="20.1796875" style="1" customWidth="1"/>
-    <col min="14004" max="14039" width="8.36328125" style="1"/>
-    <col min="14040" max="14040" width="6.453125" style="1" customWidth="1"/>
-    <col min="14041" max="14043" width="8.6328125" style="1" customWidth="1"/>
-    <col min="14044" max="14044" width="21.08984375" style="1" customWidth="1"/>
-    <col min="14045" max="14045" width="25.08984375" style="1" customWidth="1"/>
-    <col min="14046" max="14046" width="14.90625" style="1" customWidth="1"/>
-    <col min="14047" max="14047" width="16.90625" style="1" customWidth="1"/>
-    <col min="14048" max="14048" width="7.81640625" style="1" customWidth="1"/>
-    <col min="14049" max="14049" width="14.90625" style="1" customWidth="1"/>
-    <col min="14050" max="14050" width="9.1796875" style="1" customWidth="1"/>
-    <col min="14051" max="14051" width="11.1796875" style="1" customWidth="1"/>
-    <col min="14052" max="14052" width="16.1796875" style="1" customWidth="1"/>
-    <col min="14053" max="14053" width="13.08984375" style="1" customWidth="1"/>
-    <col min="14054" max="14056" width="12.81640625" style="1" customWidth="1"/>
-    <col min="14057" max="14057" width="11.90625" style="1" customWidth="1"/>
-    <col min="14058" max="14058" width="12.81640625" style="1" customWidth="1"/>
-    <col min="14059" max="14248" width="7.81640625" style="1" customWidth="1"/>
-    <col min="14249" max="14249" width="5.6328125" style="1" customWidth="1"/>
-    <col min="14250" max="14251" width="10.90625" style="1" customWidth="1"/>
-    <col min="14252" max="14252" width="9.08984375" style="1" customWidth="1"/>
-    <col min="14253" max="14254" width="8.6328125" style="1" customWidth="1"/>
-    <col min="14255" max="14255" width="24" style="1" customWidth="1"/>
-    <col min="14256" max="14256" width="17.81640625" style="1" customWidth="1"/>
-    <col min="14257" max="14258" width="12.81640625" style="1" customWidth="1"/>
-    <col min="14259" max="14259" width="20.1796875" style="1" customWidth="1"/>
-    <col min="14260" max="14295" width="8.36328125" style="1"/>
-    <col min="14296" max="14296" width="6.453125" style="1" customWidth="1"/>
-    <col min="14297" max="14299" width="8.6328125" style="1" customWidth="1"/>
-    <col min="14300" max="14300" width="21.08984375" style="1" customWidth="1"/>
-    <col min="14301" max="14301" width="25.08984375" style="1" customWidth="1"/>
-    <col min="14302" max="14302" width="14.90625" style="1" customWidth="1"/>
-    <col min="14303" max="14303" width="16.90625" style="1" customWidth="1"/>
-    <col min="14304" max="14304" width="7.81640625" style="1" customWidth="1"/>
-    <col min="14305" max="14305" width="14.90625" style="1" customWidth="1"/>
-    <col min="14306" max="14306" width="9.1796875" style="1" customWidth="1"/>
-    <col min="14307" max="14307" width="11.1796875" style="1" customWidth="1"/>
-    <col min="14308" max="14308" width="16.1796875" style="1" customWidth="1"/>
-    <col min="14309" max="14309" width="13.08984375" style="1" customWidth="1"/>
-    <col min="14310" max="14312" width="12.81640625" style="1" customWidth="1"/>
-    <col min="14313" max="14313" width="11.90625" style="1" customWidth="1"/>
-    <col min="14314" max="14314" width="12.81640625" style="1" customWidth="1"/>
-    <col min="14315" max="14504" width="7.81640625" style="1" customWidth="1"/>
-    <col min="14505" max="14505" width="5.6328125" style="1" customWidth="1"/>
-    <col min="14506" max="14507" width="10.90625" style="1" customWidth="1"/>
-    <col min="14508" max="14508" width="9.08984375" style="1" customWidth="1"/>
-    <col min="14509" max="14510" width="8.6328125" style="1" customWidth="1"/>
-    <col min="14511" max="14511" width="24" style="1" customWidth="1"/>
-    <col min="14512" max="14512" width="17.81640625" style="1" customWidth="1"/>
-    <col min="14513" max="14514" width="12.81640625" style="1" customWidth="1"/>
-    <col min="14515" max="14515" width="20.1796875" style="1" customWidth="1"/>
-    <col min="14516" max="14551" width="8.36328125" style="1"/>
-    <col min="14552" max="14552" width="6.453125" style="1" customWidth="1"/>
-    <col min="14553" max="14555" width="8.6328125" style="1" customWidth="1"/>
-    <col min="14556" max="14556" width="21.08984375" style="1" customWidth="1"/>
-    <col min="14557" max="14557" width="25.08984375" style="1" customWidth="1"/>
-    <col min="14558" max="14558" width="14.90625" style="1" customWidth="1"/>
-    <col min="14559" max="14559" width="16.90625" style="1" customWidth="1"/>
-    <col min="14560" max="14560" width="7.81640625" style="1" customWidth="1"/>
-    <col min="14561" max="14561" width="14.90625" style="1" customWidth="1"/>
-    <col min="14562" max="14562" width="9.1796875" style="1" customWidth="1"/>
-    <col min="14563" max="14563" width="11.1796875" style="1" customWidth="1"/>
-    <col min="14564" max="14564" width="16.1796875" style="1" customWidth="1"/>
-    <col min="14565" max="14565" width="13.08984375" style="1" customWidth="1"/>
-    <col min="14566" max="14568" width="12.81640625" style="1" customWidth="1"/>
-    <col min="14569" max="14569" width="11.90625" style="1" customWidth="1"/>
-    <col min="14570" max="14570" width="12.81640625" style="1" customWidth="1"/>
-    <col min="14571" max="14760" width="7.81640625" style="1" customWidth="1"/>
-    <col min="14761" max="14761" width="5.6328125" style="1" customWidth="1"/>
-    <col min="14762" max="14763" width="10.90625" style="1" customWidth="1"/>
-    <col min="14764" max="14764" width="9.08984375" style="1" customWidth="1"/>
-    <col min="14765" max="14766" width="8.6328125" style="1" customWidth="1"/>
-    <col min="14767" max="14767" width="24" style="1" customWidth="1"/>
-    <col min="14768" max="14768" width="17.81640625" style="1" customWidth="1"/>
-    <col min="14769" max="14770" width="12.81640625" style="1" customWidth="1"/>
-    <col min="14771" max="14771" width="20.1796875" style="1" customWidth="1"/>
-    <col min="14772" max="14807" width="8.36328125" style="1"/>
-    <col min="14808" max="14808" width="6.453125" style="1" customWidth="1"/>
-    <col min="14809" max="14811" width="8.6328125" style="1" customWidth="1"/>
-    <col min="14812" max="14812" width="21.08984375" style="1" customWidth="1"/>
-    <col min="14813" max="14813" width="25.08984375" style="1" customWidth="1"/>
-    <col min="14814" max="14814" width="14.90625" style="1" customWidth="1"/>
-    <col min="14815" max="14815" width="16.90625" style="1" customWidth="1"/>
-    <col min="14816" max="14816" width="7.81640625" style="1" customWidth="1"/>
-    <col min="14817" max="14817" width="14.90625" style="1" customWidth="1"/>
-    <col min="14818" max="14818" width="9.1796875" style="1" customWidth="1"/>
-    <col min="14819" max="14819" width="11.1796875" style="1" customWidth="1"/>
-    <col min="14820" max="14820" width="16.1796875" style="1" customWidth="1"/>
-    <col min="14821" max="14821" width="13.08984375" style="1" customWidth="1"/>
-    <col min="14822" max="14824" width="12.81640625" style="1" customWidth="1"/>
-    <col min="14825" max="14825" width="11.90625" style="1" customWidth="1"/>
-    <col min="14826" max="14826" width="12.81640625" style="1" customWidth="1"/>
-    <col min="14827" max="15016" width="7.81640625" style="1" customWidth="1"/>
-    <col min="15017" max="15017" width="5.6328125" style="1" customWidth="1"/>
-    <col min="15018" max="15019" width="10.90625" style="1" customWidth="1"/>
-    <col min="15020" max="15020" width="9.08984375" style="1" customWidth="1"/>
-    <col min="15021" max="15022" width="8.6328125" style="1" customWidth="1"/>
-    <col min="15023" max="15023" width="24" style="1" customWidth="1"/>
-    <col min="15024" max="15024" width="17.81640625" style="1" customWidth="1"/>
-    <col min="15025" max="15026" width="12.81640625" style="1" customWidth="1"/>
-    <col min="15027" max="15027" width="20.1796875" style="1" customWidth="1"/>
-    <col min="15028" max="15063" width="8.36328125" style="1"/>
-    <col min="15064" max="15064" width="6.453125" style="1" customWidth="1"/>
-    <col min="15065" max="15067" width="8.6328125" style="1" customWidth="1"/>
-    <col min="15068" max="15068" width="21.08984375" style="1" customWidth="1"/>
-    <col min="15069" max="15069" width="25.08984375" style="1" customWidth="1"/>
-    <col min="15070" max="15070" width="14.90625" style="1" customWidth="1"/>
-    <col min="15071" max="15071" width="16.90625" style="1" customWidth="1"/>
-    <col min="15072" max="15072" width="7.81640625" style="1" customWidth="1"/>
-    <col min="15073" max="15073" width="14.90625" style="1" customWidth="1"/>
-    <col min="15074" max="15074" width="9.1796875" style="1" customWidth="1"/>
-    <col min="15075" max="15075" width="11.1796875" style="1" customWidth="1"/>
-    <col min="15076" max="15076" width="16.1796875" style="1" customWidth="1"/>
-    <col min="15077" max="15077" width="13.08984375" style="1" customWidth="1"/>
-    <col min="15078" max="15080" width="12.81640625" style="1" customWidth="1"/>
-    <col min="15081" max="15081" width="11.90625" style="1" customWidth="1"/>
-    <col min="15082" max="15082" width="12.81640625" style="1" customWidth="1"/>
-    <col min="15083" max="15272" width="7.81640625" style="1" customWidth="1"/>
-    <col min="15273" max="15273" width="5.6328125" style="1" customWidth="1"/>
-    <col min="15274" max="15275" width="10.90625" style="1" customWidth="1"/>
-    <col min="15276" max="15276" width="9.08984375" style="1" customWidth="1"/>
-    <col min="15277" max="15278" width="8.6328125" style="1" customWidth="1"/>
-    <col min="15279" max="15279" width="24" style="1" customWidth="1"/>
-    <col min="15280" max="15280" width="17.81640625" style="1" customWidth="1"/>
-    <col min="15281" max="15282" width="12.81640625" style="1" customWidth="1"/>
-    <col min="15283" max="15283" width="20.1796875" style="1" customWidth="1"/>
-    <col min="15284" max="15319" width="8.36328125" style="1"/>
-    <col min="15320" max="15320" width="6.453125" style="1" customWidth="1"/>
-    <col min="15321" max="15323" width="8.6328125" style="1" customWidth="1"/>
-    <col min="15324" max="15324" width="21.08984375" style="1" customWidth="1"/>
-    <col min="15325" max="15325" width="25.08984375" style="1" customWidth="1"/>
-    <col min="15326" max="15326" width="14.90625" style="1" customWidth="1"/>
-    <col min="15327" max="15327" width="16.90625" style="1" customWidth="1"/>
-    <col min="15328" max="15328" width="7.81640625" style="1" customWidth="1"/>
-    <col min="15329" max="15329" width="14.90625" style="1" customWidth="1"/>
-    <col min="15330" max="15330" width="9.1796875" style="1" customWidth="1"/>
-    <col min="15331" max="15331" width="11.1796875" style="1" customWidth="1"/>
-    <col min="15332" max="15332" width="16.1796875" style="1" customWidth="1"/>
-    <col min="15333" max="15333" width="13.08984375" style="1" customWidth="1"/>
-    <col min="15334" max="15336" width="12.81640625" style="1" customWidth="1"/>
-    <col min="15337" max="15337" width="11.90625" style="1" customWidth="1"/>
-    <col min="15338" max="15338" width="12.81640625" style="1" customWidth="1"/>
-    <col min="15339" max="15528" width="7.81640625" style="1" customWidth="1"/>
-    <col min="15529" max="15529" width="5.6328125" style="1" customWidth="1"/>
-    <col min="15530" max="15531" width="10.90625" style="1" customWidth="1"/>
-    <col min="15532" max="15532" width="9.08984375" style="1" customWidth="1"/>
-    <col min="15533" max="15534" width="8.6328125" style="1" customWidth="1"/>
-    <col min="15535" max="15535" width="24" style="1" customWidth="1"/>
-    <col min="15536" max="15536" width="17.81640625" style="1" customWidth="1"/>
-    <col min="15537" max="15538" width="12.81640625" style="1" customWidth="1"/>
-    <col min="15539" max="15539" width="20.1796875" style="1" customWidth="1"/>
-    <col min="15540" max="15575" width="8.36328125" style="1"/>
-    <col min="15576" max="15576" width="6.453125" style="1" customWidth="1"/>
-    <col min="15577" max="15579" width="8.6328125" style="1" customWidth="1"/>
-    <col min="15580" max="15580" width="21.08984375" style="1" customWidth="1"/>
-    <col min="15581" max="15581" width="25.08984375" style="1" customWidth="1"/>
-    <col min="15582" max="15582" width="14.90625" style="1" customWidth="1"/>
-    <col min="15583" max="15583" width="16.90625" style="1" customWidth="1"/>
-    <col min="15584" max="15584" width="7.81640625" style="1" customWidth="1"/>
-    <col min="15585" max="15585" width="14.90625" style="1" customWidth="1"/>
-    <col min="15586" max="15586" width="9.1796875" style="1" customWidth="1"/>
-    <col min="15587" max="15587" width="11.1796875" style="1" customWidth="1"/>
-    <col min="15588" max="15588" width="16.1796875" style="1" customWidth="1"/>
-    <col min="15589" max="15589" width="13.08984375" style="1" customWidth="1"/>
-    <col min="15590" max="15592" width="12.81640625" style="1" customWidth="1"/>
-    <col min="15593" max="15593" width="11.90625" style="1" customWidth="1"/>
-    <col min="15594" max="15594" width="12.81640625" style="1" customWidth="1"/>
-    <col min="15595" max="15784" width="7.81640625" style="1" customWidth="1"/>
-    <col min="15785" max="15785" width="5.6328125" style="1" customWidth="1"/>
-    <col min="15786" max="15787" width="10.90625" style="1" customWidth="1"/>
-    <col min="15788" max="15788" width="9.08984375" style="1" customWidth="1"/>
-    <col min="15789" max="15790" width="8.6328125" style="1" customWidth="1"/>
-    <col min="15791" max="15791" width="24" style="1" customWidth="1"/>
-    <col min="15792" max="15792" width="17.81640625" style="1" customWidth="1"/>
-    <col min="15793" max="15794" width="12.81640625" style="1" customWidth="1"/>
-    <col min="15795" max="15795" width="20.1796875" style="1" customWidth="1"/>
-    <col min="15796" max="15831" width="8.36328125" style="1"/>
-    <col min="15832" max="15832" width="6.453125" style="1" customWidth="1"/>
-    <col min="15833" max="15835" width="8.6328125" style="1" customWidth="1"/>
-    <col min="15836" max="15836" width="21.08984375" style="1" customWidth="1"/>
-    <col min="15837" max="15837" width="25.08984375" style="1" customWidth="1"/>
-    <col min="15838" max="15838" width="14.90625" style="1" customWidth="1"/>
-    <col min="15839" max="15839" width="16.90625" style="1" customWidth="1"/>
-    <col min="15840" max="15840" width="7.81640625" style="1" customWidth="1"/>
-    <col min="15841" max="15841" width="14.90625" style="1" customWidth="1"/>
-    <col min="15842" max="15842" width="9.1796875" style="1" customWidth="1"/>
-    <col min="15843" max="15843" width="11.1796875" style="1" customWidth="1"/>
-    <col min="15844" max="15844" width="16.1796875" style="1" customWidth="1"/>
-    <col min="15845" max="15845" width="13.08984375" style="1" customWidth="1"/>
-    <col min="15846" max="15848" width="12.81640625" style="1" customWidth="1"/>
-    <col min="15849" max="15849" width="11.90625" style="1" customWidth="1"/>
-    <col min="15850" max="15850" width="12.81640625" style="1" customWidth="1"/>
-    <col min="15851" max="16040" width="7.81640625" style="1" customWidth="1"/>
-    <col min="16041" max="16041" width="5.6328125" style="1" customWidth="1"/>
-    <col min="16042" max="16043" width="10.90625" style="1" customWidth="1"/>
-    <col min="16044" max="16044" width="9.08984375" style="1" customWidth="1"/>
-    <col min="16045" max="16046" width="8.6328125" style="1" customWidth="1"/>
-    <col min="16047" max="16047" width="24" style="1" customWidth="1"/>
-    <col min="16048" max="16048" width="17.81640625" style="1" customWidth="1"/>
-    <col min="16049" max="16050" width="12.81640625" style="1" customWidth="1"/>
-    <col min="16051" max="16051" width="20.1796875" style="1" customWidth="1"/>
-    <col min="16052" max="16087" width="8.36328125" style="1"/>
-    <col min="16088" max="16088" width="6.453125" style="1" customWidth="1"/>
-    <col min="16089" max="16091" width="8.6328125" style="1" customWidth="1"/>
-    <col min="16092" max="16092" width="21.08984375" style="1" customWidth="1"/>
-    <col min="16093" max="16093" width="25.08984375" style="1" customWidth="1"/>
-    <col min="16094" max="16094" width="14.90625" style="1" customWidth="1"/>
-    <col min="16095" max="16095" width="16.90625" style="1" customWidth="1"/>
-    <col min="16096" max="16096" width="7.81640625" style="1" customWidth="1"/>
-    <col min="16097" max="16097" width="14.90625" style="1" customWidth="1"/>
-    <col min="16098" max="16098" width="9.1796875" style="1" customWidth="1"/>
-    <col min="16099" max="16099" width="11.1796875" style="1" customWidth="1"/>
-    <col min="16100" max="16100" width="16.1796875" style="1" customWidth="1"/>
-    <col min="16101" max="16101" width="13.08984375" style="1" customWidth="1"/>
-    <col min="16102" max="16104" width="12.81640625" style="1" customWidth="1"/>
-    <col min="16105" max="16105" width="11.90625" style="1" customWidth="1"/>
-    <col min="16106" max="16106" width="12.81640625" style="1" customWidth="1"/>
-    <col min="16107" max="16296" width="7.81640625" style="1" customWidth="1"/>
-    <col min="16297" max="16297" width="5.6328125" style="1" customWidth="1"/>
-    <col min="16298" max="16299" width="10.90625" style="1" customWidth="1"/>
-    <col min="16300" max="16300" width="9.08984375" style="1" customWidth="1"/>
-    <col min="16301" max="16302" width="8.6328125" style="1" customWidth="1"/>
-    <col min="16303" max="16303" width="24" style="1" customWidth="1"/>
-    <col min="16304" max="16304" width="17.81640625" style="1" customWidth="1"/>
-    <col min="16305" max="16306" width="12.81640625" style="1" customWidth="1"/>
-    <col min="16307" max="16307" width="20.1796875" style="1" customWidth="1"/>
-    <col min="16308" max="16384" width="8.36328125" style="1"/>
+    <col min="1" max="1" width="5.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.33203125" style="35" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="19.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.77734375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15" style="1" customWidth="1"/>
+    <col min="12" max="12" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="18" max="20" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="171" width="7.77734375" style="1" customWidth="1"/>
+    <col min="172" max="172" width="5.6640625" style="1" customWidth="1"/>
+    <col min="173" max="174" width="10.88671875" style="1" customWidth="1"/>
+    <col min="175" max="175" width="9.109375" style="1" customWidth="1"/>
+    <col min="176" max="177" width="8.6640625" style="1" customWidth="1"/>
+    <col min="178" max="178" width="24" style="1" customWidth="1"/>
+    <col min="179" max="179" width="17.77734375" style="1" customWidth="1"/>
+    <col min="180" max="181" width="12.77734375" style="1" customWidth="1"/>
+    <col min="182" max="182" width="20.21875" style="1" customWidth="1"/>
+    <col min="183" max="218" width="8.33203125" style="1"/>
+    <col min="219" max="219" width="6.44140625" style="1" customWidth="1"/>
+    <col min="220" max="222" width="8.6640625" style="1" customWidth="1"/>
+    <col min="223" max="223" width="21.109375" style="1" customWidth="1"/>
+    <col min="224" max="224" width="25.109375" style="1" customWidth="1"/>
+    <col min="225" max="225" width="14.88671875" style="1" customWidth="1"/>
+    <col min="226" max="226" width="16.88671875" style="1" customWidth="1"/>
+    <col min="227" max="227" width="7.77734375" style="1" customWidth="1"/>
+    <col min="228" max="228" width="14.88671875" style="1" customWidth="1"/>
+    <col min="229" max="229" width="9.21875" style="1" customWidth="1"/>
+    <col min="230" max="230" width="11.21875" style="1" customWidth="1"/>
+    <col min="231" max="231" width="16.21875" style="1" customWidth="1"/>
+    <col min="232" max="232" width="13.109375" style="1" customWidth="1"/>
+    <col min="233" max="235" width="12.77734375" style="1" customWidth="1"/>
+    <col min="236" max="236" width="11.88671875" style="1" customWidth="1"/>
+    <col min="237" max="237" width="12.77734375" style="1" customWidth="1"/>
+    <col min="238" max="427" width="7.77734375" style="1" customWidth="1"/>
+    <col min="428" max="428" width="5.6640625" style="1" customWidth="1"/>
+    <col min="429" max="430" width="10.88671875" style="1" customWidth="1"/>
+    <col min="431" max="431" width="9.109375" style="1" customWidth="1"/>
+    <col min="432" max="433" width="8.6640625" style="1" customWidth="1"/>
+    <col min="434" max="434" width="24" style="1" customWidth="1"/>
+    <col min="435" max="435" width="17.77734375" style="1" customWidth="1"/>
+    <col min="436" max="437" width="12.77734375" style="1" customWidth="1"/>
+    <col min="438" max="438" width="20.21875" style="1" customWidth="1"/>
+    <col min="439" max="474" width="8.33203125" style="1"/>
+    <col min="475" max="475" width="6.44140625" style="1" customWidth="1"/>
+    <col min="476" max="478" width="8.6640625" style="1" customWidth="1"/>
+    <col min="479" max="479" width="21.109375" style="1" customWidth="1"/>
+    <col min="480" max="480" width="25.109375" style="1" customWidth="1"/>
+    <col min="481" max="481" width="14.88671875" style="1" customWidth="1"/>
+    <col min="482" max="482" width="16.88671875" style="1" customWidth="1"/>
+    <col min="483" max="483" width="7.77734375" style="1" customWidth="1"/>
+    <col min="484" max="484" width="14.88671875" style="1" customWidth="1"/>
+    <col min="485" max="485" width="9.21875" style="1" customWidth="1"/>
+    <col min="486" max="486" width="11.21875" style="1" customWidth="1"/>
+    <col min="487" max="487" width="16.21875" style="1" customWidth="1"/>
+    <col min="488" max="488" width="13.109375" style="1" customWidth="1"/>
+    <col min="489" max="491" width="12.77734375" style="1" customWidth="1"/>
+    <col min="492" max="492" width="11.88671875" style="1" customWidth="1"/>
+    <col min="493" max="493" width="12.77734375" style="1" customWidth="1"/>
+    <col min="494" max="683" width="7.77734375" style="1" customWidth="1"/>
+    <col min="684" max="684" width="5.6640625" style="1" customWidth="1"/>
+    <col min="685" max="686" width="10.88671875" style="1" customWidth="1"/>
+    <col min="687" max="687" width="9.109375" style="1" customWidth="1"/>
+    <col min="688" max="689" width="8.6640625" style="1" customWidth="1"/>
+    <col min="690" max="690" width="24" style="1" customWidth="1"/>
+    <col min="691" max="691" width="17.77734375" style="1" customWidth="1"/>
+    <col min="692" max="693" width="12.77734375" style="1" customWidth="1"/>
+    <col min="694" max="694" width="20.21875" style="1" customWidth="1"/>
+    <col min="695" max="730" width="8.33203125" style="1"/>
+    <col min="731" max="731" width="6.44140625" style="1" customWidth="1"/>
+    <col min="732" max="734" width="8.6640625" style="1" customWidth="1"/>
+    <col min="735" max="735" width="21.109375" style="1" customWidth="1"/>
+    <col min="736" max="736" width="25.109375" style="1" customWidth="1"/>
+    <col min="737" max="737" width="14.88671875" style="1" customWidth="1"/>
+    <col min="738" max="738" width="16.88671875" style="1" customWidth="1"/>
+    <col min="739" max="739" width="7.77734375" style="1" customWidth="1"/>
+    <col min="740" max="740" width="14.88671875" style="1" customWidth="1"/>
+    <col min="741" max="741" width="9.21875" style="1" customWidth="1"/>
+    <col min="742" max="742" width="11.21875" style="1" customWidth="1"/>
+    <col min="743" max="743" width="16.21875" style="1" customWidth="1"/>
+    <col min="744" max="744" width="13.109375" style="1" customWidth="1"/>
+    <col min="745" max="747" width="12.77734375" style="1" customWidth="1"/>
+    <col min="748" max="748" width="11.88671875" style="1" customWidth="1"/>
+    <col min="749" max="749" width="12.77734375" style="1" customWidth="1"/>
+    <col min="750" max="939" width="7.77734375" style="1" customWidth="1"/>
+    <col min="940" max="940" width="5.6640625" style="1" customWidth="1"/>
+    <col min="941" max="942" width="10.88671875" style="1" customWidth="1"/>
+    <col min="943" max="943" width="9.109375" style="1" customWidth="1"/>
+    <col min="944" max="945" width="8.6640625" style="1" customWidth="1"/>
+    <col min="946" max="946" width="24" style="1" customWidth="1"/>
+    <col min="947" max="947" width="17.77734375" style="1" customWidth="1"/>
+    <col min="948" max="949" width="12.77734375" style="1" customWidth="1"/>
+    <col min="950" max="950" width="20.21875" style="1" customWidth="1"/>
+    <col min="951" max="986" width="8.33203125" style="1"/>
+    <col min="987" max="987" width="6.44140625" style="1" customWidth="1"/>
+    <col min="988" max="990" width="8.6640625" style="1" customWidth="1"/>
+    <col min="991" max="991" width="21.109375" style="1" customWidth="1"/>
+    <col min="992" max="992" width="25.109375" style="1" customWidth="1"/>
+    <col min="993" max="993" width="14.88671875" style="1" customWidth="1"/>
+    <col min="994" max="994" width="16.88671875" style="1" customWidth="1"/>
+    <col min="995" max="995" width="7.77734375" style="1" customWidth="1"/>
+    <col min="996" max="996" width="14.88671875" style="1" customWidth="1"/>
+    <col min="997" max="997" width="9.21875" style="1" customWidth="1"/>
+    <col min="998" max="998" width="11.21875" style="1" customWidth="1"/>
+    <col min="999" max="999" width="16.21875" style="1" customWidth="1"/>
+    <col min="1000" max="1000" width="13.109375" style="1" customWidth="1"/>
+    <col min="1001" max="1003" width="12.77734375" style="1" customWidth="1"/>
+    <col min="1004" max="1004" width="11.88671875" style="1" customWidth="1"/>
+    <col min="1005" max="1005" width="12.77734375" style="1" customWidth="1"/>
+    <col min="1006" max="1195" width="7.77734375" style="1" customWidth="1"/>
+    <col min="1196" max="1196" width="5.6640625" style="1" customWidth="1"/>
+    <col min="1197" max="1198" width="10.88671875" style="1" customWidth="1"/>
+    <col min="1199" max="1199" width="9.109375" style="1" customWidth="1"/>
+    <col min="1200" max="1201" width="8.6640625" style="1" customWidth="1"/>
+    <col min="1202" max="1202" width="24" style="1" customWidth="1"/>
+    <col min="1203" max="1203" width="17.77734375" style="1" customWidth="1"/>
+    <col min="1204" max="1205" width="12.77734375" style="1" customWidth="1"/>
+    <col min="1206" max="1206" width="20.21875" style="1" customWidth="1"/>
+    <col min="1207" max="1242" width="8.33203125" style="1"/>
+    <col min="1243" max="1243" width="6.44140625" style="1" customWidth="1"/>
+    <col min="1244" max="1246" width="8.6640625" style="1" customWidth="1"/>
+    <col min="1247" max="1247" width="21.109375" style="1" customWidth="1"/>
+    <col min="1248" max="1248" width="25.109375" style="1" customWidth="1"/>
+    <col min="1249" max="1249" width="14.88671875" style="1" customWidth="1"/>
+    <col min="1250" max="1250" width="16.88671875" style="1" customWidth="1"/>
+    <col min="1251" max="1251" width="7.77734375" style="1" customWidth="1"/>
+    <col min="1252" max="1252" width="14.88671875" style="1" customWidth="1"/>
+    <col min="1253" max="1253" width="9.21875" style="1" customWidth="1"/>
+    <col min="1254" max="1254" width="11.21875" style="1" customWidth="1"/>
+    <col min="1255" max="1255" width="16.21875" style="1" customWidth="1"/>
+    <col min="1256" max="1256" width="13.109375" style="1" customWidth="1"/>
+    <col min="1257" max="1259" width="12.77734375" style="1" customWidth="1"/>
+    <col min="1260" max="1260" width="11.88671875" style="1" customWidth="1"/>
+    <col min="1261" max="1261" width="12.77734375" style="1" customWidth="1"/>
+    <col min="1262" max="1451" width="7.77734375" style="1" customWidth="1"/>
+    <col min="1452" max="1452" width="5.6640625" style="1" customWidth="1"/>
+    <col min="1453" max="1454" width="10.88671875" style="1" customWidth="1"/>
+    <col min="1455" max="1455" width="9.109375" style="1" customWidth="1"/>
+    <col min="1456" max="1457" width="8.6640625" style="1" customWidth="1"/>
+    <col min="1458" max="1458" width="24" style="1" customWidth="1"/>
+    <col min="1459" max="1459" width="17.77734375" style="1" customWidth="1"/>
+    <col min="1460" max="1461" width="12.77734375" style="1" customWidth="1"/>
+    <col min="1462" max="1462" width="20.21875" style="1" customWidth="1"/>
+    <col min="1463" max="1498" width="8.33203125" style="1"/>
+    <col min="1499" max="1499" width="6.44140625" style="1" customWidth="1"/>
+    <col min="1500" max="1502" width="8.6640625" style="1" customWidth="1"/>
+    <col min="1503" max="1503" width="21.109375" style="1" customWidth="1"/>
+    <col min="1504" max="1504" width="25.109375" style="1" customWidth="1"/>
+    <col min="1505" max="1505" width="14.88671875" style="1" customWidth="1"/>
+    <col min="1506" max="1506" width="16.88671875" style="1" customWidth="1"/>
+    <col min="1507" max="1507" width="7.77734375" style="1" customWidth="1"/>
+    <col min="1508" max="1508" width="14.88671875" style="1" customWidth="1"/>
+    <col min="1509" max="1509" width="9.21875" style="1" customWidth="1"/>
+    <col min="1510" max="1510" width="11.21875" style="1" customWidth="1"/>
+    <col min="1511" max="1511" width="16.21875" style="1" customWidth="1"/>
+    <col min="1512" max="1512" width="13.109375" style="1" customWidth="1"/>
+    <col min="1513" max="1515" width="12.77734375" style="1" customWidth="1"/>
+    <col min="1516" max="1516" width="11.88671875" style="1" customWidth="1"/>
+    <col min="1517" max="1517" width="12.77734375" style="1" customWidth="1"/>
+    <col min="1518" max="1707" width="7.77734375" style="1" customWidth="1"/>
+    <col min="1708" max="1708" width="5.6640625" style="1" customWidth="1"/>
+    <col min="1709" max="1710" width="10.88671875" style="1" customWidth="1"/>
+    <col min="1711" max="1711" width="9.109375" style="1" customWidth="1"/>
+    <col min="1712" max="1713" width="8.6640625" style="1" customWidth="1"/>
+    <col min="1714" max="1714" width="24" style="1" customWidth="1"/>
+    <col min="1715" max="1715" width="17.77734375" style="1" customWidth="1"/>
+    <col min="1716" max="1717" width="12.77734375" style="1" customWidth="1"/>
+    <col min="1718" max="1718" width="20.21875" style="1" customWidth="1"/>
+    <col min="1719" max="1754" width="8.33203125" style="1"/>
+    <col min="1755" max="1755" width="6.44140625" style="1" customWidth="1"/>
+    <col min="1756" max="1758" width="8.6640625" style="1" customWidth="1"/>
+    <col min="1759" max="1759" width="21.109375" style="1" customWidth="1"/>
+    <col min="1760" max="1760" width="25.109375" style="1" customWidth="1"/>
+    <col min="1761" max="1761" width="14.88671875" style="1" customWidth="1"/>
+    <col min="1762" max="1762" width="16.88671875" style="1" customWidth="1"/>
+    <col min="1763" max="1763" width="7.77734375" style="1" customWidth="1"/>
+    <col min="1764" max="1764" width="14.88671875" style="1" customWidth="1"/>
+    <col min="1765" max="1765" width="9.21875" style="1" customWidth="1"/>
+    <col min="1766" max="1766" width="11.21875" style="1" customWidth="1"/>
+    <col min="1767" max="1767" width="16.21875" style="1" customWidth="1"/>
+    <col min="1768" max="1768" width="13.109375" style="1" customWidth="1"/>
+    <col min="1769" max="1771" width="12.77734375" style="1" customWidth="1"/>
+    <col min="1772" max="1772" width="11.88671875" style="1" customWidth="1"/>
+    <col min="1773" max="1773" width="12.77734375" style="1" customWidth="1"/>
+    <col min="1774" max="1963" width="7.77734375" style="1" customWidth="1"/>
+    <col min="1964" max="1964" width="5.6640625" style="1" customWidth="1"/>
+    <col min="1965" max="1966" width="10.88671875" style="1" customWidth="1"/>
+    <col min="1967" max="1967" width="9.109375" style="1" customWidth="1"/>
+    <col min="1968" max="1969" width="8.6640625" style="1" customWidth="1"/>
+    <col min="1970" max="1970" width="24" style="1" customWidth="1"/>
+    <col min="1971" max="1971" width="17.77734375" style="1" customWidth="1"/>
+    <col min="1972" max="1973" width="12.77734375" style="1" customWidth="1"/>
+    <col min="1974" max="1974" width="20.21875" style="1" customWidth="1"/>
+    <col min="1975" max="2010" width="8.33203125" style="1"/>
+    <col min="2011" max="2011" width="6.44140625" style="1" customWidth="1"/>
+    <col min="2012" max="2014" width="8.6640625" style="1" customWidth="1"/>
+    <col min="2015" max="2015" width="21.109375" style="1" customWidth="1"/>
+    <col min="2016" max="2016" width="25.109375" style="1" customWidth="1"/>
+    <col min="2017" max="2017" width="14.88671875" style="1" customWidth="1"/>
+    <col min="2018" max="2018" width="16.88671875" style="1" customWidth="1"/>
+    <col min="2019" max="2019" width="7.77734375" style="1" customWidth="1"/>
+    <col min="2020" max="2020" width="14.88671875" style="1" customWidth="1"/>
+    <col min="2021" max="2021" width="9.21875" style="1" customWidth="1"/>
+    <col min="2022" max="2022" width="11.21875" style="1" customWidth="1"/>
+    <col min="2023" max="2023" width="16.21875" style="1" customWidth="1"/>
+    <col min="2024" max="2024" width="13.109375" style="1" customWidth="1"/>
+    <col min="2025" max="2027" width="12.77734375" style="1" customWidth="1"/>
+    <col min="2028" max="2028" width="11.88671875" style="1" customWidth="1"/>
+    <col min="2029" max="2029" width="12.77734375" style="1" customWidth="1"/>
+    <col min="2030" max="2219" width="7.77734375" style="1" customWidth="1"/>
+    <col min="2220" max="2220" width="5.6640625" style="1" customWidth="1"/>
+    <col min="2221" max="2222" width="10.88671875" style="1" customWidth="1"/>
+    <col min="2223" max="2223" width="9.109375" style="1" customWidth="1"/>
+    <col min="2224" max="2225" width="8.6640625" style="1" customWidth="1"/>
+    <col min="2226" max="2226" width="24" style="1" customWidth="1"/>
+    <col min="2227" max="2227" width="17.77734375" style="1" customWidth="1"/>
+    <col min="2228" max="2229" width="12.77734375" style="1" customWidth="1"/>
+    <col min="2230" max="2230" width="20.21875" style="1" customWidth="1"/>
+    <col min="2231" max="2266" width="8.33203125" style="1"/>
+    <col min="2267" max="2267" width="6.44140625" style="1" customWidth="1"/>
+    <col min="2268" max="2270" width="8.6640625" style="1" customWidth="1"/>
+    <col min="2271" max="2271" width="21.109375" style="1" customWidth="1"/>
+    <col min="2272" max="2272" width="25.109375" style="1" customWidth="1"/>
+    <col min="2273" max="2273" width="14.88671875" style="1" customWidth="1"/>
+    <col min="2274" max="2274" width="16.88671875" style="1" customWidth="1"/>
+    <col min="2275" max="2275" width="7.77734375" style="1" customWidth="1"/>
+    <col min="2276" max="2276" width="14.88671875" style="1" customWidth="1"/>
+    <col min="2277" max="2277" width="9.21875" style="1" customWidth="1"/>
+    <col min="2278" max="2278" width="11.21875" style="1" customWidth="1"/>
+    <col min="2279" max="2279" width="16.21875" style="1" customWidth="1"/>
+    <col min="2280" max="2280" width="13.109375" style="1" customWidth="1"/>
+    <col min="2281" max="2283" width="12.77734375" style="1" customWidth="1"/>
+    <col min="2284" max="2284" width="11.88671875" style="1" customWidth="1"/>
+    <col min="2285" max="2285" width="12.77734375" style="1" customWidth="1"/>
+    <col min="2286" max="2475" width="7.77734375" style="1" customWidth="1"/>
+    <col min="2476" max="2476" width="5.6640625" style="1" customWidth="1"/>
+    <col min="2477" max="2478" width="10.88671875" style="1" customWidth="1"/>
+    <col min="2479" max="2479" width="9.109375" style="1" customWidth="1"/>
+    <col min="2480" max="2481" width="8.6640625" style="1" customWidth="1"/>
+    <col min="2482" max="2482" width="24" style="1" customWidth="1"/>
+    <col min="2483" max="2483" width="17.77734375" style="1" customWidth="1"/>
+    <col min="2484" max="2485" width="12.77734375" style="1" customWidth="1"/>
+    <col min="2486" max="2486" width="20.21875" style="1" customWidth="1"/>
+    <col min="2487" max="2522" width="8.33203125" style="1"/>
+    <col min="2523" max="2523" width="6.44140625" style="1" customWidth="1"/>
+    <col min="2524" max="2526" width="8.6640625" style="1" customWidth="1"/>
+    <col min="2527" max="2527" width="21.109375" style="1" customWidth="1"/>
+    <col min="2528" max="2528" width="25.109375" style="1" customWidth="1"/>
+    <col min="2529" max="2529" width="14.88671875" style="1" customWidth="1"/>
+    <col min="2530" max="2530" width="16.88671875" style="1" customWidth="1"/>
+    <col min="2531" max="2531" width="7.77734375" style="1" customWidth="1"/>
+    <col min="2532" max="2532" width="14.88671875" style="1" customWidth="1"/>
+    <col min="2533" max="2533" width="9.21875" style="1" customWidth="1"/>
+    <col min="2534" max="2534" width="11.21875" style="1" customWidth="1"/>
+    <col min="2535" max="2535" width="16.21875" style="1" customWidth="1"/>
+    <col min="2536" max="2536" width="13.109375" style="1" customWidth="1"/>
+    <col min="2537" max="2539" width="12.77734375" style="1" customWidth="1"/>
+    <col min="2540" max="2540" width="11.88671875" style="1" customWidth="1"/>
+    <col min="2541" max="2541" width="12.77734375" style="1" customWidth="1"/>
+    <col min="2542" max="2731" width="7.77734375" style="1" customWidth="1"/>
+    <col min="2732" max="2732" width="5.6640625" style="1" customWidth="1"/>
+    <col min="2733" max="2734" width="10.88671875" style="1" customWidth="1"/>
+    <col min="2735" max="2735" width="9.109375" style="1" customWidth="1"/>
+    <col min="2736" max="2737" width="8.6640625" style="1" customWidth="1"/>
+    <col min="2738" max="2738" width="24" style="1" customWidth="1"/>
+    <col min="2739" max="2739" width="17.77734375" style="1" customWidth="1"/>
+    <col min="2740" max="2741" width="12.77734375" style="1" customWidth="1"/>
+    <col min="2742" max="2742" width="20.21875" style="1" customWidth="1"/>
+    <col min="2743" max="2778" width="8.33203125" style="1"/>
+    <col min="2779" max="2779" width="6.44140625" style="1" customWidth="1"/>
+    <col min="2780" max="2782" width="8.6640625" style="1" customWidth="1"/>
+    <col min="2783" max="2783" width="21.109375" style="1" customWidth="1"/>
+    <col min="2784" max="2784" width="25.109375" style="1" customWidth="1"/>
+    <col min="2785" max="2785" width="14.88671875" style="1" customWidth="1"/>
+    <col min="2786" max="2786" width="16.88671875" style="1" customWidth="1"/>
+    <col min="2787" max="2787" width="7.77734375" style="1" customWidth="1"/>
+    <col min="2788" max="2788" width="14.88671875" style="1" customWidth="1"/>
+    <col min="2789" max="2789" width="9.21875" style="1" customWidth="1"/>
+    <col min="2790" max="2790" width="11.21875" style="1" customWidth="1"/>
+    <col min="2791" max="2791" width="16.21875" style="1" customWidth="1"/>
+    <col min="2792" max="2792" width="13.109375" style="1" customWidth="1"/>
+    <col min="2793" max="2795" width="12.77734375" style="1" customWidth="1"/>
+    <col min="2796" max="2796" width="11.88671875" style="1" customWidth="1"/>
+    <col min="2797" max="2797" width="12.77734375" style="1" customWidth="1"/>
+    <col min="2798" max="2987" width="7.77734375" style="1" customWidth="1"/>
+    <col min="2988" max="2988" width="5.6640625" style="1" customWidth="1"/>
+    <col min="2989" max="2990" width="10.88671875" style="1" customWidth="1"/>
+    <col min="2991" max="2991" width="9.109375" style="1" customWidth="1"/>
+    <col min="2992" max="2993" width="8.6640625" style="1" customWidth="1"/>
+    <col min="2994" max="2994" width="24" style="1" customWidth="1"/>
+    <col min="2995" max="2995" width="17.77734375" style="1" customWidth="1"/>
+    <col min="2996" max="2997" width="12.77734375" style="1" customWidth="1"/>
+    <col min="2998" max="2998" width="20.21875" style="1" customWidth="1"/>
+    <col min="2999" max="3034" width="8.33203125" style="1"/>
+    <col min="3035" max="3035" width="6.44140625" style="1" customWidth="1"/>
+    <col min="3036" max="3038" width="8.6640625" style="1" customWidth="1"/>
+    <col min="3039" max="3039" width="21.109375" style="1" customWidth="1"/>
+    <col min="3040" max="3040" width="25.109375" style="1" customWidth="1"/>
+    <col min="3041" max="3041" width="14.88671875" style="1" customWidth="1"/>
+    <col min="3042" max="3042" width="16.88671875" style="1" customWidth="1"/>
+    <col min="3043" max="3043" width="7.77734375" style="1" customWidth="1"/>
+    <col min="3044" max="3044" width="14.88671875" style="1" customWidth="1"/>
+    <col min="3045" max="3045" width="9.21875" style="1" customWidth="1"/>
+    <col min="3046" max="3046" width="11.21875" style="1" customWidth="1"/>
+    <col min="3047" max="3047" width="16.21875" style="1" customWidth="1"/>
+    <col min="3048" max="3048" width="13.109375" style="1" customWidth="1"/>
+    <col min="3049" max="3051" width="12.77734375" style="1" customWidth="1"/>
+    <col min="3052" max="3052" width="11.88671875" style="1" customWidth="1"/>
+    <col min="3053" max="3053" width="12.77734375" style="1" customWidth="1"/>
+    <col min="3054" max="3243" width="7.77734375" style="1" customWidth="1"/>
+    <col min="3244" max="3244" width="5.6640625" style="1" customWidth="1"/>
+    <col min="3245" max="3246" width="10.88671875" style="1" customWidth="1"/>
+    <col min="3247" max="3247" width="9.109375" style="1" customWidth="1"/>
+    <col min="3248" max="3249" width="8.6640625" style="1" customWidth="1"/>
+    <col min="3250" max="3250" width="24" style="1" customWidth="1"/>
+    <col min="3251" max="3251" width="17.77734375" style="1" customWidth="1"/>
+    <col min="3252" max="3253" width="12.77734375" style="1" customWidth="1"/>
+    <col min="3254" max="3254" width="20.21875" style="1" customWidth="1"/>
+    <col min="3255" max="3290" width="8.33203125" style="1"/>
+    <col min="3291" max="3291" width="6.44140625" style="1" customWidth="1"/>
+    <col min="3292" max="3294" width="8.6640625" style="1" customWidth="1"/>
+    <col min="3295" max="3295" width="21.109375" style="1" customWidth="1"/>
+    <col min="3296" max="3296" width="25.109375" style="1" customWidth="1"/>
+    <col min="3297" max="3297" width="14.88671875" style="1" customWidth="1"/>
+    <col min="3298" max="3298" width="16.88671875" style="1" customWidth="1"/>
+    <col min="3299" max="3299" width="7.77734375" style="1" customWidth="1"/>
+    <col min="3300" max="3300" width="14.88671875" style="1" customWidth="1"/>
+    <col min="3301" max="3301" width="9.21875" style="1" customWidth="1"/>
+    <col min="3302" max="3302" width="11.21875" style="1" customWidth="1"/>
+    <col min="3303" max="3303" width="16.21875" style="1" customWidth="1"/>
+    <col min="3304" max="3304" width="13.109375" style="1" customWidth="1"/>
+    <col min="3305" max="3307" width="12.77734375" style="1" customWidth="1"/>
+    <col min="3308" max="3308" width="11.88671875" style="1" customWidth="1"/>
+    <col min="3309" max="3309" width="12.77734375" style="1" customWidth="1"/>
+    <col min="3310" max="3499" width="7.77734375" style="1" customWidth="1"/>
+    <col min="3500" max="3500" width="5.6640625" style="1" customWidth="1"/>
+    <col min="3501" max="3502" width="10.88671875" style="1" customWidth="1"/>
+    <col min="3503" max="3503" width="9.109375" style="1" customWidth="1"/>
+    <col min="3504" max="3505" width="8.6640625" style="1" customWidth="1"/>
+    <col min="3506" max="3506" width="24" style="1" customWidth="1"/>
+    <col min="3507" max="3507" width="17.77734375" style="1" customWidth="1"/>
+    <col min="3508" max="3509" width="12.77734375" style="1" customWidth="1"/>
+    <col min="3510" max="3510" width="20.21875" style="1" customWidth="1"/>
+    <col min="3511" max="3546" width="8.33203125" style="1"/>
+    <col min="3547" max="3547" width="6.44140625" style="1" customWidth="1"/>
+    <col min="3548" max="3550" width="8.6640625" style="1" customWidth="1"/>
+    <col min="3551" max="3551" width="21.109375" style="1" customWidth="1"/>
+    <col min="3552" max="3552" width="25.109375" style="1" customWidth="1"/>
+    <col min="3553" max="3553" width="14.88671875" style="1" customWidth="1"/>
+    <col min="3554" max="3554" width="16.88671875" style="1" customWidth="1"/>
+    <col min="3555" max="3555" width="7.77734375" style="1" customWidth="1"/>
+    <col min="3556" max="3556" width="14.88671875" style="1" customWidth="1"/>
+    <col min="3557" max="3557" width="9.21875" style="1" customWidth="1"/>
+    <col min="3558" max="3558" width="11.21875" style="1" customWidth="1"/>
+    <col min="3559" max="3559" width="16.21875" style="1" customWidth="1"/>
+    <col min="3560" max="3560" width="13.109375" style="1" customWidth="1"/>
+    <col min="3561" max="3563" width="12.77734375" style="1" customWidth="1"/>
+    <col min="3564" max="3564" width="11.88671875" style="1" customWidth="1"/>
+    <col min="3565" max="3565" width="12.77734375" style="1" customWidth="1"/>
+    <col min="3566" max="3755" width="7.77734375" style="1" customWidth="1"/>
+    <col min="3756" max="3756" width="5.6640625" style="1" customWidth="1"/>
+    <col min="3757" max="3758" width="10.88671875" style="1" customWidth="1"/>
+    <col min="3759" max="3759" width="9.109375" style="1" customWidth="1"/>
+    <col min="3760" max="3761" width="8.6640625" style="1" customWidth="1"/>
+    <col min="3762" max="3762" width="24" style="1" customWidth="1"/>
+    <col min="3763" max="3763" width="17.77734375" style="1" customWidth="1"/>
+    <col min="3764" max="3765" width="12.77734375" style="1" customWidth="1"/>
+    <col min="3766" max="3766" width="20.21875" style="1" customWidth="1"/>
+    <col min="3767" max="3802" width="8.33203125" style="1"/>
+    <col min="3803" max="3803" width="6.44140625" style="1" customWidth="1"/>
+    <col min="3804" max="3806" width="8.6640625" style="1" customWidth="1"/>
+    <col min="3807" max="3807" width="21.109375" style="1" customWidth="1"/>
+    <col min="3808" max="3808" width="25.109375" style="1" customWidth="1"/>
+    <col min="3809" max="3809" width="14.88671875" style="1" customWidth="1"/>
+    <col min="3810" max="3810" width="16.88671875" style="1" customWidth="1"/>
+    <col min="3811" max="3811" width="7.77734375" style="1" customWidth="1"/>
+    <col min="3812" max="3812" width="14.88671875" style="1" customWidth="1"/>
+    <col min="3813" max="3813" width="9.21875" style="1" customWidth="1"/>
+    <col min="3814" max="3814" width="11.21875" style="1" customWidth="1"/>
+    <col min="3815" max="3815" width="16.21875" style="1" customWidth="1"/>
+    <col min="3816" max="3816" width="13.109375" style="1" customWidth="1"/>
+    <col min="3817" max="3819" width="12.77734375" style="1" customWidth="1"/>
+    <col min="3820" max="3820" width="11.88671875" style="1" customWidth="1"/>
+    <col min="3821" max="3821" width="12.77734375" style="1" customWidth="1"/>
+    <col min="3822" max="4011" width="7.77734375" style="1" customWidth="1"/>
+    <col min="4012" max="4012" width="5.6640625" style="1" customWidth="1"/>
+    <col min="4013" max="4014" width="10.88671875" style="1" customWidth="1"/>
+    <col min="4015" max="4015" width="9.109375" style="1" customWidth="1"/>
+    <col min="4016" max="4017" width="8.6640625" style="1" customWidth="1"/>
+    <col min="4018" max="4018" width="24" style="1" customWidth="1"/>
+    <col min="4019" max="4019" width="17.77734375" style="1" customWidth="1"/>
+    <col min="4020" max="4021" width="12.77734375" style="1" customWidth="1"/>
+    <col min="4022" max="4022" width="20.21875" style="1" customWidth="1"/>
+    <col min="4023" max="4058" width="8.33203125" style="1"/>
+    <col min="4059" max="4059" width="6.44140625" style="1" customWidth="1"/>
+    <col min="4060" max="4062" width="8.6640625" style="1" customWidth="1"/>
+    <col min="4063" max="4063" width="21.109375" style="1" customWidth="1"/>
+    <col min="4064" max="4064" width="25.109375" style="1" customWidth="1"/>
+    <col min="4065" max="4065" width="14.88671875" style="1" customWidth="1"/>
+    <col min="4066" max="4066" width="16.88671875" style="1" customWidth="1"/>
+    <col min="4067" max="4067" width="7.77734375" style="1" customWidth="1"/>
+    <col min="4068" max="4068" width="14.88671875" style="1" customWidth="1"/>
+    <col min="4069" max="4069" width="9.21875" style="1" customWidth="1"/>
+    <col min="4070" max="4070" width="11.21875" style="1" customWidth="1"/>
+    <col min="4071" max="4071" width="16.21875" style="1" customWidth="1"/>
+    <col min="4072" max="4072" width="13.109375" style="1" customWidth="1"/>
+    <col min="4073" max="4075" width="12.77734375" style="1" customWidth="1"/>
+    <col min="4076" max="4076" width="11.88671875" style="1" customWidth="1"/>
+    <col min="4077" max="4077" width="12.77734375" style="1" customWidth="1"/>
+    <col min="4078" max="4267" width="7.77734375" style="1" customWidth="1"/>
+    <col min="4268" max="4268" width="5.6640625" style="1" customWidth="1"/>
+    <col min="4269" max="4270" width="10.88671875" style="1" customWidth="1"/>
+    <col min="4271" max="4271" width="9.109375" style="1" customWidth="1"/>
+    <col min="4272" max="4273" width="8.6640625" style="1" customWidth="1"/>
+    <col min="4274" max="4274" width="24" style="1" customWidth="1"/>
+    <col min="4275" max="4275" width="17.77734375" style="1" customWidth="1"/>
+    <col min="4276" max="4277" width="12.77734375" style="1" customWidth="1"/>
+    <col min="4278" max="4278" width="20.21875" style="1" customWidth="1"/>
+    <col min="4279" max="4314" width="8.33203125" style="1"/>
+    <col min="4315" max="4315" width="6.44140625" style="1" customWidth="1"/>
+    <col min="4316" max="4318" width="8.6640625" style="1" customWidth="1"/>
+    <col min="4319" max="4319" width="21.109375" style="1" customWidth="1"/>
+    <col min="4320" max="4320" width="25.109375" style="1" customWidth="1"/>
+    <col min="4321" max="4321" width="14.88671875" style="1" customWidth="1"/>
+    <col min="4322" max="4322" width="16.88671875" style="1" customWidth="1"/>
+    <col min="4323" max="4323" width="7.77734375" style="1" customWidth="1"/>
+    <col min="4324" max="4324" width="14.88671875" style="1" customWidth="1"/>
+    <col min="4325" max="4325" width="9.21875" style="1" customWidth="1"/>
+    <col min="4326" max="4326" width="11.21875" style="1" customWidth="1"/>
+    <col min="4327" max="4327" width="16.21875" style="1" customWidth="1"/>
+    <col min="4328" max="4328" width="13.109375" style="1" customWidth="1"/>
+    <col min="4329" max="4331" width="12.77734375" style="1" customWidth="1"/>
+    <col min="4332" max="4332" width="11.88671875" style="1" customWidth="1"/>
+    <col min="4333" max="4333" width="12.77734375" style="1" customWidth="1"/>
+    <col min="4334" max="4523" width="7.77734375" style="1" customWidth="1"/>
+    <col min="4524" max="4524" width="5.6640625" style="1" customWidth="1"/>
+    <col min="4525" max="4526" width="10.88671875" style="1" customWidth="1"/>
+    <col min="4527" max="4527" width="9.109375" style="1" customWidth="1"/>
+    <col min="4528" max="4529" width="8.6640625" style="1" customWidth="1"/>
+    <col min="4530" max="4530" width="24" style="1" customWidth="1"/>
+    <col min="4531" max="4531" width="17.77734375" style="1" customWidth="1"/>
+    <col min="4532" max="4533" width="12.77734375" style="1" customWidth="1"/>
+    <col min="4534" max="4534" width="20.21875" style="1" customWidth="1"/>
+    <col min="4535" max="4570" width="8.33203125" style="1"/>
+    <col min="4571" max="4571" width="6.44140625" style="1" customWidth="1"/>
+    <col min="4572" max="4574" width="8.6640625" style="1" customWidth="1"/>
+    <col min="4575" max="4575" width="21.109375" style="1" customWidth="1"/>
+    <col min="4576" max="4576" width="25.109375" style="1" customWidth="1"/>
+    <col min="4577" max="4577" width="14.88671875" style="1" customWidth="1"/>
+    <col min="4578" max="4578" width="16.88671875" style="1" customWidth="1"/>
+    <col min="4579" max="4579" width="7.77734375" style="1" customWidth="1"/>
+    <col min="4580" max="4580" width="14.88671875" style="1" customWidth="1"/>
+    <col min="4581" max="4581" width="9.21875" style="1" customWidth="1"/>
+    <col min="4582" max="4582" width="11.21875" style="1" customWidth="1"/>
+    <col min="4583" max="4583" width="16.21875" style="1" customWidth="1"/>
+    <col min="4584" max="4584" width="13.109375" style="1" customWidth="1"/>
+    <col min="4585" max="4587" width="12.77734375" style="1" customWidth="1"/>
+    <col min="4588" max="4588" width="11.88671875" style="1" customWidth="1"/>
+    <col min="4589" max="4589" width="12.77734375" style="1" customWidth="1"/>
+    <col min="4590" max="4779" width="7.77734375" style="1" customWidth="1"/>
+    <col min="4780" max="4780" width="5.6640625" style="1" customWidth="1"/>
+    <col min="4781" max="4782" width="10.88671875" style="1" customWidth="1"/>
+    <col min="4783" max="4783" width="9.109375" style="1" customWidth="1"/>
+    <col min="4784" max="4785" width="8.6640625" style="1" customWidth="1"/>
+    <col min="4786" max="4786" width="24" style="1" customWidth="1"/>
+    <col min="4787" max="4787" width="17.77734375" style="1" customWidth="1"/>
+    <col min="4788" max="4789" width="12.77734375" style="1" customWidth="1"/>
+    <col min="4790" max="4790" width="20.21875" style="1" customWidth="1"/>
+    <col min="4791" max="4826" width="8.33203125" style="1"/>
+    <col min="4827" max="4827" width="6.44140625" style="1" customWidth="1"/>
+    <col min="4828" max="4830" width="8.6640625" style="1" customWidth="1"/>
+    <col min="4831" max="4831" width="21.109375" style="1" customWidth="1"/>
+    <col min="4832" max="4832" width="25.109375" style="1" customWidth="1"/>
+    <col min="4833" max="4833" width="14.88671875" style="1" customWidth="1"/>
+    <col min="4834" max="4834" width="16.88671875" style="1" customWidth="1"/>
+    <col min="4835" max="4835" width="7.77734375" style="1" customWidth="1"/>
+    <col min="4836" max="4836" width="14.88671875" style="1" customWidth="1"/>
+    <col min="4837" max="4837" width="9.21875" style="1" customWidth="1"/>
+    <col min="4838" max="4838" width="11.21875" style="1" customWidth="1"/>
+    <col min="4839" max="4839" width="16.21875" style="1" customWidth="1"/>
+    <col min="4840" max="4840" width="13.109375" style="1" customWidth="1"/>
+    <col min="4841" max="4843" width="12.77734375" style="1" customWidth="1"/>
+    <col min="4844" max="4844" width="11.88671875" style="1" customWidth="1"/>
+    <col min="4845" max="4845" width="12.77734375" style="1" customWidth="1"/>
+    <col min="4846" max="5035" width="7.77734375" style="1" customWidth="1"/>
+    <col min="5036" max="5036" width="5.6640625" style="1" customWidth="1"/>
+    <col min="5037" max="5038" width="10.88671875" style="1" customWidth="1"/>
+    <col min="5039" max="5039" width="9.109375" style="1" customWidth="1"/>
+    <col min="5040" max="5041" width="8.6640625" style="1" customWidth="1"/>
+    <col min="5042" max="5042" width="24" style="1" customWidth="1"/>
+    <col min="5043" max="5043" width="17.77734375" style="1" customWidth="1"/>
+    <col min="5044" max="5045" width="12.77734375" style="1" customWidth="1"/>
+    <col min="5046" max="5046" width="20.21875" style="1" customWidth="1"/>
+    <col min="5047" max="5082" width="8.33203125" style="1"/>
+    <col min="5083" max="5083" width="6.44140625" style="1" customWidth="1"/>
+    <col min="5084" max="5086" width="8.6640625" style="1" customWidth="1"/>
+    <col min="5087" max="5087" width="21.109375" style="1" customWidth="1"/>
+    <col min="5088" max="5088" width="25.109375" style="1" customWidth="1"/>
+    <col min="5089" max="5089" width="14.88671875" style="1" customWidth="1"/>
+    <col min="5090" max="5090" width="16.88671875" style="1" customWidth="1"/>
+    <col min="5091" max="5091" width="7.77734375" style="1" customWidth="1"/>
+    <col min="5092" max="5092" width="14.88671875" style="1" customWidth="1"/>
+    <col min="5093" max="5093" width="9.21875" style="1" customWidth="1"/>
+    <col min="5094" max="5094" width="11.21875" style="1" customWidth="1"/>
+    <col min="5095" max="5095" width="16.21875" style="1" customWidth="1"/>
+    <col min="5096" max="5096" width="13.109375" style="1" customWidth="1"/>
+    <col min="5097" max="5099" width="12.77734375" style="1" customWidth="1"/>
+    <col min="5100" max="5100" width="11.88671875" style="1" customWidth="1"/>
+    <col min="5101" max="5101" width="12.77734375" style="1" customWidth="1"/>
+    <col min="5102" max="5291" width="7.77734375" style="1" customWidth="1"/>
+    <col min="5292" max="5292" width="5.6640625" style="1" customWidth="1"/>
+    <col min="5293" max="5294" width="10.88671875" style="1" customWidth="1"/>
+    <col min="5295" max="5295" width="9.109375" style="1" customWidth="1"/>
+    <col min="5296" max="5297" width="8.6640625" style="1" customWidth="1"/>
+    <col min="5298" max="5298" width="24" style="1" customWidth="1"/>
+    <col min="5299" max="5299" width="17.77734375" style="1" customWidth="1"/>
+    <col min="5300" max="5301" width="12.77734375" style="1" customWidth="1"/>
+    <col min="5302" max="5302" width="20.21875" style="1" customWidth="1"/>
+    <col min="5303" max="5338" width="8.33203125" style="1"/>
+    <col min="5339" max="5339" width="6.44140625" style="1" customWidth="1"/>
+    <col min="5340" max="5342" width="8.6640625" style="1" customWidth="1"/>
+    <col min="5343" max="5343" width="21.109375" style="1" customWidth="1"/>
+    <col min="5344" max="5344" width="25.109375" style="1" customWidth="1"/>
+    <col min="5345" max="5345" width="14.88671875" style="1" customWidth="1"/>
+    <col min="5346" max="5346" width="16.88671875" style="1" customWidth="1"/>
+    <col min="5347" max="5347" width="7.77734375" style="1" customWidth="1"/>
+    <col min="5348" max="5348" width="14.88671875" style="1" customWidth="1"/>
+    <col min="5349" max="5349" width="9.21875" style="1" customWidth="1"/>
+    <col min="5350" max="5350" width="11.21875" style="1" customWidth="1"/>
+    <col min="5351" max="5351" width="16.21875" style="1" customWidth="1"/>
+    <col min="5352" max="5352" width="13.109375" style="1" customWidth="1"/>
+    <col min="5353" max="5355" width="12.77734375" style="1" customWidth="1"/>
+    <col min="5356" max="5356" width="11.88671875" style="1" customWidth="1"/>
+    <col min="5357" max="5357" width="12.77734375" style="1" customWidth="1"/>
+    <col min="5358" max="5547" width="7.77734375" style="1" customWidth="1"/>
+    <col min="5548" max="5548" width="5.6640625" style="1" customWidth="1"/>
+    <col min="5549" max="5550" width="10.88671875" style="1" customWidth="1"/>
+    <col min="5551" max="5551" width="9.109375" style="1" customWidth="1"/>
+    <col min="5552" max="5553" width="8.6640625" style="1" customWidth="1"/>
+    <col min="5554" max="5554" width="24" style="1" customWidth="1"/>
+    <col min="5555" max="5555" width="17.77734375" style="1" customWidth="1"/>
+    <col min="5556" max="5557" width="12.77734375" style="1" customWidth="1"/>
+    <col min="5558" max="5558" width="20.21875" style="1" customWidth="1"/>
+    <col min="5559" max="5594" width="8.33203125" style="1"/>
+    <col min="5595" max="5595" width="6.44140625" style="1" customWidth="1"/>
+    <col min="5596" max="5598" width="8.6640625" style="1" customWidth="1"/>
+    <col min="5599" max="5599" width="21.109375" style="1" customWidth="1"/>
+    <col min="5600" max="5600" width="25.109375" style="1" customWidth="1"/>
+    <col min="5601" max="5601" width="14.88671875" style="1" customWidth="1"/>
+    <col min="5602" max="5602" width="16.88671875" style="1" customWidth="1"/>
+    <col min="5603" max="5603" width="7.77734375" style="1" customWidth="1"/>
+    <col min="5604" max="5604" width="14.88671875" style="1" customWidth="1"/>
+    <col min="5605" max="5605" width="9.21875" style="1" customWidth="1"/>
+    <col min="5606" max="5606" width="11.21875" style="1" customWidth="1"/>
+    <col min="5607" max="5607" width="16.21875" style="1" customWidth="1"/>
+    <col min="5608" max="5608" width="13.109375" style="1" customWidth="1"/>
+    <col min="5609" max="5611" width="12.77734375" style="1" customWidth="1"/>
+    <col min="5612" max="5612" width="11.88671875" style="1" customWidth="1"/>
+    <col min="5613" max="5613" width="12.77734375" style="1" customWidth="1"/>
+    <col min="5614" max="5803" width="7.77734375" style="1" customWidth="1"/>
+    <col min="5804" max="5804" width="5.6640625" style="1" customWidth="1"/>
+    <col min="5805" max="5806" width="10.88671875" style="1" customWidth="1"/>
+    <col min="5807" max="5807" width="9.109375" style="1" customWidth="1"/>
+    <col min="5808" max="5809" width="8.6640625" style="1" customWidth="1"/>
+    <col min="5810" max="5810" width="24" style="1" customWidth="1"/>
+    <col min="5811" max="5811" width="17.77734375" style="1" customWidth="1"/>
+    <col min="5812" max="5813" width="12.77734375" style="1" customWidth="1"/>
+    <col min="5814" max="5814" width="20.21875" style="1" customWidth="1"/>
+    <col min="5815" max="5850" width="8.33203125" style="1"/>
+    <col min="5851" max="5851" width="6.44140625" style="1" customWidth="1"/>
+    <col min="5852" max="5854" width="8.6640625" style="1" customWidth="1"/>
+    <col min="5855" max="5855" width="21.109375" style="1" customWidth="1"/>
+    <col min="5856" max="5856" width="25.109375" style="1" customWidth="1"/>
+    <col min="5857" max="5857" width="14.88671875" style="1" customWidth="1"/>
+    <col min="5858" max="5858" width="16.88671875" style="1" customWidth="1"/>
+    <col min="5859" max="5859" width="7.77734375" style="1" customWidth="1"/>
+    <col min="5860" max="5860" width="14.88671875" style="1" customWidth="1"/>
+    <col min="5861" max="5861" width="9.21875" style="1" customWidth="1"/>
+    <col min="5862" max="5862" width="11.21875" style="1" customWidth="1"/>
+    <col min="5863" max="5863" width="16.21875" style="1" customWidth="1"/>
+    <col min="5864" max="5864" width="13.109375" style="1" customWidth="1"/>
+    <col min="5865" max="5867" width="12.77734375" style="1" customWidth="1"/>
+    <col min="5868" max="5868" width="11.88671875" style="1" customWidth="1"/>
+    <col min="5869" max="5869" width="12.77734375" style="1" customWidth="1"/>
+    <col min="5870" max="6059" width="7.77734375" style="1" customWidth="1"/>
+    <col min="6060" max="6060" width="5.6640625" style="1" customWidth="1"/>
+    <col min="6061" max="6062" width="10.88671875" style="1" customWidth="1"/>
+    <col min="6063" max="6063" width="9.109375" style="1" customWidth="1"/>
+    <col min="6064" max="6065" width="8.6640625" style="1" customWidth="1"/>
+    <col min="6066" max="6066" width="24" style="1" customWidth="1"/>
+    <col min="6067" max="6067" width="17.77734375" style="1" customWidth="1"/>
+    <col min="6068" max="6069" width="12.77734375" style="1" customWidth="1"/>
+    <col min="6070" max="6070" width="20.21875" style="1" customWidth="1"/>
+    <col min="6071" max="6106" width="8.33203125" style="1"/>
+    <col min="6107" max="6107" width="6.44140625" style="1" customWidth="1"/>
+    <col min="6108" max="6110" width="8.6640625" style="1" customWidth="1"/>
+    <col min="6111" max="6111" width="21.109375" style="1" customWidth="1"/>
+    <col min="6112" max="6112" width="25.109375" style="1" customWidth="1"/>
+    <col min="6113" max="6113" width="14.88671875" style="1" customWidth="1"/>
+    <col min="6114" max="6114" width="16.88671875" style="1" customWidth="1"/>
+    <col min="6115" max="6115" width="7.77734375" style="1" customWidth="1"/>
+    <col min="6116" max="6116" width="14.88671875" style="1" customWidth="1"/>
+    <col min="6117" max="6117" width="9.21875" style="1" customWidth="1"/>
+    <col min="6118" max="6118" width="11.21875" style="1" customWidth="1"/>
+    <col min="6119" max="6119" width="16.21875" style="1" customWidth="1"/>
+    <col min="6120" max="6120" width="13.109375" style="1" customWidth="1"/>
+    <col min="6121" max="6123" width="12.77734375" style="1" customWidth="1"/>
+    <col min="6124" max="6124" width="11.88671875" style="1" customWidth="1"/>
+    <col min="6125" max="6125" width="12.77734375" style="1" customWidth="1"/>
+    <col min="6126" max="6315" width="7.77734375" style="1" customWidth="1"/>
+    <col min="6316" max="6316" width="5.6640625" style="1" customWidth="1"/>
+    <col min="6317" max="6318" width="10.88671875" style="1" customWidth="1"/>
+    <col min="6319" max="6319" width="9.109375" style="1" customWidth="1"/>
+    <col min="6320" max="6321" width="8.6640625" style="1" customWidth="1"/>
+    <col min="6322" max="6322" width="24" style="1" customWidth="1"/>
+    <col min="6323" max="6323" width="17.77734375" style="1" customWidth="1"/>
+    <col min="6324" max="6325" width="12.77734375" style="1" customWidth="1"/>
+    <col min="6326" max="6326" width="20.21875" style="1" customWidth="1"/>
+    <col min="6327" max="6362" width="8.33203125" style="1"/>
+    <col min="6363" max="6363" width="6.44140625" style="1" customWidth="1"/>
+    <col min="6364" max="6366" width="8.6640625" style="1" customWidth="1"/>
+    <col min="6367" max="6367" width="21.109375" style="1" customWidth="1"/>
+    <col min="6368" max="6368" width="25.109375" style="1" customWidth="1"/>
+    <col min="6369" max="6369" width="14.88671875" style="1" customWidth="1"/>
+    <col min="6370" max="6370" width="16.88671875" style="1" customWidth="1"/>
+    <col min="6371" max="6371" width="7.77734375" style="1" customWidth="1"/>
+    <col min="6372" max="6372" width="14.88671875" style="1" customWidth="1"/>
+    <col min="6373" max="6373" width="9.21875" style="1" customWidth="1"/>
+    <col min="6374" max="6374" width="11.21875" style="1" customWidth="1"/>
+    <col min="6375" max="6375" width="16.21875" style="1" customWidth="1"/>
+    <col min="6376" max="6376" width="13.109375" style="1" customWidth="1"/>
+    <col min="6377" max="6379" width="12.77734375" style="1" customWidth="1"/>
+    <col min="6380" max="6380" width="11.88671875" style="1" customWidth="1"/>
+    <col min="6381" max="6381" width="12.77734375" style="1" customWidth="1"/>
+    <col min="6382" max="6571" width="7.77734375" style="1" customWidth="1"/>
+    <col min="6572" max="6572" width="5.6640625" style="1" customWidth="1"/>
+    <col min="6573" max="6574" width="10.88671875" style="1" customWidth="1"/>
+    <col min="6575" max="6575" width="9.109375" style="1" customWidth="1"/>
+    <col min="6576" max="6577" width="8.6640625" style="1" customWidth="1"/>
+    <col min="6578" max="6578" width="24" style="1" customWidth="1"/>
+    <col min="6579" max="6579" width="17.77734375" style="1" customWidth="1"/>
+    <col min="6580" max="6581" width="12.77734375" style="1" customWidth="1"/>
+    <col min="6582" max="6582" width="20.21875" style="1" customWidth="1"/>
+    <col min="6583" max="6618" width="8.33203125" style="1"/>
+    <col min="6619" max="6619" width="6.44140625" style="1" customWidth="1"/>
+    <col min="6620" max="6622" width="8.6640625" style="1" customWidth="1"/>
+    <col min="6623" max="6623" width="21.109375" style="1" customWidth="1"/>
+    <col min="6624" max="6624" width="25.109375" style="1" customWidth="1"/>
+    <col min="6625" max="6625" width="14.88671875" style="1" customWidth="1"/>
+    <col min="6626" max="6626" width="16.88671875" style="1" customWidth="1"/>
+    <col min="6627" max="6627" width="7.77734375" style="1" customWidth="1"/>
+    <col min="6628" max="6628" width="14.88671875" style="1" customWidth="1"/>
+    <col min="6629" max="6629" width="9.21875" style="1" customWidth="1"/>
+    <col min="6630" max="6630" width="11.21875" style="1" customWidth="1"/>
+    <col min="6631" max="6631" width="16.21875" style="1" customWidth="1"/>
+    <col min="6632" max="6632" width="13.109375" style="1" customWidth="1"/>
+    <col min="6633" max="6635" width="12.77734375" style="1" customWidth="1"/>
+    <col min="6636" max="6636" width="11.88671875" style="1" customWidth="1"/>
+    <col min="6637" max="6637" width="12.77734375" style="1" customWidth="1"/>
+    <col min="6638" max="6827" width="7.77734375" style="1" customWidth="1"/>
+    <col min="6828" max="6828" width="5.6640625" style="1" customWidth="1"/>
+    <col min="6829" max="6830" width="10.88671875" style="1" customWidth="1"/>
+    <col min="6831" max="6831" width="9.109375" style="1" customWidth="1"/>
+    <col min="6832" max="6833" width="8.6640625" style="1" customWidth="1"/>
+    <col min="6834" max="6834" width="24" style="1" customWidth="1"/>
+    <col min="6835" max="6835" width="17.77734375" style="1" customWidth="1"/>
+    <col min="6836" max="6837" width="12.77734375" style="1" customWidth="1"/>
+    <col min="6838" max="6838" width="20.21875" style="1" customWidth="1"/>
+    <col min="6839" max="6874" width="8.33203125" style="1"/>
+    <col min="6875" max="6875" width="6.44140625" style="1" customWidth="1"/>
+    <col min="6876" max="6878" width="8.6640625" style="1" customWidth="1"/>
+    <col min="6879" max="6879" width="21.109375" style="1" customWidth="1"/>
+    <col min="6880" max="6880" width="25.109375" style="1" customWidth="1"/>
+    <col min="6881" max="6881" width="14.88671875" style="1" customWidth="1"/>
+    <col min="6882" max="6882" width="16.88671875" style="1" customWidth="1"/>
+    <col min="6883" max="6883" width="7.77734375" style="1" customWidth="1"/>
+    <col min="6884" max="6884" width="14.88671875" style="1" customWidth="1"/>
+    <col min="6885" max="6885" width="9.21875" style="1" customWidth="1"/>
+    <col min="6886" max="6886" width="11.21875" style="1" customWidth="1"/>
+    <col min="6887" max="6887" width="16.21875" style="1" customWidth="1"/>
+    <col min="6888" max="6888" width="13.109375" style="1" customWidth="1"/>
+    <col min="6889" max="6891" width="12.77734375" style="1" customWidth="1"/>
+    <col min="6892" max="6892" width="11.88671875" style="1" customWidth="1"/>
+    <col min="6893" max="6893" width="12.77734375" style="1" customWidth="1"/>
+    <col min="6894" max="7083" width="7.77734375" style="1" customWidth="1"/>
+    <col min="7084" max="7084" width="5.6640625" style="1" customWidth="1"/>
+    <col min="7085" max="7086" width="10.88671875" style="1" customWidth="1"/>
+    <col min="7087" max="7087" width="9.109375" style="1" customWidth="1"/>
+    <col min="7088" max="7089" width="8.6640625" style="1" customWidth="1"/>
+    <col min="7090" max="7090" width="24" style="1" customWidth="1"/>
+    <col min="7091" max="7091" width="17.77734375" style="1" customWidth="1"/>
+    <col min="7092" max="7093" width="12.77734375" style="1" customWidth="1"/>
+    <col min="7094" max="7094" width="20.21875" style="1" customWidth="1"/>
+    <col min="7095" max="7130" width="8.33203125" style="1"/>
+    <col min="7131" max="7131" width="6.44140625" style="1" customWidth="1"/>
+    <col min="7132" max="7134" width="8.6640625" style="1" customWidth="1"/>
+    <col min="7135" max="7135" width="21.109375" style="1" customWidth="1"/>
+    <col min="7136" max="7136" width="25.109375" style="1" customWidth="1"/>
+    <col min="7137" max="7137" width="14.88671875" style="1" customWidth="1"/>
+    <col min="7138" max="7138" width="16.88671875" style="1" customWidth="1"/>
+    <col min="7139" max="7139" width="7.77734375" style="1" customWidth="1"/>
+    <col min="7140" max="7140" width="14.88671875" style="1" customWidth="1"/>
+    <col min="7141" max="7141" width="9.21875" style="1" customWidth="1"/>
+    <col min="7142" max="7142" width="11.21875" style="1" customWidth="1"/>
+    <col min="7143" max="7143" width="16.21875" style="1" customWidth="1"/>
+    <col min="7144" max="7144" width="13.109375" style="1" customWidth="1"/>
+    <col min="7145" max="7147" width="12.77734375" style="1" customWidth="1"/>
+    <col min="7148" max="7148" width="11.88671875" style="1" customWidth="1"/>
+    <col min="7149" max="7149" width="12.77734375" style="1" customWidth="1"/>
+    <col min="7150" max="7339" width="7.77734375" style="1" customWidth="1"/>
+    <col min="7340" max="7340" width="5.6640625" style="1" customWidth="1"/>
+    <col min="7341" max="7342" width="10.88671875" style="1" customWidth="1"/>
+    <col min="7343" max="7343" width="9.109375" style="1" customWidth="1"/>
+    <col min="7344" max="7345" width="8.6640625" style="1" customWidth="1"/>
+    <col min="7346" max="7346" width="24" style="1" customWidth="1"/>
+    <col min="7347" max="7347" width="17.77734375" style="1" customWidth="1"/>
+    <col min="7348" max="7349" width="12.77734375" style="1" customWidth="1"/>
+    <col min="7350" max="7350" width="20.21875" style="1" customWidth="1"/>
+    <col min="7351" max="7386" width="8.33203125" style="1"/>
+    <col min="7387" max="7387" width="6.44140625" style="1" customWidth="1"/>
+    <col min="7388" max="7390" width="8.6640625" style="1" customWidth="1"/>
+    <col min="7391" max="7391" width="21.109375" style="1" customWidth="1"/>
+    <col min="7392" max="7392" width="25.109375" style="1" customWidth="1"/>
+    <col min="7393" max="7393" width="14.88671875" style="1" customWidth="1"/>
+    <col min="7394" max="7394" width="16.88671875" style="1" customWidth="1"/>
+    <col min="7395" max="7395" width="7.77734375" style="1" customWidth="1"/>
+    <col min="7396" max="7396" width="14.88671875" style="1" customWidth="1"/>
+    <col min="7397" max="7397" width="9.21875" style="1" customWidth="1"/>
+    <col min="7398" max="7398" width="11.21875" style="1" customWidth="1"/>
+    <col min="7399" max="7399" width="16.21875" style="1" customWidth="1"/>
+    <col min="7400" max="7400" width="13.109375" style="1" customWidth="1"/>
+    <col min="7401" max="7403" width="12.77734375" style="1" customWidth="1"/>
+    <col min="7404" max="7404" width="11.88671875" style="1" customWidth="1"/>
+    <col min="7405" max="7405" width="12.77734375" style="1" customWidth="1"/>
+    <col min="7406" max="7595" width="7.77734375" style="1" customWidth="1"/>
+    <col min="7596" max="7596" width="5.6640625" style="1" customWidth="1"/>
+    <col min="7597" max="7598" width="10.88671875" style="1" customWidth="1"/>
+    <col min="7599" max="7599" width="9.109375" style="1" customWidth="1"/>
+    <col min="7600" max="7601" width="8.6640625" style="1" customWidth="1"/>
+    <col min="7602" max="7602" width="24" style="1" customWidth="1"/>
+    <col min="7603" max="7603" width="17.77734375" style="1" customWidth="1"/>
+    <col min="7604" max="7605" width="12.77734375" style="1" customWidth="1"/>
+    <col min="7606" max="7606" width="20.21875" style="1" customWidth="1"/>
+    <col min="7607" max="7642" width="8.33203125" style="1"/>
+    <col min="7643" max="7643" width="6.44140625" style="1" customWidth="1"/>
+    <col min="7644" max="7646" width="8.6640625" style="1" customWidth="1"/>
+    <col min="7647" max="7647" width="21.109375" style="1" customWidth="1"/>
+    <col min="7648" max="7648" width="25.109375" style="1" customWidth="1"/>
+    <col min="7649" max="7649" width="14.88671875" style="1" customWidth="1"/>
+    <col min="7650" max="7650" width="16.88671875" style="1" customWidth="1"/>
+    <col min="7651" max="7651" width="7.77734375" style="1" customWidth="1"/>
+    <col min="7652" max="7652" width="14.88671875" style="1" customWidth="1"/>
+    <col min="7653" max="7653" width="9.21875" style="1" customWidth="1"/>
+    <col min="7654" max="7654" width="11.21875" style="1" customWidth="1"/>
+    <col min="7655" max="7655" width="16.21875" style="1" customWidth="1"/>
+    <col min="7656" max="7656" width="13.109375" style="1" customWidth="1"/>
+    <col min="7657" max="7659" width="12.77734375" style="1" customWidth="1"/>
+    <col min="7660" max="7660" width="11.88671875" style="1" customWidth="1"/>
+    <col min="7661" max="7661" width="12.77734375" style="1" customWidth="1"/>
+    <col min="7662" max="7851" width="7.77734375" style="1" customWidth="1"/>
+    <col min="7852" max="7852" width="5.6640625" style="1" customWidth="1"/>
+    <col min="7853" max="7854" width="10.88671875" style="1" customWidth="1"/>
+    <col min="7855" max="7855" width="9.109375" style="1" customWidth="1"/>
+    <col min="7856" max="7857" width="8.6640625" style="1" customWidth="1"/>
+    <col min="7858" max="7858" width="24" style="1" customWidth="1"/>
+    <col min="7859" max="7859" width="17.77734375" style="1" customWidth="1"/>
+    <col min="7860" max="7861" width="12.77734375" style="1" customWidth="1"/>
+    <col min="7862" max="7862" width="20.21875" style="1" customWidth="1"/>
+    <col min="7863" max="7898" width="8.33203125" style="1"/>
+    <col min="7899" max="7899" width="6.44140625" style="1" customWidth="1"/>
+    <col min="7900" max="7902" width="8.6640625" style="1" customWidth="1"/>
+    <col min="7903" max="7903" width="21.109375" style="1" customWidth="1"/>
+    <col min="7904" max="7904" width="25.109375" style="1" customWidth="1"/>
+    <col min="7905" max="7905" width="14.88671875" style="1" customWidth="1"/>
+    <col min="7906" max="7906" width="16.88671875" style="1" customWidth="1"/>
+    <col min="7907" max="7907" width="7.77734375" style="1" customWidth="1"/>
+    <col min="7908" max="7908" width="14.88671875" style="1" customWidth="1"/>
+    <col min="7909" max="7909" width="9.21875" style="1" customWidth="1"/>
+    <col min="7910" max="7910" width="11.21875" style="1" customWidth="1"/>
+    <col min="7911" max="7911" width="16.21875" style="1" customWidth="1"/>
+    <col min="7912" max="7912" width="13.109375" style="1" customWidth="1"/>
+    <col min="7913" max="7915" width="12.77734375" style="1" customWidth="1"/>
+    <col min="7916" max="7916" width="11.88671875" style="1" customWidth="1"/>
+    <col min="7917" max="7917" width="12.77734375" style="1" customWidth="1"/>
+    <col min="7918" max="8107" width="7.77734375" style="1" customWidth="1"/>
+    <col min="8108" max="8108" width="5.6640625" style="1" customWidth="1"/>
+    <col min="8109" max="8110" width="10.88671875" style="1" customWidth="1"/>
+    <col min="8111" max="8111" width="9.109375" style="1" customWidth="1"/>
+    <col min="8112" max="8113" width="8.6640625" style="1" customWidth="1"/>
+    <col min="8114" max="8114" width="24" style="1" customWidth="1"/>
+    <col min="8115" max="8115" width="17.77734375" style="1" customWidth="1"/>
+    <col min="8116" max="8117" width="12.77734375" style="1" customWidth="1"/>
+    <col min="8118" max="8118" width="20.21875" style="1" customWidth="1"/>
+    <col min="8119" max="8154" width="8.33203125" style="1"/>
+    <col min="8155" max="8155" width="6.44140625" style="1" customWidth="1"/>
+    <col min="8156" max="8158" width="8.6640625" style="1" customWidth="1"/>
+    <col min="8159" max="8159" width="21.109375" style="1" customWidth="1"/>
+    <col min="8160" max="8160" width="25.109375" style="1" customWidth="1"/>
+    <col min="8161" max="8161" width="14.88671875" style="1" customWidth="1"/>
+    <col min="8162" max="8162" width="16.88671875" style="1" customWidth="1"/>
+    <col min="8163" max="8163" width="7.77734375" style="1" customWidth="1"/>
+    <col min="8164" max="8164" width="14.88671875" style="1" customWidth="1"/>
+    <col min="8165" max="8165" width="9.21875" style="1" customWidth="1"/>
+    <col min="8166" max="8166" width="11.21875" style="1" customWidth="1"/>
+    <col min="8167" max="8167" width="16.21875" style="1" customWidth="1"/>
+    <col min="8168" max="8168" width="13.109375" style="1" customWidth="1"/>
+    <col min="8169" max="8171" width="12.77734375" style="1" customWidth="1"/>
+    <col min="8172" max="8172" width="11.88671875" style="1" customWidth="1"/>
+    <col min="8173" max="8173" width="12.77734375" style="1" customWidth="1"/>
+    <col min="8174" max="8363" width="7.77734375" style="1" customWidth="1"/>
+    <col min="8364" max="8364" width="5.6640625" style="1" customWidth="1"/>
+    <col min="8365" max="8366" width="10.88671875" style="1" customWidth="1"/>
+    <col min="8367" max="8367" width="9.109375" style="1" customWidth="1"/>
+    <col min="8368" max="8369" width="8.6640625" style="1" customWidth="1"/>
+    <col min="8370" max="8370" width="24" style="1" customWidth="1"/>
+    <col min="8371" max="8371" width="17.77734375" style="1" customWidth="1"/>
+    <col min="8372" max="8373" width="12.77734375" style="1" customWidth="1"/>
+    <col min="8374" max="8374" width="20.21875" style="1" customWidth="1"/>
+    <col min="8375" max="8410" width="8.33203125" style="1"/>
+    <col min="8411" max="8411" width="6.44140625" style="1" customWidth="1"/>
+    <col min="8412" max="8414" width="8.6640625" style="1" customWidth="1"/>
+    <col min="8415" max="8415" width="21.109375" style="1" customWidth="1"/>
+    <col min="8416" max="8416" width="25.109375" style="1" customWidth="1"/>
+    <col min="8417" max="8417" width="14.88671875" style="1" customWidth="1"/>
+    <col min="8418" max="8418" width="16.88671875" style="1" customWidth="1"/>
+    <col min="8419" max="8419" width="7.77734375" style="1" customWidth="1"/>
+    <col min="8420" max="8420" width="14.88671875" style="1" customWidth="1"/>
+    <col min="8421" max="8421" width="9.21875" style="1" customWidth="1"/>
+    <col min="8422" max="8422" width="11.21875" style="1" customWidth="1"/>
+    <col min="8423" max="8423" width="16.21875" style="1" customWidth="1"/>
+    <col min="8424" max="8424" width="13.109375" style="1" customWidth="1"/>
+    <col min="8425" max="8427" width="12.77734375" style="1" customWidth="1"/>
+    <col min="8428" max="8428" width="11.88671875" style="1" customWidth="1"/>
+    <col min="8429" max="8429" width="12.77734375" style="1" customWidth="1"/>
+    <col min="8430" max="8619" width="7.77734375" style="1" customWidth="1"/>
+    <col min="8620" max="8620" width="5.6640625" style="1" customWidth="1"/>
+    <col min="8621" max="8622" width="10.88671875" style="1" customWidth="1"/>
+    <col min="8623" max="8623" width="9.109375" style="1" customWidth="1"/>
+    <col min="8624" max="8625" width="8.6640625" style="1" customWidth="1"/>
+    <col min="8626" max="8626" width="24" style="1" customWidth="1"/>
+    <col min="8627" max="8627" width="17.77734375" style="1" customWidth="1"/>
+    <col min="8628" max="8629" width="12.77734375" style="1" customWidth="1"/>
+    <col min="8630" max="8630" width="20.21875" style="1" customWidth="1"/>
+    <col min="8631" max="8666" width="8.33203125" style="1"/>
+    <col min="8667" max="8667" width="6.44140625" style="1" customWidth="1"/>
+    <col min="8668" max="8670" width="8.6640625" style="1" customWidth="1"/>
+    <col min="8671" max="8671" width="21.109375" style="1" customWidth="1"/>
+    <col min="8672" max="8672" width="25.109375" style="1" customWidth="1"/>
+    <col min="8673" max="8673" width="14.88671875" style="1" customWidth="1"/>
+    <col min="8674" max="8674" width="16.88671875" style="1" customWidth="1"/>
+    <col min="8675" max="8675" width="7.77734375" style="1" customWidth="1"/>
+    <col min="8676" max="8676" width="14.88671875" style="1" customWidth="1"/>
+    <col min="8677" max="8677" width="9.21875" style="1" customWidth="1"/>
+    <col min="8678" max="8678" width="11.21875" style="1" customWidth="1"/>
+    <col min="8679" max="8679" width="16.21875" style="1" customWidth="1"/>
+    <col min="8680" max="8680" width="13.109375" style="1" customWidth="1"/>
+    <col min="8681" max="8683" width="12.77734375" style="1" customWidth="1"/>
+    <col min="8684" max="8684" width="11.88671875" style="1" customWidth="1"/>
+    <col min="8685" max="8685" width="12.77734375" style="1" customWidth="1"/>
+    <col min="8686" max="8875" width="7.77734375" style="1" customWidth="1"/>
+    <col min="8876" max="8876" width="5.6640625" style="1" customWidth="1"/>
+    <col min="8877" max="8878" width="10.88671875" style="1" customWidth="1"/>
+    <col min="8879" max="8879" width="9.109375" style="1" customWidth="1"/>
+    <col min="8880" max="8881" width="8.6640625" style="1" customWidth="1"/>
+    <col min="8882" max="8882" width="24" style="1" customWidth="1"/>
+    <col min="8883" max="8883" width="17.77734375" style="1" customWidth="1"/>
+    <col min="8884" max="8885" width="12.77734375" style="1" customWidth="1"/>
+    <col min="8886" max="8886" width="20.21875" style="1" customWidth="1"/>
+    <col min="8887" max="8922" width="8.33203125" style="1"/>
+    <col min="8923" max="8923" width="6.44140625" style="1" customWidth="1"/>
+    <col min="8924" max="8926" width="8.6640625" style="1" customWidth="1"/>
+    <col min="8927" max="8927" width="21.109375" style="1" customWidth="1"/>
+    <col min="8928" max="8928" width="25.109375" style="1" customWidth="1"/>
+    <col min="8929" max="8929" width="14.88671875" style="1" customWidth="1"/>
+    <col min="8930" max="8930" width="16.88671875" style="1" customWidth="1"/>
+    <col min="8931" max="8931" width="7.77734375" style="1" customWidth="1"/>
+    <col min="8932" max="8932" width="14.88671875" style="1" customWidth="1"/>
+    <col min="8933" max="8933" width="9.21875" style="1" customWidth="1"/>
+    <col min="8934" max="8934" width="11.21875" style="1" customWidth="1"/>
+    <col min="8935" max="8935" width="16.21875" style="1" customWidth="1"/>
+    <col min="8936" max="8936" width="13.109375" style="1" customWidth="1"/>
+    <col min="8937" max="8939" width="12.77734375" style="1" customWidth="1"/>
+    <col min="8940" max="8940" width="11.88671875" style="1" customWidth="1"/>
+    <col min="8941" max="8941" width="12.77734375" style="1" customWidth="1"/>
+    <col min="8942" max="9131" width="7.77734375" style="1" customWidth="1"/>
+    <col min="9132" max="9132" width="5.6640625" style="1" customWidth="1"/>
+    <col min="9133" max="9134" width="10.88671875" style="1" customWidth="1"/>
+    <col min="9135" max="9135" width="9.109375" style="1" customWidth="1"/>
+    <col min="9136" max="9137" width="8.6640625" style="1" customWidth="1"/>
+    <col min="9138" max="9138" width="24" style="1" customWidth="1"/>
+    <col min="9139" max="9139" width="17.77734375" style="1" customWidth="1"/>
+    <col min="9140" max="9141" width="12.77734375" style="1" customWidth="1"/>
+    <col min="9142" max="9142" width="20.21875" style="1" customWidth="1"/>
+    <col min="9143" max="9178" width="8.33203125" style="1"/>
+    <col min="9179" max="9179" width="6.44140625" style="1" customWidth="1"/>
+    <col min="9180" max="9182" width="8.6640625" style="1" customWidth="1"/>
+    <col min="9183" max="9183" width="21.109375" style="1" customWidth="1"/>
+    <col min="9184" max="9184" width="25.109375" style="1" customWidth="1"/>
+    <col min="9185" max="9185" width="14.88671875" style="1" customWidth="1"/>
+    <col min="9186" max="9186" width="16.88671875" style="1" customWidth="1"/>
+    <col min="9187" max="9187" width="7.77734375" style="1" customWidth="1"/>
+    <col min="9188" max="9188" width="14.88671875" style="1" customWidth="1"/>
+    <col min="9189" max="9189" width="9.21875" style="1" customWidth="1"/>
+    <col min="9190" max="9190" width="11.21875" style="1" customWidth="1"/>
+    <col min="9191" max="9191" width="16.21875" style="1" customWidth="1"/>
+    <col min="9192" max="9192" width="13.109375" style="1" customWidth="1"/>
+    <col min="9193" max="9195" width="12.77734375" style="1" customWidth="1"/>
+    <col min="9196" max="9196" width="11.88671875" style="1" customWidth="1"/>
+    <col min="9197" max="9197" width="12.77734375" style="1" customWidth="1"/>
+    <col min="9198" max="9387" width="7.77734375" style="1" customWidth="1"/>
+    <col min="9388" max="9388" width="5.6640625" style="1" customWidth="1"/>
+    <col min="9389" max="9390" width="10.88671875" style="1" customWidth="1"/>
+    <col min="9391" max="9391" width="9.109375" style="1" customWidth="1"/>
+    <col min="9392" max="9393" width="8.6640625" style="1" customWidth="1"/>
+    <col min="9394" max="9394" width="24" style="1" customWidth="1"/>
+    <col min="9395" max="9395" width="17.77734375" style="1" customWidth="1"/>
+    <col min="9396" max="9397" width="12.77734375" style="1" customWidth="1"/>
+    <col min="9398" max="9398" width="20.21875" style="1" customWidth="1"/>
+    <col min="9399" max="9434" width="8.33203125" style="1"/>
+    <col min="9435" max="9435" width="6.44140625" style="1" customWidth="1"/>
+    <col min="9436" max="9438" width="8.6640625" style="1" customWidth="1"/>
+    <col min="9439" max="9439" width="21.109375" style="1" customWidth="1"/>
+    <col min="9440" max="9440" width="25.109375" style="1" customWidth="1"/>
+    <col min="9441" max="9441" width="14.88671875" style="1" customWidth="1"/>
+    <col min="9442" max="9442" width="16.88671875" style="1" customWidth="1"/>
+    <col min="9443" max="9443" width="7.77734375" style="1" customWidth="1"/>
+    <col min="9444" max="9444" width="14.88671875" style="1" customWidth="1"/>
+    <col min="9445" max="9445" width="9.21875" style="1" customWidth="1"/>
+    <col min="9446" max="9446" width="11.21875" style="1" customWidth="1"/>
+    <col min="9447" max="9447" width="16.21875" style="1" customWidth="1"/>
+    <col min="9448" max="9448" width="13.109375" style="1" customWidth="1"/>
+    <col min="9449" max="9451" width="12.77734375" style="1" customWidth="1"/>
+    <col min="9452" max="9452" width="11.88671875" style="1" customWidth="1"/>
+    <col min="9453" max="9453" width="12.77734375" style="1" customWidth="1"/>
+    <col min="9454" max="9643" width="7.77734375" style="1" customWidth="1"/>
+    <col min="9644" max="9644" width="5.6640625" style="1" customWidth="1"/>
+    <col min="9645" max="9646" width="10.88671875" style="1" customWidth="1"/>
+    <col min="9647" max="9647" width="9.109375" style="1" customWidth="1"/>
+    <col min="9648" max="9649" width="8.6640625" style="1" customWidth="1"/>
+    <col min="9650" max="9650" width="24" style="1" customWidth="1"/>
+    <col min="9651" max="9651" width="17.77734375" style="1" customWidth="1"/>
+    <col min="9652" max="9653" width="12.77734375" style="1" customWidth="1"/>
+    <col min="9654" max="9654" width="20.21875" style="1" customWidth="1"/>
+    <col min="9655" max="9690" width="8.33203125" style="1"/>
+    <col min="9691" max="9691" width="6.44140625" style="1" customWidth="1"/>
+    <col min="9692" max="9694" width="8.6640625" style="1" customWidth="1"/>
+    <col min="9695" max="9695" width="21.109375" style="1" customWidth="1"/>
+    <col min="9696" max="9696" width="25.109375" style="1" customWidth="1"/>
+    <col min="9697" max="9697" width="14.88671875" style="1" customWidth="1"/>
+    <col min="9698" max="9698" width="16.88671875" style="1" customWidth="1"/>
+    <col min="9699" max="9699" width="7.77734375" style="1" customWidth="1"/>
+    <col min="9700" max="9700" width="14.88671875" style="1" customWidth="1"/>
+    <col min="9701" max="9701" width="9.21875" style="1" customWidth="1"/>
+    <col min="9702" max="9702" width="11.21875" style="1" customWidth="1"/>
+    <col min="9703" max="9703" width="16.21875" style="1" customWidth="1"/>
+    <col min="9704" max="9704" width="13.109375" style="1" customWidth="1"/>
+    <col min="9705" max="9707" width="12.77734375" style="1" customWidth="1"/>
+    <col min="9708" max="9708" width="11.88671875" style="1" customWidth="1"/>
+    <col min="9709" max="9709" width="12.77734375" style="1" customWidth="1"/>
+    <col min="9710" max="9899" width="7.77734375" style="1" customWidth="1"/>
+    <col min="9900" max="9900" width="5.6640625" style="1" customWidth="1"/>
+    <col min="9901" max="9902" width="10.88671875" style="1" customWidth="1"/>
+    <col min="9903" max="9903" width="9.109375" style="1" customWidth="1"/>
+    <col min="9904" max="9905" width="8.6640625" style="1" customWidth="1"/>
+    <col min="9906" max="9906" width="24" style="1" customWidth="1"/>
+    <col min="9907" max="9907" width="17.77734375" style="1" customWidth="1"/>
+    <col min="9908" max="9909" width="12.77734375" style="1" customWidth="1"/>
+    <col min="9910" max="9910" width="20.21875" style="1" customWidth="1"/>
+    <col min="9911" max="9946" width="8.33203125" style="1"/>
+    <col min="9947" max="9947" width="6.44140625" style="1" customWidth="1"/>
+    <col min="9948" max="9950" width="8.6640625" style="1" customWidth="1"/>
+    <col min="9951" max="9951" width="21.109375" style="1" customWidth="1"/>
+    <col min="9952" max="9952" width="25.109375" style="1" customWidth="1"/>
+    <col min="9953" max="9953" width="14.88671875" style="1" customWidth="1"/>
+    <col min="9954" max="9954" width="16.88671875" style="1" customWidth="1"/>
+    <col min="9955" max="9955" width="7.77734375" style="1" customWidth="1"/>
+    <col min="9956" max="9956" width="14.88671875" style="1" customWidth="1"/>
+    <col min="9957" max="9957" width="9.21875" style="1" customWidth="1"/>
+    <col min="9958" max="9958" width="11.21875" style="1" customWidth="1"/>
+    <col min="9959" max="9959" width="16.21875" style="1" customWidth="1"/>
+    <col min="9960" max="9960" width="13.109375" style="1" customWidth="1"/>
+    <col min="9961" max="9963" width="12.77734375" style="1" customWidth="1"/>
+    <col min="9964" max="9964" width="11.88671875" style="1" customWidth="1"/>
+    <col min="9965" max="9965" width="12.77734375" style="1" customWidth="1"/>
+    <col min="9966" max="10155" width="7.77734375" style="1" customWidth="1"/>
+    <col min="10156" max="10156" width="5.6640625" style="1" customWidth="1"/>
+    <col min="10157" max="10158" width="10.88671875" style="1" customWidth="1"/>
+    <col min="10159" max="10159" width="9.109375" style="1" customWidth="1"/>
+    <col min="10160" max="10161" width="8.6640625" style="1" customWidth="1"/>
+    <col min="10162" max="10162" width="24" style="1" customWidth="1"/>
+    <col min="10163" max="10163" width="17.77734375" style="1" customWidth="1"/>
+    <col min="10164" max="10165" width="12.77734375" style="1" customWidth="1"/>
+    <col min="10166" max="10166" width="20.21875" style="1" customWidth="1"/>
+    <col min="10167" max="10202" width="8.33203125" style="1"/>
+    <col min="10203" max="10203" width="6.44140625" style="1" customWidth="1"/>
+    <col min="10204" max="10206" width="8.6640625" style="1" customWidth="1"/>
+    <col min="10207" max="10207" width="21.109375" style="1" customWidth="1"/>
+    <col min="10208" max="10208" width="25.109375" style="1" customWidth="1"/>
+    <col min="10209" max="10209" width="14.88671875" style="1" customWidth="1"/>
+    <col min="10210" max="10210" width="16.88671875" style="1" customWidth="1"/>
+    <col min="10211" max="10211" width="7.77734375" style="1" customWidth="1"/>
+    <col min="10212" max="10212" width="14.88671875" style="1" customWidth="1"/>
+    <col min="10213" max="10213" width="9.21875" style="1" customWidth="1"/>
+    <col min="10214" max="10214" width="11.21875" style="1" customWidth="1"/>
+    <col min="10215" max="10215" width="16.21875" style="1" customWidth="1"/>
+    <col min="10216" max="10216" width="13.109375" style="1" customWidth="1"/>
+    <col min="10217" max="10219" width="12.77734375" style="1" customWidth="1"/>
+    <col min="10220" max="10220" width="11.88671875" style="1" customWidth="1"/>
+    <col min="10221" max="10221" width="12.77734375" style="1" customWidth="1"/>
+    <col min="10222" max="10411" width="7.77734375" style="1" customWidth="1"/>
+    <col min="10412" max="10412" width="5.6640625" style="1" customWidth="1"/>
+    <col min="10413" max="10414" width="10.88671875" style="1" customWidth="1"/>
+    <col min="10415" max="10415" width="9.109375" style="1" customWidth="1"/>
+    <col min="10416" max="10417" width="8.6640625" style="1" customWidth="1"/>
+    <col min="10418" max="10418" width="24" style="1" customWidth="1"/>
+    <col min="10419" max="10419" width="17.77734375" style="1" customWidth="1"/>
+    <col min="10420" max="10421" width="12.77734375" style="1" customWidth="1"/>
+    <col min="10422" max="10422" width="20.21875" style="1" customWidth="1"/>
+    <col min="10423" max="10458" width="8.33203125" style="1"/>
+    <col min="10459" max="10459" width="6.44140625" style="1" customWidth="1"/>
+    <col min="10460" max="10462" width="8.6640625" style="1" customWidth="1"/>
+    <col min="10463" max="10463" width="21.109375" style="1" customWidth="1"/>
+    <col min="10464" max="10464" width="25.109375" style="1" customWidth="1"/>
+    <col min="10465" max="10465" width="14.88671875" style="1" customWidth="1"/>
+    <col min="10466" max="10466" width="16.88671875" style="1" customWidth="1"/>
+    <col min="10467" max="10467" width="7.77734375" style="1" customWidth="1"/>
+    <col min="10468" max="10468" width="14.88671875" style="1" customWidth="1"/>
+    <col min="10469" max="10469" width="9.21875" style="1" customWidth="1"/>
+    <col min="10470" max="10470" width="11.21875" style="1" customWidth="1"/>
+    <col min="10471" max="10471" width="16.21875" style="1" customWidth="1"/>
+    <col min="10472" max="10472" width="13.109375" style="1" customWidth="1"/>
+    <col min="10473" max="10475" width="12.77734375" style="1" customWidth="1"/>
+    <col min="10476" max="10476" width="11.88671875" style="1" customWidth="1"/>
+    <col min="10477" max="10477" width="12.77734375" style="1" customWidth="1"/>
+    <col min="10478" max="10667" width="7.77734375" style="1" customWidth="1"/>
+    <col min="10668" max="10668" width="5.6640625" style="1" customWidth="1"/>
+    <col min="10669" max="10670" width="10.88671875" style="1" customWidth="1"/>
+    <col min="10671" max="10671" width="9.109375" style="1" customWidth="1"/>
+    <col min="10672" max="10673" width="8.6640625" style="1" customWidth="1"/>
+    <col min="10674" max="10674" width="24" style="1" customWidth="1"/>
+    <col min="10675" max="10675" width="17.77734375" style="1" customWidth="1"/>
+    <col min="10676" max="10677" width="12.77734375" style="1" customWidth="1"/>
+    <col min="10678" max="10678" width="20.21875" style="1" customWidth="1"/>
+    <col min="10679" max="10714" width="8.33203125" style="1"/>
+    <col min="10715" max="10715" width="6.44140625" style="1" customWidth="1"/>
+    <col min="10716" max="10718" width="8.6640625" style="1" customWidth="1"/>
+    <col min="10719" max="10719" width="21.109375" style="1" customWidth="1"/>
+    <col min="10720" max="10720" width="25.109375" style="1" customWidth="1"/>
+    <col min="10721" max="10721" width="14.88671875" style="1" customWidth="1"/>
+    <col min="10722" max="10722" width="16.88671875" style="1" customWidth="1"/>
+    <col min="10723" max="10723" width="7.77734375" style="1" customWidth="1"/>
+    <col min="10724" max="10724" width="14.88671875" style="1" customWidth="1"/>
+    <col min="10725" max="10725" width="9.21875" style="1" customWidth="1"/>
+    <col min="10726" max="10726" width="11.21875" style="1" customWidth="1"/>
+    <col min="10727" max="10727" width="16.21875" style="1" customWidth="1"/>
+    <col min="10728" max="10728" width="13.109375" style="1" customWidth="1"/>
+    <col min="10729" max="10731" width="12.77734375" style="1" customWidth="1"/>
+    <col min="10732" max="10732" width="11.88671875" style="1" customWidth="1"/>
+    <col min="10733" max="10733" width="12.77734375" style="1" customWidth="1"/>
+    <col min="10734" max="10923" width="7.77734375" style="1" customWidth="1"/>
+    <col min="10924" max="10924" width="5.6640625" style="1" customWidth="1"/>
+    <col min="10925" max="10926" width="10.88671875" style="1" customWidth="1"/>
+    <col min="10927" max="10927" width="9.109375" style="1" customWidth="1"/>
+    <col min="10928" max="10929" width="8.6640625" style="1" customWidth="1"/>
+    <col min="10930" max="10930" width="24" style="1" customWidth="1"/>
+    <col min="10931" max="10931" width="17.77734375" style="1" customWidth="1"/>
+    <col min="10932" max="10933" width="12.77734375" style="1" customWidth="1"/>
+    <col min="10934" max="10934" width="20.21875" style="1" customWidth="1"/>
+    <col min="10935" max="10970" width="8.33203125" style="1"/>
+    <col min="10971" max="10971" width="6.44140625" style="1" customWidth="1"/>
+    <col min="10972" max="10974" width="8.6640625" style="1" customWidth="1"/>
+    <col min="10975" max="10975" width="21.109375" style="1" customWidth="1"/>
+    <col min="10976" max="10976" width="25.109375" style="1" customWidth="1"/>
+    <col min="10977" max="10977" width="14.88671875" style="1" customWidth="1"/>
+    <col min="10978" max="10978" width="16.88671875" style="1" customWidth="1"/>
+    <col min="10979" max="10979" width="7.77734375" style="1" customWidth="1"/>
+    <col min="10980" max="10980" width="14.88671875" style="1" customWidth="1"/>
+    <col min="10981" max="10981" width="9.21875" style="1" customWidth="1"/>
+    <col min="10982" max="10982" width="11.21875" style="1" customWidth="1"/>
+    <col min="10983" max="10983" width="16.21875" style="1" customWidth="1"/>
+    <col min="10984" max="10984" width="13.109375" style="1" customWidth="1"/>
+    <col min="10985" max="10987" width="12.77734375" style="1" customWidth="1"/>
+    <col min="10988" max="10988" width="11.88671875" style="1" customWidth="1"/>
+    <col min="10989" max="10989" width="12.77734375" style="1" customWidth="1"/>
+    <col min="10990" max="11179" width="7.77734375" style="1" customWidth="1"/>
+    <col min="11180" max="11180" width="5.6640625" style="1" customWidth="1"/>
+    <col min="11181" max="11182" width="10.88671875" style="1" customWidth="1"/>
+    <col min="11183" max="11183" width="9.109375" style="1" customWidth="1"/>
+    <col min="11184" max="11185" width="8.6640625" style="1" customWidth="1"/>
+    <col min="11186" max="11186" width="24" style="1" customWidth="1"/>
+    <col min="11187" max="11187" width="17.77734375" style="1" customWidth="1"/>
+    <col min="11188" max="11189" width="12.77734375" style="1" customWidth="1"/>
+    <col min="11190" max="11190" width="20.21875" style="1" customWidth="1"/>
+    <col min="11191" max="11226" width="8.33203125" style="1"/>
+    <col min="11227" max="11227" width="6.44140625" style="1" customWidth="1"/>
+    <col min="11228" max="11230" width="8.6640625" style="1" customWidth="1"/>
+    <col min="11231" max="11231" width="21.109375" style="1" customWidth="1"/>
+    <col min="11232" max="11232" width="25.109375" style="1" customWidth="1"/>
+    <col min="11233" max="11233" width="14.88671875" style="1" customWidth="1"/>
+    <col min="11234" max="11234" width="16.88671875" style="1" customWidth="1"/>
+    <col min="11235" max="11235" width="7.77734375" style="1" customWidth="1"/>
+    <col min="11236" max="11236" width="14.88671875" style="1" customWidth="1"/>
+    <col min="11237" max="11237" width="9.21875" style="1" customWidth="1"/>
+    <col min="11238" max="11238" width="11.21875" style="1" customWidth="1"/>
+    <col min="11239" max="11239" width="16.21875" style="1" customWidth="1"/>
+    <col min="11240" max="11240" width="13.109375" style="1" customWidth="1"/>
+    <col min="11241" max="11243" width="12.77734375" style="1" customWidth="1"/>
+    <col min="11244" max="11244" width="11.88671875" style="1" customWidth="1"/>
+    <col min="11245" max="11245" width="12.77734375" style="1" customWidth="1"/>
+    <col min="11246" max="11435" width="7.77734375" style="1" customWidth="1"/>
+    <col min="11436" max="11436" width="5.6640625" style="1" customWidth="1"/>
+    <col min="11437" max="11438" width="10.88671875" style="1" customWidth="1"/>
+    <col min="11439" max="11439" width="9.109375" style="1" customWidth="1"/>
+    <col min="11440" max="11441" width="8.6640625" style="1" customWidth="1"/>
+    <col min="11442" max="11442" width="24" style="1" customWidth="1"/>
+    <col min="11443" max="11443" width="17.77734375" style="1" customWidth="1"/>
+    <col min="11444" max="11445" width="12.77734375" style="1" customWidth="1"/>
+    <col min="11446" max="11446" width="20.21875" style="1" customWidth="1"/>
+    <col min="11447" max="11482" width="8.33203125" style="1"/>
+    <col min="11483" max="11483" width="6.44140625" style="1" customWidth="1"/>
+    <col min="11484" max="11486" width="8.6640625" style="1" customWidth="1"/>
+    <col min="11487" max="11487" width="21.109375" style="1" customWidth="1"/>
+    <col min="11488" max="11488" width="25.109375" style="1" customWidth="1"/>
+    <col min="11489" max="11489" width="14.88671875" style="1" customWidth="1"/>
+    <col min="11490" max="11490" width="16.88671875" style="1" customWidth="1"/>
+    <col min="11491" max="11491" width="7.77734375" style="1" customWidth="1"/>
+    <col min="11492" max="11492" width="14.88671875" style="1" customWidth="1"/>
+    <col min="11493" max="11493" width="9.21875" style="1" customWidth="1"/>
+    <col min="11494" max="11494" width="11.21875" style="1" customWidth="1"/>
+    <col min="11495" max="11495" width="16.21875" style="1" customWidth="1"/>
+    <col min="11496" max="11496" width="13.109375" style="1" customWidth="1"/>
+    <col min="11497" max="11499" width="12.77734375" style="1" customWidth="1"/>
+    <col min="11500" max="11500" width="11.88671875" style="1" customWidth="1"/>
+    <col min="11501" max="11501" width="12.77734375" style="1" customWidth="1"/>
+    <col min="11502" max="11691" width="7.77734375" style="1" customWidth="1"/>
+    <col min="11692" max="11692" width="5.6640625" style="1" customWidth="1"/>
+    <col min="11693" max="11694" width="10.88671875" style="1" customWidth="1"/>
+    <col min="11695" max="11695" width="9.109375" style="1" customWidth="1"/>
+    <col min="11696" max="11697" width="8.6640625" style="1" customWidth="1"/>
+    <col min="11698" max="11698" width="24" style="1" customWidth="1"/>
+    <col min="11699" max="11699" width="17.77734375" style="1" customWidth="1"/>
+    <col min="11700" max="11701" width="12.77734375" style="1" customWidth="1"/>
+    <col min="11702" max="11702" width="20.21875" style="1" customWidth="1"/>
+    <col min="11703" max="11738" width="8.33203125" style="1"/>
+    <col min="11739" max="11739" width="6.44140625" style="1" customWidth="1"/>
+    <col min="11740" max="11742" width="8.6640625" style="1" customWidth="1"/>
+    <col min="11743" max="11743" width="21.109375" style="1" customWidth="1"/>
+    <col min="11744" max="11744" width="25.109375" style="1" customWidth="1"/>
+    <col min="11745" max="11745" width="14.88671875" style="1" customWidth="1"/>
+    <col min="11746" max="11746" width="16.88671875" style="1" customWidth="1"/>
+    <col min="11747" max="11747" width="7.77734375" style="1" customWidth="1"/>
+    <col min="11748" max="11748" width="14.88671875" style="1" customWidth="1"/>
+    <col min="11749" max="11749" width="9.21875" style="1" customWidth="1"/>
+    <col min="11750" max="11750" width="11.21875" style="1" customWidth="1"/>
+    <col min="11751" max="11751" width="16.21875" style="1" customWidth="1"/>
+    <col min="11752" max="11752" width="13.109375" style="1" customWidth="1"/>
+    <col min="11753" max="11755" width="12.77734375" style="1" customWidth="1"/>
+    <col min="11756" max="11756" width="11.88671875" style="1" customWidth="1"/>
+    <col min="11757" max="11757" width="12.77734375" style="1" customWidth="1"/>
+    <col min="11758" max="11947" width="7.77734375" style="1" customWidth="1"/>
+    <col min="11948" max="11948" width="5.6640625" style="1" customWidth="1"/>
+    <col min="11949" max="11950" width="10.88671875" style="1" customWidth="1"/>
+    <col min="11951" max="11951" width="9.109375" style="1" customWidth="1"/>
+    <col min="11952" max="11953" width="8.6640625" style="1" customWidth="1"/>
+    <col min="11954" max="11954" width="24" style="1" customWidth="1"/>
+    <col min="11955" max="11955" width="17.77734375" style="1" customWidth="1"/>
+    <col min="11956" max="11957" width="12.77734375" style="1" customWidth="1"/>
+    <col min="11958" max="11958" width="20.21875" style="1" customWidth="1"/>
+    <col min="11959" max="11994" width="8.33203125" style="1"/>
+    <col min="11995" max="11995" width="6.44140625" style="1" customWidth="1"/>
+    <col min="11996" max="11998" width="8.6640625" style="1" customWidth="1"/>
+    <col min="11999" max="11999" width="21.109375" style="1" customWidth="1"/>
+    <col min="12000" max="12000" width="25.109375" style="1" customWidth="1"/>
+    <col min="12001" max="12001" width="14.88671875" style="1" customWidth="1"/>
+    <col min="12002" max="12002" width="16.88671875" style="1" customWidth="1"/>
+    <col min="12003" max="12003" width="7.77734375" style="1" customWidth="1"/>
+    <col min="12004" max="12004" width="14.88671875" style="1" customWidth="1"/>
+    <col min="12005" max="12005" width="9.21875" style="1" customWidth="1"/>
+    <col min="12006" max="12006" width="11.21875" style="1" customWidth="1"/>
+    <col min="12007" max="12007" width="16.21875" style="1" customWidth="1"/>
+    <col min="12008" max="12008" width="13.109375" style="1" customWidth="1"/>
+    <col min="12009" max="12011" width="12.77734375" style="1" customWidth="1"/>
+    <col min="12012" max="12012" width="11.88671875" style="1" customWidth="1"/>
+    <col min="12013" max="12013" width="12.77734375" style="1" customWidth="1"/>
+    <col min="12014" max="12203" width="7.77734375" style="1" customWidth="1"/>
+    <col min="12204" max="12204" width="5.6640625" style="1" customWidth="1"/>
+    <col min="12205" max="12206" width="10.88671875" style="1" customWidth="1"/>
+    <col min="12207" max="12207" width="9.109375" style="1" customWidth="1"/>
+    <col min="12208" max="12209" width="8.6640625" style="1" customWidth="1"/>
+    <col min="12210" max="12210" width="24" style="1" customWidth="1"/>
+    <col min="12211" max="12211" width="17.77734375" style="1" customWidth="1"/>
+    <col min="12212" max="12213" width="12.77734375" style="1" customWidth="1"/>
+    <col min="12214" max="12214" width="20.21875" style="1" customWidth="1"/>
+    <col min="12215" max="12250" width="8.33203125" style="1"/>
+    <col min="12251" max="12251" width="6.44140625" style="1" customWidth="1"/>
+    <col min="12252" max="12254" width="8.6640625" style="1" customWidth="1"/>
+    <col min="12255" max="12255" width="21.109375" style="1" customWidth="1"/>
+    <col min="12256" max="12256" width="25.109375" style="1" customWidth="1"/>
+    <col min="12257" max="12257" width="14.88671875" style="1" customWidth="1"/>
+    <col min="12258" max="12258" width="16.88671875" style="1" customWidth="1"/>
+    <col min="12259" max="12259" width="7.77734375" style="1" customWidth="1"/>
+    <col min="12260" max="12260" width="14.88671875" style="1" customWidth="1"/>
+    <col min="12261" max="12261" width="9.21875" style="1" customWidth="1"/>
+    <col min="12262" max="12262" width="11.21875" style="1" customWidth="1"/>
+    <col min="12263" max="12263" width="16.21875" style="1" customWidth="1"/>
+    <col min="12264" max="12264" width="13.109375" style="1" customWidth="1"/>
+    <col min="12265" max="12267" width="12.77734375" style="1" customWidth="1"/>
+    <col min="12268" max="12268" width="11.88671875" style="1" customWidth="1"/>
+    <col min="12269" max="12269" width="12.77734375" style="1" customWidth="1"/>
+    <col min="12270" max="12459" width="7.77734375" style="1" customWidth="1"/>
+    <col min="12460" max="12460" width="5.6640625" style="1" customWidth="1"/>
+    <col min="12461" max="12462" width="10.88671875" style="1" customWidth="1"/>
+    <col min="12463" max="12463" width="9.109375" style="1" customWidth="1"/>
+    <col min="12464" max="12465" width="8.6640625" style="1" customWidth="1"/>
+    <col min="12466" max="12466" width="24" style="1" customWidth="1"/>
+    <col min="12467" max="12467" width="17.77734375" style="1" customWidth="1"/>
+    <col min="12468" max="12469" width="12.77734375" style="1" customWidth="1"/>
+    <col min="12470" max="12470" width="20.21875" style="1" customWidth="1"/>
+    <col min="12471" max="12506" width="8.33203125" style="1"/>
+    <col min="12507" max="12507" width="6.44140625" style="1" customWidth="1"/>
+    <col min="12508" max="12510" width="8.6640625" style="1" customWidth="1"/>
+    <col min="12511" max="12511" width="21.109375" style="1" customWidth="1"/>
+    <col min="12512" max="12512" width="25.109375" style="1" customWidth="1"/>
+    <col min="12513" max="12513" width="14.88671875" style="1" customWidth="1"/>
+    <col min="12514" max="12514" width="16.88671875" style="1" customWidth="1"/>
+    <col min="12515" max="12515" width="7.77734375" style="1" customWidth="1"/>
+    <col min="12516" max="12516" width="14.88671875" style="1" customWidth="1"/>
+    <col min="12517" max="12517" width="9.21875" style="1" customWidth="1"/>
+    <col min="12518" max="12518" width="11.21875" style="1" customWidth="1"/>
+    <col min="12519" max="12519" width="16.21875" style="1" customWidth="1"/>
+    <col min="12520" max="12520" width="13.109375" style="1" customWidth="1"/>
+    <col min="12521" max="12523" width="12.77734375" style="1" customWidth="1"/>
+    <col min="12524" max="12524" width="11.88671875" style="1" customWidth="1"/>
+    <col min="12525" max="12525" width="12.77734375" style="1" customWidth="1"/>
+    <col min="12526" max="12715" width="7.77734375" style="1" customWidth="1"/>
+    <col min="12716" max="12716" width="5.6640625" style="1" customWidth="1"/>
+    <col min="12717" max="12718" width="10.88671875" style="1" customWidth="1"/>
+    <col min="12719" max="12719" width="9.109375" style="1" customWidth="1"/>
+    <col min="12720" max="12721" width="8.6640625" style="1" customWidth="1"/>
+    <col min="12722" max="12722" width="24" style="1" customWidth="1"/>
+    <col min="12723" max="12723" width="17.77734375" style="1" customWidth="1"/>
+    <col min="12724" max="12725" width="12.77734375" style="1" customWidth="1"/>
+    <col min="12726" max="12726" width="20.21875" style="1" customWidth="1"/>
+    <col min="12727" max="12762" width="8.33203125" style="1"/>
+    <col min="12763" max="12763" width="6.44140625" style="1" customWidth="1"/>
+    <col min="12764" max="12766" width="8.6640625" style="1" customWidth="1"/>
+    <col min="12767" max="12767" width="21.109375" style="1" customWidth="1"/>
+    <col min="12768" max="12768" width="25.109375" style="1" customWidth="1"/>
+    <col min="12769" max="12769" width="14.88671875" style="1" customWidth="1"/>
+    <col min="12770" max="12770" width="16.88671875" style="1" customWidth="1"/>
+    <col min="12771" max="12771" width="7.77734375" style="1" customWidth="1"/>
+    <col min="12772" max="12772" width="14.88671875" style="1" customWidth="1"/>
+    <col min="12773" max="12773" width="9.21875" style="1" customWidth="1"/>
+    <col min="12774" max="12774" width="11.21875" style="1" customWidth="1"/>
+    <col min="12775" max="12775" width="16.21875" style="1" customWidth="1"/>
+    <col min="12776" max="12776" width="13.109375" style="1" customWidth="1"/>
+    <col min="12777" max="12779" width="12.77734375" style="1" customWidth="1"/>
+    <col min="12780" max="12780" width="11.88671875" style="1" customWidth="1"/>
+    <col min="12781" max="12781" width="12.77734375" style="1" customWidth="1"/>
+    <col min="12782" max="12971" width="7.77734375" style="1" customWidth="1"/>
+    <col min="12972" max="12972" width="5.6640625" style="1" customWidth="1"/>
+    <col min="12973" max="12974" width="10.88671875" style="1" customWidth="1"/>
+    <col min="12975" max="12975" width="9.109375" style="1" customWidth="1"/>
+    <col min="12976" max="12977" width="8.6640625" style="1" customWidth="1"/>
+    <col min="12978" max="12978" width="24" style="1" customWidth="1"/>
+    <col min="12979" max="12979" width="17.77734375" style="1" customWidth="1"/>
+    <col min="12980" max="12981" width="12.77734375" style="1" customWidth="1"/>
+    <col min="12982" max="12982" width="20.21875" style="1" customWidth="1"/>
+    <col min="12983" max="13018" width="8.33203125" style="1"/>
+    <col min="13019" max="13019" width="6.44140625" style="1" customWidth="1"/>
+    <col min="13020" max="13022" width="8.6640625" style="1" customWidth="1"/>
+    <col min="13023" max="13023" width="21.109375" style="1" customWidth="1"/>
+    <col min="13024" max="13024" width="25.109375" style="1" customWidth="1"/>
+    <col min="13025" max="13025" width="14.88671875" style="1" customWidth="1"/>
+    <col min="13026" max="13026" width="16.88671875" style="1" customWidth="1"/>
+    <col min="13027" max="13027" width="7.77734375" style="1" customWidth="1"/>
+    <col min="13028" max="13028" width="14.88671875" style="1" customWidth="1"/>
+    <col min="13029" max="13029" width="9.21875" style="1" customWidth="1"/>
+    <col min="13030" max="13030" width="11.21875" style="1" customWidth="1"/>
+    <col min="13031" max="13031" width="16.21875" style="1" customWidth="1"/>
+    <col min="13032" max="13032" width="13.109375" style="1" customWidth="1"/>
+    <col min="13033" max="13035" width="12.77734375" style="1" customWidth="1"/>
+    <col min="13036" max="13036" width="11.88671875" style="1" customWidth="1"/>
+    <col min="13037" max="13037" width="12.77734375" style="1" customWidth="1"/>
+    <col min="13038" max="13227" width="7.77734375" style="1" customWidth="1"/>
+    <col min="13228" max="13228" width="5.6640625" style="1" customWidth="1"/>
+    <col min="13229" max="13230" width="10.88671875" style="1" customWidth="1"/>
+    <col min="13231" max="13231" width="9.109375" style="1" customWidth="1"/>
+    <col min="13232" max="13233" width="8.6640625" style="1" customWidth="1"/>
+    <col min="13234" max="13234" width="24" style="1" customWidth="1"/>
+    <col min="13235" max="13235" width="17.77734375" style="1" customWidth="1"/>
+    <col min="13236" max="13237" width="12.77734375" style="1" customWidth="1"/>
+    <col min="13238" max="13238" width="20.21875" style="1" customWidth="1"/>
+    <col min="13239" max="13274" width="8.33203125" style="1"/>
+    <col min="13275" max="13275" width="6.44140625" style="1" customWidth="1"/>
+    <col min="13276" max="13278" width="8.6640625" style="1" customWidth="1"/>
+    <col min="13279" max="13279" width="21.109375" style="1" customWidth="1"/>
+    <col min="13280" max="13280" width="25.109375" style="1" customWidth="1"/>
+    <col min="13281" max="13281" width="14.88671875" style="1" customWidth="1"/>
+    <col min="13282" max="13282" width="16.88671875" style="1" customWidth="1"/>
+    <col min="13283" max="13283" width="7.77734375" style="1" customWidth="1"/>
+    <col min="13284" max="13284" width="14.88671875" style="1" customWidth="1"/>
+    <col min="13285" max="13285" width="9.21875" style="1" customWidth="1"/>
+    <col min="13286" max="13286" width="11.21875" style="1" customWidth="1"/>
+    <col min="13287" max="13287" width="16.21875" style="1" customWidth="1"/>
+    <col min="13288" max="13288" width="13.109375" style="1" customWidth="1"/>
+    <col min="13289" max="13291" width="12.77734375" style="1" customWidth="1"/>
+    <col min="13292" max="13292" width="11.88671875" style="1" customWidth="1"/>
+    <col min="13293" max="13293" width="12.77734375" style="1" customWidth="1"/>
+    <col min="13294" max="13483" width="7.77734375" style="1" customWidth="1"/>
+    <col min="13484" max="13484" width="5.6640625" style="1" customWidth="1"/>
+    <col min="13485" max="13486" width="10.88671875" style="1" customWidth="1"/>
+    <col min="13487" max="13487" width="9.109375" style="1" customWidth="1"/>
+    <col min="13488" max="13489" width="8.6640625" style="1" customWidth="1"/>
+    <col min="13490" max="13490" width="24" style="1" customWidth="1"/>
+    <col min="13491" max="13491" width="17.77734375" style="1" customWidth="1"/>
+    <col min="13492" max="13493" width="12.77734375" style="1" customWidth="1"/>
+    <col min="13494" max="13494" width="20.21875" style="1" customWidth="1"/>
+    <col min="13495" max="13530" width="8.33203125" style="1"/>
+    <col min="13531" max="13531" width="6.44140625" style="1" customWidth="1"/>
+    <col min="13532" max="13534" width="8.6640625" style="1" customWidth="1"/>
+    <col min="13535" max="13535" width="21.109375" style="1" customWidth="1"/>
+    <col min="13536" max="13536" width="25.109375" style="1" customWidth="1"/>
+    <col min="13537" max="13537" width="14.88671875" style="1" customWidth="1"/>
+    <col min="13538" max="13538" width="16.88671875" style="1" customWidth="1"/>
+    <col min="13539" max="13539" width="7.77734375" style="1" customWidth="1"/>
+    <col min="13540" max="13540" width="14.88671875" style="1" customWidth="1"/>
+    <col min="13541" max="13541" width="9.21875" style="1" customWidth="1"/>
+    <col min="13542" max="13542" width="11.21875" style="1" customWidth="1"/>
+    <col min="13543" max="13543" width="16.21875" style="1" customWidth="1"/>
+    <col min="13544" max="13544" width="13.109375" style="1" customWidth="1"/>
+    <col min="13545" max="13547" width="12.77734375" style="1" customWidth="1"/>
+    <col min="13548" max="13548" width="11.88671875" style="1" customWidth="1"/>
+    <col min="13549" max="13549" width="12.77734375" style="1" customWidth="1"/>
+    <col min="13550" max="13739" width="7.77734375" style="1" customWidth="1"/>
+    <col min="13740" max="13740" width="5.6640625" style="1" customWidth="1"/>
+    <col min="13741" max="13742" width="10.88671875" style="1" customWidth="1"/>
+    <col min="13743" max="13743" width="9.109375" style="1" customWidth="1"/>
+    <col min="13744" max="13745" width="8.6640625" style="1" customWidth="1"/>
+    <col min="13746" max="13746" width="24" style="1" customWidth="1"/>
+    <col min="13747" max="13747" width="17.77734375" style="1" customWidth="1"/>
+    <col min="13748" max="13749" width="12.77734375" style="1" customWidth="1"/>
+    <col min="13750" max="13750" width="20.21875" style="1" customWidth="1"/>
+    <col min="13751" max="13786" width="8.33203125" style="1"/>
+    <col min="13787" max="13787" width="6.44140625" style="1" customWidth="1"/>
+    <col min="13788" max="13790" width="8.6640625" style="1" customWidth="1"/>
+    <col min="13791" max="13791" width="21.109375" style="1" customWidth="1"/>
+    <col min="13792" max="13792" width="25.109375" style="1" customWidth="1"/>
+    <col min="13793" max="13793" width="14.88671875" style="1" customWidth="1"/>
+    <col min="13794" max="13794" width="16.88671875" style="1" customWidth="1"/>
+    <col min="13795" max="13795" width="7.77734375" style="1" customWidth="1"/>
+    <col min="13796" max="13796" width="14.88671875" style="1" customWidth="1"/>
+    <col min="13797" max="13797" width="9.21875" style="1" customWidth="1"/>
+    <col min="13798" max="13798" width="11.21875" style="1" customWidth="1"/>
+    <col min="13799" max="13799" width="16.21875" style="1" customWidth="1"/>
+    <col min="13800" max="13800" width="13.109375" style="1" customWidth="1"/>
+    <col min="13801" max="13803" width="12.77734375" style="1" customWidth="1"/>
+    <col min="13804" max="13804" width="11.88671875" style="1" customWidth="1"/>
+    <col min="13805" max="13805" width="12.77734375" style="1" customWidth="1"/>
+    <col min="13806" max="13995" width="7.77734375" style="1" customWidth="1"/>
+    <col min="13996" max="13996" width="5.6640625" style="1" customWidth="1"/>
+    <col min="13997" max="13998" width="10.88671875" style="1" customWidth="1"/>
+    <col min="13999" max="13999" width="9.109375" style="1" customWidth="1"/>
+    <col min="14000" max="14001" width="8.6640625" style="1" customWidth="1"/>
+    <col min="14002" max="14002" width="24" style="1" customWidth="1"/>
+    <col min="14003" max="14003" width="17.77734375" style="1" customWidth="1"/>
+    <col min="14004" max="14005" width="12.77734375" style="1" customWidth="1"/>
+    <col min="14006" max="14006" width="20.21875" style="1" customWidth="1"/>
+    <col min="14007" max="14042" width="8.33203125" style="1"/>
+    <col min="14043" max="14043" width="6.44140625" style="1" customWidth="1"/>
+    <col min="14044" max="14046" width="8.6640625" style="1" customWidth="1"/>
+    <col min="14047" max="14047" width="21.109375" style="1" customWidth="1"/>
+    <col min="14048" max="14048" width="25.109375" style="1" customWidth="1"/>
+    <col min="14049" max="14049" width="14.88671875" style="1" customWidth="1"/>
+    <col min="14050" max="14050" width="16.88671875" style="1" customWidth="1"/>
+    <col min="14051" max="14051" width="7.77734375" style="1" customWidth="1"/>
+    <col min="14052" max="14052" width="14.88671875" style="1" customWidth="1"/>
+    <col min="14053" max="14053" width="9.21875" style="1" customWidth="1"/>
+    <col min="14054" max="14054" width="11.21875" style="1" customWidth="1"/>
+    <col min="14055" max="14055" width="16.21875" style="1" customWidth="1"/>
+    <col min="14056" max="14056" width="13.109375" style="1" customWidth="1"/>
+    <col min="14057" max="14059" width="12.77734375" style="1" customWidth="1"/>
+    <col min="14060" max="14060" width="11.88671875" style="1" customWidth="1"/>
+    <col min="14061" max="14061" width="12.77734375" style="1" customWidth="1"/>
+    <col min="14062" max="14251" width="7.77734375" style="1" customWidth="1"/>
+    <col min="14252" max="14252" width="5.6640625" style="1" customWidth="1"/>
+    <col min="14253" max="14254" width="10.88671875" style="1" customWidth="1"/>
+    <col min="14255" max="14255" width="9.109375" style="1" customWidth="1"/>
+    <col min="14256" max="14257" width="8.6640625" style="1" customWidth="1"/>
+    <col min="14258" max="14258" width="24" style="1" customWidth="1"/>
+    <col min="14259" max="14259" width="17.77734375" style="1" customWidth="1"/>
+    <col min="14260" max="14261" width="12.77734375" style="1" customWidth="1"/>
+    <col min="14262" max="14262" width="20.21875" style="1" customWidth="1"/>
+    <col min="14263" max="14298" width="8.33203125" style="1"/>
+    <col min="14299" max="14299" width="6.44140625" style="1" customWidth="1"/>
+    <col min="14300" max="14302" width="8.6640625" style="1" customWidth="1"/>
+    <col min="14303" max="14303" width="21.109375" style="1" customWidth="1"/>
+    <col min="14304" max="14304" width="25.109375" style="1" customWidth="1"/>
+    <col min="14305" max="14305" width="14.88671875" style="1" customWidth="1"/>
+    <col min="14306" max="14306" width="16.88671875" style="1" customWidth="1"/>
+    <col min="14307" max="14307" width="7.77734375" style="1" customWidth="1"/>
+    <col min="14308" max="14308" width="14.88671875" style="1" customWidth="1"/>
+    <col min="14309" max="14309" width="9.21875" style="1" customWidth="1"/>
+    <col min="14310" max="14310" width="11.21875" style="1" customWidth="1"/>
+    <col min="14311" max="14311" width="16.21875" style="1" customWidth="1"/>
+    <col min="14312" max="14312" width="13.109375" style="1" customWidth="1"/>
+    <col min="14313" max="14315" width="12.77734375" style="1" customWidth="1"/>
+    <col min="14316" max="14316" width="11.88671875" style="1" customWidth="1"/>
+    <col min="14317" max="14317" width="12.77734375" style="1" customWidth="1"/>
+    <col min="14318" max="14507" width="7.77734375" style="1" customWidth="1"/>
+    <col min="14508" max="14508" width="5.6640625" style="1" customWidth="1"/>
+    <col min="14509" max="14510" width="10.88671875" style="1" customWidth="1"/>
+    <col min="14511" max="14511" width="9.109375" style="1" customWidth="1"/>
+    <col min="14512" max="14513" width="8.6640625" style="1" customWidth="1"/>
+    <col min="14514" max="14514" width="24" style="1" customWidth="1"/>
+    <col min="14515" max="14515" width="17.77734375" style="1" customWidth="1"/>
+    <col min="14516" max="14517" width="12.77734375" style="1" customWidth="1"/>
+    <col min="14518" max="14518" width="20.21875" style="1" customWidth="1"/>
+    <col min="14519" max="14554" width="8.33203125" style="1"/>
+    <col min="14555" max="14555" width="6.44140625" style="1" customWidth="1"/>
+    <col min="14556" max="14558" width="8.6640625" style="1" customWidth="1"/>
+    <col min="14559" max="14559" width="21.109375" style="1" customWidth="1"/>
+    <col min="14560" max="14560" width="25.109375" style="1" customWidth="1"/>
+    <col min="14561" max="14561" width="14.88671875" style="1" customWidth="1"/>
+    <col min="14562" max="14562" width="16.88671875" style="1" customWidth="1"/>
+    <col min="14563" max="14563" width="7.77734375" style="1" customWidth="1"/>
+    <col min="14564" max="14564" width="14.88671875" style="1" customWidth="1"/>
+    <col min="14565" max="14565" width="9.21875" style="1" customWidth="1"/>
+    <col min="14566" max="14566" width="11.21875" style="1" customWidth="1"/>
+    <col min="14567" max="14567" width="16.21875" style="1" customWidth="1"/>
+    <col min="14568" max="14568" width="13.109375" style="1" customWidth="1"/>
+    <col min="14569" max="14571" width="12.77734375" style="1" customWidth="1"/>
+    <col min="14572" max="14572" width="11.88671875" style="1" customWidth="1"/>
+    <col min="14573" max="14573" width="12.77734375" style="1" customWidth="1"/>
+    <col min="14574" max="14763" width="7.77734375" style="1" customWidth="1"/>
+    <col min="14764" max="14764" width="5.6640625" style="1" customWidth="1"/>
+    <col min="14765" max="14766" width="10.88671875" style="1" customWidth="1"/>
+    <col min="14767" max="14767" width="9.109375" style="1" customWidth="1"/>
+    <col min="14768" max="14769" width="8.6640625" style="1" customWidth="1"/>
+    <col min="14770" max="14770" width="24" style="1" customWidth="1"/>
+    <col min="14771" max="14771" width="17.77734375" style="1" customWidth="1"/>
+    <col min="14772" max="14773" width="12.77734375" style="1" customWidth="1"/>
+    <col min="14774" max="14774" width="20.21875" style="1" customWidth="1"/>
+    <col min="14775" max="14810" width="8.33203125" style="1"/>
+    <col min="14811" max="14811" width="6.44140625" style="1" customWidth="1"/>
+    <col min="14812" max="14814" width="8.6640625" style="1" customWidth="1"/>
+    <col min="14815" max="14815" width="21.109375" style="1" customWidth="1"/>
+    <col min="14816" max="14816" width="25.109375" style="1" customWidth="1"/>
+    <col min="14817" max="14817" width="14.88671875" style="1" customWidth="1"/>
+    <col min="14818" max="14818" width="16.88671875" style="1" customWidth="1"/>
+    <col min="14819" max="14819" width="7.77734375" style="1" customWidth="1"/>
+    <col min="14820" max="14820" width="14.88671875" style="1" customWidth="1"/>
+    <col min="14821" max="14821" width="9.21875" style="1" customWidth="1"/>
+    <col min="14822" max="14822" width="11.21875" style="1" customWidth="1"/>
+    <col min="14823" max="14823" width="16.21875" style="1" customWidth="1"/>
+    <col min="14824" max="14824" width="13.109375" style="1" customWidth="1"/>
+    <col min="14825" max="14827" width="12.77734375" style="1" customWidth="1"/>
+    <col min="14828" max="14828" width="11.88671875" style="1" customWidth="1"/>
+    <col min="14829" max="14829" width="12.77734375" style="1" customWidth="1"/>
+    <col min="14830" max="15019" width="7.77734375" style="1" customWidth="1"/>
+    <col min="15020" max="15020" width="5.6640625" style="1" customWidth="1"/>
+    <col min="15021" max="15022" width="10.88671875" style="1" customWidth="1"/>
+    <col min="15023" max="15023" width="9.109375" style="1" customWidth="1"/>
+    <col min="15024" max="15025" width="8.6640625" style="1" customWidth="1"/>
+    <col min="15026" max="15026" width="24" style="1" customWidth="1"/>
+    <col min="15027" max="15027" width="17.77734375" style="1" customWidth="1"/>
+    <col min="15028" max="15029" width="12.77734375" style="1" customWidth="1"/>
+    <col min="15030" max="15030" width="20.21875" style="1" customWidth="1"/>
+    <col min="15031" max="15066" width="8.33203125" style="1"/>
+    <col min="15067" max="15067" width="6.44140625" style="1" customWidth="1"/>
+    <col min="15068" max="15070" width="8.6640625" style="1" customWidth="1"/>
+    <col min="15071" max="15071" width="21.109375" style="1" customWidth="1"/>
+    <col min="15072" max="15072" width="25.109375" style="1" customWidth="1"/>
+    <col min="15073" max="15073" width="14.88671875" style="1" customWidth="1"/>
+    <col min="15074" max="15074" width="16.88671875" style="1" customWidth="1"/>
+    <col min="15075" max="15075" width="7.77734375" style="1" customWidth="1"/>
+    <col min="15076" max="15076" width="14.88671875" style="1" customWidth="1"/>
+    <col min="15077" max="15077" width="9.21875" style="1" customWidth="1"/>
+    <col min="15078" max="15078" width="11.21875" style="1" customWidth="1"/>
+    <col min="15079" max="15079" width="16.21875" style="1" customWidth="1"/>
+    <col min="15080" max="15080" width="13.109375" style="1" customWidth="1"/>
+    <col min="15081" max="15083" width="12.77734375" style="1" customWidth="1"/>
+    <col min="15084" max="15084" width="11.88671875" style="1" customWidth="1"/>
+    <col min="15085" max="15085" width="12.77734375" style="1" customWidth="1"/>
+    <col min="15086" max="15275" width="7.77734375" style="1" customWidth="1"/>
+    <col min="15276" max="15276" width="5.6640625" style="1" customWidth="1"/>
+    <col min="15277" max="15278" width="10.88671875" style="1" customWidth="1"/>
+    <col min="15279" max="15279" width="9.109375" style="1" customWidth="1"/>
+    <col min="15280" max="15281" width="8.6640625" style="1" customWidth="1"/>
+    <col min="15282" max="15282" width="24" style="1" customWidth="1"/>
+    <col min="15283" max="15283" width="17.77734375" style="1" customWidth="1"/>
+    <col min="15284" max="15285" width="12.77734375" style="1" customWidth="1"/>
+    <col min="15286" max="15286" width="20.21875" style="1" customWidth="1"/>
+    <col min="15287" max="15322" width="8.33203125" style="1"/>
+    <col min="15323" max="15323" width="6.44140625" style="1" customWidth="1"/>
+    <col min="15324" max="15326" width="8.6640625" style="1" customWidth="1"/>
+    <col min="15327" max="15327" width="21.109375" style="1" customWidth="1"/>
+    <col min="15328" max="15328" width="25.109375" style="1" customWidth="1"/>
+    <col min="15329" max="15329" width="14.88671875" style="1" customWidth="1"/>
+    <col min="15330" max="15330" width="16.88671875" style="1" customWidth="1"/>
+    <col min="15331" max="15331" width="7.77734375" style="1" customWidth="1"/>
+    <col min="15332" max="15332" width="14.88671875" style="1" customWidth="1"/>
+    <col min="15333" max="15333" width="9.21875" style="1" customWidth="1"/>
+    <col min="15334" max="15334" width="11.21875" style="1" customWidth="1"/>
+    <col min="15335" max="15335" width="16.21875" style="1" customWidth="1"/>
+    <col min="15336" max="15336" width="13.109375" style="1" customWidth="1"/>
+    <col min="15337" max="15339" width="12.77734375" style="1" customWidth="1"/>
+    <col min="15340" max="15340" width="11.88671875" style="1" customWidth="1"/>
+    <col min="15341" max="15341" width="12.77734375" style="1" customWidth="1"/>
+    <col min="15342" max="15531" width="7.77734375" style="1" customWidth="1"/>
+    <col min="15532" max="15532" width="5.6640625" style="1" customWidth="1"/>
+    <col min="15533" max="15534" width="10.88671875" style="1" customWidth="1"/>
+    <col min="15535" max="15535" width="9.109375" style="1" customWidth="1"/>
+    <col min="15536" max="15537" width="8.6640625" style="1" customWidth="1"/>
+    <col min="15538" max="15538" width="24" style="1" customWidth="1"/>
+    <col min="15539" max="15539" width="17.77734375" style="1" customWidth="1"/>
+    <col min="15540" max="15541" width="12.77734375" style="1" customWidth="1"/>
+    <col min="15542" max="15542" width="20.21875" style="1" customWidth="1"/>
+    <col min="15543" max="15578" width="8.33203125" style="1"/>
+    <col min="15579" max="15579" width="6.44140625" style="1" customWidth="1"/>
+    <col min="15580" max="15582" width="8.6640625" style="1" customWidth="1"/>
+    <col min="15583" max="15583" width="21.109375" style="1" customWidth="1"/>
+    <col min="15584" max="15584" width="25.109375" style="1" customWidth="1"/>
+    <col min="15585" max="15585" width="14.88671875" style="1" customWidth="1"/>
+    <col min="15586" max="15586" width="16.88671875" style="1" customWidth="1"/>
+    <col min="15587" max="15587" width="7.77734375" style="1" customWidth="1"/>
+    <col min="15588" max="15588" width="14.88671875" style="1" customWidth="1"/>
+    <col min="15589" max="15589" width="9.21875" style="1" customWidth="1"/>
+    <col min="15590" max="15590" width="11.21875" style="1" customWidth="1"/>
+    <col min="15591" max="15591" width="16.21875" style="1" customWidth="1"/>
+    <col min="15592" max="15592" width="13.109375" style="1" customWidth="1"/>
+    <col min="15593" max="15595" width="12.77734375" style="1" customWidth="1"/>
+    <col min="15596" max="15596" width="11.88671875" style="1" customWidth="1"/>
+    <col min="15597" max="15597" width="12.77734375" style="1" customWidth="1"/>
+    <col min="15598" max="15787" width="7.77734375" style="1" customWidth="1"/>
+    <col min="15788" max="15788" width="5.6640625" style="1" customWidth="1"/>
+    <col min="15789" max="15790" width="10.88671875" style="1" customWidth="1"/>
+    <col min="15791" max="15791" width="9.109375" style="1" customWidth="1"/>
+    <col min="15792" max="15793" width="8.6640625" style="1" customWidth="1"/>
+    <col min="15794" max="15794" width="24" style="1" customWidth="1"/>
+    <col min="15795" max="15795" width="17.77734375" style="1" customWidth="1"/>
+    <col min="15796" max="15797" width="12.77734375" style="1" customWidth="1"/>
+    <col min="15798" max="15798" width="20.21875" style="1" customWidth="1"/>
+    <col min="15799" max="15834" width="8.33203125" style="1"/>
+    <col min="15835" max="15835" width="6.44140625" style="1" customWidth="1"/>
+    <col min="15836" max="15838" width="8.6640625" style="1" customWidth="1"/>
+    <col min="15839" max="15839" width="21.109375" style="1" customWidth="1"/>
+    <col min="15840" max="15840" width="25.109375" style="1" customWidth="1"/>
+    <col min="15841" max="15841" width="14.88671875" style="1" customWidth="1"/>
+    <col min="15842" max="15842" width="16.88671875" style="1" customWidth="1"/>
+    <col min="15843" max="15843" width="7.77734375" style="1" customWidth="1"/>
+    <col min="15844" max="15844" width="14.88671875" style="1" customWidth="1"/>
+    <col min="15845" max="15845" width="9.21875" style="1" customWidth="1"/>
+    <col min="15846" max="15846" width="11.21875" style="1" customWidth="1"/>
+    <col min="15847" max="15847" width="16.21875" style="1" customWidth="1"/>
+    <col min="15848" max="15848" width="13.109375" style="1" customWidth="1"/>
+    <col min="15849" max="15851" width="12.77734375" style="1" customWidth="1"/>
+    <col min="15852" max="15852" width="11.88671875" style="1" customWidth="1"/>
+    <col min="15853" max="15853" width="12.77734375" style="1" customWidth="1"/>
+    <col min="15854" max="16043" width="7.77734375" style="1" customWidth="1"/>
+    <col min="16044" max="16044" width="5.6640625" style="1" customWidth="1"/>
+    <col min="16045" max="16046" width="10.88671875" style="1" customWidth="1"/>
+    <col min="16047" max="16047" width="9.109375" style="1" customWidth="1"/>
+    <col min="16048" max="16049" width="8.6640625" style="1" customWidth="1"/>
+    <col min="16050" max="16050" width="24" style="1" customWidth="1"/>
+    <col min="16051" max="16051" width="17.77734375" style="1" customWidth="1"/>
+    <col min="16052" max="16053" width="12.77734375" style="1" customWidth="1"/>
+    <col min="16054" max="16054" width="20.21875" style="1" customWidth="1"/>
+    <col min="16055" max="16090" width="8.33203125" style="1"/>
+    <col min="16091" max="16091" width="6.44140625" style="1" customWidth="1"/>
+    <col min="16092" max="16094" width="8.6640625" style="1" customWidth="1"/>
+    <col min="16095" max="16095" width="21.109375" style="1" customWidth="1"/>
+    <col min="16096" max="16096" width="25.109375" style="1" customWidth="1"/>
+    <col min="16097" max="16097" width="14.88671875" style="1" customWidth="1"/>
+    <col min="16098" max="16098" width="16.88671875" style="1" customWidth="1"/>
+    <col min="16099" max="16099" width="7.77734375" style="1" customWidth="1"/>
+    <col min="16100" max="16100" width="14.88671875" style="1" customWidth="1"/>
+    <col min="16101" max="16101" width="9.21875" style="1" customWidth="1"/>
+    <col min="16102" max="16102" width="11.21875" style="1" customWidth="1"/>
+    <col min="16103" max="16103" width="16.21875" style="1" customWidth="1"/>
+    <col min="16104" max="16104" width="13.109375" style="1" customWidth="1"/>
+    <col min="16105" max="16107" width="12.77734375" style="1" customWidth="1"/>
+    <col min="16108" max="16108" width="11.88671875" style="1" customWidth="1"/>
+    <col min="16109" max="16109" width="12.77734375" style="1" customWidth="1"/>
+    <col min="16110" max="16299" width="7.77734375" style="1" customWidth="1"/>
+    <col min="16300" max="16300" width="5.6640625" style="1" customWidth="1"/>
+    <col min="16301" max="16302" width="10.88671875" style="1" customWidth="1"/>
+    <col min="16303" max="16303" width="9.109375" style="1" customWidth="1"/>
+    <col min="16304" max="16305" width="8.6640625" style="1" customWidth="1"/>
+    <col min="16306" max="16306" width="24" style="1" customWidth="1"/>
+    <col min="16307" max="16307" width="17.77734375" style="1" customWidth="1"/>
+    <col min="16308" max="16309" width="12.77734375" style="1" customWidth="1"/>
+    <col min="16310" max="16310" width="20.21875" style="1" customWidth="1"/>
+    <col min="16311" max="16384" width="8.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="D1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="Q1" s="4"/>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="D2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="Q2" s="6"/>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="D3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="Q3" s="6"/>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="D4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="Q4" s="4"/>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="D5" s="5" t="s">
         <v>4</v>
       </c>
@@ -33489,9 +33518,12 @@
       <c r="K5" s="39"/>
       <c r="L5" s="39"/>
       <c r="M5" s="39"/>
-      <c r="N5" s="6"/>
+      <c r="N5" s="39"/>
+      <c r="O5" s="39"/>
+      <c r="P5" s="39"/>
+      <c r="Q5" s="6"/>
     </row>
-    <row r="6" spans="1:14" ht="46.5" customHeight="1">
+    <row r="6" spans="1:20" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="40" t="s">
         <v>5</v>
       </c>
@@ -33508,8 +33540,11 @@
       <c r="L6" s="40"/>
       <c r="M6" s="40"/>
       <c r="N6" s="40"/>
+      <c r="O6" s="40"/>
+      <c r="P6" s="40"/>
+      <c r="Q6" s="40"/>
     </row>
-    <row r="7" spans="1:14" s="7" customFormat="1" ht="27.75" customHeight="1">
+    <row r="7" spans="1:20" s="7" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="41" t="s">
         <v>6</v>
       </c>
@@ -33526,8 +33561,11 @@
       <c r="L7" s="41"/>
       <c r="M7" s="41"/>
       <c r="N7" s="41"/>
+      <c r="O7" s="41"/>
+      <c r="P7" s="41"/>
+      <c r="Q7" s="41"/>
     </row>
-    <row r="8" spans="1:14" ht="25.5" customHeight="1">
+    <row r="8" spans="1:20" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="42" t="s">
         <v>7</v>
       </c>
@@ -33544,8 +33582,11 @@
       <c r="L8" s="42"/>
       <c r="M8" s="42"/>
       <c r="N8" s="42"/>
+      <c r="O8" s="42"/>
+      <c r="P8" s="42"/>
+      <c r="Q8" s="42"/>
     </row>
-    <row r="9" spans="1:14" ht="101.25" customHeight="1">
+    <row r="9" spans="1:20" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>8</v>
       </c>
@@ -33565,31 +33606,49 @@
         <v>13</v>
       </c>
       <c r="G9" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="I9" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="H9" s="8" t="s">
+      <c r="J9" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="I9" s="8" t="s">
+      <c r="K9" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="J9" s="8" t="s">
+      <c r="L9" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="K9" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="L9" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="M9" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="N9" s="8" t="s">
-        <v>21</v>
+      <c r="M9" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="N9" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="O9" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="P9" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q9" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="R9" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="S9" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="T9" s="10" t="s">
+        <v>194</v>
       </c>
     </row>
-    <row r="10" spans="1:14" s="22" customFormat="1" ht="43.2">
+    <row r="10" spans="1:20" s="22" customFormat="1" ht="60" x14ac:dyDescent="0.3">
       <c r="A10" s="11">
         <v>1</v>
       </c>
@@ -33600,40 +33659,52 @@
         <v>1</v>
       </c>
       <c r="D10" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="H10" s="16" t="s">
+        <v>180</v>
+      </c>
+      <c r="I10" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="11" t="s">
+      <c r="J10" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="F10" s="15" t="s">
+      <c r="K10" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="G10" s="16" t="s">
+      <c r="L10" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="H10" s="17" t="s">
+      <c r="M10" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="I10" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="J10" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="K10" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="L10" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="M10" s="21">
+      <c r="N10" s="20" t="s">
+        <v>182</v>
+      </c>
+      <c r="O10" s="21">
         <v>7690</v>
       </c>
-      <c r="N10" s="21">
+      <c r="P10" s="21">
         <v>7690</v>
       </c>
+      <c r="Q10" s="21">
+        <v>7690</v>
+      </c>
+      <c r="R10" s="20"/>
+      <c r="S10" s="20"/>
+      <c r="T10" s="20"/>
     </row>
-    <row r="11" spans="1:14" s="22" customFormat="1" ht="28.8">
+    <row r="11" spans="1:20" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.3">
       <c r="A11" s="11">
         <v>2</v>
       </c>
@@ -33644,40 +33715,52 @@
         <v>1</v>
       </c>
       <c r="D11" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="G11" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="H11" s="16" t="s">
+        <v>180</v>
+      </c>
+      <c r="I11" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="J11" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="E11" s="11" t="s">
+      <c r="K11" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="F11" s="15" t="s">
+      <c r="L11" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="M11" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="G11" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="H11" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="I11" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="J11" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="K11" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="L11" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="M11" s="21">
+      <c r="N11" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="O11" s="21">
+        <v>8500</v>
+      </c>
+      <c r="P11" s="21">
         <v>7791</v>
       </c>
-      <c r="N11" s="21">
+      <c r="Q11" s="21">
         <v>8500</v>
       </c>
+      <c r="R11" s="20"/>
+      <c r="S11" s="20"/>
+      <c r="T11" s="20"/>
     </row>
-    <row r="12" spans="1:14" s="22" customFormat="1" ht="28.8">
+    <row r="12" spans="1:20" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.3">
       <c r="A12" s="11">
         <v>3</v>
       </c>
@@ -33688,40 +33771,52 @@
         <v>1</v>
       </c>
       <c r="D12" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="F12" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="G12" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="H12" s="16" t="s">
+        <v>180</v>
+      </c>
+      <c r="I12" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="J12" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="E12" s="11" t="s">
+      <c r="K12" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="F12" s="15" t="s">
+      <c r="L12" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="M12" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="G12" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="H12" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="I12" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="J12" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="K12" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="L12" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="M12" s="21">
+      <c r="N12" s="20" t="s">
+        <v>185</v>
+      </c>
+      <c r="O12" s="21">
+        <v>15500</v>
+      </c>
+      <c r="P12" s="21">
         <v>15400</v>
       </c>
-      <c r="N12" s="21">
+      <c r="Q12" s="21">
         <v>15500</v>
       </c>
+      <c r="R12" s="20"/>
+      <c r="S12" s="20"/>
+      <c r="T12" s="20"/>
     </row>
-    <row r="13" spans="1:14" s="22" customFormat="1" ht="28.8">
+    <row r="13" spans="1:20" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.3">
       <c r="A13" s="11">
         <v>4</v>
       </c>
@@ -33732,40 +33827,52 @@
         <v>1</v>
       </c>
       <c r="D13" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="F13" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="G13" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="H13" s="16" t="s">
+        <v>180</v>
+      </c>
+      <c r="I13" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="J13" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="E13" s="11" t="s">
+      <c r="K13" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="F13" s="15" t="s">
+      <c r="L13" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="M13" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="G13" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="H13" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="I13" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="J13" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="K13" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="L13" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="M13" s="21">
+      <c r="N13" s="20" t="s">
+        <v>185</v>
+      </c>
+      <c r="O13" s="21">
+        <v>8000</v>
+      </c>
+      <c r="P13" s="21">
         <v>6800</v>
       </c>
-      <c r="N13" s="21">
+      <c r="Q13" s="21">
         <v>8000</v>
       </c>
+      <c r="R13" s="20"/>
+      <c r="S13" s="20"/>
+      <c r="T13" s="20"/>
     </row>
-    <row r="14" spans="1:14" s="22" customFormat="1" ht="43.2">
+    <row r="14" spans="1:20" s="22" customFormat="1" ht="45" x14ac:dyDescent="0.3">
       <c r="A14" s="11">
         <v>5</v>
       </c>
@@ -33776,40 +33883,52 @@
         <v>1</v>
       </c>
       <c r="D14" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="F14" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="G14" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="H14" s="16" t="s">
+        <v>180</v>
+      </c>
+      <c r="I14" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="E14" s="11" t="s">
+      <c r="J14" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="F14" s="15" t="s">
+      <c r="K14" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="G14" s="16" t="s">
+      <c r="L14" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="M14" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="H14" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="I14" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="J14" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="K14" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="L14" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="M14" s="21">
+      <c r="N14" s="20" t="s">
+        <v>182</v>
+      </c>
+      <c r="O14" s="21">
+        <v>103000</v>
+      </c>
+      <c r="P14" s="21">
         <v>98000</v>
       </c>
-      <c r="N14" s="21">
+      <c r="Q14" s="21">
         <v>103000</v>
       </c>
+      <c r="R14" s="20"/>
+      <c r="S14" s="20"/>
+      <c r="T14" s="20"/>
     </row>
-    <row r="15" spans="1:14" s="22" customFormat="1" ht="28.8">
+    <row r="15" spans="1:20" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.3">
       <c r="A15" s="11">
         <v>6</v>
       </c>
@@ -33820,40 +33939,52 @@
         <v>2</v>
       </c>
       <c r="D15" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="F15" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="G15" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="H15" s="16" t="s">
+        <v>180</v>
+      </c>
+      <c r="I15" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="J15" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="E15" s="11" t="s">
+      <c r="K15" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="F15" s="15" t="s">
+      <c r="L15" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="M15" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="G15" s="16" t="s">
+      <c r="N15" s="20" t="s">
+        <v>183</v>
+      </c>
+      <c r="O15" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="H15" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="I15" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="J15" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="K15" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="L15" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="M15" s="21">
+      <c r="P15" s="21">
         <v>4000</v>
       </c>
-      <c r="N15" s="21" t="s">
-        <v>67</v>
-      </c>
+      <c r="Q15" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="R15" s="20"/>
+      <c r="S15" s="20"/>
+      <c r="T15" s="20"/>
     </row>
-    <row r="16" spans="1:14" s="22" customFormat="1" ht="43.2">
+    <row r="16" spans="1:20" s="22" customFormat="1" ht="45" x14ac:dyDescent="0.3">
       <c r="A16" s="11">
         <v>7</v>
       </c>
@@ -33864,40 +33995,52 @@
         <v>2</v>
       </c>
       <c r="D16" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="F16" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="G16" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="H16" s="16" t="s">
+        <v>180</v>
+      </c>
+      <c r="I16" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="E16" s="11" t="s">
+      <c r="J16" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="F16" s="15" t="s">
+      <c r="K16" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="G16" s="16" t="s">
+      <c r="L16" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="M16" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="H16" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="I16" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="J16" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="K16" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="L16" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="M16" s="21">
+      <c r="N16" s="20" t="s">
+        <v>186</v>
+      </c>
+      <c r="O16" s="21">
         <v>62000</v>
       </c>
-      <c r="N16" s="21">
+      <c r="P16" s="21">
         <v>62000</v>
       </c>
+      <c r="Q16" s="21">
+        <v>62000</v>
+      </c>
+      <c r="R16" s="20"/>
+      <c r="S16" s="20"/>
+      <c r="T16" s="20"/>
     </row>
-    <row r="17" spans="1:14" s="22" customFormat="1" ht="43.2">
+    <row r="17" spans="1:20" s="22" customFormat="1" ht="45" x14ac:dyDescent="0.3">
       <c r="A17" s="11">
         <v>8</v>
       </c>
@@ -33908,40 +34051,52 @@
         <v>2</v>
       </c>
       <c r="D17" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="F17" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="G17" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="H17" s="16" t="s">
+        <v>180</v>
+      </c>
+      <c r="I17" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="E17" s="11" t="s">
+      <c r="J17" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="F17" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="G17" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="H17" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="I17" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="J17" s="18" t="s">
-        <v>77</v>
-      </c>
-      <c r="K17" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="L17" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="M17" s="21">
+      <c r="K17" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="L17" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="M17" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="N17" s="20" t="s">
+        <v>186</v>
+      </c>
+      <c r="O17" s="21">
         <v>98000</v>
       </c>
-      <c r="N17" s="21">
+      <c r="P17" s="21">
         <v>98000</v>
       </c>
+      <c r="Q17" s="21">
+        <v>98000</v>
+      </c>
+      <c r="R17" s="20"/>
+      <c r="S17" s="20"/>
+      <c r="T17" s="20"/>
     </row>
-    <row r="18" spans="1:14" s="22" customFormat="1" ht="43.2">
+    <row r="18" spans="1:20" s="22" customFormat="1" ht="45" x14ac:dyDescent="0.3">
       <c r="A18" s="11">
         <v>9</v>
       </c>
@@ -33952,210 +34107,276 @@
         <v>2</v>
       </c>
       <c r="D18" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="F18" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="G18" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="H18" s="16" t="s">
+        <v>180</v>
+      </c>
+      <c r="I18" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="J18" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="E18" s="11" t="s">
+      <c r="K18" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="F18" s="15" t="s">
+      <c r="L18" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="G18" s="16" t="s">
+      <c r="M18" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="H18" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="I18" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="J18" s="18" t="s">
-        <v>83</v>
-      </c>
-      <c r="K18" s="19" t="s">
-        <v>84</v>
-      </c>
-      <c r="L18" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="M18" s="21">
+      <c r="N18" s="20" t="s">
+        <v>187</v>
+      </c>
+      <c r="O18" s="21">
         <v>26000</v>
       </c>
-      <c r="N18" s="21">
+      <c r="P18" s="21">
         <v>26000</v>
       </c>
+      <c r="Q18" s="21">
+        <v>26000</v>
+      </c>
+      <c r="R18" s="20"/>
+      <c r="S18" s="20"/>
+      <c r="T18" s="20"/>
     </row>
-    <row r="19" spans="1:14" s="22" customFormat="1" ht="43.2">
+    <row r="19" spans="1:20" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.3">
       <c r="A19" s="11">
         <v>10</v>
       </c>
-      <c r="B19" s="12"/>
-      <c r="C19" s="13"/>
+      <c r="B19" s="12">
+        <v>529</v>
+      </c>
+      <c r="C19" s="13">
+        <v>2</v>
+      </c>
       <c r="D19" s="14" t="s">
-        <v>181</v>
-      </c>
-      <c r="E19" s="11"/>
+        <v>82</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>83</v>
+      </c>
       <c r="F19" s="15" t="s">
-        <v>182</v>
+        <v>84</v>
       </c>
       <c r="G19" s="16" t="s">
-        <v>183</v>
-      </c>
-      <c r="H19" s="17" t="s">
-        <v>112</v>
+        <v>85</v>
+      </c>
+      <c r="H19" s="16" t="s">
+        <v>180</v>
       </c>
       <c r="I19" s="17" t="s">
-        <v>184</v>
-      </c>
-      <c r="J19" s="18" t="s">
-        <v>185</v>
-      </c>
-      <c r="K19" s="19" t="s">
-        <v>84</v>
-      </c>
-      <c r="L19" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="J19" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="K19" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="L19" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="M19" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="N19" s="20" t="s">
         <v>186</v>
       </c>
-      <c r="M19" s="21">
-        <v>180000</v>
-      </c>
-      <c r="N19" s="21">
-        <v>180000</v>
-      </c>
+      <c r="O19" s="21">
+        <v>10920</v>
+      </c>
+      <c r="P19" s="21">
+        <v>10000</v>
+      </c>
+      <c r="Q19" s="21">
+        <v>10920</v>
+      </c>
+      <c r="R19" s="20"/>
+      <c r="S19" s="20"/>
+      <c r="T19" s="20"/>
     </row>
-    <row r="20" spans="1:14" s="22" customFormat="1" ht="28.8">
+    <row r="20" spans="1:20" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.3">
       <c r="A20" s="11">
         <v>11</v>
       </c>
       <c r="B20" s="12">
-        <v>529</v>
+        <v>501</v>
       </c>
       <c r="C20" s="13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D20" s="14" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="F20" s="15" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="G20" s="16" t="s">
-        <v>89</v>
-      </c>
-      <c r="H20" s="17" t="s">
-        <v>26</v>
+        <v>92</v>
+      </c>
+      <c r="H20" s="16" t="s">
+        <v>180</v>
       </c>
       <c r="I20" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="J20" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="K20" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="L20" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="M20" s="21">
-        <v>10000</v>
-      </c>
-      <c r="N20" s="21">
-        <v>10920</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="J20" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="K20" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="L20" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="M20" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="N20" s="20" t="s">
+        <v>183</v>
+      </c>
+      <c r="O20" s="21">
+        <v>9000</v>
+      </c>
+      <c r="P20" s="21">
+        <v>9000</v>
+      </c>
+      <c r="Q20" s="21">
+        <v>9000</v>
+      </c>
+      <c r="R20" s="20"/>
+      <c r="S20" s="20"/>
+      <c r="T20" s="20"/>
     </row>
-    <row r="21" spans="1:14" s="22" customFormat="1" ht="28.8">
+    <row r="21" spans="1:20" s="22" customFormat="1" ht="60" x14ac:dyDescent="0.3">
       <c r="A21" s="11">
         <v>12</v>
       </c>
       <c r="B21" s="12">
-        <v>501</v>
+        <v>169</v>
       </c>
       <c r="C21" s="13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D21" s="14" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="F21" s="15" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="G21" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="H21" s="17" t="s">
-        <v>26</v>
+        <v>99</v>
+      </c>
+      <c r="H21" s="16" t="s">
+        <v>180</v>
       </c>
       <c r="I21" s="17" t="s">
-        <v>97</v>
-      </c>
-      <c r="J21" s="18" t="s">
-        <v>98</v>
-      </c>
-      <c r="K21" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="L21" s="20" t="s">
-        <v>99</v>
-      </c>
-      <c r="M21" s="21">
-        <v>9000</v>
-      </c>
-      <c r="N21" s="21">
-        <v>9000</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="J21" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="K21" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="L21" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="M21" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="N21" s="20" t="s">
+        <v>183</v>
+      </c>
+      <c r="O21" s="21">
+        <v>4550</v>
+      </c>
+      <c r="P21" s="21">
+        <v>4550</v>
+      </c>
+      <c r="Q21" s="21">
+        <v>4550</v>
+      </c>
+      <c r="R21" s="20"/>
+      <c r="S21" s="20"/>
+      <c r="T21" s="20"/>
     </row>
-    <row r="22" spans="1:14" s="22" customFormat="1" ht="57.6">
+    <row r="22" spans="1:20" s="22" customFormat="1" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="11">
         <v>13</v>
       </c>
       <c r="B22" s="12">
-        <v>169</v>
+        <v>968</v>
       </c>
       <c r="C22" s="13">
         <v>4</v>
       </c>
       <c r="D22" s="14" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="F22" s="15" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="G22" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="H22" s="17" t="s">
-        <v>104</v>
+        <v>107</v>
+      </c>
+      <c r="H22" s="16" t="s">
+        <v>180</v>
       </c>
       <c r="I22" s="17" t="s">
-        <v>105</v>
-      </c>
-      <c r="J22" s="18" t="s">
-        <v>106</v>
-      </c>
-      <c r="K22" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="L22" s="20" t="s">
-        <v>107</v>
-      </c>
-      <c r="M22" s="21">
-        <v>4550</v>
-      </c>
-      <c r="N22" s="21">
-        <v>4550</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="J22" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="K22" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="L22" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="M22" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="N22" s="20" t="s">
+        <v>183</v>
+      </c>
+      <c r="O22" s="21">
+        <v>30000</v>
+      </c>
+      <c r="P22" s="21">
+        <v>30000</v>
+      </c>
+      <c r="Q22" s="21">
+        <v>30000</v>
+      </c>
+      <c r="R22" s="20"/>
+      <c r="S22" s="20"/>
+      <c r="T22" s="20"/>
     </row>
-    <row r="23" spans="1:14" s="22" customFormat="1" ht="62.25" customHeight="1">
+    <row r="23" spans="1:20" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.3">
       <c r="A23" s="11">
         <v>14</v>
       </c>
@@ -34166,260 +34387,332 @@
         <v>4</v>
       </c>
       <c r="D23" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="F23" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="G23" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="H23" s="16" t="s">
+        <v>180</v>
+      </c>
+      <c r="I23" s="17" t="s">
         <v>108</v>
       </c>
-      <c r="E23" s="11" t="s">
+      <c r="J23" s="17" t="s">
         <v>109</v>
       </c>
-      <c r="F23" s="15" t="s">
+      <c r="K23" s="18" t="s">
         <v>110</v>
       </c>
-      <c r="G23" s="16" t="s">
+      <c r="L23" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="M23" s="20" t="s">
         <v>111</v>
       </c>
-      <c r="H23" s="17" t="s">
-        <v>112</v>
-      </c>
-      <c r="I23" s="17" t="s">
-        <v>113</v>
-      </c>
-      <c r="J23" s="18" t="s">
-        <v>114</v>
-      </c>
-      <c r="K23" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="L23" s="20" t="s">
-        <v>115</v>
-      </c>
-      <c r="M23" s="21">
-        <v>30000</v>
-      </c>
-      <c r="N23" s="21">
-        <v>30000</v>
-      </c>
+      <c r="N23" s="20" t="s">
+        <v>183</v>
+      </c>
+      <c r="O23" s="21">
+        <v>67000</v>
+      </c>
+      <c r="P23" s="21">
+        <v>65000</v>
+      </c>
+      <c r="Q23" s="21">
+        <v>67000</v>
+      </c>
+      <c r="R23" s="20"/>
+      <c r="S23" s="20"/>
+      <c r="T23" s="20"/>
     </row>
-    <row r="24" spans="1:14" s="22" customFormat="1" ht="28.8">
+    <row r="24" spans="1:20" s="22" customFormat="1" ht="45" x14ac:dyDescent="0.3">
       <c r="A24" s="11">
         <v>15</v>
       </c>
       <c r="B24" s="12">
-        <v>968</v>
+        <v>962</v>
       </c>
       <c r="C24" s="13">
         <v>4</v>
       </c>
       <c r="D24" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="F24" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="G24" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="H24" s="16" t="s">
+        <v>180</v>
+      </c>
+      <c r="I24" s="17" t="s">
         <v>108</v>
       </c>
-      <c r="E24" s="11" t="s">
+      <c r="J24" s="17" t="s">
         <v>116</v>
       </c>
-      <c r="F24" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="G24" s="16" t="s">
-        <v>111</v>
-      </c>
-      <c r="H24" s="17" t="s">
-        <v>112</v>
-      </c>
-      <c r="I24" s="17" t="s">
-        <v>113</v>
-      </c>
-      <c r="J24" s="18" t="s">
-        <v>114</v>
-      </c>
-      <c r="K24" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="L24" s="20" t="s">
-        <v>115</v>
-      </c>
-      <c r="M24" s="21">
-        <v>65000</v>
-      </c>
-      <c r="N24" s="21">
-        <v>67000</v>
-      </c>
+      <c r="K24" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="L24" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="M24" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="N24" s="20" t="s">
+        <v>183</v>
+      </c>
+      <c r="O24" s="21">
+        <v>49000</v>
+      </c>
+      <c r="P24" s="21">
+        <v>49000</v>
+      </c>
+      <c r="Q24" s="21">
+        <v>49000</v>
+      </c>
+      <c r="R24" s="20"/>
+      <c r="S24" s="20"/>
+      <c r="T24" s="20"/>
     </row>
-    <row r="25" spans="1:14" s="22" customFormat="1" ht="43.2">
+    <row r="25" spans="1:20" s="22" customFormat="1" ht="90" x14ac:dyDescent="0.3">
       <c r="A25" s="11">
         <v>16</v>
       </c>
       <c r="B25" s="12">
-        <v>962</v>
+        <v>1007</v>
       </c>
       <c r="C25" s="13">
         <v>4</v>
       </c>
       <c r="D25" s="14" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F25" s="15" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="G25" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="H25" s="17" t="s">
-        <v>112</v>
+        <v>122</v>
+      </c>
+      <c r="H25" s="16" t="s">
+        <v>180</v>
       </c>
       <c r="I25" s="17" t="s">
-        <v>120</v>
-      </c>
-      <c r="J25" s="18" t="s">
-        <v>121</v>
-      </c>
-      <c r="K25" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="L25" s="20" t="s">
-        <v>122</v>
-      </c>
-      <c r="M25" s="21">
-        <v>49000</v>
-      </c>
-      <c r="N25" s="21">
-        <v>49000</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="J25" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="K25" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="L25" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="M25" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="N25" s="20" t="s">
+        <v>183</v>
+      </c>
+      <c r="O25" s="21">
+        <v>4760</v>
+      </c>
+      <c r="P25" s="21">
+        <v>4760</v>
+      </c>
+      <c r="Q25" s="21">
+        <v>4760</v>
+      </c>
+      <c r="R25" s="20"/>
+      <c r="S25" s="20"/>
+      <c r="T25" s="20"/>
     </row>
-    <row r="26" spans="1:14" s="22" customFormat="1" ht="86.4">
+    <row r="26" spans="1:20" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.3">
       <c r="A26" s="11">
         <v>17</v>
       </c>
       <c r="B26" s="12">
-        <v>1007</v>
+        <v>949</v>
       </c>
       <c r="C26" s="13">
         <v>4</v>
       </c>
       <c r="D26" s="14" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="F26" s="15" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="G26" s="16" t="s">
-        <v>126</v>
-      </c>
-      <c r="H26" s="17" t="s">
-        <v>104</v>
+        <v>129</v>
+      </c>
+      <c r="H26" s="16" t="s">
+        <v>180</v>
       </c>
       <c r="I26" s="17" t="s">
-        <v>127</v>
-      </c>
-      <c r="J26" s="18" t="s">
-        <v>128</v>
-      </c>
-      <c r="K26" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="L26" s="20" t="s">
-        <v>129</v>
-      </c>
-      <c r="M26" s="21">
-        <v>4760</v>
-      </c>
-      <c r="N26" s="21">
-        <v>4760</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="J26" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="K26" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="L26" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="M26" s="20" t="s">
+        <v>131</v>
+      </c>
+      <c r="N26" s="20" t="s">
+        <v>183</v>
+      </c>
+      <c r="O26" s="21">
+        <v>40000</v>
+      </c>
+      <c r="P26" s="21">
+        <v>40000</v>
+      </c>
+      <c r="Q26" s="21">
+        <v>40000</v>
+      </c>
+      <c r="R26" s="20"/>
+      <c r="S26" s="20"/>
+      <c r="T26" s="20"/>
     </row>
-    <row r="27" spans="1:14" s="22" customFormat="1" ht="28.8">
+    <row r="27" spans="1:20" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.3">
       <c r="A27" s="11">
         <v>18</v>
       </c>
       <c r="B27" s="12">
-        <v>949</v>
+        <v>675</v>
       </c>
       <c r="C27" s="13">
         <v>4</v>
       </c>
       <c r="D27" s="14" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="F27" s="15" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="G27" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="H27" s="17" t="s">
-        <v>72</v>
+        <v>135</v>
+      </c>
+      <c r="H27" s="16" t="s">
+        <v>181</v>
       </c>
       <c r="I27" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="J27" s="18" t="s">
-        <v>134</v>
-      </c>
-      <c r="K27" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="L27" s="20" t="s">
-        <v>135</v>
-      </c>
-      <c r="M27" s="21">
+        <v>136</v>
+      </c>
+      <c r="J27" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="K27" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="L27" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="M27" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="N27" s="20" t="s">
+        <v>183</v>
+      </c>
+      <c r="O27" s="21">
         <v>40000</v>
       </c>
-      <c r="N27" s="21">
+      <c r="P27" s="21">
         <v>40000</v>
       </c>
+      <c r="Q27" s="21">
+        <v>40000</v>
+      </c>
+      <c r="R27" s="20"/>
+      <c r="S27" s="20"/>
+      <c r="T27" s="20"/>
     </row>
-    <row r="28" spans="1:14" s="22" customFormat="1" ht="28.8">
+    <row r="28" spans="1:20" s="22" customFormat="1" ht="45" x14ac:dyDescent="0.3">
       <c r="A28" s="11">
         <v>19</v>
       </c>
       <c r="B28" s="12">
-        <v>675</v>
+        <v>134</v>
       </c>
       <c r="C28" s="13">
         <v>4</v>
       </c>
       <c r="D28" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="E28" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="F28" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="G28" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="H28" s="16" t="s">
+        <v>181</v>
+      </c>
+      <c r="I28" s="17" t="s">
         <v>136</v>
       </c>
-      <c r="E28" s="11" t="s">
-        <v>137</v>
-      </c>
-      <c r="F28" s="15" t="s">
-        <v>138</v>
-      </c>
-      <c r="G28" s="16" t="s">
-        <v>139</v>
-      </c>
-      <c r="H28" s="17" t="s">
-        <v>140</v>
-      </c>
-      <c r="I28" s="17" t="s">
-        <v>141</v>
-      </c>
-      <c r="J28" s="18" t="s">
-        <v>142</v>
-      </c>
-      <c r="K28" s="19" t="s">
-        <v>143</v>
-      </c>
-      <c r="L28" s="20" t="s">
-        <v>144</v>
-      </c>
-      <c r="M28" s="21">
-        <v>40000</v>
-      </c>
-      <c r="N28" s="21">
-        <v>40000</v>
-      </c>
+      <c r="J28" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="K28" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="L28" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="M28" s="20" t="s">
+        <v>147</v>
+      </c>
+      <c r="N28" s="20" t="s">
+        <v>183</v>
+      </c>
+      <c r="O28" s="21">
+        <v>125000</v>
+      </c>
+      <c r="P28" s="21">
+        <v>74500</v>
+      </c>
+      <c r="Q28" s="21">
+        <v>125000</v>
+      </c>
+      <c r="R28" s="20"/>
+      <c r="S28" s="20"/>
+      <c r="T28" s="20"/>
     </row>
-    <row r="29" spans="1:14" s="22" customFormat="1" ht="43.2">
+    <row r="29" spans="1:20" s="22" customFormat="1" ht="45" x14ac:dyDescent="0.3">
       <c r="A29" s="11">
         <v>20</v>
       </c>
@@ -34430,40 +34723,52 @@
         <v>4</v>
       </c>
       <c r="D29" s="14" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="F29" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="G29" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="H29" s="16" t="s">
+        <v>181</v>
+      </c>
+      <c r="I29" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="J29" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="K29" s="18" t="s">
+        <v>152</v>
+      </c>
+      <c r="L29" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="M29" s="20" t="s">
         <v>147</v>
       </c>
-      <c r="G29" s="16" t="s">
-        <v>148</v>
-      </c>
-      <c r="H29" s="17" t="s">
-        <v>140</v>
-      </c>
-      <c r="I29" s="17" t="s">
-        <v>149</v>
-      </c>
-      <c r="J29" s="18" t="s">
-        <v>150</v>
-      </c>
-      <c r="K29" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="L29" s="20" t="s">
-        <v>151</v>
-      </c>
-      <c r="M29" s="21">
-        <v>74500</v>
-      </c>
-      <c r="N29" s="21">
-        <v>125000</v>
-      </c>
+      <c r="N29" s="20" t="s">
+        <v>183</v>
+      </c>
+      <c r="O29" s="21">
+        <v>85000</v>
+      </c>
+      <c r="P29" s="21">
+        <v>54500</v>
+      </c>
+      <c r="Q29" s="21">
+        <v>85000</v>
+      </c>
+      <c r="R29" s="20"/>
+      <c r="S29" s="20"/>
+      <c r="T29" s="20"/>
     </row>
-    <row r="30" spans="1:14" s="22" customFormat="1" ht="43.2">
+    <row r="30" spans="1:20" s="22" customFormat="1" ht="90" x14ac:dyDescent="0.3">
       <c r="A30" s="11">
         <v>21</v>
       </c>
@@ -34471,325 +34776,328 @@
         <v>134</v>
       </c>
       <c r="C30" s="13">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D30" s="14" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F30" s="15" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G30" s="16" t="s">
-        <v>148</v>
-      </c>
-      <c r="H30" s="17" t="s">
-        <v>140</v>
+        <v>156</v>
+      </c>
+      <c r="H30" s="16" t="s">
+        <v>181</v>
       </c>
       <c r="I30" s="17" t="s">
-        <v>155</v>
-      </c>
-      <c r="J30" s="18" t="s">
-        <v>156</v>
-      </c>
-      <c r="K30" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="L30" s="20" t="s">
-        <v>151</v>
-      </c>
-      <c r="M30" s="21">
-        <v>54500</v>
-      </c>
-      <c r="N30" s="21">
-        <v>85000</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="J30" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="K30" s="18" t="s">
+        <v>158</v>
+      </c>
+      <c r="L30" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="M30" s="20" t="s">
+        <v>159</v>
+      </c>
+      <c r="N30" s="20" t="s">
+        <v>184</v>
+      </c>
+      <c r="O30" s="21">
+        <v>135000</v>
+      </c>
+      <c r="P30" s="21">
+        <v>135000</v>
+      </c>
+      <c r="Q30" s="21">
+        <v>135000</v>
+      </c>
+      <c r="R30" s="20"/>
+      <c r="S30" s="20"/>
+      <c r="T30" s="20"/>
     </row>
-    <row r="31" spans="1:14" s="22" customFormat="1" ht="86.4">
+    <row r="31" spans="1:20" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.3">
       <c r="A31" s="11">
         <v>22</v>
       </c>
       <c r="B31" s="12">
-        <v>134</v>
+        <v>949</v>
       </c>
       <c r="C31" s="13">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D31" s="14" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="F31" s="15" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="G31" s="16" t="s">
-        <v>160</v>
-      </c>
-      <c r="H31" s="17" t="s">
-        <v>140</v>
+        <v>163</v>
+      </c>
+      <c r="H31" s="16" t="s">
+        <v>180</v>
       </c>
       <c r="I31" s="17" t="s">
-        <v>161</v>
-      </c>
-      <c r="J31" s="18" t="s">
-        <v>162</v>
-      </c>
-      <c r="K31" s="19" t="s">
-        <v>143</v>
-      </c>
-      <c r="L31" s="20" t="s">
-        <v>163</v>
-      </c>
-      <c r="M31" s="21">
-        <v>135000</v>
-      </c>
-      <c r="N31" s="21">
-        <v>135000</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="J31" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="K31" s="18" t="s">
+        <v>166</v>
+      </c>
+      <c r="L31" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="M31" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="N31" s="23" t="s">
+        <v>183</v>
+      </c>
+      <c r="O31" s="21">
+        <v>6950</v>
+      </c>
+      <c r="P31" s="21">
+        <v>6900</v>
+      </c>
+      <c r="Q31" s="21">
+        <v>6950</v>
+      </c>
+      <c r="R31" s="23"/>
+      <c r="S31" s="23"/>
+      <c r="T31" s="23"/>
     </row>
-    <row r="32" spans="1:14" s="22" customFormat="1" ht="28.8">
+    <row r="32" spans="1:20" s="22" customFormat="1" ht="60" x14ac:dyDescent="0.3">
       <c r="A32" s="11">
         <v>23</v>
       </c>
-      <c r="B32" s="12">
-        <v>949</v>
-      </c>
+      <c r="B32" s="12"/>
       <c r="C32" s="13">
         <v>4</v>
       </c>
       <c r="D32" s="14" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="F32" s="15" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="G32" s="16" t="s">
-        <v>167</v>
-      </c>
-      <c r="H32" s="17" t="s">
-        <v>168</v>
+        <v>171</v>
+      </c>
+      <c r="H32" s="16" t="s">
+        <v>180</v>
       </c>
       <c r="I32" s="17" t="s">
-        <v>169</v>
-      </c>
-      <c r="J32" s="18" t="s">
-        <v>170</v>
-      </c>
-      <c r="K32" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="L32" s="23" t="s">
-        <v>171</v>
-      </c>
-      <c r="M32" s="21">
-        <v>6900</v>
-      </c>
-      <c r="N32" s="21">
-        <v>6950</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="J32" s="17" t="s">
+        <v>172</v>
+      </c>
+      <c r="K32" s="18" t="s">
+        <v>173</v>
+      </c>
+      <c r="L32" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="M32" s="20" t="s">
+        <v>174</v>
+      </c>
+      <c r="N32" s="20" t="s">
+        <v>183</v>
+      </c>
+      <c r="O32" s="21">
+        <v>130000</v>
+      </c>
+      <c r="P32" s="21">
+        <v>130000</v>
+      </c>
+      <c r="Q32" s="21">
+        <v>130000</v>
+      </c>
+      <c r="R32" s="20"/>
+      <c r="S32" s="20"/>
+      <c r="T32" s="20"/>
     </row>
-    <row r="33" spans="1:14" s="22" customFormat="1" ht="57.6">
-      <c r="A33" s="11">
-        <v>24</v>
-      </c>
-      <c r="B33" s="12"/>
-      <c r="C33" s="13">
-        <v>4</v>
-      </c>
-      <c r="D33" s="14" t="s">
-        <v>172</v>
-      </c>
-      <c r="E33" s="11" t="s">
-        <v>173</v>
-      </c>
-      <c r="F33" s="15" t="s">
-        <v>174</v>
-      </c>
-      <c r="G33" s="16" t="s">
+    <row r="33" spans="1:20" s="22" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="24"/>
+      <c r="B33" s="25"/>
+      <c r="C33" s="26"/>
+      <c r="D33" s="27"/>
+      <c r="E33" s="24"/>
+      <c r="F33" s="28"/>
+      <c r="G33" s="29"/>
+      <c r="H33" s="29"/>
+      <c r="I33" s="29"/>
+      <c r="J33" s="29"/>
+      <c r="K33" s="30"/>
+      <c r="L33" s="31"/>
+      <c r="M33" s="32"/>
+      <c r="N33" s="32"/>
+      <c r="O33" s="33"/>
+      <c r="P33" s="33"/>
+      <c r="Q33" s="33"/>
+      <c r="R33" s="32"/>
+      <c r="S33" s="32"/>
+      <c r="T33" s="32"/>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B34" s="34"/>
+      <c r="K34" s="43" t="s">
         <v>175</v>
       </c>
-      <c r="H33" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="I33" s="17" t="s">
+      <c r="L34" s="43"/>
+      <c r="M34" s="43"/>
+      <c r="N34" s="43"/>
+      <c r="O34" s="43"/>
+      <c r="P34" s="43"/>
+      <c r="Q34" s="43"/>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B35" s="34"/>
+      <c r="K35" s="38" t="s">
         <v>176</v>
       </c>
-      <c r="J33" s="18" t="s">
-        <v>177</v>
-      </c>
-      <c r="K33" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="L33" s="20" t="s">
-        <v>178</v>
-      </c>
-      <c r="M33" s="21">
-        <v>130000</v>
-      </c>
-      <c r="N33" s="21">
-        <v>130000</v>
-      </c>
+      <c r="L35" s="38"/>
+      <c r="M35" s="38"/>
+      <c r="N35" s="38"/>
+      <c r="O35" s="38"/>
+      <c r="P35" s="38"/>
+      <c r="Q35" s="38"/>
     </row>
-    <row r="34" spans="1:14" s="22" customFormat="1">
-      <c r="A34" s="24"/>
-      <c r="B34" s="25"/>
-      <c r="C34" s="26"/>
-      <c r="D34" s="27"/>
-      <c r="E34" s="24"/>
-      <c r="F34" s="28"/>
-      <c r="G34" s="29"/>
-      <c r="H34" s="29"/>
-      <c r="I34" s="29"/>
-      <c r="J34" s="30"/>
-      <c r="K34" s="31"/>
-      <c r="L34" s="32"/>
-      <c r="M34" s="33"/>
-      <c r="N34" s="33"/>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B36" s="34"/>
     </row>
-    <row r="35" spans="1:14">
-      <c r="B35" s="34"/>
-      <c r="J35" s="43" t="s">
-        <v>179</v>
-      </c>
-      <c r="K35" s="43"/>
-      <c r="L35" s="43"/>
-      <c r="M35" s="43"/>
-      <c r="N35" s="43"/>
-    </row>
-    <row r="36" spans="1:14">
-      <c r="B36" s="34"/>
-      <c r="J36" s="38" t="s">
-        <v>180</v>
-      </c>
-      <c r="K36" s="38"/>
-      <c r="L36" s="38"/>
-      <c r="M36" s="38"/>
-      <c r="N36" s="38"/>
-    </row>
-    <row r="37" spans="1:14">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B37" s="34"/>
     </row>
-    <row r="38" spans="1:14">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B38" s="34"/>
     </row>
-    <row r="39" spans="1:14">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B39" s="34"/>
+      <c r="L39" s="36"/>
     </row>
-    <row r="40" spans="1:14">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B40" s="34"/>
-      <c r="K40" s="36"/>
     </row>
-    <row r="41" spans="1:14">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B41" s="34"/>
     </row>
-    <row r="42" spans="1:14">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B42" s="34"/>
     </row>
-    <row r="43" spans="1:14">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B43" s="34"/>
     </row>
-    <row r="44" spans="1:14">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B44" s="34"/>
     </row>
-    <row r="45" spans="1:14">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B45" s="34"/>
     </row>
-    <row r="46" spans="1:14">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B46" s="34"/>
     </row>
-    <row r="47" spans="1:14">
+    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B47" s="34"/>
     </row>
-    <row r="48" spans="1:14">
+    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B48" s="34"/>
     </row>
-    <row r="49" spans="2:2">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B49" s="34"/>
     </row>
-    <row r="50" spans="2:2">
+    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B50" s="34"/>
     </row>
-    <row r="51" spans="2:2">
+    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B51" s="34"/>
     </row>
-    <row r="52" spans="2:2">
+    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B52" s="34"/>
     </row>
-    <row r="53" spans="2:2">
+    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B53" s="34"/>
     </row>
-    <row r="54" spans="2:2">
+    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B54" s="34"/>
     </row>
-    <row r="55" spans="2:2">
+    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B55" s="34"/>
     </row>
-    <row r="56" spans="2:2">
+    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B56" s="34"/>
     </row>
-    <row r="57" spans="2:2">
+    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B57" s="34"/>
     </row>
-    <row r="58" spans="2:2">
+    <row r="58" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B58" s="34"/>
     </row>
-    <row r="59" spans="2:2">
+    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B59" s="34"/>
     </row>
-    <row r="60" spans="2:2">
+    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B60" s="34"/>
     </row>
-    <row r="61" spans="2:2">
+    <row r="61" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B61" s="34"/>
     </row>
-    <row r="62" spans="2:2">
+    <row r="62" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B62" s="34"/>
     </row>
-    <row r="63" spans="2:2">
+    <row r="63" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B63" s="34"/>
     </row>
-    <row r="64" spans="2:2">
+    <row r="64" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B64" s="34"/>
     </row>
-    <row r="65" spans="2:7">
+    <row r="65" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B65" s="34"/>
     </row>
-    <row r="66" spans="2:7">
+    <row r="66" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B66" s="34"/>
     </row>
-    <row r="67" spans="2:7">
+    <row r="67" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B67" s="34"/>
     </row>
-    <row r="68" spans="2:7">
+    <row r="68" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B68" s="34"/>
     </row>
-    <row r="69" spans="2:7">
+    <row r="69" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B69" s="34"/>
     </row>
-    <row r="70" spans="2:7">
-      <c r="B70" s="34"/>
-    </row>
-    <row r="74" spans="2:7">
-      <c r="G74" s="37"/>
+    <row r="73" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="G73" s="37"/>
+      <c r="H73" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="J36:N36"/>
-    <mergeCell ref="G5:M5"/>
-    <mergeCell ref="A6:N6"/>
-    <mergeCell ref="A7:N7"/>
-    <mergeCell ref="A8:N8"/>
-    <mergeCell ref="J35:N35"/>
+    <mergeCell ref="K35:Q35"/>
+    <mergeCell ref="G5:P5"/>
+    <mergeCell ref="A6:Q6"/>
+    <mergeCell ref="A7:Q7"/>
+    <mergeCell ref="A8:Q8"/>
+    <mergeCell ref="K34:Q34"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Lưu ý" error="Nhập số lớn hơn 0 và nhỏ hơn 1,000,000,000,000,000" promptTitle="Lưu ý" prompt="Nhập số lớn hơn 0 và nhỏ hơn 1,000,000,000,000,000" sqref="N26 M14 M16:M26 N19" xr:uid="{B5CE3A28-D2DD-4F31-8AFB-D62701A0A43A}">
+    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Lưu ý" error="Nhập số lớn hơn 0 và nhỏ hơn 1,000,000,000,000,000" promptTitle="Lưu ý" prompt="Nhập số lớn hơn 0 và nhỏ hơn 1,000,000,000,000,000" sqref="Q25 P14 P16:P25 O25" xr:uid="{B5CE3A28-D2DD-4F31-8AFB-D62701A0A43A}">
       <formula1>0.0001</formula1>
       <formula2>1000000000000000</formula2>
     </dataValidation>

--- a/database/imports/bang-gia-thuoc.xlsx
+++ b/database/imports/bang-gia-thuoc.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4b1c315fe3860ed0/Van/02032021/Máy tính/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27C6129C-FA7D-4442-BCC0-77FA2B85DE1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="25" documentId="13_ncr:1_{27C6129C-FA7D-4442-BCC0-77FA2B85DE1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5C4F70AF-9ADD-45F4-97A5-E6FDCD6D0551}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AA2AB357-8B43-4900-A8BE-9AF4115D18D6}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{AA2AB357-8B43-4900-A8BE-9AF4115D18D6}"/>
   </bookViews>
   <sheets>
     <sheet name="TÂN DƯỢC-TRUNG-THAU" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
   </externalReferences>
   <definedNames>
     <definedName name="_Fill" hidden="1">#REF!</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'TÂN DƯỢC-TRUNG-THAU'!$A$9:$Q$9</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'TÂN DƯỢC-TRUNG-THAU'!$A$9:$U$36</definedName>
     <definedName name="_Key1" hidden="1">#REF!</definedName>
     <definedName name="_Key2" hidden="1">#REF!</definedName>
     <definedName name="_Order1" hidden="1">255</definedName>
@@ -107,7 +107,7 @@
     <definedName name="hyîa" hidden="1">{"'Sheet1'!$L$16"}</definedName>
     <definedName name="khoi" hidden="1">{"'Sheet1'!$L$16"}</definedName>
     <definedName name="MÊ_KONG">#REF!</definedName>
-    <definedName name="MINH">[1]N.T.Minh!$B$9:$AM$60</definedName>
+    <definedName name="MINH">'[1]N.T.Minh'!$B$9:$AM$60</definedName>
     <definedName name="minhư">#REF!</definedName>
     <definedName name="NAM_BỘ">#REF!</definedName>
     <definedName name="NAM_TRUNG_BỘ">#REF!</definedName>
@@ -148,17 +148,58 @@
     <definedName name="TTT">#REF!</definedName>
     <definedName name="TTYT_HUYEN_CHAU_THANH_TRI">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Admin</author>
+  </authors>
+  <commentList>
+    <comment ref="Q36" authorId="0" shapeId="0" xr:uid="{B2D95BFE-B90A-4ECC-B465-59B6321B8DC6}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t>Admin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve">
+Số lượng cam kết: 300.000</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="221">
   <si>
     <t>CÔNG TY TNHH INAFO VIỆT NAM</t>
   </si>
@@ -258,9 +299,6 @@
     <t>36 tháng</t>
   </si>
   <si>
-    <t>Farmalabor – Produtos Farmacêuticos, S.A, Portugal</t>
-  </si>
-  <si>
     <t>Meloxicam</t>
   </si>
   <si>
@@ -281,10 +319,6 @@
     <t>VN-20104-16</t>
   </si>
   <si>
-    <t>Alpex Pharma SA.
-Thụy Sĩ</t>
-  </si>
-  <si>
     <t>Telmisartan +
 Hydrochlothiazid</t>
   </si>
@@ -295,16 +329,10 @@
     <t>Anvo-Telmisartan HCTZ 80/12,5mg</t>
   </si>
   <si>
-    <t>Viên nén, uống</t>
-  </si>
-  <si>
     <t>Hộp 2 vỉ x 7 viên</t>
   </si>
   <si>
     <t>840110178923</t>
-  </si>
-  <si>
-    <t>Laboratorios Liconsa, S.A, Spain</t>
   </si>
   <si>
     <t>Pregabalin</t>
@@ -336,9 +364,6 @@
   </si>
   <si>
     <t>Goldridons</t>
-  </si>
-  <si>
-    <t>Hỗn dịch uống, Uống</t>
   </si>
   <si>
     <t>Hộp</t>
@@ -387,9 +412,6 @@
     <t>Monizol</t>
   </si>
   <si>
-    <t xml:space="preserve"> Dung dịch/Hỗn dịch/ Nhũ dịch uống, Uống</t>
-  </si>
-  <si>
     <t>Chai</t>
   </si>
   <si>
@@ -415,9 +437,6 @@
   </si>
   <si>
     <t>GENTUSI</t>
-  </si>
-  <si>
-    <t>Đặt âm đạo Viên đặt âm đạo/</t>
   </si>
   <si>
     <t>Hộp 2 vỉ x 5 viên</t>
@@ -509,9 +528,6 @@
     <t>AMBROXOL - H</t>
   </si>
   <si>
-    <t>Siro thuốc, uống</t>
-  </si>
-  <si>
     <t>Lọ</t>
   </si>
   <si>
@@ -541,9 +557,6 @@
   </si>
   <si>
     <t>VD-34495-20</t>
-  </si>
-  <si>
-    <t>Công ty cổ phần Dược VTYT Hà Nam, Việt Nam</t>
   </si>
   <si>
     <t>Calci carbonat (tương đương với 500mg Calci)+ Vitamin D3 (Colecalciferol)</t>
@@ -591,25 +604,13 @@
     <t>20mg/2ml</t>
   </si>
   <si>
-    <t>A.T Famotidine inj 20 mg</t>
-  </si>
-  <si>
     <t>Dung dich tiêm</t>
   </si>
   <si>
     <t>ống</t>
   </si>
   <si>
-    <t>Hộp 10 lọ x 2 ml</t>
-  </si>
-  <si>
-    <t>VD-34118-20</t>
-  </si>
-  <si>
     <t>24 tháng</t>
-  </si>
-  <si>
-    <t>Công ty cổ phần dược phẩm An Thiên</t>
   </si>
   <si>
     <t xml:space="preserve">Noradrenalin </t>
@@ -679,9 +680,6 @@
     <t>Saihasin</t>
   </si>
   <si>
-    <t>Dung dịch uống,  Uống</t>
-  </si>
-  <si>
     <t>Ống</t>
   </si>
   <si>
@@ -713,12 +711,6 @@
   </si>
   <si>
     <t>Công ty Liên doanh Meyer-BPC, Việt Nam</t>
-  </si>
-  <si>
-    <t>Giám đốc công ty</t>
-  </si>
-  <si>
-    <t>(Ký tên và đóng mộc công ty)</t>
   </si>
   <si>
     <t>Đường dùng</t>
@@ -774,6 +766,137 @@
   <si>
     <t>Link Hình ảnh</t>
   </si>
+  <si>
+    <t>Trạng thái trúng thầu</t>
+  </si>
+  <si>
+    <t>Farmalabor – Produtos Farmacêuticos, S.A</t>
+  </si>
+  <si>
+    <t>Viên nén</t>
+  </si>
+  <si>
+    <t>Laboratorios Liconsa, S.A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alpex Pharma SA.
+</t>
+  </si>
+  <si>
+    <t>Thụy Sĩ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hỗn dịch uống </t>
+  </si>
+  <si>
+    <t>Hỗn dịch uống,</t>
+  </si>
+  <si>
+    <t>Công ty cổ phần Dược VTYT Hà Nam</t>
+  </si>
+  <si>
+    <t>Đặt âm đạo</t>
+  </si>
+  <si>
+    <t>Viên đặt âm đạo</t>
+  </si>
+  <si>
+    <t>Justone 30 Mg/5 ml</t>
+  </si>
+  <si>
+    <t>Dung dịch uống</t>
+  </si>
+  <si>
+    <t>Hộp 1 chai x 50ml</t>
+  </si>
+  <si>
+    <t>893100153400</t>
+  </si>
+  <si>
+    <t>30 tháng</t>
+  </si>
+  <si>
+    <t>Công ty Cổ phần Medcen, Việt Nam</t>
+  </si>
+  <si>
+    <t>Siro thuốc</t>
+  </si>
+  <si>
+    <t>Famotidin 20mg/2ml</t>
+  </si>
+  <si>
+    <t>Hộp 10 ống x2ml Hộp 20 ống x2ml Hộp 50 ống x2ml</t>
+  </si>
+  <si>
+    <t>893110150900</t>
+  </si>
+  <si>
+    <t>Công ty cổ phần Dược vật tư y tế Hải Dương</t>
+  </si>
+  <si>
+    <t>Hỗn dịch uống</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Dapagliflozin (dưới 
+dạng dapagliflozin 
+propanediol 
+monohydrate 
+12,30mg) 10mg</t>
+  </si>
+  <si>
+    <t>10 mg</t>
+  </si>
+  <si>
+    <t>Zandyrine 10 mg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Viên nén bao phim </t>
+  </si>
+  <si>
+    <t>893110223823</t>
+  </si>
+  <si>
+    <t>36 Tháng</t>
+  </si>
+  <si>
+    <t>Công ty TNHH DRP Inter   / Việt Nam</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Cetirizine Hydrochlorid</t>
+  </si>
+  <si>
+    <t>1mg/ml</t>
+  </si>
+  <si>
+    <t>Alesof</t>
+  </si>
+  <si>
+    <t>Hộp 1 chai x 60ml, kèm cốc phân liều</t>
+  </si>
+  <si>
+    <t>890100316125</t>
+  </si>
+  <si>
+    <t>XL Laboratories Private Limited</t>
+  </si>
+  <si>
+    <t>Sắt nguyên tố (dưới dạng phức hợp sắt (III) hydroxide polymaltose)</t>
+  </si>
+  <si>
+    <t>50mg/5ml</t>
+  </si>
+  <si>
+    <t>Furemin</t>
+  </si>
+  <si>
+    <t>Hộp 20 gói x 10ml, Uống</t>
+  </si>
+  <si>
+    <t>893100084825</t>
+  </si>
+  <si>
+    <t>Công ty cổ phần dược phẩm Thành Phát</t>
+  </si>
 </sst>
 </file>
 
@@ -787,7 +910,7 @@
     <numFmt numFmtId="167" formatCode="_-* #,##0.00\ _₫_-;\-* #,##0.00\ _₫_-;_-* &quot;-&quot;??\ _₫_-;_-@_-"/>
     <numFmt numFmtId="168" formatCode="_-* #,##0\ _₫_-;\-* #,##0\ _₫_-;_-* &quot;-&quot;??\ _₫_-;_-@_-"/>
   </numFmts>
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="24">
     <font>
       <sz val="14"/>
       <color theme="1"/>
@@ -896,34 +1019,44 @@
       <family val="1"/>
     </font>
     <font>
-      <sz val="13"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <i/>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
       <sz val="12"/>
-      <color indexed="8"/>
+      <color theme="1"/>
       <name val="Times New Roman"/>
-      <family val="1"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -933,6 +1066,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -998,9 +1137,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
@@ -1067,35 +1206,8 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="15" fillId="0" borderId="0" xfId="8" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="15" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
@@ -1103,9 +1215,6 @@
     </xf>
     <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="14" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1118,7 +1227,49 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="14" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="15" fillId="3" borderId="3" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="3" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="20" fillId="0" borderId="3" xfId="8" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="20" fillId="0" borderId="3" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="20" fillId="3" borderId="3" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1156,7 +1307,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -1212,7 +1363,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -1268,7 +1419,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -1324,7 +1475,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -1380,7 +1531,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -1436,7 +1587,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -1492,7 +1643,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -1548,7 +1699,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -1604,7 +1755,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -1660,7 +1811,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -1716,7 +1867,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -1772,7 +1923,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -1828,7 +1979,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -1884,7 +2035,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -1940,7 +2091,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -1996,7 +2147,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -2052,7 +2203,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -2108,7 +2259,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -2164,7 +2315,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -2220,7 +2371,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -2276,7 +2427,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -2332,7 +2483,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -2388,7 +2539,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -2444,7 +2595,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -2500,7 +2651,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -2556,7 +2707,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -2612,7 +2763,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -2668,7 +2819,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -2724,7 +2875,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -2780,7 +2931,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -2836,7 +2987,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -2892,7 +3043,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -2948,7 +3099,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -3004,7 +3155,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -3060,7 +3211,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -3116,7 +3267,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -3172,7 +3323,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -3228,7 +3379,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -3284,7 +3435,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -3340,7 +3491,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -3398,7 +3549,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Tổng KV1"/>
@@ -30350,7 +30501,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="01. KH THUONG"/>
@@ -30493,7 +30644,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Thong_tin_co_hoi"/>
@@ -31482,7 +31633,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="CHiet tinh may khuay"/>
@@ -31866,1727 +32017,1727 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8326482F-38D0-4A78-9C12-23F885EAB698}">
-  <dimension ref="A1:T73"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8326482F-38D0-4A78-9C12-23F885EAB698}">
+  <dimension ref="A1:U72"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="T10" sqref="T10"/>
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.33203125" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.36328125" defaultRowHeight="16.8"/>
   <cols>
-    <col min="1" max="1" width="5.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.33203125" style="35" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.44140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="19.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.77734375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="13.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.36328125" style="26" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.453125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="19.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.81640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.90625" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="15" style="1" customWidth="1"/>
-    <col min="12" max="12" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.6328125" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="14" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="18" max="20" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="171" width="7.77734375" style="1" customWidth="1"/>
-    <col min="172" max="172" width="5.6640625" style="1" customWidth="1"/>
-    <col min="173" max="174" width="10.88671875" style="1" customWidth="1"/>
-    <col min="175" max="175" width="9.109375" style="1" customWidth="1"/>
-    <col min="176" max="177" width="8.6640625" style="1" customWidth="1"/>
-    <col min="178" max="178" width="24" style="1" customWidth="1"/>
-    <col min="179" max="179" width="17.77734375" style="1" customWidth="1"/>
-    <col min="180" max="181" width="12.77734375" style="1" customWidth="1"/>
-    <col min="182" max="182" width="20.21875" style="1" customWidth="1"/>
-    <col min="183" max="218" width="8.33203125" style="1"/>
-    <col min="219" max="219" width="6.44140625" style="1" customWidth="1"/>
-    <col min="220" max="222" width="8.6640625" style="1" customWidth="1"/>
-    <col min="223" max="223" width="21.109375" style="1" customWidth="1"/>
-    <col min="224" max="224" width="25.109375" style="1" customWidth="1"/>
-    <col min="225" max="225" width="14.88671875" style="1" customWidth="1"/>
-    <col min="226" max="226" width="16.88671875" style="1" customWidth="1"/>
-    <col min="227" max="227" width="7.77734375" style="1" customWidth="1"/>
-    <col min="228" max="228" width="14.88671875" style="1" customWidth="1"/>
-    <col min="229" max="229" width="9.21875" style="1" customWidth="1"/>
-    <col min="230" max="230" width="11.21875" style="1" customWidth="1"/>
-    <col min="231" max="231" width="16.21875" style="1" customWidth="1"/>
-    <col min="232" max="232" width="13.109375" style="1" customWidth="1"/>
-    <col min="233" max="235" width="12.77734375" style="1" customWidth="1"/>
-    <col min="236" max="236" width="11.88671875" style="1" customWidth="1"/>
-    <col min="237" max="237" width="12.77734375" style="1" customWidth="1"/>
-    <col min="238" max="427" width="7.77734375" style="1" customWidth="1"/>
-    <col min="428" max="428" width="5.6640625" style="1" customWidth="1"/>
-    <col min="429" max="430" width="10.88671875" style="1" customWidth="1"/>
-    <col min="431" max="431" width="9.109375" style="1" customWidth="1"/>
-    <col min="432" max="433" width="8.6640625" style="1" customWidth="1"/>
-    <col min="434" max="434" width="24" style="1" customWidth="1"/>
-    <col min="435" max="435" width="17.77734375" style="1" customWidth="1"/>
-    <col min="436" max="437" width="12.77734375" style="1" customWidth="1"/>
-    <col min="438" max="438" width="20.21875" style="1" customWidth="1"/>
-    <col min="439" max="474" width="8.33203125" style="1"/>
-    <col min="475" max="475" width="6.44140625" style="1" customWidth="1"/>
-    <col min="476" max="478" width="8.6640625" style="1" customWidth="1"/>
-    <col min="479" max="479" width="21.109375" style="1" customWidth="1"/>
-    <col min="480" max="480" width="25.109375" style="1" customWidth="1"/>
-    <col min="481" max="481" width="14.88671875" style="1" customWidth="1"/>
-    <col min="482" max="482" width="16.88671875" style="1" customWidth="1"/>
-    <col min="483" max="483" width="7.77734375" style="1" customWidth="1"/>
-    <col min="484" max="484" width="14.88671875" style="1" customWidth="1"/>
-    <col min="485" max="485" width="9.21875" style="1" customWidth="1"/>
-    <col min="486" max="486" width="11.21875" style="1" customWidth="1"/>
-    <col min="487" max="487" width="16.21875" style="1" customWidth="1"/>
-    <col min="488" max="488" width="13.109375" style="1" customWidth="1"/>
-    <col min="489" max="491" width="12.77734375" style="1" customWidth="1"/>
-    <col min="492" max="492" width="11.88671875" style="1" customWidth="1"/>
-    <col min="493" max="493" width="12.77734375" style="1" customWidth="1"/>
-    <col min="494" max="683" width="7.77734375" style="1" customWidth="1"/>
-    <col min="684" max="684" width="5.6640625" style="1" customWidth="1"/>
-    <col min="685" max="686" width="10.88671875" style="1" customWidth="1"/>
-    <col min="687" max="687" width="9.109375" style="1" customWidth="1"/>
-    <col min="688" max="689" width="8.6640625" style="1" customWidth="1"/>
-    <col min="690" max="690" width="24" style="1" customWidth="1"/>
-    <col min="691" max="691" width="17.77734375" style="1" customWidth="1"/>
-    <col min="692" max="693" width="12.77734375" style="1" customWidth="1"/>
-    <col min="694" max="694" width="20.21875" style="1" customWidth="1"/>
-    <col min="695" max="730" width="8.33203125" style="1"/>
-    <col min="731" max="731" width="6.44140625" style="1" customWidth="1"/>
-    <col min="732" max="734" width="8.6640625" style="1" customWidth="1"/>
-    <col min="735" max="735" width="21.109375" style="1" customWidth="1"/>
-    <col min="736" max="736" width="25.109375" style="1" customWidth="1"/>
-    <col min="737" max="737" width="14.88671875" style="1" customWidth="1"/>
-    <col min="738" max="738" width="16.88671875" style="1" customWidth="1"/>
-    <col min="739" max="739" width="7.77734375" style="1" customWidth="1"/>
-    <col min="740" max="740" width="14.88671875" style="1" customWidth="1"/>
-    <col min="741" max="741" width="9.21875" style="1" customWidth="1"/>
-    <col min="742" max="742" width="11.21875" style="1" customWidth="1"/>
-    <col min="743" max="743" width="16.21875" style="1" customWidth="1"/>
-    <col min="744" max="744" width="13.109375" style="1" customWidth="1"/>
-    <col min="745" max="747" width="12.77734375" style="1" customWidth="1"/>
-    <col min="748" max="748" width="11.88671875" style="1" customWidth="1"/>
-    <col min="749" max="749" width="12.77734375" style="1" customWidth="1"/>
-    <col min="750" max="939" width="7.77734375" style="1" customWidth="1"/>
-    <col min="940" max="940" width="5.6640625" style="1" customWidth="1"/>
-    <col min="941" max="942" width="10.88671875" style="1" customWidth="1"/>
-    <col min="943" max="943" width="9.109375" style="1" customWidth="1"/>
-    <col min="944" max="945" width="8.6640625" style="1" customWidth="1"/>
-    <col min="946" max="946" width="24" style="1" customWidth="1"/>
-    <col min="947" max="947" width="17.77734375" style="1" customWidth="1"/>
-    <col min="948" max="949" width="12.77734375" style="1" customWidth="1"/>
-    <col min="950" max="950" width="20.21875" style="1" customWidth="1"/>
-    <col min="951" max="986" width="8.33203125" style="1"/>
-    <col min="987" max="987" width="6.44140625" style="1" customWidth="1"/>
-    <col min="988" max="990" width="8.6640625" style="1" customWidth="1"/>
-    <col min="991" max="991" width="21.109375" style="1" customWidth="1"/>
-    <col min="992" max="992" width="25.109375" style="1" customWidth="1"/>
-    <col min="993" max="993" width="14.88671875" style="1" customWidth="1"/>
-    <col min="994" max="994" width="16.88671875" style="1" customWidth="1"/>
-    <col min="995" max="995" width="7.77734375" style="1" customWidth="1"/>
-    <col min="996" max="996" width="14.88671875" style="1" customWidth="1"/>
-    <col min="997" max="997" width="9.21875" style="1" customWidth="1"/>
-    <col min="998" max="998" width="11.21875" style="1" customWidth="1"/>
-    <col min="999" max="999" width="16.21875" style="1" customWidth="1"/>
-    <col min="1000" max="1000" width="13.109375" style="1" customWidth="1"/>
-    <col min="1001" max="1003" width="12.77734375" style="1" customWidth="1"/>
-    <col min="1004" max="1004" width="11.88671875" style="1" customWidth="1"/>
-    <col min="1005" max="1005" width="12.77734375" style="1" customWidth="1"/>
-    <col min="1006" max="1195" width="7.77734375" style="1" customWidth="1"/>
-    <col min="1196" max="1196" width="5.6640625" style="1" customWidth="1"/>
-    <col min="1197" max="1198" width="10.88671875" style="1" customWidth="1"/>
-    <col min="1199" max="1199" width="9.109375" style="1" customWidth="1"/>
-    <col min="1200" max="1201" width="8.6640625" style="1" customWidth="1"/>
-    <col min="1202" max="1202" width="24" style="1" customWidth="1"/>
-    <col min="1203" max="1203" width="17.77734375" style="1" customWidth="1"/>
-    <col min="1204" max="1205" width="12.77734375" style="1" customWidth="1"/>
-    <col min="1206" max="1206" width="20.21875" style="1" customWidth="1"/>
-    <col min="1207" max="1242" width="8.33203125" style="1"/>
-    <col min="1243" max="1243" width="6.44140625" style="1" customWidth="1"/>
-    <col min="1244" max="1246" width="8.6640625" style="1" customWidth="1"/>
-    <col min="1247" max="1247" width="21.109375" style="1" customWidth="1"/>
-    <col min="1248" max="1248" width="25.109375" style="1" customWidth="1"/>
-    <col min="1249" max="1249" width="14.88671875" style="1" customWidth="1"/>
-    <col min="1250" max="1250" width="16.88671875" style="1" customWidth="1"/>
-    <col min="1251" max="1251" width="7.77734375" style="1" customWidth="1"/>
-    <col min="1252" max="1252" width="14.88671875" style="1" customWidth="1"/>
-    <col min="1253" max="1253" width="9.21875" style="1" customWidth="1"/>
-    <col min="1254" max="1254" width="11.21875" style="1" customWidth="1"/>
-    <col min="1255" max="1255" width="16.21875" style="1" customWidth="1"/>
-    <col min="1256" max="1256" width="13.109375" style="1" customWidth="1"/>
-    <col min="1257" max="1259" width="12.77734375" style="1" customWidth="1"/>
-    <col min="1260" max="1260" width="11.88671875" style="1" customWidth="1"/>
-    <col min="1261" max="1261" width="12.77734375" style="1" customWidth="1"/>
-    <col min="1262" max="1451" width="7.77734375" style="1" customWidth="1"/>
-    <col min="1452" max="1452" width="5.6640625" style="1" customWidth="1"/>
-    <col min="1453" max="1454" width="10.88671875" style="1" customWidth="1"/>
-    <col min="1455" max="1455" width="9.109375" style="1" customWidth="1"/>
-    <col min="1456" max="1457" width="8.6640625" style="1" customWidth="1"/>
-    <col min="1458" max="1458" width="24" style="1" customWidth="1"/>
-    <col min="1459" max="1459" width="17.77734375" style="1" customWidth="1"/>
-    <col min="1460" max="1461" width="12.77734375" style="1" customWidth="1"/>
-    <col min="1462" max="1462" width="20.21875" style="1" customWidth="1"/>
-    <col min="1463" max="1498" width="8.33203125" style="1"/>
-    <col min="1499" max="1499" width="6.44140625" style="1" customWidth="1"/>
-    <col min="1500" max="1502" width="8.6640625" style="1" customWidth="1"/>
-    <col min="1503" max="1503" width="21.109375" style="1" customWidth="1"/>
-    <col min="1504" max="1504" width="25.109375" style="1" customWidth="1"/>
-    <col min="1505" max="1505" width="14.88671875" style="1" customWidth="1"/>
-    <col min="1506" max="1506" width="16.88671875" style="1" customWidth="1"/>
-    <col min="1507" max="1507" width="7.77734375" style="1" customWidth="1"/>
-    <col min="1508" max="1508" width="14.88671875" style="1" customWidth="1"/>
-    <col min="1509" max="1509" width="9.21875" style="1" customWidth="1"/>
-    <col min="1510" max="1510" width="11.21875" style="1" customWidth="1"/>
-    <col min="1511" max="1511" width="16.21875" style="1" customWidth="1"/>
-    <col min="1512" max="1512" width="13.109375" style="1" customWidth="1"/>
-    <col min="1513" max="1515" width="12.77734375" style="1" customWidth="1"/>
-    <col min="1516" max="1516" width="11.88671875" style="1" customWidth="1"/>
-    <col min="1517" max="1517" width="12.77734375" style="1" customWidth="1"/>
-    <col min="1518" max="1707" width="7.77734375" style="1" customWidth="1"/>
-    <col min="1708" max="1708" width="5.6640625" style="1" customWidth="1"/>
-    <col min="1709" max="1710" width="10.88671875" style="1" customWidth="1"/>
-    <col min="1711" max="1711" width="9.109375" style="1" customWidth="1"/>
-    <col min="1712" max="1713" width="8.6640625" style="1" customWidth="1"/>
-    <col min="1714" max="1714" width="24" style="1" customWidth="1"/>
-    <col min="1715" max="1715" width="17.77734375" style="1" customWidth="1"/>
-    <col min="1716" max="1717" width="12.77734375" style="1" customWidth="1"/>
-    <col min="1718" max="1718" width="20.21875" style="1" customWidth="1"/>
-    <col min="1719" max="1754" width="8.33203125" style="1"/>
-    <col min="1755" max="1755" width="6.44140625" style="1" customWidth="1"/>
-    <col min="1756" max="1758" width="8.6640625" style="1" customWidth="1"/>
-    <col min="1759" max="1759" width="21.109375" style="1" customWidth="1"/>
-    <col min="1760" max="1760" width="25.109375" style="1" customWidth="1"/>
-    <col min="1761" max="1761" width="14.88671875" style="1" customWidth="1"/>
-    <col min="1762" max="1762" width="16.88671875" style="1" customWidth="1"/>
-    <col min="1763" max="1763" width="7.77734375" style="1" customWidth="1"/>
-    <col min="1764" max="1764" width="14.88671875" style="1" customWidth="1"/>
-    <col min="1765" max="1765" width="9.21875" style="1" customWidth="1"/>
-    <col min="1766" max="1766" width="11.21875" style="1" customWidth="1"/>
-    <col min="1767" max="1767" width="16.21875" style="1" customWidth="1"/>
-    <col min="1768" max="1768" width="13.109375" style="1" customWidth="1"/>
-    <col min="1769" max="1771" width="12.77734375" style="1" customWidth="1"/>
-    <col min="1772" max="1772" width="11.88671875" style="1" customWidth="1"/>
-    <col min="1773" max="1773" width="12.77734375" style="1" customWidth="1"/>
-    <col min="1774" max="1963" width="7.77734375" style="1" customWidth="1"/>
-    <col min="1964" max="1964" width="5.6640625" style="1" customWidth="1"/>
-    <col min="1965" max="1966" width="10.88671875" style="1" customWidth="1"/>
-    <col min="1967" max="1967" width="9.109375" style="1" customWidth="1"/>
-    <col min="1968" max="1969" width="8.6640625" style="1" customWidth="1"/>
-    <col min="1970" max="1970" width="24" style="1" customWidth="1"/>
-    <col min="1971" max="1971" width="17.77734375" style="1" customWidth="1"/>
-    <col min="1972" max="1973" width="12.77734375" style="1" customWidth="1"/>
-    <col min="1974" max="1974" width="20.21875" style="1" customWidth="1"/>
-    <col min="1975" max="2010" width="8.33203125" style="1"/>
-    <col min="2011" max="2011" width="6.44140625" style="1" customWidth="1"/>
-    <col min="2012" max="2014" width="8.6640625" style="1" customWidth="1"/>
-    <col min="2015" max="2015" width="21.109375" style="1" customWidth="1"/>
-    <col min="2016" max="2016" width="25.109375" style="1" customWidth="1"/>
-    <col min="2017" max="2017" width="14.88671875" style="1" customWidth="1"/>
-    <col min="2018" max="2018" width="16.88671875" style="1" customWidth="1"/>
-    <col min="2019" max="2019" width="7.77734375" style="1" customWidth="1"/>
-    <col min="2020" max="2020" width="14.88671875" style="1" customWidth="1"/>
-    <col min="2021" max="2021" width="9.21875" style="1" customWidth="1"/>
-    <col min="2022" max="2022" width="11.21875" style="1" customWidth="1"/>
-    <col min="2023" max="2023" width="16.21875" style="1" customWidth="1"/>
-    <col min="2024" max="2024" width="13.109375" style="1" customWidth="1"/>
-    <col min="2025" max="2027" width="12.77734375" style="1" customWidth="1"/>
-    <col min="2028" max="2028" width="11.88671875" style="1" customWidth="1"/>
-    <col min="2029" max="2029" width="12.77734375" style="1" customWidth="1"/>
-    <col min="2030" max="2219" width="7.77734375" style="1" customWidth="1"/>
-    <col min="2220" max="2220" width="5.6640625" style="1" customWidth="1"/>
-    <col min="2221" max="2222" width="10.88671875" style="1" customWidth="1"/>
-    <col min="2223" max="2223" width="9.109375" style="1" customWidth="1"/>
-    <col min="2224" max="2225" width="8.6640625" style="1" customWidth="1"/>
-    <col min="2226" max="2226" width="24" style="1" customWidth="1"/>
-    <col min="2227" max="2227" width="17.77734375" style="1" customWidth="1"/>
-    <col min="2228" max="2229" width="12.77734375" style="1" customWidth="1"/>
-    <col min="2230" max="2230" width="20.21875" style="1" customWidth="1"/>
-    <col min="2231" max="2266" width="8.33203125" style="1"/>
-    <col min="2267" max="2267" width="6.44140625" style="1" customWidth="1"/>
-    <col min="2268" max="2270" width="8.6640625" style="1" customWidth="1"/>
-    <col min="2271" max="2271" width="21.109375" style="1" customWidth="1"/>
-    <col min="2272" max="2272" width="25.109375" style="1" customWidth="1"/>
-    <col min="2273" max="2273" width="14.88671875" style="1" customWidth="1"/>
-    <col min="2274" max="2274" width="16.88671875" style="1" customWidth="1"/>
-    <col min="2275" max="2275" width="7.77734375" style="1" customWidth="1"/>
-    <col min="2276" max="2276" width="14.88671875" style="1" customWidth="1"/>
-    <col min="2277" max="2277" width="9.21875" style="1" customWidth="1"/>
-    <col min="2278" max="2278" width="11.21875" style="1" customWidth="1"/>
-    <col min="2279" max="2279" width="16.21875" style="1" customWidth="1"/>
-    <col min="2280" max="2280" width="13.109375" style="1" customWidth="1"/>
-    <col min="2281" max="2283" width="12.77734375" style="1" customWidth="1"/>
-    <col min="2284" max="2284" width="11.88671875" style="1" customWidth="1"/>
-    <col min="2285" max="2285" width="12.77734375" style="1" customWidth="1"/>
-    <col min="2286" max="2475" width="7.77734375" style="1" customWidth="1"/>
-    <col min="2476" max="2476" width="5.6640625" style="1" customWidth="1"/>
-    <col min="2477" max="2478" width="10.88671875" style="1" customWidth="1"/>
-    <col min="2479" max="2479" width="9.109375" style="1" customWidth="1"/>
-    <col min="2480" max="2481" width="8.6640625" style="1" customWidth="1"/>
-    <col min="2482" max="2482" width="24" style="1" customWidth="1"/>
-    <col min="2483" max="2483" width="17.77734375" style="1" customWidth="1"/>
-    <col min="2484" max="2485" width="12.77734375" style="1" customWidth="1"/>
-    <col min="2486" max="2486" width="20.21875" style="1" customWidth="1"/>
-    <col min="2487" max="2522" width="8.33203125" style="1"/>
-    <col min="2523" max="2523" width="6.44140625" style="1" customWidth="1"/>
-    <col min="2524" max="2526" width="8.6640625" style="1" customWidth="1"/>
-    <col min="2527" max="2527" width="21.109375" style="1" customWidth="1"/>
-    <col min="2528" max="2528" width="25.109375" style="1" customWidth="1"/>
-    <col min="2529" max="2529" width="14.88671875" style="1" customWidth="1"/>
-    <col min="2530" max="2530" width="16.88671875" style="1" customWidth="1"/>
-    <col min="2531" max="2531" width="7.77734375" style="1" customWidth="1"/>
-    <col min="2532" max="2532" width="14.88671875" style="1" customWidth="1"/>
-    <col min="2533" max="2533" width="9.21875" style="1" customWidth="1"/>
-    <col min="2534" max="2534" width="11.21875" style="1" customWidth="1"/>
-    <col min="2535" max="2535" width="16.21875" style="1" customWidth="1"/>
-    <col min="2536" max="2536" width="13.109375" style="1" customWidth="1"/>
-    <col min="2537" max="2539" width="12.77734375" style="1" customWidth="1"/>
-    <col min="2540" max="2540" width="11.88671875" style="1" customWidth="1"/>
-    <col min="2541" max="2541" width="12.77734375" style="1" customWidth="1"/>
-    <col min="2542" max="2731" width="7.77734375" style="1" customWidth="1"/>
-    <col min="2732" max="2732" width="5.6640625" style="1" customWidth="1"/>
-    <col min="2733" max="2734" width="10.88671875" style="1" customWidth="1"/>
-    <col min="2735" max="2735" width="9.109375" style="1" customWidth="1"/>
-    <col min="2736" max="2737" width="8.6640625" style="1" customWidth="1"/>
-    <col min="2738" max="2738" width="24" style="1" customWidth="1"/>
-    <col min="2739" max="2739" width="17.77734375" style="1" customWidth="1"/>
-    <col min="2740" max="2741" width="12.77734375" style="1" customWidth="1"/>
-    <col min="2742" max="2742" width="20.21875" style="1" customWidth="1"/>
-    <col min="2743" max="2778" width="8.33203125" style="1"/>
-    <col min="2779" max="2779" width="6.44140625" style="1" customWidth="1"/>
-    <col min="2780" max="2782" width="8.6640625" style="1" customWidth="1"/>
-    <col min="2783" max="2783" width="21.109375" style="1" customWidth="1"/>
-    <col min="2784" max="2784" width="25.109375" style="1" customWidth="1"/>
-    <col min="2785" max="2785" width="14.88671875" style="1" customWidth="1"/>
-    <col min="2786" max="2786" width="16.88671875" style="1" customWidth="1"/>
-    <col min="2787" max="2787" width="7.77734375" style="1" customWidth="1"/>
-    <col min="2788" max="2788" width="14.88671875" style="1" customWidth="1"/>
-    <col min="2789" max="2789" width="9.21875" style="1" customWidth="1"/>
-    <col min="2790" max="2790" width="11.21875" style="1" customWidth="1"/>
-    <col min="2791" max="2791" width="16.21875" style="1" customWidth="1"/>
-    <col min="2792" max="2792" width="13.109375" style="1" customWidth="1"/>
-    <col min="2793" max="2795" width="12.77734375" style="1" customWidth="1"/>
-    <col min="2796" max="2796" width="11.88671875" style="1" customWidth="1"/>
-    <col min="2797" max="2797" width="12.77734375" style="1" customWidth="1"/>
-    <col min="2798" max="2987" width="7.77734375" style="1" customWidth="1"/>
-    <col min="2988" max="2988" width="5.6640625" style="1" customWidth="1"/>
-    <col min="2989" max="2990" width="10.88671875" style="1" customWidth="1"/>
-    <col min="2991" max="2991" width="9.109375" style="1" customWidth="1"/>
-    <col min="2992" max="2993" width="8.6640625" style="1" customWidth="1"/>
-    <col min="2994" max="2994" width="24" style="1" customWidth="1"/>
-    <col min="2995" max="2995" width="17.77734375" style="1" customWidth="1"/>
-    <col min="2996" max="2997" width="12.77734375" style="1" customWidth="1"/>
-    <col min="2998" max="2998" width="20.21875" style="1" customWidth="1"/>
-    <col min="2999" max="3034" width="8.33203125" style="1"/>
-    <col min="3035" max="3035" width="6.44140625" style="1" customWidth="1"/>
-    <col min="3036" max="3038" width="8.6640625" style="1" customWidth="1"/>
-    <col min="3039" max="3039" width="21.109375" style="1" customWidth="1"/>
-    <col min="3040" max="3040" width="25.109375" style="1" customWidth="1"/>
-    <col min="3041" max="3041" width="14.88671875" style="1" customWidth="1"/>
-    <col min="3042" max="3042" width="16.88671875" style="1" customWidth="1"/>
-    <col min="3043" max="3043" width="7.77734375" style="1" customWidth="1"/>
-    <col min="3044" max="3044" width="14.88671875" style="1" customWidth="1"/>
-    <col min="3045" max="3045" width="9.21875" style="1" customWidth="1"/>
-    <col min="3046" max="3046" width="11.21875" style="1" customWidth="1"/>
-    <col min="3047" max="3047" width="16.21875" style="1" customWidth="1"/>
-    <col min="3048" max="3048" width="13.109375" style="1" customWidth="1"/>
-    <col min="3049" max="3051" width="12.77734375" style="1" customWidth="1"/>
-    <col min="3052" max="3052" width="11.88671875" style="1" customWidth="1"/>
-    <col min="3053" max="3053" width="12.77734375" style="1" customWidth="1"/>
-    <col min="3054" max="3243" width="7.77734375" style="1" customWidth="1"/>
-    <col min="3244" max="3244" width="5.6640625" style="1" customWidth="1"/>
-    <col min="3245" max="3246" width="10.88671875" style="1" customWidth="1"/>
-    <col min="3247" max="3247" width="9.109375" style="1" customWidth="1"/>
-    <col min="3248" max="3249" width="8.6640625" style="1" customWidth="1"/>
-    <col min="3250" max="3250" width="24" style="1" customWidth="1"/>
-    <col min="3251" max="3251" width="17.77734375" style="1" customWidth="1"/>
-    <col min="3252" max="3253" width="12.77734375" style="1" customWidth="1"/>
-    <col min="3254" max="3254" width="20.21875" style="1" customWidth="1"/>
-    <col min="3255" max="3290" width="8.33203125" style="1"/>
-    <col min="3291" max="3291" width="6.44140625" style="1" customWidth="1"/>
-    <col min="3292" max="3294" width="8.6640625" style="1" customWidth="1"/>
-    <col min="3295" max="3295" width="21.109375" style="1" customWidth="1"/>
-    <col min="3296" max="3296" width="25.109375" style="1" customWidth="1"/>
-    <col min="3297" max="3297" width="14.88671875" style="1" customWidth="1"/>
-    <col min="3298" max="3298" width="16.88671875" style="1" customWidth="1"/>
-    <col min="3299" max="3299" width="7.77734375" style="1" customWidth="1"/>
-    <col min="3300" max="3300" width="14.88671875" style="1" customWidth="1"/>
-    <col min="3301" max="3301" width="9.21875" style="1" customWidth="1"/>
-    <col min="3302" max="3302" width="11.21875" style="1" customWidth="1"/>
-    <col min="3303" max="3303" width="16.21875" style="1" customWidth="1"/>
-    <col min="3304" max="3304" width="13.109375" style="1" customWidth="1"/>
-    <col min="3305" max="3307" width="12.77734375" style="1" customWidth="1"/>
-    <col min="3308" max="3308" width="11.88671875" style="1" customWidth="1"/>
-    <col min="3309" max="3309" width="12.77734375" style="1" customWidth="1"/>
-    <col min="3310" max="3499" width="7.77734375" style="1" customWidth="1"/>
-    <col min="3500" max="3500" width="5.6640625" style="1" customWidth="1"/>
-    <col min="3501" max="3502" width="10.88671875" style="1" customWidth="1"/>
-    <col min="3503" max="3503" width="9.109375" style="1" customWidth="1"/>
-    <col min="3504" max="3505" width="8.6640625" style="1" customWidth="1"/>
-    <col min="3506" max="3506" width="24" style="1" customWidth="1"/>
-    <col min="3507" max="3507" width="17.77734375" style="1" customWidth="1"/>
-    <col min="3508" max="3509" width="12.77734375" style="1" customWidth="1"/>
-    <col min="3510" max="3510" width="20.21875" style="1" customWidth="1"/>
-    <col min="3511" max="3546" width="8.33203125" style="1"/>
-    <col min="3547" max="3547" width="6.44140625" style="1" customWidth="1"/>
-    <col min="3548" max="3550" width="8.6640625" style="1" customWidth="1"/>
-    <col min="3551" max="3551" width="21.109375" style="1" customWidth="1"/>
-    <col min="3552" max="3552" width="25.109375" style="1" customWidth="1"/>
-    <col min="3553" max="3553" width="14.88671875" style="1" customWidth="1"/>
-    <col min="3554" max="3554" width="16.88671875" style="1" customWidth="1"/>
-    <col min="3555" max="3555" width="7.77734375" style="1" customWidth="1"/>
-    <col min="3556" max="3556" width="14.88671875" style="1" customWidth="1"/>
-    <col min="3557" max="3557" width="9.21875" style="1" customWidth="1"/>
-    <col min="3558" max="3558" width="11.21875" style="1" customWidth="1"/>
-    <col min="3559" max="3559" width="16.21875" style="1" customWidth="1"/>
-    <col min="3560" max="3560" width="13.109375" style="1" customWidth="1"/>
-    <col min="3561" max="3563" width="12.77734375" style="1" customWidth="1"/>
-    <col min="3564" max="3564" width="11.88671875" style="1" customWidth="1"/>
-    <col min="3565" max="3565" width="12.77734375" style="1" customWidth="1"/>
-    <col min="3566" max="3755" width="7.77734375" style="1" customWidth="1"/>
-    <col min="3756" max="3756" width="5.6640625" style="1" customWidth="1"/>
-    <col min="3757" max="3758" width="10.88671875" style="1" customWidth="1"/>
-    <col min="3759" max="3759" width="9.109375" style="1" customWidth="1"/>
-    <col min="3760" max="3761" width="8.6640625" style="1" customWidth="1"/>
-    <col min="3762" max="3762" width="24" style="1" customWidth="1"/>
-    <col min="3763" max="3763" width="17.77734375" style="1" customWidth="1"/>
-    <col min="3764" max="3765" width="12.77734375" style="1" customWidth="1"/>
-    <col min="3766" max="3766" width="20.21875" style="1" customWidth="1"/>
-    <col min="3767" max="3802" width="8.33203125" style="1"/>
-    <col min="3803" max="3803" width="6.44140625" style="1" customWidth="1"/>
-    <col min="3804" max="3806" width="8.6640625" style="1" customWidth="1"/>
-    <col min="3807" max="3807" width="21.109375" style="1" customWidth="1"/>
-    <col min="3808" max="3808" width="25.109375" style="1" customWidth="1"/>
-    <col min="3809" max="3809" width="14.88671875" style="1" customWidth="1"/>
-    <col min="3810" max="3810" width="16.88671875" style="1" customWidth="1"/>
-    <col min="3811" max="3811" width="7.77734375" style="1" customWidth="1"/>
-    <col min="3812" max="3812" width="14.88671875" style="1" customWidth="1"/>
-    <col min="3813" max="3813" width="9.21875" style="1" customWidth="1"/>
-    <col min="3814" max="3814" width="11.21875" style="1" customWidth="1"/>
-    <col min="3815" max="3815" width="16.21875" style="1" customWidth="1"/>
-    <col min="3816" max="3816" width="13.109375" style="1" customWidth="1"/>
-    <col min="3817" max="3819" width="12.77734375" style="1" customWidth="1"/>
-    <col min="3820" max="3820" width="11.88671875" style="1" customWidth="1"/>
-    <col min="3821" max="3821" width="12.77734375" style="1" customWidth="1"/>
-    <col min="3822" max="4011" width="7.77734375" style="1" customWidth="1"/>
-    <col min="4012" max="4012" width="5.6640625" style="1" customWidth="1"/>
-    <col min="4013" max="4014" width="10.88671875" style="1" customWidth="1"/>
-    <col min="4015" max="4015" width="9.109375" style="1" customWidth="1"/>
-    <col min="4016" max="4017" width="8.6640625" style="1" customWidth="1"/>
-    <col min="4018" max="4018" width="24" style="1" customWidth="1"/>
-    <col min="4019" max="4019" width="17.77734375" style="1" customWidth="1"/>
-    <col min="4020" max="4021" width="12.77734375" style="1" customWidth="1"/>
-    <col min="4022" max="4022" width="20.21875" style="1" customWidth="1"/>
-    <col min="4023" max="4058" width="8.33203125" style="1"/>
-    <col min="4059" max="4059" width="6.44140625" style="1" customWidth="1"/>
-    <col min="4060" max="4062" width="8.6640625" style="1" customWidth="1"/>
-    <col min="4063" max="4063" width="21.109375" style="1" customWidth="1"/>
-    <col min="4064" max="4064" width="25.109375" style="1" customWidth="1"/>
-    <col min="4065" max="4065" width="14.88671875" style="1" customWidth="1"/>
-    <col min="4066" max="4066" width="16.88671875" style="1" customWidth="1"/>
-    <col min="4067" max="4067" width="7.77734375" style="1" customWidth="1"/>
-    <col min="4068" max="4068" width="14.88671875" style="1" customWidth="1"/>
-    <col min="4069" max="4069" width="9.21875" style="1" customWidth="1"/>
-    <col min="4070" max="4070" width="11.21875" style="1" customWidth="1"/>
-    <col min="4071" max="4071" width="16.21875" style="1" customWidth="1"/>
-    <col min="4072" max="4072" width="13.109375" style="1" customWidth="1"/>
-    <col min="4073" max="4075" width="12.77734375" style="1" customWidth="1"/>
-    <col min="4076" max="4076" width="11.88671875" style="1" customWidth="1"/>
-    <col min="4077" max="4077" width="12.77734375" style="1" customWidth="1"/>
-    <col min="4078" max="4267" width="7.77734375" style="1" customWidth="1"/>
-    <col min="4268" max="4268" width="5.6640625" style="1" customWidth="1"/>
-    <col min="4269" max="4270" width="10.88671875" style="1" customWidth="1"/>
-    <col min="4271" max="4271" width="9.109375" style="1" customWidth="1"/>
-    <col min="4272" max="4273" width="8.6640625" style="1" customWidth="1"/>
-    <col min="4274" max="4274" width="24" style="1" customWidth="1"/>
-    <col min="4275" max="4275" width="17.77734375" style="1" customWidth="1"/>
-    <col min="4276" max="4277" width="12.77734375" style="1" customWidth="1"/>
-    <col min="4278" max="4278" width="20.21875" style="1" customWidth="1"/>
-    <col min="4279" max="4314" width="8.33203125" style="1"/>
-    <col min="4315" max="4315" width="6.44140625" style="1" customWidth="1"/>
-    <col min="4316" max="4318" width="8.6640625" style="1" customWidth="1"/>
-    <col min="4319" max="4319" width="21.109375" style="1" customWidth="1"/>
-    <col min="4320" max="4320" width="25.109375" style="1" customWidth="1"/>
-    <col min="4321" max="4321" width="14.88671875" style="1" customWidth="1"/>
-    <col min="4322" max="4322" width="16.88671875" style="1" customWidth="1"/>
-    <col min="4323" max="4323" width="7.77734375" style="1" customWidth="1"/>
-    <col min="4324" max="4324" width="14.88671875" style="1" customWidth="1"/>
-    <col min="4325" max="4325" width="9.21875" style="1" customWidth="1"/>
-    <col min="4326" max="4326" width="11.21875" style="1" customWidth="1"/>
-    <col min="4327" max="4327" width="16.21875" style="1" customWidth="1"/>
-    <col min="4328" max="4328" width="13.109375" style="1" customWidth="1"/>
-    <col min="4329" max="4331" width="12.77734375" style="1" customWidth="1"/>
-    <col min="4332" max="4332" width="11.88671875" style="1" customWidth="1"/>
-    <col min="4333" max="4333" width="12.77734375" style="1" customWidth="1"/>
-    <col min="4334" max="4523" width="7.77734375" style="1" customWidth="1"/>
-    <col min="4524" max="4524" width="5.6640625" style="1" customWidth="1"/>
-    <col min="4525" max="4526" width="10.88671875" style="1" customWidth="1"/>
-    <col min="4527" max="4527" width="9.109375" style="1" customWidth="1"/>
-    <col min="4528" max="4529" width="8.6640625" style="1" customWidth="1"/>
-    <col min="4530" max="4530" width="24" style="1" customWidth="1"/>
-    <col min="4531" max="4531" width="17.77734375" style="1" customWidth="1"/>
-    <col min="4532" max="4533" width="12.77734375" style="1" customWidth="1"/>
-    <col min="4534" max="4534" width="20.21875" style="1" customWidth="1"/>
-    <col min="4535" max="4570" width="8.33203125" style="1"/>
-    <col min="4571" max="4571" width="6.44140625" style="1" customWidth="1"/>
-    <col min="4572" max="4574" width="8.6640625" style="1" customWidth="1"/>
-    <col min="4575" max="4575" width="21.109375" style="1" customWidth="1"/>
-    <col min="4576" max="4576" width="25.109375" style="1" customWidth="1"/>
-    <col min="4577" max="4577" width="14.88671875" style="1" customWidth="1"/>
-    <col min="4578" max="4578" width="16.88671875" style="1" customWidth="1"/>
-    <col min="4579" max="4579" width="7.77734375" style="1" customWidth="1"/>
-    <col min="4580" max="4580" width="14.88671875" style="1" customWidth="1"/>
-    <col min="4581" max="4581" width="9.21875" style="1" customWidth="1"/>
-    <col min="4582" max="4582" width="11.21875" style="1" customWidth="1"/>
-    <col min="4583" max="4583" width="16.21875" style="1" customWidth="1"/>
-    <col min="4584" max="4584" width="13.109375" style="1" customWidth="1"/>
-    <col min="4585" max="4587" width="12.77734375" style="1" customWidth="1"/>
-    <col min="4588" max="4588" width="11.88671875" style="1" customWidth="1"/>
-    <col min="4589" max="4589" width="12.77734375" style="1" customWidth="1"/>
-    <col min="4590" max="4779" width="7.77734375" style="1" customWidth="1"/>
-    <col min="4780" max="4780" width="5.6640625" style="1" customWidth="1"/>
-    <col min="4781" max="4782" width="10.88671875" style="1" customWidth="1"/>
-    <col min="4783" max="4783" width="9.109375" style="1" customWidth="1"/>
-    <col min="4784" max="4785" width="8.6640625" style="1" customWidth="1"/>
-    <col min="4786" max="4786" width="24" style="1" customWidth="1"/>
-    <col min="4787" max="4787" width="17.77734375" style="1" customWidth="1"/>
-    <col min="4788" max="4789" width="12.77734375" style="1" customWidth="1"/>
-    <col min="4790" max="4790" width="20.21875" style="1" customWidth="1"/>
-    <col min="4791" max="4826" width="8.33203125" style="1"/>
-    <col min="4827" max="4827" width="6.44140625" style="1" customWidth="1"/>
-    <col min="4828" max="4830" width="8.6640625" style="1" customWidth="1"/>
-    <col min="4831" max="4831" width="21.109375" style="1" customWidth="1"/>
-    <col min="4832" max="4832" width="25.109375" style="1" customWidth="1"/>
-    <col min="4833" max="4833" width="14.88671875" style="1" customWidth="1"/>
-    <col min="4834" max="4834" width="16.88671875" style="1" customWidth="1"/>
-    <col min="4835" max="4835" width="7.77734375" style="1" customWidth="1"/>
-    <col min="4836" max="4836" width="14.88671875" style="1" customWidth="1"/>
-    <col min="4837" max="4837" width="9.21875" style="1" customWidth="1"/>
-    <col min="4838" max="4838" width="11.21875" style="1" customWidth="1"/>
-    <col min="4839" max="4839" width="16.21875" style="1" customWidth="1"/>
-    <col min="4840" max="4840" width="13.109375" style="1" customWidth="1"/>
-    <col min="4841" max="4843" width="12.77734375" style="1" customWidth="1"/>
-    <col min="4844" max="4844" width="11.88671875" style="1" customWidth="1"/>
-    <col min="4845" max="4845" width="12.77734375" style="1" customWidth="1"/>
-    <col min="4846" max="5035" width="7.77734375" style="1" customWidth="1"/>
-    <col min="5036" max="5036" width="5.6640625" style="1" customWidth="1"/>
-    <col min="5037" max="5038" width="10.88671875" style="1" customWidth="1"/>
-    <col min="5039" max="5039" width="9.109375" style="1" customWidth="1"/>
-    <col min="5040" max="5041" width="8.6640625" style="1" customWidth="1"/>
-    <col min="5042" max="5042" width="24" style="1" customWidth="1"/>
-    <col min="5043" max="5043" width="17.77734375" style="1" customWidth="1"/>
-    <col min="5044" max="5045" width="12.77734375" style="1" customWidth="1"/>
-    <col min="5046" max="5046" width="20.21875" style="1" customWidth="1"/>
-    <col min="5047" max="5082" width="8.33203125" style="1"/>
-    <col min="5083" max="5083" width="6.44140625" style="1" customWidth="1"/>
-    <col min="5084" max="5086" width="8.6640625" style="1" customWidth="1"/>
-    <col min="5087" max="5087" width="21.109375" style="1" customWidth="1"/>
-    <col min="5088" max="5088" width="25.109375" style="1" customWidth="1"/>
-    <col min="5089" max="5089" width="14.88671875" style="1" customWidth="1"/>
-    <col min="5090" max="5090" width="16.88671875" style="1" customWidth="1"/>
-    <col min="5091" max="5091" width="7.77734375" style="1" customWidth="1"/>
-    <col min="5092" max="5092" width="14.88671875" style="1" customWidth="1"/>
-    <col min="5093" max="5093" width="9.21875" style="1" customWidth="1"/>
-    <col min="5094" max="5094" width="11.21875" style="1" customWidth="1"/>
-    <col min="5095" max="5095" width="16.21875" style="1" customWidth="1"/>
-    <col min="5096" max="5096" width="13.109375" style="1" customWidth="1"/>
-    <col min="5097" max="5099" width="12.77734375" style="1" customWidth="1"/>
-    <col min="5100" max="5100" width="11.88671875" style="1" customWidth="1"/>
-    <col min="5101" max="5101" width="12.77734375" style="1" customWidth="1"/>
-    <col min="5102" max="5291" width="7.77734375" style="1" customWidth="1"/>
-    <col min="5292" max="5292" width="5.6640625" style="1" customWidth="1"/>
-    <col min="5293" max="5294" width="10.88671875" style="1" customWidth="1"/>
-    <col min="5295" max="5295" width="9.109375" style="1" customWidth="1"/>
-    <col min="5296" max="5297" width="8.6640625" style="1" customWidth="1"/>
-    <col min="5298" max="5298" width="24" style="1" customWidth="1"/>
-    <col min="5299" max="5299" width="17.77734375" style="1" customWidth="1"/>
-    <col min="5300" max="5301" width="12.77734375" style="1" customWidth="1"/>
-    <col min="5302" max="5302" width="20.21875" style="1" customWidth="1"/>
-    <col min="5303" max="5338" width="8.33203125" style="1"/>
-    <col min="5339" max="5339" width="6.44140625" style="1" customWidth="1"/>
-    <col min="5340" max="5342" width="8.6640625" style="1" customWidth="1"/>
-    <col min="5343" max="5343" width="21.109375" style="1" customWidth="1"/>
-    <col min="5344" max="5344" width="25.109375" style="1" customWidth="1"/>
-    <col min="5345" max="5345" width="14.88671875" style="1" customWidth="1"/>
-    <col min="5346" max="5346" width="16.88671875" style="1" customWidth="1"/>
-    <col min="5347" max="5347" width="7.77734375" style="1" customWidth="1"/>
-    <col min="5348" max="5348" width="14.88671875" style="1" customWidth="1"/>
-    <col min="5349" max="5349" width="9.21875" style="1" customWidth="1"/>
-    <col min="5350" max="5350" width="11.21875" style="1" customWidth="1"/>
-    <col min="5351" max="5351" width="16.21875" style="1" customWidth="1"/>
-    <col min="5352" max="5352" width="13.109375" style="1" customWidth="1"/>
-    <col min="5353" max="5355" width="12.77734375" style="1" customWidth="1"/>
-    <col min="5356" max="5356" width="11.88671875" style="1" customWidth="1"/>
-    <col min="5357" max="5357" width="12.77734375" style="1" customWidth="1"/>
-    <col min="5358" max="5547" width="7.77734375" style="1" customWidth="1"/>
-    <col min="5548" max="5548" width="5.6640625" style="1" customWidth="1"/>
-    <col min="5549" max="5550" width="10.88671875" style="1" customWidth="1"/>
-    <col min="5551" max="5551" width="9.109375" style="1" customWidth="1"/>
-    <col min="5552" max="5553" width="8.6640625" style="1" customWidth="1"/>
-    <col min="5554" max="5554" width="24" style="1" customWidth="1"/>
-    <col min="5555" max="5555" width="17.77734375" style="1" customWidth="1"/>
-    <col min="5556" max="5557" width="12.77734375" style="1" customWidth="1"/>
-    <col min="5558" max="5558" width="20.21875" style="1" customWidth="1"/>
-    <col min="5559" max="5594" width="8.33203125" style="1"/>
-    <col min="5595" max="5595" width="6.44140625" style="1" customWidth="1"/>
-    <col min="5596" max="5598" width="8.6640625" style="1" customWidth="1"/>
-    <col min="5599" max="5599" width="21.109375" style="1" customWidth="1"/>
-    <col min="5600" max="5600" width="25.109375" style="1" customWidth="1"/>
-    <col min="5601" max="5601" width="14.88671875" style="1" customWidth="1"/>
-    <col min="5602" max="5602" width="16.88671875" style="1" customWidth="1"/>
-    <col min="5603" max="5603" width="7.77734375" style="1" customWidth="1"/>
-    <col min="5604" max="5604" width="14.88671875" style="1" customWidth="1"/>
-    <col min="5605" max="5605" width="9.21875" style="1" customWidth="1"/>
-    <col min="5606" max="5606" width="11.21875" style="1" customWidth="1"/>
-    <col min="5607" max="5607" width="16.21875" style="1" customWidth="1"/>
-    <col min="5608" max="5608" width="13.109375" style="1" customWidth="1"/>
-    <col min="5609" max="5611" width="12.77734375" style="1" customWidth="1"/>
-    <col min="5612" max="5612" width="11.88671875" style="1" customWidth="1"/>
-    <col min="5613" max="5613" width="12.77734375" style="1" customWidth="1"/>
-    <col min="5614" max="5803" width="7.77734375" style="1" customWidth="1"/>
-    <col min="5804" max="5804" width="5.6640625" style="1" customWidth="1"/>
-    <col min="5805" max="5806" width="10.88671875" style="1" customWidth="1"/>
-    <col min="5807" max="5807" width="9.109375" style="1" customWidth="1"/>
-    <col min="5808" max="5809" width="8.6640625" style="1" customWidth="1"/>
-    <col min="5810" max="5810" width="24" style="1" customWidth="1"/>
-    <col min="5811" max="5811" width="17.77734375" style="1" customWidth="1"/>
-    <col min="5812" max="5813" width="12.77734375" style="1" customWidth="1"/>
-    <col min="5814" max="5814" width="20.21875" style="1" customWidth="1"/>
-    <col min="5815" max="5850" width="8.33203125" style="1"/>
-    <col min="5851" max="5851" width="6.44140625" style="1" customWidth="1"/>
-    <col min="5852" max="5854" width="8.6640625" style="1" customWidth="1"/>
-    <col min="5855" max="5855" width="21.109375" style="1" customWidth="1"/>
-    <col min="5856" max="5856" width="25.109375" style="1" customWidth="1"/>
-    <col min="5857" max="5857" width="14.88671875" style="1" customWidth="1"/>
-    <col min="5858" max="5858" width="16.88671875" style="1" customWidth="1"/>
-    <col min="5859" max="5859" width="7.77734375" style="1" customWidth="1"/>
-    <col min="5860" max="5860" width="14.88671875" style="1" customWidth="1"/>
-    <col min="5861" max="5861" width="9.21875" style="1" customWidth="1"/>
-    <col min="5862" max="5862" width="11.21875" style="1" customWidth="1"/>
-    <col min="5863" max="5863" width="16.21875" style="1" customWidth="1"/>
-    <col min="5864" max="5864" width="13.109375" style="1" customWidth="1"/>
-    <col min="5865" max="5867" width="12.77734375" style="1" customWidth="1"/>
-    <col min="5868" max="5868" width="11.88671875" style="1" customWidth="1"/>
-    <col min="5869" max="5869" width="12.77734375" style="1" customWidth="1"/>
-    <col min="5870" max="6059" width="7.77734375" style="1" customWidth="1"/>
-    <col min="6060" max="6060" width="5.6640625" style="1" customWidth="1"/>
-    <col min="6061" max="6062" width="10.88671875" style="1" customWidth="1"/>
-    <col min="6063" max="6063" width="9.109375" style="1" customWidth="1"/>
-    <col min="6064" max="6065" width="8.6640625" style="1" customWidth="1"/>
-    <col min="6066" max="6066" width="24" style="1" customWidth="1"/>
-    <col min="6067" max="6067" width="17.77734375" style="1" customWidth="1"/>
-    <col min="6068" max="6069" width="12.77734375" style="1" customWidth="1"/>
-    <col min="6070" max="6070" width="20.21875" style="1" customWidth="1"/>
-    <col min="6071" max="6106" width="8.33203125" style="1"/>
-    <col min="6107" max="6107" width="6.44140625" style="1" customWidth="1"/>
-    <col min="6108" max="6110" width="8.6640625" style="1" customWidth="1"/>
-    <col min="6111" max="6111" width="21.109375" style="1" customWidth="1"/>
-    <col min="6112" max="6112" width="25.109375" style="1" customWidth="1"/>
-    <col min="6113" max="6113" width="14.88671875" style="1" customWidth="1"/>
-    <col min="6114" max="6114" width="16.88671875" style="1" customWidth="1"/>
-    <col min="6115" max="6115" width="7.77734375" style="1" customWidth="1"/>
-    <col min="6116" max="6116" width="14.88671875" style="1" customWidth="1"/>
-    <col min="6117" max="6117" width="9.21875" style="1" customWidth="1"/>
-    <col min="6118" max="6118" width="11.21875" style="1" customWidth="1"/>
-    <col min="6119" max="6119" width="16.21875" style="1" customWidth="1"/>
-    <col min="6120" max="6120" width="13.109375" style="1" customWidth="1"/>
-    <col min="6121" max="6123" width="12.77734375" style="1" customWidth="1"/>
-    <col min="6124" max="6124" width="11.88671875" style="1" customWidth="1"/>
-    <col min="6125" max="6125" width="12.77734375" style="1" customWidth="1"/>
-    <col min="6126" max="6315" width="7.77734375" style="1" customWidth="1"/>
-    <col min="6316" max="6316" width="5.6640625" style="1" customWidth="1"/>
-    <col min="6317" max="6318" width="10.88671875" style="1" customWidth="1"/>
-    <col min="6319" max="6319" width="9.109375" style="1" customWidth="1"/>
-    <col min="6320" max="6321" width="8.6640625" style="1" customWidth="1"/>
-    <col min="6322" max="6322" width="24" style="1" customWidth="1"/>
-    <col min="6323" max="6323" width="17.77734375" style="1" customWidth="1"/>
-    <col min="6324" max="6325" width="12.77734375" style="1" customWidth="1"/>
-    <col min="6326" max="6326" width="20.21875" style="1" customWidth="1"/>
-    <col min="6327" max="6362" width="8.33203125" style="1"/>
-    <col min="6363" max="6363" width="6.44140625" style="1" customWidth="1"/>
-    <col min="6364" max="6366" width="8.6640625" style="1" customWidth="1"/>
-    <col min="6367" max="6367" width="21.109375" style="1" customWidth="1"/>
-    <col min="6368" max="6368" width="25.109375" style="1" customWidth="1"/>
-    <col min="6369" max="6369" width="14.88671875" style="1" customWidth="1"/>
-    <col min="6370" max="6370" width="16.88671875" style="1" customWidth="1"/>
-    <col min="6371" max="6371" width="7.77734375" style="1" customWidth="1"/>
-    <col min="6372" max="6372" width="14.88671875" style="1" customWidth="1"/>
-    <col min="6373" max="6373" width="9.21875" style="1" customWidth="1"/>
-    <col min="6374" max="6374" width="11.21875" style="1" customWidth="1"/>
-    <col min="6375" max="6375" width="16.21875" style="1" customWidth="1"/>
-    <col min="6376" max="6376" width="13.109375" style="1" customWidth="1"/>
-    <col min="6377" max="6379" width="12.77734375" style="1" customWidth="1"/>
-    <col min="6380" max="6380" width="11.88671875" style="1" customWidth="1"/>
-    <col min="6381" max="6381" width="12.77734375" style="1" customWidth="1"/>
-    <col min="6382" max="6571" width="7.77734375" style="1" customWidth="1"/>
-    <col min="6572" max="6572" width="5.6640625" style="1" customWidth="1"/>
-    <col min="6573" max="6574" width="10.88671875" style="1" customWidth="1"/>
-    <col min="6575" max="6575" width="9.109375" style="1" customWidth="1"/>
-    <col min="6576" max="6577" width="8.6640625" style="1" customWidth="1"/>
-    <col min="6578" max="6578" width="24" style="1" customWidth="1"/>
-    <col min="6579" max="6579" width="17.77734375" style="1" customWidth="1"/>
-    <col min="6580" max="6581" width="12.77734375" style="1" customWidth="1"/>
-    <col min="6582" max="6582" width="20.21875" style="1" customWidth="1"/>
-    <col min="6583" max="6618" width="8.33203125" style="1"/>
-    <col min="6619" max="6619" width="6.44140625" style="1" customWidth="1"/>
-    <col min="6620" max="6622" width="8.6640625" style="1" customWidth="1"/>
-    <col min="6623" max="6623" width="21.109375" style="1" customWidth="1"/>
-    <col min="6624" max="6624" width="25.109375" style="1" customWidth="1"/>
-    <col min="6625" max="6625" width="14.88671875" style="1" customWidth="1"/>
-    <col min="6626" max="6626" width="16.88671875" style="1" customWidth="1"/>
-    <col min="6627" max="6627" width="7.77734375" style="1" customWidth="1"/>
-    <col min="6628" max="6628" width="14.88671875" style="1" customWidth="1"/>
-    <col min="6629" max="6629" width="9.21875" style="1" customWidth="1"/>
-    <col min="6630" max="6630" width="11.21875" style="1" customWidth="1"/>
-    <col min="6631" max="6631" width="16.21875" style="1" customWidth="1"/>
-    <col min="6632" max="6632" width="13.109375" style="1" customWidth="1"/>
-    <col min="6633" max="6635" width="12.77734375" style="1" customWidth="1"/>
-    <col min="6636" max="6636" width="11.88671875" style="1" customWidth="1"/>
-    <col min="6637" max="6637" width="12.77734375" style="1" customWidth="1"/>
-    <col min="6638" max="6827" width="7.77734375" style="1" customWidth="1"/>
-    <col min="6828" max="6828" width="5.6640625" style="1" customWidth="1"/>
-    <col min="6829" max="6830" width="10.88671875" style="1" customWidth="1"/>
-    <col min="6831" max="6831" width="9.109375" style="1" customWidth="1"/>
-    <col min="6832" max="6833" width="8.6640625" style="1" customWidth="1"/>
-    <col min="6834" max="6834" width="24" style="1" customWidth="1"/>
-    <col min="6835" max="6835" width="17.77734375" style="1" customWidth="1"/>
-    <col min="6836" max="6837" width="12.77734375" style="1" customWidth="1"/>
-    <col min="6838" max="6838" width="20.21875" style="1" customWidth="1"/>
-    <col min="6839" max="6874" width="8.33203125" style="1"/>
-    <col min="6875" max="6875" width="6.44140625" style="1" customWidth="1"/>
-    <col min="6876" max="6878" width="8.6640625" style="1" customWidth="1"/>
-    <col min="6879" max="6879" width="21.109375" style="1" customWidth="1"/>
-    <col min="6880" max="6880" width="25.109375" style="1" customWidth="1"/>
-    <col min="6881" max="6881" width="14.88671875" style="1" customWidth="1"/>
-    <col min="6882" max="6882" width="16.88671875" style="1" customWidth="1"/>
-    <col min="6883" max="6883" width="7.77734375" style="1" customWidth="1"/>
-    <col min="6884" max="6884" width="14.88671875" style="1" customWidth="1"/>
-    <col min="6885" max="6885" width="9.21875" style="1" customWidth="1"/>
-    <col min="6886" max="6886" width="11.21875" style="1" customWidth="1"/>
-    <col min="6887" max="6887" width="16.21875" style="1" customWidth="1"/>
-    <col min="6888" max="6888" width="13.109375" style="1" customWidth="1"/>
-    <col min="6889" max="6891" width="12.77734375" style="1" customWidth="1"/>
-    <col min="6892" max="6892" width="11.88671875" style="1" customWidth="1"/>
-    <col min="6893" max="6893" width="12.77734375" style="1" customWidth="1"/>
-    <col min="6894" max="7083" width="7.77734375" style="1" customWidth="1"/>
-    <col min="7084" max="7084" width="5.6640625" style="1" customWidth="1"/>
-    <col min="7085" max="7086" width="10.88671875" style="1" customWidth="1"/>
-    <col min="7087" max="7087" width="9.109375" style="1" customWidth="1"/>
-    <col min="7088" max="7089" width="8.6640625" style="1" customWidth="1"/>
-    <col min="7090" max="7090" width="24" style="1" customWidth="1"/>
-    <col min="7091" max="7091" width="17.77734375" style="1" customWidth="1"/>
-    <col min="7092" max="7093" width="12.77734375" style="1" customWidth="1"/>
-    <col min="7094" max="7094" width="20.21875" style="1" customWidth="1"/>
-    <col min="7095" max="7130" width="8.33203125" style="1"/>
-    <col min="7131" max="7131" width="6.44140625" style="1" customWidth="1"/>
-    <col min="7132" max="7134" width="8.6640625" style="1" customWidth="1"/>
-    <col min="7135" max="7135" width="21.109375" style="1" customWidth="1"/>
-    <col min="7136" max="7136" width="25.109375" style="1" customWidth="1"/>
-    <col min="7137" max="7137" width="14.88671875" style="1" customWidth="1"/>
-    <col min="7138" max="7138" width="16.88671875" style="1" customWidth="1"/>
-    <col min="7139" max="7139" width="7.77734375" style="1" customWidth="1"/>
-    <col min="7140" max="7140" width="14.88671875" style="1" customWidth="1"/>
-    <col min="7141" max="7141" width="9.21875" style="1" customWidth="1"/>
-    <col min="7142" max="7142" width="11.21875" style="1" customWidth="1"/>
-    <col min="7143" max="7143" width="16.21875" style="1" customWidth="1"/>
-    <col min="7144" max="7144" width="13.109375" style="1" customWidth="1"/>
-    <col min="7145" max="7147" width="12.77734375" style="1" customWidth="1"/>
-    <col min="7148" max="7148" width="11.88671875" style="1" customWidth="1"/>
-    <col min="7149" max="7149" width="12.77734375" style="1" customWidth="1"/>
-    <col min="7150" max="7339" width="7.77734375" style="1" customWidth="1"/>
-    <col min="7340" max="7340" width="5.6640625" style="1" customWidth="1"/>
-    <col min="7341" max="7342" width="10.88671875" style="1" customWidth="1"/>
-    <col min="7343" max="7343" width="9.109375" style="1" customWidth="1"/>
-    <col min="7344" max="7345" width="8.6640625" style="1" customWidth="1"/>
-    <col min="7346" max="7346" width="24" style="1" customWidth="1"/>
-    <col min="7347" max="7347" width="17.77734375" style="1" customWidth="1"/>
-    <col min="7348" max="7349" width="12.77734375" style="1" customWidth="1"/>
-    <col min="7350" max="7350" width="20.21875" style="1" customWidth="1"/>
-    <col min="7351" max="7386" width="8.33203125" style="1"/>
-    <col min="7387" max="7387" width="6.44140625" style="1" customWidth="1"/>
-    <col min="7388" max="7390" width="8.6640625" style="1" customWidth="1"/>
-    <col min="7391" max="7391" width="21.109375" style="1" customWidth="1"/>
-    <col min="7392" max="7392" width="25.109375" style="1" customWidth="1"/>
-    <col min="7393" max="7393" width="14.88671875" style="1" customWidth="1"/>
-    <col min="7394" max="7394" width="16.88671875" style="1" customWidth="1"/>
-    <col min="7395" max="7395" width="7.77734375" style="1" customWidth="1"/>
-    <col min="7396" max="7396" width="14.88671875" style="1" customWidth="1"/>
-    <col min="7397" max="7397" width="9.21875" style="1" customWidth="1"/>
-    <col min="7398" max="7398" width="11.21875" style="1" customWidth="1"/>
-    <col min="7399" max="7399" width="16.21875" style="1" customWidth="1"/>
-    <col min="7400" max="7400" width="13.109375" style="1" customWidth="1"/>
-    <col min="7401" max="7403" width="12.77734375" style="1" customWidth="1"/>
-    <col min="7404" max="7404" width="11.88671875" style="1" customWidth="1"/>
-    <col min="7405" max="7405" width="12.77734375" style="1" customWidth="1"/>
-    <col min="7406" max="7595" width="7.77734375" style="1" customWidth="1"/>
-    <col min="7596" max="7596" width="5.6640625" style="1" customWidth="1"/>
-    <col min="7597" max="7598" width="10.88671875" style="1" customWidth="1"/>
-    <col min="7599" max="7599" width="9.109375" style="1" customWidth="1"/>
-    <col min="7600" max="7601" width="8.6640625" style="1" customWidth="1"/>
-    <col min="7602" max="7602" width="24" style="1" customWidth="1"/>
-    <col min="7603" max="7603" width="17.77734375" style="1" customWidth="1"/>
-    <col min="7604" max="7605" width="12.77734375" style="1" customWidth="1"/>
-    <col min="7606" max="7606" width="20.21875" style="1" customWidth="1"/>
-    <col min="7607" max="7642" width="8.33203125" style="1"/>
-    <col min="7643" max="7643" width="6.44140625" style="1" customWidth="1"/>
-    <col min="7644" max="7646" width="8.6640625" style="1" customWidth="1"/>
-    <col min="7647" max="7647" width="21.109375" style="1" customWidth="1"/>
-    <col min="7648" max="7648" width="25.109375" style="1" customWidth="1"/>
-    <col min="7649" max="7649" width="14.88671875" style="1" customWidth="1"/>
-    <col min="7650" max="7650" width="16.88671875" style="1" customWidth="1"/>
-    <col min="7651" max="7651" width="7.77734375" style="1" customWidth="1"/>
-    <col min="7652" max="7652" width="14.88671875" style="1" customWidth="1"/>
-    <col min="7653" max="7653" width="9.21875" style="1" customWidth="1"/>
-    <col min="7654" max="7654" width="11.21875" style="1" customWidth="1"/>
-    <col min="7655" max="7655" width="16.21875" style="1" customWidth="1"/>
-    <col min="7656" max="7656" width="13.109375" style="1" customWidth="1"/>
-    <col min="7657" max="7659" width="12.77734375" style="1" customWidth="1"/>
-    <col min="7660" max="7660" width="11.88671875" style="1" customWidth="1"/>
-    <col min="7661" max="7661" width="12.77734375" style="1" customWidth="1"/>
-    <col min="7662" max="7851" width="7.77734375" style="1" customWidth="1"/>
-    <col min="7852" max="7852" width="5.6640625" style="1" customWidth="1"/>
-    <col min="7853" max="7854" width="10.88671875" style="1" customWidth="1"/>
-    <col min="7855" max="7855" width="9.109375" style="1" customWidth="1"/>
-    <col min="7856" max="7857" width="8.6640625" style="1" customWidth="1"/>
-    <col min="7858" max="7858" width="24" style="1" customWidth="1"/>
-    <col min="7859" max="7859" width="17.77734375" style="1" customWidth="1"/>
-    <col min="7860" max="7861" width="12.77734375" style="1" customWidth="1"/>
-    <col min="7862" max="7862" width="20.21875" style="1" customWidth="1"/>
-    <col min="7863" max="7898" width="8.33203125" style="1"/>
-    <col min="7899" max="7899" width="6.44140625" style="1" customWidth="1"/>
-    <col min="7900" max="7902" width="8.6640625" style="1" customWidth="1"/>
-    <col min="7903" max="7903" width="21.109375" style="1" customWidth="1"/>
-    <col min="7904" max="7904" width="25.109375" style="1" customWidth="1"/>
-    <col min="7905" max="7905" width="14.88671875" style="1" customWidth="1"/>
-    <col min="7906" max="7906" width="16.88671875" style="1" customWidth="1"/>
-    <col min="7907" max="7907" width="7.77734375" style="1" customWidth="1"/>
-    <col min="7908" max="7908" width="14.88671875" style="1" customWidth="1"/>
-    <col min="7909" max="7909" width="9.21875" style="1" customWidth="1"/>
-    <col min="7910" max="7910" width="11.21875" style="1" customWidth="1"/>
-    <col min="7911" max="7911" width="16.21875" style="1" customWidth="1"/>
-    <col min="7912" max="7912" width="13.109375" style="1" customWidth="1"/>
-    <col min="7913" max="7915" width="12.77734375" style="1" customWidth="1"/>
-    <col min="7916" max="7916" width="11.88671875" style="1" customWidth="1"/>
-    <col min="7917" max="7917" width="12.77734375" style="1" customWidth="1"/>
-    <col min="7918" max="8107" width="7.77734375" style="1" customWidth="1"/>
-    <col min="8108" max="8108" width="5.6640625" style="1" customWidth="1"/>
-    <col min="8109" max="8110" width="10.88671875" style="1" customWidth="1"/>
-    <col min="8111" max="8111" width="9.109375" style="1" customWidth="1"/>
-    <col min="8112" max="8113" width="8.6640625" style="1" customWidth="1"/>
-    <col min="8114" max="8114" width="24" style="1" customWidth="1"/>
-    <col min="8115" max="8115" width="17.77734375" style="1" customWidth="1"/>
-    <col min="8116" max="8117" width="12.77734375" style="1" customWidth="1"/>
-    <col min="8118" max="8118" width="20.21875" style="1" customWidth="1"/>
-    <col min="8119" max="8154" width="8.33203125" style="1"/>
-    <col min="8155" max="8155" width="6.44140625" style="1" customWidth="1"/>
-    <col min="8156" max="8158" width="8.6640625" style="1" customWidth="1"/>
-    <col min="8159" max="8159" width="21.109375" style="1" customWidth="1"/>
-    <col min="8160" max="8160" width="25.109375" style="1" customWidth="1"/>
-    <col min="8161" max="8161" width="14.88671875" style="1" customWidth="1"/>
-    <col min="8162" max="8162" width="16.88671875" style="1" customWidth="1"/>
-    <col min="8163" max="8163" width="7.77734375" style="1" customWidth="1"/>
-    <col min="8164" max="8164" width="14.88671875" style="1" customWidth="1"/>
-    <col min="8165" max="8165" width="9.21875" style="1" customWidth="1"/>
-    <col min="8166" max="8166" width="11.21875" style="1" customWidth="1"/>
-    <col min="8167" max="8167" width="16.21875" style="1" customWidth="1"/>
-    <col min="8168" max="8168" width="13.109375" style="1" customWidth="1"/>
-    <col min="8169" max="8171" width="12.77734375" style="1" customWidth="1"/>
-    <col min="8172" max="8172" width="11.88671875" style="1" customWidth="1"/>
-    <col min="8173" max="8173" width="12.77734375" style="1" customWidth="1"/>
-    <col min="8174" max="8363" width="7.77734375" style="1" customWidth="1"/>
-    <col min="8364" max="8364" width="5.6640625" style="1" customWidth="1"/>
-    <col min="8365" max="8366" width="10.88671875" style="1" customWidth="1"/>
-    <col min="8367" max="8367" width="9.109375" style="1" customWidth="1"/>
-    <col min="8368" max="8369" width="8.6640625" style="1" customWidth="1"/>
-    <col min="8370" max="8370" width="24" style="1" customWidth="1"/>
-    <col min="8371" max="8371" width="17.77734375" style="1" customWidth="1"/>
-    <col min="8372" max="8373" width="12.77734375" style="1" customWidth="1"/>
-    <col min="8374" max="8374" width="20.21875" style="1" customWidth="1"/>
-    <col min="8375" max="8410" width="8.33203125" style="1"/>
-    <col min="8411" max="8411" width="6.44140625" style="1" customWidth="1"/>
-    <col min="8412" max="8414" width="8.6640625" style="1" customWidth="1"/>
-    <col min="8415" max="8415" width="21.109375" style="1" customWidth="1"/>
-    <col min="8416" max="8416" width="25.109375" style="1" customWidth="1"/>
-    <col min="8417" max="8417" width="14.88671875" style="1" customWidth="1"/>
-    <col min="8418" max="8418" width="16.88671875" style="1" customWidth="1"/>
-    <col min="8419" max="8419" width="7.77734375" style="1" customWidth="1"/>
-    <col min="8420" max="8420" width="14.88671875" style="1" customWidth="1"/>
-    <col min="8421" max="8421" width="9.21875" style="1" customWidth="1"/>
-    <col min="8422" max="8422" width="11.21875" style="1" customWidth="1"/>
-    <col min="8423" max="8423" width="16.21875" style="1" customWidth="1"/>
-    <col min="8424" max="8424" width="13.109375" style="1" customWidth="1"/>
-    <col min="8425" max="8427" width="12.77734375" style="1" customWidth="1"/>
-    <col min="8428" max="8428" width="11.88671875" style="1" customWidth="1"/>
-    <col min="8429" max="8429" width="12.77734375" style="1" customWidth="1"/>
-    <col min="8430" max="8619" width="7.77734375" style="1" customWidth="1"/>
-    <col min="8620" max="8620" width="5.6640625" style="1" customWidth="1"/>
-    <col min="8621" max="8622" width="10.88671875" style="1" customWidth="1"/>
-    <col min="8623" max="8623" width="9.109375" style="1" customWidth="1"/>
-    <col min="8624" max="8625" width="8.6640625" style="1" customWidth="1"/>
-    <col min="8626" max="8626" width="24" style="1" customWidth="1"/>
-    <col min="8627" max="8627" width="17.77734375" style="1" customWidth="1"/>
-    <col min="8628" max="8629" width="12.77734375" style="1" customWidth="1"/>
-    <col min="8630" max="8630" width="20.21875" style="1" customWidth="1"/>
-    <col min="8631" max="8666" width="8.33203125" style="1"/>
-    <col min="8667" max="8667" width="6.44140625" style="1" customWidth="1"/>
-    <col min="8668" max="8670" width="8.6640625" style="1" customWidth="1"/>
-    <col min="8671" max="8671" width="21.109375" style="1" customWidth="1"/>
-    <col min="8672" max="8672" width="25.109375" style="1" customWidth="1"/>
-    <col min="8673" max="8673" width="14.88671875" style="1" customWidth="1"/>
-    <col min="8674" max="8674" width="16.88671875" style="1" customWidth="1"/>
-    <col min="8675" max="8675" width="7.77734375" style="1" customWidth="1"/>
-    <col min="8676" max="8676" width="14.88671875" style="1" customWidth="1"/>
-    <col min="8677" max="8677" width="9.21875" style="1" customWidth="1"/>
-    <col min="8678" max="8678" width="11.21875" style="1" customWidth="1"/>
-    <col min="8679" max="8679" width="16.21875" style="1" customWidth="1"/>
-    <col min="8680" max="8680" width="13.109375" style="1" customWidth="1"/>
-    <col min="8681" max="8683" width="12.77734375" style="1" customWidth="1"/>
-    <col min="8684" max="8684" width="11.88671875" style="1" customWidth="1"/>
-    <col min="8685" max="8685" width="12.77734375" style="1" customWidth="1"/>
-    <col min="8686" max="8875" width="7.77734375" style="1" customWidth="1"/>
-    <col min="8876" max="8876" width="5.6640625" style="1" customWidth="1"/>
-    <col min="8877" max="8878" width="10.88671875" style="1" customWidth="1"/>
-    <col min="8879" max="8879" width="9.109375" style="1" customWidth="1"/>
-    <col min="8880" max="8881" width="8.6640625" style="1" customWidth="1"/>
-    <col min="8882" max="8882" width="24" style="1" customWidth="1"/>
-    <col min="8883" max="8883" width="17.77734375" style="1" customWidth="1"/>
-    <col min="8884" max="8885" width="12.77734375" style="1" customWidth="1"/>
-    <col min="8886" max="8886" width="20.21875" style="1" customWidth="1"/>
-    <col min="8887" max="8922" width="8.33203125" style="1"/>
-    <col min="8923" max="8923" width="6.44140625" style="1" customWidth="1"/>
-    <col min="8924" max="8926" width="8.6640625" style="1" customWidth="1"/>
-    <col min="8927" max="8927" width="21.109375" style="1" customWidth="1"/>
-    <col min="8928" max="8928" width="25.109375" style="1" customWidth="1"/>
-    <col min="8929" max="8929" width="14.88671875" style="1" customWidth="1"/>
-    <col min="8930" max="8930" width="16.88671875" style="1" customWidth="1"/>
-    <col min="8931" max="8931" width="7.77734375" style="1" customWidth="1"/>
-    <col min="8932" max="8932" width="14.88671875" style="1" customWidth="1"/>
-    <col min="8933" max="8933" width="9.21875" style="1" customWidth="1"/>
-    <col min="8934" max="8934" width="11.21875" style="1" customWidth="1"/>
-    <col min="8935" max="8935" width="16.21875" style="1" customWidth="1"/>
-    <col min="8936" max="8936" width="13.109375" style="1" customWidth="1"/>
-    <col min="8937" max="8939" width="12.77734375" style="1" customWidth="1"/>
-    <col min="8940" max="8940" width="11.88671875" style="1" customWidth="1"/>
-    <col min="8941" max="8941" width="12.77734375" style="1" customWidth="1"/>
-    <col min="8942" max="9131" width="7.77734375" style="1" customWidth="1"/>
-    <col min="9132" max="9132" width="5.6640625" style="1" customWidth="1"/>
-    <col min="9133" max="9134" width="10.88671875" style="1" customWidth="1"/>
-    <col min="9135" max="9135" width="9.109375" style="1" customWidth="1"/>
-    <col min="9136" max="9137" width="8.6640625" style="1" customWidth="1"/>
-    <col min="9138" max="9138" width="24" style="1" customWidth="1"/>
-    <col min="9139" max="9139" width="17.77734375" style="1" customWidth="1"/>
-    <col min="9140" max="9141" width="12.77734375" style="1" customWidth="1"/>
-    <col min="9142" max="9142" width="20.21875" style="1" customWidth="1"/>
-    <col min="9143" max="9178" width="8.33203125" style="1"/>
-    <col min="9179" max="9179" width="6.44140625" style="1" customWidth="1"/>
-    <col min="9180" max="9182" width="8.6640625" style="1" customWidth="1"/>
-    <col min="9183" max="9183" width="21.109375" style="1" customWidth="1"/>
-    <col min="9184" max="9184" width="25.109375" style="1" customWidth="1"/>
-    <col min="9185" max="9185" width="14.88671875" style="1" customWidth="1"/>
-    <col min="9186" max="9186" width="16.88671875" style="1" customWidth="1"/>
-    <col min="9187" max="9187" width="7.77734375" style="1" customWidth="1"/>
-    <col min="9188" max="9188" width="14.88671875" style="1" customWidth="1"/>
-    <col min="9189" max="9189" width="9.21875" style="1" customWidth="1"/>
-    <col min="9190" max="9190" width="11.21875" style="1" customWidth="1"/>
-    <col min="9191" max="9191" width="16.21875" style="1" customWidth="1"/>
-    <col min="9192" max="9192" width="13.109375" style="1" customWidth="1"/>
-    <col min="9193" max="9195" width="12.77734375" style="1" customWidth="1"/>
-    <col min="9196" max="9196" width="11.88671875" style="1" customWidth="1"/>
-    <col min="9197" max="9197" width="12.77734375" style="1" customWidth="1"/>
-    <col min="9198" max="9387" width="7.77734375" style="1" customWidth="1"/>
-    <col min="9388" max="9388" width="5.6640625" style="1" customWidth="1"/>
-    <col min="9389" max="9390" width="10.88671875" style="1" customWidth="1"/>
-    <col min="9391" max="9391" width="9.109375" style="1" customWidth="1"/>
-    <col min="9392" max="9393" width="8.6640625" style="1" customWidth="1"/>
-    <col min="9394" max="9394" width="24" style="1" customWidth="1"/>
-    <col min="9395" max="9395" width="17.77734375" style="1" customWidth="1"/>
-    <col min="9396" max="9397" width="12.77734375" style="1" customWidth="1"/>
-    <col min="9398" max="9398" width="20.21875" style="1" customWidth="1"/>
-    <col min="9399" max="9434" width="8.33203125" style="1"/>
-    <col min="9435" max="9435" width="6.44140625" style="1" customWidth="1"/>
-    <col min="9436" max="9438" width="8.6640625" style="1" customWidth="1"/>
-    <col min="9439" max="9439" width="21.109375" style="1" customWidth="1"/>
-    <col min="9440" max="9440" width="25.109375" style="1" customWidth="1"/>
-    <col min="9441" max="9441" width="14.88671875" style="1" customWidth="1"/>
-    <col min="9442" max="9442" width="16.88671875" style="1" customWidth="1"/>
-    <col min="9443" max="9443" width="7.77734375" style="1" customWidth="1"/>
-    <col min="9444" max="9444" width="14.88671875" style="1" customWidth="1"/>
-    <col min="9445" max="9445" width="9.21875" style="1" customWidth="1"/>
-    <col min="9446" max="9446" width="11.21875" style="1" customWidth="1"/>
-    <col min="9447" max="9447" width="16.21875" style="1" customWidth="1"/>
-    <col min="9448" max="9448" width="13.109375" style="1" customWidth="1"/>
-    <col min="9449" max="9451" width="12.77734375" style="1" customWidth="1"/>
-    <col min="9452" max="9452" width="11.88671875" style="1" customWidth="1"/>
-    <col min="9453" max="9453" width="12.77734375" style="1" customWidth="1"/>
-    <col min="9454" max="9643" width="7.77734375" style="1" customWidth="1"/>
-    <col min="9644" max="9644" width="5.6640625" style="1" customWidth="1"/>
-    <col min="9645" max="9646" width="10.88671875" style="1" customWidth="1"/>
-    <col min="9647" max="9647" width="9.109375" style="1" customWidth="1"/>
-    <col min="9648" max="9649" width="8.6640625" style="1" customWidth="1"/>
-    <col min="9650" max="9650" width="24" style="1" customWidth="1"/>
-    <col min="9651" max="9651" width="17.77734375" style="1" customWidth="1"/>
-    <col min="9652" max="9653" width="12.77734375" style="1" customWidth="1"/>
-    <col min="9654" max="9654" width="20.21875" style="1" customWidth="1"/>
-    <col min="9655" max="9690" width="8.33203125" style="1"/>
-    <col min="9691" max="9691" width="6.44140625" style="1" customWidth="1"/>
-    <col min="9692" max="9694" width="8.6640625" style="1" customWidth="1"/>
-    <col min="9695" max="9695" width="21.109375" style="1" customWidth="1"/>
-    <col min="9696" max="9696" width="25.109375" style="1" customWidth="1"/>
-    <col min="9697" max="9697" width="14.88671875" style="1" customWidth="1"/>
-    <col min="9698" max="9698" width="16.88671875" style="1" customWidth="1"/>
-    <col min="9699" max="9699" width="7.77734375" style="1" customWidth="1"/>
-    <col min="9700" max="9700" width="14.88671875" style="1" customWidth="1"/>
-    <col min="9701" max="9701" width="9.21875" style="1" customWidth="1"/>
-    <col min="9702" max="9702" width="11.21875" style="1" customWidth="1"/>
-    <col min="9703" max="9703" width="16.21875" style="1" customWidth="1"/>
-    <col min="9704" max="9704" width="13.109375" style="1" customWidth="1"/>
-    <col min="9705" max="9707" width="12.77734375" style="1" customWidth="1"/>
-    <col min="9708" max="9708" width="11.88671875" style="1" customWidth="1"/>
-    <col min="9709" max="9709" width="12.77734375" style="1" customWidth="1"/>
-    <col min="9710" max="9899" width="7.77734375" style="1" customWidth="1"/>
-    <col min="9900" max="9900" width="5.6640625" style="1" customWidth="1"/>
-    <col min="9901" max="9902" width="10.88671875" style="1" customWidth="1"/>
-    <col min="9903" max="9903" width="9.109375" style="1" customWidth="1"/>
-    <col min="9904" max="9905" width="8.6640625" style="1" customWidth="1"/>
-    <col min="9906" max="9906" width="24" style="1" customWidth="1"/>
-    <col min="9907" max="9907" width="17.77734375" style="1" customWidth="1"/>
-    <col min="9908" max="9909" width="12.77734375" style="1" customWidth="1"/>
-    <col min="9910" max="9910" width="20.21875" style="1" customWidth="1"/>
-    <col min="9911" max="9946" width="8.33203125" style="1"/>
-    <col min="9947" max="9947" width="6.44140625" style="1" customWidth="1"/>
-    <col min="9948" max="9950" width="8.6640625" style="1" customWidth="1"/>
-    <col min="9951" max="9951" width="21.109375" style="1" customWidth="1"/>
-    <col min="9952" max="9952" width="25.109375" style="1" customWidth="1"/>
-    <col min="9953" max="9953" width="14.88671875" style="1" customWidth="1"/>
-    <col min="9954" max="9954" width="16.88671875" style="1" customWidth="1"/>
-    <col min="9955" max="9955" width="7.77734375" style="1" customWidth="1"/>
-    <col min="9956" max="9956" width="14.88671875" style="1" customWidth="1"/>
-    <col min="9957" max="9957" width="9.21875" style="1" customWidth="1"/>
-    <col min="9958" max="9958" width="11.21875" style="1" customWidth="1"/>
-    <col min="9959" max="9959" width="16.21875" style="1" customWidth="1"/>
-    <col min="9960" max="9960" width="13.109375" style="1" customWidth="1"/>
-    <col min="9961" max="9963" width="12.77734375" style="1" customWidth="1"/>
-    <col min="9964" max="9964" width="11.88671875" style="1" customWidth="1"/>
-    <col min="9965" max="9965" width="12.77734375" style="1" customWidth="1"/>
-    <col min="9966" max="10155" width="7.77734375" style="1" customWidth="1"/>
-    <col min="10156" max="10156" width="5.6640625" style="1" customWidth="1"/>
-    <col min="10157" max="10158" width="10.88671875" style="1" customWidth="1"/>
-    <col min="10159" max="10159" width="9.109375" style="1" customWidth="1"/>
-    <col min="10160" max="10161" width="8.6640625" style="1" customWidth="1"/>
-    <col min="10162" max="10162" width="24" style="1" customWidth="1"/>
-    <col min="10163" max="10163" width="17.77734375" style="1" customWidth="1"/>
-    <col min="10164" max="10165" width="12.77734375" style="1" customWidth="1"/>
-    <col min="10166" max="10166" width="20.21875" style="1" customWidth="1"/>
-    <col min="10167" max="10202" width="8.33203125" style="1"/>
-    <col min="10203" max="10203" width="6.44140625" style="1" customWidth="1"/>
-    <col min="10204" max="10206" width="8.6640625" style="1" customWidth="1"/>
-    <col min="10207" max="10207" width="21.109375" style="1" customWidth="1"/>
-    <col min="10208" max="10208" width="25.109375" style="1" customWidth="1"/>
-    <col min="10209" max="10209" width="14.88671875" style="1" customWidth="1"/>
-    <col min="10210" max="10210" width="16.88671875" style="1" customWidth="1"/>
-    <col min="10211" max="10211" width="7.77734375" style="1" customWidth="1"/>
-    <col min="10212" max="10212" width="14.88671875" style="1" customWidth="1"/>
-    <col min="10213" max="10213" width="9.21875" style="1" customWidth="1"/>
-    <col min="10214" max="10214" width="11.21875" style="1" customWidth="1"/>
-    <col min="10215" max="10215" width="16.21875" style="1" customWidth="1"/>
-    <col min="10216" max="10216" width="13.109375" style="1" customWidth="1"/>
-    <col min="10217" max="10219" width="12.77734375" style="1" customWidth="1"/>
-    <col min="10220" max="10220" width="11.88671875" style="1" customWidth="1"/>
-    <col min="10221" max="10221" width="12.77734375" style="1" customWidth="1"/>
-    <col min="10222" max="10411" width="7.77734375" style="1" customWidth="1"/>
-    <col min="10412" max="10412" width="5.6640625" style="1" customWidth="1"/>
-    <col min="10413" max="10414" width="10.88671875" style="1" customWidth="1"/>
-    <col min="10415" max="10415" width="9.109375" style="1" customWidth="1"/>
-    <col min="10416" max="10417" width="8.6640625" style="1" customWidth="1"/>
-    <col min="10418" max="10418" width="24" style="1" customWidth="1"/>
-    <col min="10419" max="10419" width="17.77734375" style="1" customWidth="1"/>
-    <col min="10420" max="10421" width="12.77734375" style="1" customWidth="1"/>
-    <col min="10422" max="10422" width="20.21875" style="1" customWidth="1"/>
-    <col min="10423" max="10458" width="8.33203125" style="1"/>
-    <col min="10459" max="10459" width="6.44140625" style="1" customWidth="1"/>
-    <col min="10460" max="10462" width="8.6640625" style="1" customWidth="1"/>
-    <col min="10463" max="10463" width="21.109375" style="1" customWidth="1"/>
-    <col min="10464" max="10464" width="25.109375" style="1" customWidth="1"/>
-    <col min="10465" max="10465" width="14.88671875" style="1" customWidth="1"/>
-    <col min="10466" max="10466" width="16.88671875" style="1" customWidth="1"/>
-    <col min="10467" max="10467" width="7.77734375" style="1" customWidth="1"/>
-    <col min="10468" max="10468" width="14.88671875" style="1" customWidth="1"/>
-    <col min="10469" max="10469" width="9.21875" style="1" customWidth="1"/>
-    <col min="10470" max="10470" width="11.21875" style="1" customWidth="1"/>
-    <col min="10471" max="10471" width="16.21875" style="1" customWidth="1"/>
-    <col min="10472" max="10472" width="13.109375" style="1" customWidth="1"/>
-    <col min="10473" max="10475" width="12.77734375" style="1" customWidth="1"/>
-    <col min="10476" max="10476" width="11.88671875" style="1" customWidth="1"/>
-    <col min="10477" max="10477" width="12.77734375" style="1" customWidth="1"/>
-    <col min="10478" max="10667" width="7.77734375" style="1" customWidth="1"/>
-    <col min="10668" max="10668" width="5.6640625" style="1" customWidth="1"/>
-    <col min="10669" max="10670" width="10.88671875" style="1" customWidth="1"/>
-    <col min="10671" max="10671" width="9.109375" style="1" customWidth="1"/>
-    <col min="10672" max="10673" width="8.6640625" style="1" customWidth="1"/>
-    <col min="10674" max="10674" width="24" style="1" customWidth="1"/>
-    <col min="10675" max="10675" width="17.77734375" style="1" customWidth="1"/>
-    <col min="10676" max="10677" width="12.77734375" style="1" customWidth="1"/>
-    <col min="10678" max="10678" width="20.21875" style="1" customWidth="1"/>
-    <col min="10679" max="10714" width="8.33203125" style="1"/>
-    <col min="10715" max="10715" width="6.44140625" style="1" customWidth="1"/>
-    <col min="10716" max="10718" width="8.6640625" style="1" customWidth="1"/>
-    <col min="10719" max="10719" width="21.109375" style="1" customWidth="1"/>
-    <col min="10720" max="10720" width="25.109375" style="1" customWidth="1"/>
-    <col min="10721" max="10721" width="14.88671875" style="1" customWidth="1"/>
-    <col min="10722" max="10722" width="16.88671875" style="1" customWidth="1"/>
-    <col min="10723" max="10723" width="7.77734375" style="1" customWidth="1"/>
-    <col min="10724" max="10724" width="14.88671875" style="1" customWidth="1"/>
-    <col min="10725" max="10725" width="9.21875" style="1" customWidth="1"/>
-    <col min="10726" max="10726" width="11.21875" style="1" customWidth="1"/>
-    <col min="10727" max="10727" width="16.21875" style="1" customWidth="1"/>
-    <col min="10728" max="10728" width="13.109375" style="1" customWidth="1"/>
-    <col min="10729" max="10731" width="12.77734375" style="1" customWidth="1"/>
-    <col min="10732" max="10732" width="11.88671875" style="1" customWidth="1"/>
-    <col min="10733" max="10733" width="12.77734375" style="1" customWidth="1"/>
-    <col min="10734" max="10923" width="7.77734375" style="1" customWidth="1"/>
-    <col min="10924" max="10924" width="5.6640625" style="1" customWidth="1"/>
-    <col min="10925" max="10926" width="10.88671875" style="1" customWidth="1"/>
-    <col min="10927" max="10927" width="9.109375" style="1" customWidth="1"/>
-    <col min="10928" max="10929" width="8.6640625" style="1" customWidth="1"/>
-    <col min="10930" max="10930" width="24" style="1" customWidth="1"/>
-    <col min="10931" max="10931" width="17.77734375" style="1" customWidth="1"/>
-    <col min="10932" max="10933" width="12.77734375" style="1" customWidth="1"/>
-    <col min="10934" max="10934" width="20.21875" style="1" customWidth="1"/>
-    <col min="10935" max="10970" width="8.33203125" style="1"/>
-    <col min="10971" max="10971" width="6.44140625" style="1" customWidth="1"/>
-    <col min="10972" max="10974" width="8.6640625" style="1" customWidth="1"/>
-    <col min="10975" max="10975" width="21.109375" style="1" customWidth="1"/>
-    <col min="10976" max="10976" width="25.109375" style="1" customWidth="1"/>
-    <col min="10977" max="10977" width="14.88671875" style="1" customWidth="1"/>
-    <col min="10978" max="10978" width="16.88671875" style="1" customWidth="1"/>
-    <col min="10979" max="10979" width="7.77734375" style="1" customWidth="1"/>
-    <col min="10980" max="10980" width="14.88671875" style="1" customWidth="1"/>
-    <col min="10981" max="10981" width="9.21875" style="1" customWidth="1"/>
-    <col min="10982" max="10982" width="11.21875" style="1" customWidth="1"/>
-    <col min="10983" max="10983" width="16.21875" style="1" customWidth="1"/>
-    <col min="10984" max="10984" width="13.109375" style="1" customWidth="1"/>
-    <col min="10985" max="10987" width="12.77734375" style="1" customWidth="1"/>
-    <col min="10988" max="10988" width="11.88671875" style="1" customWidth="1"/>
-    <col min="10989" max="10989" width="12.77734375" style="1" customWidth="1"/>
-    <col min="10990" max="11179" width="7.77734375" style="1" customWidth="1"/>
-    <col min="11180" max="11180" width="5.6640625" style="1" customWidth="1"/>
-    <col min="11181" max="11182" width="10.88671875" style="1" customWidth="1"/>
-    <col min="11183" max="11183" width="9.109375" style="1" customWidth="1"/>
-    <col min="11184" max="11185" width="8.6640625" style="1" customWidth="1"/>
-    <col min="11186" max="11186" width="24" style="1" customWidth="1"/>
-    <col min="11187" max="11187" width="17.77734375" style="1" customWidth="1"/>
-    <col min="11188" max="11189" width="12.77734375" style="1" customWidth="1"/>
-    <col min="11190" max="11190" width="20.21875" style="1" customWidth="1"/>
-    <col min="11191" max="11226" width="8.33203125" style="1"/>
-    <col min="11227" max="11227" width="6.44140625" style="1" customWidth="1"/>
-    <col min="11228" max="11230" width="8.6640625" style="1" customWidth="1"/>
-    <col min="11231" max="11231" width="21.109375" style="1" customWidth="1"/>
-    <col min="11232" max="11232" width="25.109375" style="1" customWidth="1"/>
-    <col min="11233" max="11233" width="14.88671875" style="1" customWidth="1"/>
-    <col min="11234" max="11234" width="16.88671875" style="1" customWidth="1"/>
-    <col min="11235" max="11235" width="7.77734375" style="1" customWidth="1"/>
-    <col min="11236" max="11236" width="14.88671875" style="1" customWidth="1"/>
-    <col min="11237" max="11237" width="9.21875" style="1" customWidth="1"/>
-    <col min="11238" max="11238" width="11.21875" style="1" customWidth="1"/>
-    <col min="11239" max="11239" width="16.21875" style="1" customWidth="1"/>
-    <col min="11240" max="11240" width="13.109375" style="1" customWidth="1"/>
-    <col min="11241" max="11243" width="12.77734375" style="1" customWidth="1"/>
-    <col min="11244" max="11244" width="11.88671875" style="1" customWidth="1"/>
-    <col min="11245" max="11245" width="12.77734375" style="1" customWidth="1"/>
-    <col min="11246" max="11435" width="7.77734375" style="1" customWidth="1"/>
-    <col min="11436" max="11436" width="5.6640625" style="1" customWidth="1"/>
-    <col min="11437" max="11438" width="10.88671875" style="1" customWidth="1"/>
-    <col min="11439" max="11439" width="9.109375" style="1" customWidth="1"/>
-    <col min="11440" max="11441" width="8.6640625" style="1" customWidth="1"/>
-    <col min="11442" max="11442" width="24" style="1" customWidth="1"/>
-    <col min="11443" max="11443" width="17.77734375" style="1" customWidth="1"/>
-    <col min="11444" max="11445" width="12.77734375" style="1" customWidth="1"/>
-    <col min="11446" max="11446" width="20.21875" style="1" customWidth="1"/>
-    <col min="11447" max="11482" width="8.33203125" style="1"/>
-    <col min="11483" max="11483" width="6.44140625" style="1" customWidth="1"/>
-    <col min="11484" max="11486" width="8.6640625" style="1" customWidth="1"/>
-    <col min="11487" max="11487" width="21.109375" style="1" customWidth="1"/>
-    <col min="11488" max="11488" width="25.109375" style="1" customWidth="1"/>
-    <col min="11489" max="11489" width="14.88671875" style="1" customWidth="1"/>
-    <col min="11490" max="11490" width="16.88671875" style="1" customWidth="1"/>
-    <col min="11491" max="11491" width="7.77734375" style="1" customWidth="1"/>
-    <col min="11492" max="11492" width="14.88671875" style="1" customWidth="1"/>
-    <col min="11493" max="11493" width="9.21875" style="1" customWidth="1"/>
-    <col min="11494" max="11494" width="11.21875" style="1" customWidth="1"/>
-    <col min="11495" max="11495" width="16.21875" style="1" customWidth="1"/>
-    <col min="11496" max="11496" width="13.109375" style="1" customWidth="1"/>
-    <col min="11497" max="11499" width="12.77734375" style="1" customWidth="1"/>
-    <col min="11500" max="11500" width="11.88671875" style="1" customWidth="1"/>
-    <col min="11501" max="11501" width="12.77734375" style="1" customWidth="1"/>
-    <col min="11502" max="11691" width="7.77734375" style="1" customWidth="1"/>
-    <col min="11692" max="11692" width="5.6640625" style="1" customWidth="1"/>
-    <col min="11693" max="11694" width="10.88671875" style="1" customWidth="1"/>
-    <col min="11695" max="11695" width="9.109375" style="1" customWidth="1"/>
-    <col min="11696" max="11697" width="8.6640625" style="1" customWidth="1"/>
-    <col min="11698" max="11698" width="24" style="1" customWidth="1"/>
-    <col min="11699" max="11699" width="17.77734375" style="1" customWidth="1"/>
-    <col min="11700" max="11701" width="12.77734375" style="1" customWidth="1"/>
-    <col min="11702" max="11702" width="20.21875" style="1" customWidth="1"/>
-    <col min="11703" max="11738" width="8.33203125" style="1"/>
-    <col min="11739" max="11739" width="6.44140625" style="1" customWidth="1"/>
-    <col min="11740" max="11742" width="8.6640625" style="1" customWidth="1"/>
-    <col min="11743" max="11743" width="21.109375" style="1" customWidth="1"/>
-    <col min="11744" max="11744" width="25.109375" style="1" customWidth="1"/>
-    <col min="11745" max="11745" width="14.88671875" style="1" customWidth="1"/>
-    <col min="11746" max="11746" width="16.88671875" style="1" customWidth="1"/>
-    <col min="11747" max="11747" width="7.77734375" style="1" customWidth="1"/>
-    <col min="11748" max="11748" width="14.88671875" style="1" customWidth="1"/>
-    <col min="11749" max="11749" width="9.21875" style="1" customWidth="1"/>
-    <col min="11750" max="11750" width="11.21875" style="1" customWidth="1"/>
-    <col min="11751" max="11751" width="16.21875" style="1" customWidth="1"/>
-    <col min="11752" max="11752" width="13.109375" style="1" customWidth="1"/>
-    <col min="11753" max="11755" width="12.77734375" style="1" customWidth="1"/>
-    <col min="11756" max="11756" width="11.88671875" style="1" customWidth="1"/>
-    <col min="11757" max="11757" width="12.77734375" style="1" customWidth="1"/>
-    <col min="11758" max="11947" width="7.77734375" style="1" customWidth="1"/>
-    <col min="11948" max="11948" width="5.6640625" style="1" customWidth="1"/>
-    <col min="11949" max="11950" width="10.88671875" style="1" customWidth="1"/>
-    <col min="11951" max="11951" width="9.109375" style="1" customWidth="1"/>
-    <col min="11952" max="11953" width="8.6640625" style="1" customWidth="1"/>
-    <col min="11954" max="11954" width="24" style="1" customWidth="1"/>
-    <col min="11955" max="11955" width="17.77734375" style="1" customWidth="1"/>
-    <col min="11956" max="11957" width="12.77734375" style="1" customWidth="1"/>
-    <col min="11958" max="11958" width="20.21875" style="1" customWidth="1"/>
-    <col min="11959" max="11994" width="8.33203125" style="1"/>
-    <col min="11995" max="11995" width="6.44140625" style="1" customWidth="1"/>
-    <col min="11996" max="11998" width="8.6640625" style="1" customWidth="1"/>
-    <col min="11999" max="11999" width="21.109375" style="1" customWidth="1"/>
-    <col min="12000" max="12000" width="25.109375" style="1" customWidth="1"/>
-    <col min="12001" max="12001" width="14.88671875" style="1" customWidth="1"/>
-    <col min="12002" max="12002" width="16.88671875" style="1" customWidth="1"/>
-    <col min="12003" max="12003" width="7.77734375" style="1" customWidth="1"/>
-    <col min="12004" max="12004" width="14.88671875" style="1" customWidth="1"/>
-    <col min="12005" max="12005" width="9.21875" style="1" customWidth="1"/>
-    <col min="12006" max="12006" width="11.21875" style="1" customWidth="1"/>
-    <col min="12007" max="12007" width="16.21875" style="1" customWidth="1"/>
-    <col min="12008" max="12008" width="13.109375" style="1" customWidth="1"/>
-    <col min="12009" max="12011" width="12.77734375" style="1" customWidth="1"/>
-    <col min="12012" max="12012" width="11.88671875" style="1" customWidth="1"/>
-    <col min="12013" max="12013" width="12.77734375" style="1" customWidth="1"/>
-    <col min="12014" max="12203" width="7.77734375" style="1" customWidth="1"/>
-    <col min="12204" max="12204" width="5.6640625" style="1" customWidth="1"/>
-    <col min="12205" max="12206" width="10.88671875" style="1" customWidth="1"/>
-    <col min="12207" max="12207" width="9.109375" style="1" customWidth="1"/>
-    <col min="12208" max="12209" width="8.6640625" style="1" customWidth="1"/>
-    <col min="12210" max="12210" width="24" style="1" customWidth="1"/>
-    <col min="12211" max="12211" width="17.77734375" style="1" customWidth="1"/>
-    <col min="12212" max="12213" width="12.77734375" style="1" customWidth="1"/>
-    <col min="12214" max="12214" width="20.21875" style="1" customWidth="1"/>
-    <col min="12215" max="12250" width="8.33203125" style="1"/>
-    <col min="12251" max="12251" width="6.44140625" style="1" customWidth="1"/>
-    <col min="12252" max="12254" width="8.6640625" style="1" customWidth="1"/>
-    <col min="12255" max="12255" width="21.109375" style="1" customWidth="1"/>
-    <col min="12256" max="12256" width="25.109375" style="1" customWidth="1"/>
-    <col min="12257" max="12257" width="14.88671875" style="1" customWidth="1"/>
-    <col min="12258" max="12258" width="16.88671875" style="1" customWidth="1"/>
-    <col min="12259" max="12259" width="7.77734375" style="1" customWidth="1"/>
-    <col min="12260" max="12260" width="14.88671875" style="1" customWidth="1"/>
-    <col min="12261" max="12261" width="9.21875" style="1" customWidth="1"/>
-    <col min="12262" max="12262" width="11.21875" style="1" customWidth="1"/>
-    <col min="12263" max="12263" width="16.21875" style="1" customWidth="1"/>
-    <col min="12264" max="12264" width="13.109375" style="1" customWidth="1"/>
-    <col min="12265" max="12267" width="12.77734375" style="1" customWidth="1"/>
-    <col min="12268" max="12268" width="11.88671875" style="1" customWidth="1"/>
-    <col min="12269" max="12269" width="12.77734375" style="1" customWidth="1"/>
-    <col min="12270" max="12459" width="7.77734375" style="1" customWidth="1"/>
-    <col min="12460" max="12460" width="5.6640625" style="1" customWidth="1"/>
-    <col min="12461" max="12462" width="10.88671875" style="1" customWidth="1"/>
-    <col min="12463" max="12463" width="9.109375" style="1" customWidth="1"/>
-    <col min="12464" max="12465" width="8.6640625" style="1" customWidth="1"/>
-    <col min="12466" max="12466" width="24" style="1" customWidth="1"/>
-    <col min="12467" max="12467" width="17.77734375" style="1" customWidth="1"/>
-    <col min="12468" max="12469" width="12.77734375" style="1" customWidth="1"/>
-    <col min="12470" max="12470" width="20.21875" style="1" customWidth="1"/>
-    <col min="12471" max="12506" width="8.33203125" style="1"/>
-    <col min="12507" max="12507" width="6.44140625" style="1" customWidth="1"/>
-    <col min="12508" max="12510" width="8.6640625" style="1" customWidth="1"/>
-    <col min="12511" max="12511" width="21.109375" style="1" customWidth="1"/>
-    <col min="12512" max="12512" width="25.109375" style="1" customWidth="1"/>
-    <col min="12513" max="12513" width="14.88671875" style="1" customWidth="1"/>
-    <col min="12514" max="12514" width="16.88671875" style="1" customWidth="1"/>
-    <col min="12515" max="12515" width="7.77734375" style="1" customWidth="1"/>
-    <col min="12516" max="12516" width="14.88671875" style="1" customWidth="1"/>
-    <col min="12517" max="12517" width="9.21875" style="1" customWidth="1"/>
-    <col min="12518" max="12518" width="11.21875" style="1" customWidth="1"/>
-    <col min="12519" max="12519" width="16.21875" style="1" customWidth="1"/>
-    <col min="12520" max="12520" width="13.109375" style="1" customWidth="1"/>
-    <col min="12521" max="12523" width="12.77734375" style="1" customWidth="1"/>
-    <col min="12524" max="12524" width="11.88671875" style="1" customWidth="1"/>
-    <col min="12525" max="12525" width="12.77734375" style="1" customWidth="1"/>
-    <col min="12526" max="12715" width="7.77734375" style="1" customWidth="1"/>
-    <col min="12716" max="12716" width="5.6640625" style="1" customWidth="1"/>
-    <col min="12717" max="12718" width="10.88671875" style="1" customWidth="1"/>
-    <col min="12719" max="12719" width="9.109375" style="1" customWidth="1"/>
-    <col min="12720" max="12721" width="8.6640625" style="1" customWidth="1"/>
-    <col min="12722" max="12722" width="24" style="1" customWidth="1"/>
-    <col min="12723" max="12723" width="17.77734375" style="1" customWidth="1"/>
-    <col min="12724" max="12725" width="12.77734375" style="1" customWidth="1"/>
-    <col min="12726" max="12726" width="20.21875" style="1" customWidth="1"/>
-    <col min="12727" max="12762" width="8.33203125" style="1"/>
-    <col min="12763" max="12763" width="6.44140625" style="1" customWidth="1"/>
-    <col min="12764" max="12766" width="8.6640625" style="1" customWidth="1"/>
-    <col min="12767" max="12767" width="21.109375" style="1" customWidth="1"/>
-    <col min="12768" max="12768" width="25.109375" style="1" customWidth="1"/>
-    <col min="12769" max="12769" width="14.88671875" style="1" customWidth="1"/>
-    <col min="12770" max="12770" width="16.88671875" style="1" customWidth="1"/>
-    <col min="12771" max="12771" width="7.77734375" style="1" customWidth="1"/>
-    <col min="12772" max="12772" width="14.88671875" style="1" customWidth="1"/>
-    <col min="12773" max="12773" width="9.21875" style="1" customWidth="1"/>
-    <col min="12774" max="12774" width="11.21875" style="1" customWidth="1"/>
-    <col min="12775" max="12775" width="16.21875" style="1" customWidth="1"/>
-    <col min="12776" max="12776" width="13.109375" style="1" customWidth="1"/>
-    <col min="12777" max="12779" width="12.77734375" style="1" customWidth="1"/>
-    <col min="12780" max="12780" width="11.88671875" style="1" customWidth="1"/>
-    <col min="12781" max="12781" width="12.77734375" style="1" customWidth="1"/>
-    <col min="12782" max="12971" width="7.77734375" style="1" customWidth="1"/>
-    <col min="12972" max="12972" width="5.6640625" style="1" customWidth="1"/>
-    <col min="12973" max="12974" width="10.88671875" style="1" customWidth="1"/>
-    <col min="12975" max="12975" width="9.109375" style="1" customWidth="1"/>
-    <col min="12976" max="12977" width="8.6640625" style="1" customWidth="1"/>
-    <col min="12978" max="12978" width="24" style="1" customWidth="1"/>
-    <col min="12979" max="12979" width="17.77734375" style="1" customWidth="1"/>
-    <col min="12980" max="12981" width="12.77734375" style="1" customWidth="1"/>
-    <col min="12982" max="12982" width="20.21875" style="1" customWidth="1"/>
-    <col min="12983" max="13018" width="8.33203125" style="1"/>
-    <col min="13019" max="13019" width="6.44140625" style="1" customWidth="1"/>
-    <col min="13020" max="13022" width="8.6640625" style="1" customWidth="1"/>
-    <col min="13023" max="13023" width="21.109375" style="1" customWidth="1"/>
-    <col min="13024" max="13024" width="25.109375" style="1" customWidth="1"/>
-    <col min="13025" max="13025" width="14.88671875" style="1" customWidth="1"/>
-    <col min="13026" max="13026" width="16.88671875" style="1" customWidth="1"/>
-    <col min="13027" max="13027" width="7.77734375" style="1" customWidth="1"/>
-    <col min="13028" max="13028" width="14.88671875" style="1" customWidth="1"/>
-    <col min="13029" max="13029" width="9.21875" style="1" customWidth="1"/>
-    <col min="13030" max="13030" width="11.21875" style="1" customWidth="1"/>
-    <col min="13031" max="13031" width="16.21875" style="1" customWidth="1"/>
-    <col min="13032" max="13032" width="13.109375" style="1" customWidth="1"/>
-    <col min="13033" max="13035" width="12.77734375" style="1" customWidth="1"/>
-    <col min="13036" max="13036" width="11.88671875" style="1" customWidth="1"/>
-    <col min="13037" max="13037" width="12.77734375" style="1" customWidth="1"/>
-    <col min="13038" max="13227" width="7.77734375" style="1" customWidth="1"/>
-    <col min="13228" max="13228" width="5.6640625" style="1" customWidth="1"/>
-    <col min="13229" max="13230" width="10.88671875" style="1" customWidth="1"/>
-    <col min="13231" max="13231" width="9.109375" style="1" customWidth="1"/>
-    <col min="13232" max="13233" width="8.6640625" style="1" customWidth="1"/>
-    <col min="13234" max="13234" width="24" style="1" customWidth="1"/>
-    <col min="13235" max="13235" width="17.77734375" style="1" customWidth="1"/>
-    <col min="13236" max="13237" width="12.77734375" style="1" customWidth="1"/>
-    <col min="13238" max="13238" width="20.21875" style="1" customWidth="1"/>
-    <col min="13239" max="13274" width="8.33203125" style="1"/>
-    <col min="13275" max="13275" width="6.44140625" style="1" customWidth="1"/>
-    <col min="13276" max="13278" width="8.6640625" style="1" customWidth="1"/>
-    <col min="13279" max="13279" width="21.109375" style="1" customWidth="1"/>
-    <col min="13280" max="13280" width="25.109375" style="1" customWidth="1"/>
-    <col min="13281" max="13281" width="14.88671875" style="1" customWidth="1"/>
-    <col min="13282" max="13282" width="16.88671875" style="1" customWidth="1"/>
-    <col min="13283" max="13283" width="7.77734375" style="1" customWidth="1"/>
-    <col min="13284" max="13284" width="14.88671875" style="1" customWidth="1"/>
-    <col min="13285" max="13285" width="9.21875" style="1" customWidth="1"/>
-    <col min="13286" max="13286" width="11.21875" style="1" customWidth="1"/>
-    <col min="13287" max="13287" width="16.21875" style="1" customWidth="1"/>
-    <col min="13288" max="13288" width="13.109375" style="1" customWidth="1"/>
-    <col min="13289" max="13291" width="12.77734375" style="1" customWidth="1"/>
-    <col min="13292" max="13292" width="11.88671875" style="1" customWidth="1"/>
-    <col min="13293" max="13293" width="12.77734375" style="1" customWidth="1"/>
-    <col min="13294" max="13483" width="7.77734375" style="1" customWidth="1"/>
-    <col min="13484" max="13484" width="5.6640625" style="1" customWidth="1"/>
-    <col min="13485" max="13486" width="10.88671875" style="1" customWidth="1"/>
-    <col min="13487" max="13487" width="9.109375" style="1" customWidth="1"/>
-    <col min="13488" max="13489" width="8.6640625" style="1" customWidth="1"/>
-    <col min="13490" max="13490" width="24" style="1" customWidth="1"/>
-    <col min="13491" max="13491" width="17.77734375" style="1" customWidth="1"/>
-    <col min="13492" max="13493" width="12.77734375" style="1" customWidth="1"/>
-    <col min="13494" max="13494" width="20.21875" style="1" customWidth="1"/>
-    <col min="13495" max="13530" width="8.33203125" style="1"/>
-    <col min="13531" max="13531" width="6.44140625" style="1" customWidth="1"/>
-    <col min="13532" max="13534" width="8.6640625" style="1" customWidth="1"/>
-    <col min="13535" max="13535" width="21.109375" style="1" customWidth="1"/>
-    <col min="13536" max="13536" width="25.109375" style="1" customWidth="1"/>
-    <col min="13537" max="13537" width="14.88671875" style="1" customWidth="1"/>
-    <col min="13538" max="13538" width="16.88671875" style="1" customWidth="1"/>
-    <col min="13539" max="13539" width="7.77734375" style="1" customWidth="1"/>
-    <col min="13540" max="13540" width="14.88671875" style="1" customWidth="1"/>
-    <col min="13541" max="13541" width="9.21875" style="1" customWidth="1"/>
-    <col min="13542" max="13542" width="11.21875" style="1" customWidth="1"/>
-    <col min="13543" max="13543" width="16.21875" style="1" customWidth="1"/>
-    <col min="13544" max="13544" width="13.109375" style="1" customWidth="1"/>
-    <col min="13545" max="13547" width="12.77734375" style="1" customWidth="1"/>
-    <col min="13548" max="13548" width="11.88671875" style="1" customWidth="1"/>
-    <col min="13549" max="13549" width="12.77734375" style="1" customWidth="1"/>
-    <col min="13550" max="13739" width="7.77734375" style="1" customWidth="1"/>
-    <col min="13740" max="13740" width="5.6640625" style="1" customWidth="1"/>
-    <col min="13741" max="13742" width="10.88671875" style="1" customWidth="1"/>
-    <col min="13743" max="13743" width="9.109375" style="1" customWidth="1"/>
-    <col min="13744" max="13745" width="8.6640625" style="1" customWidth="1"/>
-    <col min="13746" max="13746" width="24" style="1" customWidth="1"/>
-    <col min="13747" max="13747" width="17.77734375" style="1" customWidth="1"/>
-    <col min="13748" max="13749" width="12.77734375" style="1" customWidth="1"/>
-    <col min="13750" max="13750" width="20.21875" style="1" customWidth="1"/>
-    <col min="13751" max="13786" width="8.33203125" style="1"/>
-    <col min="13787" max="13787" width="6.44140625" style="1" customWidth="1"/>
-    <col min="13788" max="13790" width="8.6640625" style="1" customWidth="1"/>
-    <col min="13791" max="13791" width="21.109375" style="1" customWidth="1"/>
-    <col min="13792" max="13792" width="25.109375" style="1" customWidth="1"/>
-    <col min="13793" max="13793" width="14.88671875" style="1" customWidth="1"/>
-    <col min="13794" max="13794" width="16.88671875" style="1" customWidth="1"/>
-    <col min="13795" max="13795" width="7.77734375" style="1" customWidth="1"/>
-    <col min="13796" max="13796" width="14.88671875" style="1" customWidth="1"/>
-    <col min="13797" max="13797" width="9.21875" style="1" customWidth="1"/>
-    <col min="13798" max="13798" width="11.21875" style="1" customWidth="1"/>
-    <col min="13799" max="13799" width="16.21875" style="1" customWidth="1"/>
-    <col min="13800" max="13800" width="13.109375" style="1" customWidth="1"/>
-    <col min="13801" max="13803" width="12.77734375" style="1" customWidth="1"/>
-    <col min="13804" max="13804" width="11.88671875" style="1" customWidth="1"/>
-    <col min="13805" max="13805" width="12.77734375" style="1" customWidth="1"/>
-    <col min="13806" max="13995" width="7.77734375" style="1" customWidth="1"/>
-    <col min="13996" max="13996" width="5.6640625" style="1" customWidth="1"/>
-    <col min="13997" max="13998" width="10.88671875" style="1" customWidth="1"/>
-    <col min="13999" max="13999" width="9.109375" style="1" customWidth="1"/>
-    <col min="14000" max="14001" width="8.6640625" style="1" customWidth="1"/>
-    <col min="14002" max="14002" width="24" style="1" customWidth="1"/>
-    <col min="14003" max="14003" width="17.77734375" style="1" customWidth="1"/>
-    <col min="14004" max="14005" width="12.77734375" style="1" customWidth="1"/>
-    <col min="14006" max="14006" width="20.21875" style="1" customWidth="1"/>
-    <col min="14007" max="14042" width="8.33203125" style="1"/>
-    <col min="14043" max="14043" width="6.44140625" style="1" customWidth="1"/>
-    <col min="14044" max="14046" width="8.6640625" style="1" customWidth="1"/>
-    <col min="14047" max="14047" width="21.109375" style="1" customWidth="1"/>
-    <col min="14048" max="14048" width="25.109375" style="1" customWidth="1"/>
-    <col min="14049" max="14049" width="14.88671875" style="1" customWidth="1"/>
-    <col min="14050" max="14050" width="16.88671875" style="1" customWidth="1"/>
-    <col min="14051" max="14051" width="7.77734375" style="1" customWidth="1"/>
-    <col min="14052" max="14052" width="14.88671875" style="1" customWidth="1"/>
-    <col min="14053" max="14053" width="9.21875" style="1" customWidth="1"/>
-    <col min="14054" max="14054" width="11.21875" style="1" customWidth="1"/>
-    <col min="14055" max="14055" width="16.21875" style="1" customWidth="1"/>
-    <col min="14056" max="14056" width="13.109375" style="1" customWidth="1"/>
-    <col min="14057" max="14059" width="12.77734375" style="1" customWidth="1"/>
-    <col min="14060" max="14060" width="11.88671875" style="1" customWidth="1"/>
-    <col min="14061" max="14061" width="12.77734375" style="1" customWidth="1"/>
-    <col min="14062" max="14251" width="7.77734375" style="1" customWidth="1"/>
-    <col min="14252" max="14252" width="5.6640625" style="1" customWidth="1"/>
-    <col min="14253" max="14254" width="10.88671875" style="1" customWidth="1"/>
-    <col min="14255" max="14255" width="9.109375" style="1" customWidth="1"/>
-    <col min="14256" max="14257" width="8.6640625" style="1" customWidth="1"/>
-    <col min="14258" max="14258" width="24" style="1" customWidth="1"/>
-    <col min="14259" max="14259" width="17.77734375" style="1" customWidth="1"/>
-    <col min="14260" max="14261" width="12.77734375" style="1" customWidth="1"/>
-    <col min="14262" max="14262" width="20.21875" style="1" customWidth="1"/>
-    <col min="14263" max="14298" width="8.33203125" style="1"/>
-    <col min="14299" max="14299" width="6.44140625" style="1" customWidth="1"/>
-    <col min="14300" max="14302" width="8.6640625" style="1" customWidth="1"/>
-    <col min="14303" max="14303" width="21.109375" style="1" customWidth="1"/>
-    <col min="14304" max="14304" width="25.109375" style="1" customWidth="1"/>
-    <col min="14305" max="14305" width="14.88671875" style="1" customWidth="1"/>
-    <col min="14306" max="14306" width="16.88671875" style="1" customWidth="1"/>
-    <col min="14307" max="14307" width="7.77734375" style="1" customWidth="1"/>
-    <col min="14308" max="14308" width="14.88671875" style="1" customWidth="1"/>
-    <col min="14309" max="14309" width="9.21875" style="1" customWidth="1"/>
-    <col min="14310" max="14310" width="11.21875" style="1" customWidth="1"/>
-    <col min="14311" max="14311" width="16.21875" style="1" customWidth="1"/>
-    <col min="14312" max="14312" width="13.109375" style="1" customWidth="1"/>
-    <col min="14313" max="14315" width="12.77734375" style="1" customWidth="1"/>
-    <col min="14316" max="14316" width="11.88671875" style="1" customWidth="1"/>
-    <col min="14317" max="14317" width="12.77734375" style="1" customWidth="1"/>
-    <col min="14318" max="14507" width="7.77734375" style="1" customWidth="1"/>
-    <col min="14508" max="14508" width="5.6640625" style="1" customWidth="1"/>
-    <col min="14509" max="14510" width="10.88671875" style="1" customWidth="1"/>
-    <col min="14511" max="14511" width="9.109375" style="1" customWidth="1"/>
-    <col min="14512" max="14513" width="8.6640625" style="1" customWidth="1"/>
-    <col min="14514" max="14514" width="24" style="1" customWidth="1"/>
-    <col min="14515" max="14515" width="17.77734375" style="1" customWidth="1"/>
-    <col min="14516" max="14517" width="12.77734375" style="1" customWidth="1"/>
-    <col min="14518" max="14518" width="20.21875" style="1" customWidth="1"/>
-    <col min="14519" max="14554" width="8.33203125" style="1"/>
-    <col min="14555" max="14555" width="6.44140625" style="1" customWidth="1"/>
-    <col min="14556" max="14558" width="8.6640625" style="1" customWidth="1"/>
-    <col min="14559" max="14559" width="21.109375" style="1" customWidth="1"/>
-    <col min="14560" max="14560" width="25.109375" style="1" customWidth="1"/>
-    <col min="14561" max="14561" width="14.88671875" style="1" customWidth="1"/>
-    <col min="14562" max="14562" width="16.88671875" style="1" customWidth="1"/>
-    <col min="14563" max="14563" width="7.77734375" style="1" customWidth="1"/>
-    <col min="14564" max="14564" width="14.88671875" style="1" customWidth="1"/>
-    <col min="14565" max="14565" width="9.21875" style="1" customWidth="1"/>
-    <col min="14566" max="14566" width="11.21875" style="1" customWidth="1"/>
-    <col min="14567" max="14567" width="16.21875" style="1" customWidth="1"/>
-    <col min="14568" max="14568" width="13.109375" style="1" customWidth="1"/>
-    <col min="14569" max="14571" width="12.77734375" style="1" customWidth="1"/>
-    <col min="14572" max="14572" width="11.88671875" style="1" customWidth="1"/>
-    <col min="14573" max="14573" width="12.77734375" style="1" customWidth="1"/>
-    <col min="14574" max="14763" width="7.77734375" style="1" customWidth="1"/>
-    <col min="14764" max="14764" width="5.6640625" style="1" customWidth="1"/>
-    <col min="14765" max="14766" width="10.88671875" style="1" customWidth="1"/>
-    <col min="14767" max="14767" width="9.109375" style="1" customWidth="1"/>
-    <col min="14768" max="14769" width="8.6640625" style="1" customWidth="1"/>
-    <col min="14770" max="14770" width="24" style="1" customWidth="1"/>
-    <col min="14771" max="14771" width="17.77734375" style="1" customWidth="1"/>
-    <col min="14772" max="14773" width="12.77734375" style="1" customWidth="1"/>
-    <col min="14774" max="14774" width="20.21875" style="1" customWidth="1"/>
-    <col min="14775" max="14810" width="8.33203125" style="1"/>
-    <col min="14811" max="14811" width="6.44140625" style="1" customWidth="1"/>
-    <col min="14812" max="14814" width="8.6640625" style="1" customWidth="1"/>
-    <col min="14815" max="14815" width="21.109375" style="1" customWidth="1"/>
-    <col min="14816" max="14816" width="25.109375" style="1" customWidth="1"/>
-    <col min="14817" max="14817" width="14.88671875" style="1" customWidth="1"/>
-    <col min="14818" max="14818" width="16.88671875" style="1" customWidth="1"/>
-    <col min="14819" max="14819" width="7.77734375" style="1" customWidth="1"/>
-    <col min="14820" max="14820" width="14.88671875" style="1" customWidth="1"/>
-    <col min="14821" max="14821" width="9.21875" style="1" customWidth="1"/>
-    <col min="14822" max="14822" width="11.21875" style="1" customWidth="1"/>
-    <col min="14823" max="14823" width="16.21875" style="1" customWidth="1"/>
-    <col min="14824" max="14824" width="13.109375" style="1" customWidth="1"/>
-    <col min="14825" max="14827" width="12.77734375" style="1" customWidth="1"/>
-    <col min="14828" max="14828" width="11.88671875" style="1" customWidth="1"/>
-    <col min="14829" max="14829" width="12.77734375" style="1" customWidth="1"/>
-    <col min="14830" max="15019" width="7.77734375" style="1" customWidth="1"/>
-    <col min="15020" max="15020" width="5.6640625" style="1" customWidth="1"/>
-    <col min="15021" max="15022" width="10.88671875" style="1" customWidth="1"/>
-    <col min="15023" max="15023" width="9.109375" style="1" customWidth="1"/>
-    <col min="15024" max="15025" width="8.6640625" style="1" customWidth="1"/>
-    <col min="15026" max="15026" width="24" style="1" customWidth="1"/>
-    <col min="15027" max="15027" width="17.77734375" style="1" customWidth="1"/>
-    <col min="15028" max="15029" width="12.77734375" style="1" customWidth="1"/>
-    <col min="15030" max="15030" width="20.21875" style="1" customWidth="1"/>
-    <col min="15031" max="15066" width="8.33203125" style="1"/>
-    <col min="15067" max="15067" width="6.44140625" style="1" customWidth="1"/>
-    <col min="15068" max="15070" width="8.6640625" style="1" customWidth="1"/>
-    <col min="15071" max="15071" width="21.109375" style="1" customWidth="1"/>
-    <col min="15072" max="15072" width="25.109375" style="1" customWidth="1"/>
-    <col min="15073" max="15073" width="14.88671875" style="1" customWidth="1"/>
-    <col min="15074" max="15074" width="16.88671875" style="1" customWidth="1"/>
-    <col min="15075" max="15075" width="7.77734375" style="1" customWidth="1"/>
-    <col min="15076" max="15076" width="14.88671875" style="1" customWidth="1"/>
-    <col min="15077" max="15077" width="9.21875" style="1" customWidth="1"/>
-    <col min="15078" max="15078" width="11.21875" style="1" customWidth="1"/>
-    <col min="15079" max="15079" width="16.21875" style="1" customWidth="1"/>
-    <col min="15080" max="15080" width="13.109375" style="1" customWidth="1"/>
-    <col min="15081" max="15083" width="12.77734375" style="1" customWidth="1"/>
-    <col min="15084" max="15084" width="11.88671875" style="1" customWidth="1"/>
-    <col min="15085" max="15085" width="12.77734375" style="1" customWidth="1"/>
-    <col min="15086" max="15275" width="7.77734375" style="1" customWidth="1"/>
-    <col min="15276" max="15276" width="5.6640625" style="1" customWidth="1"/>
-    <col min="15277" max="15278" width="10.88671875" style="1" customWidth="1"/>
-    <col min="15279" max="15279" width="9.109375" style="1" customWidth="1"/>
-    <col min="15280" max="15281" width="8.6640625" style="1" customWidth="1"/>
-    <col min="15282" max="15282" width="24" style="1" customWidth="1"/>
-    <col min="15283" max="15283" width="17.77734375" style="1" customWidth="1"/>
-    <col min="15284" max="15285" width="12.77734375" style="1" customWidth="1"/>
-    <col min="15286" max="15286" width="20.21875" style="1" customWidth="1"/>
-    <col min="15287" max="15322" width="8.33203125" style="1"/>
-    <col min="15323" max="15323" width="6.44140625" style="1" customWidth="1"/>
-    <col min="15324" max="15326" width="8.6640625" style="1" customWidth="1"/>
-    <col min="15327" max="15327" width="21.109375" style="1" customWidth="1"/>
-    <col min="15328" max="15328" width="25.109375" style="1" customWidth="1"/>
-    <col min="15329" max="15329" width="14.88671875" style="1" customWidth="1"/>
-    <col min="15330" max="15330" width="16.88671875" style="1" customWidth="1"/>
-    <col min="15331" max="15331" width="7.77734375" style="1" customWidth="1"/>
-    <col min="15332" max="15332" width="14.88671875" style="1" customWidth="1"/>
-    <col min="15333" max="15333" width="9.21875" style="1" customWidth="1"/>
-    <col min="15334" max="15334" width="11.21875" style="1" customWidth="1"/>
-    <col min="15335" max="15335" width="16.21875" style="1" customWidth="1"/>
-    <col min="15336" max="15336" width="13.109375" style="1" customWidth="1"/>
-    <col min="15337" max="15339" width="12.77734375" style="1" customWidth="1"/>
-    <col min="15340" max="15340" width="11.88671875" style="1" customWidth="1"/>
-    <col min="15341" max="15341" width="12.77734375" style="1" customWidth="1"/>
-    <col min="15342" max="15531" width="7.77734375" style="1" customWidth="1"/>
-    <col min="15532" max="15532" width="5.6640625" style="1" customWidth="1"/>
-    <col min="15533" max="15534" width="10.88671875" style="1" customWidth="1"/>
-    <col min="15535" max="15535" width="9.109375" style="1" customWidth="1"/>
-    <col min="15536" max="15537" width="8.6640625" style="1" customWidth="1"/>
-    <col min="15538" max="15538" width="24" style="1" customWidth="1"/>
-    <col min="15539" max="15539" width="17.77734375" style="1" customWidth="1"/>
-    <col min="15540" max="15541" width="12.77734375" style="1" customWidth="1"/>
-    <col min="15542" max="15542" width="20.21875" style="1" customWidth="1"/>
-    <col min="15543" max="15578" width="8.33203125" style="1"/>
-    <col min="15579" max="15579" width="6.44140625" style="1" customWidth="1"/>
-    <col min="15580" max="15582" width="8.6640625" style="1" customWidth="1"/>
-    <col min="15583" max="15583" width="21.109375" style="1" customWidth="1"/>
-    <col min="15584" max="15584" width="25.109375" style="1" customWidth="1"/>
-    <col min="15585" max="15585" width="14.88671875" style="1" customWidth="1"/>
-    <col min="15586" max="15586" width="16.88671875" style="1" customWidth="1"/>
-    <col min="15587" max="15587" width="7.77734375" style="1" customWidth="1"/>
-    <col min="15588" max="15588" width="14.88671875" style="1" customWidth="1"/>
-    <col min="15589" max="15589" width="9.21875" style="1" customWidth="1"/>
-    <col min="15590" max="15590" width="11.21875" style="1" customWidth="1"/>
-    <col min="15591" max="15591" width="16.21875" style="1" customWidth="1"/>
-    <col min="15592" max="15592" width="13.109375" style="1" customWidth="1"/>
-    <col min="15593" max="15595" width="12.77734375" style="1" customWidth="1"/>
-    <col min="15596" max="15596" width="11.88671875" style="1" customWidth="1"/>
-    <col min="15597" max="15597" width="12.77734375" style="1" customWidth="1"/>
-    <col min="15598" max="15787" width="7.77734375" style="1" customWidth="1"/>
-    <col min="15788" max="15788" width="5.6640625" style="1" customWidth="1"/>
-    <col min="15789" max="15790" width="10.88671875" style="1" customWidth="1"/>
-    <col min="15791" max="15791" width="9.109375" style="1" customWidth="1"/>
-    <col min="15792" max="15793" width="8.6640625" style="1" customWidth="1"/>
-    <col min="15794" max="15794" width="24" style="1" customWidth="1"/>
-    <col min="15795" max="15795" width="17.77734375" style="1" customWidth="1"/>
-    <col min="15796" max="15797" width="12.77734375" style="1" customWidth="1"/>
-    <col min="15798" max="15798" width="20.21875" style="1" customWidth="1"/>
-    <col min="15799" max="15834" width="8.33203125" style="1"/>
-    <col min="15835" max="15835" width="6.44140625" style="1" customWidth="1"/>
-    <col min="15836" max="15838" width="8.6640625" style="1" customWidth="1"/>
-    <col min="15839" max="15839" width="21.109375" style="1" customWidth="1"/>
-    <col min="15840" max="15840" width="25.109375" style="1" customWidth="1"/>
-    <col min="15841" max="15841" width="14.88671875" style="1" customWidth="1"/>
-    <col min="15842" max="15842" width="16.88671875" style="1" customWidth="1"/>
-    <col min="15843" max="15843" width="7.77734375" style="1" customWidth="1"/>
-    <col min="15844" max="15844" width="14.88671875" style="1" customWidth="1"/>
-    <col min="15845" max="15845" width="9.21875" style="1" customWidth="1"/>
-    <col min="15846" max="15846" width="11.21875" style="1" customWidth="1"/>
-    <col min="15847" max="15847" width="16.21875" style="1" customWidth="1"/>
-    <col min="15848" max="15848" width="13.109375" style="1" customWidth="1"/>
-    <col min="15849" max="15851" width="12.77734375" style="1" customWidth="1"/>
-    <col min="15852" max="15852" width="11.88671875" style="1" customWidth="1"/>
-    <col min="15853" max="15853" width="12.77734375" style="1" customWidth="1"/>
-    <col min="15854" max="16043" width="7.77734375" style="1" customWidth="1"/>
-    <col min="16044" max="16044" width="5.6640625" style="1" customWidth="1"/>
-    <col min="16045" max="16046" width="10.88671875" style="1" customWidth="1"/>
-    <col min="16047" max="16047" width="9.109375" style="1" customWidth="1"/>
-    <col min="16048" max="16049" width="8.6640625" style="1" customWidth="1"/>
-    <col min="16050" max="16050" width="24" style="1" customWidth="1"/>
-    <col min="16051" max="16051" width="17.77734375" style="1" customWidth="1"/>
-    <col min="16052" max="16053" width="12.77734375" style="1" customWidth="1"/>
-    <col min="16054" max="16054" width="20.21875" style="1" customWidth="1"/>
-    <col min="16055" max="16090" width="8.33203125" style="1"/>
-    <col min="16091" max="16091" width="6.44140625" style="1" customWidth="1"/>
-    <col min="16092" max="16094" width="8.6640625" style="1" customWidth="1"/>
-    <col min="16095" max="16095" width="21.109375" style="1" customWidth="1"/>
-    <col min="16096" max="16096" width="25.109375" style="1" customWidth="1"/>
-    <col min="16097" max="16097" width="14.88671875" style="1" customWidth="1"/>
-    <col min="16098" max="16098" width="16.88671875" style="1" customWidth="1"/>
-    <col min="16099" max="16099" width="7.77734375" style="1" customWidth="1"/>
-    <col min="16100" max="16100" width="14.88671875" style="1" customWidth="1"/>
-    <col min="16101" max="16101" width="9.21875" style="1" customWidth="1"/>
-    <col min="16102" max="16102" width="11.21875" style="1" customWidth="1"/>
-    <col min="16103" max="16103" width="16.21875" style="1" customWidth="1"/>
-    <col min="16104" max="16104" width="13.109375" style="1" customWidth="1"/>
-    <col min="16105" max="16107" width="12.77734375" style="1" customWidth="1"/>
-    <col min="16108" max="16108" width="11.88671875" style="1" customWidth="1"/>
-    <col min="16109" max="16109" width="12.77734375" style="1" customWidth="1"/>
-    <col min="16110" max="16299" width="7.77734375" style="1" customWidth="1"/>
-    <col min="16300" max="16300" width="5.6640625" style="1" customWidth="1"/>
-    <col min="16301" max="16302" width="10.88671875" style="1" customWidth="1"/>
-    <col min="16303" max="16303" width="9.109375" style="1" customWidth="1"/>
-    <col min="16304" max="16305" width="8.6640625" style="1" customWidth="1"/>
-    <col min="16306" max="16306" width="24" style="1" customWidth="1"/>
-    <col min="16307" max="16307" width="17.77734375" style="1" customWidth="1"/>
-    <col min="16308" max="16309" width="12.77734375" style="1" customWidth="1"/>
-    <col min="16310" max="16310" width="20.21875" style="1" customWidth="1"/>
-    <col min="16311" max="16384" width="8.33203125" style="1"/>
+    <col min="15" max="15" width="12.36328125" style="3" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.6328125" style="3" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.36328125" style="3" bestFit="1" customWidth="1"/>
+    <col min="18" max="21" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="172" width="7.81640625" style="1" customWidth="1"/>
+    <col min="173" max="173" width="5.6328125" style="1" customWidth="1"/>
+    <col min="174" max="175" width="10.90625" style="1" customWidth="1"/>
+    <col min="176" max="176" width="9.08984375" style="1" customWidth="1"/>
+    <col min="177" max="178" width="8.6328125" style="1" customWidth="1"/>
+    <col min="179" max="179" width="24" style="1" customWidth="1"/>
+    <col min="180" max="180" width="17.81640625" style="1" customWidth="1"/>
+    <col min="181" max="182" width="12.81640625" style="1" customWidth="1"/>
+    <col min="183" max="183" width="20.1796875" style="1" customWidth="1"/>
+    <col min="184" max="219" width="8.36328125" style="1"/>
+    <col min="220" max="220" width="6.453125" style="1" customWidth="1"/>
+    <col min="221" max="223" width="8.6328125" style="1" customWidth="1"/>
+    <col min="224" max="224" width="21.08984375" style="1" customWidth="1"/>
+    <col min="225" max="225" width="25.08984375" style="1" customWidth="1"/>
+    <col min="226" max="226" width="14.90625" style="1" customWidth="1"/>
+    <col min="227" max="227" width="16.90625" style="1" customWidth="1"/>
+    <col min="228" max="228" width="7.81640625" style="1" customWidth="1"/>
+    <col min="229" max="229" width="14.90625" style="1" customWidth="1"/>
+    <col min="230" max="230" width="9.1796875" style="1" customWidth="1"/>
+    <col min="231" max="231" width="11.1796875" style="1" customWidth="1"/>
+    <col min="232" max="232" width="16.1796875" style="1" customWidth="1"/>
+    <col min="233" max="233" width="13.08984375" style="1" customWidth="1"/>
+    <col min="234" max="236" width="12.81640625" style="1" customWidth="1"/>
+    <col min="237" max="237" width="11.90625" style="1" customWidth="1"/>
+    <col min="238" max="238" width="12.81640625" style="1" customWidth="1"/>
+    <col min="239" max="428" width="7.81640625" style="1" customWidth="1"/>
+    <col min="429" max="429" width="5.6328125" style="1" customWidth="1"/>
+    <col min="430" max="431" width="10.90625" style="1" customWidth="1"/>
+    <col min="432" max="432" width="9.08984375" style="1" customWidth="1"/>
+    <col min="433" max="434" width="8.6328125" style="1" customWidth="1"/>
+    <col min="435" max="435" width="24" style="1" customWidth="1"/>
+    <col min="436" max="436" width="17.81640625" style="1" customWidth="1"/>
+    <col min="437" max="438" width="12.81640625" style="1" customWidth="1"/>
+    <col min="439" max="439" width="20.1796875" style="1" customWidth="1"/>
+    <col min="440" max="475" width="8.36328125" style="1"/>
+    <col min="476" max="476" width="6.453125" style="1" customWidth="1"/>
+    <col min="477" max="479" width="8.6328125" style="1" customWidth="1"/>
+    <col min="480" max="480" width="21.08984375" style="1" customWidth="1"/>
+    <col min="481" max="481" width="25.08984375" style="1" customWidth="1"/>
+    <col min="482" max="482" width="14.90625" style="1" customWidth="1"/>
+    <col min="483" max="483" width="16.90625" style="1" customWidth="1"/>
+    <col min="484" max="484" width="7.81640625" style="1" customWidth="1"/>
+    <col min="485" max="485" width="14.90625" style="1" customWidth="1"/>
+    <col min="486" max="486" width="9.1796875" style="1" customWidth="1"/>
+    <col min="487" max="487" width="11.1796875" style="1" customWidth="1"/>
+    <col min="488" max="488" width="16.1796875" style="1" customWidth="1"/>
+    <col min="489" max="489" width="13.08984375" style="1" customWidth="1"/>
+    <col min="490" max="492" width="12.81640625" style="1" customWidth="1"/>
+    <col min="493" max="493" width="11.90625" style="1" customWidth="1"/>
+    <col min="494" max="494" width="12.81640625" style="1" customWidth="1"/>
+    <col min="495" max="684" width="7.81640625" style="1" customWidth="1"/>
+    <col min="685" max="685" width="5.6328125" style="1" customWidth="1"/>
+    <col min="686" max="687" width="10.90625" style="1" customWidth="1"/>
+    <col min="688" max="688" width="9.08984375" style="1" customWidth="1"/>
+    <col min="689" max="690" width="8.6328125" style="1" customWidth="1"/>
+    <col min="691" max="691" width="24" style="1" customWidth="1"/>
+    <col min="692" max="692" width="17.81640625" style="1" customWidth="1"/>
+    <col min="693" max="694" width="12.81640625" style="1" customWidth="1"/>
+    <col min="695" max="695" width="20.1796875" style="1" customWidth="1"/>
+    <col min="696" max="731" width="8.36328125" style="1"/>
+    <col min="732" max="732" width="6.453125" style="1" customWidth="1"/>
+    <col min="733" max="735" width="8.6328125" style="1" customWidth="1"/>
+    <col min="736" max="736" width="21.08984375" style="1" customWidth="1"/>
+    <col min="737" max="737" width="25.08984375" style="1" customWidth="1"/>
+    <col min="738" max="738" width="14.90625" style="1" customWidth="1"/>
+    <col min="739" max="739" width="16.90625" style="1" customWidth="1"/>
+    <col min="740" max="740" width="7.81640625" style="1" customWidth="1"/>
+    <col min="741" max="741" width="14.90625" style="1" customWidth="1"/>
+    <col min="742" max="742" width="9.1796875" style="1" customWidth="1"/>
+    <col min="743" max="743" width="11.1796875" style="1" customWidth="1"/>
+    <col min="744" max="744" width="16.1796875" style="1" customWidth="1"/>
+    <col min="745" max="745" width="13.08984375" style="1" customWidth="1"/>
+    <col min="746" max="748" width="12.81640625" style="1" customWidth="1"/>
+    <col min="749" max="749" width="11.90625" style="1" customWidth="1"/>
+    <col min="750" max="750" width="12.81640625" style="1" customWidth="1"/>
+    <col min="751" max="940" width="7.81640625" style="1" customWidth="1"/>
+    <col min="941" max="941" width="5.6328125" style="1" customWidth="1"/>
+    <col min="942" max="943" width="10.90625" style="1" customWidth="1"/>
+    <col min="944" max="944" width="9.08984375" style="1" customWidth="1"/>
+    <col min="945" max="946" width="8.6328125" style="1" customWidth="1"/>
+    <col min="947" max="947" width="24" style="1" customWidth="1"/>
+    <col min="948" max="948" width="17.81640625" style="1" customWidth="1"/>
+    <col min="949" max="950" width="12.81640625" style="1" customWidth="1"/>
+    <col min="951" max="951" width="20.1796875" style="1" customWidth="1"/>
+    <col min="952" max="987" width="8.36328125" style="1"/>
+    <col min="988" max="988" width="6.453125" style="1" customWidth="1"/>
+    <col min="989" max="991" width="8.6328125" style="1" customWidth="1"/>
+    <col min="992" max="992" width="21.08984375" style="1" customWidth="1"/>
+    <col min="993" max="993" width="25.08984375" style="1" customWidth="1"/>
+    <col min="994" max="994" width="14.90625" style="1" customWidth="1"/>
+    <col min="995" max="995" width="16.90625" style="1" customWidth="1"/>
+    <col min="996" max="996" width="7.81640625" style="1" customWidth="1"/>
+    <col min="997" max="997" width="14.90625" style="1" customWidth="1"/>
+    <col min="998" max="998" width="9.1796875" style="1" customWidth="1"/>
+    <col min="999" max="999" width="11.1796875" style="1" customWidth="1"/>
+    <col min="1000" max="1000" width="16.1796875" style="1" customWidth="1"/>
+    <col min="1001" max="1001" width="13.08984375" style="1" customWidth="1"/>
+    <col min="1002" max="1004" width="12.81640625" style="1" customWidth="1"/>
+    <col min="1005" max="1005" width="11.90625" style="1" customWidth="1"/>
+    <col min="1006" max="1006" width="12.81640625" style="1" customWidth="1"/>
+    <col min="1007" max="1196" width="7.81640625" style="1" customWidth="1"/>
+    <col min="1197" max="1197" width="5.6328125" style="1" customWidth="1"/>
+    <col min="1198" max="1199" width="10.90625" style="1" customWidth="1"/>
+    <col min="1200" max="1200" width="9.08984375" style="1" customWidth="1"/>
+    <col min="1201" max="1202" width="8.6328125" style="1" customWidth="1"/>
+    <col min="1203" max="1203" width="24" style="1" customWidth="1"/>
+    <col min="1204" max="1204" width="17.81640625" style="1" customWidth="1"/>
+    <col min="1205" max="1206" width="12.81640625" style="1" customWidth="1"/>
+    <col min="1207" max="1207" width="20.1796875" style="1" customWidth="1"/>
+    <col min="1208" max="1243" width="8.36328125" style="1"/>
+    <col min="1244" max="1244" width="6.453125" style="1" customWidth="1"/>
+    <col min="1245" max="1247" width="8.6328125" style="1" customWidth="1"/>
+    <col min="1248" max="1248" width="21.08984375" style="1" customWidth="1"/>
+    <col min="1249" max="1249" width="25.08984375" style="1" customWidth="1"/>
+    <col min="1250" max="1250" width="14.90625" style="1" customWidth="1"/>
+    <col min="1251" max="1251" width="16.90625" style="1" customWidth="1"/>
+    <col min="1252" max="1252" width="7.81640625" style="1" customWidth="1"/>
+    <col min="1253" max="1253" width="14.90625" style="1" customWidth="1"/>
+    <col min="1254" max="1254" width="9.1796875" style="1" customWidth="1"/>
+    <col min="1255" max="1255" width="11.1796875" style="1" customWidth="1"/>
+    <col min="1256" max="1256" width="16.1796875" style="1" customWidth="1"/>
+    <col min="1257" max="1257" width="13.08984375" style="1" customWidth="1"/>
+    <col min="1258" max="1260" width="12.81640625" style="1" customWidth="1"/>
+    <col min="1261" max="1261" width="11.90625" style="1" customWidth="1"/>
+    <col min="1262" max="1262" width="12.81640625" style="1" customWidth="1"/>
+    <col min="1263" max="1452" width="7.81640625" style="1" customWidth="1"/>
+    <col min="1453" max="1453" width="5.6328125" style="1" customWidth="1"/>
+    <col min="1454" max="1455" width="10.90625" style="1" customWidth="1"/>
+    <col min="1456" max="1456" width="9.08984375" style="1" customWidth="1"/>
+    <col min="1457" max="1458" width="8.6328125" style="1" customWidth="1"/>
+    <col min="1459" max="1459" width="24" style="1" customWidth="1"/>
+    <col min="1460" max="1460" width="17.81640625" style="1" customWidth="1"/>
+    <col min="1461" max="1462" width="12.81640625" style="1" customWidth="1"/>
+    <col min="1463" max="1463" width="20.1796875" style="1" customWidth="1"/>
+    <col min="1464" max="1499" width="8.36328125" style="1"/>
+    <col min="1500" max="1500" width="6.453125" style="1" customWidth="1"/>
+    <col min="1501" max="1503" width="8.6328125" style="1" customWidth="1"/>
+    <col min="1504" max="1504" width="21.08984375" style="1" customWidth="1"/>
+    <col min="1505" max="1505" width="25.08984375" style="1" customWidth="1"/>
+    <col min="1506" max="1506" width="14.90625" style="1" customWidth="1"/>
+    <col min="1507" max="1507" width="16.90625" style="1" customWidth="1"/>
+    <col min="1508" max="1508" width="7.81640625" style="1" customWidth="1"/>
+    <col min="1509" max="1509" width="14.90625" style="1" customWidth="1"/>
+    <col min="1510" max="1510" width="9.1796875" style="1" customWidth="1"/>
+    <col min="1511" max="1511" width="11.1796875" style="1" customWidth="1"/>
+    <col min="1512" max="1512" width="16.1796875" style="1" customWidth="1"/>
+    <col min="1513" max="1513" width="13.08984375" style="1" customWidth="1"/>
+    <col min="1514" max="1516" width="12.81640625" style="1" customWidth="1"/>
+    <col min="1517" max="1517" width="11.90625" style="1" customWidth="1"/>
+    <col min="1518" max="1518" width="12.81640625" style="1" customWidth="1"/>
+    <col min="1519" max="1708" width="7.81640625" style="1" customWidth="1"/>
+    <col min="1709" max="1709" width="5.6328125" style="1" customWidth="1"/>
+    <col min="1710" max="1711" width="10.90625" style="1" customWidth="1"/>
+    <col min="1712" max="1712" width="9.08984375" style="1" customWidth="1"/>
+    <col min="1713" max="1714" width="8.6328125" style="1" customWidth="1"/>
+    <col min="1715" max="1715" width="24" style="1" customWidth="1"/>
+    <col min="1716" max="1716" width="17.81640625" style="1" customWidth="1"/>
+    <col min="1717" max="1718" width="12.81640625" style="1" customWidth="1"/>
+    <col min="1719" max="1719" width="20.1796875" style="1" customWidth="1"/>
+    <col min="1720" max="1755" width="8.36328125" style="1"/>
+    <col min="1756" max="1756" width="6.453125" style="1" customWidth="1"/>
+    <col min="1757" max="1759" width="8.6328125" style="1" customWidth="1"/>
+    <col min="1760" max="1760" width="21.08984375" style="1" customWidth="1"/>
+    <col min="1761" max="1761" width="25.08984375" style="1" customWidth="1"/>
+    <col min="1762" max="1762" width="14.90625" style="1" customWidth="1"/>
+    <col min="1763" max="1763" width="16.90625" style="1" customWidth="1"/>
+    <col min="1764" max="1764" width="7.81640625" style="1" customWidth="1"/>
+    <col min="1765" max="1765" width="14.90625" style="1" customWidth="1"/>
+    <col min="1766" max="1766" width="9.1796875" style="1" customWidth="1"/>
+    <col min="1767" max="1767" width="11.1796875" style="1" customWidth="1"/>
+    <col min="1768" max="1768" width="16.1796875" style="1" customWidth="1"/>
+    <col min="1769" max="1769" width="13.08984375" style="1" customWidth="1"/>
+    <col min="1770" max="1772" width="12.81640625" style="1" customWidth="1"/>
+    <col min="1773" max="1773" width="11.90625" style="1" customWidth="1"/>
+    <col min="1774" max="1774" width="12.81640625" style="1" customWidth="1"/>
+    <col min="1775" max="1964" width="7.81640625" style="1" customWidth="1"/>
+    <col min="1965" max="1965" width="5.6328125" style="1" customWidth="1"/>
+    <col min="1966" max="1967" width="10.90625" style="1" customWidth="1"/>
+    <col min="1968" max="1968" width="9.08984375" style="1" customWidth="1"/>
+    <col min="1969" max="1970" width="8.6328125" style="1" customWidth="1"/>
+    <col min="1971" max="1971" width="24" style="1" customWidth="1"/>
+    <col min="1972" max="1972" width="17.81640625" style="1" customWidth="1"/>
+    <col min="1973" max="1974" width="12.81640625" style="1" customWidth="1"/>
+    <col min="1975" max="1975" width="20.1796875" style="1" customWidth="1"/>
+    <col min="1976" max="2011" width="8.36328125" style="1"/>
+    <col min="2012" max="2012" width="6.453125" style="1" customWidth="1"/>
+    <col min="2013" max="2015" width="8.6328125" style="1" customWidth="1"/>
+    <col min="2016" max="2016" width="21.08984375" style="1" customWidth="1"/>
+    <col min="2017" max="2017" width="25.08984375" style="1" customWidth="1"/>
+    <col min="2018" max="2018" width="14.90625" style="1" customWidth="1"/>
+    <col min="2019" max="2019" width="16.90625" style="1" customWidth="1"/>
+    <col min="2020" max="2020" width="7.81640625" style="1" customWidth="1"/>
+    <col min="2021" max="2021" width="14.90625" style="1" customWidth="1"/>
+    <col min="2022" max="2022" width="9.1796875" style="1" customWidth="1"/>
+    <col min="2023" max="2023" width="11.1796875" style="1" customWidth="1"/>
+    <col min="2024" max="2024" width="16.1796875" style="1" customWidth="1"/>
+    <col min="2025" max="2025" width="13.08984375" style="1" customWidth="1"/>
+    <col min="2026" max="2028" width="12.81640625" style="1" customWidth="1"/>
+    <col min="2029" max="2029" width="11.90625" style="1" customWidth="1"/>
+    <col min="2030" max="2030" width="12.81640625" style="1" customWidth="1"/>
+    <col min="2031" max="2220" width="7.81640625" style="1" customWidth="1"/>
+    <col min="2221" max="2221" width="5.6328125" style="1" customWidth="1"/>
+    <col min="2222" max="2223" width="10.90625" style="1" customWidth="1"/>
+    <col min="2224" max="2224" width="9.08984375" style="1" customWidth="1"/>
+    <col min="2225" max="2226" width="8.6328125" style="1" customWidth="1"/>
+    <col min="2227" max="2227" width="24" style="1" customWidth="1"/>
+    <col min="2228" max="2228" width="17.81640625" style="1" customWidth="1"/>
+    <col min="2229" max="2230" width="12.81640625" style="1" customWidth="1"/>
+    <col min="2231" max="2231" width="20.1796875" style="1" customWidth="1"/>
+    <col min="2232" max="2267" width="8.36328125" style="1"/>
+    <col min="2268" max="2268" width="6.453125" style="1" customWidth="1"/>
+    <col min="2269" max="2271" width="8.6328125" style="1" customWidth="1"/>
+    <col min="2272" max="2272" width="21.08984375" style="1" customWidth="1"/>
+    <col min="2273" max="2273" width="25.08984375" style="1" customWidth="1"/>
+    <col min="2274" max="2274" width="14.90625" style="1" customWidth="1"/>
+    <col min="2275" max="2275" width="16.90625" style="1" customWidth="1"/>
+    <col min="2276" max="2276" width="7.81640625" style="1" customWidth="1"/>
+    <col min="2277" max="2277" width="14.90625" style="1" customWidth="1"/>
+    <col min="2278" max="2278" width="9.1796875" style="1" customWidth="1"/>
+    <col min="2279" max="2279" width="11.1796875" style="1" customWidth="1"/>
+    <col min="2280" max="2280" width="16.1796875" style="1" customWidth="1"/>
+    <col min="2281" max="2281" width="13.08984375" style="1" customWidth="1"/>
+    <col min="2282" max="2284" width="12.81640625" style="1" customWidth="1"/>
+    <col min="2285" max="2285" width="11.90625" style="1" customWidth="1"/>
+    <col min="2286" max="2286" width="12.81640625" style="1" customWidth="1"/>
+    <col min="2287" max="2476" width="7.81640625" style="1" customWidth="1"/>
+    <col min="2477" max="2477" width="5.6328125" style="1" customWidth="1"/>
+    <col min="2478" max="2479" width="10.90625" style="1" customWidth="1"/>
+    <col min="2480" max="2480" width="9.08984375" style="1" customWidth="1"/>
+    <col min="2481" max="2482" width="8.6328125" style="1" customWidth="1"/>
+    <col min="2483" max="2483" width="24" style="1" customWidth="1"/>
+    <col min="2484" max="2484" width="17.81640625" style="1" customWidth="1"/>
+    <col min="2485" max="2486" width="12.81640625" style="1" customWidth="1"/>
+    <col min="2487" max="2487" width="20.1796875" style="1" customWidth="1"/>
+    <col min="2488" max="2523" width="8.36328125" style="1"/>
+    <col min="2524" max="2524" width="6.453125" style="1" customWidth="1"/>
+    <col min="2525" max="2527" width="8.6328125" style="1" customWidth="1"/>
+    <col min="2528" max="2528" width="21.08984375" style="1" customWidth="1"/>
+    <col min="2529" max="2529" width="25.08984375" style="1" customWidth="1"/>
+    <col min="2530" max="2530" width="14.90625" style="1" customWidth="1"/>
+    <col min="2531" max="2531" width="16.90625" style="1" customWidth="1"/>
+    <col min="2532" max="2532" width="7.81640625" style="1" customWidth="1"/>
+    <col min="2533" max="2533" width="14.90625" style="1" customWidth="1"/>
+    <col min="2534" max="2534" width="9.1796875" style="1" customWidth="1"/>
+    <col min="2535" max="2535" width="11.1796875" style="1" customWidth="1"/>
+    <col min="2536" max="2536" width="16.1796875" style="1" customWidth="1"/>
+    <col min="2537" max="2537" width="13.08984375" style="1" customWidth="1"/>
+    <col min="2538" max="2540" width="12.81640625" style="1" customWidth="1"/>
+    <col min="2541" max="2541" width="11.90625" style="1" customWidth="1"/>
+    <col min="2542" max="2542" width="12.81640625" style="1" customWidth="1"/>
+    <col min="2543" max="2732" width="7.81640625" style="1" customWidth="1"/>
+    <col min="2733" max="2733" width="5.6328125" style="1" customWidth="1"/>
+    <col min="2734" max="2735" width="10.90625" style="1" customWidth="1"/>
+    <col min="2736" max="2736" width="9.08984375" style="1" customWidth="1"/>
+    <col min="2737" max="2738" width="8.6328125" style="1" customWidth="1"/>
+    <col min="2739" max="2739" width="24" style="1" customWidth="1"/>
+    <col min="2740" max="2740" width="17.81640625" style="1" customWidth="1"/>
+    <col min="2741" max="2742" width="12.81640625" style="1" customWidth="1"/>
+    <col min="2743" max="2743" width="20.1796875" style="1" customWidth="1"/>
+    <col min="2744" max="2779" width="8.36328125" style="1"/>
+    <col min="2780" max="2780" width="6.453125" style="1" customWidth="1"/>
+    <col min="2781" max="2783" width="8.6328125" style="1" customWidth="1"/>
+    <col min="2784" max="2784" width="21.08984375" style="1" customWidth="1"/>
+    <col min="2785" max="2785" width="25.08984375" style="1" customWidth="1"/>
+    <col min="2786" max="2786" width="14.90625" style="1" customWidth="1"/>
+    <col min="2787" max="2787" width="16.90625" style="1" customWidth="1"/>
+    <col min="2788" max="2788" width="7.81640625" style="1" customWidth="1"/>
+    <col min="2789" max="2789" width="14.90625" style="1" customWidth="1"/>
+    <col min="2790" max="2790" width="9.1796875" style="1" customWidth="1"/>
+    <col min="2791" max="2791" width="11.1796875" style="1" customWidth="1"/>
+    <col min="2792" max="2792" width="16.1796875" style="1" customWidth="1"/>
+    <col min="2793" max="2793" width="13.08984375" style="1" customWidth="1"/>
+    <col min="2794" max="2796" width="12.81640625" style="1" customWidth="1"/>
+    <col min="2797" max="2797" width="11.90625" style="1" customWidth="1"/>
+    <col min="2798" max="2798" width="12.81640625" style="1" customWidth="1"/>
+    <col min="2799" max="2988" width="7.81640625" style="1" customWidth="1"/>
+    <col min="2989" max="2989" width="5.6328125" style="1" customWidth="1"/>
+    <col min="2990" max="2991" width="10.90625" style="1" customWidth="1"/>
+    <col min="2992" max="2992" width="9.08984375" style="1" customWidth="1"/>
+    <col min="2993" max="2994" width="8.6328125" style="1" customWidth="1"/>
+    <col min="2995" max="2995" width="24" style="1" customWidth="1"/>
+    <col min="2996" max="2996" width="17.81640625" style="1" customWidth="1"/>
+    <col min="2997" max="2998" width="12.81640625" style="1" customWidth="1"/>
+    <col min="2999" max="2999" width="20.1796875" style="1" customWidth="1"/>
+    <col min="3000" max="3035" width="8.36328125" style="1"/>
+    <col min="3036" max="3036" width="6.453125" style="1" customWidth="1"/>
+    <col min="3037" max="3039" width="8.6328125" style="1" customWidth="1"/>
+    <col min="3040" max="3040" width="21.08984375" style="1" customWidth="1"/>
+    <col min="3041" max="3041" width="25.08984375" style="1" customWidth="1"/>
+    <col min="3042" max="3042" width="14.90625" style="1" customWidth="1"/>
+    <col min="3043" max="3043" width="16.90625" style="1" customWidth="1"/>
+    <col min="3044" max="3044" width="7.81640625" style="1" customWidth="1"/>
+    <col min="3045" max="3045" width="14.90625" style="1" customWidth="1"/>
+    <col min="3046" max="3046" width="9.1796875" style="1" customWidth="1"/>
+    <col min="3047" max="3047" width="11.1796875" style="1" customWidth="1"/>
+    <col min="3048" max="3048" width="16.1796875" style="1" customWidth="1"/>
+    <col min="3049" max="3049" width="13.08984375" style="1" customWidth="1"/>
+    <col min="3050" max="3052" width="12.81640625" style="1" customWidth="1"/>
+    <col min="3053" max="3053" width="11.90625" style="1" customWidth="1"/>
+    <col min="3054" max="3054" width="12.81640625" style="1" customWidth="1"/>
+    <col min="3055" max="3244" width="7.81640625" style="1" customWidth="1"/>
+    <col min="3245" max="3245" width="5.6328125" style="1" customWidth="1"/>
+    <col min="3246" max="3247" width="10.90625" style="1" customWidth="1"/>
+    <col min="3248" max="3248" width="9.08984375" style="1" customWidth="1"/>
+    <col min="3249" max="3250" width="8.6328125" style="1" customWidth="1"/>
+    <col min="3251" max="3251" width="24" style="1" customWidth="1"/>
+    <col min="3252" max="3252" width="17.81640625" style="1" customWidth="1"/>
+    <col min="3253" max="3254" width="12.81640625" style="1" customWidth="1"/>
+    <col min="3255" max="3255" width="20.1796875" style="1" customWidth="1"/>
+    <col min="3256" max="3291" width="8.36328125" style="1"/>
+    <col min="3292" max="3292" width="6.453125" style="1" customWidth="1"/>
+    <col min="3293" max="3295" width="8.6328125" style="1" customWidth="1"/>
+    <col min="3296" max="3296" width="21.08984375" style="1" customWidth="1"/>
+    <col min="3297" max="3297" width="25.08984375" style="1" customWidth="1"/>
+    <col min="3298" max="3298" width="14.90625" style="1" customWidth="1"/>
+    <col min="3299" max="3299" width="16.90625" style="1" customWidth="1"/>
+    <col min="3300" max="3300" width="7.81640625" style="1" customWidth="1"/>
+    <col min="3301" max="3301" width="14.90625" style="1" customWidth="1"/>
+    <col min="3302" max="3302" width="9.1796875" style="1" customWidth="1"/>
+    <col min="3303" max="3303" width="11.1796875" style="1" customWidth="1"/>
+    <col min="3304" max="3304" width="16.1796875" style="1" customWidth="1"/>
+    <col min="3305" max="3305" width="13.08984375" style="1" customWidth="1"/>
+    <col min="3306" max="3308" width="12.81640625" style="1" customWidth="1"/>
+    <col min="3309" max="3309" width="11.90625" style="1" customWidth="1"/>
+    <col min="3310" max="3310" width="12.81640625" style="1" customWidth="1"/>
+    <col min="3311" max="3500" width="7.81640625" style="1" customWidth="1"/>
+    <col min="3501" max="3501" width="5.6328125" style="1" customWidth="1"/>
+    <col min="3502" max="3503" width="10.90625" style="1" customWidth="1"/>
+    <col min="3504" max="3504" width="9.08984375" style="1" customWidth="1"/>
+    <col min="3505" max="3506" width="8.6328125" style="1" customWidth="1"/>
+    <col min="3507" max="3507" width="24" style="1" customWidth="1"/>
+    <col min="3508" max="3508" width="17.81640625" style="1" customWidth="1"/>
+    <col min="3509" max="3510" width="12.81640625" style="1" customWidth="1"/>
+    <col min="3511" max="3511" width="20.1796875" style="1" customWidth="1"/>
+    <col min="3512" max="3547" width="8.36328125" style="1"/>
+    <col min="3548" max="3548" width="6.453125" style="1" customWidth="1"/>
+    <col min="3549" max="3551" width="8.6328125" style="1" customWidth="1"/>
+    <col min="3552" max="3552" width="21.08984375" style="1" customWidth="1"/>
+    <col min="3553" max="3553" width="25.08984375" style="1" customWidth="1"/>
+    <col min="3554" max="3554" width="14.90625" style="1" customWidth="1"/>
+    <col min="3555" max="3555" width="16.90625" style="1" customWidth="1"/>
+    <col min="3556" max="3556" width="7.81640625" style="1" customWidth="1"/>
+    <col min="3557" max="3557" width="14.90625" style="1" customWidth="1"/>
+    <col min="3558" max="3558" width="9.1796875" style="1" customWidth="1"/>
+    <col min="3559" max="3559" width="11.1796875" style="1" customWidth="1"/>
+    <col min="3560" max="3560" width="16.1796875" style="1" customWidth="1"/>
+    <col min="3561" max="3561" width="13.08984375" style="1" customWidth="1"/>
+    <col min="3562" max="3564" width="12.81640625" style="1" customWidth="1"/>
+    <col min="3565" max="3565" width="11.90625" style="1" customWidth="1"/>
+    <col min="3566" max="3566" width="12.81640625" style="1" customWidth="1"/>
+    <col min="3567" max="3756" width="7.81640625" style="1" customWidth="1"/>
+    <col min="3757" max="3757" width="5.6328125" style="1" customWidth="1"/>
+    <col min="3758" max="3759" width="10.90625" style="1" customWidth="1"/>
+    <col min="3760" max="3760" width="9.08984375" style="1" customWidth="1"/>
+    <col min="3761" max="3762" width="8.6328125" style="1" customWidth="1"/>
+    <col min="3763" max="3763" width="24" style="1" customWidth="1"/>
+    <col min="3764" max="3764" width="17.81640625" style="1" customWidth="1"/>
+    <col min="3765" max="3766" width="12.81640625" style="1" customWidth="1"/>
+    <col min="3767" max="3767" width="20.1796875" style="1" customWidth="1"/>
+    <col min="3768" max="3803" width="8.36328125" style="1"/>
+    <col min="3804" max="3804" width="6.453125" style="1" customWidth="1"/>
+    <col min="3805" max="3807" width="8.6328125" style="1" customWidth="1"/>
+    <col min="3808" max="3808" width="21.08984375" style="1" customWidth="1"/>
+    <col min="3809" max="3809" width="25.08984375" style="1" customWidth="1"/>
+    <col min="3810" max="3810" width="14.90625" style="1" customWidth="1"/>
+    <col min="3811" max="3811" width="16.90625" style="1" customWidth="1"/>
+    <col min="3812" max="3812" width="7.81640625" style="1" customWidth="1"/>
+    <col min="3813" max="3813" width="14.90625" style="1" customWidth="1"/>
+    <col min="3814" max="3814" width="9.1796875" style="1" customWidth="1"/>
+    <col min="3815" max="3815" width="11.1796875" style="1" customWidth="1"/>
+    <col min="3816" max="3816" width="16.1796875" style="1" customWidth="1"/>
+    <col min="3817" max="3817" width="13.08984375" style="1" customWidth="1"/>
+    <col min="3818" max="3820" width="12.81640625" style="1" customWidth="1"/>
+    <col min="3821" max="3821" width="11.90625" style="1" customWidth="1"/>
+    <col min="3822" max="3822" width="12.81640625" style="1" customWidth="1"/>
+    <col min="3823" max="4012" width="7.81640625" style="1" customWidth="1"/>
+    <col min="4013" max="4013" width="5.6328125" style="1" customWidth="1"/>
+    <col min="4014" max="4015" width="10.90625" style="1" customWidth="1"/>
+    <col min="4016" max="4016" width="9.08984375" style="1" customWidth="1"/>
+    <col min="4017" max="4018" width="8.6328125" style="1" customWidth="1"/>
+    <col min="4019" max="4019" width="24" style="1" customWidth="1"/>
+    <col min="4020" max="4020" width="17.81640625" style="1" customWidth="1"/>
+    <col min="4021" max="4022" width="12.81640625" style="1" customWidth="1"/>
+    <col min="4023" max="4023" width="20.1796875" style="1" customWidth="1"/>
+    <col min="4024" max="4059" width="8.36328125" style="1"/>
+    <col min="4060" max="4060" width="6.453125" style="1" customWidth="1"/>
+    <col min="4061" max="4063" width="8.6328125" style="1" customWidth="1"/>
+    <col min="4064" max="4064" width="21.08984375" style="1" customWidth="1"/>
+    <col min="4065" max="4065" width="25.08984375" style="1" customWidth="1"/>
+    <col min="4066" max="4066" width="14.90625" style="1" customWidth="1"/>
+    <col min="4067" max="4067" width="16.90625" style="1" customWidth="1"/>
+    <col min="4068" max="4068" width="7.81640625" style="1" customWidth="1"/>
+    <col min="4069" max="4069" width="14.90625" style="1" customWidth="1"/>
+    <col min="4070" max="4070" width="9.1796875" style="1" customWidth="1"/>
+    <col min="4071" max="4071" width="11.1796875" style="1" customWidth="1"/>
+    <col min="4072" max="4072" width="16.1796875" style="1" customWidth="1"/>
+    <col min="4073" max="4073" width="13.08984375" style="1" customWidth="1"/>
+    <col min="4074" max="4076" width="12.81640625" style="1" customWidth="1"/>
+    <col min="4077" max="4077" width="11.90625" style="1" customWidth="1"/>
+    <col min="4078" max="4078" width="12.81640625" style="1" customWidth="1"/>
+    <col min="4079" max="4268" width="7.81640625" style="1" customWidth="1"/>
+    <col min="4269" max="4269" width="5.6328125" style="1" customWidth="1"/>
+    <col min="4270" max="4271" width="10.90625" style="1" customWidth="1"/>
+    <col min="4272" max="4272" width="9.08984375" style="1" customWidth="1"/>
+    <col min="4273" max="4274" width="8.6328125" style="1" customWidth="1"/>
+    <col min="4275" max="4275" width="24" style="1" customWidth="1"/>
+    <col min="4276" max="4276" width="17.81640625" style="1" customWidth="1"/>
+    <col min="4277" max="4278" width="12.81640625" style="1" customWidth="1"/>
+    <col min="4279" max="4279" width="20.1796875" style="1" customWidth="1"/>
+    <col min="4280" max="4315" width="8.36328125" style="1"/>
+    <col min="4316" max="4316" width="6.453125" style="1" customWidth="1"/>
+    <col min="4317" max="4319" width="8.6328125" style="1" customWidth="1"/>
+    <col min="4320" max="4320" width="21.08984375" style="1" customWidth="1"/>
+    <col min="4321" max="4321" width="25.08984375" style="1" customWidth="1"/>
+    <col min="4322" max="4322" width="14.90625" style="1" customWidth="1"/>
+    <col min="4323" max="4323" width="16.90625" style="1" customWidth="1"/>
+    <col min="4324" max="4324" width="7.81640625" style="1" customWidth="1"/>
+    <col min="4325" max="4325" width="14.90625" style="1" customWidth="1"/>
+    <col min="4326" max="4326" width="9.1796875" style="1" customWidth="1"/>
+    <col min="4327" max="4327" width="11.1796875" style="1" customWidth="1"/>
+    <col min="4328" max="4328" width="16.1796875" style="1" customWidth="1"/>
+    <col min="4329" max="4329" width="13.08984375" style="1" customWidth="1"/>
+    <col min="4330" max="4332" width="12.81640625" style="1" customWidth="1"/>
+    <col min="4333" max="4333" width="11.90625" style="1" customWidth="1"/>
+    <col min="4334" max="4334" width="12.81640625" style="1" customWidth="1"/>
+    <col min="4335" max="4524" width="7.81640625" style="1" customWidth="1"/>
+    <col min="4525" max="4525" width="5.6328125" style="1" customWidth="1"/>
+    <col min="4526" max="4527" width="10.90625" style="1" customWidth="1"/>
+    <col min="4528" max="4528" width="9.08984375" style="1" customWidth="1"/>
+    <col min="4529" max="4530" width="8.6328125" style="1" customWidth="1"/>
+    <col min="4531" max="4531" width="24" style="1" customWidth="1"/>
+    <col min="4532" max="4532" width="17.81640625" style="1" customWidth="1"/>
+    <col min="4533" max="4534" width="12.81640625" style="1" customWidth="1"/>
+    <col min="4535" max="4535" width="20.1796875" style="1" customWidth="1"/>
+    <col min="4536" max="4571" width="8.36328125" style="1"/>
+    <col min="4572" max="4572" width="6.453125" style="1" customWidth="1"/>
+    <col min="4573" max="4575" width="8.6328125" style="1" customWidth="1"/>
+    <col min="4576" max="4576" width="21.08984375" style="1" customWidth="1"/>
+    <col min="4577" max="4577" width="25.08984375" style="1" customWidth="1"/>
+    <col min="4578" max="4578" width="14.90625" style="1" customWidth="1"/>
+    <col min="4579" max="4579" width="16.90625" style="1" customWidth="1"/>
+    <col min="4580" max="4580" width="7.81640625" style="1" customWidth="1"/>
+    <col min="4581" max="4581" width="14.90625" style="1" customWidth="1"/>
+    <col min="4582" max="4582" width="9.1796875" style="1" customWidth="1"/>
+    <col min="4583" max="4583" width="11.1796875" style="1" customWidth="1"/>
+    <col min="4584" max="4584" width="16.1796875" style="1" customWidth="1"/>
+    <col min="4585" max="4585" width="13.08984375" style="1" customWidth="1"/>
+    <col min="4586" max="4588" width="12.81640625" style="1" customWidth="1"/>
+    <col min="4589" max="4589" width="11.90625" style="1" customWidth="1"/>
+    <col min="4590" max="4590" width="12.81640625" style="1" customWidth="1"/>
+    <col min="4591" max="4780" width="7.81640625" style="1" customWidth="1"/>
+    <col min="4781" max="4781" width="5.6328125" style="1" customWidth="1"/>
+    <col min="4782" max="4783" width="10.90625" style="1" customWidth="1"/>
+    <col min="4784" max="4784" width="9.08984375" style="1" customWidth="1"/>
+    <col min="4785" max="4786" width="8.6328125" style="1" customWidth="1"/>
+    <col min="4787" max="4787" width="24" style="1" customWidth="1"/>
+    <col min="4788" max="4788" width="17.81640625" style="1" customWidth="1"/>
+    <col min="4789" max="4790" width="12.81640625" style="1" customWidth="1"/>
+    <col min="4791" max="4791" width="20.1796875" style="1" customWidth="1"/>
+    <col min="4792" max="4827" width="8.36328125" style="1"/>
+    <col min="4828" max="4828" width="6.453125" style="1" customWidth="1"/>
+    <col min="4829" max="4831" width="8.6328125" style="1" customWidth="1"/>
+    <col min="4832" max="4832" width="21.08984375" style="1" customWidth="1"/>
+    <col min="4833" max="4833" width="25.08984375" style="1" customWidth="1"/>
+    <col min="4834" max="4834" width="14.90625" style="1" customWidth="1"/>
+    <col min="4835" max="4835" width="16.90625" style="1" customWidth="1"/>
+    <col min="4836" max="4836" width="7.81640625" style="1" customWidth="1"/>
+    <col min="4837" max="4837" width="14.90625" style="1" customWidth="1"/>
+    <col min="4838" max="4838" width="9.1796875" style="1" customWidth="1"/>
+    <col min="4839" max="4839" width="11.1796875" style="1" customWidth="1"/>
+    <col min="4840" max="4840" width="16.1796875" style="1" customWidth="1"/>
+    <col min="4841" max="4841" width="13.08984375" style="1" customWidth="1"/>
+    <col min="4842" max="4844" width="12.81640625" style="1" customWidth="1"/>
+    <col min="4845" max="4845" width="11.90625" style="1" customWidth="1"/>
+    <col min="4846" max="4846" width="12.81640625" style="1" customWidth="1"/>
+    <col min="4847" max="5036" width="7.81640625" style="1" customWidth="1"/>
+    <col min="5037" max="5037" width="5.6328125" style="1" customWidth="1"/>
+    <col min="5038" max="5039" width="10.90625" style="1" customWidth="1"/>
+    <col min="5040" max="5040" width="9.08984375" style="1" customWidth="1"/>
+    <col min="5041" max="5042" width="8.6328125" style="1" customWidth="1"/>
+    <col min="5043" max="5043" width="24" style="1" customWidth="1"/>
+    <col min="5044" max="5044" width="17.81640625" style="1" customWidth="1"/>
+    <col min="5045" max="5046" width="12.81640625" style="1" customWidth="1"/>
+    <col min="5047" max="5047" width="20.1796875" style="1" customWidth="1"/>
+    <col min="5048" max="5083" width="8.36328125" style="1"/>
+    <col min="5084" max="5084" width="6.453125" style="1" customWidth="1"/>
+    <col min="5085" max="5087" width="8.6328125" style="1" customWidth="1"/>
+    <col min="5088" max="5088" width="21.08984375" style="1" customWidth="1"/>
+    <col min="5089" max="5089" width="25.08984375" style="1" customWidth="1"/>
+    <col min="5090" max="5090" width="14.90625" style="1" customWidth="1"/>
+    <col min="5091" max="5091" width="16.90625" style="1" customWidth="1"/>
+    <col min="5092" max="5092" width="7.81640625" style="1" customWidth="1"/>
+    <col min="5093" max="5093" width="14.90625" style="1" customWidth="1"/>
+    <col min="5094" max="5094" width="9.1796875" style="1" customWidth="1"/>
+    <col min="5095" max="5095" width="11.1796875" style="1" customWidth="1"/>
+    <col min="5096" max="5096" width="16.1796875" style="1" customWidth="1"/>
+    <col min="5097" max="5097" width="13.08984375" style="1" customWidth="1"/>
+    <col min="5098" max="5100" width="12.81640625" style="1" customWidth="1"/>
+    <col min="5101" max="5101" width="11.90625" style="1" customWidth="1"/>
+    <col min="5102" max="5102" width="12.81640625" style="1" customWidth="1"/>
+    <col min="5103" max="5292" width="7.81640625" style="1" customWidth="1"/>
+    <col min="5293" max="5293" width="5.6328125" style="1" customWidth="1"/>
+    <col min="5294" max="5295" width="10.90625" style="1" customWidth="1"/>
+    <col min="5296" max="5296" width="9.08984375" style="1" customWidth="1"/>
+    <col min="5297" max="5298" width="8.6328125" style="1" customWidth="1"/>
+    <col min="5299" max="5299" width="24" style="1" customWidth="1"/>
+    <col min="5300" max="5300" width="17.81640625" style="1" customWidth="1"/>
+    <col min="5301" max="5302" width="12.81640625" style="1" customWidth="1"/>
+    <col min="5303" max="5303" width="20.1796875" style="1" customWidth="1"/>
+    <col min="5304" max="5339" width="8.36328125" style="1"/>
+    <col min="5340" max="5340" width="6.453125" style="1" customWidth="1"/>
+    <col min="5341" max="5343" width="8.6328125" style="1" customWidth="1"/>
+    <col min="5344" max="5344" width="21.08984375" style="1" customWidth="1"/>
+    <col min="5345" max="5345" width="25.08984375" style="1" customWidth="1"/>
+    <col min="5346" max="5346" width="14.90625" style="1" customWidth="1"/>
+    <col min="5347" max="5347" width="16.90625" style="1" customWidth="1"/>
+    <col min="5348" max="5348" width="7.81640625" style="1" customWidth="1"/>
+    <col min="5349" max="5349" width="14.90625" style="1" customWidth="1"/>
+    <col min="5350" max="5350" width="9.1796875" style="1" customWidth="1"/>
+    <col min="5351" max="5351" width="11.1796875" style="1" customWidth="1"/>
+    <col min="5352" max="5352" width="16.1796875" style="1" customWidth="1"/>
+    <col min="5353" max="5353" width="13.08984375" style="1" customWidth="1"/>
+    <col min="5354" max="5356" width="12.81640625" style="1" customWidth="1"/>
+    <col min="5357" max="5357" width="11.90625" style="1" customWidth="1"/>
+    <col min="5358" max="5358" width="12.81640625" style="1" customWidth="1"/>
+    <col min="5359" max="5548" width="7.81640625" style="1" customWidth="1"/>
+    <col min="5549" max="5549" width="5.6328125" style="1" customWidth="1"/>
+    <col min="5550" max="5551" width="10.90625" style="1" customWidth="1"/>
+    <col min="5552" max="5552" width="9.08984375" style="1" customWidth="1"/>
+    <col min="5553" max="5554" width="8.6328125" style="1" customWidth="1"/>
+    <col min="5555" max="5555" width="24" style="1" customWidth="1"/>
+    <col min="5556" max="5556" width="17.81640625" style="1" customWidth="1"/>
+    <col min="5557" max="5558" width="12.81640625" style="1" customWidth="1"/>
+    <col min="5559" max="5559" width="20.1796875" style="1" customWidth="1"/>
+    <col min="5560" max="5595" width="8.36328125" style="1"/>
+    <col min="5596" max="5596" width="6.453125" style="1" customWidth="1"/>
+    <col min="5597" max="5599" width="8.6328125" style="1" customWidth="1"/>
+    <col min="5600" max="5600" width="21.08984375" style="1" customWidth="1"/>
+    <col min="5601" max="5601" width="25.08984375" style="1" customWidth="1"/>
+    <col min="5602" max="5602" width="14.90625" style="1" customWidth="1"/>
+    <col min="5603" max="5603" width="16.90625" style="1" customWidth="1"/>
+    <col min="5604" max="5604" width="7.81640625" style="1" customWidth="1"/>
+    <col min="5605" max="5605" width="14.90625" style="1" customWidth="1"/>
+    <col min="5606" max="5606" width="9.1796875" style="1" customWidth="1"/>
+    <col min="5607" max="5607" width="11.1796875" style="1" customWidth="1"/>
+    <col min="5608" max="5608" width="16.1796875" style="1" customWidth="1"/>
+    <col min="5609" max="5609" width="13.08984375" style="1" customWidth="1"/>
+    <col min="5610" max="5612" width="12.81640625" style="1" customWidth="1"/>
+    <col min="5613" max="5613" width="11.90625" style="1" customWidth="1"/>
+    <col min="5614" max="5614" width="12.81640625" style="1" customWidth="1"/>
+    <col min="5615" max="5804" width="7.81640625" style="1" customWidth="1"/>
+    <col min="5805" max="5805" width="5.6328125" style="1" customWidth="1"/>
+    <col min="5806" max="5807" width="10.90625" style="1" customWidth="1"/>
+    <col min="5808" max="5808" width="9.08984375" style="1" customWidth="1"/>
+    <col min="5809" max="5810" width="8.6328125" style="1" customWidth="1"/>
+    <col min="5811" max="5811" width="24" style="1" customWidth="1"/>
+    <col min="5812" max="5812" width="17.81640625" style="1" customWidth="1"/>
+    <col min="5813" max="5814" width="12.81640625" style="1" customWidth="1"/>
+    <col min="5815" max="5815" width="20.1796875" style="1" customWidth="1"/>
+    <col min="5816" max="5851" width="8.36328125" style="1"/>
+    <col min="5852" max="5852" width="6.453125" style="1" customWidth="1"/>
+    <col min="5853" max="5855" width="8.6328125" style="1" customWidth="1"/>
+    <col min="5856" max="5856" width="21.08984375" style="1" customWidth="1"/>
+    <col min="5857" max="5857" width="25.08984375" style="1" customWidth="1"/>
+    <col min="5858" max="5858" width="14.90625" style="1" customWidth="1"/>
+    <col min="5859" max="5859" width="16.90625" style="1" customWidth="1"/>
+    <col min="5860" max="5860" width="7.81640625" style="1" customWidth="1"/>
+    <col min="5861" max="5861" width="14.90625" style="1" customWidth="1"/>
+    <col min="5862" max="5862" width="9.1796875" style="1" customWidth="1"/>
+    <col min="5863" max="5863" width="11.1796875" style="1" customWidth="1"/>
+    <col min="5864" max="5864" width="16.1796875" style="1" customWidth="1"/>
+    <col min="5865" max="5865" width="13.08984375" style="1" customWidth="1"/>
+    <col min="5866" max="5868" width="12.81640625" style="1" customWidth="1"/>
+    <col min="5869" max="5869" width="11.90625" style="1" customWidth="1"/>
+    <col min="5870" max="5870" width="12.81640625" style="1" customWidth="1"/>
+    <col min="5871" max="6060" width="7.81640625" style="1" customWidth="1"/>
+    <col min="6061" max="6061" width="5.6328125" style="1" customWidth="1"/>
+    <col min="6062" max="6063" width="10.90625" style="1" customWidth="1"/>
+    <col min="6064" max="6064" width="9.08984375" style="1" customWidth="1"/>
+    <col min="6065" max="6066" width="8.6328125" style="1" customWidth="1"/>
+    <col min="6067" max="6067" width="24" style="1" customWidth="1"/>
+    <col min="6068" max="6068" width="17.81640625" style="1" customWidth="1"/>
+    <col min="6069" max="6070" width="12.81640625" style="1" customWidth="1"/>
+    <col min="6071" max="6071" width="20.1796875" style="1" customWidth="1"/>
+    <col min="6072" max="6107" width="8.36328125" style="1"/>
+    <col min="6108" max="6108" width="6.453125" style="1" customWidth="1"/>
+    <col min="6109" max="6111" width="8.6328125" style="1" customWidth="1"/>
+    <col min="6112" max="6112" width="21.08984375" style="1" customWidth="1"/>
+    <col min="6113" max="6113" width="25.08984375" style="1" customWidth="1"/>
+    <col min="6114" max="6114" width="14.90625" style="1" customWidth="1"/>
+    <col min="6115" max="6115" width="16.90625" style="1" customWidth="1"/>
+    <col min="6116" max="6116" width="7.81640625" style="1" customWidth="1"/>
+    <col min="6117" max="6117" width="14.90625" style="1" customWidth="1"/>
+    <col min="6118" max="6118" width="9.1796875" style="1" customWidth="1"/>
+    <col min="6119" max="6119" width="11.1796875" style="1" customWidth="1"/>
+    <col min="6120" max="6120" width="16.1796875" style="1" customWidth="1"/>
+    <col min="6121" max="6121" width="13.08984375" style="1" customWidth="1"/>
+    <col min="6122" max="6124" width="12.81640625" style="1" customWidth="1"/>
+    <col min="6125" max="6125" width="11.90625" style="1" customWidth="1"/>
+    <col min="6126" max="6126" width="12.81640625" style="1" customWidth="1"/>
+    <col min="6127" max="6316" width="7.81640625" style="1" customWidth="1"/>
+    <col min="6317" max="6317" width="5.6328125" style="1" customWidth="1"/>
+    <col min="6318" max="6319" width="10.90625" style="1" customWidth="1"/>
+    <col min="6320" max="6320" width="9.08984375" style="1" customWidth="1"/>
+    <col min="6321" max="6322" width="8.6328125" style="1" customWidth="1"/>
+    <col min="6323" max="6323" width="24" style="1" customWidth="1"/>
+    <col min="6324" max="6324" width="17.81640625" style="1" customWidth="1"/>
+    <col min="6325" max="6326" width="12.81640625" style="1" customWidth="1"/>
+    <col min="6327" max="6327" width="20.1796875" style="1" customWidth="1"/>
+    <col min="6328" max="6363" width="8.36328125" style="1"/>
+    <col min="6364" max="6364" width="6.453125" style="1" customWidth="1"/>
+    <col min="6365" max="6367" width="8.6328125" style="1" customWidth="1"/>
+    <col min="6368" max="6368" width="21.08984375" style="1" customWidth="1"/>
+    <col min="6369" max="6369" width="25.08984375" style="1" customWidth="1"/>
+    <col min="6370" max="6370" width="14.90625" style="1" customWidth="1"/>
+    <col min="6371" max="6371" width="16.90625" style="1" customWidth="1"/>
+    <col min="6372" max="6372" width="7.81640625" style="1" customWidth="1"/>
+    <col min="6373" max="6373" width="14.90625" style="1" customWidth="1"/>
+    <col min="6374" max="6374" width="9.1796875" style="1" customWidth="1"/>
+    <col min="6375" max="6375" width="11.1796875" style="1" customWidth="1"/>
+    <col min="6376" max="6376" width="16.1796875" style="1" customWidth="1"/>
+    <col min="6377" max="6377" width="13.08984375" style="1" customWidth="1"/>
+    <col min="6378" max="6380" width="12.81640625" style="1" customWidth="1"/>
+    <col min="6381" max="6381" width="11.90625" style="1" customWidth="1"/>
+    <col min="6382" max="6382" width="12.81640625" style="1" customWidth="1"/>
+    <col min="6383" max="6572" width="7.81640625" style="1" customWidth="1"/>
+    <col min="6573" max="6573" width="5.6328125" style="1" customWidth="1"/>
+    <col min="6574" max="6575" width="10.90625" style="1" customWidth="1"/>
+    <col min="6576" max="6576" width="9.08984375" style="1" customWidth="1"/>
+    <col min="6577" max="6578" width="8.6328125" style="1" customWidth="1"/>
+    <col min="6579" max="6579" width="24" style="1" customWidth="1"/>
+    <col min="6580" max="6580" width="17.81640625" style="1" customWidth="1"/>
+    <col min="6581" max="6582" width="12.81640625" style="1" customWidth="1"/>
+    <col min="6583" max="6583" width="20.1796875" style="1" customWidth="1"/>
+    <col min="6584" max="6619" width="8.36328125" style="1"/>
+    <col min="6620" max="6620" width="6.453125" style="1" customWidth="1"/>
+    <col min="6621" max="6623" width="8.6328125" style="1" customWidth="1"/>
+    <col min="6624" max="6624" width="21.08984375" style="1" customWidth="1"/>
+    <col min="6625" max="6625" width="25.08984375" style="1" customWidth="1"/>
+    <col min="6626" max="6626" width="14.90625" style="1" customWidth="1"/>
+    <col min="6627" max="6627" width="16.90625" style="1" customWidth="1"/>
+    <col min="6628" max="6628" width="7.81640625" style="1" customWidth="1"/>
+    <col min="6629" max="6629" width="14.90625" style="1" customWidth="1"/>
+    <col min="6630" max="6630" width="9.1796875" style="1" customWidth="1"/>
+    <col min="6631" max="6631" width="11.1796875" style="1" customWidth="1"/>
+    <col min="6632" max="6632" width="16.1796875" style="1" customWidth="1"/>
+    <col min="6633" max="6633" width="13.08984375" style="1" customWidth="1"/>
+    <col min="6634" max="6636" width="12.81640625" style="1" customWidth="1"/>
+    <col min="6637" max="6637" width="11.90625" style="1" customWidth="1"/>
+    <col min="6638" max="6638" width="12.81640625" style="1" customWidth="1"/>
+    <col min="6639" max="6828" width="7.81640625" style="1" customWidth="1"/>
+    <col min="6829" max="6829" width="5.6328125" style="1" customWidth="1"/>
+    <col min="6830" max="6831" width="10.90625" style="1" customWidth="1"/>
+    <col min="6832" max="6832" width="9.08984375" style="1" customWidth="1"/>
+    <col min="6833" max="6834" width="8.6328125" style="1" customWidth="1"/>
+    <col min="6835" max="6835" width="24" style="1" customWidth="1"/>
+    <col min="6836" max="6836" width="17.81640625" style="1" customWidth="1"/>
+    <col min="6837" max="6838" width="12.81640625" style="1" customWidth="1"/>
+    <col min="6839" max="6839" width="20.1796875" style="1" customWidth="1"/>
+    <col min="6840" max="6875" width="8.36328125" style="1"/>
+    <col min="6876" max="6876" width="6.453125" style="1" customWidth="1"/>
+    <col min="6877" max="6879" width="8.6328125" style="1" customWidth="1"/>
+    <col min="6880" max="6880" width="21.08984375" style="1" customWidth="1"/>
+    <col min="6881" max="6881" width="25.08984375" style="1" customWidth="1"/>
+    <col min="6882" max="6882" width="14.90625" style="1" customWidth="1"/>
+    <col min="6883" max="6883" width="16.90625" style="1" customWidth="1"/>
+    <col min="6884" max="6884" width="7.81640625" style="1" customWidth="1"/>
+    <col min="6885" max="6885" width="14.90625" style="1" customWidth="1"/>
+    <col min="6886" max="6886" width="9.1796875" style="1" customWidth="1"/>
+    <col min="6887" max="6887" width="11.1796875" style="1" customWidth="1"/>
+    <col min="6888" max="6888" width="16.1796875" style="1" customWidth="1"/>
+    <col min="6889" max="6889" width="13.08984375" style="1" customWidth="1"/>
+    <col min="6890" max="6892" width="12.81640625" style="1" customWidth="1"/>
+    <col min="6893" max="6893" width="11.90625" style="1" customWidth="1"/>
+    <col min="6894" max="6894" width="12.81640625" style="1" customWidth="1"/>
+    <col min="6895" max="7084" width="7.81640625" style="1" customWidth="1"/>
+    <col min="7085" max="7085" width="5.6328125" style="1" customWidth="1"/>
+    <col min="7086" max="7087" width="10.90625" style="1" customWidth="1"/>
+    <col min="7088" max="7088" width="9.08984375" style="1" customWidth="1"/>
+    <col min="7089" max="7090" width="8.6328125" style="1" customWidth="1"/>
+    <col min="7091" max="7091" width="24" style="1" customWidth="1"/>
+    <col min="7092" max="7092" width="17.81640625" style="1" customWidth="1"/>
+    <col min="7093" max="7094" width="12.81640625" style="1" customWidth="1"/>
+    <col min="7095" max="7095" width="20.1796875" style="1" customWidth="1"/>
+    <col min="7096" max="7131" width="8.36328125" style="1"/>
+    <col min="7132" max="7132" width="6.453125" style="1" customWidth="1"/>
+    <col min="7133" max="7135" width="8.6328125" style="1" customWidth="1"/>
+    <col min="7136" max="7136" width="21.08984375" style="1" customWidth="1"/>
+    <col min="7137" max="7137" width="25.08984375" style="1" customWidth="1"/>
+    <col min="7138" max="7138" width="14.90625" style="1" customWidth="1"/>
+    <col min="7139" max="7139" width="16.90625" style="1" customWidth="1"/>
+    <col min="7140" max="7140" width="7.81640625" style="1" customWidth="1"/>
+    <col min="7141" max="7141" width="14.90625" style="1" customWidth="1"/>
+    <col min="7142" max="7142" width="9.1796875" style="1" customWidth="1"/>
+    <col min="7143" max="7143" width="11.1796875" style="1" customWidth="1"/>
+    <col min="7144" max="7144" width="16.1796875" style="1" customWidth="1"/>
+    <col min="7145" max="7145" width="13.08984375" style="1" customWidth="1"/>
+    <col min="7146" max="7148" width="12.81640625" style="1" customWidth="1"/>
+    <col min="7149" max="7149" width="11.90625" style="1" customWidth="1"/>
+    <col min="7150" max="7150" width="12.81640625" style="1" customWidth="1"/>
+    <col min="7151" max="7340" width="7.81640625" style="1" customWidth="1"/>
+    <col min="7341" max="7341" width="5.6328125" style="1" customWidth="1"/>
+    <col min="7342" max="7343" width="10.90625" style="1" customWidth="1"/>
+    <col min="7344" max="7344" width="9.08984375" style="1" customWidth="1"/>
+    <col min="7345" max="7346" width="8.6328125" style="1" customWidth="1"/>
+    <col min="7347" max="7347" width="24" style="1" customWidth="1"/>
+    <col min="7348" max="7348" width="17.81640625" style="1" customWidth="1"/>
+    <col min="7349" max="7350" width="12.81640625" style="1" customWidth="1"/>
+    <col min="7351" max="7351" width="20.1796875" style="1" customWidth="1"/>
+    <col min="7352" max="7387" width="8.36328125" style="1"/>
+    <col min="7388" max="7388" width="6.453125" style="1" customWidth="1"/>
+    <col min="7389" max="7391" width="8.6328125" style="1" customWidth="1"/>
+    <col min="7392" max="7392" width="21.08984375" style="1" customWidth="1"/>
+    <col min="7393" max="7393" width="25.08984375" style="1" customWidth="1"/>
+    <col min="7394" max="7394" width="14.90625" style="1" customWidth="1"/>
+    <col min="7395" max="7395" width="16.90625" style="1" customWidth="1"/>
+    <col min="7396" max="7396" width="7.81640625" style="1" customWidth="1"/>
+    <col min="7397" max="7397" width="14.90625" style="1" customWidth="1"/>
+    <col min="7398" max="7398" width="9.1796875" style="1" customWidth="1"/>
+    <col min="7399" max="7399" width="11.1796875" style="1" customWidth="1"/>
+    <col min="7400" max="7400" width="16.1796875" style="1" customWidth="1"/>
+    <col min="7401" max="7401" width="13.08984375" style="1" customWidth="1"/>
+    <col min="7402" max="7404" width="12.81640625" style="1" customWidth="1"/>
+    <col min="7405" max="7405" width="11.90625" style="1" customWidth="1"/>
+    <col min="7406" max="7406" width="12.81640625" style="1" customWidth="1"/>
+    <col min="7407" max="7596" width="7.81640625" style="1" customWidth="1"/>
+    <col min="7597" max="7597" width="5.6328125" style="1" customWidth="1"/>
+    <col min="7598" max="7599" width="10.90625" style="1" customWidth="1"/>
+    <col min="7600" max="7600" width="9.08984375" style="1" customWidth="1"/>
+    <col min="7601" max="7602" width="8.6328125" style="1" customWidth="1"/>
+    <col min="7603" max="7603" width="24" style="1" customWidth="1"/>
+    <col min="7604" max="7604" width="17.81640625" style="1" customWidth="1"/>
+    <col min="7605" max="7606" width="12.81640625" style="1" customWidth="1"/>
+    <col min="7607" max="7607" width="20.1796875" style="1" customWidth="1"/>
+    <col min="7608" max="7643" width="8.36328125" style="1"/>
+    <col min="7644" max="7644" width="6.453125" style="1" customWidth="1"/>
+    <col min="7645" max="7647" width="8.6328125" style="1" customWidth="1"/>
+    <col min="7648" max="7648" width="21.08984375" style="1" customWidth="1"/>
+    <col min="7649" max="7649" width="25.08984375" style="1" customWidth="1"/>
+    <col min="7650" max="7650" width="14.90625" style="1" customWidth="1"/>
+    <col min="7651" max="7651" width="16.90625" style="1" customWidth="1"/>
+    <col min="7652" max="7652" width="7.81640625" style="1" customWidth="1"/>
+    <col min="7653" max="7653" width="14.90625" style="1" customWidth="1"/>
+    <col min="7654" max="7654" width="9.1796875" style="1" customWidth="1"/>
+    <col min="7655" max="7655" width="11.1796875" style="1" customWidth="1"/>
+    <col min="7656" max="7656" width="16.1796875" style="1" customWidth="1"/>
+    <col min="7657" max="7657" width="13.08984375" style="1" customWidth="1"/>
+    <col min="7658" max="7660" width="12.81640625" style="1" customWidth="1"/>
+    <col min="7661" max="7661" width="11.90625" style="1" customWidth="1"/>
+    <col min="7662" max="7662" width="12.81640625" style="1" customWidth="1"/>
+    <col min="7663" max="7852" width="7.81640625" style="1" customWidth="1"/>
+    <col min="7853" max="7853" width="5.6328125" style="1" customWidth="1"/>
+    <col min="7854" max="7855" width="10.90625" style="1" customWidth="1"/>
+    <col min="7856" max="7856" width="9.08984375" style="1" customWidth="1"/>
+    <col min="7857" max="7858" width="8.6328125" style="1" customWidth="1"/>
+    <col min="7859" max="7859" width="24" style="1" customWidth="1"/>
+    <col min="7860" max="7860" width="17.81640625" style="1" customWidth="1"/>
+    <col min="7861" max="7862" width="12.81640625" style="1" customWidth="1"/>
+    <col min="7863" max="7863" width="20.1796875" style="1" customWidth="1"/>
+    <col min="7864" max="7899" width="8.36328125" style="1"/>
+    <col min="7900" max="7900" width="6.453125" style="1" customWidth="1"/>
+    <col min="7901" max="7903" width="8.6328125" style="1" customWidth="1"/>
+    <col min="7904" max="7904" width="21.08984375" style="1" customWidth="1"/>
+    <col min="7905" max="7905" width="25.08984375" style="1" customWidth="1"/>
+    <col min="7906" max="7906" width="14.90625" style="1" customWidth="1"/>
+    <col min="7907" max="7907" width="16.90625" style="1" customWidth="1"/>
+    <col min="7908" max="7908" width="7.81640625" style="1" customWidth="1"/>
+    <col min="7909" max="7909" width="14.90625" style="1" customWidth="1"/>
+    <col min="7910" max="7910" width="9.1796875" style="1" customWidth="1"/>
+    <col min="7911" max="7911" width="11.1796875" style="1" customWidth="1"/>
+    <col min="7912" max="7912" width="16.1796875" style="1" customWidth="1"/>
+    <col min="7913" max="7913" width="13.08984375" style="1" customWidth="1"/>
+    <col min="7914" max="7916" width="12.81640625" style="1" customWidth="1"/>
+    <col min="7917" max="7917" width="11.90625" style="1" customWidth="1"/>
+    <col min="7918" max="7918" width="12.81640625" style="1" customWidth="1"/>
+    <col min="7919" max="8108" width="7.81640625" style="1" customWidth="1"/>
+    <col min="8109" max="8109" width="5.6328125" style="1" customWidth="1"/>
+    <col min="8110" max="8111" width="10.90625" style="1" customWidth="1"/>
+    <col min="8112" max="8112" width="9.08984375" style="1" customWidth="1"/>
+    <col min="8113" max="8114" width="8.6328125" style="1" customWidth="1"/>
+    <col min="8115" max="8115" width="24" style="1" customWidth="1"/>
+    <col min="8116" max="8116" width="17.81640625" style="1" customWidth="1"/>
+    <col min="8117" max="8118" width="12.81640625" style="1" customWidth="1"/>
+    <col min="8119" max="8119" width="20.1796875" style="1" customWidth="1"/>
+    <col min="8120" max="8155" width="8.36328125" style="1"/>
+    <col min="8156" max="8156" width="6.453125" style="1" customWidth="1"/>
+    <col min="8157" max="8159" width="8.6328125" style="1" customWidth="1"/>
+    <col min="8160" max="8160" width="21.08984375" style="1" customWidth="1"/>
+    <col min="8161" max="8161" width="25.08984375" style="1" customWidth="1"/>
+    <col min="8162" max="8162" width="14.90625" style="1" customWidth="1"/>
+    <col min="8163" max="8163" width="16.90625" style="1" customWidth="1"/>
+    <col min="8164" max="8164" width="7.81640625" style="1" customWidth="1"/>
+    <col min="8165" max="8165" width="14.90625" style="1" customWidth="1"/>
+    <col min="8166" max="8166" width="9.1796875" style="1" customWidth="1"/>
+    <col min="8167" max="8167" width="11.1796875" style="1" customWidth="1"/>
+    <col min="8168" max="8168" width="16.1796875" style="1" customWidth="1"/>
+    <col min="8169" max="8169" width="13.08984375" style="1" customWidth="1"/>
+    <col min="8170" max="8172" width="12.81640625" style="1" customWidth="1"/>
+    <col min="8173" max="8173" width="11.90625" style="1" customWidth="1"/>
+    <col min="8174" max="8174" width="12.81640625" style="1" customWidth="1"/>
+    <col min="8175" max="8364" width="7.81640625" style="1" customWidth="1"/>
+    <col min="8365" max="8365" width="5.6328125" style="1" customWidth="1"/>
+    <col min="8366" max="8367" width="10.90625" style="1" customWidth="1"/>
+    <col min="8368" max="8368" width="9.08984375" style="1" customWidth="1"/>
+    <col min="8369" max="8370" width="8.6328125" style="1" customWidth="1"/>
+    <col min="8371" max="8371" width="24" style="1" customWidth="1"/>
+    <col min="8372" max="8372" width="17.81640625" style="1" customWidth="1"/>
+    <col min="8373" max="8374" width="12.81640625" style="1" customWidth="1"/>
+    <col min="8375" max="8375" width="20.1796875" style="1" customWidth="1"/>
+    <col min="8376" max="8411" width="8.36328125" style="1"/>
+    <col min="8412" max="8412" width="6.453125" style="1" customWidth="1"/>
+    <col min="8413" max="8415" width="8.6328125" style="1" customWidth="1"/>
+    <col min="8416" max="8416" width="21.08984375" style="1" customWidth="1"/>
+    <col min="8417" max="8417" width="25.08984375" style="1" customWidth="1"/>
+    <col min="8418" max="8418" width="14.90625" style="1" customWidth="1"/>
+    <col min="8419" max="8419" width="16.90625" style="1" customWidth="1"/>
+    <col min="8420" max="8420" width="7.81640625" style="1" customWidth="1"/>
+    <col min="8421" max="8421" width="14.90625" style="1" customWidth="1"/>
+    <col min="8422" max="8422" width="9.1796875" style="1" customWidth="1"/>
+    <col min="8423" max="8423" width="11.1796875" style="1" customWidth="1"/>
+    <col min="8424" max="8424" width="16.1796875" style="1" customWidth="1"/>
+    <col min="8425" max="8425" width="13.08984375" style="1" customWidth="1"/>
+    <col min="8426" max="8428" width="12.81640625" style="1" customWidth="1"/>
+    <col min="8429" max="8429" width="11.90625" style="1" customWidth="1"/>
+    <col min="8430" max="8430" width="12.81640625" style="1" customWidth="1"/>
+    <col min="8431" max="8620" width="7.81640625" style="1" customWidth="1"/>
+    <col min="8621" max="8621" width="5.6328125" style="1" customWidth="1"/>
+    <col min="8622" max="8623" width="10.90625" style="1" customWidth="1"/>
+    <col min="8624" max="8624" width="9.08984375" style="1" customWidth="1"/>
+    <col min="8625" max="8626" width="8.6328125" style="1" customWidth="1"/>
+    <col min="8627" max="8627" width="24" style="1" customWidth="1"/>
+    <col min="8628" max="8628" width="17.81640625" style="1" customWidth="1"/>
+    <col min="8629" max="8630" width="12.81640625" style="1" customWidth="1"/>
+    <col min="8631" max="8631" width="20.1796875" style="1" customWidth="1"/>
+    <col min="8632" max="8667" width="8.36328125" style="1"/>
+    <col min="8668" max="8668" width="6.453125" style="1" customWidth="1"/>
+    <col min="8669" max="8671" width="8.6328125" style="1" customWidth="1"/>
+    <col min="8672" max="8672" width="21.08984375" style="1" customWidth="1"/>
+    <col min="8673" max="8673" width="25.08984375" style="1" customWidth="1"/>
+    <col min="8674" max="8674" width="14.90625" style="1" customWidth="1"/>
+    <col min="8675" max="8675" width="16.90625" style="1" customWidth="1"/>
+    <col min="8676" max="8676" width="7.81640625" style="1" customWidth="1"/>
+    <col min="8677" max="8677" width="14.90625" style="1" customWidth="1"/>
+    <col min="8678" max="8678" width="9.1796875" style="1" customWidth="1"/>
+    <col min="8679" max="8679" width="11.1796875" style="1" customWidth="1"/>
+    <col min="8680" max="8680" width="16.1796875" style="1" customWidth="1"/>
+    <col min="8681" max="8681" width="13.08984375" style="1" customWidth="1"/>
+    <col min="8682" max="8684" width="12.81640625" style="1" customWidth="1"/>
+    <col min="8685" max="8685" width="11.90625" style="1" customWidth="1"/>
+    <col min="8686" max="8686" width="12.81640625" style="1" customWidth="1"/>
+    <col min="8687" max="8876" width="7.81640625" style="1" customWidth="1"/>
+    <col min="8877" max="8877" width="5.6328125" style="1" customWidth="1"/>
+    <col min="8878" max="8879" width="10.90625" style="1" customWidth="1"/>
+    <col min="8880" max="8880" width="9.08984375" style="1" customWidth="1"/>
+    <col min="8881" max="8882" width="8.6328125" style="1" customWidth="1"/>
+    <col min="8883" max="8883" width="24" style="1" customWidth="1"/>
+    <col min="8884" max="8884" width="17.81640625" style="1" customWidth="1"/>
+    <col min="8885" max="8886" width="12.81640625" style="1" customWidth="1"/>
+    <col min="8887" max="8887" width="20.1796875" style="1" customWidth="1"/>
+    <col min="8888" max="8923" width="8.36328125" style="1"/>
+    <col min="8924" max="8924" width="6.453125" style="1" customWidth="1"/>
+    <col min="8925" max="8927" width="8.6328125" style="1" customWidth="1"/>
+    <col min="8928" max="8928" width="21.08984375" style="1" customWidth="1"/>
+    <col min="8929" max="8929" width="25.08984375" style="1" customWidth="1"/>
+    <col min="8930" max="8930" width="14.90625" style="1" customWidth="1"/>
+    <col min="8931" max="8931" width="16.90625" style="1" customWidth="1"/>
+    <col min="8932" max="8932" width="7.81640625" style="1" customWidth="1"/>
+    <col min="8933" max="8933" width="14.90625" style="1" customWidth="1"/>
+    <col min="8934" max="8934" width="9.1796875" style="1" customWidth="1"/>
+    <col min="8935" max="8935" width="11.1796875" style="1" customWidth="1"/>
+    <col min="8936" max="8936" width="16.1796875" style="1" customWidth="1"/>
+    <col min="8937" max="8937" width="13.08984375" style="1" customWidth="1"/>
+    <col min="8938" max="8940" width="12.81640625" style="1" customWidth="1"/>
+    <col min="8941" max="8941" width="11.90625" style="1" customWidth="1"/>
+    <col min="8942" max="8942" width="12.81640625" style="1" customWidth="1"/>
+    <col min="8943" max="9132" width="7.81640625" style="1" customWidth="1"/>
+    <col min="9133" max="9133" width="5.6328125" style="1" customWidth="1"/>
+    <col min="9134" max="9135" width="10.90625" style="1" customWidth="1"/>
+    <col min="9136" max="9136" width="9.08984375" style="1" customWidth="1"/>
+    <col min="9137" max="9138" width="8.6328125" style="1" customWidth="1"/>
+    <col min="9139" max="9139" width="24" style="1" customWidth="1"/>
+    <col min="9140" max="9140" width="17.81640625" style="1" customWidth="1"/>
+    <col min="9141" max="9142" width="12.81640625" style="1" customWidth="1"/>
+    <col min="9143" max="9143" width="20.1796875" style="1" customWidth="1"/>
+    <col min="9144" max="9179" width="8.36328125" style="1"/>
+    <col min="9180" max="9180" width="6.453125" style="1" customWidth="1"/>
+    <col min="9181" max="9183" width="8.6328125" style="1" customWidth="1"/>
+    <col min="9184" max="9184" width="21.08984375" style="1" customWidth="1"/>
+    <col min="9185" max="9185" width="25.08984375" style="1" customWidth="1"/>
+    <col min="9186" max="9186" width="14.90625" style="1" customWidth="1"/>
+    <col min="9187" max="9187" width="16.90625" style="1" customWidth="1"/>
+    <col min="9188" max="9188" width="7.81640625" style="1" customWidth="1"/>
+    <col min="9189" max="9189" width="14.90625" style="1" customWidth="1"/>
+    <col min="9190" max="9190" width="9.1796875" style="1" customWidth="1"/>
+    <col min="9191" max="9191" width="11.1796875" style="1" customWidth="1"/>
+    <col min="9192" max="9192" width="16.1796875" style="1" customWidth="1"/>
+    <col min="9193" max="9193" width="13.08984375" style="1" customWidth="1"/>
+    <col min="9194" max="9196" width="12.81640625" style="1" customWidth="1"/>
+    <col min="9197" max="9197" width="11.90625" style="1" customWidth="1"/>
+    <col min="9198" max="9198" width="12.81640625" style="1" customWidth="1"/>
+    <col min="9199" max="9388" width="7.81640625" style="1" customWidth="1"/>
+    <col min="9389" max="9389" width="5.6328125" style="1" customWidth="1"/>
+    <col min="9390" max="9391" width="10.90625" style="1" customWidth="1"/>
+    <col min="9392" max="9392" width="9.08984375" style="1" customWidth="1"/>
+    <col min="9393" max="9394" width="8.6328125" style="1" customWidth="1"/>
+    <col min="9395" max="9395" width="24" style="1" customWidth="1"/>
+    <col min="9396" max="9396" width="17.81640625" style="1" customWidth="1"/>
+    <col min="9397" max="9398" width="12.81640625" style="1" customWidth="1"/>
+    <col min="9399" max="9399" width="20.1796875" style="1" customWidth="1"/>
+    <col min="9400" max="9435" width="8.36328125" style="1"/>
+    <col min="9436" max="9436" width="6.453125" style="1" customWidth="1"/>
+    <col min="9437" max="9439" width="8.6328125" style="1" customWidth="1"/>
+    <col min="9440" max="9440" width="21.08984375" style="1" customWidth="1"/>
+    <col min="9441" max="9441" width="25.08984375" style="1" customWidth="1"/>
+    <col min="9442" max="9442" width="14.90625" style="1" customWidth="1"/>
+    <col min="9443" max="9443" width="16.90625" style="1" customWidth="1"/>
+    <col min="9444" max="9444" width="7.81640625" style="1" customWidth="1"/>
+    <col min="9445" max="9445" width="14.90625" style="1" customWidth="1"/>
+    <col min="9446" max="9446" width="9.1796875" style="1" customWidth="1"/>
+    <col min="9447" max="9447" width="11.1796875" style="1" customWidth="1"/>
+    <col min="9448" max="9448" width="16.1796875" style="1" customWidth="1"/>
+    <col min="9449" max="9449" width="13.08984375" style="1" customWidth="1"/>
+    <col min="9450" max="9452" width="12.81640625" style="1" customWidth="1"/>
+    <col min="9453" max="9453" width="11.90625" style="1" customWidth="1"/>
+    <col min="9454" max="9454" width="12.81640625" style="1" customWidth="1"/>
+    <col min="9455" max="9644" width="7.81640625" style="1" customWidth="1"/>
+    <col min="9645" max="9645" width="5.6328125" style="1" customWidth="1"/>
+    <col min="9646" max="9647" width="10.90625" style="1" customWidth="1"/>
+    <col min="9648" max="9648" width="9.08984375" style="1" customWidth="1"/>
+    <col min="9649" max="9650" width="8.6328125" style="1" customWidth="1"/>
+    <col min="9651" max="9651" width="24" style="1" customWidth="1"/>
+    <col min="9652" max="9652" width="17.81640625" style="1" customWidth="1"/>
+    <col min="9653" max="9654" width="12.81640625" style="1" customWidth="1"/>
+    <col min="9655" max="9655" width="20.1796875" style="1" customWidth="1"/>
+    <col min="9656" max="9691" width="8.36328125" style="1"/>
+    <col min="9692" max="9692" width="6.453125" style="1" customWidth="1"/>
+    <col min="9693" max="9695" width="8.6328125" style="1" customWidth="1"/>
+    <col min="9696" max="9696" width="21.08984375" style="1" customWidth="1"/>
+    <col min="9697" max="9697" width="25.08984375" style="1" customWidth="1"/>
+    <col min="9698" max="9698" width="14.90625" style="1" customWidth="1"/>
+    <col min="9699" max="9699" width="16.90625" style="1" customWidth="1"/>
+    <col min="9700" max="9700" width="7.81640625" style="1" customWidth="1"/>
+    <col min="9701" max="9701" width="14.90625" style="1" customWidth="1"/>
+    <col min="9702" max="9702" width="9.1796875" style="1" customWidth="1"/>
+    <col min="9703" max="9703" width="11.1796875" style="1" customWidth="1"/>
+    <col min="9704" max="9704" width="16.1796875" style="1" customWidth="1"/>
+    <col min="9705" max="9705" width="13.08984375" style="1" customWidth="1"/>
+    <col min="9706" max="9708" width="12.81640625" style="1" customWidth="1"/>
+    <col min="9709" max="9709" width="11.90625" style="1" customWidth="1"/>
+    <col min="9710" max="9710" width="12.81640625" style="1" customWidth="1"/>
+    <col min="9711" max="9900" width="7.81640625" style="1" customWidth="1"/>
+    <col min="9901" max="9901" width="5.6328125" style="1" customWidth="1"/>
+    <col min="9902" max="9903" width="10.90625" style="1" customWidth="1"/>
+    <col min="9904" max="9904" width="9.08984375" style="1" customWidth="1"/>
+    <col min="9905" max="9906" width="8.6328125" style="1" customWidth="1"/>
+    <col min="9907" max="9907" width="24" style="1" customWidth="1"/>
+    <col min="9908" max="9908" width="17.81640625" style="1" customWidth="1"/>
+    <col min="9909" max="9910" width="12.81640625" style="1" customWidth="1"/>
+    <col min="9911" max="9911" width="20.1796875" style="1" customWidth="1"/>
+    <col min="9912" max="9947" width="8.36328125" style="1"/>
+    <col min="9948" max="9948" width="6.453125" style="1" customWidth="1"/>
+    <col min="9949" max="9951" width="8.6328125" style="1" customWidth="1"/>
+    <col min="9952" max="9952" width="21.08984375" style="1" customWidth="1"/>
+    <col min="9953" max="9953" width="25.08984375" style="1" customWidth="1"/>
+    <col min="9954" max="9954" width="14.90625" style="1" customWidth="1"/>
+    <col min="9955" max="9955" width="16.90625" style="1" customWidth="1"/>
+    <col min="9956" max="9956" width="7.81640625" style="1" customWidth="1"/>
+    <col min="9957" max="9957" width="14.90625" style="1" customWidth="1"/>
+    <col min="9958" max="9958" width="9.1796875" style="1" customWidth="1"/>
+    <col min="9959" max="9959" width="11.1796875" style="1" customWidth="1"/>
+    <col min="9960" max="9960" width="16.1796875" style="1" customWidth="1"/>
+    <col min="9961" max="9961" width="13.08984375" style="1" customWidth="1"/>
+    <col min="9962" max="9964" width="12.81640625" style="1" customWidth="1"/>
+    <col min="9965" max="9965" width="11.90625" style="1" customWidth="1"/>
+    <col min="9966" max="9966" width="12.81640625" style="1" customWidth="1"/>
+    <col min="9967" max="10156" width="7.81640625" style="1" customWidth="1"/>
+    <col min="10157" max="10157" width="5.6328125" style="1" customWidth="1"/>
+    <col min="10158" max="10159" width="10.90625" style="1" customWidth="1"/>
+    <col min="10160" max="10160" width="9.08984375" style="1" customWidth="1"/>
+    <col min="10161" max="10162" width="8.6328125" style="1" customWidth="1"/>
+    <col min="10163" max="10163" width="24" style="1" customWidth="1"/>
+    <col min="10164" max="10164" width="17.81640625" style="1" customWidth="1"/>
+    <col min="10165" max="10166" width="12.81640625" style="1" customWidth="1"/>
+    <col min="10167" max="10167" width="20.1796875" style="1" customWidth="1"/>
+    <col min="10168" max="10203" width="8.36328125" style="1"/>
+    <col min="10204" max="10204" width="6.453125" style="1" customWidth="1"/>
+    <col min="10205" max="10207" width="8.6328125" style="1" customWidth="1"/>
+    <col min="10208" max="10208" width="21.08984375" style="1" customWidth="1"/>
+    <col min="10209" max="10209" width="25.08984375" style="1" customWidth="1"/>
+    <col min="10210" max="10210" width="14.90625" style="1" customWidth="1"/>
+    <col min="10211" max="10211" width="16.90625" style="1" customWidth="1"/>
+    <col min="10212" max="10212" width="7.81640625" style="1" customWidth="1"/>
+    <col min="10213" max="10213" width="14.90625" style="1" customWidth="1"/>
+    <col min="10214" max="10214" width="9.1796875" style="1" customWidth="1"/>
+    <col min="10215" max="10215" width="11.1796875" style="1" customWidth="1"/>
+    <col min="10216" max="10216" width="16.1796875" style="1" customWidth="1"/>
+    <col min="10217" max="10217" width="13.08984375" style="1" customWidth="1"/>
+    <col min="10218" max="10220" width="12.81640625" style="1" customWidth="1"/>
+    <col min="10221" max="10221" width="11.90625" style="1" customWidth="1"/>
+    <col min="10222" max="10222" width="12.81640625" style="1" customWidth="1"/>
+    <col min="10223" max="10412" width="7.81640625" style="1" customWidth="1"/>
+    <col min="10413" max="10413" width="5.6328125" style="1" customWidth="1"/>
+    <col min="10414" max="10415" width="10.90625" style="1" customWidth="1"/>
+    <col min="10416" max="10416" width="9.08984375" style="1" customWidth="1"/>
+    <col min="10417" max="10418" width="8.6328125" style="1" customWidth="1"/>
+    <col min="10419" max="10419" width="24" style="1" customWidth="1"/>
+    <col min="10420" max="10420" width="17.81640625" style="1" customWidth="1"/>
+    <col min="10421" max="10422" width="12.81640625" style="1" customWidth="1"/>
+    <col min="10423" max="10423" width="20.1796875" style="1" customWidth="1"/>
+    <col min="10424" max="10459" width="8.36328125" style="1"/>
+    <col min="10460" max="10460" width="6.453125" style="1" customWidth="1"/>
+    <col min="10461" max="10463" width="8.6328125" style="1" customWidth="1"/>
+    <col min="10464" max="10464" width="21.08984375" style="1" customWidth="1"/>
+    <col min="10465" max="10465" width="25.08984375" style="1" customWidth="1"/>
+    <col min="10466" max="10466" width="14.90625" style="1" customWidth="1"/>
+    <col min="10467" max="10467" width="16.90625" style="1" customWidth="1"/>
+    <col min="10468" max="10468" width="7.81640625" style="1" customWidth="1"/>
+    <col min="10469" max="10469" width="14.90625" style="1" customWidth="1"/>
+    <col min="10470" max="10470" width="9.1796875" style="1" customWidth="1"/>
+    <col min="10471" max="10471" width="11.1796875" style="1" customWidth="1"/>
+    <col min="10472" max="10472" width="16.1796875" style="1" customWidth="1"/>
+    <col min="10473" max="10473" width="13.08984375" style="1" customWidth="1"/>
+    <col min="10474" max="10476" width="12.81640625" style="1" customWidth="1"/>
+    <col min="10477" max="10477" width="11.90625" style="1" customWidth="1"/>
+    <col min="10478" max="10478" width="12.81640625" style="1" customWidth="1"/>
+    <col min="10479" max="10668" width="7.81640625" style="1" customWidth="1"/>
+    <col min="10669" max="10669" width="5.6328125" style="1" customWidth="1"/>
+    <col min="10670" max="10671" width="10.90625" style="1" customWidth="1"/>
+    <col min="10672" max="10672" width="9.08984375" style="1" customWidth="1"/>
+    <col min="10673" max="10674" width="8.6328125" style="1" customWidth="1"/>
+    <col min="10675" max="10675" width="24" style="1" customWidth="1"/>
+    <col min="10676" max="10676" width="17.81640625" style="1" customWidth="1"/>
+    <col min="10677" max="10678" width="12.81640625" style="1" customWidth="1"/>
+    <col min="10679" max="10679" width="20.1796875" style="1" customWidth="1"/>
+    <col min="10680" max="10715" width="8.36328125" style="1"/>
+    <col min="10716" max="10716" width="6.453125" style="1" customWidth="1"/>
+    <col min="10717" max="10719" width="8.6328125" style="1" customWidth="1"/>
+    <col min="10720" max="10720" width="21.08984375" style="1" customWidth="1"/>
+    <col min="10721" max="10721" width="25.08984375" style="1" customWidth="1"/>
+    <col min="10722" max="10722" width="14.90625" style="1" customWidth="1"/>
+    <col min="10723" max="10723" width="16.90625" style="1" customWidth="1"/>
+    <col min="10724" max="10724" width="7.81640625" style="1" customWidth="1"/>
+    <col min="10725" max="10725" width="14.90625" style="1" customWidth="1"/>
+    <col min="10726" max="10726" width="9.1796875" style="1" customWidth="1"/>
+    <col min="10727" max="10727" width="11.1796875" style="1" customWidth="1"/>
+    <col min="10728" max="10728" width="16.1796875" style="1" customWidth="1"/>
+    <col min="10729" max="10729" width="13.08984375" style="1" customWidth="1"/>
+    <col min="10730" max="10732" width="12.81640625" style="1" customWidth="1"/>
+    <col min="10733" max="10733" width="11.90625" style="1" customWidth="1"/>
+    <col min="10734" max="10734" width="12.81640625" style="1" customWidth="1"/>
+    <col min="10735" max="10924" width="7.81640625" style="1" customWidth="1"/>
+    <col min="10925" max="10925" width="5.6328125" style="1" customWidth="1"/>
+    <col min="10926" max="10927" width="10.90625" style="1" customWidth="1"/>
+    <col min="10928" max="10928" width="9.08984375" style="1" customWidth="1"/>
+    <col min="10929" max="10930" width="8.6328125" style="1" customWidth="1"/>
+    <col min="10931" max="10931" width="24" style="1" customWidth="1"/>
+    <col min="10932" max="10932" width="17.81640625" style="1" customWidth="1"/>
+    <col min="10933" max="10934" width="12.81640625" style="1" customWidth="1"/>
+    <col min="10935" max="10935" width="20.1796875" style="1" customWidth="1"/>
+    <col min="10936" max="10971" width="8.36328125" style="1"/>
+    <col min="10972" max="10972" width="6.453125" style="1" customWidth="1"/>
+    <col min="10973" max="10975" width="8.6328125" style="1" customWidth="1"/>
+    <col min="10976" max="10976" width="21.08984375" style="1" customWidth="1"/>
+    <col min="10977" max="10977" width="25.08984375" style="1" customWidth="1"/>
+    <col min="10978" max="10978" width="14.90625" style="1" customWidth="1"/>
+    <col min="10979" max="10979" width="16.90625" style="1" customWidth="1"/>
+    <col min="10980" max="10980" width="7.81640625" style="1" customWidth="1"/>
+    <col min="10981" max="10981" width="14.90625" style="1" customWidth="1"/>
+    <col min="10982" max="10982" width="9.1796875" style="1" customWidth="1"/>
+    <col min="10983" max="10983" width="11.1796875" style="1" customWidth="1"/>
+    <col min="10984" max="10984" width="16.1796875" style="1" customWidth="1"/>
+    <col min="10985" max="10985" width="13.08984375" style="1" customWidth="1"/>
+    <col min="10986" max="10988" width="12.81640625" style="1" customWidth="1"/>
+    <col min="10989" max="10989" width="11.90625" style="1" customWidth="1"/>
+    <col min="10990" max="10990" width="12.81640625" style="1" customWidth="1"/>
+    <col min="10991" max="11180" width="7.81640625" style="1" customWidth="1"/>
+    <col min="11181" max="11181" width="5.6328125" style="1" customWidth="1"/>
+    <col min="11182" max="11183" width="10.90625" style="1" customWidth="1"/>
+    <col min="11184" max="11184" width="9.08984375" style="1" customWidth="1"/>
+    <col min="11185" max="11186" width="8.6328125" style="1" customWidth="1"/>
+    <col min="11187" max="11187" width="24" style="1" customWidth="1"/>
+    <col min="11188" max="11188" width="17.81640625" style="1" customWidth="1"/>
+    <col min="11189" max="11190" width="12.81640625" style="1" customWidth="1"/>
+    <col min="11191" max="11191" width="20.1796875" style="1" customWidth="1"/>
+    <col min="11192" max="11227" width="8.36328125" style="1"/>
+    <col min="11228" max="11228" width="6.453125" style="1" customWidth="1"/>
+    <col min="11229" max="11231" width="8.6328125" style="1" customWidth="1"/>
+    <col min="11232" max="11232" width="21.08984375" style="1" customWidth="1"/>
+    <col min="11233" max="11233" width="25.08984375" style="1" customWidth="1"/>
+    <col min="11234" max="11234" width="14.90625" style="1" customWidth="1"/>
+    <col min="11235" max="11235" width="16.90625" style="1" customWidth="1"/>
+    <col min="11236" max="11236" width="7.81640625" style="1" customWidth="1"/>
+    <col min="11237" max="11237" width="14.90625" style="1" customWidth="1"/>
+    <col min="11238" max="11238" width="9.1796875" style="1" customWidth="1"/>
+    <col min="11239" max="11239" width="11.1796875" style="1" customWidth="1"/>
+    <col min="11240" max="11240" width="16.1796875" style="1" customWidth="1"/>
+    <col min="11241" max="11241" width="13.08984375" style="1" customWidth="1"/>
+    <col min="11242" max="11244" width="12.81640625" style="1" customWidth="1"/>
+    <col min="11245" max="11245" width="11.90625" style="1" customWidth="1"/>
+    <col min="11246" max="11246" width="12.81640625" style="1" customWidth="1"/>
+    <col min="11247" max="11436" width="7.81640625" style="1" customWidth="1"/>
+    <col min="11437" max="11437" width="5.6328125" style="1" customWidth="1"/>
+    <col min="11438" max="11439" width="10.90625" style="1" customWidth="1"/>
+    <col min="11440" max="11440" width="9.08984375" style="1" customWidth="1"/>
+    <col min="11441" max="11442" width="8.6328125" style="1" customWidth="1"/>
+    <col min="11443" max="11443" width="24" style="1" customWidth="1"/>
+    <col min="11444" max="11444" width="17.81640625" style="1" customWidth="1"/>
+    <col min="11445" max="11446" width="12.81640625" style="1" customWidth="1"/>
+    <col min="11447" max="11447" width="20.1796875" style="1" customWidth="1"/>
+    <col min="11448" max="11483" width="8.36328125" style="1"/>
+    <col min="11484" max="11484" width="6.453125" style="1" customWidth="1"/>
+    <col min="11485" max="11487" width="8.6328125" style="1" customWidth="1"/>
+    <col min="11488" max="11488" width="21.08984375" style="1" customWidth="1"/>
+    <col min="11489" max="11489" width="25.08984375" style="1" customWidth="1"/>
+    <col min="11490" max="11490" width="14.90625" style="1" customWidth="1"/>
+    <col min="11491" max="11491" width="16.90625" style="1" customWidth="1"/>
+    <col min="11492" max="11492" width="7.81640625" style="1" customWidth="1"/>
+    <col min="11493" max="11493" width="14.90625" style="1" customWidth="1"/>
+    <col min="11494" max="11494" width="9.1796875" style="1" customWidth="1"/>
+    <col min="11495" max="11495" width="11.1796875" style="1" customWidth="1"/>
+    <col min="11496" max="11496" width="16.1796875" style="1" customWidth="1"/>
+    <col min="11497" max="11497" width="13.08984375" style="1" customWidth="1"/>
+    <col min="11498" max="11500" width="12.81640625" style="1" customWidth="1"/>
+    <col min="11501" max="11501" width="11.90625" style="1" customWidth="1"/>
+    <col min="11502" max="11502" width="12.81640625" style="1" customWidth="1"/>
+    <col min="11503" max="11692" width="7.81640625" style="1" customWidth="1"/>
+    <col min="11693" max="11693" width="5.6328125" style="1" customWidth="1"/>
+    <col min="11694" max="11695" width="10.90625" style="1" customWidth="1"/>
+    <col min="11696" max="11696" width="9.08984375" style="1" customWidth="1"/>
+    <col min="11697" max="11698" width="8.6328125" style="1" customWidth="1"/>
+    <col min="11699" max="11699" width="24" style="1" customWidth="1"/>
+    <col min="11700" max="11700" width="17.81640625" style="1" customWidth="1"/>
+    <col min="11701" max="11702" width="12.81640625" style="1" customWidth="1"/>
+    <col min="11703" max="11703" width="20.1796875" style="1" customWidth="1"/>
+    <col min="11704" max="11739" width="8.36328125" style="1"/>
+    <col min="11740" max="11740" width="6.453125" style="1" customWidth="1"/>
+    <col min="11741" max="11743" width="8.6328125" style="1" customWidth="1"/>
+    <col min="11744" max="11744" width="21.08984375" style="1" customWidth="1"/>
+    <col min="11745" max="11745" width="25.08984375" style="1" customWidth="1"/>
+    <col min="11746" max="11746" width="14.90625" style="1" customWidth="1"/>
+    <col min="11747" max="11747" width="16.90625" style="1" customWidth="1"/>
+    <col min="11748" max="11748" width="7.81640625" style="1" customWidth="1"/>
+    <col min="11749" max="11749" width="14.90625" style="1" customWidth="1"/>
+    <col min="11750" max="11750" width="9.1796875" style="1" customWidth="1"/>
+    <col min="11751" max="11751" width="11.1796875" style="1" customWidth="1"/>
+    <col min="11752" max="11752" width="16.1796875" style="1" customWidth="1"/>
+    <col min="11753" max="11753" width="13.08984375" style="1" customWidth="1"/>
+    <col min="11754" max="11756" width="12.81640625" style="1" customWidth="1"/>
+    <col min="11757" max="11757" width="11.90625" style="1" customWidth="1"/>
+    <col min="11758" max="11758" width="12.81640625" style="1" customWidth="1"/>
+    <col min="11759" max="11948" width="7.81640625" style="1" customWidth="1"/>
+    <col min="11949" max="11949" width="5.6328125" style="1" customWidth="1"/>
+    <col min="11950" max="11951" width="10.90625" style="1" customWidth="1"/>
+    <col min="11952" max="11952" width="9.08984375" style="1" customWidth="1"/>
+    <col min="11953" max="11954" width="8.6328125" style="1" customWidth="1"/>
+    <col min="11955" max="11955" width="24" style="1" customWidth="1"/>
+    <col min="11956" max="11956" width="17.81640625" style="1" customWidth="1"/>
+    <col min="11957" max="11958" width="12.81640625" style="1" customWidth="1"/>
+    <col min="11959" max="11959" width="20.1796875" style="1" customWidth="1"/>
+    <col min="11960" max="11995" width="8.36328125" style="1"/>
+    <col min="11996" max="11996" width="6.453125" style="1" customWidth="1"/>
+    <col min="11997" max="11999" width="8.6328125" style="1" customWidth="1"/>
+    <col min="12000" max="12000" width="21.08984375" style="1" customWidth="1"/>
+    <col min="12001" max="12001" width="25.08984375" style="1" customWidth="1"/>
+    <col min="12002" max="12002" width="14.90625" style="1" customWidth="1"/>
+    <col min="12003" max="12003" width="16.90625" style="1" customWidth="1"/>
+    <col min="12004" max="12004" width="7.81640625" style="1" customWidth="1"/>
+    <col min="12005" max="12005" width="14.90625" style="1" customWidth="1"/>
+    <col min="12006" max="12006" width="9.1796875" style="1" customWidth="1"/>
+    <col min="12007" max="12007" width="11.1796875" style="1" customWidth="1"/>
+    <col min="12008" max="12008" width="16.1796875" style="1" customWidth="1"/>
+    <col min="12009" max="12009" width="13.08984375" style="1" customWidth="1"/>
+    <col min="12010" max="12012" width="12.81640625" style="1" customWidth="1"/>
+    <col min="12013" max="12013" width="11.90625" style="1" customWidth="1"/>
+    <col min="12014" max="12014" width="12.81640625" style="1" customWidth="1"/>
+    <col min="12015" max="12204" width="7.81640625" style="1" customWidth="1"/>
+    <col min="12205" max="12205" width="5.6328125" style="1" customWidth="1"/>
+    <col min="12206" max="12207" width="10.90625" style="1" customWidth="1"/>
+    <col min="12208" max="12208" width="9.08984375" style="1" customWidth="1"/>
+    <col min="12209" max="12210" width="8.6328125" style="1" customWidth="1"/>
+    <col min="12211" max="12211" width="24" style="1" customWidth="1"/>
+    <col min="12212" max="12212" width="17.81640625" style="1" customWidth="1"/>
+    <col min="12213" max="12214" width="12.81640625" style="1" customWidth="1"/>
+    <col min="12215" max="12215" width="20.1796875" style="1" customWidth="1"/>
+    <col min="12216" max="12251" width="8.36328125" style="1"/>
+    <col min="12252" max="12252" width="6.453125" style="1" customWidth="1"/>
+    <col min="12253" max="12255" width="8.6328125" style="1" customWidth="1"/>
+    <col min="12256" max="12256" width="21.08984375" style="1" customWidth="1"/>
+    <col min="12257" max="12257" width="25.08984375" style="1" customWidth="1"/>
+    <col min="12258" max="12258" width="14.90625" style="1" customWidth="1"/>
+    <col min="12259" max="12259" width="16.90625" style="1" customWidth="1"/>
+    <col min="12260" max="12260" width="7.81640625" style="1" customWidth="1"/>
+    <col min="12261" max="12261" width="14.90625" style="1" customWidth="1"/>
+    <col min="12262" max="12262" width="9.1796875" style="1" customWidth="1"/>
+    <col min="12263" max="12263" width="11.1796875" style="1" customWidth="1"/>
+    <col min="12264" max="12264" width="16.1796875" style="1" customWidth="1"/>
+    <col min="12265" max="12265" width="13.08984375" style="1" customWidth="1"/>
+    <col min="12266" max="12268" width="12.81640625" style="1" customWidth="1"/>
+    <col min="12269" max="12269" width="11.90625" style="1" customWidth="1"/>
+    <col min="12270" max="12270" width="12.81640625" style="1" customWidth="1"/>
+    <col min="12271" max="12460" width="7.81640625" style="1" customWidth="1"/>
+    <col min="12461" max="12461" width="5.6328125" style="1" customWidth="1"/>
+    <col min="12462" max="12463" width="10.90625" style="1" customWidth="1"/>
+    <col min="12464" max="12464" width="9.08984375" style="1" customWidth="1"/>
+    <col min="12465" max="12466" width="8.6328125" style="1" customWidth="1"/>
+    <col min="12467" max="12467" width="24" style="1" customWidth="1"/>
+    <col min="12468" max="12468" width="17.81640625" style="1" customWidth="1"/>
+    <col min="12469" max="12470" width="12.81640625" style="1" customWidth="1"/>
+    <col min="12471" max="12471" width="20.1796875" style="1" customWidth="1"/>
+    <col min="12472" max="12507" width="8.36328125" style="1"/>
+    <col min="12508" max="12508" width="6.453125" style="1" customWidth="1"/>
+    <col min="12509" max="12511" width="8.6328125" style="1" customWidth="1"/>
+    <col min="12512" max="12512" width="21.08984375" style="1" customWidth="1"/>
+    <col min="12513" max="12513" width="25.08984375" style="1" customWidth="1"/>
+    <col min="12514" max="12514" width="14.90625" style="1" customWidth="1"/>
+    <col min="12515" max="12515" width="16.90625" style="1" customWidth="1"/>
+    <col min="12516" max="12516" width="7.81640625" style="1" customWidth="1"/>
+    <col min="12517" max="12517" width="14.90625" style="1" customWidth="1"/>
+    <col min="12518" max="12518" width="9.1796875" style="1" customWidth="1"/>
+    <col min="12519" max="12519" width="11.1796875" style="1" customWidth="1"/>
+    <col min="12520" max="12520" width="16.1796875" style="1" customWidth="1"/>
+    <col min="12521" max="12521" width="13.08984375" style="1" customWidth="1"/>
+    <col min="12522" max="12524" width="12.81640625" style="1" customWidth="1"/>
+    <col min="12525" max="12525" width="11.90625" style="1" customWidth="1"/>
+    <col min="12526" max="12526" width="12.81640625" style="1" customWidth="1"/>
+    <col min="12527" max="12716" width="7.81640625" style="1" customWidth="1"/>
+    <col min="12717" max="12717" width="5.6328125" style="1" customWidth="1"/>
+    <col min="12718" max="12719" width="10.90625" style="1" customWidth="1"/>
+    <col min="12720" max="12720" width="9.08984375" style="1" customWidth="1"/>
+    <col min="12721" max="12722" width="8.6328125" style="1" customWidth="1"/>
+    <col min="12723" max="12723" width="24" style="1" customWidth="1"/>
+    <col min="12724" max="12724" width="17.81640625" style="1" customWidth="1"/>
+    <col min="12725" max="12726" width="12.81640625" style="1" customWidth="1"/>
+    <col min="12727" max="12727" width="20.1796875" style="1" customWidth="1"/>
+    <col min="12728" max="12763" width="8.36328125" style="1"/>
+    <col min="12764" max="12764" width="6.453125" style="1" customWidth="1"/>
+    <col min="12765" max="12767" width="8.6328125" style="1" customWidth="1"/>
+    <col min="12768" max="12768" width="21.08984375" style="1" customWidth="1"/>
+    <col min="12769" max="12769" width="25.08984375" style="1" customWidth="1"/>
+    <col min="12770" max="12770" width="14.90625" style="1" customWidth="1"/>
+    <col min="12771" max="12771" width="16.90625" style="1" customWidth="1"/>
+    <col min="12772" max="12772" width="7.81640625" style="1" customWidth="1"/>
+    <col min="12773" max="12773" width="14.90625" style="1" customWidth="1"/>
+    <col min="12774" max="12774" width="9.1796875" style="1" customWidth="1"/>
+    <col min="12775" max="12775" width="11.1796875" style="1" customWidth="1"/>
+    <col min="12776" max="12776" width="16.1796875" style="1" customWidth="1"/>
+    <col min="12777" max="12777" width="13.08984375" style="1" customWidth="1"/>
+    <col min="12778" max="12780" width="12.81640625" style="1" customWidth="1"/>
+    <col min="12781" max="12781" width="11.90625" style="1" customWidth="1"/>
+    <col min="12782" max="12782" width="12.81640625" style="1" customWidth="1"/>
+    <col min="12783" max="12972" width="7.81640625" style="1" customWidth="1"/>
+    <col min="12973" max="12973" width="5.6328125" style="1" customWidth="1"/>
+    <col min="12974" max="12975" width="10.90625" style="1" customWidth="1"/>
+    <col min="12976" max="12976" width="9.08984375" style="1" customWidth="1"/>
+    <col min="12977" max="12978" width="8.6328125" style="1" customWidth="1"/>
+    <col min="12979" max="12979" width="24" style="1" customWidth="1"/>
+    <col min="12980" max="12980" width="17.81640625" style="1" customWidth="1"/>
+    <col min="12981" max="12982" width="12.81640625" style="1" customWidth="1"/>
+    <col min="12983" max="12983" width="20.1796875" style="1" customWidth="1"/>
+    <col min="12984" max="13019" width="8.36328125" style="1"/>
+    <col min="13020" max="13020" width="6.453125" style="1" customWidth="1"/>
+    <col min="13021" max="13023" width="8.6328125" style="1" customWidth="1"/>
+    <col min="13024" max="13024" width="21.08984375" style="1" customWidth="1"/>
+    <col min="13025" max="13025" width="25.08984375" style="1" customWidth="1"/>
+    <col min="13026" max="13026" width="14.90625" style="1" customWidth="1"/>
+    <col min="13027" max="13027" width="16.90625" style="1" customWidth="1"/>
+    <col min="13028" max="13028" width="7.81640625" style="1" customWidth="1"/>
+    <col min="13029" max="13029" width="14.90625" style="1" customWidth="1"/>
+    <col min="13030" max="13030" width="9.1796875" style="1" customWidth="1"/>
+    <col min="13031" max="13031" width="11.1796875" style="1" customWidth="1"/>
+    <col min="13032" max="13032" width="16.1796875" style="1" customWidth="1"/>
+    <col min="13033" max="13033" width="13.08984375" style="1" customWidth="1"/>
+    <col min="13034" max="13036" width="12.81640625" style="1" customWidth="1"/>
+    <col min="13037" max="13037" width="11.90625" style="1" customWidth="1"/>
+    <col min="13038" max="13038" width="12.81640625" style="1" customWidth="1"/>
+    <col min="13039" max="13228" width="7.81640625" style="1" customWidth="1"/>
+    <col min="13229" max="13229" width="5.6328125" style="1" customWidth="1"/>
+    <col min="13230" max="13231" width="10.90625" style="1" customWidth="1"/>
+    <col min="13232" max="13232" width="9.08984375" style="1" customWidth="1"/>
+    <col min="13233" max="13234" width="8.6328125" style="1" customWidth="1"/>
+    <col min="13235" max="13235" width="24" style="1" customWidth="1"/>
+    <col min="13236" max="13236" width="17.81640625" style="1" customWidth="1"/>
+    <col min="13237" max="13238" width="12.81640625" style="1" customWidth="1"/>
+    <col min="13239" max="13239" width="20.1796875" style="1" customWidth="1"/>
+    <col min="13240" max="13275" width="8.36328125" style="1"/>
+    <col min="13276" max="13276" width="6.453125" style="1" customWidth="1"/>
+    <col min="13277" max="13279" width="8.6328125" style="1" customWidth="1"/>
+    <col min="13280" max="13280" width="21.08984375" style="1" customWidth="1"/>
+    <col min="13281" max="13281" width="25.08984375" style="1" customWidth="1"/>
+    <col min="13282" max="13282" width="14.90625" style="1" customWidth="1"/>
+    <col min="13283" max="13283" width="16.90625" style="1" customWidth="1"/>
+    <col min="13284" max="13284" width="7.81640625" style="1" customWidth="1"/>
+    <col min="13285" max="13285" width="14.90625" style="1" customWidth="1"/>
+    <col min="13286" max="13286" width="9.1796875" style="1" customWidth="1"/>
+    <col min="13287" max="13287" width="11.1796875" style="1" customWidth="1"/>
+    <col min="13288" max="13288" width="16.1796875" style="1" customWidth="1"/>
+    <col min="13289" max="13289" width="13.08984375" style="1" customWidth="1"/>
+    <col min="13290" max="13292" width="12.81640625" style="1" customWidth="1"/>
+    <col min="13293" max="13293" width="11.90625" style="1" customWidth="1"/>
+    <col min="13294" max="13294" width="12.81640625" style="1" customWidth="1"/>
+    <col min="13295" max="13484" width="7.81640625" style="1" customWidth="1"/>
+    <col min="13485" max="13485" width="5.6328125" style="1" customWidth="1"/>
+    <col min="13486" max="13487" width="10.90625" style="1" customWidth="1"/>
+    <col min="13488" max="13488" width="9.08984375" style="1" customWidth="1"/>
+    <col min="13489" max="13490" width="8.6328125" style="1" customWidth="1"/>
+    <col min="13491" max="13491" width="24" style="1" customWidth="1"/>
+    <col min="13492" max="13492" width="17.81640625" style="1" customWidth="1"/>
+    <col min="13493" max="13494" width="12.81640625" style="1" customWidth="1"/>
+    <col min="13495" max="13495" width="20.1796875" style="1" customWidth="1"/>
+    <col min="13496" max="13531" width="8.36328125" style="1"/>
+    <col min="13532" max="13532" width="6.453125" style="1" customWidth="1"/>
+    <col min="13533" max="13535" width="8.6328125" style="1" customWidth="1"/>
+    <col min="13536" max="13536" width="21.08984375" style="1" customWidth="1"/>
+    <col min="13537" max="13537" width="25.08984375" style="1" customWidth="1"/>
+    <col min="13538" max="13538" width="14.90625" style="1" customWidth="1"/>
+    <col min="13539" max="13539" width="16.90625" style="1" customWidth="1"/>
+    <col min="13540" max="13540" width="7.81640625" style="1" customWidth="1"/>
+    <col min="13541" max="13541" width="14.90625" style="1" customWidth="1"/>
+    <col min="13542" max="13542" width="9.1796875" style="1" customWidth="1"/>
+    <col min="13543" max="13543" width="11.1796875" style="1" customWidth="1"/>
+    <col min="13544" max="13544" width="16.1796875" style="1" customWidth="1"/>
+    <col min="13545" max="13545" width="13.08984375" style="1" customWidth="1"/>
+    <col min="13546" max="13548" width="12.81640625" style="1" customWidth="1"/>
+    <col min="13549" max="13549" width="11.90625" style="1" customWidth="1"/>
+    <col min="13550" max="13550" width="12.81640625" style="1" customWidth="1"/>
+    <col min="13551" max="13740" width="7.81640625" style="1" customWidth="1"/>
+    <col min="13741" max="13741" width="5.6328125" style="1" customWidth="1"/>
+    <col min="13742" max="13743" width="10.90625" style="1" customWidth="1"/>
+    <col min="13744" max="13744" width="9.08984375" style="1" customWidth="1"/>
+    <col min="13745" max="13746" width="8.6328125" style="1" customWidth="1"/>
+    <col min="13747" max="13747" width="24" style="1" customWidth="1"/>
+    <col min="13748" max="13748" width="17.81640625" style="1" customWidth="1"/>
+    <col min="13749" max="13750" width="12.81640625" style="1" customWidth="1"/>
+    <col min="13751" max="13751" width="20.1796875" style="1" customWidth="1"/>
+    <col min="13752" max="13787" width="8.36328125" style="1"/>
+    <col min="13788" max="13788" width="6.453125" style="1" customWidth="1"/>
+    <col min="13789" max="13791" width="8.6328125" style="1" customWidth="1"/>
+    <col min="13792" max="13792" width="21.08984375" style="1" customWidth="1"/>
+    <col min="13793" max="13793" width="25.08984375" style="1" customWidth="1"/>
+    <col min="13794" max="13794" width="14.90625" style="1" customWidth="1"/>
+    <col min="13795" max="13795" width="16.90625" style="1" customWidth="1"/>
+    <col min="13796" max="13796" width="7.81640625" style="1" customWidth="1"/>
+    <col min="13797" max="13797" width="14.90625" style="1" customWidth="1"/>
+    <col min="13798" max="13798" width="9.1796875" style="1" customWidth="1"/>
+    <col min="13799" max="13799" width="11.1796875" style="1" customWidth="1"/>
+    <col min="13800" max="13800" width="16.1796875" style="1" customWidth="1"/>
+    <col min="13801" max="13801" width="13.08984375" style="1" customWidth="1"/>
+    <col min="13802" max="13804" width="12.81640625" style="1" customWidth="1"/>
+    <col min="13805" max="13805" width="11.90625" style="1" customWidth="1"/>
+    <col min="13806" max="13806" width="12.81640625" style="1" customWidth="1"/>
+    <col min="13807" max="13996" width="7.81640625" style="1" customWidth="1"/>
+    <col min="13997" max="13997" width="5.6328125" style="1" customWidth="1"/>
+    <col min="13998" max="13999" width="10.90625" style="1" customWidth="1"/>
+    <col min="14000" max="14000" width="9.08984375" style="1" customWidth="1"/>
+    <col min="14001" max="14002" width="8.6328125" style="1" customWidth="1"/>
+    <col min="14003" max="14003" width="24" style="1" customWidth="1"/>
+    <col min="14004" max="14004" width="17.81640625" style="1" customWidth="1"/>
+    <col min="14005" max="14006" width="12.81640625" style="1" customWidth="1"/>
+    <col min="14007" max="14007" width="20.1796875" style="1" customWidth="1"/>
+    <col min="14008" max="14043" width="8.36328125" style="1"/>
+    <col min="14044" max="14044" width="6.453125" style="1" customWidth="1"/>
+    <col min="14045" max="14047" width="8.6328125" style="1" customWidth="1"/>
+    <col min="14048" max="14048" width="21.08984375" style="1" customWidth="1"/>
+    <col min="14049" max="14049" width="25.08984375" style="1" customWidth="1"/>
+    <col min="14050" max="14050" width="14.90625" style="1" customWidth="1"/>
+    <col min="14051" max="14051" width="16.90625" style="1" customWidth="1"/>
+    <col min="14052" max="14052" width="7.81640625" style="1" customWidth="1"/>
+    <col min="14053" max="14053" width="14.90625" style="1" customWidth="1"/>
+    <col min="14054" max="14054" width="9.1796875" style="1" customWidth="1"/>
+    <col min="14055" max="14055" width="11.1796875" style="1" customWidth="1"/>
+    <col min="14056" max="14056" width="16.1796875" style="1" customWidth="1"/>
+    <col min="14057" max="14057" width="13.08984375" style="1" customWidth="1"/>
+    <col min="14058" max="14060" width="12.81640625" style="1" customWidth="1"/>
+    <col min="14061" max="14061" width="11.90625" style="1" customWidth="1"/>
+    <col min="14062" max="14062" width="12.81640625" style="1" customWidth="1"/>
+    <col min="14063" max="14252" width="7.81640625" style="1" customWidth="1"/>
+    <col min="14253" max="14253" width="5.6328125" style="1" customWidth="1"/>
+    <col min="14254" max="14255" width="10.90625" style="1" customWidth="1"/>
+    <col min="14256" max="14256" width="9.08984375" style="1" customWidth="1"/>
+    <col min="14257" max="14258" width="8.6328125" style="1" customWidth="1"/>
+    <col min="14259" max="14259" width="24" style="1" customWidth="1"/>
+    <col min="14260" max="14260" width="17.81640625" style="1" customWidth="1"/>
+    <col min="14261" max="14262" width="12.81640625" style="1" customWidth="1"/>
+    <col min="14263" max="14263" width="20.1796875" style="1" customWidth="1"/>
+    <col min="14264" max="14299" width="8.36328125" style="1"/>
+    <col min="14300" max="14300" width="6.453125" style="1" customWidth="1"/>
+    <col min="14301" max="14303" width="8.6328125" style="1" customWidth="1"/>
+    <col min="14304" max="14304" width="21.08984375" style="1" customWidth="1"/>
+    <col min="14305" max="14305" width="25.08984375" style="1" customWidth="1"/>
+    <col min="14306" max="14306" width="14.90625" style="1" customWidth="1"/>
+    <col min="14307" max="14307" width="16.90625" style="1" customWidth="1"/>
+    <col min="14308" max="14308" width="7.81640625" style="1" customWidth="1"/>
+    <col min="14309" max="14309" width="14.90625" style="1" customWidth="1"/>
+    <col min="14310" max="14310" width="9.1796875" style="1" customWidth="1"/>
+    <col min="14311" max="14311" width="11.1796875" style="1" customWidth="1"/>
+    <col min="14312" max="14312" width="16.1796875" style="1" customWidth="1"/>
+    <col min="14313" max="14313" width="13.08984375" style="1" customWidth="1"/>
+    <col min="14314" max="14316" width="12.81640625" style="1" customWidth="1"/>
+    <col min="14317" max="14317" width="11.90625" style="1" customWidth="1"/>
+    <col min="14318" max="14318" width="12.81640625" style="1" customWidth="1"/>
+    <col min="14319" max="14508" width="7.81640625" style="1" customWidth="1"/>
+    <col min="14509" max="14509" width="5.6328125" style="1" customWidth="1"/>
+    <col min="14510" max="14511" width="10.90625" style="1" customWidth="1"/>
+    <col min="14512" max="14512" width="9.08984375" style="1" customWidth="1"/>
+    <col min="14513" max="14514" width="8.6328125" style="1" customWidth="1"/>
+    <col min="14515" max="14515" width="24" style="1" customWidth="1"/>
+    <col min="14516" max="14516" width="17.81640625" style="1" customWidth="1"/>
+    <col min="14517" max="14518" width="12.81640625" style="1" customWidth="1"/>
+    <col min="14519" max="14519" width="20.1796875" style="1" customWidth="1"/>
+    <col min="14520" max="14555" width="8.36328125" style="1"/>
+    <col min="14556" max="14556" width="6.453125" style="1" customWidth="1"/>
+    <col min="14557" max="14559" width="8.6328125" style="1" customWidth="1"/>
+    <col min="14560" max="14560" width="21.08984375" style="1" customWidth="1"/>
+    <col min="14561" max="14561" width="25.08984375" style="1" customWidth="1"/>
+    <col min="14562" max="14562" width="14.90625" style="1" customWidth="1"/>
+    <col min="14563" max="14563" width="16.90625" style="1" customWidth="1"/>
+    <col min="14564" max="14564" width="7.81640625" style="1" customWidth="1"/>
+    <col min="14565" max="14565" width="14.90625" style="1" customWidth="1"/>
+    <col min="14566" max="14566" width="9.1796875" style="1" customWidth="1"/>
+    <col min="14567" max="14567" width="11.1796875" style="1" customWidth="1"/>
+    <col min="14568" max="14568" width="16.1796875" style="1" customWidth="1"/>
+    <col min="14569" max="14569" width="13.08984375" style="1" customWidth="1"/>
+    <col min="14570" max="14572" width="12.81640625" style="1" customWidth="1"/>
+    <col min="14573" max="14573" width="11.90625" style="1" customWidth="1"/>
+    <col min="14574" max="14574" width="12.81640625" style="1" customWidth="1"/>
+    <col min="14575" max="14764" width="7.81640625" style="1" customWidth="1"/>
+    <col min="14765" max="14765" width="5.6328125" style="1" customWidth="1"/>
+    <col min="14766" max="14767" width="10.90625" style="1" customWidth="1"/>
+    <col min="14768" max="14768" width="9.08984375" style="1" customWidth="1"/>
+    <col min="14769" max="14770" width="8.6328125" style="1" customWidth="1"/>
+    <col min="14771" max="14771" width="24" style="1" customWidth="1"/>
+    <col min="14772" max="14772" width="17.81640625" style="1" customWidth="1"/>
+    <col min="14773" max="14774" width="12.81640625" style="1" customWidth="1"/>
+    <col min="14775" max="14775" width="20.1796875" style="1" customWidth="1"/>
+    <col min="14776" max="14811" width="8.36328125" style="1"/>
+    <col min="14812" max="14812" width="6.453125" style="1" customWidth="1"/>
+    <col min="14813" max="14815" width="8.6328125" style="1" customWidth="1"/>
+    <col min="14816" max="14816" width="21.08984375" style="1" customWidth="1"/>
+    <col min="14817" max="14817" width="25.08984375" style="1" customWidth="1"/>
+    <col min="14818" max="14818" width="14.90625" style="1" customWidth="1"/>
+    <col min="14819" max="14819" width="16.90625" style="1" customWidth="1"/>
+    <col min="14820" max="14820" width="7.81640625" style="1" customWidth="1"/>
+    <col min="14821" max="14821" width="14.90625" style="1" customWidth="1"/>
+    <col min="14822" max="14822" width="9.1796875" style="1" customWidth="1"/>
+    <col min="14823" max="14823" width="11.1796875" style="1" customWidth="1"/>
+    <col min="14824" max="14824" width="16.1796875" style="1" customWidth="1"/>
+    <col min="14825" max="14825" width="13.08984375" style="1" customWidth="1"/>
+    <col min="14826" max="14828" width="12.81640625" style="1" customWidth="1"/>
+    <col min="14829" max="14829" width="11.90625" style="1" customWidth="1"/>
+    <col min="14830" max="14830" width="12.81640625" style="1" customWidth="1"/>
+    <col min="14831" max="15020" width="7.81640625" style="1" customWidth="1"/>
+    <col min="15021" max="15021" width="5.6328125" style="1" customWidth="1"/>
+    <col min="15022" max="15023" width="10.90625" style="1" customWidth="1"/>
+    <col min="15024" max="15024" width="9.08984375" style="1" customWidth="1"/>
+    <col min="15025" max="15026" width="8.6328125" style="1" customWidth="1"/>
+    <col min="15027" max="15027" width="24" style="1" customWidth="1"/>
+    <col min="15028" max="15028" width="17.81640625" style="1" customWidth="1"/>
+    <col min="15029" max="15030" width="12.81640625" style="1" customWidth="1"/>
+    <col min="15031" max="15031" width="20.1796875" style="1" customWidth="1"/>
+    <col min="15032" max="15067" width="8.36328125" style="1"/>
+    <col min="15068" max="15068" width="6.453125" style="1" customWidth="1"/>
+    <col min="15069" max="15071" width="8.6328125" style="1" customWidth="1"/>
+    <col min="15072" max="15072" width="21.08984375" style="1" customWidth="1"/>
+    <col min="15073" max="15073" width="25.08984375" style="1" customWidth="1"/>
+    <col min="15074" max="15074" width="14.90625" style="1" customWidth="1"/>
+    <col min="15075" max="15075" width="16.90625" style="1" customWidth="1"/>
+    <col min="15076" max="15076" width="7.81640625" style="1" customWidth="1"/>
+    <col min="15077" max="15077" width="14.90625" style="1" customWidth="1"/>
+    <col min="15078" max="15078" width="9.1796875" style="1" customWidth="1"/>
+    <col min="15079" max="15079" width="11.1796875" style="1" customWidth="1"/>
+    <col min="15080" max="15080" width="16.1796875" style="1" customWidth="1"/>
+    <col min="15081" max="15081" width="13.08984375" style="1" customWidth="1"/>
+    <col min="15082" max="15084" width="12.81640625" style="1" customWidth="1"/>
+    <col min="15085" max="15085" width="11.90625" style="1" customWidth="1"/>
+    <col min="15086" max="15086" width="12.81640625" style="1" customWidth="1"/>
+    <col min="15087" max="15276" width="7.81640625" style="1" customWidth="1"/>
+    <col min="15277" max="15277" width="5.6328125" style="1" customWidth="1"/>
+    <col min="15278" max="15279" width="10.90625" style="1" customWidth="1"/>
+    <col min="15280" max="15280" width="9.08984375" style="1" customWidth="1"/>
+    <col min="15281" max="15282" width="8.6328125" style="1" customWidth="1"/>
+    <col min="15283" max="15283" width="24" style="1" customWidth="1"/>
+    <col min="15284" max="15284" width="17.81640625" style="1" customWidth="1"/>
+    <col min="15285" max="15286" width="12.81640625" style="1" customWidth="1"/>
+    <col min="15287" max="15287" width="20.1796875" style="1" customWidth="1"/>
+    <col min="15288" max="15323" width="8.36328125" style="1"/>
+    <col min="15324" max="15324" width="6.453125" style="1" customWidth="1"/>
+    <col min="15325" max="15327" width="8.6328125" style="1" customWidth="1"/>
+    <col min="15328" max="15328" width="21.08984375" style="1" customWidth="1"/>
+    <col min="15329" max="15329" width="25.08984375" style="1" customWidth="1"/>
+    <col min="15330" max="15330" width="14.90625" style="1" customWidth="1"/>
+    <col min="15331" max="15331" width="16.90625" style="1" customWidth="1"/>
+    <col min="15332" max="15332" width="7.81640625" style="1" customWidth="1"/>
+    <col min="15333" max="15333" width="14.90625" style="1" customWidth="1"/>
+    <col min="15334" max="15334" width="9.1796875" style="1" customWidth="1"/>
+    <col min="15335" max="15335" width="11.1796875" style="1" customWidth="1"/>
+    <col min="15336" max="15336" width="16.1796875" style="1" customWidth="1"/>
+    <col min="15337" max="15337" width="13.08984375" style="1" customWidth="1"/>
+    <col min="15338" max="15340" width="12.81640625" style="1" customWidth="1"/>
+    <col min="15341" max="15341" width="11.90625" style="1" customWidth="1"/>
+    <col min="15342" max="15342" width="12.81640625" style="1" customWidth="1"/>
+    <col min="15343" max="15532" width="7.81640625" style="1" customWidth="1"/>
+    <col min="15533" max="15533" width="5.6328125" style="1" customWidth="1"/>
+    <col min="15534" max="15535" width="10.90625" style="1" customWidth="1"/>
+    <col min="15536" max="15536" width="9.08984375" style="1" customWidth="1"/>
+    <col min="15537" max="15538" width="8.6328125" style="1" customWidth="1"/>
+    <col min="15539" max="15539" width="24" style="1" customWidth="1"/>
+    <col min="15540" max="15540" width="17.81640625" style="1" customWidth="1"/>
+    <col min="15541" max="15542" width="12.81640625" style="1" customWidth="1"/>
+    <col min="15543" max="15543" width="20.1796875" style="1" customWidth="1"/>
+    <col min="15544" max="15579" width="8.36328125" style="1"/>
+    <col min="15580" max="15580" width="6.453125" style="1" customWidth="1"/>
+    <col min="15581" max="15583" width="8.6328125" style="1" customWidth="1"/>
+    <col min="15584" max="15584" width="21.08984375" style="1" customWidth="1"/>
+    <col min="15585" max="15585" width="25.08984375" style="1" customWidth="1"/>
+    <col min="15586" max="15586" width="14.90625" style="1" customWidth="1"/>
+    <col min="15587" max="15587" width="16.90625" style="1" customWidth="1"/>
+    <col min="15588" max="15588" width="7.81640625" style="1" customWidth="1"/>
+    <col min="15589" max="15589" width="14.90625" style="1" customWidth="1"/>
+    <col min="15590" max="15590" width="9.1796875" style="1" customWidth="1"/>
+    <col min="15591" max="15591" width="11.1796875" style="1" customWidth="1"/>
+    <col min="15592" max="15592" width="16.1796875" style="1" customWidth="1"/>
+    <col min="15593" max="15593" width="13.08984375" style="1" customWidth="1"/>
+    <col min="15594" max="15596" width="12.81640625" style="1" customWidth="1"/>
+    <col min="15597" max="15597" width="11.90625" style="1" customWidth="1"/>
+    <col min="15598" max="15598" width="12.81640625" style="1" customWidth="1"/>
+    <col min="15599" max="15788" width="7.81640625" style="1" customWidth="1"/>
+    <col min="15789" max="15789" width="5.6328125" style="1" customWidth="1"/>
+    <col min="15790" max="15791" width="10.90625" style="1" customWidth="1"/>
+    <col min="15792" max="15792" width="9.08984375" style="1" customWidth="1"/>
+    <col min="15793" max="15794" width="8.6328125" style="1" customWidth="1"/>
+    <col min="15795" max="15795" width="24" style="1" customWidth="1"/>
+    <col min="15796" max="15796" width="17.81640625" style="1" customWidth="1"/>
+    <col min="15797" max="15798" width="12.81640625" style="1" customWidth="1"/>
+    <col min="15799" max="15799" width="20.1796875" style="1" customWidth="1"/>
+    <col min="15800" max="15835" width="8.36328125" style="1"/>
+    <col min="15836" max="15836" width="6.453125" style="1" customWidth="1"/>
+    <col min="15837" max="15839" width="8.6328125" style="1" customWidth="1"/>
+    <col min="15840" max="15840" width="21.08984375" style="1" customWidth="1"/>
+    <col min="15841" max="15841" width="25.08984375" style="1" customWidth="1"/>
+    <col min="15842" max="15842" width="14.90625" style="1" customWidth="1"/>
+    <col min="15843" max="15843" width="16.90625" style="1" customWidth="1"/>
+    <col min="15844" max="15844" width="7.81640625" style="1" customWidth="1"/>
+    <col min="15845" max="15845" width="14.90625" style="1" customWidth="1"/>
+    <col min="15846" max="15846" width="9.1796875" style="1" customWidth="1"/>
+    <col min="15847" max="15847" width="11.1796875" style="1" customWidth="1"/>
+    <col min="15848" max="15848" width="16.1796875" style="1" customWidth="1"/>
+    <col min="15849" max="15849" width="13.08984375" style="1" customWidth="1"/>
+    <col min="15850" max="15852" width="12.81640625" style="1" customWidth="1"/>
+    <col min="15853" max="15853" width="11.90625" style="1" customWidth="1"/>
+    <col min="15854" max="15854" width="12.81640625" style="1" customWidth="1"/>
+    <col min="15855" max="16044" width="7.81640625" style="1" customWidth="1"/>
+    <col min="16045" max="16045" width="5.6328125" style="1" customWidth="1"/>
+    <col min="16046" max="16047" width="10.90625" style="1" customWidth="1"/>
+    <col min="16048" max="16048" width="9.08984375" style="1" customWidth="1"/>
+    <col min="16049" max="16050" width="8.6328125" style="1" customWidth="1"/>
+    <col min="16051" max="16051" width="24" style="1" customWidth="1"/>
+    <col min="16052" max="16052" width="17.81640625" style="1" customWidth="1"/>
+    <col min="16053" max="16054" width="12.81640625" style="1" customWidth="1"/>
+    <col min="16055" max="16055" width="20.1796875" style="1" customWidth="1"/>
+    <col min="16056" max="16091" width="8.36328125" style="1"/>
+    <col min="16092" max="16092" width="6.453125" style="1" customWidth="1"/>
+    <col min="16093" max="16095" width="8.6328125" style="1" customWidth="1"/>
+    <col min="16096" max="16096" width="21.08984375" style="1" customWidth="1"/>
+    <col min="16097" max="16097" width="25.08984375" style="1" customWidth="1"/>
+    <col min="16098" max="16098" width="14.90625" style="1" customWidth="1"/>
+    <col min="16099" max="16099" width="16.90625" style="1" customWidth="1"/>
+    <col min="16100" max="16100" width="7.81640625" style="1" customWidth="1"/>
+    <col min="16101" max="16101" width="14.90625" style="1" customWidth="1"/>
+    <col min="16102" max="16102" width="9.1796875" style="1" customWidth="1"/>
+    <col min="16103" max="16103" width="11.1796875" style="1" customWidth="1"/>
+    <col min="16104" max="16104" width="16.1796875" style="1" customWidth="1"/>
+    <col min="16105" max="16105" width="13.08984375" style="1" customWidth="1"/>
+    <col min="16106" max="16108" width="12.81640625" style="1" customWidth="1"/>
+    <col min="16109" max="16109" width="11.90625" style="1" customWidth="1"/>
+    <col min="16110" max="16110" width="12.81640625" style="1" customWidth="1"/>
+    <col min="16111" max="16300" width="7.81640625" style="1" customWidth="1"/>
+    <col min="16301" max="16301" width="5.6328125" style="1" customWidth="1"/>
+    <col min="16302" max="16303" width="10.90625" style="1" customWidth="1"/>
+    <col min="16304" max="16304" width="9.08984375" style="1" customWidth="1"/>
+    <col min="16305" max="16306" width="8.6328125" style="1" customWidth="1"/>
+    <col min="16307" max="16307" width="24" style="1" customWidth="1"/>
+    <col min="16308" max="16308" width="17.81640625" style="1" customWidth="1"/>
+    <col min="16309" max="16310" width="12.81640625" style="1" customWidth="1"/>
+    <col min="16311" max="16311" width="20.1796875" style="1" customWidth="1"/>
+    <col min="16312" max="16384" width="8.36328125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21">
       <c r="D1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="O1" s="4"/>
       <c r="Q1" s="4"/>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21">
       <c r="D2" s="5" t="s">
         <v>1</v>
       </c>
       <c r="O2" s="6"/>
       <c r="Q2" s="6"/>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21">
       <c r="D3" s="5" t="s">
         <v>2</v>
       </c>
       <c r="O3" s="6"/>
       <c r="Q3" s="6"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21">
       <c r="D4" s="5" t="s">
         <v>3</v>
       </c>
       <c r="O4" s="4"/>
       <c r="Q4" s="4"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21">
       <c r="D5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="39"/>
-      <c r="H5" s="39"/>
-      <c r="I5" s="39"/>
-      <c r="J5" s="39"/>
-      <c r="K5" s="39"/>
-      <c r="L5" s="39"/>
-      <c r="M5" s="39"/>
-      <c r="N5" s="39"/>
-      <c r="O5" s="39"/>
-      <c r="P5" s="39"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="29"/>
+      <c r="J5" s="29"/>
+      <c r="K5" s="29"/>
+      <c r="L5" s="29"/>
+      <c r="M5" s="29"/>
+      <c r="N5" s="29"/>
+      <c r="O5" s="29"/>
+      <c r="P5" s="29"/>
       <c r="Q5" s="6"/>
     </row>
-    <row r="6" spans="1:20" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="40" t="s">
+    <row r="6" spans="1:21" ht="46.5" customHeight="1">
+      <c r="A6" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="40"/>
-      <c r="C6" s="40"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="40"/>
-      <c r="H6" s="40"/>
-      <c r="I6" s="40"/>
-      <c r="J6" s="40"/>
-      <c r="K6" s="40"/>
-      <c r="L6" s="40"/>
-      <c r="M6" s="40"/>
-      <c r="N6" s="40"/>
-      <c r="O6" s="40"/>
-      <c r="P6" s="40"/>
-      <c r="Q6" s="40"/>
+      <c r="B6" s="30"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="30"/>
+      <c r="J6" s="30"/>
+      <c r="K6" s="30"/>
+      <c r="L6" s="30"/>
+      <c r="M6" s="30"/>
+      <c r="N6" s="30"/>
+      <c r="O6" s="30"/>
+      <c r="P6" s="30"/>
+      <c r="Q6" s="30"/>
     </row>
-    <row r="7" spans="1:20" s="7" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="41" t="s">
+    <row r="7" spans="1:21" s="7" customFormat="1" ht="27.75" customHeight="1">
+      <c r="A7" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="41"/>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="41"/>
-      <c r="F7" s="41"/>
-      <c r="G7" s="41"/>
-      <c r="H7" s="41"/>
-      <c r="I7" s="41"/>
-      <c r="J7" s="41"/>
-      <c r="K7" s="41"/>
-      <c r="L7" s="41"/>
-      <c r="M7" s="41"/>
-      <c r="N7" s="41"/>
-      <c r="O7" s="41"/>
-      <c r="P7" s="41"/>
-      <c r="Q7" s="41"/>
+      <c r="B7" s="31"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="31"/>
+      <c r="G7" s="31"/>
+      <c r="H7" s="31"/>
+      <c r="I7" s="31"/>
+      <c r="J7" s="31"/>
+      <c r="K7" s="31"/>
+      <c r="L7" s="31"/>
+      <c r="M7" s="31"/>
+      <c r="N7" s="31"/>
+      <c r="O7" s="31"/>
+      <c r="P7" s="31"/>
+      <c r="Q7" s="31"/>
     </row>
-    <row r="8" spans="1:20" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="42" t="s">
+    <row r="8" spans="1:21" ht="25.5" customHeight="1">
+      <c r="A8" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="42"/>
-      <c r="C8" s="42"/>
-      <c r="D8" s="42"/>
-      <c r="E8" s="42"/>
-      <c r="F8" s="42"/>
-      <c r="G8" s="42"/>
-      <c r="H8" s="42"/>
-      <c r="I8" s="42"/>
-      <c r="J8" s="42"/>
-      <c r="K8" s="42"/>
-      <c r="L8" s="42"/>
-      <c r="M8" s="42"/>
-      <c r="N8" s="42"/>
-      <c r="O8" s="42"/>
-      <c r="P8" s="42"/>
-      <c r="Q8" s="42"/>
+      <c r="B8" s="32"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="32"/>
+      <c r="I8" s="32"/>
+      <c r="J8" s="32"/>
+      <c r="K8" s="32"/>
+      <c r="L8" s="32"/>
+      <c r="M8" s="32"/>
+      <c r="N8" s="32"/>
+      <c r="O8" s="32"/>
+      <c r="P8" s="32"/>
+      <c r="Q8" s="32"/>
     </row>
-    <row r="9" spans="1:20" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" ht="101.25" customHeight="1">
       <c r="A9" s="8" t="s">
         <v>8</v>
       </c>
@@ -33606,10 +33757,10 @@
         <v>13</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>179</v>
+        <v>163</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>177</v>
+        <v>161</v>
       </c>
       <c r="I9" s="8" t="s">
         <v>14</v>
@@ -33624,31 +33775,34 @@
         <v>17</v>
       </c>
       <c r="M9" s="10" t="s">
-        <v>188</v>
+        <v>172</v>
       </c>
       <c r="N9" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="O9" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="P9" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q9" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="R9" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="S9" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="T9" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="U9" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="O9" s="8" t="s">
-        <v>189</v>
-      </c>
-      <c r="P9" s="8" t="s">
-        <v>190</v>
-      </c>
-      <c r="Q9" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="R9" s="10" t="s">
-        <v>192</v>
-      </c>
-      <c r="S9" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="T9" s="10" t="s">
-        <v>194</v>
-      </c>
     </row>
-    <row r="10" spans="1:20" s="22" customFormat="1" ht="60" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:21" s="22" customFormat="1" ht="28.8">
       <c r="A10" s="11">
         <v>1</v>
       </c>
@@ -33671,7 +33825,7 @@
         <v>21</v>
       </c>
       <c r="H10" s="16" t="s">
-        <v>180</v>
+        <v>164</v>
       </c>
       <c r="I10" s="17" t="s">
         <v>22</v>
@@ -33686,10 +33840,10 @@
         <v>25</v>
       </c>
       <c r="M10" s="20" t="s">
-        <v>26</v>
+        <v>180</v>
       </c>
       <c r="N10" s="20" t="s">
-        <v>182</v>
+        <v>166</v>
       </c>
       <c r="O10" s="21">
         <v>7690</v>
@@ -33697,126 +33851,135 @@
       <c r="P10" s="21">
         <v>7690</v>
       </c>
-      <c r="Q10" s="21">
-        <v>7690</v>
-      </c>
-      <c r="R10" s="20"/>
+      <c r="Q10" s="33">
+        <v>2800</v>
+      </c>
+      <c r="R10" s="21">
+        <v>1</v>
+      </c>
       <c r="S10" s="20"/>
       <c r="T10" s="20"/>
+      <c r="U10" s="20"/>
     </row>
-    <row r="11" spans="1:20" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:21" s="22" customFormat="1" ht="28.8">
       <c r="A11" s="11">
         <v>2</v>
       </c>
       <c r="B11" s="12">
-        <v>48</v>
+        <v>548</v>
       </c>
       <c r="C11" s="13">
         <v>1</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="F11" s="15" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G11" s="16" t="s">
-        <v>30</v>
+        <v>181</v>
       </c>
       <c r="H11" s="16" t="s">
-        <v>180</v>
+        <v>164</v>
       </c>
       <c r="I11" s="17" t="s">
         <v>22</v>
       </c>
       <c r="J11" s="17" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="K11" s="18" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="L11" s="19" t="s">
         <v>25</v>
       </c>
       <c r="M11" s="20" t="s">
-        <v>33</v>
+        <v>182</v>
       </c>
       <c r="N11" s="20" t="s">
-        <v>33</v>
+        <v>169</v>
       </c>
       <c r="O11" s="21">
-        <v>8500</v>
+        <v>15500</v>
       </c>
       <c r="P11" s="21">
-        <v>7791</v>
-      </c>
-      <c r="Q11" s="21">
-        <v>8500</v>
-      </c>
-      <c r="R11" s="20"/>
+        <v>15400</v>
+      </c>
+      <c r="Q11" s="33">
+        <v>6800</v>
+      </c>
+      <c r="R11" s="21">
+        <v>1</v>
+      </c>
       <c r="S11" s="20"/>
       <c r="T11" s="20"/>
+      <c r="U11" s="20"/>
     </row>
-    <row r="12" spans="1:20" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:21" s="22" customFormat="1" ht="28.8">
       <c r="A12" s="11">
         <v>3</v>
       </c>
       <c r="B12" s="12">
-        <v>548</v>
+        <v>48</v>
       </c>
       <c r="C12" s="13">
         <v>1</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="F12" s="15" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="G12" s="16" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H12" s="16" t="s">
-        <v>180</v>
+        <v>164</v>
       </c>
       <c r="I12" s="17" t="s">
         <v>22</v>
       </c>
       <c r="J12" s="17" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="K12" s="18" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="L12" s="19" t="s">
         <v>25</v>
       </c>
       <c r="M12" s="20" t="s">
-        <v>40</v>
+        <v>183</v>
       </c>
       <c r="N12" s="20" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="O12" s="21">
-        <v>15500</v>
+        <v>8500</v>
       </c>
       <c r="P12" s="21">
-        <v>15400</v>
-      </c>
-      <c r="Q12" s="21">
-        <v>15500</v>
-      </c>
-      <c r="R12" s="20"/>
+        <v>7791</v>
+      </c>
+      <c r="Q12" s="33">
+        <v>3750</v>
+      </c>
+      <c r="R12" s="21">
+        <v>1</v>
+      </c>
       <c r="S12" s="20"/>
       <c r="T12" s="20"/>
+      <c r="U12" s="20"/>
     </row>
-    <row r="13" spans="1:20" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:21" s="22" customFormat="1" ht="28.8">
       <c r="A13" s="11">
         <v>4</v>
       </c>
@@ -33827,37 +33990,37 @@
         <v>1</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F13" s="15" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G13" s="16" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="H13" s="16" t="s">
-        <v>180</v>
+        <v>164</v>
       </c>
       <c r="I13" s="17" t="s">
         <v>22</v>
       </c>
       <c r="J13" s="17" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="K13" s="18" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="L13" s="19" t="s">
         <v>25</v>
       </c>
       <c r="M13" s="20" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="N13" s="20" t="s">
-        <v>185</v>
+        <v>169</v>
       </c>
       <c r="O13" s="21">
         <v>8000</v>
@@ -33865,429 +34028,453 @@
       <c r="P13" s="21">
         <v>6800</v>
       </c>
-      <c r="Q13" s="21">
-        <v>8000</v>
-      </c>
-      <c r="R13" s="20"/>
+      <c r="Q13" s="33">
+        <v>3400</v>
+      </c>
+      <c r="R13" s="21">
+        <v>1</v>
+      </c>
       <c r="S13" s="20"/>
       <c r="T13" s="20"/>
+      <c r="U13" s="20"/>
     </row>
-    <row r="14" spans="1:20" s="22" customFormat="1" ht="45" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:21" s="22" customFormat="1" ht="28.8">
       <c r="A14" s="11">
         <v>5</v>
       </c>
       <c r="B14" s="12">
-        <v>43</v>
+        <v>427</v>
       </c>
       <c r="C14" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="F14" s="15" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="G14" s="16" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="H14" s="16" t="s">
-        <v>180</v>
+        <v>164</v>
       </c>
       <c r="I14" s="17" t="s">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="J14" s="17" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K14" s="18" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="L14" s="19" t="s">
         <v>25</v>
       </c>
       <c r="M14" s="20" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="N14" s="20" t="s">
-        <v>182</v>
-      </c>
-      <c r="O14" s="21">
-        <v>103000</v>
+        <v>167</v>
+      </c>
+      <c r="O14" s="21" t="s">
+        <v>58</v>
       </c>
       <c r="P14" s="21">
-        <v>98000</v>
-      </c>
-      <c r="Q14" s="21">
-        <v>103000</v>
-      </c>
-      <c r="R14" s="20"/>
+        <v>4000</v>
+      </c>
+      <c r="Q14" s="33">
+        <v>1050</v>
+      </c>
+      <c r="R14" s="21">
+        <v>1</v>
+      </c>
       <c r="S14" s="20"/>
       <c r="T14" s="20"/>
+      <c r="U14" s="20"/>
     </row>
-    <row r="15" spans="1:20" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:21" s="22" customFormat="1" ht="43.2">
       <c r="A15" s="11">
         <v>6</v>
       </c>
       <c r="B15" s="12">
-        <v>427</v>
+        <v>317</v>
       </c>
       <c r="C15" s="13">
         <v>2</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F15" s="15" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="G15" s="16" t="s">
-        <v>59</v>
+        <v>185</v>
       </c>
       <c r="H15" s="16" t="s">
-        <v>180</v>
+        <v>164</v>
       </c>
       <c r="I15" s="17" t="s">
-        <v>22</v>
+        <v>62</v>
       </c>
       <c r="J15" s="17" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="K15" s="18" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="L15" s="19" t="s">
         <v>25</v>
       </c>
       <c r="M15" s="20" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="N15" s="20" t="s">
-        <v>183</v>
-      </c>
-      <c r="O15" s="21" t="s">
-        <v>63</v>
+        <v>170</v>
+      </c>
+      <c r="O15" s="21">
+        <v>62000</v>
       </c>
       <c r="P15" s="21">
-        <v>4000</v>
-      </c>
-      <c r="Q15" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="R15" s="20"/>
+        <v>62000</v>
+      </c>
+      <c r="Q15" s="33">
+        <v>32000</v>
+      </c>
+      <c r="R15" s="21">
+        <v>1</v>
+      </c>
       <c r="S15" s="20"/>
       <c r="T15" s="20"/>
+      <c r="U15" s="20"/>
     </row>
-    <row r="16" spans="1:20" s="22" customFormat="1" ht="45" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:21" s="22" customFormat="1" ht="43.2">
       <c r="A16" s="11">
         <v>7</v>
       </c>
       <c r="B16" s="12">
-        <v>317</v>
+        <v>43</v>
       </c>
       <c r="C16" s="13">
         <v>2</v>
       </c>
       <c r="D16" s="14" t="s">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="F16" s="15" t="s">
         <v>66</v>
       </c>
       <c r="G16" s="16" t="s">
+        <v>186</v>
+      </c>
+      <c r="H16" s="16" t="s">
+        <v>164</v>
+      </c>
+      <c r="I16" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="J16" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="K16" s="18" t="s">
         <v>67</v>
-      </c>
-      <c r="H16" s="16" t="s">
-        <v>180</v>
-      </c>
-      <c r="I16" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="J16" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="K16" s="18" t="s">
-        <v>70</v>
       </c>
       <c r="L16" s="19" t="s">
         <v>25</v>
       </c>
       <c r="M16" s="20" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="N16" s="20" t="s">
-        <v>186</v>
+        <v>170</v>
       </c>
       <c r="O16" s="21">
-        <v>62000</v>
+        <v>98000</v>
       </c>
       <c r="P16" s="21">
-        <v>62000</v>
-      </c>
-      <c r="Q16" s="21">
-        <v>62000</v>
-      </c>
-      <c r="R16" s="20"/>
+        <v>98000</v>
+      </c>
+      <c r="Q16" s="33">
+        <v>36600</v>
+      </c>
+      <c r="R16" s="21">
+        <v>1</v>
+      </c>
       <c r="S16" s="20"/>
       <c r="T16" s="20"/>
+      <c r="U16" s="20"/>
     </row>
-    <row r="17" spans="1:20" s="22" customFormat="1" ht="45" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:21" s="22" customFormat="1" ht="57.6">
       <c r="A17" s="11">
         <v>8</v>
       </c>
       <c r="B17" s="12">
-        <v>43</v>
+        <v>169</v>
       </c>
       <c r="C17" s="13">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D17" s="14" t="s">
-        <v>48</v>
+        <v>89</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>49</v>
+        <v>90</v>
       </c>
       <c r="F17" s="15" t="s">
-        <v>72</v>
+        <v>91</v>
       </c>
       <c r="G17" s="16" t="s">
-        <v>51</v>
+        <v>92</v>
       </c>
       <c r="H17" s="16" t="s">
-        <v>180</v>
+        <v>164</v>
       </c>
       <c r="I17" s="17" t="s">
-        <v>52</v>
+        <v>93</v>
       </c>
       <c r="J17" s="17" t="s">
-        <v>53</v>
+        <v>94</v>
       </c>
       <c r="K17" s="18" t="s">
-        <v>73</v>
+        <v>95</v>
       </c>
       <c r="L17" s="19" t="s">
         <v>25</v>
       </c>
       <c r="M17" s="20" t="s">
-        <v>71</v>
+        <v>96</v>
       </c>
       <c r="N17" s="20" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="O17" s="21">
-        <v>98000</v>
+        <v>4550</v>
       </c>
       <c r="P17" s="21">
-        <v>98000</v>
-      </c>
-      <c r="Q17" s="21">
-        <v>98000</v>
-      </c>
-      <c r="R17" s="20"/>
+        <v>4550</v>
+      </c>
+      <c r="Q17" s="33">
+        <v>2843</v>
+      </c>
+      <c r="R17" s="21">
+        <v>1</v>
+      </c>
       <c r="S17" s="20"/>
       <c r="T17" s="20"/>
+      <c r="U17" s="20"/>
     </row>
-    <row r="18" spans="1:20" s="22" customFormat="1" ht="45" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:21" s="22" customFormat="1" ht="43.2">
       <c r="A18" s="11">
         <v>9</v>
       </c>
       <c r="B18" s="12">
-        <v>317</v>
+        <v>962</v>
       </c>
       <c r="C18" s="13">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D18" s="14" t="s">
-        <v>74</v>
+        <v>105</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>75</v>
+        <v>106</v>
       </c>
       <c r="F18" s="15" t="s">
-        <v>76</v>
+        <v>107</v>
       </c>
       <c r="G18" s="16" t="s">
-        <v>77</v>
+        <v>186</v>
       </c>
       <c r="H18" s="16" t="s">
-        <v>180</v>
+        <v>164</v>
       </c>
       <c r="I18" s="17" t="s">
-        <v>22</v>
+        <v>100</v>
       </c>
       <c r="J18" s="17" t="s">
-        <v>78</v>
+        <v>108</v>
       </c>
       <c r="K18" s="18" t="s">
-        <v>79</v>
+        <v>109</v>
       </c>
       <c r="L18" s="19" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="M18" s="20" t="s">
-        <v>81</v>
+        <v>187</v>
       </c>
       <c r="N18" s="20" t="s">
-        <v>187</v>
+        <v>167</v>
       </c>
       <c r="O18" s="21">
-        <v>26000</v>
+        <v>49000</v>
       </c>
       <c r="P18" s="21">
-        <v>26000</v>
-      </c>
-      <c r="Q18" s="21">
-        <v>26000</v>
-      </c>
-      <c r="R18" s="20"/>
+        <v>49000</v>
+      </c>
+      <c r="Q18" s="33">
+        <v>25000</v>
+      </c>
+      <c r="R18" s="21">
+        <v>1</v>
+      </c>
       <c r="S18" s="20"/>
       <c r="T18" s="20"/>
+      <c r="U18" s="20"/>
     </row>
-    <row r="19" spans="1:20" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:21" s="22" customFormat="1" ht="43.2">
       <c r="A19" s="11">
         <v>10</v>
       </c>
       <c r="B19" s="12">
-        <v>529</v>
+        <v>317</v>
       </c>
       <c r="C19" s="13">
         <v>2</v>
       </c>
       <c r="D19" s="14" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="F19" s="15" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="G19" s="16" t="s">
-        <v>85</v>
+        <v>188</v>
       </c>
       <c r="H19" s="16" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="I19" s="17" t="s">
         <v>22</v>
       </c>
       <c r="J19" s="17" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="K19" s="18" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="L19" s="19" t="s">
-        <v>25</v>
+        <v>73</v>
       </c>
       <c r="M19" s="20" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="N19" s="20" t="s">
-        <v>186</v>
+        <v>171</v>
       </c>
       <c r="O19" s="21">
-        <v>10920</v>
+        <v>26000</v>
       </c>
       <c r="P19" s="21">
-        <v>10000</v>
-      </c>
-      <c r="Q19" s="21">
-        <v>10920</v>
-      </c>
-      <c r="R19" s="20"/>
+        <v>26000</v>
+      </c>
+      <c r="Q19" s="33">
+        <v>13500</v>
+      </c>
+      <c r="R19" s="21">
+        <v>1</v>
+      </c>
       <c r="S19" s="20"/>
       <c r="T19" s="20"/>
+      <c r="U19" s="20"/>
     </row>
-    <row r="20" spans="1:20" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:21" s="22" customFormat="1" ht="28.8">
       <c r="A20" s="11">
         <v>11</v>
       </c>
-      <c r="B20" s="12">
-        <v>501</v>
-      </c>
-      <c r="C20" s="13">
-        <v>3</v>
-      </c>
-      <c r="D20" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="E20" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="F20" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="G20" s="16" t="s">
-        <v>92</v>
+      <c r="B20" s="34">
+        <v>968</v>
+      </c>
+      <c r="C20" s="35">
+        <v>4</v>
+      </c>
+      <c r="D20" s="36" t="s">
+        <v>97</v>
+      </c>
+      <c r="E20" s="37" t="s">
+        <v>98</v>
+      </c>
+      <c r="F20" s="38" t="s">
+        <v>190</v>
+      </c>
+      <c r="G20" s="39" t="s">
+        <v>191</v>
       </c>
       <c r="H20" s="16" t="s">
-        <v>180</v>
-      </c>
-      <c r="I20" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="J20" s="17" t="s">
-        <v>93</v>
-      </c>
-      <c r="K20" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="L20" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="M20" s="20" t="s">
-        <v>95</v>
+        <v>164</v>
+      </c>
+      <c r="I20" s="40" t="s">
+        <v>62</v>
+      </c>
+      <c r="J20" s="40" t="s">
+        <v>192</v>
+      </c>
+      <c r="K20" s="41" t="s">
+        <v>193</v>
+      </c>
+      <c r="L20" s="42" t="s">
+        <v>194</v>
+      </c>
+      <c r="M20" s="43" t="s">
+        <v>195</v>
       </c>
       <c r="N20" s="20" t="s">
-        <v>183</v>
-      </c>
-      <c r="O20" s="21">
-        <v>9000</v>
-      </c>
-      <c r="P20" s="21">
-        <v>9000</v>
-      </c>
-      <c r="Q20" s="21">
-        <v>9000</v>
-      </c>
-      <c r="R20" s="20"/>
+        <v>167</v>
+      </c>
+      <c r="O20" s="44">
+        <v>30000</v>
+      </c>
+      <c r="P20" s="44">
+        <v>30000</v>
+      </c>
+      <c r="Q20" s="45">
+        <v>13000</v>
+      </c>
+      <c r="R20" s="21">
+        <v>0</v>
+      </c>
       <c r="S20" s="20"/>
       <c r="T20" s="20"/>
+      <c r="U20" s="20"/>
     </row>
-    <row r="21" spans="1:20" s="22" customFormat="1" ht="60" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:21" s="22" customFormat="1" ht="62.25" customHeight="1">
       <c r="A21" s="11">
         <v>12</v>
       </c>
       <c r="B21" s="12">
-        <v>169</v>
+        <v>968</v>
       </c>
       <c r="C21" s="13">
         <v>4</v>
       </c>
       <c r="D21" s="14" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F21" s="15" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G21" s="16" t="s">
-        <v>99</v>
+        <v>196</v>
       </c>
       <c r="H21" s="16" t="s">
-        <v>180</v>
+        <v>164</v>
       </c>
       <c r="I21" s="17" t="s">
         <v>100</v>
@@ -34305,22 +34492,25 @@
         <v>103</v>
       </c>
       <c r="N21" s="20" t="s">
-        <v>183</v>
+        <v>167</v>
       </c>
       <c r="O21" s="21">
-        <v>4550</v>
+        <v>30000</v>
       </c>
       <c r="P21" s="21">
-        <v>4550</v>
-      </c>
-      <c r="Q21" s="21">
-        <v>4550</v>
-      </c>
-      <c r="R21" s="20"/>
+        <v>30000</v>
+      </c>
+      <c r="Q21" s="33">
+        <v>15000</v>
+      </c>
+      <c r="R21" s="21">
+        <v>1</v>
+      </c>
       <c r="S21" s="20"/>
       <c r="T21" s="20"/>
+      <c r="U21" s="20"/>
     </row>
-    <row r="22" spans="1:20" s="22" customFormat="1" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:21" s="22" customFormat="1" ht="28.8">
       <c r="A22" s="11">
         <v>13</v>
       </c>
@@ -34331,332 +34521,348 @@
         <v>4</v>
       </c>
       <c r="D22" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="E22" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="E22" s="11" t="s">
-        <v>105</v>
-      </c>
       <c r="F22" s="15" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="G22" s="16" t="s">
-        <v>107</v>
+        <v>196</v>
       </c>
       <c r="H22" s="16" t="s">
-        <v>180</v>
+        <v>164</v>
       </c>
       <c r="I22" s="17" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="J22" s="17" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="K22" s="18" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="L22" s="19" t="s">
         <v>25</v>
       </c>
       <c r="M22" s="20" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="N22" s="20" t="s">
-        <v>183</v>
+        <v>167</v>
       </c>
       <c r="O22" s="21">
-        <v>30000</v>
+        <v>67000</v>
       </c>
       <c r="P22" s="21">
-        <v>30000</v>
-      </c>
-      <c r="Q22" s="21">
-        <v>30000</v>
-      </c>
-      <c r="R22" s="20"/>
+        <v>65000</v>
+      </c>
+      <c r="Q22" s="33">
+        <v>24000</v>
+      </c>
+      <c r="R22" s="21">
+        <v>1</v>
+      </c>
       <c r="S22" s="20"/>
       <c r="T22" s="20"/>
+      <c r="U22" s="20"/>
     </row>
-    <row r="23" spans="1:20" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:21" s="22" customFormat="1" ht="86.4">
       <c r="A23" s="11">
         <v>14</v>
       </c>
       <c r="B23" s="12">
-        <v>968</v>
+        <v>1007</v>
       </c>
       <c r="C23" s="13">
         <v>4</v>
       </c>
       <c r="D23" s="14" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="E23" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="F23" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="F23" s="15" t="s">
-        <v>106</v>
-      </c>
       <c r="G23" s="16" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="H23" s="16" t="s">
-        <v>180</v>
+        <v>164</v>
       </c>
       <c r="I23" s="17" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="J23" s="17" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="K23" s="18" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="L23" s="19" t="s">
         <v>25</v>
       </c>
       <c r="M23" s="20" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="N23" s="20" t="s">
-        <v>183</v>
+        <v>167</v>
       </c>
       <c r="O23" s="21">
-        <v>67000</v>
+        <v>4760</v>
       </c>
       <c r="P23" s="21">
-        <v>65000</v>
-      </c>
-      <c r="Q23" s="21">
-        <v>67000</v>
-      </c>
-      <c r="R23" s="20"/>
+        <v>4760</v>
+      </c>
+      <c r="Q23" s="33">
+        <v>1980</v>
+      </c>
+      <c r="R23" s="21">
+        <v>1</v>
+      </c>
       <c r="S23" s="20"/>
       <c r="T23" s="20"/>
+      <c r="U23" s="20"/>
     </row>
-    <row r="24" spans="1:20" s="22" customFormat="1" ht="45" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:21" s="22" customFormat="1" ht="28.8">
       <c r="A24" s="11">
         <v>15</v>
       </c>
       <c r="B24" s="12">
-        <v>962</v>
+        <v>501</v>
       </c>
       <c r="C24" s="13">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D24" s="14" t="s">
-        <v>113</v>
+        <v>82</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>114</v>
+        <v>83</v>
       </c>
       <c r="F24" s="15" t="s">
-        <v>115</v>
+        <v>84</v>
       </c>
       <c r="G24" s="16" t="s">
-        <v>67</v>
+        <v>85</v>
       </c>
       <c r="H24" s="16" t="s">
-        <v>180</v>
+        <v>164</v>
       </c>
       <c r="I24" s="17" t="s">
-        <v>108</v>
+        <v>22</v>
       </c>
       <c r="J24" s="17" t="s">
-        <v>116</v>
+        <v>86</v>
       </c>
       <c r="K24" s="18" t="s">
-        <v>117</v>
+        <v>87</v>
       </c>
       <c r="L24" s="19" t="s">
         <v>25</v>
       </c>
       <c r="M24" s="20" t="s">
-        <v>118</v>
+        <v>88</v>
       </c>
       <c r="N24" s="20" t="s">
-        <v>183</v>
+        <v>167</v>
       </c>
       <c r="O24" s="21">
-        <v>49000</v>
+        <v>9000</v>
       </c>
       <c r="P24" s="21">
-        <v>49000</v>
-      </c>
-      <c r="Q24" s="21">
-        <v>49000</v>
-      </c>
-      <c r="R24" s="20"/>
+        <v>9000</v>
+      </c>
+      <c r="Q24" s="33">
+        <v>4218</v>
+      </c>
+      <c r="R24" s="21">
+        <v>1</v>
+      </c>
       <c r="S24" s="20"/>
       <c r="T24" s="20"/>
+      <c r="U24" s="20"/>
     </row>
-    <row r="25" spans="1:20" s="22" customFormat="1" ht="90" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:21" s="22" customFormat="1" ht="43.2">
       <c r="A25" s="11">
         <v>16</v>
       </c>
       <c r="B25" s="12">
-        <v>1007</v>
+        <v>675</v>
       </c>
       <c r="C25" s="13">
         <v>4</v>
       </c>
       <c r="D25" s="14" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="F25" s="15" t="s">
-        <v>121</v>
+        <v>197</v>
       </c>
       <c r="G25" s="16" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="H25" s="16" t="s">
-        <v>180</v>
+        <v>165</v>
       </c>
       <c r="I25" s="17" t="s">
-        <v>100</v>
+        <v>126</v>
       </c>
       <c r="J25" s="17" t="s">
-        <v>123</v>
+        <v>198</v>
       </c>
       <c r="K25" s="18" t="s">
-        <v>124</v>
+        <v>199</v>
       </c>
       <c r="L25" s="19" t="s">
         <v>25</v>
       </c>
       <c r="M25" s="20" t="s">
-        <v>125</v>
+        <v>200</v>
       </c>
       <c r="N25" s="20" t="s">
-        <v>183</v>
+        <v>167</v>
       </c>
       <c r="O25" s="21">
-        <v>4760</v>
+        <v>40000</v>
       </c>
       <c r="P25" s="21">
-        <v>4760</v>
-      </c>
-      <c r="Q25" s="21">
-        <v>4760</v>
-      </c>
-      <c r="R25" s="20"/>
+        <v>40000</v>
+      </c>
+      <c r="Q25" s="21"/>
+      <c r="R25" s="21">
+        <v>1</v>
+      </c>
       <c r="S25" s="20"/>
       <c r="T25" s="20"/>
+      <c r="U25" s="20"/>
     </row>
-    <row r="26" spans="1:20" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:21" s="22" customFormat="1" ht="43.2">
       <c r="A26" s="11">
         <v>17</v>
       </c>
       <c r="B26" s="12">
-        <v>949</v>
+        <v>43</v>
       </c>
       <c r="C26" s="13">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D26" s="14" t="s">
-        <v>126</v>
+        <v>44</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>127</v>
+        <v>45</v>
       </c>
       <c r="F26" s="15" t="s">
-        <v>128</v>
+        <v>46</v>
       </c>
       <c r="G26" s="16" t="s">
-        <v>129</v>
+        <v>201</v>
       </c>
       <c r="H26" s="16" t="s">
-        <v>180</v>
+        <v>164</v>
       </c>
       <c r="I26" s="17" t="s">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="J26" s="17" t="s">
-        <v>69</v>
+        <v>48</v>
       </c>
       <c r="K26" s="18" t="s">
-        <v>130</v>
+        <v>49</v>
       </c>
       <c r="L26" s="19" t="s">
         <v>25</v>
       </c>
       <c r="M26" s="20" t="s">
-        <v>131</v>
+        <v>50</v>
       </c>
       <c r="N26" s="20" t="s">
-        <v>183</v>
+        <v>166</v>
       </c>
       <c r="O26" s="21">
-        <v>40000</v>
+        <v>103000</v>
       </c>
       <c r="P26" s="21">
-        <v>40000</v>
-      </c>
-      <c r="Q26" s="21">
-        <v>40000</v>
-      </c>
-      <c r="R26" s="20"/>
+        <v>98000</v>
+      </c>
+      <c r="Q26" s="33">
+        <v>58000</v>
+      </c>
+      <c r="R26" s="21">
+        <v>1</v>
+      </c>
       <c r="S26" s="20"/>
       <c r="T26" s="20"/>
+      <c r="U26" s="20"/>
     </row>
-    <row r="27" spans="1:20" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:21" s="22" customFormat="1" ht="43.2">
       <c r="A27" s="11">
         <v>18</v>
       </c>
       <c r="B27" s="12">
-        <v>675</v>
+        <v>134</v>
       </c>
       <c r="C27" s="13">
         <v>4</v>
       </c>
       <c r="D27" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="E27" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="F27" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="G27" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="H27" s="16" t="s">
+        <v>165</v>
+      </c>
+      <c r="I27" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="J27" s="17" t="s">
         <v>132</v>
       </c>
-      <c r="E27" s="11" t="s">
+      <c r="K27" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="F27" s="15" t="s">
+      <c r="L27" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="M27" s="20" t="s">
         <v>134</v>
       </c>
-      <c r="G27" s="16" t="s">
-        <v>135</v>
-      </c>
-      <c r="H27" s="16" t="s">
-        <v>181</v>
-      </c>
-      <c r="I27" s="17" t="s">
-        <v>136</v>
-      </c>
-      <c r="J27" s="17" t="s">
-        <v>137</v>
-      </c>
-      <c r="K27" s="18" t="s">
-        <v>138</v>
-      </c>
-      <c r="L27" s="19" t="s">
-        <v>139</v>
-      </c>
-      <c r="M27" s="20" t="s">
-        <v>140</v>
-      </c>
       <c r="N27" s="20" t="s">
-        <v>183</v>
+        <v>167</v>
       </c>
       <c r="O27" s="21">
-        <v>40000</v>
+        <v>125000</v>
       </c>
       <c r="P27" s="21">
-        <v>40000</v>
-      </c>
-      <c r="Q27" s="21">
-        <v>40000</v>
-      </c>
-      <c r="R27" s="20"/>
+        <v>74500</v>
+      </c>
+      <c r="Q27" s="33">
+        <v>31000</v>
+      </c>
+      <c r="R27" s="21">
+        <v>1</v>
+      </c>
       <c r="S27" s="20"/>
       <c r="T27" s="20"/>
+      <c r="U27" s="20"/>
     </row>
-    <row r="28" spans="1:20" s="22" customFormat="1" ht="45" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:21" s="22" customFormat="1" ht="43.2">
       <c r="A28" s="11">
         <v>19</v>
       </c>
@@ -34667,52 +34873,55 @@
         <v>4</v>
       </c>
       <c r="D28" s="14" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="F28" s="15" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="G28" s="16" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="H28" s="16" t="s">
-        <v>181</v>
+        <v>165</v>
       </c>
       <c r="I28" s="17" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="J28" s="17" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="K28" s="18" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="L28" s="19" t="s">
         <v>25</v>
       </c>
       <c r="M28" s="20" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="N28" s="20" t="s">
-        <v>183</v>
+        <v>167</v>
       </c>
       <c r="O28" s="21">
-        <v>125000</v>
+        <v>85000</v>
       </c>
       <c r="P28" s="21">
-        <v>74500</v>
-      </c>
-      <c r="Q28" s="21">
-        <v>125000</v>
-      </c>
-      <c r="R28" s="20"/>
+        <v>54500</v>
+      </c>
+      <c r="Q28" s="33">
+        <v>23000</v>
+      </c>
+      <c r="R28" s="21">
+        <v>1</v>
+      </c>
       <c r="S28" s="20"/>
       <c r="T28" s="20"/>
+      <c r="U28" s="20"/>
     </row>
-    <row r="29" spans="1:20" s="22" customFormat="1" ht="45" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:21" s="22" customFormat="1" ht="86.4">
       <c r="A29" s="11">
         <v>20</v>
       </c>
@@ -34720,384 +34929,565 @@
         <v>134</v>
       </c>
       <c r="C29" s="13">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D29" s="14" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="F29" s="15" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="G29" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="H29" s="16" t="s">
+        <v>165</v>
+      </c>
+      <c r="I29" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="J29" s="17" t="s">
         <v>144</v>
       </c>
-      <c r="H29" s="16" t="s">
-        <v>181</v>
-      </c>
-      <c r="I29" s="17" t="s">
-        <v>136</v>
-      </c>
-      <c r="J29" s="17" t="s">
-        <v>151</v>
-      </c>
       <c r="K29" s="18" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="L29" s="19" t="s">
-        <v>25</v>
+        <v>127</v>
       </c>
       <c r="M29" s="20" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="N29" s="20" t="s">
-        <v>183</v>
+        <v>168</v>
       </c>
       <c r="O29" s="21">
-        <v>85000</v>
+        <v>135000</v>
       </c>
       <c r="P29" s="21">
-        <v>54500</v>
-      </c>
-      <c r="Q29" s="21">
-        <v>85000</v>
-      </c>
-      <c r="R29" s="20"/>
+        <v>135000</v>
+      </c>
+      <c r="Q29" s="33">
+        <v>92000</v>
+      </c>
+      <c r="R29" s="21">
+        <v>1</v>
+      </c>
       <c r="S29" s="20"/>
       <c r="T29" s="20"/>
+      <c r="U29" s="20"/>
     </row>
-    <row r="30" spans="1:20" s="22" customFormat="1" ht="90" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:21" s="22" customFormat="1" ht="28.8">
       <c r="A30" s="11">
         <v>21</v>
       </c>
       <c r="B30" s="12">
-        <v>134</v>
+        <v>949</v>
       </c>
       <c r="C30" s="13">
+        <v>4</v>
+      </c>
+      <c r="D30" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="E30" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="F30" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="G30" s="16" t="s">
+        <v>191</v>
+      </c>
+      <c r="H30" s="16" t="s">
+        <v>164</v>
+      </c>
+      <c r="I30" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="J30" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="K30" s="18" t="s">
+        <v>152</v>
+      </c>
+      <c r="L30" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="M30" s="23" t="s">
+        <v>153</v>
+      </c>
+      <c r="N30" s="20" t="s">
+        <v>167</v>
+      </c>
+      <c r="O30" s="21">
+        <v>6950</v>
+      </c>
+      <c r="P30" s="21">
+        <v>6900</v>
+      </c>
+      <c r="Q30" s="33" t="e">
+        <f>55%*H30</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R30" s="21">
         <v>1</v>
       </c>
-      <c r="D30" s="14" t="s">
-        <v>153</v>
-      </c>
-      <c r="E30" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="F30" s="15" t="s">
-        <v>155</v>
-      </c>
-      <c r="G30" s="16" t="s">
-        <v>156</v>
-      </c>
-      <c r="H30" s="16" t="s">
-        <v>181</v>
-      </c>
-      <c r="I30" s="17" t="s">
-        <v>136</v>
-      </c>
-      <c r="J30" s="17" t="s">
-        <v>157</v>
-      </c>
-      <c r="K30" s="18" t="s">
-        <v>158</v>
-      </c>
-      <c r="L30" s="19" t="s">
-        <v>139</v>
-      </c>
-      <c r="M30" s="20" t="s">
-        <v>159</v>
-      </c>
-      <c r="N30" s="20" t="s">
-        <v>184</v>
-      </c>
-      <c r="O30" s="21">
-        <v>135000</v>
-      </c>
-      <c r="P30" s="21">
-        <v>135000</v>
-      </c>
-      <c r="Q30" s="21">
-        <v>135000</v>
-      </c>
-      <c r="R30" s="20"/>
-      <c r="S30" s="20"/>
-      <c r="T30" s="20"/>
+      <c r="S30" s="23"/>
+      <c r="T30" s="23"/>
+      <c r="U30" s="23"/>
     </row>
-    <row r="31" spans="1:20" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:21" s="22" customFormat="1" ht="57.6">
       <c r="A31" s="11">
         <v>22</v>
       </c>
-      <c r="B31" s="12">
-        <v>949</v>
-      </c>
+      <c r="B31" s="12"/>
       <c r="C31" s="13">
         <v>4</v>
       </c>
       <c r="D31" s="14" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="F31" s="15" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="G31" s="16" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="H31" s="16" t="s">
-        <v>180</v>
+        <v>164</v>
       </c>
       <c r="I31" s="17" t="s">
-        <v>164</v>
+        <v>62</v>
       </c>
       <c r="J31" s="17" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="K31" s="18" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="L31" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="M31" s="23" t="s">
+      <c r="M31" s="20" t="s">
+        <v>160</v>
+      </c>
+      <c r="N31" s="20" t="s">
         <v>167</v>
       </c>
-      <c r="N31" s="23" t="s">
-        <v>183</v>
-      </c>
       <c r="O31" s="21">
-        <v>6950</v>
+        <v>130000</v>
       </c>
       <c r="P31" s="21">
-        <v>6900</v>
-      </c>
-      <c r="Q31" s="21">
-        <v>6950</v>
-      </c>
-      <c r="R31" s="23"/>
-      <c r="S31" s="23"/>
-      <c r="T31" s="23"/>
+        <v>130000</v>
+      </c>
+      <c r="Q31" s="33">
+        <v>43000</v>
+      </c>
+      <c r="R31" s="21">
+        <v>1</v>
+      </c>
+      <c r="S31" s="20"/>
+      <c r="T31" s="20"/>
+      <c r="U31" s="20"/>
     </row>
-    <row r="32" spans="1:20" s="22" customFormat="1" ht="60" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:21" s="22" customFormat="1" ht="28.8">
       <c r="A32" s="11">
         <v>23</v>
       </c>
-      <c r="B32" s="12"/>
+      <c r="B32" s="12">
+        <v>529</v>
+      </c>
       <c r="C32" s="13">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D32" s="14" t="s">
-        <v>168</v>
+        <v>75</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>169</v>
+        <v>76</v>
       </c>
       <c r="F32" s="15" t="s">
-        <v>170</v>
+        <v>77</v>
       </c>
       <c r="G32" s="16" t="s">
-        <v>171</v>
+        <v>78</v>
       </c>
       <c r="H32" s="16" t="s">
-        <v>180</v>
+        <v>164</v>
       </c>
       <c r="I32" s="17" t="s">
-        <v>68</v>
+        <v>22</v>
       </c>
       <c r="J32" s="17" t="s">
-        <v>172</v>
+        <v>79</v>
       </c>
       <c r="K32" s="18" t="s">
-        <v>173</v>
+        <v>80</v>
       </c>
       <c r="L32" s="19" t="s">
         <v>25</v>
       </c>
       <c r="M32" s="20" t="s">
-        <v>174</v>
+        <v>81</v>
       </c>
       <c r="N32" s="20" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="O32" s="21">
-        <v>130000</v>
+        <v>10920</v>
       </c>
       <c r="P32" s="21">
-        <v>130000</v>
-      </c>
-      <c r="Q32" s="21">
-        <v>130000</v>
-      </c>
-      <c r="R32" s="20"/>
-      <c r="S32" s="20"/>
-      <c r="T32" s="20"/>
+        <v>10000</v>
+      </c>
+      <c r="Q32" s="33">
+        <v>5343</v>
+      </c>
+      <c r="R32" s="21">
+        <v>1</v>
+      </c>
+      <c r="S32" s="24"/>
+      <c r="T32" s="24"/>
+      <c r="U32" s="24"/>
     </row>
-    <row r="33" spans="1:20" s="22" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="24"/>
-      <c r="B33" s="25"/>
-      <c r="C33" s="26"/>
-      <c r="D33" s="27"/>
-      <c r="E33" s="24"/>
-      <c r="F33" s="28"/>
-      <c r="G33" s="29"/>
-      <c r="H33" s="29"/>
-      <c r="I33" s="29"/>
-      <c r="J33" s="29"/>
-      <c r="K33" s="30"/>
-      <c r="L33" s="31"/>
-      <c r="M33" s="32"/>
-      <c r="N33" s="32"/>
-      <c r="O33" s="33"/>
-      <c r="P33" s="33"/>
-      <c r="Q33" s="33"/>
-      <c r="R33" s="32"/>
-      <c r="S33" s="32"/>
-      <c r="T33" s="32"/>
+    <row r="33" spans="1:18" ht="28.8">
+      <c r="A33" s="11">
+        <v>24</v>
+      </c>
+      <c r="B33" s="12">
+        <v>949</v>
+      </c>
+      <c r="C33" s="13">
+        <v>4</v>
+      </c>
+      <c r="D33" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="E33" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="F33" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="G33" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="H33" s="16" t="s">
+        <v>164</v>
+      </c>
+      <c r="I33" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="J33" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="K33" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="L33" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="M33" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="N33" s="20" t="s">
+        <v>167</v>
+      </c>
+      <c r="O33" s="21">
+        <v>40000</v>
+      </c>
+      <c r="P33" s="21">
+        <v>40000</v>
+      </c>
+      <c r="Q33" s="33">
+        <v>16000</v>
+      </c>
+      <c r="R33" s="21">
+        <v>1</v>
+      </c>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B34" s="34"/>
-      <c r="K34" s="43" t="s">
-        <v>175</v>
-      </c>
-      <c r="L34" s="43"/>
-      <c r="M34" s="43"/>
-      <c r="N34" s="43"/>
-      <c r="O34" s="43"/>
-      <c r="P34" s="43"/>
-      <c r="Q34" s="43"/>
+    <row r="34" spans="1:18" ht="72">
+      <c r="A34" s="11">
+        <v>25</v>
+      </c>
+      <c r="B34" s="12">
+        <v>778</v>
+      </c>
+      <c r="C34" s="13">
+        <v>4</v>
+      </c>
+      <c r="D34" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="E34" s="11" t="s">
+        <v>203</v>
+      </c>
+      <c r="F34" s="15" t="s">
+        <v>204</v>
+      </c>
+      <c r="G34" s="16" t="s">
+        <v>205</v>
+      </c>
+      <c r="H34" s="16" t="s">
+        <v>164</v>
+      </c>
+      <c r="I34" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="J34" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="K34" s="18" t="s">
+        <v>206</v>
+      </c>
+      <c r="L34" s="19" t="s">
+        <v>207</v>
+      </c>
+      <c r="M34" s="20" t="s">
+        <v>208</v>
+      </c>
+      <c r="N34" s="20" t="s">
+        <v>167</v>
+      </c>
+      <c r="O34" s="21">
+        <v>12000</v>
+      </c>
+      <c r="P34" s="21">
+        <v>6000</v>
+      </c>
+      <c r="Q34" s="33">
+        <v>2290</v>
+      </c>
+      <c r="R34" s="21">
+        <v>1</v>
+      </c>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B35" s="34"/>
-      <c r="K35" s="38" t="s">
-        <v>176</v>
-      </c>
-      <c r="L35" s="38"/>
-      <c r="M35" s="38"/>
-      <c r="N35" s="38"/>
-      <c r="O35" s="38"/>
-      <c r="P35" s="38"/>
-      <c r="Q35" s="38"/>
+    <row r="35" spans="1:18" ht="28.8">
+      <c r="A35" s="11">
+        <v>26</v>
+      </c>
+      <c r="B35" s="12">
+        <v>96</v>
+      </c>
+      <c r="C35" s="13">
+        <v>2</v>
+      </c>
+      <c r="D35" s="14" t="s">
+        <v>209</v>
+      </c>
+      <c r="E35" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="F35" s="15" t="s">
+        <v>211</v>
+      </c>
+      <c r="G35" s="16" t="s">
+        <v>191</v>
+      </c>
+      <c r="H35" s="16" t="s">
+        <v>164</v>
+      </c>
+      <c r="I35" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="J35" s="17" t="s">
+        <v>212</v>
+      </c>
+      <c r="K35" s="18" t="s">
+        <v>213</v>
+      </c>
+      <c r="L35" s="19" t="s">
+        <v>207</v>
+      </c>
+      <c r="M35" s="20" t="s">
+        <v>214</v>
+      </c>
+      <c r="N35" s="20" t="s">
+        <v>170</v>
+      </c>
+      <c r="O35" s="21">
+        <v>52000</v>
+      </c>
+      <c r="P35" s="21">
+        <v>52000</v>
+      </c>
+      <c r="Q35" s="33"/>
+      <c r="R35" s="21">
+        <v>0</v>
+      </c>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B36" s="34"/>
+    <row r="36" spans="1:18" ht="43.2">
+      <c r="A36" s="11">
+        <v>27</v>
+      </c>
+      <c r="B36" s="12">
+        <v>450</v>
+      </c>
+      <c r="C36" s="13">
+        <v>4</v>
+      </c>
+      <c r="D36" s="14" t="s">
+        <v>215</v>
+      </c>
+      <c r="E36" s="11" t="s">
+        <v>216</v>
+      </c>
+      <c r="F36" s="15" t="s">
+        <v>217</v>
+      </c>
+      <c r="G36" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="H36" s="16" t="s">
+        <v>164</v>
+      </c>
+      <c r="I36" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="J36" s="46" t="s">
+        <v>218</v>
+      </c>
+      <c r="K36" s="47" t="s">
+        <v>219</v>
+      </c>
+      <c r="L36" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="M36" s="20" t="s">
+        <v>220</v>
+      </c>
+      <c r="N36" s="20" t="s">
+        <v>167</v>
+      </c>
+      <c r="O36" s="21">
+        <v>16000</v>
+      </c>
+      <c r="P36" s="21">
+        <v>16000</v>
+      </c>
+      <c r="Q36" s="33">
+        <v>4000</v>
+      </c>
+      <c r="R36" s="21">
+        <v>0</v>
+      </c>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B37" s="34"/>
+    <row r="37" spans="1:18">
+      <c r="B37" s="25"/>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B38" s="34"/>
+    <row r="38" spans="1:18">
+      <c r="B38" s="25"/>
+      <c r="L38" s="27"/>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B39" s="34"/>
-      <c r="L39" s="36"/>
+    <row r="39" spans="1:18">
+      <c r="B39" s="25"/>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B40" s="34"/>
+    <row r="40" spans="1:18">
+      <c r="B40" s="25"/>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B41" s="34"/>
+    <row r="41" spans="1:18">
+      <c r="B41" s="25"/>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B42" s="34"/>
+    <row r="42" spans="1:18">
+      <c r="B42" s="25"/>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B43" s="34"/>
+    <row r="43" spans="1:18">
+      <c r="B43" s="25"/>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B44" s="34"/>
+    <row r="44" spans="1:18">
+      <c r="B44" s="25"/>
     </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B45" s="34"/>
+    <row r="45" spans="1:18">
+      <c r="B45" s="25"/>
     </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B46" s="34"/>
+    <row r="46" spans="1:18">
+      <c r="B46" s="25"/>
     </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B47" s="34"/>
+    <row r="47" spans="1:18">
+      <c r="B47" s="25"/>
     </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B48" s="34"/>
+    <row r="48" spans="1:18">
+      <c r="B48" s="25"/>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B49" s="34"/>
+    <row r="49" spans="2:2">
+      <c r="B49" s="25"/>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B50" s="34"/>
+    <row r="50" spans="2:2">
+      <c r="B50" s="25"/>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B51" s="34"/>
+    <row r="51" spans="2:2">
+      <c r="B51" s="25"/>
     </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B52" s="34"/>
+    <row r="52" spans="2:2">
+      <c r="B52" s="25"/>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B53" s="34"/>
+    <row r="53" spans="2:2">
+      <c r="B53" s="25"/>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B54" s="34"/>
+    <row r="54" spans="2:2">
+      <c r="B54" s="25"/>
     </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B55" s="34"/>
+    <row r="55" spans="2:2">
+      <c r="B55" s="25"/>
     </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B56" s="34"/>
+    <row r="56" spans="2:2">
+      <c r="B56" s="25"/>
     </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B57" s="34"/>
+    <row r="57" spans="2:2">
+      <c r="B57" s="25"/>
     </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B58" s="34"/>
+    <row r="58" spans="2:2">
+      <c r="B58" s="25"/>
     </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B59" s="34"/>
+    <row r="59" spans="2:2">
+      <c r="B59" s="25"/>
     </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B60" s="34"/>
+    <row r="60" spans="2:2">
+      <c r="B60" s="25"/>
     </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B61" s="34"/>
+    <row r="61" spans="2:2">
+      <c r="B61" s="25"/>
     </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B62" s="34"/>
+    <row r="62" spans="2:2">
+      <c r="B62" s="25"/>
     </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B63" s="34"/>
+    <row r="63" spans="2:2">
+      <c r="B63" s="25"/>
     </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B64" s="34"/>
+    <row r="64" spans="2:2">
+      <c r="B64" s="25"/>
     </row>
-    <row r="65" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B65" s="34"/>
+    <row r="65" spans="2:8">
+      <c r="B65" s="25"/>
     </row>
-    <row r="66" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B66" s="34"/>
+    <row r="66" spans="2:8">
+      <c r="B66" s="25"/>
     </row>
-    <row r="67" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B67" s="34"/>
+    <row r="67" spans="2:8">
+      <c r="B67" s="25"/>
     </row>
-    <row r="68" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B68" s="34"/>
+    <row r="68" spans="2:8">
+      <c r="B68" s="25"/>
     </row>
-    <row r="69" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B69" s="34"/>
-    </row>
-    <row r="73" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="G73" s="37"/>
-      <c r="H73" s="37"/>
+    <row r="72" spans="2:8">
+      <c r="G72" s="28"/>
+      <c r="H72" s="28"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="K35:Q35"/>
+  <mergeCells count="4">
     <mergeCell ref="G5:P5"/>
     <mergeCell ref="A6:Q6"/>
     <mergeCell ref="A7:Q7"/>
     <mergeCell ref="A8:Q8"/>
-    <mergeCell ref="K34:Q34"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Lưu ý" error="Nhập số lớn hơn 0 và nhỏ hơn 1,000,000,000,000,000" promptTitle="Lưu ý" prompt="Nhập số lớn hơn 0 và nhỏ hơn 1,000,000,000,000,000" sqref="Q25 P14 P16:P25 O25" xr:uid="{B5CE3A28-D2DD-4F31-8AFB-D62701A0A43A}">
+    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Lưu ý" error="Nhập số lớn hơn 0 và nhỏ hơn 1,000,000,000,000,000" promptTitle="Lưu ý" prompt="Nhập số lớn hơn 0 và nhỏ hơn 1,000,000,000,000,000" sqref="O23:P24 P26 P32 P15:P22" xr:uid="{BA17F4A6-11C5-4835-98B4-28FE5305606A}">
       <formula1>0.0001</formula1>
       <formula2>1000000000000000</formula2>
     </dataValidation>
@@ -35106,5 +35496,6 @@
   <pageMargins left="7.874015748031496E-2" right="7.874015748031496E-2" top="7.874015748031496E-2" bottom="7.874015748031496E-2" header="0.19685039370078741" footer="0.19685039370078741"/>
   <pageSetup paperSize="9" scale="80" orientation="landscape" verticalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
--- a/database/imports/bang-gia-thuoc.xlsx
+++ b/database/imports/bang-gia-thuoc.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4b1c315fe3860ed0/Van/02032021/Máy tính/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="25" documentId="13_ncr:1_{27C6129C-FA7D-4442-BCC0-77FA2B85DE1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5C4F70AF-9ADD-45F4-97A5-E6FDCD6D0551}"/>
+  <xr:revisionPtr revIDLastSave="33" documentId="13_ncr:1_{27C6129C-FA7D-4442-BCC0-77FA2B85DE1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F1793C04-6BE2-49E7-A471-FC7F517A4F62}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{AA2AB357-8B43-4900-A8BE-9AF4115D18D6}"/>
   </bookViews>
   <sheets>
-    <sheet name="TÂN DƯỢC-TRUNG-THAU" sheetId="1" r:id="rId1"/>
+    <sheet name="banggia" sheetId="1" r:id="rId1"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId2"/>
@@ -23,7 +23,7 @@
   </externalReferences>
   <definedNames>
     <definedName name="_Fill" hidden="1">#REF!</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'TÂN DƯỢC-TRUNG-THAU'!$A$9:$U$36</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">banggia!$A$1:$U$28</definedName>
     <definedName name="_Key1" hidden="1">#REF!</definedName>
     <definedName name="_Key2" hidden="1">#REF!</definedName>
     <definedName name="_Order1" hidden="1">255</definedName>
@@ -125,7 +125,7 @@
     <definedName name="nkp">#REF!</definedName>
     <definedName name="OrderTable" hidden="1">#REF!</definedName>
     <definedName name="Phòng_mạch_bác_sĩ_Thương">#REF!</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">'TÂN DƯỢC-TRUNG-THAU'!$9:$9</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">banggia!$1:$1</definedName>
     <definedName name="ProdForm" hidden="1">#REF!</definedName>
     <definedName name="Product" hidden="1">#REF!</definedName>
     <definedName name="Quầy_thuốc_tây_Mai_Trinh_723">#REF!</definedName>
@@ -172,7 +172,7 @@
     <author>Admin</author>
   </authors>
   <commentList>
-    <comment ref="Q36" authorId="0" shapeId="0" xr:uid="{B2D95BFE-B90A-4ECC-B465-59B6321B8DC6}">
+    <comment ref="Q28" authorId="0" shapeId="0" xr:uid="{B2D95BFE-B90A-4ECC-B465-59B6321B8DC6}">
       <text>
         <r>
           <rPr>
@@ -199,50 +199,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="221">
-  <si>
-    <t>CÔNG TY TNHH INAFO VIỆT NAM</t>
-  </si>
-  <si>
-    <t>Địa chỉ: 240/127/26 Nguyễn Văn Luông, Phường 11, Quận 6, TP. Hồ Chí Minh</t>
-  </si>
-  <si>
-    <t>VPĐD: 23 Hát Giang, Phường 2, Quận Tân Bình, TP. Hồ Chí Minh</t>
-  </si>
-  <si>
-    <t>Mã số thuế: 0314492345</t>
-  </si>
-  <si>
-    <t>Số điện thoại: 036 579 2786          Email: inafopharma@gmail.com</t>
-  </si>
-  <si>
-    <t>BẢNG CHÀO GIÁ</t>
-  </si>
-  <si>
-    <t>Kính gửi: QUÝ KHÁCH HÀNG</t>
-  </si>
-  <si>
-    <r>
-      <t>Công ty</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="13"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> INAFO Việt Nam</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> xin trân trọng gửi đến Quý Khách hàng báo giá một số sản phẩm chúng tôi đang phân phối trên thị trường hiện nay như sau:</t>
-    </r>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="216">
   <si>
     <t>STT</t>
   </si>
@@ -897,6 +854,15 @@
   <si>
     <t>Công ty cổ phần dược phẩm Thành Phát</t>
   </si>
+  <si>
+    <t>Link HSSP</t>
+  </si>
+  <si>
+    <t>Hạn dùng VISA</t>
+  </si>
+  <si>
+    <t>Hạn dùng GMP</t>
+  </si>
 </sst>
 </file>
 
@@ -910,7 +876,7 @@
     <numFmt numFmtId="167" formatCode="_-* #,##0.00\ _₫_-;\-* #,##0.00\ _₫_-;_-* &quot;-&quot;??\ _₫_-;_-@_-"/>
     <numFmt numFmtId="168" formatCode="_-* #,##0\ _₫_-;\-* #,##0\ _₫_-;_-* &quot;-&quot;??\ _₫_-;_-@_-"/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="19">
     <font>
       <sz val="14"/>
       <color theme="1"/>
@@ -949,35 +915,7 @@
     </font>
     <font>
       <b/>
-      <sz val="12"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="28"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="16"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="16"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -1076,21 +1014,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1124,89 +1053,76 @@
   </borders>
   <cellStyleXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="167" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="3" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="2" xfId="8" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="2" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="3" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="15" fillId="0" borderId="3" xfId="8" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="15" fillId="0" borderId="3" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
@@ -1215,61 +1131,49 @@
     </xf>
     <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="10" fillId="3" borderId="2" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="3" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="165" fontId="15" fillId="0" borderId="2" xfId="8" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="15" fillId="3" borderId="3" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="15" fillId="0" borderId="2" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="3" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="15" fillId="3" borderId="2" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="20" fillId="0" borderId="3" xfId="8" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="20" fillId="0" borderId="3" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="20" fillId="3" borderId="3" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="21" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -32018,10 +31922,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8326482F-38D0-4A78-9C12-23F885EAB698}">
-  <dimension ref="A1:U72"/>
+  <dimension ref="A1:X64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F39" sqref="F39"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.36328125" defaultRowHeight="16.8"/>
@@ -32029,7 +31933,7 @@
     <col min="1" max="1" width="5.1796875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.81640625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.36328125" style="26" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.36328125" style="21" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.453125" style="1" customWidth="1"/>
     <col min="6" max="6" width="19.08984375" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17.54296875" style="1" bestFit="1" customWidth="1"/>
@@ -32039,3455 +31943,3420 @@
     <col min="11" max="11" width="15" style="1" customWidth="1"/>
     <col min="12" max="12" width="8.6328125" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="14" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.36328125" style="3" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.6328125" style="3" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.36328125" style="3" bestFit="1" customWidth="1"/>
-    <col min="18" max="21" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="172" width="7.81640625" style="1" customWidth="1"/>
-    <col min="173" max="173" width="5.6328125" style="1" customWidth="1"/>
-    <col min="174" max="175" width="10.90625" style="1" customWidth="1"/>
-    <col min="176" max="176" width="9.08984375" style="1" customWidth="1"/>
-    <col min="177" max="178" width="8.6328125" style="1" customWidth="1"/>
-    <col min="179" max="179" width="24" style="1" customWidth="1"/>
-    <col min="180" max="180" width="17.81640625" style="1" customWidth="1"/>
-    <col min="181" max="182" width="12.81640625" style="1" customWidth="1"/>
-    <col min="183" max="183" width="20.1796875" style="1" customWidth="1"/>
-    <col min="184" max="219" width="8.36328125" style="1"/>
-    <col min="220" max="220" width="6.453125" style="1" customWidth="1"/>
-    <col min="221" max="223" width="8.6328125" style="1" customWidth="1"/>
-    <col min="224" max="224" width="21.08984375" style="1" customWidth="1"/>
-    <col min="225" max="225" width="25.08984375" style="1" customWidth="1"/>
-    <col min="226" max="226" width="14.90625" style="1" customWidth="1"/>
-    <col min="227" max="227" width="16.90625" style="1" customWidth="1"/>
-    <col min="228" max="228" width="7.81640625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="12.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.6328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="24" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="175" width="7.81640625" style="1" customWidth="1"/>
+    <col min="176" max="176" width="5.6328125" style="1" customWidth="1"/>
+    <col min="177" max="178" width="10.90625" style="1" customWidth="1"/>
+    <col min="179" max="179" width="9.08984375" style="1" customWidth="1"/>
+    <col min="180" max="181" width="8.6328125" style="1" customWidth="1"/>
+    <col min="182" max="182" width="24" style="1" customWidth="1"/>
+    <col min="183" max="183" width="17.81640625" style="1" customWidth="1"/>
+    <col min="184" max="185" width="12.81640625" style="1" customWidth="1"/>
+    <col min="186" max="186" width="20.1796875" style="1" customWidth="1"/>
+    <col min="187" max="222" width="8.36328125" style="1"/>
+    <col min="223" max="223" width="6.453125" style="1" customWidth="1"/>
+    <col min="224" max="226" width="8.6328125" style="1" customWidth="1"/>
+    <col min="227" max="227" width="21.08984375" style="1" customWidth="1"/>
+    <col min="228" max="228" width="25.08984375" style="1" customWidth="1"/>
     <col min="229" max="229" width="14.90625" style="1" customWidth="1"/>
-    <col min="230" max="230" width="9.1796875" style="1" customWidth="1"/>
-    <col min="231" max="231" width="11.1796875" style="1" customWidth="1"/>
-    <col min="232" max="232" width="16.1796875" style="1" customWidth="1"/>
-    <col min="233" max="233" width="13.08984375" style="1" customWidth="1"/>
-    <col min="234" max="236" width="12.81640625" style="1" customWidth="1"/>
-    <col min="237" max="237" width="11.90625" style="1" customWidth="1"/>
-    <col min="238" max="238" width="12.81640625" style="1" customWidth="1"/>
-    <col min="239" max="428" width="7.81640625" style="1" customWidth="1"/>
-    <col min="429" max="429" width="5.6328125" style="1" customWidth="1"/>
-    <col min="430" max="431" width="10.90625" style="1" customWidth="1"/>
-    <col min="432" max="432" width="9.08984375" style="1" customWidth="1"/>
-    <col min="433" max="434" width="8.6328125" style="1" customWidth="1"/>
-    <col min="435" max="435" width="24" style="1" customWidth="1"/>
-    <col min="436" max="436" width="17.81640625" style="1" customWidth="1"/>
-    <col min="437" max="438" width="12.81640625" style="1" customWidth="1"/>
-    <col min="439" max="439" width="20.1796875" style="1" customWidth="1"/>
-    <col min="440" max="475" width="8.36328125" style="1"/>
-    <col min="476" max="476" width="6.453125" style="1" customWidth="1"/>
-    <col min="477" max="479" width="8.6328125" style="1" customWidth="1"/>
-    <col min="480" max="480" width="21.08984375" style="1" customWidth="1"/>
-    <col min="481" max="481" width="25.08984375" style="1" customWidth="1"/>
-    <col min="482" max="482" width="14.90625" style="1" customWidth="1"/>
-    <col min="483" max="483" width="16.90625" style="1" customWidth="1"/>
-    <col min="484" max="484" width="7.81640625" style="1" customWidth="1"/>
+    <col min="230" max="230" width="16.90625" style="1" customWidth="1"/>
+    <col min="231" max="231" width="7.81640625" style="1" customWidth="1"/>
+    <col min="232" max="232" width="14.90625" style="1" customWidth="1"/>
+    <col min="233" max="233" width="9.1796875" style="1" customWidth="1"/>
+    <col min="234" max="234" width="11.1796875" style="1" customWidth="1"/>
+    <col min="235" max="235" width="16.1796875" style="1" customWidth="1"/>
+    <col min="236" max="236" width="13.08984375" style="1" customWidth="1"/>
+    <col min="237" max="239" width="12.81640625" style="1" customWidth="1"/>
+    <col min="240" max="240" width="11.90625" style="1" customWidth="1"/>
+    <col min="241" max="241" width="12.81640625" style="1" customWidth="1"/>
+    <col min="242" max="431" width="7.81640625" style="1" customWidth="1"/>
+    <col min="432" max="432" width="5.6328125" style="1" customWidth="1"/>
+    <col min="433" max="434" width="10.90625" style="1" customWidth="1"/>
+    <col min="435" max="435" width="9.08984375" style="1" customWidth="1"/>
+    <col min="436" max="437" width="8.6328125" style="1" customWidth="1"/>
+    <col min="438" max="438" width="24" style="1" customWidth="1"/>
+    <col min="439" max="439" width="17.81640625" style="1" customWidth="1"/>
+    <col min="440" max="441" width="12.81640625" style="1" customWidth="1"/>
+    <col min="442" max="442" width="20.1796875" style="1" customWidth="1"/>
+    <col min="443" max="478" width="8.36328125" style="1"/>
+    <col min="479" max="479" width="6.453125" style="1" customWidth="1"/>
+    <col min="480" max="482" width="8.6328125" style="1" customWidth="1"/>
+    <col min="483" max="483" width="21.08984375" style="1" customWidth="1"/>
+    <col min="484" max="484" width="25.08984375" style="1" customWidth="1"/>
     <col min="485" max="485" width="14.90625" style="1" customWidth="1"/>
-    <col min="486" max="486" width="9.1796875" style="1" customWidth="1"/>
-    <col min="487" max="487" width="11.1796875" style="1" customWidth="1"/>
-    <col min="488" max="488" width="16.1796875" style="1" customWidth="1"/>
-    <col min="489" max="489" width="13.08984375" style="1" customWidth="1"/>
-    <col min="490" max="492" width="12.81640625" style="1" customWidth="1"/>
-    <col min="493" max="493" width="11.90625" style="1" customWidth="1"/>
-    <col min="494" max="494" width="12.81640625" style="1" customWidth="1"/>
-    <col min="495" max="684" width="7.81640625" style="1" customWidth="1"/>
-    <col min="685" max="685" width="5.6328125" style="1" customWidth="1"/>
-    <col min="686" max="687" width="10.90625" style="1" customWidth="1"/>
-    <col min="688" max="688" width="9.08984375" style="1" customWidth="1"/>
-    <col min="689" max="690" width="8.6328125" style="1" customWidth="1"/>
-    <col min="691" max="691" width="24" style="1" customWidth="1"/>
-    <col min="692" max="692" width="17.81640625" style="1" customWidth="1"/>
-    <col min="693" max="694" width="12.81640625" style="1" customWidth="1"/>
-    <col min="695" max="695" width="20.1796875" style="1" customWidth="1"/>
-    <col min="696" max="731" width="8.36328125" style="1"/>
-    <col min="732" max="732" width="6.453125" style="1" customWidth="1"/>
-    <col min="733" max="735" width="8.6328125" style="1" customWidth="1"/>
-    <col min="736" max="736" width="21.08984375" style="1" customWidth="1"/>
-    <col min="737" max="737" width="25.08984375" style="1" customWidth="1"/>
-    <col min="738" max="738" width="14.90625" style="1" customWidth="1"/>
-    <col min="739" max="739" width="16.90625" style="1" customWidth="1"/>
-    <col min="740" max="740" width="7.81640625" style="1" customWidth="1"/>
+    <col min="486" max="486" width="16.90625" style="1" customWidth="1"/>
+    <col min="487" max="487" width="7.81640625" style="1" customWidth="1"/>
+    <col min="488" max="488" width="14.90625" style="1" customWidth="1"/>
+    <col min="489" max="489" width="9.1796875" style="1" customWidth="1"/>
+    <col min="490" max="490" width="11.1796875" style="1" customWidth="1"/>
+    <col min="491" max="491" width="16.1796875" style="1" customWidth="1"/>
+    <col min="492" max="492" width="13.08984375" style="1" customWidth="1"/>
+    <col min="493" max="495" width="12.81640625" style="1" customWidth="1"/>
+    <col min="496" max="496" width="11.90625" style="1" customWidth="1"/>
+    <col min="497" max="497" width="12.81640625" style="1" customWidth="1"/>
+    <col min="498" max="687" width="7.81640625" style="1" customWidth="1"/>
+    <col min="688" max="688" width="5.6328125" style="1" customWidth="1"/>
+    <col min="689" max="690" width="10.90625" style="1" customWidth="1"/>
+    <col min="691" max="691" width="9.08984375" style="1" customWidth="1"/>
+    <col min="692" max="693" width="8.6328125" style="1" customWidth="1"/>
+    <col min="694" max="694" width="24" style="1" customWidth="1"/>
+    <col min="695" max="695" width="17.81640625" style="1" customWidth="1"/>
+    <col min="696" max="697" width="12.81640625" style="1" customWidth="1"/>
+    <col min="698" max="698" width="20.1796875" style="1" customWidth="1"/>
+    <col min="699" max="734" width="8.36328125" style="1"/>
+    <col min="735" max="735" width="6.453125" style="1" customWidth="1"/>
+    <col min="736" max="738" width="8.6328125" style="1" customWidth="1"/>
+    <col min="739" max="739" width="21.08984375" style="1" customWidth="1"/>
+    <col min="740" max="740" width="25.08984375" style="1" customWidth="1"/>
     <col min="741" max="741" width="14.90625" style="1" customWidth="1"/>
-    <col min="742" max="742" width="9.1796875" style="1" customWidth="1"/>
-    <col min="743" max="743" width="11.1796875" style="1" customWidth="1"/>
-    <col min="744" max="744" width="16.1796875" style="1" customWidth="1"/>
-    <col min="745" max="745" width="13.08984375" style="1" customWidth="1"/>
-    <col min="746" max="748" width="12.81640625" style="1" customWidth="1"/>
-    <col min="749" max="749" width="11.90625" style="1" customWidth="1"/>
-    <col min="750" max="750" width="12.81640625" style="1" customWidth="1"/>
-    <col min="751" max="940" width="7.81640625" style="1" customWidth="1"/>
-    <col min="941" max="941" width="5.6328125" style="1" customWidth="1"/>
-    <col min="942" max="943" width="10.90625" style="1" customWidth="1"/>
-    <col min="944" max="944" width="9.08984375" style="1" customWidth="1"/>
-    <col min="945" max="946" width="8.6328125" style="1" customWidth="1"/>
-    <col min="947" max="947" width="24" style="1" customWidth="1"/>
-    <col min="948" max="948" width="17.81640625" style="1" customWidth="1"/>
-    <col min="949" max="950" width="12.81640625" style="1" customWidth="1"/>
-    <col min="951" max="951" width="20.1796875" style="1" customWidth="1"/>
-    <col min="952" max="987" width="8.36328125" style="1"/>
-    <col min="988" max="988" width="6.453125" style="1" customWidth="1"/>
-    <col min="989" max="991" width="8.6328125" style="1" customWidth="1"/>
-    <col min="992" max="992" width="21.08984375" style="1" customWidth="1"/>
-    <col min="993" max="993" width="25.08984375" style="1" customWidth="1"/>
-    <col min="994" max="994" width="14.90625" style="1" customWidth="1"/>
-    <col min="995" max="995" width="16.90625" style="1" customWidth="1"/>
-    <col min="996" max="996" width="7.81640625" style="1" customWidth="1"/>
+    <col min="742" max="742" width="16.90625" style="1" customWidth="1"/>
+    <col min="743" max="743" width="7.81640625" style="1" customWidth="1"/>
+    <col min="744" max="744" width="14.90625" style="1" customWidth="1"/>
+    <col min="745" max="745" width="9.1796875" style="1" customWidth="1"/>
+    <col min="746" max="746" width="11.1796875" style="1" customWidth="1"/>
+    <col min="747" max="747" width="16.1796875" style="1" customWidth="1"/>
+    <col min="748" max="748" width="13.08984375" style="1" customWidth="1"/>
+    <col min="749" max="751" width="12.81640625" style="1" customWidth="1"/>
+    <col min="752" max="752" width="11.90625" style="1" customWidth="1"/>
+    <col min="753" max="753" width="12.81640625" style="1" customWidth="1"/>
+    <col min="754" max="943" width="7.81640625" style="1" customWidth="1"/>
+    <col min="944" max="944" width="5.6328125" style="1" customWidth="1"/>
+    <col min="945" max="946" width="10.90625" style="1" customWidth="1"/>
+    <col min="947" max="947" width="9.08984375" style="1" customWidth="1"/>
+    <col min="948" max="949" width="8.6328125" style="1" customWidth="1"/>
+    <col min="950" max="950" width="24" style="1" customWidth="1"/>
+    <col min="951" max="951" width="17.81640625" style="1" customWidth="1"/>
+    <col min="952" max="953" width="12.81640625" style="1" customWidth="1"/>
+    <col min="954" max="954" width="20.1796875" style="1" customWidth="1"/>
+    <col min="955" max="990" width="8.36328125" style="1"/>
+    <col min="991" max="991" width="6.453125" style="1" customWidth="1"/>
+    <col min="992" max="994" width="8.6328125" style="1" customWidth="1"/>
+    <col min="995" max="995" width="21.08984375" style="1" customWidth="1"/>
+    <col min="996" max="996" width="25.08984375" style="1" customWidth="1"/>
     <col min="997" max="997" width="14.90625" style="1" customWidth="1"/>
-    <col min="998" max="998" width="9.1796875" style="1" customWidth="1"/>
-    <col min="999" max="999" width="11.1796875" style="1" customWidth="1"/>
-    <col min="1000" max="1000" width="16.1796875" style="1" customWidth="1"/>
-    <col min="1001" max="1001" width="13.08984375" style="1" customWidth="1"/>
-    <col min="1002" max="1004" width="12.81640625" style="1" customWidth="1"/>
-    <col min="1005" max="1005" width="11.90625" style="1" customWidth="1"/>
-    <col min="1006" max="1006" width="12.81640625" style="1" customWidth="1"/>
-    <col min="1007" max="1196" width="7.81640625" style="1" customWidth="1"/>
-    <col min="1197" max="1197" width="5.6328125" style="1" customWidth="1"/>
-    <col min="1198" max="1199" width="10.90625" style="1" customWidth="1"/>
-    <col min="1200" max="1200" width="9.08984375" style="1" customWidth="1"/>
-    <col min="1201" max="1202" width="8.6328125" style="1" customWidth="1"/>
-    <col min="1203" max="1203" width="24" style="1" customWidth="1"/>
-    <col min="1204" max="1204" width="17.81640625" style="1" customWidth="1"/>
-    <col min="1205" max="1206" width="12.81640625" style="1" customWidth="1"/>
-    <col min="1207" max="1207" width="20.1796875" style="1" customWidth="1"/>
-    <col min="1208" max="1243" width="8.36328125" style="1"/>
-    <col min="1244" max="1244" width="6.453125" style="1" customWidth="1"/>
-    <col min="1245" max="1247" width="8.6328125" style="1" customWidth="1"/>
-    <col min="1248" max="1248" width="21.08984375" style="1" customWidth="1"/>
-    <col min="1249" max="1249" width="25.08984375" style="1" customWidth="1"/>
-    <col min="1250" max="1250" width="14.90625" style="1" customWidth="1"/>
-    <col min="1251" max="1251" width="16.90625" style="1" customWidth="1"/>
-    <col min="1252" max="1252" width="7.81640625" style="1" customWidth="1"/>
+    <col min="998" max="998" width="16.90625" style="1" customWidth="1"/>
+    <col min="999" max="999" width="7.81640625" style="1" customWidth="1"/>
+    <col min="1000" max="1000" width="14.90625" style="1" customWidth="1"/>
+    <col min="1001" max="1001" width="9.1796875" style="1" customWidth="1"/>
+    <col min="1002" max="1002" width="11.1796875" style="1" customWidth="1"/>
+    <col min="1003" max="1003" width="16.1796875" style="1" customWidth="1"/>
+    <col min="1004" max="1004" width="13.08984375" style="1" customWidth="1"/>
+    <col min="1005" max="1007" width="12.81640625" style="1" customWidth="1"/>
+    <col min="1008" max="1008" width="11.90625" style="1" customWidth="1"/>
+    <col min="1009" max="1009" width="12.81640625" style="1" customWidth="1"/>
+    <col min="1010" max="1199" width="7.81640625" style="1" customWidth="1"/>
+    <col min="1200" max="1200" width="5.6328125" style="1" customWidth="1"/>
+    <col min="1201" max="1202" width="10.90625" style="1" customWidth="1"/>
+    <col min="1203" max="1203" width="9.08984375" style="1" customWidth="1"/>
+    <col min="1204" max="1205" width="8.6328125" style="1" customWidth="1"/>
+    <col min="1206" max="1206" width="24" style="1" customWidth="1"/>
+    <col min="1207" max="1207" width="17.81640625" style="1" customWidth="1"/>
+    <col min="1208" max="1209" width="12.81640625" style="1" customWidth="1"/>
+    <col min="1210" max="1210" width="20.1796875" style="1" customWidth="1"/>
+    <col min="1211" max="1246" width="8.36328125" style="1"/>
+    <col min="1247" max="1247" width="6.453125" style="1" customWidth="1"/>
+    <col min="1248" max="1250" width="8.6328125" style="1" customWidth="1"/>
+    <col min="1251" max="1251" width="21.08984375" style="1" customWidth="1"/>
+    <col min="1252" max="1252" width="25.08984375" style="1" customWidth="1"/>
     <col min="1253" max="1253" width="14.90625" style="1" customWidth="1"/>
-    <col min="1254" max="1254" width="9.1796875" style="1" customWidth="1"/>
-    <col min="1255" max="1255" width="11.1796875" style="1" customWidth="1"/>
-    <col min="1256" max="1256" width="16.1796875" style="1" customWidth="1"/>
-    <col min="1257" max="1257" width="13.08984375" style="1" customWidth="1"/>
-    <col min="1258" max="1260" width="12.81640625" style="1" customWidth="1"/>
-    <col min="1261" max="1261" width="11.90625" style="1" customWidth="1"/>
-    <col min="1262" max="1262" width="12.81640625" style="1" customWidth="1"/>
-    <col min="1263" max="1452" width="7.81640625" style="1" customWidth="1"/>
-    <col min="1453" max="1453" width="5.6328125" style="1" customWidth="1"/>
-    <col min="1454" max="1455" width="10.90625" style="1" customWidth="1"/>
-    <col min="1456" max="1456" width="9.08984375" style="1" customWidth="1"/>
-    <col min="1457" max="1458" width="8.6328125" style="1" customWidth="1"/>
-    <col min="1459" max="1459" width="24" style="1" customWidth="1"/>
-    <col min="1460" max="1460" width="17.81640625" style="1" customWidth="1"/>
-    <col min="1461" max="1462" width="12.81640625" style="1" customWidth="1"/>
-    <col min="1463" max="1463" width="20.1796875" style="1" customWidth="1"/>
-    <col min="1464" max="1499" width="8.36328125" style="1"/>
-    <col min="1500" max="1500" width="6.453125" style="1" customWidth="1"/>
-    <col min="1501" max="1503" width="8.6328125" style="1" customWidth="1"/>
-    <col min="1504" max="1504" width="21.08984375" style="1" customWidth="1"/>
-    <col min="1505" max="1505" width="25.08984375" style="1" customWidth="1"/>
-    <col min="1506" max="1506" width="14.90625" style="1" customWidth="1"/>
-    <col min="1507" max="1507" width="16.90625" style="1" customWidth="1"/>
-    <col min="1508" max="1508" width="7.81640625" style="1" customWidth="1"/>
+    <col min="1254" max="1254" width="16.90625" style="1" customWidth="1"/>
+    <col min="1255" max="1255" width="7.81640625" style="1" customWidth="1"/>
+    <col min="1256" max="1256" width="14.90625" style="1" customWidth="1"/>
+    <col min="1257" max="1257" width="9.1796875" style="1" customWidth="1"/>
+    <col min="1258" max="1258" width="11.1796875" style="1" customWidth="1"/>
+    <col min="1259" max="1259" width="16.1796875" style="1" customWidth="1"/>
+    <col min="1260" max="1260" width="13.08984375" style="1" customWidth="1"/>
+    <col min="1261" max="1263" width="12.81640625" style="1" customWidth="1"/>
+    <col min="1264" max="1264" width="11.90625" style="1" customWidth="1"/>
+    <col min="1265" max="1265" width="12.81640625" style="1" customWidth="1"/>
+    <col min="1266" max="1455" width="7.81640625" style="1" customWidth="1"/>
+    <col min="1456" max="1456" width="5.6328125" style="1" customWidth="1"/>
+    <col min="1457" max="1458" width="10.90625" style="1" customWidth="1"/>
+    <col min="1459" max="1459" width="9.08984375" style="1" customWidth="1"/>
+    <col min="1460" max="1461" width="8.6328125" style="1" customWidth="1"/>
+    <col min="1462" max="1462" width="24" style="1" customWidth="1"/>
+    <col min="1463" max="1463" width="17.81640625" style="1" customWidth="1"/>
+    <col min="1464" max="1465" width="12.81640625" style="1" customWidth="1"/>
+    <col min="1466" max="1466" width="20.1796875" style="1" customWidth="1"/>
+    <col min="1467" max="1502" width="8.36328125" style="1"/>
+    <col min="1503" max="1503" width="6.453125" style="1" customWidth="1"/>
+    <col min="1504" max="1506" width="8.6328125" style="1" customWidth="1"/>
+    <col min="1507" max="1507" width="21.08984375" style="1" customWidth="1"/>
+    <col min="1508" max="1508" width="25.08984375" style="1" customWidth="1"/>
     <col min="1509" max="1509" width="14.90625" style="1" customWidth="1"/>
-    <col min="1510" max="1510" width="9.1796875" style="1" customWidth="1"/>
-    <col min="1511" max="1511" width="11.1796875" style="1" customWidth="1"/>
-    <col min="1512" max="1512" width="16.1796875" style="1" customWidth="1"/>
-    <col min="1513" max="1513" width="13.08984375" style="1" customWidth="1"/>
-    <col min="1514" max="1516" width="12.81640625" style="1" customWidth="1"/>
-    <col min="1517" max="1517" width="11.90625" style="1" customWidth="1"/>
-    <col min="1518" max="1518" width="12.81640625" style="1" customWidth="1"/>
-    <col min="1519" max="1708" width="7.81640625" style="1" customWidth="1"/>
-    <col min="1709" max="1709" width="5.6328125" style="1" customWidth="1"/>
-    <col min="1710" max="1711" width="10.90625" style="1" customWidth="1"/>
-    <col min="1712" max="1712" width="9.08984375" style="1" customWidth="1"/>
-    <col min="1713" max="1714" width="8.6328125" style="1" customWidth="1"/>
-    <col min="1715" max="1715" width="24" style="1" customWidth="1"/>
-    <col min="1716" max="1716" width="17.81640625" style="1" customWidth="1"/>
-    <col min="1717" max="1718" width="12.81640625" style="1" customWidth="1"/>
-    <col min="1719" max="1719" width="20.1796875" style="1" customWidth="1"/>
-    <col min="1720" max="1755" width="8.36328125" style="1"/>
-    <col min="1756" max="1756" width="6.453125" style="1" customWidth="1"/>
-    <col min="1757" max="1759" width="8.6328125" style="1" customWidth="1"/>
-    <col min="1760" max="1760" width="21.08984375" style="1" customWidth="1"/>
-    <col min="1761" max="1761" width="25.08984375" style="1" customWidth="1"/>
-    <col min="1762" max="1762" width="14.90625" style="1" customWidth="1"/>
-    <col min="1763" max="1763" width="16.90625" style="1" customWidth="1"/>
-    <col min="1764" max="1764" width="7.81640625" style="1" customWidth="1"/>
+    <col min="1510" max="1510" width="16.90625" style="1" customWidth="1"/>
+    <col min="1511" max="1511" width="7.81640625" style="1" customWidth="1"/>
+    <col min="1512" max="1512" width="14.90625" style="1" customWidth="1"/>
+    <col min="1513" max="1513" width="9.1796875" style="1" customWidth="1"/>
+    <col min="1514" max="1514" width="11.1796875" style="1" customWidth="1"/>
+    <col min="1515" max="1515" width="16.1796875" style="1" customWidth="1"/>
+    <col min="1516" max="1516" width="13.08984375" style="1" customWidth="1"/>
+    <col min="1517" max="1519" width="12.81640625" style="1" customWidth="1"/>
+    <col min="1520" max="1520" width="11.90625" style="1" customWidth="1"/>
+    <col min="1521" max="1521" width="12.81640625" style="1" customWidth="1"/>
+    <col min="1522" max="1711" width="7.81640625" style="1" customWidth="1"/>
+    <col min="1712" max="1712" width="5.6328125" style="1" customWidth="1"/>
+    <col min="1713" max="1714" width="10.90625" style="1" customWidth="1"/>
+    <col min="1715" max="1715" width="9.08984375" style="1" customWidth="1"/>
+    <col min="1716" max="1717" width="8.6328125" style="1" customWidth="1"/>
+    <col min="1718" max="1718" width="24" style="1" customWidth="1"/>
+    <col min="1719" max="1719" width="17.81640625" style="1" customWidth="1"/>
+    <col min="1720" max="1721" width="12.81640625" style="1" customWidth="1"/>
+    <col min="1722" max="1722" width="20.1796875" style="1" customWidth="1"/>
+    <col min="1723" max="1758" width="8.36328125" style="1"/>
+    <col min="1759" max="1759" width="6.453125" style="1" customWidth="1"/>
+    <col min="1760" max="1762" width="8.6328125" style="1" customWidth="1"/>
+    <col min="1763" max="1763" width="21.08984375" style="1" customWidth="1"/>
+    <col min="1764" max="1764" width="25.08984375" style="1" customWidth="1"/>
     <col min="1765" max="1765" width="14.90625" style="1" customWidth="1"/>
-    <col min="1766" max="1766" width="9.1796875" style="1" customWidth="1"/>
-    <col min="1767" max="1767" width="11.1796875" style="1" customWidth="1"/>
-    <col min="1768" max="1768" width="16.1796875" style="1" customWidth="1"/>
-    <col min="1769" max="1769" width="13.08984375" style="1" customWidth="1"/>
-    <col min="1770" max="1772" width="12.81640625" style="1" customWidth="1"/>
-    <col min="1773" max="1773" width="11.90625" style="1" customWidth="1"/>
-    <col min="1774" max="1774" width="12.81640625" style="1" customWidth="1"/>
-    <col min="1775" max="1964" width="7.81640625" style="1" customWidth="1"/>
-    <col min="1965" max="1965" width="5.6328125" style="1" customWidth="1"/>
-    <col min="1966" max="1967" width="10.90625" style="1" customWidth="1"/>
-    <col min="1968" max="1968" width="9.08984375" style="1" customWidth="1"/>
-    <col min="1969" max="1970" width="8.6328125" style="1" customWidth="1"/>
-    <col min="1971" max="1971" width="24" style="1" customWidth="1"/>
-    <col min="1972" max="1972" width="17.81640625" style="1" customWidth="1"/>
-    <col min="1973" max="1974" width="12.81640625" style="1" customWidth="1"/>
-    <col min="1975" max="1975" width="20.1796875" style="1" customWidth="1"/>
-    <col min="1976" max="2011" width="8.36328125" style="1"/>
-    <col min="2012" max="2012" width="6.453125" style="1" customWidth="1"/>
-    <col min="2013" max="2015" width="8.6328125" style="1" customWidth="1"/>
-    <col min="2016" max="2016" width="21.08984375" style="1" customWidth="1"/>
-    <col min="2017" max="2017" width="25.08984375" style="1" customWidth="1"/>
-    <col min="2018" max="2018" width="14.90625" style="1" customWidth="1"/>
-    <col min="2019" max="2019" width="16.90625" style="1" customWidth="1"/>
-    <col min="2020" max="2020" width="7.81640625" style="1" customWidth="1"/>
+    <col min="1766" max="1766" width="16.90625" style="1" customWidth="1"/>
+    <col min="1767" max="1767" width="7.81640625" style="1" customWidth="1"/>
+    <col min="1768" max="1768" width="14.90625" style="1" customWidth="1"/>
+    <col min="1769" max="1769" width="9.1796875" style="1" customWidth="1"/>
+    <col min="1770" max="1770" width="11.1796875" style="1" customWidth="1"/>
+    <col min="1771" max="1771" width="16.1796875" style="1" customWidth="1"/>
+    <col min="1772" max="1772" width="13.08984375" style="1" customWidth="1"/>
+    <col min="1773" max="1775" width="12.81640625" style="1" customWidth="1"/>
+    <col min="1776" max="1776" width="11.90625" style="1" customWidth="1"/>
+    <col min="1777" max="1777" width="12.81640625" style="1" customWidth="1"/>
+    <col min="1778" max="1967" width="7.81640625" style="1" customWidth="1"/>
+    <col min="1968" max="1968" width="5.6328125" style="1" customWidth="1"/>
+    <col min="1969" max="1970" width="10.90625" style="1" customWidth="1"/>
+    <col min="1971" max="1971" width="9.08984375" style="1" customWidth="1"/>
+    <col min="1972" max="1973" width="8.6328125" style="1" customWidth="1"/>
+    <col min="1974" max="1974" width="24" style="1" customWidth="1"/>
+    <col min="1975" max="1975" width="17.81640625" style="1" customWidth="1"/>
+    <col min="1976" max="1977" width="12.81640625" style="1" customWidth="1"/>
+    <col min="1978" max="1978" width="20.1796875" style="1" customWidth="1"/>
+    <col min="1979" max="2014" width="8.36328125" style="1"/>
+    <col min="2015" max="2015" width="6.453125" style="1" customWidth="1"/>
+    <col min="2016" max="2018" width="8.6328125" style="1" customWidth="1"/>
+    <col min="2019" max="2019" width="21.08984375" style="1" customWidth="1"/>
+    <col min="2020" max="2020" width="25.08984375" style="1" customWidth="1"/>
     <col min="2021" max="2021" width="14.90625" style="1" customWidth="1"/>
-    <col min="2022" max="2022" width="9.1796875" style="1" customWidth="1"/>
-    <col min="2023" max="2023" width="11.1796875" style="1" customWidth="1"/>
-    <col min="2024" max="2024" width="16.1796875" style="1" customWidth="1"/>
-    <col min="2025" max="2025" width="13.08984375" style="1" customWidth="1"/>
-    <col min="2026" max="2028" width="12.81640625" style="1" customWidth="1"/>
-    <col min="2029" max="2029" width="11.90625" style="1" customWidth="1"/>
-    <col min="2030" max="2030" width="12.81640625" style="1" customWidth="1"/>
-    <col min="2031" max="2220" width="7.81640625" style="1" customWidth="1"/>
-    <col min="2221" max="2221" width="5.6328125" style="1" customWidth="1"/>
-    <col min="2222" max="2223" width="10.90625" style="1" customWidth="1"/>
-    <col min="2224" max="2224" width="9.08984375" style="1" customWidth="1"/>
-    <col min="2225" max="2226" width="8.6328125" style="1" customWidth="1"/>
-    <col min="2227" max="2227" width="24" style="1" customWidth="1"/>
-    <col min="2228" max="2228" width="17.81640625" style="1" customWidth="1"/>
-    <col min="2229" max="2230" width="12.81640625" style="1" customWidth="1"/>
-    <col min="2231" max="2231" width="20.1796875" style="1" customWidth="1"/>
-    <col min="2232" max="2267" width="8.36328125" style="1"/>
-    <col min="2268" max="2268" width="6.453125" style="1" customWidth="1"/>
-    <col min="2269" max="2271" width="8.6328125" style="1" customWidth="1"/>
-    <col min="2272" max="2272" width="21.08984375" style="1" customWidth="1"/>
-    <col min="2273" max="2273" width="25.08984375" style="1" customWidth="1"/>
-    <col min="2274" max="2274" width="14.90625" style="1" customWidth="1"/>
-    <col min="2275" max="2275" width="16.90625" style="1" customWidth="1"/>
-    <col min="2276" max="2276" width="7.81640625" style="1" customWidth="1"/>
+    <col min="2022" max="2022" width="16.90625" style="1" customWidth="1"/>
+    <col min="2023" max="2023" width="7.81640625" style="1" customWidth="1"/>
+    <col min="2024" max="2024" width="14.90625" style="1" customWidth="1"/>
+    <col min="2025" max="2025" width="9.1796875" style="1" customWidth="1"/>
+    <col min="2026" max="2026" width="11.1796875" style="1" customWidth="1"/>
+    <col min="2027" max="2027" width="16.1796875" style="1" customWidth="1"/>
+    <col min="2028" max="2028" width="13.08984375" style="1" customWidth="1"/>
+    <col min="2029" max="2031" width="12.81640625" style="1" customWidth="1"/>
+    <col min="2032" max="2032" width="11.90625" style="1" customWidth="1"/>
+    <col min="2033" max="2033" width="12.81640625" style="1" customWidth="1"/>
+    <col min="2034" max="2223" width="7.81640625" style="1" customWidth="1"/>
+    <col min="2224" max="2224" width="5.6328125" style="1" customWidth="1"/>
+    <col min="2225" max="2226" width="10.90625" style="1" customWidth="1"/>
+    <col min="2227" max="2227" width="9.08984375" style="1" customWidth="1"/>
+    <col min="2228" max="2229" width="8.6328125" style="1" customWidth="1"/>
+    <col min="2230" max="2230" width="24" style="1" customWidth="1"/>
+    <col min="2231" max="2231" width="17.81640625" style="1" customWidth="1"/>
+    <col min="2232" max="2233" width="12.81640625" style="1" customWidth="1"/>
+    <col min="2234" max="2234" width="20.1796875" style="1" customWidth="1"/>
+    <col min="2235" max="2270" width="8.36328125" style="1"/>
+    <col min="2271" max="2271" width="6.453125" style="1" customWidth="1"/>
+    <col min="2272" max="2274" width="8.6328125" style="1" customWidth="1"/>
+    <col min="2275" max="2275" width="21.08984375" style="1" customWidth="1"/>
+    <col min="2276" max="2276" width="25.08984375" style="1" customWidth="1"/>
     <col min="2277" max="2277" width="14.90625" style="1" customWidth="1"/>
-    <col min="2278" max="2278" width="9.1796875" style="1" customWidth="1"/>
-    <col min="2279" max="2279" width="11.1796875" style="1" customWidth="1"/>
-    <col min="2280" max="2280" width="16.1796875" style="1" customWidth="1"/>
-    <col min="2281" max="2281" width="13.08984375" style="1" customWidth="1"/>
-    <col min="2282" max="2284" width="12.81640625" style="1" customWidth="1"/>
-    <col min="2285" max="2285" width="11.90625" style="1" customWidth="1"/>
-    <col min="2286" max="2286" width="12.81640625" style="1" customWidth="1"/>
-    <col min="2287" max="2476" width="7.81640625" style="1" customWidth="1"/>
-    <col min="2477" max="2477" width="5.6328125" style="1" customWidth="1"/>
-    <col min="2478" max="2479" width="10.90625" style="1" customWidth="1"/>
-    <col min="2480" max="2480" width="9.08984375" style="1" customWidth="1"/>
-    <col min="2481" max="2482" width="8.6328125" style="1" customWidth="1"/>
-    <col min="2483" max="2483" width="24" style="1" customWidth="1"/>
-    <col min="2484" max="2484" width="17.81640625" style="1" customWidth="1"/>
-    <col min="2485" max="2486" width="12.81640625" style="1" customWidth="1"/>
-    <col min="2487" max="2487" width="20.1796875" style="1" customWidth="1"/>
-    <col min="2488" max="2523" width="8.36328125" style="1"/>
-    <col min="2524" max="2524" width="6.453125" style="1" customWidth="1"/>
-    <col min="2525" max="2527" width="8.6328125" style="1" customWidth="1"/>
-    <col min="2528" max="2528" width="21.08984375" style="1" customWidth="1"/>
-    <col min="2529" max="2529" width="25.08984375" style="1" customWidth="1"/>
-    <col min="2530" max="2530" width="14.90625" style="1" customWidth="1"/>
-    <col min="2531" max="2531" width="16.90625" style="1" customWidth="1"/>
-    <col min="2532" max="2532" width="7.81640625" style="1" customWidth="1"/>
+    <col min="2278" max="2278" width="16.90625" style="1" customWidth="1"/>
+    <col min="2279" max="2279" width="7.81640625" style="1" customWidth="1"/>
+    <col min="2280" max="2280" width="14.90625" style="1" customWidth="1"/>
+    <col min="2281" max="2281" width="9.1796875" style="1" customWidth="1"/>
+    <col min="2282" max="2282" width="11.1796875" style="1" customWidth="1"/>
+    <col min="2283" max="2283" width="16.1796875" style="1" customWidth="1"/>
+    <col min="2284" max="2284" width="13.08984375" style="1" customWidth="1"/>
+    <col min="2285" max="2287" width="12.81640625" style="1" customWidth="1"/>
+    <col min="2288" max="2288" width="11.90625" style="1" customWidth="1"/>
+    <col min="2289" max="2289" width="12.81640625" style="1" customWidth="1"/>
+    <col min="2290" max="2479" width="7.81640625" style="1" customWidth="1"/>
+    <col min="2480" max="2480" width="5.6328125" style="1" customWidth="1"/>
+    <col min="2481" max="2482" width="10.90625" style="1" customWidth="1"/>
+    <col min="2483" max="2483" width="9.08984375" style="1" customWidth="1"/>
+    <col min="2484" max="2485" width="8.6328125" style="1" customWidth="1"/>
+    <col min="2486" max="2486" width="24" style="1" customWidth="1"/>
+    <col min="2487" max="2487" width="17.81640625" style="1" customWidth="1"/>
+    <col min="2488" max="2489" width="12.81640625" style="1" customWidth="1"/>
+    <col min="2490" max="2490" width="20.1796875" style="1" customWidth="1"/>
+    <col min="2491" max="2526" width="8.36328125" style="1"/>
+    <col min="2527" max="2527" width="6.453125" style="1" customWidth="1"/>
+    <col min="2528" max="2530" width="8.6328125" style="1" customWidth="1"/>
+    <col min="2531" max="2531" width="21.08984375" style="1" customWidth="1"/>
+    <col min="2532" max="2532" width="25.08984375" style="1" customWidth="1"/>
     <col min="2533" max="2533" width="14.90625" style="1" customWidth="1"/>
-    <col min="2534" max="2534" width="9.1796875" style="1" customWidth="1"/>
-    <col min="2535" max="2535" width="11.1796875" style="1" customWidth="1"/>
-    <col min="2536" max="2536" width="16.1796875" style="1" customWidth="1"/>
-    <col min="2537" max="2537" width="13.08984375" style="1" customWidth="1"/>
-    <col min="2538" max="2540" width="12.81640625" style="1" customWidth="1"/>
-    <col min="2541" max="2541" width="11.90625" style="1" customWidth="1"/>
-    <col min="2542" max="2542" width="12.81640625" style="1" customWidth="1"/>
-    <col min="2543" max="2732" width="7.81640625" style="1" customWidth="1"/>
-    <col min="2733" max="2733" width="5.6328125" style="1" customWidth="1"/>
-    <col min="2734" max="2735" width="10.90625" style="1" customWidth="1"/>
-    <col min="2736" max="2736" width="9.08984375" style="1" customWidth="1"/>
-    <col min="2737" max="2738" width="8.6328125" style="1" customWidth="1"/>
-    <col min="2739" max="2739" width="24" style="1" customWidth="1"/>
-    <col min="2740" max="2740" width="17.81640625" style="1" customWidth="1"/>
-    <col min="2741" max="2742" width="12.81640625" style="1" customWidth="1"/>
-    <col min="2743" max="2743" width="20.1796875" style="1" customWidth="1"/>
-    <col min="2744" max="2779" width="8.36328125" style="1"/>
-    <col min="2780" max="2780" width="6.453125" style="1" customWidth="1"/>
-    <col min="2781" max="2783" width="8.6328125" style="1" customWidth="1"/>
-    <col min="2784" max="2784" width="21.08984375" style="1" customWidth="1"/>
-    <col min="2785" max="2785" width="25.08984375" style="1" customWidth="1"/>
-    <col min="2786" max="2786" width="14.90625" style="1" customWidth="1"/>
-    <col min="2787" max="2787" width="16.90625" style="1" customWidth="1"/>
-    <col min="2788" max="2788" width="7.81640625" style="1" customWidth="1"/>
+    <col min="2534" max="2534" width="16.90625" style="1" customWidth="1"/>
+    <col min="2535" max="2535" width="7.81640625" style="1" customWidth="1"/>
+    <col min="2536" max="2536" width="14.90625" style="1" customWidth="1"/>
+    <col min="2537" max="2537" width="9.1796875" style="1" customWidth="1"/>
+    <col min="2538" max="2538" width="11.1796875" style="1" customWidth="1"/>
+    <col min="2539" max="2539" width="16.1796875" style="1" customWidth="1"/>
+    <col min="2540" max="2540" width="13.08984375" style="1" customWidth="1"/>
+    <col min="2541" max="2543" width="12.81640625" style="1" customWidth="1"/>
+    <col min="2544" max="2544" width="11.90625" style="1" customWidth="1"/>
+    <col min="2545" max="2545" width="12.81640625" style="1" customWidth="1"/>
+    <col min="2546" max="2735" width="7.81640625" style="1" customWidth="1"/>
+    <col min="2736" max="2736" width="5.6328125" style="1" customWidth="1"/>
+    <col min="2737" max="2738" width="10.90625" style="1" customWidth="1"/>
+    <col min="2739" max="2739" width="9.08984375" style="1" customWidth="1"/>
+    <col min="2740" max="2741" width="8.6328125" style="1" customWidth="1"/>
+    <col min="2742" max="2742" width="24" style="1" customWidth="1"/>
+    <col min="2743" max="2743" width="17.81640625" style="1" customWidth="1"/>
+    <col min="2744" max="2745" width="12.81640625" style="1" customWidth="1"/>
+    <col min="2746" max="2746" width="20.1796875" style="1" customWidth="1"/>
+    <col min="2747" max="2782" width="8.36328125" style="1"/>
+    <col min="2783" max="2783" width="6.453125" style="1" customWidth="1"/>
+    <col min="2784" max="2786" width="8.6328125" style="1" customWidth="1"/>
+    <col min="2787" max="2787" width="21.08984375" style="1" customWidth="1"/>
+    <col min="2788" max="2788" width="25.08984375" style="1" customWidth="1"/>
     <col min="2789" max="2789" width="14.90625" style="1" customWidth="1"/>
-    <col min="2790" max="2790" width="9.1796875" style="1" customWidth="1"/>
-    <col min="2791" max="2791" width="11.1796875" style="1" customWidth="1"/>
-    <col min="2792" max="2792" width="16.1796875" style="1" customWidth="1"/>
-    <col min="2793" max="2793" width="13.08984375" style="1" customWidth="1"/>
-    <col min="2794" max="2796" width="12.81640625" style="1" customWidth="1"/>
-    <col min="2797" max="2797" width="11.90625" style="1" customWidth="1"/>
-    <col min="2798" max="2798" width="12.81640625" style="1" customWidth="1"/>
-    <col min="2799" max="2988" width="7.81640625" style="1" customWidth="1"/>
-    <col min="2989" max="2989" width="5.6328125" style="1" customWidth="1"/>
-    <col min="2990" max="2991" width="10.90625" style="1" customWidth="1"/>
-    <col min="2992" max="2992" width="9.08984375" style="1" customWidth="1"/>
-    <col min="2993" max="2994" width="8.6328125" style="1" customWidth="1"/>
-    <col min="2995" max="2995" width="24" style="1" customWidth="1"/>
-    <col min="2996" max="2996" width="17.81640625" style="1" customWidth="1"/>
-    <col min="2997" max="2998" width="12.81640625" style="1" customWidth="1"/>
-    <col min="2999" max="2999" width="20.1796875" style="1" customWidth="1"/>
-    <col min="3000" max="3035" width="8.36328125" style="1"/>
-    <col min="3036" max="3036" width="6.453125" style="1" customWidth="1"/>
-    <col min="3037" max="3039" width="8.6328125" style="1" customWidth="1"/>
-    <col min="3040" max="3040" width="21.08984375" style="1" customWidth="1"/>
-    <col min="3041" max="3041" width="25.08984375" style="1" customWidth="1"/>
-    <col min="3042" max="3042" width="14.90625" style="1" customWidth="1"/>
-    <col min="3043" max="3043" width="16.90625" style="1" customWidth="1"/>
-    <col min="3044" max="3044" width="7.81640625" style="1" customWidth="1"/>
+    <col min="2790" max="2790" width="16.90625" style="1" customWidth="1"/>
+    <col min="2791" max="2791" width="7.81640625" style="1" customWidth="1"/>
+    <col min="2792" max="2792" width="14.90625" style="1" customWidth="1"/>
+    <col min="2793" max="2793" width="9.1796875" style="1" customWidth="1"/>
+    <col min="2794" max="2794" width="11.1796875" style="1" customWidth="1"/>
+    <col min="2795" max="2795" width="16.1796875" style="1" customWidth="1"/>
+    <col min="2796" max="2796" width="13.08984375" style="1" customWidth="1"/>
+    <col min="2797" max="2799" width="12.81640625" style="1" customWidth="1"/>
+    <col min="2800" max="2800" width="11.90625" style="1" customWidth="1"/>
+    <col min="2801" max="2801" width="12.81640625" style="1" customWidth="1"/>
+    <col min="2802" max="2991" width="7.81640625" style="1" customWidth="1"/>
+    <col min="2992" max="2992" width="5.6328125" style="1" customWidth="1"/>
+    <col min="2993" max="2994" width="10.90625" style="1" customWidth="1"/>
+    <col min="2995" max="2995" width="9.08984375" style="1" customWidth="1"/>
+    <col min="2996" max="2997" width="8.6328125" style="1" customWidth="1"/>
+    <col min="2998" max="2998" width="24" style="1" customWidth="1"/>
+    <col min="2999" max="2999" width="17.81640625" style="1" customWidth="1"/>
+    <col min="3000" max="3001" width="12.81640625" style="1" customWidth="1"/>
+    <col min="3002" max="3002" width="20.1796875" style="1" customWidth="1"/>
+    <col min="3003" max="3038" width="8.36328125" style="1"/>
+    <col min="3039" max="3039" width="6.453125" style="1" customWidth="1"/>
+    <col min="3040" max="3042" width="8.6328125" style="1" customWidth="1"/>
+    <col min="3043" max="3043" width="21.08984375" style="1" customWidth="1"/>
+    <col min="3044" max="3044" width="25.08984375" style="1" customWidth="1"/>
     <col min="3045" max="3045" width="14.90625" style="1" customWidth="1"/>
-    <col min="3046" max="3046" width="9.1796875" style="1" customWidth="1"/>
-    <col min="3047" max="3047" width="11.1796875" style="1" customWidth="1"/>
-    <col min="3048" max="3048" width="16.1796875" style="1" customWidth="1"/>
-    <col min="3049" max="3049" width="13.08984375" style="1" customWidth="1"/>
-    <col min="3050" max="3052" width="12.81640625" style="1" customWidth="1"/>
-    <col min="3053" max="3053" width="11.90625" style="1" customWidth="1"/>
-    <col min="3054" max="3054" width="12.81640625" style="1" customWidth="1"/>
-    <col min="3055" max="3244" width="7.81640625" style="1" customWidth="1"/>
-    <col min="3245" max="3245" width="5.6328125" style="1" customWidth="1"/>
-    <col min="3246" max="3247" width="10.90625" style="1" customWidth="1"/>
-    <col min="3248" max="3248" width="9.08984375" style="1" customWidth="1"/>
-    <col min="3249" max="3250" width="8.6328125" style="1" customWidth="1"/>
-    <col min="3251" max="3251" width="24" style="1" customWidth="1"/>
-    <col min="3252" max="3252" width="17.81640625" style="1" customWidth="1"/>
-    <col min="3253" max="3254" width="12.81640625" style="1" customWidth="1"/>
-    <col min="3255" max="3255" width="20.1796875" style="1" customWidth="1"/>
-    <col min="3256" max="3291" width="8.36328125" style="1"/>
-    <col min="3292" max="3292" width="6.453125" style="1" customWidth="1"/>
-    <col min="3293" max="3295" width="8.6328125" style="1" customWidth="1"/>
-    <col min="3296" max="3296" width="21.08984375" style="1" customWidth="1"/>
-    <col min="3297" max="3297" width="25.08984375" style="1" customWidth="1"/>
-    <col min="3298" max="3298" width="14.90625" style="1" customWidth="1"/>
-    <col min="3299" max="3299" width="16.90625" style="1" customWidth="1"/>
-    <col min="3300" max="3300" width="7.81640625" style="1" customWidth="1"/>
+    <col min="3046" max="3046" width="16.90625" style="1" customWidth="1"/>
+    <col min="3047" max="3047" width="7.81640625" style="1" customWidth="1"/>
+    <col min="3048" max="3048" width="14.90625" style="1" customWidth="1"/>
+    <col min="3049" max="3049" width="9.1796875" style="1" customWidth="1"/>
+    <col min="3050" max="3050" width="11.1796875" style="1" customWidth="1"/>
+    <col min="3051" max="3051" width="16.1796875" style="1" customWidth="1"/>
+    <col min="3052" max="3052" width="13.08984375" style="1" customWidth="1"/>
+    <col min="3053" max="3055" width="12.81640625" style="1" customWidth="1"/>
+    <col min="3056" max="3056" width="11.90625" style="1" customWidth="1"/>
+    <col min="3057" max="3057" width="12.81640625" style="1" customWidth="1"/>
+    <col min="3058" max="3247" width="7.81640625" style="1" customWidth="1"/>
+    <col min="3248" max="3248" width="5.6328125" style="1" customWidth="1"/>
+    <col min="3249" max="3250" width="10.90625" style="1" customWidth="1"/>
+    <col min="3251" max="3251" width="9.08984375" style="1" customWidth="1"/>
+    <col min="3252" max="3253" width="8.6328125" style="1" customWidth="1"/>
+    <col min="3254" max="3254" width="24" style="1" customWidth="1"/>
+    <col min="3255" max="3255" width="17.81640625" style="1" customWidth="1"/>
+    <col min="3256" max="3257" width="12.81640625" style="1" customWidth="1"/>
+    <col min="3258" max="3258" width="20.1796875" style="1" customWidth="1"/>
+    <col min="3259" max="3294" width="8.36328125" style="1"/>
+    <col min="3295" max="3295" width="6.453125" style="1" customWidth="1"/>
+    <col min="3296" max="3298" width="8.6328125" style="1" customWidth="1"/>
+    <col min="3299" max="3299" width="21.08984375" style="1" customWidth="1"/>
+    <col min="3300" max="3300" width="25.08984375" style="1" customWidth="1"/>
     <col min="3301" max="3301" width="14.90625" style="1" customWidth="1"/>
-    <col min="3302" max="3302" width="9.1796875" style="1" customWidth="1"/>
-    <col min="3303" max="3303" width="11.1796875" style="1" customWidth="1"/>
-    <col min="3304" max="3304" width="16.1796875" style="1" customWidth="1"/>
-    <col min="3305" max="3305" width="13.08984375" style="1" customWidth="1"/>
-    <col min="3306" max="3308" width="12.81640625" style="1" customWidth="1"/>
-    <col min="3309" max="3309" width="11.90625" style="1" customWidth="1"/>
-    <col min="3310" max="3310" width="12.81640625" style="1" customWidth="1"/>
-    <col min="3311" max="3500" width="7.81640625" style="1" customWidth="1"/>
-    <col min="3501" max="3501" width="5.6328125" style="1" customWidth="1"/>
-    <col min="3502" max="3503" width="10.90625" style="1" customWidth="1"/>
-    <col min="3504" max="3504" width="9.08984375" style="1" customWidth="1"/>
-    <col min="3505" max="3506" width="8.6328125" style="1" customWidth="1"/>
-    <col min="3507" max="3507" width="24" style="1" customWidth="1"/>
-    <col min="3508" max="3508" width="17.81640625" style="1" customWidth="1"/>
-    <col min="3509" max="3510" width="12.81640625" style="1" customWidth="1"/>
-    <col min="3511" max="3511" width="20.1796875" style="1" customWidth="1"/>
-    <col min="3512" max="3547" width="8.36328125" style="1"/>
-    <col min="3548" max="3548" width="6.453125" style="1" customWidth="1"/>
-    <col min="3549" max="3551" width="8.6328125" style="1" customWidth="1"/>
-    <col min="3552" max="3552" width="21.08984375" style="1" customWidth="1"/>
-    <col min="3553" max="3553" width="25.08984375" style="1" customWidth="1"/>
-    <col min="3554" max="3554" width="14.90625" style="1" customWidth="1"/>
-    <col min="3555" max="3555" width="16.90625" style="1" customWidth="1"/>
-    <col min="3556" max="3556" width="7.81640625" style="1" customWidth="1"/>
+    <col min="3302" max="3302" width="16.90625" style="1" customWidth="1"/>
+    <col min="3303" max="3303" width="7.81640625" style="1" customWidth="1"/>
+    <col min="3304" max="3304" width="14.90625" style="1" customWidth="1"/>
+    <col min="3305" max="3305" width="9.1796875" style="1" customWidth="1"/>
+    <col min="3306" max="3306" width="11.1796875" style="1" customWidth="1"/>
+    <col min="3307" max="3307" width="16.1796875" style="1" customWidth="1"/>
+    <col min="3308" max="3308" width="13.08984375" style="1" customWidth="1"/>
+    <col min="3309" max="3311" width="12.81640625" style="1" customWidth="1"/>
+    <col min="3312" max="3312" width="11.90625" style="1" customWidth="1"/>
+    <col min="3313" max="3313" width="12.81640625" style="1" customWidth="1"/>
+    <col min="3314" max="3503" width="7.81640625" style="1" customWidth="1"/>
+    <col min="3504" max="3504" width="5.6328125" style="1" customWidth="1"/>
+    <col min="3505" max="3506" width="10.90625" style="1" customWidth="1"/>
+    <col min="3507" max="3507" width="9.08984375" style="1" customWidth="1"/>
+    <col min="3508" max="3509" width="8.6328125" style="1" customWidth="1"/>
+    <col min="3510" max="3510" width="24" style="1" customWidth="1"/>
+    <col min="3511" max="3511" width="17.81640625" style="1" customWidth="1"/>
+    <col min="3512" max="3513" width="12.81640625" style="1" customWidth="1"/>
+    <col min="3514" max="3514" width="20.1796875" style="1" customWidth="1"/>
+    <col min="3515" max="3550" width="8.36328125" style="1"/>
+    <col min="3551" max="3551" width="6.453125" style="1" customWidth="1"/>
+    <col min="3552" max="3554" width="8.6328125" style="1" customWidth="1"/>
+    <col min="3555" max="3555" width="21.08984375" style="1" customWidth="1"/>
+    <col min="3556" max="3556" width="25.08984375" style="1" customWidth="1"/>
     <col min="3557" max="3557" width="14.90625" style="1" customWidth="1"/>
-    <col min="3558" max="3558" width="9.1796875" style="1" customWidth="1"/>
-    <col min="3559" max="3559" width="11.1796875" style="1" customWidth="1"/>
-    <col min="3560" max="3560" width="16.1796875" style="1" customWidth="1"/>
-    <col min="3561" max="3561" width="13.08984375" style="1" customWidth="1"/>
-    <col min="3562" max="3564" width="12.81640625" style="1" customWidth="1"/>
-    <col min="3565" max="3565" width="11.90625" style="1" customWidth="1"/>
-    <col min="3566" max="3566" width="12.81640625" style="1" customWidth="1"/>
-    <col min="3567" max="3756" width="7.81640625" style="1" customWidth="1"/>
-    <col min="3757" max="3757" width="5.6328125" style="1" customWidth="1"/>
-    <col min="3758" max="3759" width="10.90625" style="1" customWidth="1"/>
-    <col min="3760" max="3760" width="9.08984375" style="1" customWidth="1"/>
-    <col min="3761" max="3762" width="8.6328125" style="1" customWidth="1"/>
-    <col min="3763" max="3763" width="24" style="1" customWidth="1"/>
-    <col min="3764" max="3764" width="17.81640625" style="1" customWidth="1"/>
-    <col min="3765" max="3766" width="12.81640625" style="1" customWidth="1"/>
-    <col min="3767" max="3767" width="20.1796875" style="1" customWidth="1"/>
-    <col min="3768" max="3803" width="8.36328125" style="1"/>
-    <col min="3804" max="3804" width="6.453125" style="1" customWidth="1"/>
-    <col min="3805" max="3807" width="8.6328125" style="1" customWidth="1"/>
-    <col min="3808" max="3808" width="21.08984375" style="1" customWidth="1"/>
-    <col min="3809" max="3809" width="25.08984375" style="1" customWidth="1"/>
-    <col min="3810" max="3810" width="14.90625" style="1" customWidth="1"/>
-    <col min="3811" max="3811" width="16.90625" style="1" customWidth="1"/>
-    <col min="3812" max="3812" width="7.81640625" style="1" customWidth="1"/>
+    <col min="3558" max="3558" width="16.90625" style="1" customWidth="1"/>
+    <col min="3559" max="3559" width="7.81640625" style="1" customWidth="1"/>
+    <col min="3560" max="3560" width="14.90625" style="1" customWidth="1"/>
+    <col min="3561" max="3561" width="9.1796875" style="1" customWidth="1"/>
+    <col min="3562" max="3562" width="11.1796875" style="1" customWidth="1"/>
+    <col min="3563" max="3563" width="16.1796875" style="1" customWidth="1"/>
+    <col min="3564" max="3564" width="13.08984375" style="1" customWidth="1"/>
+    <col min="3565" max="3567" width="12.81640625" style="1" customWidth="1"/>
+    <col min="3568" max="3568" width="11.90625" style="1" customWidth="1"/>
+    <col min="3569" max="3569" width="12.81640625" style="1" customWidth="1"/>
+    <col min="3570" max="3759" width="7.81640625" style="1" customWidth="1"/>
+    <col min="3760" max="3760" width="5.6328125" style="1" customWidth="1"/>
+    <col min="3761" max="3762" width="10.90625" style="1" customWidth="1"/>
+    <col min="3763" max="3763" width="9.08984375" style="1" customWidth="1"/>
+    <col min="3764" max="3765" width="8.6328125" style="1" customWidth="1"/>
+    <col min="3766" max="3766" width="24" style="1" customWidth="1"/>
+    <col min="3767" max="3767" width="17.81640625" style="1" customWidth="1"/>
+    <col min="3768" max="3769" width="12.81640625" style="1" customWidth="1"/>
+    <col min="3770" max="3770" width="20.1796875" style="1" customWidth="1"/>
+    <col min="3771" max="3806" width="8.36328125" style="1"/>
+    <col min="3807" max="3807" width="6.453125" style="1" customWidth="1"/>
+    <col min="3808" max="3810" width="8.6328125" style="1" customWidth="1"/>
+    <col min="3811" max="3811" width="21.08984375" style="1" customWidth="1"/>
+    <col min="3812" max="3812" width="25.08984375" style="1" customWidth="1"/>
     <col min="3813" max="3813" width="14.90625" style="1" customWidth="1"/>
-    <col min="3814" max="3814" width="9.1796875" style="1" customWidth="1"/>
-    <col min="3815" max="3815" width="11.1796875" style="1" customWidth="1"/>
-    <col min="3816" max="3816" width="16.1796875" style="1" customWidth="1"/>
-    <col min="3817" max="3817" width="13.08984375" style="1" customWidth="1"/>
-    <col min="3818" max="3820" width="12.81640625" style="1" customWidth="1"/>
-    <col min="3821" max="3821" width="11.90625" style="1" customWidth="1"/>
-    <col min="3822" max="3822" width="12.81640625" style="1" customWidth="1"/>
-    <col min="3823" max="4012" width="7.81640625" style="1" customWidth="1"/>
-    <col min="4013" max="4013" width="5.6328125" style="1" customWidth="1"/>
-    <col min="4014" max="4015" width="10.90625" style="1" customWidth="1"/>
-    <col min="4016" max="4016" width="9.08984375" style="1" customWidth="1"/>
-    <col min="4017" max="4018" width="8.6328125" style="1" customWidth="1"/>
-    <col min="4019" max="4019" width="24" style="1" customWidth="1"/>
-    <col min="4020" max="4020" width="17.81640625" style="1" customWidth="1"/>
-    <col min="4021" max="4022" width="12.81640625" style="1" customWidth="1"/>
-    <col min="4023" max="4023" width="20.1796875" style="1" customWidth="1"/>
-    <col min="4024" max="4059" width="8.36328125" style="1"/>
-    <col min="4060" max="4060" width="6.453125" style="1" customWidth="1"/>
-    <col min="4061" max="4063" width="8.6328125" style="1" customWidth="1"/>
-    <col min="4064" max="4064" width="21.08984375" style="1" customWidth="1"/>
-    <col min="4065" max="4065" width="25.08984375" style="1" customWidth="1"/>
-    <col min="4066" max="4066" width="14.90625" style="1" customWidth="1"/>
-    <col min="4067" max="4067" width="16.90625" style="1" customWidth="1"/>
-    <col min="4068" max="4068" width="7.81640625" style="1" customWidth="1"/>
+    <col min="3814" max="3814" width="16.90625" style="1" customWidth="1"/>
+    <col min="3815" max="3815" width="7.81640625" style="1" customWidth="1"/>
+    <col min="3816" max="3816" width="14.90625" style="1" customWidth="1"/>
+    <col min="3817" max="3817" width="9.1796875" style="1" customWidth="1"/>
+    <col min="3818" max="3818" width="11.1796875" style="1" customWidth="1"/>
+    <col min="3819" max="3819" width="16.1796875" style="1" customWidth="1"/>
+    <col min="3820" max="3820" width="13.08984375" style="1" customWidth="1"/>
+    <col min="3821" max="3823" width="12.81640625" style="1" customWidth="1"/>
+    <col min="3824" max="3824" width="11.90625" style="1" customWidth="1"/>
+    <col min="3825" max="3825" width="12.81640625" style="1" customWidth="1"/>
+    <col min="3826" max="4015" width="7.81640625" style="1" customWidth="1"/>
+    <col min="4016" max="4016" width="5.6328125" style="1" customWidth="1"/>
+    <col min="4017" max="4018" width="10.90625" style="1" customWidth="1"/>
+    <col min="4019" max="4019" width="9.08984375" style="1" customWidth="1"/>
+    <col min="4020" max="4021" width="8.6328125" style="1" customWidth="1"/>
+    <col min="4022" max="4022" width="24" style="1" customWidth="1"/>
+    <col min="4023" max="4023" width="17.81640625" style="1" customWidth="1"/>
+    <col min="4024" max="4025" width="12.81640625" style="1" customWidth="1"/>
+    <col min="4026" max="4026" width="20.1796875" style="1" customWidth="1"/>
+    <col min="4027" max="4062" width="8.36328125" style="1"/>
+    <col min="4063" max="4063" width="6.453125" style="1" customWidth="1"/>
+    <col min="4064" max="4066" width="8.6328125" style="1" customWidth="1"/>
+    <col min="4067" max="4067" width="21.08984375" style="1" customWidth="1"/>
+    <col min="4068" max="4068" width="25.08984375" style="1" customWidth="1"/>
     <col min="4069" max="4069" width="14.90625" style="1" customWidth="1"/>
-    <col min="4070" max="4070" width="9.1796875" style="1" customWidth="1"/>
-    <col min="4071" max="4071" width="11.1796875" style="1" customWidth="1"/>
-    <col min="4072" max="4072" width="16.1796875" style="1" customWidth="1"/>
-    <col min="4073" max="4073" width="13.08984375" style="1" customWidth="1"/>
-    <col min="4074" max="4076" width="12.81640625" style="1" customWidth="1"/>
-    <col min="4077" max="4077" width="11.90625" style="1" customWidth="1"/>
-    <col min="4078" max="4078" width="12.81640625" style="1" customWidth="1"/>
-    <col min="4079" max="4268" width="7.81640625" style="1" customWidth="1"/>
-    <col min="4269" max="4269" width="5.6328125" style="1" customWidth="1"/>
-    <col min="4270" max="4271" width="10.90625" style="1" customWidth="1"/>
-    <col min="4272" max="4272" width="9.08984375" style="1" customWidth="1"/>
-    <col min="4273" max="4274" width="8.6328125" style="1" customWidth="1"/>
-    <col min="4275" max="4275" width="24" style="1" customWidth="1"/>
-    <col min="4276" max="4276" width="17.81640625" style="1" customWidth="1"/>
-    <col min="4277" max="4278" width="12.81640625" style="1" customWidth="1"/>
-    <col min="4279" max="4279" width="20.1796875" style="1" customWidth="1"/>
-    <col min="4280" max="4315" width="8.36328125" style="1"/>
-    <col min="4316" max="4316" width="6.453125" style="1" customWidth="1"/>
-    <col min="4317" max="4319" width="8.6328125" style="1" customWidth="1"/>
-    <col min="4320" max="4320" width="21.08984375" style="1" customWidth="1"/>
-    <col min="4321" max="4321" width="25.08984375" style="1" customWidth="1"/>
-    <col min="4322" max="4322" width="14.90625" style="1" customWidth="1"/>
-    <col min="4323" max="4323" width="16.90625" style="1" customWidth="1"/>
-    <col min="4324" max="4324" width="7.81640625" style="1" customWidth="1"/>
+    <col min="4070" max="4070" width="16.90625" style="1" customWidth="1"/>
+    <col min="4071" max="4071" width="7.81640625" style="1" customWidth="1"/>
+    <col min="4072" max="4072" width="14.90625" style="1" customWidth="1"/>
+    <col min="4073" max="4073" width="9.1796875" style="1" customWidth="1"/>
+    <col min="4074" max="4074" width="11.1796875" style="1" customWidth="1"/>
+    <col min="4075" max="4075" width="16.1796875" style="1" customWidth="1"/>
+    <col min="4076" max="4076" width="13.08984375" style="1" customWidth="1"/>
+    <col min="4077" max="4079" width="12.81640625" style="1" customWidth="1"/>
+    <col min="4080" max="4080" width="11.90625" style="1" customWidth="1"/>
+    <col min="4081" max="4081" width="12.81640625" style="1" customWidth="1"/>
+    <col min="4082" max="4271" width="7.81640625" style="1" customWidth="1"/>
+    <col min="4272" max="4272" width="5.6328125" style="1" customWidth="1"/>
+    <col min="4273" max="4274" width="10.90625" style="1" customWidth="1"/>
+    <col min="4275" max="4275" width="9.08984375" style="1" customWidth="1"/>
+    <col min="4276" max="4277" width="8.6328125" style="1" customWidth="1"/>
+    <col min="4278" max="4278" width="24" style="1" customWidth="1"/>
+    <col min="4279" max="4279" width="17.81640625" style="1" customWidth="1"/>
+    <col min="4280" max="4281" width="12.81640625" style="1" customWidth="1"/>
+    <col min="4282" max="4282" width="20.1796875" style="1" customWidth="1"/>
+    <col min="4283" max="4318" width="8.36328125" style="1"/>
+    <col min="4319" max="4319" width="6.453125" style="1" customWidth="1"/>
+    <col min="4320" max="4322" width="8.6328125" style="1" customWidth="1"/>
+    <col min="4323" max="4323" width="21.08984375" style="1" customWidth="1"/>
+    <col min="4324" max="4324" width="25.08984375" style="1" customWidth="1"/>
     <col min="4325" max="4325" width="14.90625" style="1" customWidth="1"/>
-    <col min="4326" max="4326" width="9.1796875" style="1" customWidth="1"/>
-    <col min="4327" max="4327" width="11.1796875" style="1" customWidth="1"/>
-    <col min="4328" max="4328" width="16.1796875" style="1" customWidth="1"/>
-    <col min="4329" max="4329" width="13.08984375" style="1" customWidth="1"/>
-    <col min="4330" max="4332" width="12.81640625" style="1" customWidth="1"/>
-    <col min="4333" max="4333" width="11.90625" style="1" customWidth="1"/>
-    <col min="4334" max="4334" width="12.81640625" style="1" customWidth="1"/>
-    <col min="4335" max="4524" width="7.81640625" style="1" customWidth="1"/>
-    <col min="4525" max="4525" width="5.6328125" style="1" customWidth="1"/>
-    <col min="4526" max="4527" width="10.90625" style="1" customWidth="1"/>
-    <col min="4528" max="4528" width="9.08984375" style="1" customWidth="1"/>
-    <col min="4529" max="4530" width="8.6328125" style="1" customWidth="1"/>
-    <col min="4531" max="4531" width="24" style="1" customWidth="1"/>
-    <col min="4532" max="4532" width="17.81640625" style="1" customWidth="1"/>
-    <col min="4533" max="4534" width="12.81640625" style="1" customWidth="1"/>
-    <col min="4535" max="4535" width="20.1796875" style="1" customWidth="1"/>
-    <col min="4536" max="4571" width="8.36328125" style="1"/>
-    <col min="4572" max="4572" width="6.453125" style="1" customWidth="1"/>
-    <col min="4573" max="4575" width="8.6328125" style="1" customWidth="1"/>
-    <col min="4576" max="4576" width="21.08984375" style="1" customWidth="1"/>
-    <col min="4577" max="4577" width="25.08984375" style="1" customWidth="1"/>
-    <col min="4578" max="4578" width="14.90625" style="1" customWidth="1"/>
-    <col min="4579" max="4579" width="16.90625" style="1" customWidth="1"/>
-    <col min="4580" max="4580" width="7.81640625" style="1" customWidth="1"/>
+    <col min="4326" max="4326" width="16.90625" style="1" customWidth="1"/>
+    <col min="4327" max="4327" width="7.81640625" style="1" customWidth="1"/>
+    <col min="4328" max="4328" width="14.90625" style="1" customWidth="1"/>
+    <col min="4329" max="4329" width="9.1796875" style="1" customWidth="1"/>
+    <col min="4330" max="4330" width="11.1796875" style="1" customWidth="1"/>
+    <col min="4331" max="4331" width="16.1796875" style="1" customWidth="1"/>
+    <col min="4332" max="4332" width="13.08984375" style="1" customWidth="1"/>
+    <col min="4333" max="4335" width="12.81640625" style="1" customWidth="1"/>
+    <col min="4336" max="4336" width="11.90625" style="1" customWidth="1"/>
+    <col min="4337" max="4337" width="12.81640625" style="1" customWidth="1"/>
+    <col min="4338" max="4527" width="7.81640625" style="1" customWidth="1"/>
+    <col min="4528" max="4528" width="5.6328125" style="1" customWidth="1"/>
+    <col min="4529" max="4530" width="10.90625" style="1" customWidth="1"/>
+    <col min="4531" max="4531" width="9.08984375" style="1" customWidth="1"/>
+    <col min="4532" max="4533" width="8.6328125" style="1" customWidth="1"/>
+    <col min="4534" max="4534" width="24" style="1" customWidth="1"/>
+    <col min="4535" max="4535" width="17.81640625" style="1" customWidth="1"/>
+    <col min="4536" max="4537" width="12.81640625" style="1" customWidth="1"/>
+    <col min="4538" max="4538" width="20.1796875" style="1" customWidth="1"/>
+    <col min="4539" max="4574" width="8.36328125" style="1"/>
+    <col min="4575" max="4575" width="6.453125" style="1" customWidth="1"/>
+    <col min="4576" max="4578" width="8.6328125" style="1" customWidth="1"/>
+    <col min="4579" max="4579" width="21.08984375" style="1" customWidth="1"/>
+    <col min="4580" max="4580" width="25.08984375" style="1" customWidth="1"/>
     <col min="4581" max="4581" width="14.90625" style="1" customWidth="1"/>
-    <col min="4582" max="4582" width="9.1796875" style="1" customWidth="1"/>
-    <col min="4583" max="4583" width="11.1796875" style="1" customWidth="1"/>
-    <col min="4584" max="4584" width="16.1796875" style="1" customWidth="1"/>
-    <col min="4585" max="4585" width="13.08984375" style="1" customWidth="1"/>
-    <col min="4586" max="4588" width="12.81640625" style="1" customWidth="1"/>
-    <col min="4589" max="4589" width="11.90625" style="1" customWidth="1"/>
-    <col min="4590" max="4590" width="12.81640625" style="1" customWidth="1"/>
-    <col min="4591" max="4780" width="7.81640625" style="1" customWidth="1"/>
-    <col min="4781" max="4781" width="5.6328125" style="1" customWidth="1"/>
-    <col min="4782" max="4783" width="10.90625" style="1" customWidth="1"/>
-    <col min="4784" max="4784" width="9.08984375" style="1" customWidth="1"/>
-    <col min="4785" max="4786" width="8.6328125" style="1" customWidth="1"/>
-    <col min="4787" max="4787" width="24" style="1" customWidth="1"/>
-    <col min="4788" max="4788" width="17.81640625" style="1" customWidth="1"/>
-    <col min="4789" max="4790" width="12.81640625" style="1" customWidth="1"/>
-    <col min="4791" max="4791" width="20.1796875" style="1" customWidth="1"/>
-    <col min="4792" max="4827" width="8.36328125" style="1"/>
-    <col min="4828" max="4828" width="6.453125" style="1" customWidth="1"/>
-    <col min="4829" max="4831" width="8.6328125" style="1" customWidth="1"/>
-    <col min="4832" max="4832" width="21.08984375" style="1" customWidth="1"/>
-    <col min="4833" max="4833" width="25.08984375" style="1" customWidth="1"/>
-    <col min="4834" max="4834" width="14.90625" style="1" customWidth="1"/>
-    <col min="4835" max="4835" width="16.90625" style="1" customWidth="1"/>
-    <col min="4836" max="4836" width="7.81640625" style="1" customWidth="1"/>
+    <col min="4582" max="4582" width="16.90625" style="1" customWidth="1"/>
+    <col min="4583" max="4583" width="7.81640625" style="1" customWidth="1"/>
+    <col min="4584" max="4584" width="14.90625" style="1" customWidth="1"/>
+    <col min="4585" max="4585" width="9.1796875" style="1" customWidth="1"/>
+    <col min="4586" max="4586" width="11.1796875" style="1" customWidth="1"/>
+    <col min="4587" max="4587" width="16.1796875" style="1" customWidth="1"/>
+    <col min="4588" max="4588" width="13.08984375" style="1" customWidth="1"/>
+    <col min="4589" max="4591" width="12.81640625" style="1" customWidth="1"/>
+    <col min="4592" max="4592" width="11.90625" style="1" customWidth="1"/>
+    <col min="4593" max="4593" width="12.81640625" style="1" customWidth="1"/>
+    <col min="4594" max="4783" width="7.81640625" style="1" customWidth="1"/>
+    <col min="4784" max="4784" width="5.6328125" style="1" customWidth="1"/>
+    <col min="4785" max="4786" width="10.90625" style="1" customWidth="1"/>
+    <col min="4787" max="4787" width="9.08984375" style="1" customWidth="1"/>
+    <col min="4788" max="4789" width="8.6328125" style="1" customWidth="1"/>
+    <col min="4790" max="4790" width="24" style="1" customWidth="1"/>
+    <col min="4791" max="4791" width="17.81640625" style="1" customWidth="1"/>
+    <col min="4792" max="4793" width="12.81640625" style="1" customWidth="1"/>
+    <col min="4794" max="4794" width="20.1796875" style="1" customWidth="1"/>
+    <col min="4795" max="4830" width="8.36328125" style="1"/>
+    <col min="4831" max="4831" width="6.453125" style="1" customWidth="1"/>
+    <col min="4832" max="4834" width="8.6328125" style="1" customWidth="1"/>
+    <col min="4835" max="4835" width="21.08984375" style="1" customWidth="1"/>
+    <col min="4836" max="4836" width="25.08984375" style="1" customWidth="1"/>
     <col min="4837" max="4837" width="14.90625" style="1" customWidth="1"/>
-    <col min="4838" max="4838" width="9.1796875" style="1" customWidth="1"/>
-    <col min="4839" max="4839" width="11.1796875" style="1" customWidth="1"/>
-    <col min="4840" max="4840" width="16.1796875" style="1" customWidth="1"/>
-    <col min="4841" max="4841" width="13.08984375" style="1" customWidth="1"/>
-    <col min="4842" max="4844" width="12.81640625" style="1" customWidth="1"/>
-    <col min="4845" max="4845" width="11.90625" style="1" customWidth="1"/>
-    <col min="4846" max="4846" width="12.81640625" style="1" customWidth="1"/>
-    <col min="4847" max="5036" width="7.81640625" style="1" customWidth="1"/>
-    <col min="5037" max="5037" width="5.6328125" style="1" customWidth="1"/>
-    <col min="5038" max="5039" width="10.90625" style="1" customWidth="1"/>
-    <col min="5040" max="5040" width="9.08984375" style="1" customWidth="1"/>
-    <col min="5041" max="5042" width="8.6328125" style="1" customWidth="1"/>
-    <col min="5043" max="5043" width="24" style="1" customWidth="1"/>
-    <col min="5044" max="5044" width="17.81640625" style="1" customWidth="1"/>
-    <col min="5045" max="5046" width="12.81640625" style="1" customWidth="1"/>
-    <col min="5047" max="5047" width="20.1796875" style="1" customWidth="1"/>
-    <col min="5048" max="5083" width="8.36328125" style="1"/>
-    <col min="5084" max="5084" width="6.453125" style="1" customWidth="1"/>
-    <col min="5085" max="5087" width="8.6328125" style="1" customWidth="1"/>
-    <col min="5088" max="5088" width="21.08984375" style="1" customWidth="1"/>
-    <col min="5089" max="5089" width="25.08984375" style="1" customWidth="1"/>
-    <col min="5090" max="5090" width="14.90625" style="1" customWidth="1"/>
-    <col min="5091" max="5091" width="16.90625" style="1" customWidth="1"/>
-    <col min="5092" max="5092" width="7.81640625" style="1" customWidth="1"/>
+    <col min="4838" max="4838" width="16.90625" style="1" customWidth="1"/>
+    <col min="4839" max="4839" width="7.81640625" style="1" customWidth="1"/>
+    <col min="4840" max="4840" width="14.90625" style="1" customWidth="1"/>
+    <col min="4841" max="4841" width="9.1796875" style="1" customWidth="1"/>
+    <col min="4842" max="4842" width="11.1796875" style="1" customWidth="1"/>
+    <col min="4843" max="4843" width="16.1796875" style="1" customWidth="1"/>
+    <col min="4844" max="4844" width="13.08984375" style="1" customWidth="1"/>
+    <col min="4845" max="4847" width="12.81640625" style="1" customWidth="1"/>
+    <col min="4848" max="4848" width="11.90625" style="1" customWidth="1"/>
+    <col min="4849" max="4849" width="12.81640625" style="1" customWidth="1"/>
+    <col min="4850" max="5039" width="7.81640625" style="1" customWidth="1"/>
+    <col min="5040" max="5040" width="5.6328125" style="1" customWidth="1"/>
+    <col min="5041" max="5042" width="10.90625" style="1" customWidth="1"/>
+    <col min="5043" max="5043" width="9.08984375" style="1" customWidth="1"/>
+    <col min="5044" max="5045" width="8.6328125" style="1" customWidth="1"/>
+    <col min="5046" max="5046" width="24" style="1" customWidth="1"/>
+    <col min="5047" max="5047" width="17.81640625" style="1" customWidth="1"/>
+    <col min="5048" max="5049" width="12.81640625" style="1" customWidth="1"/>
+    <col min="5050" max="5050" width="20.1796875" style="1" customWidth="1"/>
+    <col min="5051" max="5086" width="8.36328125" style="1"/>
+    <col min="5087" max="5087" width="6.453125" style="1" customWidth="1"/>
+    <col min="5088" max="5090" width="8.6328125" style="1" customWidth="1"/>
+    <col min="5091" max="5091" width="21.08984375" style="1" customWidth="1"/>
+    <col min="5092" max="5092" width="25.08984375" style="1" customWidth="1"/>
     <col min="5093" max="5093" width="14.90625" style="1" customWidth="1"/>
-    <col min="5094" max="5094" width="9.1796875" style="1" customWidth="1"/>
-    <col min="5095" max="5095" width="11.1796875" style="1" customWidth="1"/>
-    <col min="5096" max="5096" width="16.1796875" style="1" customWidth="1"/>
-    <col min="5097" max="5097" width="13.08984375" style="1" customWidth="1"/>
-    <col min="5098" max="5100" width="12.81640625" style="1" customWidth="1"/>
-    <col min="5101" max="5101" width="11.90625" style="1" customWidth="1"/>
-    <col min="5102" max="5102" width="12.81640625" style="1" customWidth="1"/>
-    <col min="5103" max="5292" width="7.81640625" style="1" customWidth="1"/>
-    <col min="5293" max="5293" width="5.6328125" style="1" customWidth="1"/>
-    <col min="5294" max="5295" width="10.90625" style="1" customWidth="1"/>
-    <col min="5296" max="5296" width="9.08984375" style="1" customWidth="1"/>
-    <col min="5297" max="5298" width="8.6328125" style="1" customWidth="1"/>
-    <col min="5299" max="5299" width="24" style="1" customWidth="1"/>
-    <col min="5300" max="5300" width="17.81640625" style="1" customWidth="1"/>
-    <col min="5301" max="5302" width="12.81640625" style="1" customWidth="1"/>
-    <col min="5303" max="5303" width="20.1796875" style="1" customWidth="1"/>
-    <col min="5304" max="5339" width="8.36328125" style="1"/>
-    <col min="5340" max="5340" width="6.453125" style="1" customWidth="1"/>
-    <col min="5341" max="5343" width="8.6328125" style="1" customWidth="1"/>
-    <col min="5344" max="5344" width="21.08984375" style="1" customWidth="1"/>
-    <col min="5345" max="5345" width="25.08984375" style="1" customWidth="1"/>
-    <col min="5346" max="5346" width="14.90625" style="1" customWidth="1"/>
-    <col min="5347" max="5347" width="16.90625" style="1" customWidth="1"/>
-    <col min="5348" max="5348" width="7.81640625" style="1" customWidth="1"/>
+    <col min="5094" max="5094" width="16.90625" style="1" customWidth="1"/>
+    <col min="5095" max="5095" width="7.81640625" style="1" customWidth="1"/>
+    <col min="5096" max="5096" width="14.90625" style="1" customWidth="1"/>
+    <col min="5097" max="5097" width="9.1796875" style="1" customWidth="1"/>
+    <col min="5098" max="5098" width="11.1796875" style="1" customWidth="1"/>
+    <col min="5099" max="5099" width="16.1796875" style="1" customWidth="1"/>
+    <col min="5100" max="5100" width="13.08984375" style="1" customWidth="1"/>
+    <col min="5101" max="5103" width="12.81640625" style="1" customWidth="1"/>
+    <col min="5104" max="5104" width="11.90625" style="1" customWidth="1"/>
+    <col min="5105" max="5105" width="12.81640625" style="1" customWidth="1"/>
+    <col min="5106" max="5295" width="7.81640625" style="1" customWidth="1"/>
+    <col min="5296" max="5296" width="5.6328125" style="1" customWidth="1"/>
+    <col min="5297" max="5298" width="10.90625" style="1" customWidth="1"/>
+    <col min="5299" max="5299" width="9.08984375" style="1" customWidth="1"/>
+    <col min="5300" max="5301" width="8.6328125" style="1" customWidth="1"/>
+    <col min="5302" max="5302" width="24" style="1" customWidth="1"/>
+    <col min="5303" max="5303" width="17.81640625" style="1" customWidth="1"/>
+    <col min="5304" max="5305" width="12.81640625" style="1" customWidth="1"/>
+    <col min="5306" max="5306" width="20.1796875" style="1" customWidth="1"/>
+    <col min="5307" max="5342" width="8.36328125" style="1"/>
+    <col min="5343" max="5343" width="6.453125" style="1" customWidth="1"/>
+    <col min="5344" max="5346" width="8.6328125" style="1" customWidth="1"/>
+    <col min="5347" max="5347" width="21.08984375" style="1" customWidth="1"/>
+    <col min="5348" max="5348" width="25.08984375" style="1" customWidth="1"/>
     <col min="5349" max="5349" width="14.90625" style="1" customWidth="1"/>
-    <col min="5350" max="5350" width="9.1796875" style="1" customWidth="1"/>
-    <col min="5351" max="5351" width="11.1796875" style="1" customWidth="1"/>
-    <col min="5352" max="5352" width="16.1796875" style="1" customWidth="1"/>
-    <col min="5353" max="5353" width="13.08984375" style="1" customWidth="1"/>
-    <col min="5354" max="5356" width="12.81640625" style="1" customWidth="1"/>
-    <col min="5357" max="5357" width="11.90625" style="1" customWidth="1"/>
-    <col min="5358" max="5358" width="12.81640625" style="1" customWidth="1"/>
-    <col min="5359" max="5548" width="7.81640625" style="1" customWidth="1"/>
-    <col min="5549" max="5549" width="5.6328125" style="1" customWidth="1"/>
-    <col min="5550" max="5551" width="10.90625" style="1" customWidth="1"/>
-    <col min="5552" max="5552" width="9.08984375" style="1" customWidth="1"/>
-    <col min="5553" max="5554" width="8.6328125" style="1" customWidth="1"/>
-    <col min="5555" max="5555" width="24" style="1" customWidth="1"/>
-    <col min="5556" max="5556" width="17.81640625" style="1" customWidth="1"/>
-    <col min="5557" max="5558" width="12.81640625" style="1" customWidth="1"/>
-    <col min="5559" max="5559" width="20.1796875" style="1" customWidth="1"/>
-    <col min="5560" max="5595" width="8.36328125" style="1"/>
-    <col min="5596" max="5596" width="6.453125" style="1" customWidth="1"/>
-    <col min="5597" max="5599" width="8.6328125" style="1" customWidth="1"/>
-    <col min="5600" max="5600" width="21.08984375" style="1" customWidth="1"/>
-    <col min="5601" max="5601" width="25.08984375" style="1" customWidth="1"/>
-    <col min="5602" max="5602" width="14.90625" style="1" customWidth="1"/>
-    <col min="5603" max="5603" width="16.90625" style="1" customWidth="1"/>
-    <col min="5604" max="5604" width="7.81640625" style="1" customWidth="1"/>
+    <col min="5350" max="5350" width="16.90625" style="1" customWidth="1"/>
+    <col min="5351" max="5351" width="7.81640625" style="1" customWidth="1"/>
+    <col min="5352" max="5352" width="14.90625" style="1" customWidth="1"/>
+    <col min="5353" max="5353" width="9.1796875" style="1" customWidth="1"/>
+    <col min="5354" max="5354" width="11.1796875" style="1" customWidth="1"/>
+    <col min="5355" max="5355" width="16.1796875" style="1" customWidth="1"/>
+    <col min="5356" max="5356" width="13.08984375" style="1" customWidth="1"/>
+    <col min="5357" max="5359" width="12.81640625" style="1" customWidth="1"/>
+    <col min="5360" max="5360" width="11.90625" style="1" customWidth="1"/>
+    <col min="5361" max="5361" width="12.81640625" style="1" customWidth="1"/>
+    <col min="5362" max="5551" width="7.81640625" style="1" customWidth="1"/>
+    <col min="5552" max="5552" width="5.6328125" style="1" customWidth="1"/>
+    <col min="5553" max="5554" width="10.90625" style="1" customWidth="1"/>
+    <col min="5555" max="5555" width="9.08984375" style="1" customWidth="1"/>
+    <col min="5556" max="5557" width="8.6328125" style="1" customWidth="1"/>
+    <col min="5558" max="5558" width="24" style="1" customWidth="1"/>
+    <col min="5559" max="5559" width="17.81640625" style="1" customWidth="1"/>
+    <col min="5560" max="5561" width="12.81640625" style="1" customWidth="1"/>
+    <col min="5562" max="5562" width="20.1796875" style="1" customWidth="1"/>
+    <col min="5563" max="5598" width="8.36328125" style="1"/>
+    <col min="5599" max="5599" width="6.453125" style="1" customWidth="1"/>
+    <col min="5600" max="5602" width="8.6328125" style="1" customWidth="1"/>
+    <col min="5603" max="5603" width="21.08984375" style="1" customWidth="1"/>
+    <col min="5604" max="5604" width="25.08984375" style="1" customWidth="1"/>
     <col min="5605" max="5605" width="14.90625" style="1" customWidth="1"/>
-    <col min="5606" max="5606" width="9.1796875" style="1" customWidth="1"/>
-    <col min="5607" max="5607" width="11.1796875" style="1" customWidth="1"/>
-    <col min="5608" max="5608" width="16.1796875" style="1" customWidth="1"/>
-    <col min="5609" max="5609" width="13.08984375" style="1" customWidth="1"/>
-    <col min="5610" max="5612" width="12.81640625" style="1" customWidth="1"/>
-    <col min="5613" max="5613" width="11.90625" style="1" customWidth="1"/>
-    <col min="5614" max="5614" width="12.81640625" style="1" customWidth="1"/>
-    <col min="5615" max="5804" width="7.81640625" style="1" customWidth="1"/>
-    <col min="5805" max="5805" width="5.6328125" style="1" customWidth="1"/>
-    <col min="5806" max="5807" width="10.90625" style="1" customWidth="1"/>
-    <col min="5808" max="5808" width="9.08984375" style="1" customWidth="1"/>
-    <col min="5809" max="5810" width="8.6328125" style="1" customWidth="1"/>
-    <col min="5811" max="5811" width="24" style="1" customWidth="1"/>
-    <col min="5812" max="5812" width="17.81640625" style="1" customWidth="1"/>
-    <col min="5813" max="5814" width="12.81640625" style="1" customWidth="1"/>
-    <col min="5815" max="5815" width="20.1796875" style="1" customWidth="1"/>
-    <col min="5816" max="5851" width="8.36328125" style="1"/>
-    <col min="5852" max="5852" width="6.453125" style="1" customWidth="1"/>
-    <col min="5853" max="5855" width="8.6328125" style="1" customWidth="1"/>
-    <col min="5856" max="5856" width="21.08984375" style="1" customWidth="1"/>
-    <col min="5857" max="5857" width="25.08984375" style="1" customWidth="1"/>
-    <col min="5858" max="5858" width="14.90625" style="1" customWidth="1"/>
-    <col min="5859" max="5859" width="16.90625" style="1" customWidth="1"/>
-    <col min="5860" max="5860" width="7.81640625" style="1" customWidth="1"/>
+    <col min="5606" max="5606" width="16.90625" style="1" customWidth="1"/>
+    <col min="5607" max="5607" width="7.81640625" style="1" customWidth="1"/>
+    <col min="5608" max="5608" width="14.90625" style="1" customWidth="1"/>
+    <col min="5609" max="5609" width="9.1796875" style="1" customWidth="1"/>
+    <col min="5610" max="5610" width="11.1796875" style="1" customWidth="1"/>
+    <col min="5611" max="5611" width="16.1796875" style="1" customWidth="1"/>
+    <col min="5612" max="5612" width="13.08984375" style="1" customWidth="1"/>
+    <col min="5613" max="5615" width="12.81640625" style="1" customWidth="1"/>
+    <col min="5616" max="5616" width="11.90625" style="1" customWidth="1"/>
+    <col min="5617" max="5617" width="12.81640625" style="1" customWidth="1"/>
+    <col min="5618" max="5807" width="7.81640625" style="1" customWidth="1"/>
+    <col min="5808" max="5808" width="5.6328125" style="1" customWidth="1"/>
+    <col min="5809" max="5810" width="10.90625" style="1" customWidth="1"/>
+    <col min="5811" max="5811" width="9.08984375" style="1" customWidth="1"/>
+    <col min="5812" max="5813" width="8.6328125" style="1" customWidth="1"/>
+    <col min="5814" max="5814" width="24" style="1" customWidth="1"/>
+    <col min="5815" max="5815" width="17.81640625" style="1" customWidth="1"/>
+    <col min="5816" max="5817" width="12.81640625" style="1" customWidth="1"/>
+    <col min="5818" max="5818" width="20.1796875" style="1" customWidth="1"/>
+    <col min="5819" max="5854" width="8.36328125" style="1"/>
+    <col min="5855" max="5855" width="6.453125" style="1" customWidth="1"/>
+    <col min="5856" max="5858" width="8.6328125" style="1" customWidth="1"/>
+    <col min="5859" max="5859" width="21.08984375" style="1" customWidth="1"/>
+    <col min="5860" max="5860" width="25.08984375" style="1" customWidth="1"/>
     <col min="5861" max="5861" width="14.90625" style="1" customWidth="1"/>
-    <col min="5862" max="5862" width="9.1796875" style="1" customWidth="1"/>
-    <col min="5863" max="5863" width="11.1796875" style="1" customWidth="1"/>
-    <col min="5864" max="5864" width="16.1796875" style="1" customWidth="1"/>
-    <col min="5865" max="5865" width="13.08984375" style="1" customWidth="1"/>
-    <col min="5866" max="5868" width="12.81640625" style="1" customWidth="1"/>
-    <col min="5869" max="5869" width="11.90625" style="1" customWidth="1"/>
-    <col min="5870" max="5870" width="12.81640625" style="1" customWidth="1"/>
-    <col min="5871" max="6060" width="7.81640625" style="1" customWidth="1"/>
-    <col min="6061" max="6061" width="5.6328125" style="1" customWidth="1"/>
-    <col min="6062" max="6063" width="10.90625" style="1" customWidth="1"/>
-    <col min="6064" max="6064" width="9.08984375" style="1" customWidth="1"/>
-    <col min="6065" max="6066" width="8.6328125" style="1" customWidth="1"/>
-    <col min="6067" max="6067" width="24" style="1" customWidth="1"/>
-    <col min="6068" max="6068" width="17.81640625" style="1" customWidth="1"/>
-    <col min="6069" max="6070" width="12.81640625" style="1" customWidth="1"/>
-    <col min="6071" max="6071" width="20.1796875" style="1" customWidth="1"/>
-    <col min="6072" max="6107" width="8.36328125" style="1"/>
-    <col min="6108" max="6108" width="6.453125" style="1" customWidth="1"/>
-    <col min="6109" max="6111" width="8.6328125" style="1" customWidth="1"/>
-    <col min="6112" max="6112" width="21.08984375" style="1" customWidth="1"/>
-    <col min="6113" max="6113" width="25.08984375" style="1" customWidth="1"/>
-    <col min="6114" max="6114" width="14.90625" style="1" customWidth="1"/>
-    <col min="6115" max="6115" width="16.90625" style="1" customWidth="1"/>
-    <col min="6116" max="6116" width="7.81640625" style="1" customWidth="1"/>
+    <col min="5862" max="5862" width="16.90625" style="1" customWidth="1"/>
+    <col min="5863" max="5863" width="7.81640625" style="1" customWidth="1"/>
+    <col min="5864" max="5864" width="14.90625" style="1" customWidth="1"/>
+    <col min="5865" max="5865" width="9.1796875" style="1" customWidth="1"/>
+    <col min="5866" max="5866" width="11.1796875" style="1" customWidth="1"/>
+    <col min="5867" max="5867" width="16.1796875" style="1" customWidth="1"/>
+    <col min="5868" max="5868" width="13.08984375" style="1" customWidth="1"/>
+    <col min="5869" max="5871" width="12.81640625" style="1" customWidth="1"/>
+    <col min="5872" max="5872" width="11.90625" style="1" customWidth="1"/>
+    <col min="5873" max="5873" width="12.81640625" style="1" customWidth="1"/>
+    <col min="5874" max="6063" width="7.81640625" style="1" customWidth="1"/>
+    <col min="6064" max="6064" width="5.6328125" style="1" customWidth="1"/>
+    <col min="6065" max="6066" width="10.90625" style="1" customWidth="1"/>
+    <col min="6067" max="6067" width="9.08984375" style="1" customWidth="1"/>
+    <col min="6068" max="6069" width="8.6328125" style="1" customWidth="1"/>
+    <col min="6070" max="6070" width="24" style="1" customWidth="1"/>
+    <col min="6071" max="6071" width="17.81640625" style="1" customWidth="1"/>
+    <col min="6072" max="6073" width="12.81640625" style="1" customWidth="1"/>
+    <col min="6074" max="6074" width="20.1796875" style="1" customWidth="1"/>
+    <col min="6075" max="6110" width="8.36328125" style="1"/>
+    <col min="6111" max="6111" width="6.453125" style="1" customWidth="1"/>
+    <col min="6112" max="6114" width="8.6328125" style="1" customWidth="1"/>
+    <col min="6115" max="6115" width="21.08984375" style="1" customWidth="1"/>
+    <col min="6116" max="6116" width="25.08984375" style="1" customWidth="1"/>
     <col min="6117" max="6117" width="14.90625" style="1" customWidth="1"/>
-    <col min="6118" max="6118" width="9.1796875" style="1" customWidth="1"/>
-    <col min="6119" max="6119" width="11.1796875" style="1" customWidth="1"/>
-    <col min="6120" max="6120" width="16.1796875" style="1" customWidth="1"/>
-    <col min="6121" max="6121" width="13.08984375" style="1" customWidth="1"/>
-    <col min="6122" max="6124" width="12.81640625" style="1" customWidth="1"/>
-    <col min="6125" max="6125" width="11.90625" style="1" customWidth="1"/>
-    <col min="6126" max="6126" width="12.81640625" style="1" customWidth="1"/>
-    <col min="6127" max="6316" width="7.81640625" style="1" customWidth="1"/>
-    <col min="6317" max="6317" width="5.6328125" style="1" customWidth="1"/>
-    <col min="6318" max="6319" width="10.90625" style="1" customWidth="1"/>
-    <col min="6320" max="6320" width="9.08984375" style="1" customWidth="1"/>
-    <col min="6321" max="6322" width="8.6328125" style="1" customWidth="1"/>
-    <col min="6323" max="6323" width="24" style="1" customWidth="1"/>
-    <col min="6324" max="6324" width="17.81640625" style="1" customWidth="1"/>
-    <col min="6325" max="6326" width="12.81640625" style="1" customWidth="1"/>
-    <col min="6327" max="6327" width="20.1796875" style="1" customWidth="1"/>
-    <col min="6328" max="6363" width="8.36328125" style="1"/>
-    <col min="6364" max="6364" width="6.453125" style="1" customWidth="1"/>
-    <col min="6365" max="6367" width="8.6328125" style="1" customWidth="1"/>
-    <col min="6368" max="6368" width="21.08984375" style="1" customWidth="1"/>
-    <col min="6369" max="6369" width="25.08984375" style="1" customWidth="1"/>
-    <col min="6370" max="6370" width="14.90625" style="1" customWidth="1"/>
-    <col min="6371" max="6371" width="16.90625" style="1" customWidth="1"/>
-    <col min="6372" max="6372" width="7.81640625" style="1" customWidth="1"/>
+    <col min="6118" max="6118" width="16.90625" style="1" customWidth="1"/>
+    <col min="6119" max="6119" width="7.81640625" style="1" customWidth="1"/>
+    <col min="6120" max="6120" width="14.90625" style="1" customWidth="1"/>
+    <col min="6121" max="6121" width="9.1796875" style="1" customWidth="1"/>
+    <col min="6122" max="6122" width="11.1796875" style="1" customWidth="1"/>
+    <col min="6123" max="6123" width="16.1796875" style="1" customWidth="1"/>
+    <col min="6124" max="6124" width="13.08984375" style="1" customWidth="1"/>
+    <col min="6125" max="6127" width="12.81640625" style="1" customWidth="1"/>
+    <col min="6128" max="6128" width="11.90625" style="1" customWidth="1"/>
+    <col min="6129" max="6129" width="12.81640625" style="1" customWidth="1"/>
+    <col min="6130" max="6319" width="7.81640625" style="1" customWidth="1"/>
+    <col min="6320" max="6320" width="5.6328125" style="1" customWidth="1"/>
+    <col min="6321" max="6322" width="10.90625" style="1" customWidth="1"/>
+    <col min="6323" max="6323" width="9.08984375" style="1" customWidth="1"/>
+    <col min="6324" max="6325" width="8.6328125" style="1" customWidth="1"/>
+    <col min="6326" max="6326" width="24" style="1" customWidth="1"/>
+    <col min="6327" max="6327" width="17.81640625" style="1" customWidth="1"/>
+    <col min="6328" max="6329" width="12.81640625" style="1" customWidth="1"/>
+    <col min="6330" max="6330" width="20.1796875" style="1" customWidth="1"/>
+    <col min="6331" max="6366" width="8.36328125" style="1"/>
+    <col min="6367" max="6367" width="6.453125" style="1" customWidth="1"/>
+    <col min="6368" max="6370" width="8.6328125" style="1" customWidth="1"/>
+    <col min="6371" max="6371" width="21.08984375" style="1" customWidth="1"/>
+    <col min="6372" max="6372" width="25.08984375" style="1" customWidth="1"/>
     <col min="6373" max="6373" width="14.90625" style="1" customWidth="1"/>
-    <col min="6374" max="6374" width="9.1796875" style="1" customWidth="1"/>
-    <col min="6375" max="6375" width="11.1796875" style="1" customWidth="1"/>
-    <col min="6376" max="6376" width="16.1796875" style="1" customWidth="1"/>
-    <col min="6377" max="6377" width="13.08984375" style="1" customWidth="1"/>
-    <col min="6378" max="6380" width="12.81640625" style="1" customWidth="1"/>
-    <col min="6381" max="6381" width="11.90625" style="1" customWidth="1"/>
-    <col min="6382" max="6382" width="12.81640625" style="1" customWidth="1"/>
-    <col min="6383" max="6572" width="7.81640625" style="1" customWidth="1"/>
-    <col min="6573" max="6573" width="5.6328125" style="1" customWidth="1"/>
-    <col min="6574" max="6575" width="10.90625" style="1" customWidth="1"/>
-    <col min="6576" max="6576" width="9.08984375" style="1" customWidth="1"/>
-    <col min="6577" max="6578" width="8.6328125" style="1" customWidth="1"/>
-    <col min="6579" max="6579" width="24" style="1" customWidth="1"/>
-    <col min="6580" max="6580" width="17.81640625" style="1" customWidth="1"/>
-    <col min="6581" max="6582" width="12.81640625" style="1" customWidth="1"/>
-    <col min="6583" max="6583" width="20.1796875" style="1" customWidth="1"/>
-    <col min="6584" max="6619" width="8.36328125" style="1"/>
-    <col min="6620" max="6620" width="6.453125" style="1" customWidth="1"/>
-    <col min="6621" max="6623" width="8.6328125" style="1" customWidth="1"/>
-    <col min="6624" max="6624" width="21.08984375" style="1" customWidth="1"/>
-    <col min="6625" max="6625" width="25.08984375" style="1" customWidth="1"/>
-    <col min="6626" max="6626" width="14.90625" style="1" customWidth="1"/>
-    <col min="6627" max="6627" width="16.90625" style="1" customWidth="1"/>
-    <col min="6628" max="6628" width="7.81640625" style="1" customWidth="1"/>
+    <col min="6374" max="6374" width="16.90625" style="1" customWidth="1"/>
+    <col min="6375" max="6375" width="7.81640625" style="1" customWidth="1"/>
+    <col min="6376" max="6376" width="14.90625" style="1" customWidth="1"/>
+    <col min="6377" max="6377" width="9.1796875" style="1" customWidth="1"/>
+    <col min="6378" max="6378" width="11.1796875" style="1" customWidth="1"/>
+    <col min="6379" max="6379" width="16.1796875" style="1" customWidth="1"/>
+    <col min="6380" max="6380" width="13.08984375" style="1" customWidth="1"/>
+    <col min="6381" max="6383" width="12.81640625" style="1" customWidth="1"/>
+    <col min="6384" max="6384" width="11.90625" style="1" customWidth="1"/>
+    <col min="6385" max="6385" width="12.81640625" style="1" customWidth="1"/>
+    <col min="6386" max="6575" width="7.81640625" style="1" customWidth="1"/>
+    <col min="6576" max="6576" width="5.6328125" style="1" customWidth="1"/>
+    <col min="6577" max="6578" width="10.90625" style="1" customWidth="1"/>
+    <col min="6579" max="6579" width="9.08984375" style="1" customWidth="1"/>
+    <col min="6580" max="6581" width="8.6328125" style="1" customWidth="1"/>
+    <col min="6582" max="6582" width="24" style="1" customWidth="1"/>
+    <col min="6583" max="6583" width="17.81640625" style="1" customWidth="1"/>
+    <col min="6584" max="6585" width="12.81640625" style="1" customWidth="1"/>
+    <col min="6586" max="6586" width="20.1796875" style="1" customWidth="1"/>
+    <col min="6587" max="6622" width="8.36328125" style="1"/>
+    <col min="6623" max="6623" width="6.453125" style="1" customWidth="1"/>
+    <col min="6624" max="6626" width="8.6328125" style="1" customWidth="1"/>
+    <col min="6627" max="6627" width="21.08984375" style="1" customWidth="1"/>
+    <col min="6628" max="6628" width="25.08984375" style="1" customWidth="1"/>
     <col min="6629" max="6629" width="14.90625" style="1" customWidth="1"/>
-    <col min="6630" max="6630" width="9.1796875" style="1" customWidth="1"/>
-    <col min="6631" max="6631" width="11.1796875" style="1" customWidth="1"/>
-    <col min="6632" max="6632" width="16.1796875" style="1" customWidth="1"/>
-    <col min="6633" max="6633" width="13.08984375" style="1" customWidth="1"/>
-    <col min="6634" max="6636" width="12.81640625" style="1" customWidth="1"/>
-    <col min="6637" max="6637" width="11.90625" style="1" customWidth="1"/>
-    <col min="6638" max="6638" width="12.81640625" style="1" customWidth="1"/>
-    <col min="6639" max="6828" width="7.81640625" style="1" customWidth="1"/>
-    <col min="6829" max="6829" width="5.6328125" style="1" customWidth="1"/>
-    <col min="6830" max="6831" width="10.90625" style="1" customWidth="1"/>
-    <col min="6832" max="6832" width="9.08984375" style="1" customWidth="1"/>
-    <col min="6833" max="6834" width="8.6328125" style="1" customWidth="1"/>
-    <col min="6835" max="6835" width="24" style="1" customWidth="1"/>
-    <col min="6836" max="6836" width="17.81640625" style="1" customWidth="1"/>
-    <col min="6837" max="6838" width="12.81640625" style="1" customWidth="1"/>
-    <col min="6839" max="6839" width="20.1796875" style="1" customWidth="1"/>
-    <col min="6840" max="6875" width="8.36328125" style="1"/>
-    <col min="6876" max="6876" width="6.453125" style="1" customWidth="1"/>
-    <col min="6877" max="6879" width="8.6328125" style="1" customWidth="1"/>
-    <col min="6880" max="6880" width="21.08984375" style="1" customWidth="1"/>
-    <col min="6881" max="6881" width="25.08984375" style="1" customWidth="1"/>
-    <col min="6882" max="6882" width="14.90625" style="1" customWidth="1"/>
-    <col min="6883" max="6883" width="16.90625" style="1" customWidth="1"/>
-    <col min="6884" max="6884" width="7.81640625" style="1" customWidth="1"/>
+    <col min="6630" max="6630" width="16.90625" style="1" customWidth="1"/>
+    <col min="6631" max="6631" width="7.81640625" style="1" customWidth="1"/>
+    <col min="6632" max="6632" width="14.90625" style="1" customWidth="1"/>
+    <col min="6633" max="6633" width="9.1796875" style="1" customWidth="1"/>
+    <col min="6634" max="6634" width="11.1796875" style="1" customWidth="1"/>
+    <col min="6635" max="6635" width="16.1796875" style="1" customWidth="1"/>
+    <col min="6636" max="6636" width="13.08984375" style="1" customWidth="1"/>
+    <col min="6637" max="6639" width="12.81640625" style="1" customWidth="1"/>
+    <col min="6640" max="6640" width="11.90625" style="1" customWidth="1"/>
+    <col min="6641" max="6641" width="12.81640625" style="1" customWidth="1"/>
+    <col min="6642" max="6831" width="7.81640625" style="1" customWidth="1"/>
+    <col min="6832" max="6832" width="5.6328125" style="1" customWidth="1"/>
+    <col min="6833" max="6834" width="10.90625" style="1" customWidth="1"/>
+    <col min="6835" max="6835" width="9.08984375" style="1" customWidth="1"/>
+    <col min="6836" max="6837" width="8.6328125" style="1" customWidth="1"/>
+    <col min="6838" max="6838" width="24" style="1" customWidth="1"/>
+    <col min="6839" max="6839" width="17.81640625" style="1" customWidth="1"/>
+    <col min="6840" max="6841" width="12.81640625" style="1" customWidth="1"/>
+    <col min="6842" max="6842" width="20.1796875" style="1" customWidth="1"/>
+    <col min="6843" max="6878" width="8.36328125" style="1"/>
+    <col min="6879" max="6879" width="6.453125" style="1" customWidth="1"/>
+    <col min="6880" max="6882" width="8.6328125" style="1" customWidth="1"/>
+    <col min="6883" max="6883" width="21.08984375" style="1" customWidth="1"/>
+    <col min="6884" max="6884" width="25.08984375" style="1" customWidth="1"/>
     <col min="6885" max="6885" width="14.90625" style="1" customWidth="1"/>
-    <col min="6886" max="6886" width="9.1796875" style="1" customWidth="1"/>
-    <col min="6887" max="6887" width="11.1796875" style="1" customWidth="1"/>
-    <col min="6888" max="6888" width="16.1796875" style="1" customWidth="1"/>
-    <col min="6889" max="6889" width="13.08984375" style="1" customWidth="1"/>
-    <col min="6890" max="6892" width="12.81640625" style="1" customWidth="1"/>
-    <col min="6893" max="6893" width="11.90625" style="1" customWidth="1"/>
-    <col min="6894" max="6894" width="12.81640625" style="1" customWidth="1"/>
-    <col min="6895" max="7084" width="7.81640625" style="1" customWidth="1"/>
-    <col min="7085" max="7085" width="5.6328125" style="1" customWidth="1"/>
-    <col min="7086" max="7087" width="10.90625" style="1" customWidth="1"/>
-    <col min="7088" max="7088" width="9.08984375" style="1" customWidth="1"/>
-    <col min="7089" max="7090" width="8.6328125" style="1" customWidth="1"/>
-    <col min="7091" max="7091" width="24" style="1" customWidth="1"/>
-    <col min="7092" max="7092" width="17.81640625" style="1" customWidth="1"/>
-    <col min="7093" max="7094" width="12.81640625" style="1" customWidth="1"/>
-    <col min="7095" max="7095" width="20.1796875" style="1" customWidth="1"/>
-    <col min="7096" max="7131" width="8.36328125" style="1"/>
-    <col min="7132" max="7132" width="6.453125" style="1" customWidth="1"/>
-    <col min="7133" max="7135" width="8.6328125" style="1" customWidth="1"/>
-    <col min="7136" max="7136" width="21.08984375" style="1" customWidth="1"/>
-    <col min="7137" max="7137" width="25.08984375" style="1" customWidth="1"/>
-    <col min="7138" max="7138" width="14.90625" style="1" customWidth="1"/>
-    <col min="7139" max="7139" width="16.90625" style="1" customWidth="1"/>
-    <col min="7140" max="7140" width="7.81640625" style="1" customWidth="1"/>
+    <col min="6886" max="6886" width="16.90625" style="1" customWidth="1"/>
+    <col min="6887" max="6887" width="7.81640625" style="1" customWidth="1"/>
+    <col min="6888" max="6888" width="14.90625" style="1" customWidth="1"/>
+    <col min="6889" max="6889" width="9.1796875" style="1" customWidth="1"/>
+    <col min="6890" max="6890" width="11.1796875" style="1" customWidth="1"/>
+    <col min="6891" max="6891" width="16.1796875" style="1" customWidth="1"/>
+    <col min="6892" max="6892" width="13.08984375" style="1" customWidth="1"/>
+    <col min="6893" max="6895" width="12.81640625" style="1" customWidth="1"/>
+    <col min="6896" max="6896" width="11.90625" style="1" customWidth="1"/>
+    <col min="6897" max="6897" width="12.81640625" style="1" customWidth="1"/>
+    <col min="6898" max="7087" width="7.81640625" style="1" customWidth="1"/>
+    <col min="7088" max="7088" width="5.6328125" style="1" customWidth="1"/>
+    <col min="7089" max="7090" width="10.90625" style="1" customWidth="1"/>
+    <col min="7091" max="7091" width="9.08984375" style="1" customWidth="1"/>
+    <col min="7092" max="7093" width="8.6328125" style="1" customWidth="1"/>
+    <col min="7094" max="7094" width="24" style="1" customWidth="1"/>
+    <col min="7095" max="7095" width="17.81640625" style="1" customWidth="1"/>
+    <col min="7096" max="7097" width="12.81640625" style="1" customWidth="1"/>
+    <col min="7098" max="7098" width="20.1796875" style="1" customWidth="1"/>
+    <col min="7099" max="7134" width="8.36328125" style="1"/>
+    <col min="7135" max="7135" width="6.453125" style="1" customWidth="1"/>
+    <col min="7136" max="7138" width="8.6328125" style="1" customWidth="1"/>
+    <col min="7139" max="7139" width="21.08984375" style="1" customWidth="1"/>
+    <col min="7140" max="7140" width="25.08984375" style="1" customWidth="1"/>
     <col min="7141" max="7141" width="14.90625" style="1" customWidth="1"/>
-    <col min="7142" max="7142" width="9.1796875" style="1" customWidth="1"/>
-    <col min="7143" max="7143" width="11.1796875" style="1" customWidth="1"/>
-    <col min="7144" max="7144" width="16.1796875" style="1" customWidth="1"/>
-    <col min="7145" max="7145" width="13.08984375" style="1" customWidth="1"/>
-    <col min="7146" max="7148" width="12.81640625" style="1" customWidth="1"/>
-    <col min="7149" max="7149" width="11.90625" style="1" customWidth="1"/>
-    <col min="7150" max="7150" width="12.81640625" style="1" customWidth="1"/>
-    <col min="7151" max="7340" width="7.81640625" style="1" customWidth="1"/>
-    <col min="7341" max="7341" width="5.6328125" style="1" customWidth="1"/>
-    <col min="7342" max="7343" width="10.90625" style="1" customWidth="1"/>
-    <col min="7344" max="7344" width="9.08984375" style="1" customWidth="1"/>
-    <col min="7345" max="7346" width="8.6328125" style="1" customWidth="1"/>
-    <col min="7347" max="7347" width="24" style="1" customWidth="1"/>
-    <col min="7348" max="7348" width="17.81640625" style="1" customWidth="1"/>
-    <col min="7349" max="7350" width="12.81640625" style="1" customWidth="1"/>
-    <col min="7351" max="7351" width="20.1796875" style="1" customWidth="1"/>
-    <col min="7352" max="7387" width="8.36328125" style="1"/>
-    <col min="7388" max="7388" width="6.453125" style="1" customWidth="1"/>
-    <col min="7389" max="7391" width="8.6328125" style="1" customWidth="1"/>
-    <col min="7392" max="7392" width="21.08984375" style="1" customWidth="1"/>
-    <col min="7393" max="7393" width="25.08984375" style="1" customWidth="1"/>
-    <col min="7394" max="7394" width="14.90625" style="1" customWidth="1"/>
-    <col min="7395" max="7395" width="16.90625" style="1" customWidth="1"/>
-    <col min="7396" max="7396" width="7.81640625" style="1" customWidth="1"/>
+    <col min="7142" max="7142" width="16.90625" style="1" customWidth="1"/>
+    <col min="7143" max="7143" width="7.81640625" style="1" customWidth="1"/>
+    <col min="7144" max="7144" width="14.90625" style="1" customWidth="1"/>
+    <col min="7145" max="7145" width="9.1796875" style="1" customWidth="1"/>
+    <col min="7146" max="7146" width="11.1796875" style="1" customWidth="1"/>
+    <col min="7147" max="7147" width="16.1796875" style="1" customWidth="1"/>
+    <col min="7148" max="7148" width="13.08984375" style="1" customWidth="1"/>
+    <col min="7149" max="7151" width="12.81640625" style="1" customWidth="1"/>
+    <col min="7152" max="7152" width="11.90625" style="1" customWidth="1"/>
+    <col min="7153" max="7153" width="12.81640625" style="1" customWidth="1"/>
+    <col min="7154" max="7343" width="7.81640625" style="1" customWidth="1"/>
+    <col min="7344" max="7344" width="5.6328125" style="1" customWidth="1"/>
+    <col min="7345" max="7346" width="10.90625" style="1" customWidth="1"/>
+    <col min="7347" max="7347" width="9.08984375" style="1" customWidth="1"/>
+    <col min="7348" max="7349" width="8.6328125" style="1" customWidth="1"/>
+    <col min="7350" max="7350" width="24" style="1" customWidth="1"/>
+    <col min="7351" max="7351" width="17.81640625" style="1" customWidth="1"/>
+    <col min="7352" max="7353" width="12.81640625" style="1" customWidth="1"/>
+    <col min="7354" max="7354" width="20.1796875" style="1" customWidth="1"/>
+    <col min="7355" max="7390" width="8.36328125" style="1"/>
+    <col min="7391" max="7391" width="6.453125" style="1" customWidth="1"/>
+    <col min="7392" max="7394" width="8.6328125" style="1" customWidth="1"/>
+    <col min="7395" max="7395" width="21.08984375" style="1" customWidth="1"/>
+    <col min="7396" max="7396" width="25.08984375" style="1" customWidth="1"/>
     <col min="7397" max="7397" width="14.90625" style="1" customWidth="1"/>
-    <col min="7398" max="7398" width="9.1796875" style="1" customWidth="1"/>
-    <col min="7399" max="7399" width="11.1796875" style="1" customWidth="1"/>
-    <col min="7400" max="7400" width="16.1796875" style="1" customWidth="1"/>
-    <col min="7401" max="7401" width="13.08984375" style="1" customWidth="1"/>
-    <col min="7402" max="7404" width="12.81640625" style="1" customWidth="1"/>
-    <col min="7405" max="7405" width="11.90625" style="1" customWidth="1"/>
-    <col min="7406" max="7406" width="12.81640625" style="1" customWidth="1"/>
-    <col min="7407" max="7596" width="7.81640625" style="1" customWidth="1"/>
-    <col min="7597" max="7597" width="5.6328125" style="1" customWidth="1"/>
-    <col min="7598" max="7599" width="10.90625" style="1" customWidth="1"/>
-    <col min="7600" max="7600" width="9.08984375" style="1" customWidth="1"/>
-    <col min="7601" max="7602" width="8.6328125" style="1" customWidth="1"/>
-    <col min="7603" max="7603" width="24" style="1" customWidth="1"/>
-    <col min="7604" max="7604" width="17.81640625" style="1" customWidth="1"/>
-    <col min="7605" max="7606" width="12.81640625" style="1" customWidth="1"/>
-    <col min="7607" max="7607" width="20.1796875" style="1" customWidth="1"/>
-    <col min="7608" max="7643" width="8.36328125" style="1"/>
-    <col min="7644" max="7644" width="6.453125" style="1" customWidth="1"/>
-    <col min="7645" max="7647" width="8.6328125" style="1" customWidth="1"/>
-    <col min="7648" max="7648" width="21.08984375" style="1" customWidth="1"/>
-    <col min="7649" max="7649" width="25.08984375" style="1" customWidth="1"/>
-    <col min="7650" max="7650" width="14.90625" style="1" customWidth="1"/>
-    <col min="7651" max="7651" width="16.90625" style="1" customWidth="1"/>
-    <col min="7652" max="7652" width="7.81640625" style="1" customWidth="1"/>
+    <col min="7398" max="7398" width="16.90625" style="1" customWidth="1"/>
+    <col min="7399" max="7399" width="7.81640625" style="1" customWidth="1"/>
+    <col min="7400" max="7400" width="14.90625" style="1" customWidth="1"/>
+    <col min="7401" max="7401" width="9.1796875" style="1" customWidth="1"/>
+    <col min="7402" max="7402" width="11.1796875" style="1" customWidth="1"/>
+    <col min="7403" max="7403" width="16.1796875" style="1" customWidth="1"/>
+    <col min="7404" max="7404" width="13.08984375" style="1" customWidth="1"/>
+    <col min="7405" max="7407" width="12.81640625" style="1" customWidth="1"/>
+    <col min="7408" max="7408" width="11.90625" style="1" customWidth="1"/>
+    <col min="7409" max="7409" width="12.81640625" style="1" customWidth="1"/>
+    <col min="7410" max="7599" width="7.81640625" style="1" customWidth="1"/>
+    <col min="7600" max="7600" width="5.6328125" style="1" customWidth="1"/>
+    <col min="7601" max="7602" width="10.90625" style="1" customWidth="1"/>
+    <col min="7603" max="7603" width="9.08984375" style="1" customWidth="1"/>
+    <col min="7604" max="7605" width="8.6328125" style="1" customWidth="1"/>
+    <col min="7606" max="7606" width="24" style="1" customWidth="1"/>
+    <col min="7607" max="7607" width="17.81640625" style="1" customWidth="1"/>
+    <col min="7608" max="7609" width="12.81640625" style="1" customWidth="1"/>
+    <col min="7610" max="7610" width="20.1796875" style="1" customWidth="1"/>
+    <col min="7611" max="7646" width="8.36328125" style="1"/>
+    <col min="7647" max="7647" width="6.453125" style="1" customWidth="1"/>
+    <col min="7648" max="7650" width="8.6328125" style="1" customWidth="1"/>
+    <col min="7651" max="7651" width="21.08984375" style="1" customWidth="1"/>
+    <col min="7652" max="7652" width="25.08984375" style="1" customWidth="1"/>
     <col min="7653" max="7653" width="14.90625" style="1" customWidth="1"/>
-    <col min="7654" max="7654" width="9.1796875" style="1" customWidth="1"/>
-    <col min="7655" max="7655" width="11.1796875" style="1" customWidth="1"/>
-    <col min="7656" max="7656" width="16.1796875" style="1" customWidth="1"/>
-    <col min="7657" max="7657" width="13.08984375" style="1" customWidth="1"/>
-    <col min="7658" max="7660" width="12.81640625" style="1" customWidth="1"/>
-    <col min="7661" max="7661" width="11.90625" style="1" customWidth="1"/>
-    <col min="7662" max="7662" width="12.81640625" style="1" customWidth="1"/>
-    <col min="7663" max="7852" width="7.81640625" style="1" customWidth="1"/>
-    <col min="7853" max="7853" width="5.6328125" style="1" customWidth="1"/>
-    <col min="7854" max="7855" width="10.90625" style="1" customWidth="1"/>
-    <col min="7856" max="7856" width="9.08984375" style="1" customWidth="1"/>
-    <col min="7857" max="7858" width="8.6328125" style="1" customWidth="1"/>
-    <col min="7859" max="7859" width="24" style="1" customWidth="1"/>
-    <col min="7860" max="7860" width="17.81640625" style="1" customWidth="1"/>
-    <col min="7861" max="7862" width="12.81640625" style="1" customWidth="1"/>
-    <col min="7863" max="7863" width="20.1796875" style="1" customWidth="1"/>
-    <col min="7864" max="7899" width="8.36328125" style="1"/>
-    <col min="7900" max="7900" width="6.453125" style="1" customWidth="1"/>
-    <col min="7901" max="7903" width="8.6328125" style="1" customWidth="1"/>
-    <col min="7904" max="7904" width="21.08984375" style="1" customWidth="1"/>
-    <col min="7905" max="7905" width="25.08984375" style="1" customWidth="1"/>
-    <col min="7906" max="7906" width="14.90625" style="1" customWidth="1"/>
-    <col min="7907" max="7907" width="16.90625" style="1" customWidth="1"/>
-    <col min="7908" max="7908" width="7.81640625" style="1" customWidth="1"/>
+    <col min="7654" max="7654" width="16.90625" style="1" customWidth="1"/>
+    <col min="7655" max="7655" width="7.81640625" style="1" customWidth="1"/>
+    <col min="7656" max="7656" width="14.90625" style="1" customWidth="1"/>
+    <col min="7657" max="7657" width="9.1796875" style="1" customWidth="1"/>
+    <col min="7658" max="7658" width="11.1796875" style="1" customWidth="1"/>
+    <col min="7659" max="7659" width="16.1796875" style="1" customWidth="1"/>
+    <col min="7660" max="7660" width="13.08984375" style="1" customWidth="1"/>
+    <col min="7661" max="7663" width="12.81640625" style="1" customWidth="1"/>
+    <col min="7664" max="7664" width="11.90625" style="1" customWidth="1"/>
+    <col min="7665" max="7665" width="12.81640625" style="1" customWidth="1"/>
+    <col min="7666" max="7855" width="7.81640625" style="1" customWidth="1"/>
+    <col min="7856" max="7856" width="5.6328125" style="1" customWidth="1"/>
+    <col min="7857" max="7858" width="10.90625" style="1" customWidth="1"/>
+    <col min="7859" max="7859" width="9.08984375" style="1" customWidth="1"/>
+    <col min="7860" max="7861" width="8.6328125" style="1" customWidth="1"/>
+    <col min="7862" max="7862" width="24" style="1" customWidth="1"/>
+    <col min="7863" max="7863" width="17.81640625" style="1" customWidth="1"/>
+    <col min="7864" max="7865" width="12.81640625" style="1" customWidth="1"/>
+    <col min="7866" max="7866" width="20.1796875" style="1" customWidth="1"/>
+    <col min="7867" max="7902" width="8.36328125" style="1"/>
+    <col min="7903" max="7903" width="6.453125" style="1" customWidth="1"/>
+    <col min="7904" max="7906" width="8.6328125" style="1" customWidth="1"/>
+    <col min="7907" max="7907" width="21.08984375" style="1" customWidth="1"/>
+    <col min="7908" max="7908" width="25.08984375" style="1" customWidth="1"/>
     <col min="7909" max="7909" width="14.90625" style="1" customWidth="1"/>
-    <col min="7910" max="7910" width="9.1796875" style="1" customWidth="1"/>
-    <col min="7911" max="7911" width="11.1796875" style="1" customWidth="1"/>
-    <col min="7912" max="7912" width="16.1796875" style="1" customWidth="1"/>
-    <col min="7913" max="7913" width="13.08984375" style="1" customWidth="1"/>
-    <col min="7914" max="7916" width="12.81640625" style="1" customWidth="1"/>
-    <col min="7917" max="7917" width="11.90625" style="1" customWidth="1"/>
-    <col min="7918" max="7918" width="12.81640625" style="1" customWidth="1"/>
-    <col min="7919" max="8108" width="7.81640625" style="1" customWidth="1"/>
-    <col min="8109" max="8109" width="5.6328125" style="1" customWidth="1"/>
-    <col min="8110" max="8111" width="10.90625" style="1" customWidth="1"/>
-    <col min="8112" max="8112" width="9.08984375" style="1" customWidth="1"/>
-    <col min="8113" max="8114" width="8.6328125" style="1" customWidth="1"/>
-    <col min="8115" max="8115" width="24" style="1" customWidth="1"/>
-    <col min="8116" max="8116" width="17.81640625" style="1" customWidth="1"/>
-    <col min="8117" max="8118" width="12.81640625" style="1" customWidth="1"/>
-    <col min="8119" max="8119" width="20.1796875" style="1" customWidth="1"/>
-    <col min="8120" max="8155" width="8.36328125" style="1"/>
-    <col min="8156" max="8156" width="6.453125" style="1" customWidth="1"/>
-    <col min="8157" max="8159" width="8.6328125" style="1" customWidth="1"/>
-    <col min="8160" max="8160" width="21.08984375" style="1" customWidth="1"/>
-    <col min="8161" max="8161" width="25.08984375" style="1" customWidth="1"/>
-    <col min="8162" max="8162" width="14.90625" style="1" customWidth="1"/>
-    <col min="8163" max="8163" width="16.90625" style="1" customWidth="1"/>
-    <col min="8164" max="8164" width="7.81640625" style="1" customWidth="1"/>
+    <col min="7910" max="7910" width="16.90625" style="1" customWidth="1"/>
+    <col min="7911" max="7911" width="7.81640625" style="1" customWidth="1"/>
+    <col min="7912" max="7912" width="14.90625" style="1" customWidth="1"/>
+    <col min="7913" max="7913" width="9.1796875" style="1" customWidth="1"/>
+    <col min="7914" max="7914" width="11.1796875" style="1" customWidth="1"/>
+    <col min="7915" max="7915" width="16.1796875" style="1" customWidth="1"/>
+    <col min="7916" max="7916" width="13.08984375" style="1" customWidth="1"/>
+    <col min="7917" max="7919" width="12.81640625" style="1" customWidth="1"/>
+    <col min="7920" max="7920" width="11.90625" style="1" customWidth="1"/>
+    <col min="7921" max="7921" width="12.81640625" style="1" customWidth="1"/>
+    <col min="7922" max="8111" width="7.81640625" style="1" customWidth="1"/>
+    <col min="8112" max="8112" width="5.6328125" style="1" customWidth="1"/>
+    <col min="8113" max="8114" width="10.90625" style="1" customWidth="1"/>
+    <col min="8115" max="8115" width="9.08984375" style="1" customWidth="1"/>
+    <col min="8116" max="8117" width="8.6328125" style="1" customWidth="1"/>
+    <col min="8118" max="8118" width="24" style="1" customWidth="1"/>
+    <col min="8119" max="8119" width="17.81640625" style="1" customWidth="1"/>
+    <col min="8120" max="8121" width="12.81640625" style="1" customWidth="1"/>
+    <col min="8122" max="8122" width="20.1796875" style="1" customWidth="1"/>
+    <col min="8123" max="8158" width="8.36328125" style="1"/>
+    <col min="8159" max="8159" width="6.453125" style="1" customWidth="1"/>
+    <col min="8160" max="8162" width="8.6328125" style="1" customWidth="1"/>
+    <col min="8163" max="8163" width="21.08984375" style="1" customWidth="1"/>
+    <col min="8164" max="8164" width="25.08984375" style="1" customWidth="1"/>
     <col min="8165" max="8165" width="14.90625" style="1" customWidth="1"/>
-    <col min="8166" max="8166" width="9.1796875" style="1" customWidth="1"/>
-    <col min="8167" max="8167" width="11.1796875" style="1" customWidth="1"/>
-    <col min="8168" max="8168" width="16.1796875" style="1" customWidth="1"/>
-    <col min="8169" max="8169" width="13.08984375" style="1" customWidth="1"/>
-    <col min="8170" max="8172" width="12.81640625" style="1" customWidth="1"/>
-    <col min="8173" max="8173" width="11.90625" style="1" customWidth="1"/>
-    <col min="8174" max="8174" width="12.81640625" style="1" customWidth="1"/>
-    <col min="8175" max="8364" width="7.81640625" style="1" customWidth="1"/>
-    <col min="8365" max="8365" width="5.6328125" style="1" customWidth="1"/>
-    <col min="8366" max="8367" width="10.90625" style="1" customWidth="1"/>
-    <col min="8368" max="8368" width="9.08984375" style="1" customWidth="1"/>
-    <col min="8369" max="8370" width="8.6328125" style="1" customWidth="1"/>
-    <col min="8371" max="8371" width="24" style="1" customWidth="1"/>
-    <col min="8372" max="8372" width="17.81640625" style="1" customWidth="1"/>
-    <col min="8373" max="8374" width="12.81640625" style="1" customWidth="1"/>
-    <col min="8375" max="8375" width="20.1796875" style="1" customWidth="1"/>
-    <col min="8376" max="8411" width="8.36328125" style="1"/>
-    <col min="8412" max="8412" width="6.453125" style="1" customWidth="1"/>
-    <col min="8413" max="8415" width="8.6328125" style="1" customWidth="1"/>
-    <col min="8416" max="8416" width="21.08984375" style="1" customWidth="1"/>
-    <col min="8417" max="8417" width="25.08984375" style="1" customWidth="1"/>
-    <col min="8418" max="8418" width="14.90625" style="1" customWidth="1"/>
-    <col min="8419" max="8419" width="16.90625" style="1" customWidth="1"/>
-    <col min="8420" max="8420" width="7.81640625" style="1" customWidth="1"/>
+    <col min="8166" max="8166" width="16.90625" style="1" customWidth="1"/>
+    <col min="8167" max="8167" width="7.81640625" style="1" customWidth="1"/>
+    <col min="8168" max="8168" width="14.90625" style="1" customWidth="1"/>
+    <col min="8169" max="8169" width="9.1796875" style="1" customWidth="1"/>
+    <col min="8170" max="8170" width="11.1796875" style="1" customWidth="1"/>
+    <col min="8171" max="8171" width="16.1796875" style="1" customWidth="1"/>
+    <col min="8172" max="8172" width="13.08984375" style="1" customWidth="1"/>
+    <col min="8173" max="8175" width="12.81640625" style="1" customWidth="1"/>
+    <col min="8176" max="8176" width="11.90625" style="1" customWidth="1"/>
+    <col min="8177" max="8177" width="12.81640625" style="1" customWidth="1"/>
+    <col min="8178" max="8367" width="7.81640625" style="1" customWidth="1"/>
+    <col min="8368" max="8368" width="5.6328125" style="1" customWidth="1"/>
+    <col min="8369" max="8370" width="10.90625" style="1" customWidth="1"/>
+    <col min="8371" max="8371" width="9.08984375" style="1" customWidth="1"/>
+    <col min="8372" max="8373" width="8.6328125" style="1" customWidth="1"/>
+    <col min="8374" max="8374" width="24" style="1" customWidth="1"/>
+    <col min="8375" max="8375" width="17.81640625" style="1" customWidth="1"/>
+    <col min="8376" max="8377" width="12.81640625" style="1" customWidth="1"/>
+    <col min="8378" max="8378" width="20.1796875" style="1" customWidth="1"/>
+    <col min="8379" max="8414" width="8.36328125" style="1"/>
+    <col min="8415" max="8415" width="6.453125" style="1" customWidth="1"/>
+    <col min="8416" max="8418" width="8.6328125" style="1" customWidth="1"/>
+    <col min="8419" max="8419" width="21.08984375" style="1" customWidth="1"/>
+    <col min="8420" max="8420" width="25.08984375" style="1" customWidth="1"/>
     <col min="8421" max="8421" width="14.90625" style="1" customWidth="1"/>
-    <col min="8422" max="8422" width="9.1796875" style="1" customWidth="1"/>
-    <col min="8423" max="8423" width="11.1796875" style="1" customWidth="1"/>
-    <col min="8424" max="8424" width="16.1796875" style="1" customWidth="1"/>
-    <col min="8425" max="8425" width="13.08984375" style="1" customWidth="1"/>
-    <col min="8426" max="8428" width="12.81640625" style="1" customWidth="1"/>
-    <col min="8429" max="8429" width="11.90625" style="1" customWidth="1"/>
-    <col min="8430" max="8430" width="12.81640625" style="1" customWidth="1"/>
-    <col min="8431" max="8620" width="7.81640625" style="1" customWidth="1"/>
-    <col min="8621" max="8621" width="5.6328125" style="1" customWidth="1"/>
-    <col min="8622" max="8623" width="10.90625" style="1" customWidth="1"/>
-    <col min="8624" max="8624" width="9.08984375" style="1" customWidth="1"/>
-    <col min="8625" max="8626" width="8.6328125" style="1" customWidth="1"/>
-    <col min="8627" max="8627" width="24" style="1" customWidth="1"/>
-    <col min="8628" max="8628" width="17.81640625" style="1" customWidth="1"/>
-    <col min="8629" max="8630" width="12.81640625" style="1" customWidth="1"/>
-    <col min="8631" max="8631" width="20.1796875" style="1" customWidth="1"/>
-    <col min="8632" max="8667" width="8.36328125" style="1"/>
-    <col min="8668" max="8668" width="6.453125" style="1" customWidth="1"/>
-    <col min="8669" max="8671" width="8.6328125" style="1" customWidth="1"/>
-    <col min="8672" max="8672" width="21.08984375" style="1" customWidth="1"/>
-    <col min="8673" max="8673" width="25.08984375" style="1" customWidth="1"/>
-    <col min="8674" max="8674" width="14.90625" style="1" customWidth="1"/>
-    <col min="8675" max="8675" width="16.90625" style="1" customWidth="1"/>
-    <col min="8676" max="8676" width="7.81640625" style="1" customWidth="1"/>
+    <col min="8422" max="8422" width="16.90625" style="1" customWidth="1"/>
+    <col min="8423" max="8423" width="7.81640625" style="1" customWidth="1"/>
+    <col min="8424" max="8424" width="14.90625" style="1" customWidth="1"/>
+    <col min="8425" max="8425" width="9.1796875" style="1" customWidth="1"/>
+    <col min="8426" max="8426" width="11.1796875" style="1" customWidth="1"/>
+    <col min="8427" max="8427" width="16.1796875" style="1" customWidth="1"/>
+    <col min="8428" max="8428" width="13.08984375" style="1" customWidth="1"/>
+    <col min="8429" max="8431" width="12.81640625" style="1" customWidth="1"/>
+    <col min="8432" max="8432" width="11.90625" style="1" customWidth="1"/>
+    <col min="8433" max="8433" width="12.81640625" style="1" customWidth="1"/>
+    <col min="8434" max="8623" width="7.81640625" style="1" customWidth="1"/>
+    <col min="8624" max="8624" width="5.6328125" style="1" customWidth="1"/>
+    <col min="8625" max="8626" width="10.90625" style="1" customWidth="1"/>
+    <col min="8627" max="8627" width="9.08984375" style="1" customWidth="1"/>
+    <col min="8628" max="8629" width="8.6328125" style="1" customWidth="1"/>
+    <col min="8630" max="8630" width="24" style="1" customWidth="1"/>
+    <col min="8631" max="8631" width="17.81640625" style="1" customWidth="1"/>
+    <col min="8632" max="8633" width="12.81640625" style="1" customWidth="1"/>
+    <col min="8634" max="8634" width="20.1796875" style="1" customWidth="1"/>
+    <col min="8635" max="8670" width="8.36328125" style="1"/>
+    <col min="8671" max="8671" width="6.453125" style="1" customWidth="1"/>
+    <col min="8672" max="8674" width="8.6328125" style="1" customWidth="1"/>
+    <col min="8675" max="8675" width="21.08984375" style="1" customWidth="1"/>
+    <col min="8676" max="8676" width="25.08984375" style="1" customWidth="1"/>
     <col min="8677" max="8677" width="14.90625" style="1" customWidth="1"/>
-    <col min="8678" max="8678" width="9.1796875" style="1" customWidth="1"/>
-    <col min="8679" max="8679" width="11.1796875" style="1" customWidth="1"/>
-    <col min="8680" max="8680" width="16.1796875" style="1" customWidth="1"/>
-    <col min="8681" max="8681" width="13.08984375" style="1" customWidth="1"/>
-    <col min="8682" max="8684" width="12.81640625" style="1" customWidth="1"/>
-    <col min="8685" max="8685" width="11.90625" style="1" customWidth="1"/>
-    <col min="8686" max="8686" width="12.81640625" style="1" customWidth="1"/>
-    <col min="8687" max="8876" width="7.81640625" style="1" customWidth="1"/>
-    <col min="8877" max="8877" width="5.6328125" style="1" customWidth="1"/>
-    <col min="8878" max="8879" width="10.90625" style="1" customWidth="1"/>
-    <col min="8880" max="8880" width="9.08984375" style="1" customWidth="1"/>
-    <col min="8881" max="8882" width="8.6328125" style="1" customWidth="1"/>
-    <col min="8883" max="8883" width="24" style="1" customWidth="1"/>
-    <col min="8884" max="8884" width="17.81640625" style="1" customWidth="1"/>
-    <col min="8885" max="8886" width="12.81640625" style="1" customWidth="1"/>
-    <col min="8887" max="8887" width="20.1796875" style="1" customWidth="1"/>
-    <col min="8888" max="8923" width="8.36328125" style="1"/>
-    <col min="8924" max="8924" width="6.453125" style="1" customWidth="1"/>
-    <col min="8925" max="8927" width="8.6328125" style="1" customWidth="1"/>
-    <col min="8928" max="8928" width="21.08984375" style="1" customWidth="1"/>
-    <col min="8929" max="8929" width="25.08984375" style="1" customWidth="1"/>
-    <col min="8930" max="8930" width="14.90625" style="1" customWidth="1"/>
-    <col min="8931" max="8931" width="16.90625" style="1" customWidth="1"/>
-    <col min="8932" max="8932" width="7.81640625" style="1" customWidth="1"/>
+    <col min="8678" max="8678" width="16.90625" style="1" customWidth="1"/>
+    <col min="8679" max="8679" width="7.81640625" style="1" customWidth="1"/>
+    <col min="8680" max="8680" width="14.90625" style="1" customWidth="1"/>
+    <col min="8681" max="8681" width="9.1796875" style="1" customWidth="1"/>
+    <col min="8682" max="8682" width="11.1796875" style="1" customWidth="1"/>
+    <col min="8683" max="8683" width="16.1796875" style="1" customWidth="1"/>
+    <col min="8684" max="8684" width="13.08984375" style="1" customWidth="1"/>
+    <col min="8685" max="8687" width="12.81640625" style="1" customWidth="1"/>
+    <col min="8688" max="8688" width="11.90625" style="1" customWidth="1"/>
+    <col min="8689" max="8689" width="12.81640625" style="1" customWidth="1"/>
+    <col min="8690" max="8879" width="7.81640625" style="1" customWidth="1"/>
+    <col min="8880" max="8880" width="5.6328125" style="1" customWidth="1"/>
+    <col min="8881" max="8882" width="10.90625" style="1" customWidth="1"/>
+    <col min="8883" max="8883" width="9.08984375" style="1" customWidth="1"/>
+    <col min="8884" max="8885" width="8.6328125" style="1" customWidth="1"/>
+    <col min="8886" max="8886" width="24" style="1" customWidth="1"/>
+    <col min="8887" max="8887" width="17.81640625" style="1" customWidth="1"/>
+    <col min="8888" max="8889" width="12.81640625" style="1" customWidth="1"/>
+    <col min="8890" max="8890" width="20.1796875" style="1" customWidth="1"/>
+    <col min="8891" max="8926" width="8.36328125" style="1"/>
+    <col min="8927" max="8927" width="6.453125" style="1" customWidth="1"/>
+    <col min="8928" max="8930" width="8.6328125" style="1" customWidth="1"/>
+    <col min="8931" max="8931" width="21.08984375" style="1" customWidth="1"/>
+    <col min="8932" max="8932" width="25.08984375" style="1" customWidth="1"/>
     <col min="8933" max="8933" width="14.90625" style="1" customWidth="1"/>
-    <col min="8934" max="8934" width="9.1796875" style="1" customWidth="1"/>
-    <col min="8935" max="8935" width="11.1796875" style="1" customWidth="1"/>
-    <col min="8936" max="8936" width="16.1796875" style="1" customWidth="1"/>
-    <col min="8937" max="8937" width="13.08984375" style="1" customWidth="1"/>
-    <col min="8938" max="8940" width="12.81640625" style="1" customWidth="1"/>
-    <col min="8941" max="8941" width="11.90625" style="1" customWidth="1"/>
-    <col min="8942" max="8942" width="12.81640625" style="1" customWidth="1"/>
-    <col min="8943" max="9132" width="7.81640625" style="1" customWidth="1"/>
-    <col min="9133" max="9133" width="5.6328125" style="1" customWidth="1"/>
-    <col min="9134" max="9135" width="10.90625" style="1" customWidth="1"/>
-    <col min="9136" max="9136" width="9.08984375" style="1" customWidth="1"/>
-    <col min="9137" max="9138" width="8.6328125" style="1" customWidth="1"/>
-    <col min="9139" max="9139" width="24" style="1" customWidth="1"/>
-    <col min="9140" max="9140" width="17.81640625" style="1" customWidth="1"/>
-    <col min="9141" max="9142" width="12.81640625" style="1" customWidth="1"/>
-    <col min="9143" max="9143" width="20.1796875" style="1" customWidth="1"/>
-    <col min="9144" max="9179" width="8.36328125" style="1"/>
-    <col min="9180" max="9180" width="6.453125" style="1" customWidth="1"/>
-    <col min="9181" max="9183" width="8.6328125" style="1" customWidth="1"/>
-    <col min="9184" max="9184" width="21.08984375" style="1" customWidth="1"/>
-    <col min="9185" max="9185" width="25.08984375" style="1" customWidth="1"/>
-    <col min="9186" max="9186" width="14.90625" style="1" customWidth="1"/>
-    <col min="9187" max="9187" width="16.90625" style="1" customWidth="1"/>
-    <col min="9188" max="9188" width="7.81640625" style="1" customWidth="1"/>
+    <col min="8934" max="8934" width="16.90625" style="1" customWidth="1"/>
+    <col min="8935" max="8935" width="7.81640625" style="1" customWidth="1"/>
+    <col min="8936" max="8936" width="14.90625" style="1" customWidth="1"/>
+    <col min="8937" max="8937" width="9.1796875" style="1" customWidth="1"/>
+    <col min="8938" max="8938" width="11.1796875" style="1" customWidth="1"/>
+    <col min="8939" max="8939" width="16.1796875" style="1" customWidth="1"/>
+    <col min="8940" max="8940" width="13.08984375" style="1" customWidth="1"/>
+    <col min="8941" max="8943" width="12.81640625" style="1" customWidth="1"/>
+    <col min="8944" max="8944" width="11.90625" style="1" customWidth="1"/>
+    <col min="8945" max="8945" width="12.81640625" style="1" customWidth="1"/>
+    <col min="8946" max="9135" width="7.81640625" style="1" customWidth="1"/>
+    <col min="9136" max="9136" width="5.6328125" style="1" customWidth="1"/>
+    <col min="9137" max="9138" width="10.90625" style="1" customWidth="1"/>
+    <col min="9139" max="9139" width="9.08984375" style="1" customWidth="1"/>
+    <col min="9140" max="9141" width="8.6328125" style="1" customWidth="1"/>
+    <col min="9142" max="9142" width="24" style="1" customWidth="1"/>
+    <col min="9143" max="9143" width="17.81640625" style="1" customWidth="1"/>
+    <col min="9144" max="9145" width="12.81640625" style="1" customWidth="1"/>
+    <col min="9146" max="9146" width="20.1796875" style="1" customWidth="1"/>
+    <col min="9147" max="9182" width="8.36328125" style="1"/>
+    <col min="9183" max="9183" width="6.453125" style="1" customWidth="1"/>
+    <col min="9184" max="9186" width="8.6328125" style="1" customWidth="1"/>
+    <col min="9187" max="9187" width="21.08984375" style="1" customWidth="1"/>
+    <col min="9188" max="9188" width="25.08984375" style="1" customWidth="1"/>
     <col min="9189" max="9189" width="14.90625" style="1" customWidth="1"/>
-    <col min="9190" max="9190" width="9.1796875" style="1" customWidth="1"/>
-    <col min="9191" max="9191" width="11.1796875" style="1" customWidth="1"/>
-    <col min="9192" max="9192" width="16.1796875" style="1" customWidth="1"/>
-    <col min="9193" max="9193" width="13.08984375" style="1" customWidth="1"/>
-    <col min="9194" max="9196" width="12.81640625" style="1" customWidth="1"/>
-    <col min="9197" max="9197" width="11.90625" style="1" customWidth="1"/>
-    <col min="9198" max="9198" width="12.81640625" style="1" customWidth="1"/>
-    <col min="9199" max="9388" width="7.81640625" style="1" customWidth="1"/>
-    <col min="9389" max="9389" width="5.6328125" style="1" customWidth="1"/>
-    <col min="9390" max="9391" width="10.90625" style="1" customWidth="1"/>
-    <col min="9392" max="9392" width="9.08984375" style="1" customWidth="1"/>
-    <col min="9393" max="9394" width="8.6328125" style="1" customWidth="1"/>
-    <col min="9395" max="9395" width="24" style="1" customWidth="1"/>
-    <col min="9396" max="9396" width="17.81640625" style="1" customWidth="1"/>
-    <col min="9397" max="9398" width="12.81640625" style="1" customWidth="1"/>
-    <col min="9399" max="9399" width="20.1796875" style="1" customWidth="1"/>
-    <col min="9400" max="9435" width="8.36328125" style="1"/>
-    <col min="9436" max="9436" width="6.453125" style="1" customWidth="1"/>
-    <col min="9437" max="9439" width="8.6328125" style="1" customWidth="1"/>
-    <col min="9440" max="9440" width="21.08984375" style="1" customWidth="1"/>
-    <col min="9441" max="9441" width="25.08984375" style="1" customWidth="1"/>
-    <col min="9442" max="9442" width="14.90625" style="1" customWidth="1"/>
-    <col min="9443" max="9443" width="16.90625" style="1" customWidth="1"/>
-    <col min="9444" max="9444" width="7.81640625" style="1" customWidth="1"/>
+    <col min="9190" max="9190" width="16.90625" style="1" customWidth="1"/>
+    <col min="9191" max="9191" width="7.81640625" style="1" customWidth="1"/>
+    <col min="9192" max="9192" width="14.90625" style="1" customWidth="1"/>
+    <col min="9193" max="9193" width="9.1796875" style="1" customWidth="1"/>
+    <col min="9194" max="9194" width="11.1796875" style="1" customWidth="1"/>
+    <col min="9195" max="9195" width="16.1796875" style="1" customWidth="1"/>
+    <col min="9196" max="9196" width="13.08984375" style="1" customWidth="1"/>
+    <col min="9197" max="9199" width="12.81640625" style="1" customWidth="1"/>
+    <col min="9200" max="9200" width="11.90625" style="1" customWidth="1"/>
+    <col min="9201" max="9201" width="12.81640625" style="1" customWidth="1"/>
+    <col min="9202" max="9391" width="7.81640625" style="1" customWidth="1"/>
+    <col min="9392" max="9392" width="5.6328125" style="1" customWidth="1"/>
+    <col min="9393" max="9394" width="10.90625" style="1" customWidth="1"/>
+    <col min="9395" max="9395" width="9.08984375" style="1" customWidth="1"/>
+    <col min="9396" max="9397" width="8.6328125" style="1" customWidth="1"/>
+    <col min="9398" max="9398" width="24" style="1" customWidth="1"/>
+    <col min="9399" max="9399" width="17.81640625" style="1" customWidth="1"/>
+    <col min="9400" max="9401" width="12.81640625" style="1" customWidth="1"/>
+    <col min="9402" max="9402" width="20.1796875" style="1" customWidth="1"/>
+    <col min="9403" max="9438" width="8.36328125" style="1"/>
+    <col min="9439" max="9439" width="6.453125" style="1" customWidth="1"/>
+    <col min="9440" max="9442" width="8.6328125" style="1" customWidth="1"/>
+    <col min="9443" max="9443" width="21.08984375" style="1" customWidth="1"/>
+    <col min="9444" max="9444" width="25.08984375" style="1" customWidth="1"/>
     <col min="9445" max="9445" width="14.90625" style="1" customWidth="1"/>
-    <col min="9446" max="9446" width="9.1796875" style="1" customWidth="1"/>
-    <col min="9447" max="9447" width="11.1796875" style="1" customWidth="1"/>
-    <col min="9448" max="9448" width="16.1796875" style="1" customWidth="1"/>
-    <col min="9449" max="9449" width="13.08984375" style="1" customWidth="1"/>
-    <col min="9450" max="9452" width="12.81640625" style="1" customWidth="1"/>
-    <col min="9453" max="9453" width="11.90625" style="1" customWidth="1"/>
-    <col min="9454" max="9454" width="12.81640625" style="1" customWidth="1"/>
-    <col min="9455" max="9644" width="7.81640625" style="1" customWidth="1"/>
-    <col min="9645" max="9645" width="5.6328125" style="1" customWidth="1"/>
-    <col min="9646" max="9647" width="10.90625" style="1" customWidth="1"/>
-    <col min="9648" max="9648" width="9.08984375" style="1" customWidth="1"/>
-    <col min="9649" max="9650" width="8.6328125" style="1" customWidth="1"/>
-    <col min="9651" max="9651" width="24" style="1" customWidth="1"/>
-    <col min="9652" max="9652" width="17.81640625" style="1" customWidth="1"/>
-    <col min="9653" max="9654" width="12.81640625" style="1" customWidth="1"/>
-    <col min="9655" max="9655" width="20.1796875" style="1" customWidth="1"/>
-    <col min="9656" max="9691" width="8.36328125" style="1"/>
-    <col min="9692" max="9692" width="6.453125" style="1" customWidth="1"/>
-    <col min="9693" max="9695" width="8.6328125" style="1" customWidth="1"/>
-    <col min="9696" max="9696" width="21.08984375" style="1" customWidth="1"/>
-    <col min="9697" max="9697" width="25.08984375" style="1" customWidth="1"/>
-    <col min="9698" max="9698" width="14.90625" style="1" customWidth="1"/>
-    <col min="9699" max="9699" width="16.90625" style="1" customWidth="1"/>
-    <col min="9700" max="9700" width="7.81640625" style="1" customWidth="1"/>
+    <col min="9446" max="9446" width="16.90625" style="1" customWidth="1"/>
+    <col min="9447" max="9447" width="7.81640625" style="1" customWidth="1"/>
+    <col min="9448" max="9448" width="14.90625" style="1" customWidth="1"/>
+    <col min="9449" max="9449" width="9.1796875" style="1" customWidth="1"/>
+    <col min="9450" max="9450" width="11.1796875" style="1" customWidth="1"/>
+    <col min="9451" max="9451" width="16.1796875" style="1" customWidth="1"/>
+    <col min="9452" max="9452" width="13.08984375" style="1" customWidth="1"/>
+    <col min="9453" max="9455" width="12.81640625" style="1" customWidth="1"/>
+    <col min="9456" max="9456" width="11.90625" style="1" customWidth="1"/>
+    <col min="9457" max="9457" width="12.81640625" style="1" customWidth="1"/>
+    <col min="9458" max="9647" width="7.81640625" style="1" customWidth="1"/>
+    <col min="9648" max="9648" width="5.6328125" style="1" customWidth="1"/>
+    <col min="9649" max="9650" width="10.90625" style="1" customWidth="1"/>
+    <col min="9651" max="9651" width="9.08984375" style="1" customWidth="1"/>
+    <col min="9652" max="9653" width="8.6328125" style="1" customWidth="1"/>
+    <col min="9654" max="9654" width="24" style="1" customWidth="1"/>
+    <col min="9655" max="9655" width="17.81640625" style="1" customWidth="1"/>
+    <col min="9656" max="9657" width="12.81640625" style="1" customWidth="1"/>
+    <col min="9658" max="9658" width="20.1796875" style="1" customWidth="1"/>
+    <col min="9659" max="9694" width="8.36328125" style="1"/>
+    <col min="9695" max="9695" width="6.453125" style="1" customWidth="1"/>
+    <col min="9696" max="9698" width="8.6328125" style="1" customWidth="1"/>
+    <col min="9699" max="9699" width="21.08984375" style="1" customWidth="1"/>
+    <col min="9700" max="9700" width="25.08984375" style="1" customWidth="1"/>
     <col min="9701" max="9701" width="14.90625" style="1" customWidth="1"/>
-    <col min="9702" max="9702" width="9.1796875" style="1" customWidth="1"/>
-    <col min="9703" max="9703" width="11.1796875" style="1" customWidth="1"/>
-    <col min="9704" max="9704" width="16.1796875" style="1" customWidth="1"/>
-    <col min="9705" max="9705" width="13.08984375" style="1" customWidth="1"/>
-    <col min="9706" max="9708" width="12.81640625" style="1" customWidth="1"/>
-    <col min="9709" max="9709" width="11.90625" style="1" customWidth="1"/>
-    <col min="9710" max="9710" width="12.81640625" style="1" customWidth="1"/>
-    <col min="9711" max="9900" width="7.81640625" style="1" customWidth="1"/>
-    <col min="9901" max="9901" width="5.6328125" style="1" customWidth="1"/>
-    <col min="9902" max="9903" width="10.90625" style="1" customWidth="1"/>
-    <col min="9904" max="9904" width="9.08984375" style="1" customWidth="1"/>
-    <col min="9905" max="9906" width="8.6328125" style="1" customWidth="1"/>
-    <col min="9907" max="9907" width="24" style="1" customWidth="1"/>
-    <col min="9908" max="9908" width="17.81640625" style="1" customWidth="1"/>
-    <col min="9909" max="9910" width="12.81640625" style="1" customWidth="1"/>
-    <col min="9911" max="9911" width="20.1796875" style="1" customWidth="1"/>
-    <col min="9912" max="9947" width="8.36328125" style="1"/>
-    <col min="9948" max="9948" width="6.453125" style="1" customWidth="1"/>
-    <col min="9949" max="9951" width="8.6328125" style="1" customWidth="1"/>
-    <col min="9952" max="9952" width="21.08984375" style="1" customWidth="1"/>
-    <col min="9953" max="9953" width="25.08984375" style="1" customWidth="1"/>
-    <col min="9954" max="9954" width="14.90625" style="1" customWidth="1"/>
-    <col min="9955" max="9955" width="16.90625" style="1" customWidth="1"/>
-    <col min="9956" max="9956" width="7.81640625" style="1" customWidth="1"/>
+    <col min="9702" max="9702" width="16.90625" style="1" customWidth="1"/>
+    <col min="9703" max="9703" width="7.81640625" style="1" customWidth="1"/>
+    <col min="9704" max="9704" width="14.90625" style="1" customWidth="1"/>
+    <col min="9705" max="9705" width="9.1796875" style="1" customWidth="1"/>
+    <col min="9706" max="9706" width="11.1796875" style="1" customWidth="1"/>
+    <col min="9707" max="9707" width="16.1796875" style="1" customWidth="1"/>
+    <col min="9708" max="9708" width="13.08984375" style="1" customWidth="1"/>
+    <col min="9709" max="9711" width="12.81640625" style="1" customWidth="1"/>
+    <col min="9712" max="9712" width="11.90625" style="1" customWidth="1"/>
+    <col min="9713" max="9713" width="12.81640625" style="1" customWidth="1"/>
+    <col min="9714" max="9903" width="7.81640625" style="1" customWidth="1"/>
+    <col min="9904" max="9904" width="5.6328125" style="1" customWidth="1"/>
+    <col min="9905" max="9906" width="10.90625" style="1" customWidth="1"/>
+    <col min="9907" max="9907" width="9.08984375" style="1" customWidth="1"/>
+    <col min="9908" max="9909" width="8.6328125" style="1" customWidth="1"/>
+    <col min="9910" max="9910" width="24" style="1" customWidth="1"/>
+    <col min="9911" max="9911" width="17.81640625" style="1" customWidth="1"/>
+    <col min="9912" max="9913" width="12.81640625" style="1" customWidth="1"/>
+    <col min="9914" max="9914" width="20.1796875" style="1" customWidth="1"/>
+    <col min="9915" max="9950" width="8.36328125" style="1"/>
+    <col min="9951" max="9951" width="6.453125" style="1" customWidth="1"/>
+    <col min="9952" max="9954" width="8.6328125" style="1" customWidth="1"/>
+    <col min="9955" max="9955" width="21.08984375" style="1" customWidth="1"/>
+    <col min="9956" max="9956" width="25.08984375" style="1" customWidth="1"/>
     <col min="9957" max="9957" width="14.90625" style="1" customWidth="1"/>
-    <col min="9958" max="9958" width="9.1796875" style="1" customWidth="1"/>
-    <col min="9959" max="9959" width="11.1796875" style="1" customWidth="1"/>
-    <col min="9960" max="9960" width="16.1796875" style="1" customWidth="1"/>
-    <col min="9961" max="9961" width="13.08984375" style="1" customWidth="1"/>
-    <col min="9962" max="9964" width="12.81640625" style="1" customWidth="1"/>
-    <col min="9965" max="9965" width="11.90625" style="1" customWidth="1"/>
-    <col min="9966" max="9966" width="12.81640625" style="1" customWidth="1"/>
-    <col min="9967" max="10156" width="7.81640625" style="1" customWidth="1"/>
-    <col min="10157" max="10157" width="5.6328125" style="1" customWidth="1"/>
-    <col min="10158" max="10159" width="10.90625" style="1" customWidth="1"/>
-    <col min="10160" max="10160" width="9.08984375" style="1" customWidth="1"/>
-    <col min="10161" max="10162" width="8.6328125" style="1" customWidth="1"/>
-    <col min="10163" max="10163" width="24" style="1" customWidth="1"/>
-    <col min="10164" max="10164" width="17.81640625" style="1" customWidth="1"/>
-    <col min="10165" max="10166" width="12.81640625" style="1" customWidth="1"/>
-    <col min="10167" max="10167" width="20.1796875" style="1" customWidth="1"/>
-    <col min="10168" max="10203" width="8.36328125" style="1"/>
-    <col min="10204" max="10204" width="6.453125" style="1" customWidth="1"/>
-    <col min="10205" max="10207" width="8.6328125" style="1" customWidth="1"/>
-    <col min="10208" max="10208" width="21.08984375" style="1" customWidth="1"/>
-    <col min="10209" max="10209" width="25.08984375" style="1" customWidth="1"/>
-    <col min="10210" max="10210" width="14.90625" style="1" customWidth="1"/>
-    <col min="10211" max="10211" width="16.90625" style="1" customWidth="1"/>
-    <col min="10212" max="10212" width="7.81640625" style="1" customWidth="1"/>
+    <col min="9958" max="9958" width="16.90625" style="1" customWidth="1"/>
+    <col min="9959" max="9959" width="7.81640625" style="1" customWidth="1"/>
+    <col min="9960" max="9960" width="14.90625" style="1" customWidth="1"/>
+    <col min="9961" max="9961" width="9.1796875" style="1" customWidth="1"/>
+    <col min="9962" max="9962" width="11.1796875" style="1" customWidth="1"/>
+    <col min="9963" max="9963" width="16.1796875" style="1" customWidth="1"/>
+    <col min="9964" max="9964" width="13.08984375" style="1" customWidth="1"/>
+    <col min="9965" max="9967" width="12.81640625" style="1" customWidth="1"/>
+    <col min="9968" max="9968" width="11.90625" style="1" customWidth="1"/>
+    <col min="9969" max="9969" width="12.81640625" style="1" customWidth="1"/>
+    <col min="9970" max="10159" width="7.81640625" style="1" customWidth="1"/>
+    <col min="10160" max="10160" width="5.6328125" style="1" customWidth="1"/>
+    <col min="10161" max="10162" width="10.90625" style="1" customWidth="1"/>
+    <col min="10163" max="10163" width="9.08984375" style="1" customWidth="1"/>
+    <col min="10164" max="10165" width="8.6328125" style="1" customWidth="1"/>
+    <col min="10166" max="10166" width="24" style="1" customWidth="1"/>
+    <col min="10167" max="10167" width="17.81640625" style="1" customWidth="1"/>
+    <col min="10168" max="10169" width="12.81640625" style="1" customWidth="1"/>
+    <col min="10170" max="10170" width="20.1796875" style="1" customWidth="1"/>
+    <col min="10171" max="10206" width="8.36328125" style="1"/>
+    <col min="10207" max="10207" width="6.453125" style="1" customWidth="1"/>
+    <col min="10208" max="10210" width="8.6328125" style="1" customWidth="1"/>
+    <col min="10211" max="10211" width="21.08984375" style="1" customWidth="1"/>
+    <col min="10212" max="10212" width="25.08984375" style="1" customWidth="1"/>
     <col min="10213" max="10213" width="14.90625" style="1" customWidth="1"/>
-    <col min="10214" max="10214" width="9.1796875" style="1" customWidth="1"/>
-    <col min="10215" max="10215" width="11.1796875" style="1" customWidth="1"/>
-    <col min="10216" max="10216" width="16.1796875" style="1" customWidth="1"/>
-    <col min="10217" max="10217" width="13.08984375" style="1" customWidth="1"/>
-    <col min="10218" max="10220" width="12.81640625" style="1" customWidth="1"/>
-    <col min="10221" max="10221" width="11.90625" style="1" customWidth="1"/>
-    <col min="10222" max="10222" width="12.81640625" style="1" customWidth="1"/>
-    <col min="10223" max="10412" width="7.81640625" style="1" customWidth="1"/>
-    <col min="10413" max="10413" width="5.6328125" style="1" customWidth="1"/>
-    <col min="10414" max="10415" width="10.90625" style="1" customWidth="1"/>
-    <col min="10416" max="10416" width="9.08984375" style="1" customWidth="1"/>
-    <col min="10417" max="10418" width="8.6328125" style="1" customWidth="1"/>
-    <col min="10419" max="10419" width="24" style="1" customWidth="1"/>
-    <col min="10420" max="10420" width="17.81640625" style="1" customWidth="1"/>
-    <col min="10421" max="10422" width="12.81640625" style="1" customWidth="1"/>
-    <col min="10423" max="10423" width="20.1796875" style="1" customWidth="1"/>
-    <col min="10424" max="10459" width="8.36328125" style="1"/>
-    <col min="10460" max="10460" width="6.453125" style="1" customWidth="1"/>
-    <col min="10461" max="10463" width="8.6328125" style="1" customWidth="1"/>
-    <col min="10464" max="10464" width="21.08984375" style="1" customWidth="1"/>
-    <col min="10465" max="10465" width="25.08984375" style="1" customWidth="1"/>
-    <col min="10466" max="10466" width="14.90625" style="1" customWidth="1"/>
-    <col min="10467" max="10467" width="16.90625" style="1" customWidth="1"/>
-    <col min="10468" max="10468" width="7.81640625" style="1" customWidth="1"/>
+    <col min="10214" max="10214" width="16.90625" style="1" customWidth="1"/>
+    <col min="10215" max="10215" width="7.81640625" style="1" customWidth="1"/>
+    <col min="10216" max="10216" width="14.90625" style="1" customWidth="1"/>
+    <col min="10217" max="10217" width="9.1796875" style="1" customWidth="1"/>
+    <col min="10218" max="10218" width="11.1796875" style="1" customWidth="1"/>
+    <col min="10219" max="10219" width="16.1796875" style="1" customWidth="1"/>
+    <col min="10220" max="10220" width="13.08984375" style="1" customWidth="1"/>
+    <col min="10221" max="10223" width="12.81640625" style="1" customWidth="1"/>
+    <col min="10224" max="10224" width="11.90625" style="1" customWidth="1"/>
+    <col min="10225" max="10225" width="12.81640625" style="1" customWidth="1"/>
+    <col min="10226" max="10415" width="7.81640625" style="1" customWidth="1"/>
+    <col min="10416" max="10416" width="5.6328125" style="1" customWidth="1"/>
+    <col min="10417" max="10418" width="10.90625" style="1" customWidth="1"/>
+    <col min="10419" max="10419" width="9.08984375" style="1" customWidth="1"/>
+    <col min="10420" max="10421" width="8.6328125" style="1" customWidth="1"/>
+    <col min="10422" max="10422" width="24" style="1" customWidth="1"/>
+    <col min="10423" max="10423" width="17.81640625" style="1" customWidth="1"/>
+    <col min="10424" max="10425" width="12.81640625" style="1" customWidth="1"/>
+    <col min="10426" max="10426" width="20.1796875" style="1" customWidth="1"/>
+    <col min="10427" max="10462" width="8.36328125" style="1"/>
+    <col min="10463" max="10463" width="6.453125" style="1" customWidth="1"/>
+    <col min="10464" max="10466" width="8.6328125" style="1" customWidth="1"/>
+    <col min="10467" max="10467" width="21.08984375" style="1" customWidth="1"/>
+    <col min="10468" max="10468" width="25.08984375" style="1" customWidth="1"/>
     <col min="10469" max="10469" width="14.90625" style="1" customWidth="1"/>
-    <col min="10470" max="10470" width="9.1796875" style="1" customWidth="1"/>
-    <col min="10471" max="10471" width="11.1796875" style="1" customWidth="1"/>
-    <col min="10472" max="10472" width="16.1796875" style="1" customWidth="1"/>
-    <col min="10473" max="10473" width="13.08984375" style="1" customWidth="1"/>
-    <col min="10474" max="10476" width="12.81640625" style="1" customWidth="1"/>
-    <col min="10477" max="10477" width="11.90625" style="1" customWidth="1"/>
-    <col min="10478" max="10478" width="12.81640625" style="1" customWidth="1"/>
-    <col min="10479" max="10668" width="7.81640625" style="1" customWidth="1"/>
-    <col min="10669" max="10669" width="5.6328125" style="1" customWidth="1"/>
-    <col min="10670" max="10671" width="10.90625" style="1" customWidth="1"/>
-    <col min="10672" max="10672" width="9.08984375" style="1" customWidth="1"/>
-    <col min="10673" max="10674" width="8.6328125" style="1" customWidth="1"/>
-    <col min="10675" max="10675" width="24" style="1" customWidth="1"/>
-    <col min="10676" max="10676" width="17.81640625" style="1" customWidth="1"/>
-    <col min="10677" max="10678" width="12.81640625" style="1" customWidth="1"/>
-    <col min="10679" max="10679" width="20.1796875" style="1" customWidth="1"/>
-    <col min="10680" max="10715" width="8.36328125" style="1"/>
-    <col min="10716" max="10716" width="6.453125" style="1" customWidth="1"/>
-    <col min="10717" max="10719" width="8.6328125" style="1" customWidth="1"/>
-    <col min="10720" max="10720" width="21.08984375" style="1" customWidth="1"/>
-    <col min="10721" max="10721" width="25.08984375" style="1" customWidth="1"/>
-    <col min="10722" max="10722" width="14.90625" style="1" customWidth="1"/>
-    <col min="10723" max="10723" width="16.90625" style="1" customWidth="1"/>
-    <col min="10724" max="10724" width="7.81640625" style="1" customWidth="1"/>
+    <col min="10470" max="10470" width="16.90625" style="1" customWidth="1"/>
+    <col min="10471" max="10471" width="7.81640625" style="1" customWidth="1"/>
+    <col min="10472" max="10472" width="14.90625" style="1" customWidth="1"/>
+    <col min="10473" max="10473" width="9.1796875" style="1" customWidth="1"/>
+    <col min="10474" max="10474" width="11.1796875" style="1" customWidth="1"/>
+    <col min="10475" max="10475" width="16.1796875" style="1" customWidth="1"/>
+    <col min="10476" max="10476" width="13.08984375" style="1" customWidth="1"/>
+    <col min="10477" max="10479" width="12.81640625" style="1" customWidth="1"/>
+    <col min="10480" max="10480" width="11.90625" style="1" customWidth="1"/>
+    <col min="10481" max="10481" width="12.81640625" style="1" customWidth="1"/>
+    <col min="10482" max="10671" width="7.81640625" style="1" customWidth="1"/>
+    <col min="10672" max="10672" width="5.6328125" style="1" customWidth="1"/>
+    <col min="10673" max="10674" width="10.90625" style="1" customWidth="1"/>
+    <col min="10675" max="10675" width="9.08984375" style="1" customWidth="1"/>
+    <col min="10676" max="10677" width="8.6328125" style="1" customWidth="1"/>
+    <col min="10678" max="10678" width="24" style="1" customWidth="1"/>
+    <col min="10679" max="10679" width="17.81640625" style="1" customWidth="1"/>
+    <col min="10680" max="10681" width="12.81640625" style="1" customWidth="1"/>
+    <col min="10682" max="10682" width="20.1796875" style="1" customWidth="1"/>
+    <col min="10683" max="10718" width="8.36328125" style="1"/>
+    <col min="10719" max="10719" width="6.453125" style="1" customWidth="1"/>
+    <col min="10720" max="10722" width="8.6328125" style="1" customWidth="1"/>
+    <col min="10723" max="10723" width="21.08984375" style="1" customWidth="1"/>
+    <col min="10724" max="10724" width="25.08984375" style="1" customWidth="1"/>
     <col min="10725" max="10725" width="14.90625" style="1" customWidth="1"/>
-    <col min="10726" max="10726" width="9.1796875" style="1" customWidth="1"/>
-    <col min="10727" max="10727" width="11.1796875" style="1" customWidth="1"/>
-    <col min="10728" max="10728" width="16.1796875" style="1" customWidth="1"/>
-    <col min="10729" max="10729" width="13.08984375" style="1" customWidth="1"/>
-    <col min="10730" max="10732" width="12.81640625" style="1" customWidth="1"/>
-    <col min="10733" max="10733" width="11.90625" style="1" customWidth="1"/>
-    <col min="10734" max="10734" width="12.81640625" style="1" customWidth="1"/>
-    <col min="10735" max="10924" width="7.81640625" style="1" customWidth="1"/>
-    <col min="10925" max="10925" width="5.6328125" style="1" customWidth="1"/>
-    <col min="10926" max="10927" width="10.90625" style="1" customWidth="1"/>
-    <col min="10928" max="10928" width="9.08984375" style="1" customWidth="1"/>
-    <col min="10929" max="10930" width="8.6328125" style="1" customWidth="1"/>
-    <col min="10931" max="10931" width="24" style="1" customWidth="1"/>
-    <col min="10932" max="10932" width="17.81640625" style="1" customWidth="1"/>
-    <col min="10933" max="10934" width="12.81640625" style="1" customWidth="1"/>
-    <col min="10935" max="10935" width="20.1796875" style="1" customWidth="1"/>
-    <col min="10936" max="10971" width="8.36328125" style="1"/>
-    <col min="10972" max="10972" width="6.453125" style="1" customWidth="1"/>
-    <col min="10973" max="10975" width="8.6328125" style="1" customWidth="1"/>
-    <col min="10976" max="10976" width="21.08984375" style="1" customWidth="1"/>
-    <col min="10977" max="10977" width="25.08984375" style="1" customWidth="1"/>
-    <col min="10978" max="10978" width="14.90625" style="1" customWidth="1"/>
-    <col min="10979" max="10979" width="16.90625" style="1" customWidth="1"/>
-    <col min="10980" max="10980" width="7.81640625" style="1" customWidth="1"/>
+    <col min="10726" max="10726" width="16.90625" style="1" customWidth="1"/>
+    <col min="10727" max="10727" width="7.81640625" style="1" customWidth="1"/>
+    <col min="10728" max="10728" width="14.90625" style="1" customWidth="1"/>
+    <col min="10729" max="10729" width="9.1796875" style="1" customWidth="1"/>
+    <col min="10730" max="10730" width="11.1796875" style="1" customWidth="1"/>
+    <col min="10731" max="10731" width="16.1796875" style="1" customWidth="1"/>
+    <col min="10732" max="10732" width="13.08984375" style="1" customWidth="1"/>
+    <col min="10733" max="10735" width="12.81640625" style="1" customWidth="1"/>
+    <col min="10736" max="10736" width="11.90625" style="1" customWidth="1"/>
+    <col min="10737" max="10737" width="12.81640625" style="1" customWidth="1"/>
+    <col min="10738" max="10927" width="7.81640625" style="1" customWidth="1"/>
+    <col min="10928" max="10928" width="5.6328125" style="1" customWidth="1"/>
+    <col min="10929" max="10930" width="10.90625" style="1" customWidth="1"/>
+    <col min="10931" max="10931" width="9.08984375" style="1" customWidth="1"/>
+    <col min="10932" max="10933" width="8.6328125" style="1" customWidth="1"/>
+    <col min="10934" max="10934" width="24" style="1" customWidth="1"/>
+    <col min="10935" max="10935" width="17.81640625" style="1" customWidth="1"/>
+    <col min="10936" max="10937" width="12.81640625" style="1" customWidth="1"/>
+    <col min="10938" max="10938" width="20.1796875" style="1" customWidth="1"/>
+    <col min="10939" max="10974" width="8.36328125" style="1"/>
+    <col min="10975" max="10975" width="6.453125" style="1" customWidth="1"/>
+    <col min="10976" max="10978" width="8.6328125" style="1" customWidth="1"/>
+    <col min="10979" max="10979" width="21.08984375" style="1" customWidth="1"/>
+    <col min="10980" max="10980" width="25.08984375" style="1" customWidth="1"/>
     <col min="10981" max="10981" width="14.90625" style="1" customWidth="1"/>
-    <col min="10982" max="10982" width="9.1796875" style="1" customWidth="1"/>
-    <col min="10983" max="10983" width="11.1796875" style="1" customWidth="1"/>
-    <col min="10984" max="10984" width="16.1796875" style="1" customWidth="1"/>
-    <col min="10985" max="10985" width="13.08984375" style="1" customWidth="1"/>
-    <col min="10986" max="10988" width="12.81640625" style="1" customWidth="1"/>
-    <col min="10989" max="10989" width="11.90625" style="1" customWidth="1"/>
-    <col min="10990" max="10990" width="12.81640625" style="1" customWidth="1"/>
-    <col min="10991" max="11180" width="7.81640625" style="1" customWidth="1"/>
-    <col min="11181" max="11181" width="5.6328125" style="1" customWidth="1"/>
-    <col min="11182" max="11183" width="10.90625" style="1" customWidth="1"/>
-    <col min="11184" max="11184" width="9.08984375" style="1" customWidth="1"/>
-    <col min="11185" max="11186" width="8.6328125" style="1" customWidth="1"/>
-    <col min="11187" max="11187" width="24" style="1" customWidth="1"/>
-    <col min="11188" max="11188" width="17.81640625" style="1" customWidth="1"/>
-    <col min="11189" max="11190" width="12.81640625" style="1" customWidth="1"/>
-    <col min="11191" max="11191" width="20.1796875" style="1" customWidth="1"/>
-    <col min="11192" max="11227" width="8.36328125" style="1"/>
-    <col min="11228" max="11228" width="6.453125" style="1" customWidth="1"/>
-    <col min="11229" max="11231" width="8.6328125" style="1" customWidth="1"/>
-    <col min="11232" max="11232" width="21.08984375" style="1" customWidth="1"/>
-    <col min="11233" max="11233" width="25.08984375" style="1" customWidth="1"/>
-    <col min="11234" max="11234" width="14.90625" style="1" customWidth="1"/>
-    <col min="11235" max="11235" width="16.90625" style="1" customWidth="1"/>
-    <col min="11236" max="11236" width="7.81640625" style="1" customWidth="1"/>
+    <col min="10982" max="10982" width="16.90625" style="1" customWidth="1"/>
+    <col min="10983" max="10983" width="7.81640625" style="1" customWidth="1"/>
+    <col min="10984" max="10984" width="14.90625" style="1" customWidth="1"/>
+    <col min="10985" max="10985" width="9.1796875" style="1" customWidth="1"/>
+    <col min="10986" max="10986" width="11.1796875" style="1" customWidth="1"/>
+    <col min="10987" max="10987" width="16.1796875" style="1" customWidth="1"/>
+    <col min="10988" max="10988" width="13.08984375" style="1" customWidth="1"/>
+    <col min="10989" max="10991" width="12.81640625" style="1" customWidth="1"/>
+    <col min="10992" max="10992" width="11.90625" style="1" customWidth="1"/>
+    <col min="10993" max="10993" width="12.81640625" style="1" customWidth="1"/>
+    <col min="10994" max="11183" width="7.81640625" style="1" customWidth="1"/>
+    <col min="11184" max="11184" width="5.6328125" style="1" customWidth="1"/>
+    <col min="11185" max="11186" width="10.90625" style="1" customWidth="1"/>
+    <col min="11187" max="11187" width="9.08984375" style="1" customWidth="1"/>
+    <col min="11188" max="11189" width="8.6328125" style="1" customWidth="1"/>
+    <col min="11190" max="11190" width="24" style="1" customWidth="1"/>
+    <col min="11191" max="11191" width="17.81640625" style="1" customWidth="1"/>
+    <col min="11192" max="11193" width="12.81640625" style="1" customWidth="1"/>
+    <col min="11194" max="11194" width="20.1796875" style="1" customWidth="1"/>
+    <col min="11195" max="11230" width="8.36328125" style="1"/>
+    <col min="11231" max="11231" width="6.453125" style="1" customWidth="1"/>
+    <col min="11232" max="11234" width="8.6328125" style="1" customWidth="1"/>
+    <col min="11235" max="11235" width="21.08984375" style="1" customWidth="1"/>
+    <col min="11236" max="11236" width="25.08984375" style="1" customWidth="1"/>
     <col min="11237" max="11237" width="14.90625" style="1" customWidth="1"/>
-    <col min="11238" max="11238" width="9.1796875" style="1" customWidth="1"/>
-    <col min="11239" max="11239" width="11.1796875" style="1" customWidth="1"/>
-    <col min="11240" max="11240" width="16.1796875" style="1" customWidth="1"/>
-    <col min="11241" max="11241" width="13.08984375" style="1" customWidth="1"/>
-    <col min="11242" max="11244" width="12.81640625" style="1" customWidth="1"/>
-    <col min="11245" max="11245" width="11.90625" style="1" customWidth="1"/>
-    <col min="11246" max="11246" width="12.81640625" style="1" customWidth="1"/>
-    <col min="11247" max="11436" width="7.81640625" style="1" customWidth="1"/>
-    <col min="11437" max="11437" width="5.6328125" style="1" customWidth="1"/>
-    <col min="11438" max="11439" width="10.90625" style="1" customWidth="1"/>
-    <col min="11440" max="11440" width="9.08984375" style="1" customWidth="1"/>
-    <col min="11441" max="11442" width="8.6328125" style="1" customWidth="1"/>
-    <col min="11443" max="11443" width="24" style="1" customWidth="1"/>
-    <col min="11444" max="11444" width="17.81640625" style="1" customWidth="1"/>
-    <col min="11445" max="11446" width="12.81640625" style="1" customWidth="1"/>
-    <col min="11447" max="11447" width="20.1796875" style="1" customWidth="1"/>
-    <col min="11448" max="11483" width="8.36328125" style="1"/>
-    <col min="11484" max="11484" width="6.453125" style="1" customWidth="1"/>
-    <col min="11485" max="11487" width="8.6328125" style="1" customWidth="1"/>
-    <col min="11488" max="11488" width="21.08984375" style="1" customWidth="1"/>
-    <col min="11489" max="11489" width="25.08984375" style="1" customWidth="1"/>
-    <col min="11490" max="11490" width="14.90625" style="1" customWidth="1"/>
-    <col min="11491" max="11491" width="16.90625" style="1" customWidth="1"/>
-    <col min="11492" max="11492" width="7.81640625" style="1" customWidth="1"/>
+    <col min="11238" max="11238" width="16.90625" style="1" customWidth="1"/>
+    <col min="11239" max="11239" width="7.81640625" style="1" customWidth="1"/>
+    <col min="11240" max="11240" width="14.90625" style="1" customWidth="1"/>
+    <col min="11241" max="11241" width="9.1796875" style="1" customWidth="1"/>
+    <col min="11242" max="11242" width="11.1796875" style="1" customWidth="1"/>
+    <col min="11243" max="11243" width="16.1796875" style="1" customWidth="1"/>
+    <col min="11244" max="11244" width="13.08984375" style="1" customWidth="1"/>
+    <col min="11245" max="11247" width="12.81640625" style="1" customWidth="1"/>
+    <col min="11248" max="11248" width="11.90625" style="1" customWidth="1"/>
+    <col min="11249" max="11249" width="12.81640625" style="1" customWidth="1"/>
+    <col min="11250" max="11439" width="7.81640625" style="1" customWidth="1"/>
+    <col min="11440" max="11440" width="5.6328125" style="1" customWidth="1"/>
+    <col min="11441" max="11442" width="10.90625" style="1" customWidth="1"/>
+    <col min="11443" max="11443" width="9.08984375" style="1" customWidth="1"/>
+    <col min="11444" max="11445" width="8.6328125" style="1" customWidth="1"/>
+    <col min="11446" max="11446" width="24" style="1" customWidth="1"/>
+    <col min="11447" max="11447" width="17.81640625" style="1" customWidth="1"/>
+    <col min="11448" max="11449" width="12.81640625" style="1" customWidth="1"/>
+    <col min="11450" max="11450" width="20.1796875" style="1" customWidth="1"/>
+    <col min="11451" max="11486" width="8.36328125" style="1"/>
+    <col min="11487" max="11487" width="6.453125" style="1" customWidth="1"/>
+    <col min="11488" max="11490" width="8.6328125" style="1" customWidth="1"/>
+    <col min="11491" max="11491" width="21.08984375" style="1" customWidth="1"/>
+    <col min="11492" max="11492" width="25.08984375" style="1" customWidth="1"/>
     <col min="11493" max="11493" width="14.90625" style="1" customWidth="1"/>
-    <col min="11494" max="11494" width="9.1796875" style="1" customWidth="1"/>
-    <col min="11495" max="11495" width="11.1796875" style="1" customWidth="1"/>
-    <col min="11496" max="11496" width="16.1796875" style="1" customWidth="1"/>
-    <col min="11497" max="11497" width="13.08984375" style="1" customWidth="1"/>
-    <col min="11498" max="11500" width="12.81640625" style="1" customWidth="1"/>
-    <col min="11501" max="11501" width="11.90625" style="1" customWidth="1"/>
-    <col min="11502" max="11502" width="12.81640625" style="1" customWidth="1"/>
-    <col min="11503" max="11692" width="7.81640625" style="1" customWidth="1"/>
-    <col min="11693" max="11693" width="5.6328125" style="1" customWidth="1"/>
-    <col min="11694" max="11695" width="10.90625" style="1" customWidth="1"/>
-    <col min="11696" max="11696" width="9.08984375" style="1" customWidth="1"/>
-    <col min="11697" max="11698" width="8.6328125" style="1" customWidth="1"/>
-    <col min="11699" max="11699" width="24" style="1" customWidth="1"/>
-    <col min="11700" max="11700" width="17.81640625" style="1" customWidth="1"/>
-    <col min="11701" max="11702" width="12.81640625" style="1" customWidth="1"/>
-    <col min="11703" max="11703" width="20.1796875" style="1" customWidth="1"/>
-    <col min="11704" max="11739" width="8.36328125" style="1"/>
-    <col min="11740" max="11740" width="6.453125" style="1" customWidth="1"/>
-    <col min="11741" max="11743" width="8.6328125" style="1" customWidth="1"/>
-    <col min="11744" max="11744" width="21.08984375" style="1" customWidth="1"/>
-    <col min="11745" max="11745" width="25.08984375" style="1" customWidth="1"/>
-    <col min="11746" max="11746" width="14.90625" style="1" customWidth="1"/>
-    <col min="11747" max="11747" width="16.90625" style="1" customWidth="1"/>
-    <col min="11748" max="11748" width="7.81640625" style="1" customWidth="1"/>
+    <col min="11494" max="11494" width="16.90625" style="1" customWidth="1"/>
+    <col min="11495" max="11495" width="7.81640625" style="1" customWidth="1"/>
+    <col min="11496" max="11496" width="14.90625" style="1" customWidth="1"/>
+    <col min="11497" max="11497" width="9.1796875" style="1" customWidth="1"/>
+    <col min="11498" max="11498" width="11.1796875" style="1" customWidth="1"/>
+    <col min="11499" max="11499" width="16.1796875" style="1" customWidth="1"/>
+    <col min="11500" max="11500" width="13.08984375" style="1" customWidth="1"/>
+    <col min="11501" max="11503" width="12.81640625" style="1" customWidth="1"/>
+    <col min="11504" max="11504" width="11.90625" style="1" customWidth="1"/>
+    <col min="11505" max="11505" width="12.81640625" style="1" customWidth="1"/>
+    <col min="11506" max="11695" width="7.81640625" style="1" customWidth="1"/>
+    <col min="11696" max="11696" width="5.6328125" style="1" customWidth="1"/>
+    <col min="11697" max="11698" width="10.90625" style="1" customWidth="1"/>
+    <col min="11699" max="11699" width="9.08984375" style="1" customWidth="1"/>
+    <col min="11700" max="11701" width="8.6328125" style="1" customWidth="1"/>
+    <col min="11702" max="11702" width="24" style="1" customWidth="1"/>
+    <col min="11703" max="11703" width="17.81640625" style="1" customWidth="1"/>
+    <col min="11704" max="11705" width="12.81640625" style="1" customWidth="1"/>
+    <col min="11706" max="11706" width="20.1796875" style="1" customWidth="1"/>
+    <col min="11707" max="11742" width="8.36328125" style="1"/>
+    <col min="11743" max="11743" width="6.453125" style="1" customWidth="1"/>
+    <col min="11744" max="11746" width="8.6328125" style="1" customWidth="1"/>
+    <col min="11747" max="11747" width="21.08984375" style="1" customWidth="1"/>
+    <col min="11748" max="11748" width="25.08984375" style="1" customWidth="1"/>
     <col min="11749" max="11749" width="14.90625" style="1" customWidth="1"/>
-    <col min="11750" max="11750" width="9.1796875" style="1" customWidth="1"/>
-    <col min="11751" max="11751" width="11.1796875" style="1" customWidth="1"/>
-    <col min="11752" max="11752" width="16.1796875" style="1" customWidth="1"/>
-    <col min="11753" max="11753" width="13.08984375" style="1" customWidth="1"/>
-    <col min="11754" max="11756" width="12.81640625" style="1" customWidth="1"/>
-    <col min="11757" max="11757" width="11.90625" style="1" customWidth="1"/>
-    <col min="11758" max="11758" width="12.81640625" style="1" customWidth="1"/>
-    <col min="11759" max="11948" width="7.81640625" style="1" customWidth="1"/>
-    <col min="11949" max="11949" width="5.6328125" style="1" customWidth="1"/>
-    <col min="11950" max="11951" width="10.90625" style="1" customWidth="1"/>
-    <col min="11952" max="11952" width="9.08984375" style="1" customWidth="1"/>
-    <col min="11953" max="11954" width="8.6328125" style="1" customWidth="1"/>
-    <col min="11955" max="11955" width="24" style="1" customWidth="1"/>
-    <col min="11956" max="11956" width="17.81640625" style="1" customWidth="1"/>
-    <col min="11957" max="11958" width="12.81640625" style="1" customWidth="1"/>
-    <col min="11959" max="11959" width="20.1796875" style="1" customWidth="1"/>
-    <col min="11960" max="11995" width="8.36328125" style="1"/>
-    <col min="11996" max="11996" width="6.453125" style="1" customWidth="1"/>
-    <col min="11997" max="11999" width="8.6328125" style="1" customWidth="1"/>
-    <col min="12000" max="12000" width="21.08984375" style="1" customWidth="1"/>
-    <col min="12001" max="12001" width="25.08984375" style="1" customWidth="1"/>
-    <col min="12002" max="12002" width="14.90625" style="1" customWidth="1"/>
-    <col min="12003" max="12003" width="16.90625" style="1" customWidth="1"/>
-    <col min="12004" max="12004" width="7.81640625" style="1" customWidth="1"/>
+    <col min="11750" max="11750" width="16.90625" style="1" customWidth="1"/>
+    <col min="11751" max="11751" width="7.81640625" style="1" customWidth="1"/>
+    <col min="11752" max="11752" width="14.90625" style="1" customWidth="1"/>
+    <col min="11753" max="11753" width="9.1796875" style="1" customWidth="1"/>
+    <col min="11754" max="11754" width="11.1796875" style="1" customWidth="1"/>
+    <col min="11755" max="11755" width="16.1796875" style="1" customWidth="1"/>
+    <col min="11756" max="11756" width="13.08984375" style="1" customWidth="1"/>
+    <col min="11757" max="11759" width="12.81640625" style="1" customWidth="1"/>
+    <col min="11760" max="11760" width="11.90625" style="1" customWidth="1"/>
+    <col min="11761" max="11761" width="12.81640625" style="1" customWidth="1"/>
+    <col min="11762" max="11951" width="7.81640625" style="1" customWidth="1"/>
+    <col min="11952" max="11952" width="5.6328125" style="1" customWidth="1"/>
+    <col min="11953" max="11954" width="10.90625" style="1" customWidth="1"/>
+    <col min="11955" max="11955" width="9.08984375" style="1" customWidth="1"/>
+    <col min="11956" max="11957" width="8.6328125" style="1" customWidth="1"/>
+    <col min="11958" max="11958" width="24" style="1" customWidth="1"/>
+    <col min="11959" max="11959" width="17.81640625" style="1" customWidth="1"/>
+    <col min="11960" max="11961" width="12.81640625" style="1" customWidth="1"/>
+    <col min="11962" max="11962" width="20.1796875" style="1" customWidth="1"/>
+    <col min="11963" max="11998" width="8.36328125" style="1"/>
+    <col min="11999" max="11999" width="6.453125" style="1" customWidth="1"/>
+    <col min="12000" max="12002" width="8.6328125" style="1" customWidth="1"/>
+    <col min="12003" max="12003" width="21.08984375" style="1" customWidth="1"/>
+    <col min="12004" max="12004" width="25.08984375" style="1" customWidth="1"/>
     <col min="12005" max="12005" width="14.90625" style="1" customWidth="1"/>
-    <col min="12006" max="12006" width="9.1796875" style="1" customWidth="1"/>
-    <col min="12007" max="12007" width="11.1796875" style="1" customWidth="1"/>
-    <col min="12008" max="12008" width="16.1796875" style="1" customWidth="1"/>
-    <col min="12009" max="12009" width="13.08984375" style="1" customWidth="1"/>
-    <col min="12010" max="12012" width="12.81640625" style="1" customWidth="1"/>
-    <col min="12013" max="12013" width="11.90625" style="1" customWidth="1"/>
-    <col min="12014" max="12014" width="12.81640625" style="1" customWidth="1"/>
-    <col min="12015" max="12204" width="7.81640625" style="1" customWidth="1"/>
-    <col min="12205" max="12205" width="5.6328125" style="1" customWidth="1"/>
-    <col min="12206" max="12207" width="10.90625" style="1" customWidth="1"/>
-    <col min="12208" max="12208" width="9.08984375" style="1" customWidth="1"/>
-    <col min="12209" max="12210" width="8.6328125" style="1" customWidth="1"/>
-    <col min="12211" max="12211" width="24" style="1" customWidth="1"/>
-    <col min="12212" max="12212" width="17.81640625" style="1" customWidth="1"/>
-    <col min="12213" max="12214" width="12.81640625" style="1" customWidth="1"/>
-    <col min="12215" max="12215" width="20.1796875" style="1" customWidth="1"/>
-    <col min="12216" max="12251" width="8.36328125" style="1"/>
-    <col min="12252" max="12252" width="6.453125" style="1" customWidth="1"/>
-    <col min="12253" max="12255" width="8.6328125" style="1" customWidth="1"/>
-    <col min="12256" max="12256" width="21.08984375" style="1" customWidth="1"/>
-    <col min="12257" max="12257" width="25.08984375" style="1" customWidth="1"/>
-    <col min="12258" max="12258" width="14.90625" style="1" customWidth="1"/>
-    <col min="12259" max="12259" width="16.90625" style="1" customWidth="1"/>
-    <col min="12260" max="12260" width="7.81640625" style="1" customWidth="1"/>
+    <col min="12006" max="12006" width="16.90625" style="1" customWidth="1"/>
+    <col min="12007" max="12007" width="7.81640625" style="1" customWidth="1"/>
+    <col min="12008" max="12008" width="14.90625" style="1" customWidth="1"/>
+    <col min="12009" max="12009" width="9.1796875" style="1" customWidth="1"/>
+    <col min="12010" max="12010" width="11.1796875" style="1" customWidth="1"/>
+    <col min="12011" max="12011" width="16.1796875" style="1" customWidth="1"/>
+    <col min="12012" max="12012" width="13.08984375" style="1" customWidth="1"/>
+    <col min="12013" max="12015" width="12.81640625" style="1" customWidth="1"/>
+    <col min="12016" max="12016" width="11.90625" style="1" customWidth="1"/>
+    <col min="12017" max="12017" width="12.81640625" style="1" customWidth="1"/>
+    <col min="12018" max="12207" width="7.81640625" style="1" customWidth="1"/>
+    <col min="12208" max="12208" width="5.6328125" style="1" customWidth="1"/>
+    <col min="12209" max="12210" width="10.90625" style="1" customWidth="1"/>
+    <col min="12211" max="12211" width="9.08984375" style="1" customWidth="1"/>
+    <col min="12212" max="12213" width="8.6328125" style="1" customWidth="1"/>
+    <col min="12214" max="12214" width="24" style="1" customWidth="1"/>
+    <col min="12215" max="12215" width="17.81640625" style="1" customWidth="1"/>
+    <col min="12216" max="12217" width="12.81640625" style="1" customWidth="1"/>
+    <col min="12218" max="12218" width="20.1796875" style="1" customWidth="1"/>
+    <col min="12219" max="12254" width="8.36328125" style="1"/>
+    <col min="12255" max="12255" width="6.453125" style="1" customWidth="1"/>
+    <col min="12256" max="12258" width="8.6328125" style="1" customWidth="1"/>
+    <col min="12259" max="12259" width="21.08984375" style="1" customWidth="1"/>
+    <col min="12260" max="12260" width="25.08984375" style="1" customWidth="1"/>
     <col min="12261" max="12261" width="14.90625" style="1" customWidth="1"/>
-    <col min="12262" max="12262" width="9.1796875" style="1" customWidth="1"/>
-    <col min="12263" max="12263" width="11.1796875" style="1" customWidth="1"/>
-    <col min="12264" max="12264" width="16.1796875" style="1" customWidth="1"/>
-    <col min="12265" max="12265" width="13.08984375" style="1" customWidth="1"/>
-    <col min="12266" max="12268" width="12.81640625" style="1" customWidth="1"/>
-    <col min="12269" max="12269" width="11.90625" style="1" customWidth="1"/>
-    <col min="12270" max="12270" width="12.81640625" style="1" customWidth="1"/>
-    <col min="12271" max="12460" width="7.81640625" style="1" customWidth="1"/>
-    <col min="12461" max="12461" width="5.6328125" style="1" customWidth="1"/>
-    <col min="12462" max="12463" width="10.90625" style="1" customWidth="1"/>
-    <col min="12464" max="12464" width="9.08984375" style="1" customWidth="1"/>
-    <col min="12465" max="12466" width="8.6328125" style="1" customWidth="1"/>
-    <col min="12467" max="12467" width="24" style="1" customWidth="1"/>
-    <col min="12468" max="12468" width="17.81640625" style="1" customWidth="1"/>
-    <col min="12469" max="12470" width="12.81640625" style="1" customWidth="1"/>
-    <col min="12471" max="12471" width="20.1796875" style="1" customWidth="1"/>
-    <col min="12472" max="12507" width="8.36328125" style="1"/>
-    <col min="12508" max="12508" width="6.453125" style="1" customWidth="1"/>
-    <col min="12509" max="12511" width="8.6328125" style="1" customWidth="1"/>
-    <col min="12512" max="12512" width="21.08984375" style="1" customWidth="1"/>
-    <col min="12513" max="12513" width="25.08984375" style="1" customWidth="1"/>
-    <col min="12514" max="12514" width="14.90625" style="1" customWidth="1"/>
-    <col min="12515" max="12515" width="16.90625" style="1" customWidth="1"/>
-    <col min="12516" max="12516" width="7.81640625" style="1" customWidth="1"/>
+    <col min="12262" max="12262" width="16.90625" style="1" customWidth="1"/>
+    <col min="12263" max="12263" width="7.81640625" style="1" customWidth="1"/>
+    <col min="12264" max="12264" width="14.90625" style="1" customWidth="1"/>
+    <col min="12265" max="12265" width="9.1796875" style="1" customWidth="1"/>
+    <col min="12266" max="12266" width="11.1796875" style="1" customWidth="1"/>
+    <col min="12267" max="12267" width="16.1796875" style="1" customWidth="1"/>
+    <col min="12268" max="12268" width="13.08984375" style="1" customWidth="1"/>
+    <col min="12269" max="12271" width="12.81640625" style="1" customWidth="1"/>
+    <col min="12272" max="12272" width="11.90625" style="1" customWidth="1"/>
+    <col min="12273" max="12273" width="12.81640625" style="1" customWidth="1"/>
+    <col min="12274" max="12463" width="7.81640625" style="1" customWidth="1"/>
+    <col min="12464" max="12464" width="5.6328125" style="1" customWidth="1"/>
+    <col min="12465" max="12466" width="10.90625" style="1" customWidth="1"/>
+    <col min="12467" max="12467" width="9.08984375" style="1" customWidth="1"/>
+    <col min="12468" max="12469" width="8.6328125" style="1" customWidth="1"/>
+    <col min="12470" max="12470" width="24" style="1" customWidth="1"/>
+    <col min="12471" max="12471" width="17.81640625" style="1" customWidth="1"/>
+    <col min="12472" max="12473" width="12.81640625" style="1" customWidth="1"/>
+    <col min="12474" max="12474" width="20.1796875" style="1" customWidth="1"/>
+    <col min="12475" max="12510" width="8.36328125" style="1"/>
+    <col min="12511" max="12511" width="6.453125" style="1" customWidth="1"/>
+    <col min="12512" max="12514" width="8.6328125" style="1" customWidth="1"/>
+    <col min="12515" max="12515" width="21.08984375" style="1" customWidth="1"/>
+    <col min="12516" max="12516" width="25.08984375" style="1" customWidth="1"/>
     <col min="12517" max="12517" width="14.90625" style="1" customWidth="1"/>
-    <col min="12518" max="12518" width="9.1796875" style="1" customWidth="1"/>
-    <col min="12519" max="12519" width="11.1796875" style="1" customWidth="1"/>
-    <col min="12520" max="12520" width="16.1796875" style="1" customWidth="1"/>
-    <col min="12521" max="12521" width="13.08984375" style="1" customWidth="1"/>
-    <col min="12522" max="12524" width="12.81640625" style="1" customWidth="1"/>
-    <col min="12525" max="12525" width="11.90625" style="1" customWidth="1"/>
-    <col min="12526" max="12526" width="12.81640625" style="1" customWidth="1"/>
-    <col min="12527" max="12716" width="7.81640625" style="1" customWidth="1"/>
-    <col min="12717" max="12717" width="5.6328125" style="1" customWidth="1"/>
-    <col min="12718" max="12719" width="10.90625" style="1" customWidth="1"/>
-    <col min="12720" max="12720" width="9.08984375" style="1" customWidth="1"/>
-    <col min="12721" max="12722" width="8.6328125" style="1" customWidth="1"/>
-    <col min="12723" max="12723" width="24" style="1" customWidth="1"/>
-    <col min="12724" max="12724" width="17.81640625" style="1" customWidth="1"/>
-    <col min="12725" max="12726" width="12.81640625" style="1" customWidth="1"/>
-    <col min="12727" max="12727" width="20.1796875" style="1" customWidth="1"/>
-    <col min="12728" max="12763" width="8.36328125" style="1"/>
-    <col min="12764" max="12764" width="6.453125" style="1" customWidth="1"/>
-    <col min="12765" max="12767" width="8.6328125" style="1" customWidth="1"/>
-    <col min="12768" max="12768" width="21.08984375" style="1" customWidth="1"/>
-    <col min="12769" max="12769" width="25.08984375" style="1" customWidth="1"/>
-    <col min="12770" max="12770" width="14.90625" style="1" customWidth="1"/>
-    <col min="12771" max="12771" width="16.90625" style="1" customWidth="1"/>
-    <col min="12772" max="12772" width="7.81640625" style="1" customWidth="1"/>
+    <col min="12518" max="12518" width="16.90625" style="1" customWidth="1"/>
+    <col min="12519" max="12519" width="7.81640625" style="1" customWidth="1"/>
+    <col min="12520" max="12520" width="14.90625" style="1" customWidth="1"/>
+    <col min="12521" max="12521" width="9.1796875" style="1" customWidth="1"/>
+    <col min="12522" max="12522" width="11.1796875" style="1" customWidth="1"/>
+    <col min="12523" max="12523" width="16.1796875" style="1" customWidth="1"/>
+    <col min="12524" max="12524" width="13.08984375" style="1" customWidth="1"/>
+    <col min="12525" max="12527" width="12.81640625" style="1" customWidth="1"/>
+    <col min="12528" max="12528" width="11.90625" style="1" customWidth="1"/>
+    <col min="12529" max="12529" width="12.81640625" style="1" customWidth="1"/>
+    <col min="12530" max="12719" width="7.81640625" style="1" customWidth="1"/>
+    <col min="12720" max="12720" width="5.6328125" style="1" customWidth="1"/>
+    <col min="12721" max="12722" width="10.90625" style="1" customWidth="1"/>
+    <col min="12723" max="12723" width="9.08984375" style="1" customWidth="1"/>
+    <col min="12724" max="12725" width="8.6328125" style="1" customWidth="1"/>
+    <col min="12726" max="12726" width="24" style="1" customWidth="1"/>
+    <col min="12727" max="12727" width="17.81640625" style="1" customWidth="1"/>
+    <col min="12728" max="12729" width="12.81640625" style="1" customWidth="1"/>
+    <col min="12730" max="12730" width="20.1796875" style="1" customWidth="1"/>
+    <col min="12731" max="12766" width="8.36328125" style="1"/>
+    <col min="12767" max="12767" width="6.453125" style="1" customWidth="1"/>
+    <col min="12768" max="12770" width="8.6328125" style="1" customWidth="1"/>
+    <col min="12771" max="12771" width="21.08984375" style="1" customWidth="1"/>
+    <col min="12772" max="12772" width="25.08984375" style="1" customWidth="1"/>
     <col min="12773" max="12773" width="14.90625" style="1" customWidth="1"/>
-    <col min="12774" max="12774" width="9.1796875" style="1" customWidth="1"/>
-    <col min="12775" max="12775" width="11.1796875" style="1" customWidth="1"/>
-    <col min="12776" max="12776" width="16.1796875" style="1" customWidth="1"/>
-    <col min="12777" max="12777" width="13.08984375" style="1" customWidth="1"/>
-    <col min="12778" max="12780" width="12.81640625" style="1" customWidth="1"/>
-    <col min="12781" max="12781" width="11.90625" style="1" customWidth="1"/>
-    <col min="12782" max="12782" width="12.81640625" style="1" customWidth="1"/>
-    <col min="12783" max="12972" width="7.81640625" style="1" customWidth="1"/>
-    <col min="12973" max="12973" width="5.6328125" style="1" customWidth="1"/>
-    <col min="12974" max="12975" width="10.90625" style="1" customWidth="1"/>
-    <col min="12976" max="12976" width="9.08984375" style="1" customWidth="1"/>
-    <col min="12977" max="12978" width="8.6328125" style="1" customWidth="1"/>
-    <col min="12979" max="12979" width="24" style="1" customWidth="1"/>
-    <col min="12980" max="12980" width="17.81640625" style="1" customWidth="1"/>
-    <col min="12981" max="12982" width="12.81640625" style="1" customWidth="1"/>
-    <col min="12983" max="12983" width="20.1796875" style="1" customWidth="1"/>
-    <col min="12984" max="13019" width="8.36328125" style="1"/>
-    <col min="13020" max="13020" width="6.453125" style="1" customWidth="1"/>
-    <col min="13021" max="13023" width="8.6328125" style="1" customWidth="1"/>
-    <col min="13024" max="13024" width="21.08984375" style="1" customWidth="1"/>
-    <col min="13025" max="13025" width="25.08984375" style="1" customWidth="1"/>
-    <col min="13026" max="13026" width="14.90625" style="1" customWidth="1"/>
-    <col min="13027" max="13027" width="16.90625" style="1" customWidth="1"/>
-    <col min="13028" max="13028" width="7.81640625" style="1" customWidth="1"/>
+    <col min="12774" max="12774" width="16.90625" style="1" customWidth="1"/>
+    <col min="12775" max="12775" width="7.81640625" style="1" customWidth="1"/>
+    <col min="12776" max="12776" width="14.90625" style="1" customWidth="1"/>
+    <col min="12777" max="12777" width="9.1796875" style="1" customWidth="1"/>
+    <col min="12778" max="12778" width="11.1796875" style="1" customWidth="1"/>
+    <col min="12779" max="12779" width="16.1796875" style="1" customWidth="1"/>
+    <col min="12780" max="12780" width="13.08984375" style="1" customWidth="1"/>
+    <col min="12781" max="12783" width="12.81640625" style="1" customWidth="1"/>
+    <col min="12784" max="12784" width="11.90625" style="1" customWidth="1"/>
+    <col min="12785" max="12785" width="12.81640625" style="1" customWidth="1"/>
+    <col min="12786" max="12975" width="7.81640625" style="1" customWidth="1"/>
+    <col min="12976" max="12976" width="5.6328125" style="1" customWidth="1"/>
+    <col min="12977" max="12978" width="10.90625" style="1" customWidth="1"/>
+    <col min="12979" max="12979" width="9.08984375" style="1" customWidth="1"/>
+    <col min="12980" max="12981" width="8.6328125" style="1" customWidth="1"/>
+    <col min="12982" max="12982" width="24" style="1" customWidth="1"/>
+    <col min="12983" max="12983" width="17.81640625" style="1" customWidth="1"/>
+    <col min="12984" max="12985" width="12.81640625" style="1" customWidth="1"/>
+    <col min="12986" max="12986" width="20.1796875" style="1" customWidth="1"/>
+    <col min="12987" max="13022" width="8.36328125" style="1"/>
+    <col min="13023" max="13023" width="6.453125" style="1" customWidth="1"/>
+    <col min="13024" max="13026" width="8.6328125" style="1" customWidth="1"/>
+    <col min="13027" max="13027" width="21.08984375" style="1" customWidth="1"/>
+    <col min="13028" max="13028" width="25.08984375" style="1" customWidth="1"/>
     <col min="13029" max="13029" width="14.90625" style="1" customWidth="1"/>
-    <col min="13030" max="13030" width="9.1796875" style="1" customWidth="1"/>
-    <col min="13031" max="13031" width="11.1796875" style="1" customWidth="1"/>
-    <col min="13032" max="13032" width="16.1796875" style="1" customWidth="1"/>
-    <col min="13033" max="13033" width="13.08984375" style="1" customWidth="1"/>
-    <col min="13034" max="13036" width="12.81640625" style="1" customWidth="1"/>
-    <col min="13037" max="13037" width="11.90625" style="1" customWidth="1"/>
-    <col min="13038" max="13038" width="12.81640625" style="1" customWidth="1"/>
-    <col min="13039" max="13228" width="7.81640625" style="1" customWidth="1"/>
-    <col min="13229" max="13229" width="5.6328125" style="1" customWidth="1"/>
-    <col min="13230" max="13231" width="10.90625" style="1" customWidth="1"/>
-    <col min="13232" max="13232" width="9.08984375" style="1" customWidth="1"/>
-    <col min="13233" max="13234" width="8.6328125" style="1" customWidth="1"/>
-    <col min="13235" max="13235" width="24" style="1" customWidth="1"/>
-    <col min="13236" max="13236" width="17.81640625" style="1" customWidth="1"/>
-    <col min="13237" max="13238" width="12.81640625" style="1" customWidth="1"/>
-    <col min="13239" max="13239" width="20.1796875" style="1" customWidth="1"/>
-    <col min="13240" max="13275" width="8.36328125" style="1"/>
-    <col min="13276" max="13276" width="6.453125" style="1" customWidth="1"/>
-    <col min="13277" max="13279" width="8.6328125" style="1" customWidth="1"/>
-    <col min="13280" max="13280" width="21.08984375" style="1" customWidth="1"/>
-    <col min="13281" max="13281" width="25.08984375" style="1" customWidth="1"/>
-    <col min="13282" max="13282" width="14.90625" style="1" customWidth="1"/>
-    <col min="13283" max="13283" width="16.90625" style="1" customWidth="1"/>
-    <col min="13284" max="13284" width="7.81640625" style="1" customWidth="1"/>
+    <col min="13030" max="13030" width="16.90625" style="1" customWidth="1"/>
+    <col min="13031" max="13031" width="7.81640625" style="1" customWidth="1"/>
+    <col min="13032" max="13032" width="14.90625" style="1" customWidth="1"/>
+    <col min="13033" max="13033" width="9.1796875" style="1" customWidth="1"/>
+    <col min="13034" max="13034" width="11.1796875" style="1" customWidth="1"/>
+    <col min="13035" max="13035" width="16.1796875" style="1" customWidth="1"/>
+    <col min="13036" max="13036" width="13.08984375" style="1" customWidth="1"/>
+    <col min="13037" max="13039" width="12.81640625" style="1" customWidth="1"/>
+    <col min="13040" max="13040" width="11.90625" style="1" customWidth="1"/>
+    <col min="13041" max="13041" width="12.81640625" style="1" customWidth="1"/>
+    <col min="13042" max="13231" width="7.81640625" style="1" customWidth="1"/>
+    <col min="13232" max="13232" width="5.6328125" style="1" customWidth="1"/>
+    <col min="13233" max="13234" width="10.90625" style="1" customWidth="1"/>
+    <col min="13235" max="13235" width="9.08984375" style="1" customWidth="1"/>
+    <col min="13236" max="13237" width="8.6328125" style="1" customWidth="1"/>
+    <col min="13238" max="13238" width="24" style="1" customWidth="1"/>
+    <col min="13239" max="13239" width="17.81640625" style="1" customWidth="1"/>
+    <col min="13240" max="13241" width="12.81640625" style="1" customWidth="1"/>
+    <col min="13242" max="13242" width="20.1796875" style="1" customWidth="1"/>
+    <col min="13243" max="13278" width="8.36328125" style="1"/>
+    <col min="13279" max="13279" width="6.453125" style="1" customWidth="1"/>
+    <col min="13280" max="13282" width="8.6328125" style="1" customWidth="1"/>
+    <col min="13283" max="13283" width="21.08984375" style="1" customWidth="1"/>
+    <col min="13284" max="13284" width="25.08984375" style="1" customWidth="1"/>
     <col min="13285" max="13285" width="14.90625" style="1" customWidth="1"/>
-    <col min="13286" max="13286" width="9.1796875" style="1" customWidth="1"/>
-    <col min="13287" max="13287" width="11.1796875" style="1" customWidth="1"/>
-    <col min="13288" max="13288" width="16.1796875" style="1" customWidth="1"/>
-    <col min="13289" max="13289" width="13.08984375" style="1" customWidth="1"/>
-    <col min="13290" max="13292" width="12.81640625" style="1" customWidth="1"/>
-    <col min="13293" max="13293" width="11.90625" style="1" customWidth="1"/>
-    <col min="13294" max="13294" width="12.81640625" style="1" customWidth="1"/>
-    <col min="13295" max="13484" width="7.81640625" style="1" customWidth="1"/>
-    <col min="13485" max="13485" width="5.6328125" style="1" customWidth="1"/>
-    <col min="13486" max="13487" width="10.90625" style="1" customWidth="1"/>
-    <col min="13488" max="13488" width="9.08984375" style="1" customWidth="1"/>
-    <col min="13489" max="13490" width="8.6328125" style="1" customWidth="1"/>
-    <col min="13491" max="13491" width="24" style="1" customWidth="1"/>
-    <col min="13492" max="13492" width="17.81640625" style="1" customWidth="1"/>
-    <col min="13493" max="13494" width="12.81640625" style="1" customWidth="1"/>
-    <col min="13495" max="13495" width="20.1796875" style="1" customWidth="1"/>
-    <col min="13496" max="13531" width="8.36328125" style="1"/>
-    <col min="13532" max="13532" width="6.453125" style="1" customWidth="1"/>
-    <col min="13533" max="13535" width="8.6328125" style="1" customWidth="1"/>
-    <col min="13536" max="13536" width="21.08984375" style="1" customWidth="1"/>
-    <col min="13537" max="13537" width="25.08984375" style="1" customWidth="1"/>
-    <col min="13538" max="13538" width="14.90625" style="1" customWidth="1"/>
-    <col min="13539" max="13539" width="16.90625" style="1" customWidth="1"/>
-    <col min="13540" max="13540" width="7.81640625" style="1" customWidth="1"/>
+    <col min="13286" max="13286" width="16.90625" style="1" customWidth="1"/>
+    <col min="13287" max="13287" width="7.81640625" style="1" customWidth="1"/>
+    <col min="13288" max="13288" width="14.90625" style="1" customWidth="1"/>
+    <col min="13289" max="13289" width="9.1796875" style="1" customWidth="1"/>
+    <col min="13290" max="13290" width="11.1796875" style="1" customWidth="1"/>
+    <col min="13291" max="13291" width="16.1796875" style="1" customWidth="1"/>
+    <col min="13292" max="13292" width="13.08984375" style="1" customWidth="1"/>
+    <col min="13293" max="13295" width="12.81640625" style="1" customWidth="1"/>
+    <col min="13296" max="13296" width="11.90625" style="1" customWidth="1"/>
+    <col min="13297" max="13297" width="12.81640625" style="1" customWidth="1"/>
+    <col min="13298" max="13487" width="7.81640625" style="1" customWidth="1"/>
+    <col min="13488" max="13488" width="5.6328125" style="1" customWidth="1"/>
+    <col min="13489" max="13490" width="10.90625" style="1" customWidth="1"/>
+    <col min="13491" max="13491" width="9.08984375" style="1" customWidth="1"/>
+    <col min="13492" max="13493" width="8.6328125" style="1" customWidth="1"/>
+    <col min="13494" max="13494" width="24" style="1" customWidth="1"/>
+    <col min="13495" max="13495" width="17.81640625" style="1" customWidth="1"/>
+    <col min="13496" max="13497" width="12.81640625" style="1" customWidth="1"/>
+    <col min="13498" max="13498" width="20.1796875" style="1" customWidth="1"/>
+    <col min="13499" max="13534" width="8.36328125" style="1"/>
+    <col min="13535" max="13535" width="6.453125" style="1" customWidth="1"/>
+    <col min="13536" max="13538" width="8.6328125" style="1" customWidth="1"/>
+    <col min="13539" max="13539" width="21.08984375" style="1" customWidth="1"/>
+    <col min="13540" max="13540" width="25.08984375" style="1" customWidth="1"/>
     <col min="13541" max="13541" width="14.90625" style="1" customWidth="1"/>
-    <col min="13542" max="13542" width="9.1796875" style="1" customWidth="1"/>
-    <col min="13543" max="13543" width="11.1796875" style="1" customWidth="1"/>
-    <col min="13544" max="13544" width="16.1796875" style="1" customWidth="1"/>
-    <col min="13545" max="13545" width="13.08984375" style="1" customWidth="1"/>
-    <col min="13546" max="13548" width="12.81640625" style="1" customWidth="1"/>
-    <col min="13549" max="13549" width="11.90625" style="1" customWidth="1"/>
-    <col min="13550" max="13550" width="12.81640625" style="1" customWidth="1"/>
-    <col min="13551" max="13740" width="7.81640625" style="1" customWidth="1"/>
-    <col min="13741" max="13741" width="5.6328125" style="1" customWidth="1"/>
-    <col min="13742" max="13743" width="10.90625" style="1" customWidth="1"/>
-    <col min="13744" max="13744" width="9.08984375" style="1" customWidth="1"/>
-    <col min="13745" max="13746" width="8.6328125" style="1" customWidth="1"/>
-    <col min="13747" max="13747" width="24" style="1" customWidth="1"/>
-    <col min="13748" max="13748" width="17.81640625" style="1" customWidth="1"/>
-    <col min="13749" max="13750" width="12.81640625" style="1" customWidth="1"/>
-    <col min="13751" max="13751" width="20.1796875" style="1" customWidth="1"/>
-    <col min="13752" max="13787" width="8.36328125" style="1"/>
-    <col min="13788" max="13788" width="6.453125" style="1" customWidth="1"/>
-    <col min="13789" max="13791" width="8.6328125" style="1" customWidth="1"/>
-    <col min="13792" max="13792" width="21.08984375" style="1" customWidth="1"/>
-    <col min="13793" max="13793" width="25.08984375" style="1" customWidth="1"/>
-    <col min="13794" max="13794" width="14.90625" style="1" customWidth="1"/>
-    <col min="13795" max="13795" width="16.90625" style="1" customWidth="1"/>
-    <col min="13796" max="13796" width="7.81640625" style="1" customWidth="1"/>
+    <col min="13542" max="13542" width="16.90625" style="1" customWidth="1"/>
+    <col min="13543" max="13543" width="7.81640625" style="1" customWidth="1"/>
+    <col min="13544" max="13544" width="14.90625" style="1" customWidth="1"/>
+    <col min="13545" max="13545" width="9.1796875" style="1" customWidth="1"/>
+    <col min="13546" max="13546" width="11.1796875" style="1" customWidth="1"/>
+    <col min="13547" max="13547" width="16.1796875" style="1" customWidth="1"/>
+    <col min="13548" max="13548" width="13.08984375" style="1" customWidth="1"/>
+    <col min="13549" max="13551" width="12.81640625" style="1" customWidth="1"/>
+    <col min="13552" max="13552" width="11.90625" style="1" customWidth="1"/>
+    <col min="13553" max="13553" width="12.81640625" style="1" customWidth="1"/>
+    <col min="13554" max="13743" width="7.81640625" style="1" customWidth="1"/>
+    <col min="13744" max="13744" width="5.6328125" style="1" customWidth="1"/>
+    <col min="13745" max="13746" width="10.90625" style="1" customWidth="1"/>
+    <col min="13747" max="13747" width="9.08984375" style="1" customWidth="1"/>
+    <col min="13748" max="13749" width="8.6328125" style="1" customWidth="1"/>
+    <col min="13750" max="13750" width="24" style="1" customWidth="1"/>
+    <col min="13751" max="13751" width="17.81640625" style="1" customWidth="1"/>
+    <col min="13752" max="13753" width="12.81640625" style="1" customWidth="1"/>
+    <col min="13754" max="13754" width="20.1796875" style="1" customWidth="1"/>
+    <col min="13755" max="13790" width="8.36328125" style="1"/>
+    <col min="13791" max="13791" width="6.453125" style="1" customWidth="1"/>
+    <col min="13792" max="13794" width="8.6328125" style="1" customWidth="1"/>
+    <col min="13795" max="13795" width="21.08984375" style="1" customWidth="1"/>
+    <col min="13796" max="13796" width="25.08984375" style="1" customWidth="1"/>
     <col min="13797" max="13797" width="14.90625" style="1" customWidth="1"/>
-    <col min="13798" max="13798" width="9.1796875" style="1" customWidth="1"/>
-    <col min="13799" max="13799" width="11.1796875" style="1" customWidth="1"/>
-    <col min="13800" max="13800" width="16.1796875" style="1" customWidth="1"/>
-    <col min="13801" max="13801" width="13.08984375" style="1" customWidth="1"/>
-    <col min="13802" max="13804" width="12.81640625" style="1" customWidth="1"/>
-    <col min="13805" max="13805" width="11.90625" style="1" customWidth="1"/>
-    <col min="13806" max="13806" width="12.81640625" style="1" customWidth="1"/>
-    <col min="13807" max="13996" width="7.81640625" style="1" customWidth="1"/>
-    <col min="13997" max="13997" width="5.6328125" style="1" customWidth="1"/>
-    <col min="13998" max="13999" width="10.90625" style="1" customWidth="1"/>
-    <col min="14000" max="14000" width="9.08984375" style="1" customWidth="1"/>
-    <col min="14001" max="14002" width="8.6328125" style="1" customWidth="1"/>
-    <col min="14003" max="14003" width="24" style="1" customWidth="1"/>
-    <col min="14004" max="14004" width="17.81640625" style="1" customWidth="1"/>
-    <col min="14005" max="14006" width="12.81640625" style="1" customWidth="1"/>
-    <col min="14007" max="14007" width="20.1796875" style="1" customWidth="1"/>
-    <col min="14008" max="14043" width="8.36328125" style="1"/>
-    <col min="14044" max="14044" width="6.453125" style="1" customWidth="1"/>
-    <col min="14045" max="14047" width="8.6328125" style="1" customWidth="1"/>
-    <col min="14048" max="14048" width="21.08984375" style="1" customWidth="1"/>
-    <col min="14049" max="14049" width="25.08984375" style="1" customWidth="1"/>
-    <col min="14050" max="14050" width="14.90625" style="1" customWidth="1"/>
-    <col min="14051" max="14051" width="16.90625" style="1" customWidth="1"/>
-    <col min="14052" max="14052" width="7.81640625" style="1" customWidth="1"/>
+    <col min="13798" max="13798" width="16.90625" style="1" customWidth="1"/>
+    <col min="13799" max="13799" width="7.81640625" style="1" customWidth="1"/>
+    <col min="13800" max="13800" width="14.90625" style="1" customWidth="1"/>
+    <col min="13801" max="13801" width="9.1796875" style="1" customWidth="1"/>
+    <col min="13802" max="13802" width="11.1796875" style="1" customWidth="1"/>
+    <col min="13803" max="13803" width="16.1796875" style="1" customWidth="1"/>
+    <col min="13804" max="13804" width="13.08984375" style="1" customWidth="1"/>
+    <col min="13805" max="13807" width="12.81640625" style="1" customWidth="1"/>
+    <col min="13808" max="13808" width="11.90625" style="1" customWidth="1"/>
+    <col min="13809" max="13809" width="12.81640625" style="1" customWidth="1"/>
+    <col min="13810" max="13999" width="7.81640625" style="1" customWidth="1"/>
+    <col min="14000" max="14000" width="5.6328125" style="1" customWidth="1"/>
+    <col min="14001" max="14002" width="10.90625" style="1" customWidth="1"/>
+    <col min="14003" max="14003" width="9.08984375" style="1" customWidth="1"/>
+    <col min="14004" max="14005" width="8.6328125" style="1" customWidth="1"/>
+    <col min="14006" max="14006" width="24" style="1" customWidth="1"/>
+    <col min="14007" max="14007" width="17.81640625" style="1" customWidth="1"/>
+    <col min="14008" max="14009" width="12.81640625" style="1" customWidth="1"/>
+    <col min="14010" max="14010" width="20.1796875" style="1" customWidth="1"/>
+    <col min="14011" max="14046" width="8.36328125" style="1"/>
+    <col min="14047" max="14047" width="6.453125" style="1" customWidth="1"/>
+    <col min="14048" max="14050" width="8.6328125" style="1" customWidth="1"/>
+    <col min="14051" max="14051" width="21.08984375" style="1" customWidth="1"/>
+    <col min="14052" max="14052" width="25.08984375" style="1" customWidth="1"/>
     <col min="14053" max="14053" width="14.90625" style="1" customWidth="1"/>
-    <col min="14054" max="14054" width="9.1796875" style="1" customWidth="1"/>
-    <col min="14055" max="14055" width="11.1796875" style="1" customWidth="1"/>
-    <col min="14056" max="14056" width="16.1796875" style="1" customWidth="1"/>
-    <col min="14057" max="14057" width="13.08984375" style="1" customWidth="1"/>
-    <col min="14058" max="14060" width="12.81640625" style="1" customWidth="1"/>
-    <col min="14061" max="14061" width="11.90625" style="1" customWidth="1"/>
-    <col min="14062" max="14062" width="12.81640625" style="1" customWidth="1"/>
-    <col min="14063" max="14252" width="7.81640625" style="1" customWidth="1"/>
-    <col min="14253" max="14253" width="5.6328125" style="1" customWidth="1"/>
-    <col min="14254" max="14255" width="10.90625" style="1" customWidth="1"/>
-    <col min="14256" max="14256" width="9.08984375" style="1" customWidth="1"/>
-    <col min="14257" max="14258" width="8.6328125" style="1" customWidth="1"/>
-    <col min="14259" max="14259" width="24" style="1" customWidth="1"/>
-    <col min="14260" max="14260" width="17.81640625" style="1" customWidth="1"/>
-    <col min="14261" max="14262" width="12.81640625" style="1" customWidth="1"/>
-    <col min="14263" max="14263" width="20.1796875" style="1" customWidth="1"/>
-    <col min="14264" max="14299" width="8.36328125" style="1"/>
-    <col min="14300" max="14300" width="6.453125" style="1" customWidth="1"/>
-    <col min="14301" max="14303" width="8.6328125" style="1" customWidth="1"/>
-    <col min="14304" max="14304" width="21.08984375" style="1" customWidth="1"/>
-    <col min="14305" max="14305" width="25.08984375" style="1" customWidth="1"/>
-    <col min="14306" max="14306" width="14.90625" style="1" customWidth="1"/>
-    <col min="14307" max="14307" width="16.90625" style="1" customWidth="1"/>
-    <col min="14308" max="14308" width="7.81640625" style="1" customWidth="1"/>
+    <col min="14054" max="14054" width="16.90625" style="1" customWidth="1"/>
+    <col min="14055" max="14055" width="7.81640625" style="1" customWidth="1"/>
+    <col min="14056" max="14056" width="14.90625" style="1" customWidth="1"/>
+    <col min="14057" max="14057" width="9.1796875" style="1" customWidth="1"/>
+    <col min="14058" max="14058" width="11.1796875" style="1" customWidth="1"/>
+    <col min="14059" max="14059" width="16.1796875" style="1" customWidth="1"/>
+    <col min="14060" max="14060" width="13.08984375" style="1" customWidth="1"/>
+    <col min="14061" max="14063" width="12.81640625" style="1" customWidth="1"/>
+    <col min="14064" max="14064" width="11.90625" style="1" customWidth="1"/>
+    <col min="14065" max="14065" width="12.81640625" style="1" customWidth="1"/>
+    <col min="14066" max="14255" width="7.81640625" style="1" customWidth="1"/>
+    <col min="14256" max="14256" width="5.6328125" style="1" customWidth="1"/>
+    <col min="14257" max="14258" width="10.90625" style="1" customWidth="1"/>
+    <col min="14259" max="14259" width="9.08984375" style="1" customWidth="1"/>
+    <col min="14260" max="14261" width="8.6328125" style="1" customWidth="1"/>
+    <col min="14262" max="14262" width="24" style="1" customWidth="1"/>
+    <col min="14263" max="14263" width="17.81640625" style="1" customWidth="1"/>
+    <col min="14264" max="14265" width="12.81640625" style="1" customWidth="1"/>
+    <col min="14266" max="14266" width="20.1796875" style="1" customWidth="1"/>
+    <col min="14267" max="14302" width="8.36328125" style="1"/>
+    <col min="14303" max="14303" width="6.453125" style="1" customWidth="1"/>
+    <col min="14304" max="14306" width="8.6328125" style="1" customWidth="1"/>
+    <col min="14307" max="14307" width="21.08984375" style="1" customWidth="1"/>
+    <col min="14308" max="14308" width="25.08984375" style="1" customWidth="1"/>
     <col min="14309" max="14309" width="14.90625" style="1" customWidth="1"/>
-    <col min="14310" max="14310" width="9.1796875" style="1" customWidth="1"/>
-    <col min="14311" max="14311" width="11.1796875" style="1" customWidth="1"/>
-    <col min="14312" max="14312" width="16.1796875" style="1" customWidth="1"/>
-    <col min="14313" max="14313" width="13.08984375" style="1" customWidth="1"/>
-    <col min="14314" max="14316" width="12.81640625" style="1" customWidth="1"/>
-    <col min="14317" max="14317" width="11.90625" style="1" customWidth="1"/>
-    <col min="14318" max="14318" width="12.81640625" style="1" customWidth="1"/>
-    <col min="14319" max="14508" width="7.81640625" style="1" customWidth="1"/>
-    <col min="14509" max="14509" width="5.6328125" style="1" customWidth="1"/>
-    <col min="14510" max="14511" width="10.90625" style="1" customWidth="1"/>
-    <col min="14512" max="14512" width="9.08984375" style="1" customWidth="1"/>
-    <col min="14513" max="14514" width="8.6328125" style="1" customWidth="1"/>
-    <col min="14515" max="14515" width="24" style="1" customWidth="1"/>
-    <col min="14516" max="14516" width="17.81640625" style="1" customWidth="1"/>
-    <col min="14517" max="14518" width="12.81640625" style="1" customWidth="1"/>
-    <col min="14519" max="14519" width="20.1796875" style="1" customWidth="1"/>
-    <col min="14520" max="14555" width="8.36328125" style="1"/>
-    <col min="14556" max="14556" width="6.453125" style="1" customWidth="1"/>
-    <col min="14557" max="14559" width="8.6328125" style="1" customWidth="1"/>
-    <col min="14560" max="14560" width="21.08984375" style="1" customWidth="1"/>
-    <col min="14561" max="14561" width="25.08984375" style="1" customWidth="1"/>
-    <col min="14562" max="14562" width="14.90625" style="1" customWidth="1"/>
-    <col min="14563" max="14563" width="16.90625" style="1" customWidth="1"/>
-    <col min="14564" max="14564" width="7.81640625" style="1" customWidth="1"/>
+    <col min="14310" max="14310" width="16.90625" style="1" customWidth="1"/>
+    <col min="14311" max="14311" width="7.81640625" style="1" customWidth="1"/>
+    <col min="14312" max="14312" width="14.90625" style="1" customWidth="1"/>
+    <col min="14313" max="14313" width="9.1796875" style="1" customWidth="1"/>
+    <col min="14314" max="14314" width="11.1796875" style="1" customWidth="1"/>
+    <col min="14315" max="14315" width="16.1796875" style="1" customWidth="1"/>
+    <col min="14316" max="14316" width="13.08984375" style="1" customWidth="1"/>
+    <col min="14317" max="14319" width="12.81640625" style="1" customWidth="1"/>
+    <col min="14320" max="14320" width="11.90625" style="1" customWidth="1"/>
+    <col min="14321" max="14321" width="12.81640625" style="1" customWidth="1"/>
+    <col min="14322" max="14511" width="7.81640625" style="1" customWidth="1"/>
+    <col min="14512" max="14512" width="5.6328125" style="1" customWidth="1"/>
+    <col min="14513" max="14514" width="10.90625" style="1" customWidth="1"/>
+    <col min="14515" max="14515" width="9.08984375" style="1" customWidth="1"/>
+    <col min="14516" max="14517" width="8.6328125" style="1" customWidth="1"/>
+    <col min="14518" max="14518" width="24" style="1" customWidth="1"/>
+    <col min="14519" max="14519" width="17.81640625" style="1" customWidth="1"/>
+    <col min="14520" max="14521" width="12.81640625" style="1" customWidth="1"/>
+    <col min="14522" max="14522" width="20.1796875" style="1" customWidth="1"/>
+    <col min="14523" max="14558" width="8.36328125" style="1"/>
+    <col min="14559" max="14559" width="6.453125" style="1" customWidth="1"/>
+    <col min="14560" max="14562" width="8.6328125" style="1" customWidth="1"/>
+    <col min="14563" max="14563" width="21.08984375" style="1" customWidth="1"/>
+    <col min="14564" max="14564" width="25.08984375" style="1" customWidth="1"/>
     <col min="14565" max="14565" width="14.90625" style="1" customWidth="1"/>
-    <col min="14566" max="14566" width="9.1796875" style="1" customWidth="1"/>
-    <col min="14567" max="14567" width="11.1796875" style="1" customWidth="1"/>
-    <col min="14568" max="14568" width="16.1796875" style="1" customWidth="1"/>
-    <col min="14569" max="14569" width="13.08984375" style="1" customWidth="1"/>
-    <col min="14570" max="14572" width="12.81640625" style="1" customWidth="1"/>
-    <col min="14573" max="14573" width="11.90625" style="1" customWidth="1"/>
-    <col min="14574" max="14574" width="12.81640625" style="1" customWidth="1"/>
-    <col min="14575" max="14764" width="7.81640625" style="1" customWidth="1"/>
-    <col min="14765" max="14765" width="5.6328125" style="1" customWidth="1"/>
-    <col min="14766" max="14767" width="10.90625" style="1" customWidth="1"/>
-    <col min="14768" max="14768" width="9.08984375" style="1" customWidth="1"/>
-    <col min="14769" max="14770" width="8.6328125" style="1" customWidth="1"/>
-    <col min="14771" max="14771" width="24" style="1" customWidth="1"/>
-    <col min="14772" max="14772" width="17.81640625" style="1" customWidth="1"/>
-    <col min="14773" max="14774" width="12.81640625" style="1" customWidth="1"/>
-    <col min="14775" max="14775" width="20.1796875" style="1" customWidth="1"/>
-    <col min="14776" max="14811" width="8.36328125" style="1"/>
-    <col min="14812" max="14812" width="6.453125" style="1" customWidth="1"/>
-    <col min="14813" max="14815" width="8.6328125" style="1" customWidth="1"/>
-    <col min="14816" max="14816" width="21.08984375" style="1" customWidth="1"/>
-    <col min="14817" max="14817" width="25.08984375" style="1" customWidth="1"/>
-    <col min="14818" max="14818" width="14.90625" style="1" customWidth="1"/>
-    <col min="14819" max="14819" width="16.90625" style="1" customWidth="1"/>
-    <col min="14820" max="14820" width="7.81640625" style="1" customWidth="1"/>
+    <col min="14566" max="14566" width="16.90625" style="1" customWidth="1"/>
+    <col min="14567" max="14567" width="7.81640625" style="1" customWidth="1"/>
+    <col min="14568" max="14568" width="14.90625" style="1" customWidth="1"/>
+    <col min="14569" max="14569" width="9.1796875" style="1" customWidth="1"/>
+    <col min="14570" max="14570" width="11.1796875" style="1" customWidth="1"/>
+    <col min="14571" max="14571" width="16.1796875" style="1" customWidth="1"/>
+    <col min="14572" max="14572" width="13.08984375" style="1" customWidth="1"/>
+    <col min="14573" max="14575" width="12.81640625" style="1" customWidth="1"/>
+    <col min="14576" max="14576" width="11.90625" style="1" customWidth="1"/>
+    <col min="14577" max="14577" width="12.81640625" style="1" customWidth="1"/>
+    <col min="14578" max="14767" width="7.81640625" style="1" customWidth="1"/>
+    <col min="14768" max="14768" width="5.6328125" style="1" customWidth="1"/>
+    <col min="14769" max="14770" width="10.90625" style="1" customWidth="1"/>
+    <col min="14771" max="14771" width="9.08984375" style="1" customWidth="1"/>
+    <col min="14772" max="14773" width="8.6328125" style="1" customWidth="1"/>
+    <col min="14774" max="14774" width="24" style="1" customWidth="1"/>
+    <col min="14775" max="14775" width="17.81640625" style="1" customWidth="1"/>
+    <col min="14776" max="14777" width="12.81640625" style="1" customWidth="1"/>
+    <col min="14778" max="14778" width="20.1796875" style="1" customWidth="1"/>
+    <col min="14779" max="14814" width="8.36328125" style="1"/>
+    <col min="14815" max="14815" width="6.453125" style="1" customWidth="1"/>
+    <col min="14816" max="14818" width="8.6328125" style="1" customWidth="1"/>
+    <col min="14819" max="14819" width="21.08984375" style="1" customWidth="1"/>
+    <col min="14820" max="14820" width="25.08984375" style="1" customWidth="1"/>
     <col min="14821" max="14821" width="14.90625" style="1" customWidth="1"/>
-    <col min="14822" max="14822" width="9.1796875" style="1" customWidth="1"/>
-    <col min="14823" max="14823" width="11.1796875" style="1" customWidth="1"/>
-    <col min="14824" max="14824" width="16.1796875" style="1" customWidth="1"/>
-    <col min="14825" max="14825" width="13.08984375" style="1" customWidth="1"/>
-    <col min="14826" max="14828" width="12.81640625" style="1" customWidth="1"/>
-    <col min="14829" max="14829" width="11.90625" style="1" customWidth="1"/>
-    <col min="14830" max="14830" width="12.81640625" style="1" customWidth="1"/>
-    <col min="14831" max="15020" width="7.81640625" style="1" customWidth="1"/>
-    <col min="15021" max="15021" width="5.6328125" style="1" customWidth="1"/>
-    <col min="15022" max="15023" width="10.90625" style="1" customWidth="1"/>
-    <col min="15024" max="15024" width="9.08984375" style="1" customWidth="1"/>
-    <col min="15025" max="15026" width="8.6328125" style="1" customWidth="1"/>
-    <col min="15027" max="15027" width="24" style="1" customWidth="1"/>
-    <col min="15028" max="15028" width="17.81640625" style="1" customWidth="1"/>
-    <col min="15029" max="15030" width="12.81640625" style="1" customWidth="1"/>
-    <col min="15031" max="15031" width="20.1796875" style="1" customWidth="1"/>
-    <col min="15032" max="15067" width="8.36328125" style="1"/>
-    <col min="15068" max="15068" width="6.453125" style="1" customWidth="1"/>
-    <col min="15069" max="15071" width="8.6328125" style="1" customWidth="1"/>
-    <col min="15072" max="15072" width="21.08984375" style="1" customWidth="1"/>
-    <col min="15073" max="15073" width="25.08984375" style="1" customWidth="1"/>
-    <col min="15074" max="15074" width="14.90625" style="1" customWidth="1"/>
-    <col min="15075" max="15075" width="16.90625" style="1" customWidth="1"/>
-    <col min="15076" max="15076" width="7.81640625" style="1" customWidth="1"/>
+    <col min="14822" max="14822" width="16.90625" style="1" customWidth="1"/>
+    <col min="14823" max="14823" width="7.81640625" style="1" customWidth="1"/>
+    <col min="14824" max="14824" width="14.90625" style="1" customWidth="1"/>
+    <col min="14825" max="14825" width="9.1796875" style="1" customWidth="1"/>
+    <col min="14826" max="14826" width="11.1796875" style="1" customWidth="1"/>
+    <col min="14827" max="14827" width="16.1796875" style="1" customWidth="1"/>
+    <col min="14828" max="14828" width="13.08984375" style="1" customWidth="1"/>
+    <col min="14829" max="14831" width="12.81640625" style="1" customWidth="1"/>
+    <col min="14832" max="14832" width="11.90625" style="1" customWidth="1"/>
+    <col min="14833" max="14833" width="12.81640625" style="1" customWidth="1"/>
+    <col min="14834" max="15023" width="7.81640625" style="1" customWidth="1"/>
+    <col min="15024" max="15024" width="5.6328125" style="1" customWidth="1"/>
+    <col min="15025" max="15026" width="10.90625" style="1" customWidth="1"/>
+    <col min="15027" max="15027" width="9.08984375" style="1" customWidth="1"/>
+    <col min="15028" max="15029" width="8.6328125" style="1" customWidth="1"/>
+    <col min="15030" max="15030" width="24" style="1" customWidth="1"/>
+    <col min="15031" max="15031" width="17.81640625" style="1" customWidth="1"/>
+    <col min="15032" max="15033" width="12.81640625" style="1" customWidth="1"/>
+    <col min="15034" max="15034" width="20.1796875" style="1" customWidth="1"/>
+    <col min="15035" max="15070" width="8.36328125" style="1"/>
+    <col min="15071" max="15071" width="6.453125" style="1" customWidth="1"/>
+    <col min="15072" max="15074" width="8.6328125" style="1" customWidth="1"/>
+    <col min="15075" max="15075" width="21.08984375" style="1" customWidth="1"/>
+    <col min="15076" max="15076" width="25.08984375" style="1" customWidth="1"/>
     <col min="15077" max="15077" width="14.90625" style="1" customWidth="1"/>
-    <col min="15078" max="15078" width="9.1796875" style="1" customWidth="1"/>
-    <col min="15079" max="15079" width="11.1796875" style="1" customWidth="1"/>
-    <col min="15080" max="15080" width="16.1796875" style="1" customWidth="1"/>
-    <col min="15081" max="15081" width="13.08984375" style="1" customWidth="1"/>
-    <col min="15082" max="15084" width="12.81640625" style="1" customWidth="1"/>
-    <col min="15085" max="15085" width="11.90625" style="1" customWidth="1"/>
-    <col min="15086" max="15086" width="12.81640625" style="1" customWidth="1"/>
-    <col min="15087" max="15276" width="7.81640625" style="1" customWidth="1"/>
-    <col min="15277" max="15277" width="5.6328125" style="1" customWidth="1"/>
-    <col min="15278" max="15279" width="10.90625" style="1" customWidth="1"/>
-    <col min="15280" max="15280" width="9.08984375" style="1" customWidth="1"/>
-    <col min="15281" max="15282" width="8.6328125" style="1" customWidth="1"/>
-    <col min="15283" max="15283" width="24" style="1" customWidth="1"/>
-    <col min="15284" max="15284" width="17.81640625" style="1" customWidth="1"/>
-    <col min="15285" max="15286" width="12.81640625" style="1" customWidth="1"/>
-    <col min="15287" max="15287" width="20.1796875" style="1" customWidth="1"/>
-    <col min="15288" max="15323" width="8.36328125" style="1"/>
-    <col min="15324" max="15324" width="6.453125" style="1" customWidth="1"/>
-    <col min="15325" max="15327" width="8.6328125" style="1" customWidth="1"/>
-    <col min="15328" max="15328" width="21.08984375" style="1" customWidth="1"/>
-    <col min="15329" max="15329" width="25.08984375" style="1" customWidth="1"/>
-    <col min="15330" max="15330" width="14.90625" style="1" customWidth="1"/>
-    <col min="15331" max="15331" width="16.90625" style="1" customWidth="1"/>
-    <col min="15332" max="15332" width="7.81640625" style="1" customWidth="1"/>
+    <col min="15078" max="15078" width="16.90625" style="1" customWidth="1"/>
+    <col min="15079" max="15079" width="7.81640625" style="1" customWidth="1"/>
+    <col min="15080" max="15080" width="14.90625" style="1" customWidth="1"/>
+    <col min="15081" max="15081" width="9.1796875" style="1" customWidth="1"/>
+    <col min="15082" max="15082" width="11.1796875" style="1" customWidth="1"/>
+    <col min="15083" max="15083" width="16.1796875" style="1" customWidth="1"/>
+    <col min="15084" max="15084" width="13.08984375" style="1" customWidth="1"/>
+    <col min="15085" max="15087" width="12.81640625" style="1" customWidth="1"/>
+    <col min="15088" max="15088" width="11.90625" style="1" customWidth="1"/>
+    <col min="15089" max="15089" width="12.81640625" style="1" customWidth="1"/>
+    <col min="15090" max="15279" width="7.81640625" style="1" customWidth="1"/>
+    <col min="15280" max="15280" width="5.6328125" style="1" customWidth="1"/>
+    <col min="15281" max="15282" width="10.90625" style="1" customWidth="1"/>
+    <col min="15283" max="15283" width="9.08984375" style="1" customWidth="1"/>
+    <col min="15284" max="15285" width="8.6328125" style="1" customWidth="1"/>
+    <col min="15286" max="15286" width="24" style="1" customWidth="1"/>
+    <col min="15287" max="15287" width="17.81640625" style="1" customWidth="1"/>
+    <col min="15288" max="15289" width="12.81640625" style="1" customWidth="1"/>
+    <col min="15290" max="15290" width="20.1796875" style="1" customWidth="1"/>
+    <col min="15291" max="15326" width="8.36328125" style="1"/>
+    <col min="15327" max="15327" width="6.453125" style="1" customWidth="1"/>
+    <col min="15328" max="15330" width="8.6328125" style="1" customWidth="1"/>
+    <col min="15331" max="15331" width="21.08984375" style="1" customWidth="1"/>
+    <col min="15332" max="15332" width="25.08984375" style="1" customWidth="1"/>
     <col min="15333" max="15333" width="14.90625" style="1" customWidth="1"/>
-    <col min="15334" max="15334" width="9.1796875" style="1" customWidth="1"/>
-    <col min="15335" max="15335" width="11.1796875" style="1" customWidth="1"/>
-    <col min="15336" max="15336" width="16.1796875" style="1" customWidth="1"/>
-    <col min="15337" max="15337" width="13.08984375" style="1" customWidth="1"/>
-    <col min="15338" max="15340" width="12.81640625" style="1" customWidth="1"/>
-    <col min="15341" max="15341" width="11.90625" style="1" customWidth="1"/>
-    <col min="15342" max="15342" width="12.81640625" style="1" customWidth="1"/>
-    <col min="15343" max="15532" width="7.81640625" style="1" customWidth="1"/>
-    <col min="15533" max="15533" width="5.6328125" style="1" customWidth="1"/>
-    <col min="15534" max="15535" width="10.90625" style="1" customWidth="1"/>
-    <col min="15536" max="15536" width="9.08984375" style="1" customWidth="1"/>
-    <col min="15537" max="15538" width="8.6328125" style="1" customWidth="1"/>
-    <col min="15539" max="15539" width="24" style="1" customWidth="1"/>
-    <col min="15540" max="15540" width="17.81640625" style="1" customWidth="1"/>
-    <col min="15541" max="15542" width="12.81640625" style="1" customWidth="1"/>
-    <col min="15543" max="15543" width="20.1796875" style="1" customWidth="1"/>
-    <col min="15544" max="15579" width="8.36328125" style="1"/>
-    <col min="15580" max="15580" width="6.453125" style="1" customWidth="1"/>
-    <col min="15581" max="15583" width="8.6328125" style="1" customWidth="1"/>
-    <col min="15584" max="15584" width="21.08984375" style="1" customWidth="1"/>
-    <col min="15585" max="15585" width="25.08984375" style="1" customWidth="1"/>
-    <col min="15586" max="15586" width="14.90625" style="1" customWidth="1"/>
-    <col min="15587" max="15587" width="16.90625" style="1" customWidth="1"/>
-    <col min="15588" max="15588" width="7.81640625" style="1" customWidth="1"/>
+    <col min="15334" max="15334" width="16.90625" style="1" customWidth="1"/>
+    <col min="15335" max="15335" width="7.81640625" style="1" customWidth="1"/>
+    <col min="15336" max="15336" width="14.90625" style="1" customWidth="1"/>
+    <col min="15337" max="15337" width="9.1796875" style="1" customWidth="1"/>
+    <col min="15338" max="15338" width="11.1796875" style="1" customWidth="1"/>
+    <col min="15339" max="15339" width="16.1796875" style="1" customWidth="1"/>
+    <col min="15340" max="15340" width="13.08984375" style="1" customWidth="1"/>
+    <col min="15341" max="15343" width="12.81640625" style="1" customWidth="1"/>
+    <col min="15344" max="15344" width="11.90625" style="1" customWidth="1"/>
+    <col min="15345" max="15345" width="12.81640625" style="1" customWidth="1"/>
+    <col min="15346" max="15535" width="7.81640625" style="1" customWidth="1"/>
+    <col min="15536" max="15536" width="5.6328125" style="1" customWidth="1"/>
+    <col min="15537" max="15538" width="10.90625" style="1" customWidth="1"/>
+    <col min="15539" max="15539" width="9.08984375" style="1" customWidth="1"/>
+    <col min="15540" max="15541" width="8.6328125" style="1" customWidth="1"/>
+    <col min="15542" max="15542" width="24" style="1" customWidth="1"/>
+    <col min="15543" max="15543" width="17.81640625" style="1" customWidth="1"/>
+    <col min="15544" max="15545" width="12.81640625" style="1" customWidth="1"/>
+    <col min="15546" max="15546" width="20.1796875" style="1" customWidth="1"/>
+    <col min="15547" max="15582" width="8.36328125" style="1"/>
+    <col min="15583" max="15583" width="6.453125" style="1" customWidth="1"/>
+    <col min="15584" max="15586" width="8.6328125" style="1" customWidth="1"/>
+    <col min="15587" max="15587" width="21.08984375" style="1" customWidth="1"/>
+    <col min="15588" max="15588" width="25.08984375" style="1" customWidth="1"/>
     <col min="15589" max="15589" width="14.90625" style="1" customWidth="1"/>
-    <col min="15590" max="15590" width="9.1796875" style="1" customWidth="1"/>
-    <col min="15591" max="15591" width="11.1796875" style="1" customWidth="1"/>
-    <col min="15592" max="15592" width="16.1796875" style="1" customWidth="1"/>
-    <col min="15593" max="15593" width="13.08984375" style="1" customWidth="1"/>
-    <col min="15594" max="15596" width="12.81640625" style="1" customWidth="1"/>
-    <col min="15597" max="15597" width="11.90625" style="1" customWidth="1"/>
-    <col min="15598" max="15598" width="12.81640625" style="1" customWidth="1"/>
-    <col min="15599" max="15788" width="7.81640625" style="1" customWidth="1"/>
-    <col min="15789" max="15789" width="5.6328125" style="1" customWidth="1"/>
-    <col min="15790" max="15791" width="10.90625" style="1" customWidth="1"/>
-    <col min="15792" max="15792" width="9.08984375" style="1" customWidth="1"/>
-    <col min="15793" max="15794" width="8.6328125" style="1" customWidth="1"/>
-    <col min="15795" max="15795" width="24" style="1" customWidth="1"/>
-    <col min="15796" max="15796" width="17.81640625" style="1" customWidth="1"/>
-    <col min="15797" max="15798" width="12.81640625" style="1" customWidth="1"/>
-    <col min="15799" max="15799" width="20.1796875" style="1" customWidth="1"/>
-    <col min="15800" max="15835" width="8.36328125" style="1"/>
-    <col min="15836" max="15836" width="6.453125" style="1" customWidth="1"/>
-    <col min="15837" max="15839" width="8.6328125" style="1" customWidth="1"/>
-    <col min="15840" max="15840" width="21.08984375" style="1" customWidth="1"/>
-    <col min="15841" max="15841" width="25.08984375" style="1" customWidth="1"/>
-    <col min="15842" max="15842" width="14.90625" style="1" customWidth="1"/>
-    <col min="15843" max="15843" width="16.90625" style="1" customWidth="1"/>
-    <col min="15844" max="15844" width="7.81640625" style="1" customWidth="1"/>
+    <col min="15590" max="15590" width="16.90625" style="1" customWidth="1"/>
+    <col min="15591" max="15591" width="7.81640625" style="1" customWidth="1"/>
+    <col min="15592" max="15592" width="14.90625" style="1" customWidth="1"/>
+    <col min="15593" max="15593" width="9.1796875" style="1" customWidth="1"/>
+    <col min="15594" max="15594" width="11.1796875" style="1" customWidth="1"/>
+    <col min="15595" max="15595" width="16.1796875" style="1" customWidth="1"/>
+    <col min="15596" max="15596" width="13.08984375" style="1" customWidth="1"/>
+    <col min="15597" max="15599" width="12.81640625" style="1" customWidth="1"/>
+    <col min="15600" max="15600" width="11.90625" style="1" customWidth="1"/>
+    <col min="15601" max="15601" width="12.81640625" style="1" customWidth="1"/>
+    <col min="15602" max="15791" width="7.81640625" style="1" customWidth="1"/>
+    <col min="15792" max="15792" width="5.6328125" style="1" customWidth="1"/>
+    <col min="15793" max="15794" width="10.90625" style="1" customWidth="1"/>
+    <col min="15795" max="15795" width="9.08984375" style="1" customWidth="1"/>
+    <col min="15796" max="15797" width="8.6328125" style="1" customWidth="1"/>
+    <col min="15798" max="15798" width="24" style="1" customWidth="1"/>
+    <col min="15799" max="15799" width="17.81640625" style="1" customWidth="1"/>
+    <col min="15800" max="15801" width="12.81640625" style="1" customWidth="1"/>
+    <col min="15802" max="15802" width="20.1796875" style="1" customWidth="1"/>
+    <col min="15803" max="15838" width="8.36328125" style="1"/>
+    <col min="15839" max="15839" width="6.453125" style="1" customWidth="1"/>
+    <col min="15840" max="15842" width="8.6328125" style="1" customWidth="1"/>
+    <col min="15843" max="15843" width="21.08984375" style="1" customWidth="1"/>
+    <col min="15844" max="15844" width="25.08984375" style="1" customWidth="1"/>
     <col min="15845" max="15845" width="14.90625" style="1" customWidth="1"/>
-    <col min="15846" max="15846" width="9.1796875" style="1" customWidth="1"/>
-    <col min="15847" max="15847" width="11.1796875" style="1" customWidth="1"/>
-    <col min="15848" max="15848" width="16.1796875" style="1" customWidth="1"/>
-    <col min="15849" max="15849" width="13.08984375" style="1" customWidth="1"/>
-    <col min="15850" max="15852" width="12.81640625" style="1" customWidth="1"/>
-    <col min="15853" max="15853" width="11.90625" style="1" customWidth="1"/>
-    <col min="15854" max="15854" width="12.81640625" style="1" customWidth="1"/>
-    <col min="15855" max="16044" width="7.81640625" style="1" customWidth="1"/>
-    <col min="16045" max="16045" width="5.6328125" style="1" customWidth="1"/>
-    <col min="16046" max="16047" width="10.90625" style="1" customWidth="1"/>
-    <col min="16048" max="16048" width="9.08984375" style="1" customWidth="1"/>
-    <col min="16049" max="16050" width="8.6328125" style="1" customWidth="1"/>
-    <col min="16051" max="16051" width="24" style="1" customWidth="1"/>
-    <col min="16052" max="16052" width="17.81640625" style="1" customWidth="1"/>
-    <col min="16053" max="16054" width="12.81640625" style="1" customWidth="1"/>
-    <col min="16055" max="16055" width="20.1796875" style="1" customWidth="1"/>
-    <col min="16056" max="16091" width="8.36328125" style="1"/>
-    <col min="16092" max="16092" width="6.453125" style="1" customWidth="1"/>
-    <col min="16093" max="16095" width="8.6328125" style="1" customWidth="1"/>
-    <col min="16096" max="16096" width="21.08984375" style="1" customWidth="1"/>
-    <col min="16097" max="16097" width="25.08984375" style="1" customWidth="1"/>
-    <col min="16098" max="16098" width="14.90625" style="1" customWidth="1"/>
-    <col min="16099" max="16099" width="16.90625" style="1" customWidth="1"/>
-    <col min="16100" max="16100" width="7.81640625" style="1" customWidth="1"/>
+    <col min="15846" max="15846" width="16.90625" style="1" customWidth="1"/>
+    <col min="15847" max="15847" width="7.81640625" style="1" customWidth="1"/>
+    <col min="15848" max="15848" width="14.90625" style="1" customWidth="1"/>
+    <col min="15849" max="15849" width="9.1796875" style="1" customWidth="1"/>
+    <col min="15850" max="15850" width="11.1796875" style="1" customWidth="1"/>
+    <col min="15851" max="15851" width="16.1796875" style="1" customWidth="1"/>
+    <col min="15852" max="15852" width="13.08984375" style="1" customWidth="1"/>
+    <col min="15853" max="15855" width="12.81640625" style="1" customWidth="1"/>
+    <col min="15856" max="15856" width="11.90625" style="1" customWidth="1"/>
+    <col min="15857" max="15857" width="12.81640625" style="1" customWidth="1"/>
+    <col min="15858" max="16047" width="7.81640625" style="1" customWidth="1"/>
+    <col min="16048" max="16048" width="5.6328125" style="1" customWidth="1"/>
+    <col min="16049" max="16050" width="10.90625" style="1" customWidth="1"/>
+    <col min="16051" max="16051" width="9.08984375" style="1" customWidth="1"/>
+    <col min="16052" max="16053" width="8.6328125" style="1" customWidth="1"/>
+    <col min="16054" max="16054" width="24" style="1" customWidth="1"/>
+    <col min="16055" max="16055" width="17.81640625" style="1" customWidth="1"/>
+    <col min="16056" max="16057" width="12.81640625" style="1" customWidth="1"/>
+    <col min="16058" max="16058" width="20.1796875" style="1" customWidth="1"/>
+    <col min="16059" max="16094" width="8.36328125" style="1"/>
+    <col min="16095" max="16095" width="6.453125" style="1" customWidth="1"/>
+    <col min="16096" max="16098" width="8.6328125" style="1" customWidth="1"/>
+    <col min="16099" max="16099" width="21.08984375" style="1" customWidth="1"/>
+    <col min="16100" max="16100" width="25.08984375" style="1" customWidth="1"/>
     <col min="16101" max="16101" width="14.90625" style="1" customWidth="1"/>
-    <col min="16102" max="16102" width="9.1796875" style="1" customWidth="1"/>
-    <col min="16103" max="16103" width="11.1796875" style="1" customWidth="1"/>
-    <col min="16104" max="16104" width="16.1796875" style="1" customWidth="1"/>
-    <col min="16105" max="16105" width="13.08984375" style="1" customWidth="1"/>
-    <col min="16106" max="16108" width="12.81640625" style="1" customWidth="1"/>
-    <col min="16109" max="16109" width="11.90625" style="1" customWidth="1"/>
-    <col min="16110" max="16110" width="12.81640625" style="1" customWidth="1"/>
-    <col min="16111" max="16300" width="7.81640625" style="1" customWidth="1"/>
-    <col min="16301" max="16301" width="5.6328125" style="1" customWidth="1"/>
-    <col min="16302" max="16303" width="10.90625" style="1" customWidth="1"/>
-    <col min="16304" max="16304" width="9.08984375" style="1" customWidth="1"/>
-    <col min="16305" max="16306" width="8.6328125" style="1" customWidth="1"/>
-    <col min="16307" max="16307" width="24" style="1" customWidth="1"/>
-    <col min="16308" max="16308" width="17.81640625" style="1" customWidth="1"/>
-    <col min="16309" max="16310" width="12.81640625" style="1" customWidth="1"/>
-    <col min="16311" max="16311" width="20.1796875" style="1" customWidth="1"/>
-    <col min="16312" max="16384" width="8.36328125" style="1"/>
+    <col min="16102" max="16102" width="16.90625" style="1" customWidth="1"/>
+    <col min="16103" max="16103" width="7.81640625" style="1" customWidth="1"/>
+    <col min="16104" max="16104" width="14.90625" style="1" customWidth="1"/>
+    <col min="16105" max="16105" width="9.1796875" style="1" customWidth="1"/>
+    <col min="16106" max="16106" width="11.1796875" style="1" customWidth="1"/>
+    <col min="16107" max="16107" width="16.1796875" style="1" customWidth="1"/>
+    <col min="16108" max="16108" width="13.08984375" style="1" customWidth="1"/>
+    <col min="16109" max="16111" width="12.81640625" style="1" customWidth="1"/>
+    <col min="16112" max="16112" width="11.90625" style="1" customWidth="1"/>
+    <col min="16113" max="16113" width="12.81640625" style="1" customWidth="1"/>
+    <col min="16114" max="16303" width="7.81640625" style="1" customWidth="1"/>
+    <col min="16304" max="16304" width="5.6328125" style="1" customWidth="1"/>
+    <col min="16305" max="16306" width="10.90625" style="1" customWidth="1"/>
+    <col min="16307" max="16307" width="9.08984375" style="1" customWidth="1"/>
+    <col min="16308" max="16309" width="8.6328125" style="1" customWidth="1"/>
+    <col min="16310" max="16310" width="24" style="1" customWidth="1"/>
+    <col min="16311" max="16311" width="17.81640625" style="1" customWidth="1"/>
+    <col min="16312" max="16313" width="12.81640625" style="1" customWidth="1"/>
+    <col min="16314" max="16314" width="20.1796875" style="1" customWidth="1"/>
+    <col min="16315" max="16384" width="8.36328125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21">
-      <c r="D1" s="2" t="s">
+    <row r="1" spans="1:24" ht="101.25" customHeight="1">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="O1" s="4"/>
-      <c r="Q1" s="4"/>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="R1" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="S1" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="T1" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="U1" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="V1" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="W1" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="X1" s="5" t="s">
+        <v>215</v>
+      </c>
     </row>
-    <row r="2" spans="1:21">
-      <c r="D2" s="5" t="s">
+    <row r="2" spans="1:24" s="17" customFormat="1" ht="28.8">
+      <c r="A2" s="6">
         <v>1</v>
       </c>
-      <c r="O2" s="6"/>
-      <c r="Q2" s="6"/>
+      <c r="B2" s="7">
+        <v>72</v>
+      </c>
+      <c r="C2" s="8">
+        <v>1</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2" s="15" t="s">
+        <v>172</v>
+      </c>
+      <c r="N2" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="O2" s="16">
+        <v>7690</v>
+      </c>
+      <c r="P2" s="16">
+        <v>7690</v>
+      </c>
+      <c r="Q2" s="24">
+        <v>2800</v>
+      </c>
+      <c r="R2" s="16">
+        <v>1</v>
+      </c>
+      <c r="S2" s="15"/>
+      <c r="T2" s="15"/>
+      <c r="U2" s="15"/>
+      <c r="V2" s="15"/>
+      <c r="W2" s="15"/>
+      <c r="X2" s="15"/>
     </row>
-    <row r="3" spans="1:21">
-      <c r="D3" s="5" t="s">
+    <row r="3" spans="1:24" s="17" customFormat="1" ht="28.8">
+      <c r="A3" s="6">
         <v>2</v>
       </c>
-      <c r="O3" s="6"/>
-      <c r="Q3" s="6"/>
+      <c r="B3" s="7">
+        <v>548</v>
+      </c>
+      <c r="C3" s="8">
+        <v>1</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="I3" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="J3" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="K3" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="L3" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="M3" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="N3" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="O3" s="16">
+        <v>15500</v>
+      </c>
+      <c r="P3" s="16">
+        <v>15400</v>
+      </c>
+      <c r="Q3" s="24">
+        <v>6800</v>
+      </c>
+      <c r="R3" s="16">
+        <v>1</v>
+      </c>
+      <c r="S3" s="15"/>
+      <c r="T3" s="15"/>
+      <c r="U3" s="15"/>
+      <c r="V3" s="15"/>
+      <c r="W3" s="15"/>
+      <c r="X3" s="15"/>
     </row>
-    <row r="4" spans="1:21">
-      <c r="D4" s="5" t="s">
+    <row r="4" spans="1:24" s="17" customFormat="1" ht="28.8">
+      <c r="A4" s="6">
         <v>3</v>
       </c>
-      <c r="O4" s="4"/>
-      <c r="Q4" s="4"/>
+      <c r="B4" s="7">
+        <v>48</v>
+      </c>
+      <c r="C4" s="8">
+        <v>1</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="I4" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="J4" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="K4" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="L4" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="M4" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="N4" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="O4" s="16">
+        <v>8500</v>
+      </c>
+      <c r="P4" s="16">
+        <v>7791</v>
+      </c>
+      <c r="Q4" s="24">
+        <v>3750</v>
+      </c>
+      <c r="R4" s="16">
+        <v>1</v>
+      </c>
+      <c r="S4" s="15"/>
+      <c r="T4" s="15"/>
+      <c r="U4" s="15"/>
+      <c r="V4" s="15"/>
+      <c r="W4" s="15"/>
+      <c r="X4" s="15"/>
     </row>
-    <row r="5" spans="1:21">
-      <c r="D5" s="5" t="s">
+    <row r="5" spans="1:24" s="17" customFormat="1" ht="28.8">
+      <c r="A5" s="6">
         <v>4</v>
       </c>
-      <c r="G5" s="29"/>
-      <c r="H5" s="29"/>
-      <c r="I5" s="29"/>
-      <c r="J5" s="29"/>
-      <c r="K5" s="29"/>
-      <c r="L5" s="29"/>
-      <c r="M5" s="29"/>
-      <c r="N5" s="29"/>
-      <c r="O5" s="29"/>
-      <c r="P5" s="29"/>
-      <c r="Q5" s="6"/>
+      <c r="B5" s="7">
+        <v>155</v>
+      </c>
+      <c r="C5" s="8">
+        <v>1</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="I5" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="J5" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="K5" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="L5" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="M5" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="N5" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="O5" s="16">
+        <v>8000</v>
+      </c>
+      <c r="P5" s="16">
+        <v>6800</v>
+      </c>
+      <c r="Q5" s="24">
+        <v>3400</v>
+      </c>
+      <c r="R5" s="16">
+        <v>1</v>
+      </c>
+      <c r="S5" s="15"/>
+      <c r="T5" s="15"/>
+      <c r="U5" s="15"/>
+      <c r="V5" s="15"/>
+      <c r="W5" s="15"/>
+      <c r="X5" s="15"/>
     </row>
-    <row r="6" spans="1:21" ht="46.5" customHeight="1">
-      <c r="A6" s="30" t="s">
+    <row r="6" spans="1:24" s="17" customFormat="1" ht="28.8">
+      <c r="A6" s="6">
         <v>5</v>
       </c>
-      <c r="B6" s="30"/>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="30"/>
-      <c r="H6" s="30"/>
-      <c r="I6" s="30"/>
-      <c r="J6" s="30"/>
-      <c r="K6" s="30"/>
-      <c r="L6" s="30"/>
-      <c r="M6" s="30"/>
-      <c r="N6" s="30"/>
-      <c r="O6" s="30"/>
-      <c r="P6" s="30"/>
-      <c r="Q6" s="30"/>
+      <c r="B6" s="7">
+        <v>427</v>
+      </c>
+      <c r="C6" s="8">
+        <v>2</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="I6" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="J6" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="K6" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="L6" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="M6" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="N6" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="O6" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="P6" s="16">
+        <v>4000</v>
+      </c>
+      <c r="Q6" s="24">
+        <v>1050</v>
+      </c>
+      <c r="R6" s="16">
+        <v>1</v>
+      </c>
+      <c r="S6" s="15"/>
+      <c r="T6" s="15"/>
+      <c r="U6" s="15"/>
+      <c r="V6" s="15"/>
+      <c r="W6" s="15"/>
+      <c r="X6" s="15"/>
     </row>
-    <row r="7" spans="1:21" s="7" customFormat="1" ht="27.75" customHeight="1">
-      <c r="A7" s="31" t="s">
+    <row r="7" spans="1:24" s="17" customFormat="1" ht="43.2">
+      <c r="A7" s="6">
         <v>6</v>
       </c>
-      <c r="B7" s="31"/>
-      <c r="C7" s="31"/>
-      <c r="D7" s="31"/>
-      <c r="E7" s="31"/>
-      <c r="F7" s="31"/>
-      <c r="G7" s="31"/>
-      <c r="H7" s="31"/>
-      <c r="I7" s="31"/>
-      <c r="J7" s="31"/>
-      <c r="K7" s="31"/>
-      <c r="L7" s="31"/>
-      <c r="M7" s="31"/>
-      <c r="N7" s="31"/>
-      <c r="O7" s="31"/>
-      <c r="P7" s="31"/>
-      <c r="Q7" s="31"/>
+      <c r="B7" s="7">
+        <v>317</v>
+      </c>
+      <c r="C7" s="8">
+        <v>2</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="I7" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="J7" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="K7" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="L7" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="M7" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="N7" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="O7" s="16">
+        <v>62000</v>
+      </c>
+      <c r="P7" s="16">
+        <v>62000</v>
+      </c>
+      <c r="Q7" s="24">
+        <v>32000</v>
+      </c>
+      <c r="R7" s="16">
+        <v>1</v>
+      </c>
+      <c r="S7" s="15"/>
+      <c r="T7" s="15"/>
+      <c r="U7" s="15"/>
+      <c r="V7" s="15"/>
+      <c r="W7" s="15"/>
+      <c r="X7" s="15"/>
     </row>
-    <row r="8" spans="1:21" ht="25.5" customHeight="1">
-      <c r="A8" s="32" t="s">
+    <row r="8" spans="1:24" s="17" customFormat="1" ht="43.2">
+      <c r="A8" s="6">
         <v>7</v>
       </c>
-      <c r="B8" s="32"/>
-      <c r="C8" s="32"/>
-      <c r="D8" s="32"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="32"/>
-      <c r="G8" s="32"/>
-      <c r="H8" s="32"/>
-      <c r="I8" s="32"/>
-      <c r="J8" s="32"/>
-      <c r="K8" s="32"/>
-      <c r="L8" s="32"/>
-      <c r="M8" s="32"/>
-      <c r="N8" s="32"/>
-      <c r="O8" s="32"/>
-      <c r="P8" s="32"/>
-      <c r="Q8" s="32"/>
+      <c r="B8" s="7">
+        <v>43</v>
+      </c>
+      <c r="C8" s="8">
+        <v>2</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="I8" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="J8" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="K8" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="L8" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="M8" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="N8" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="O8" s="16">
+        <v>98000</v>
+      </c>
+      <c r="P8" s="16">
+        <v>98000</v>
+      </c>
+      <c r="Q8" s="24">
+        <v>36600</v>
+      </c>
+      <c r="R8" s="16">
+        <v>1</v>
+      </c>
+      <c r="S8" s="15"/>
+      <c r="T8" s="15"/>
+      <c r="U8" s="15"/>
+      <c r="V8" s="15"/>
+      <c r="W8" s="15"/>
+      <c r="X8" s="15"/>
     </row>
-    <row r="9" spans="1:21" ht="101.25" customHeight="1">
-      <c r="A9" s="8" t="s">
+    <row r="9" spans="1:24" s="17" customFormat="1" ht="57.6">
+      <c r="A9" s="6">
         <v>8</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="7">
+        <v>169</v>
+      </c>
+      <c r="C9" s="8">
+        <v>4</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="I9" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="J9" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="K9" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="L9" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="M9" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="N9" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="O9" s="16">
+        <v>4550</v>
+      </c>
+      <c r="P9" s="16">
+        <v>4550</v>
+      </c>
+      <c r="Q9" s="24">
+        <v>2843</v>
+      </c>
+      <c r="R9" s="16">
+        <v>1</v>
+      </c>
+      <c r="S9" s="15"/>
+      <c r="T9" s="15"/>
+      <c r="U9" s="15"/>
+      <c r="V9" s="15"/>
+      <c r="W9" s="15"/>
+      <c r="X9" s="15"/>
+    </row>
+    <row r="10" spans="1:24" s="17" customFormat="1" ht="43.2">
+      <c r="A10" s="6">
         <v>9</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="B10" s="7">
+        <v>962</v>
+      </c>
+      <c r="C10" s="8">
+        <v>4</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="I10" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="J10" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="K10" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="L10" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="M10" s="15" t="s">
+        <v>179</v>
+      </c>
+      <c r="N10" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="O10" s="16">
+        <v>49000</v>
+      </c>
+      <c r="P10" s="16">
+        <v>49000</v>
+      </c>
+      <c r="Q10" s="24">
+        <v>25000</v>
+      </c>
+      <c r="R10" s="16">
+        <v>1</v>
+      </c>
+      <c r="S10" s="15"/>
+      <c r="T10" s="15"/>
+      <c r="U10" s="15"/>
+      <c r="V10" s="15"/>
+      <c r="W10" s="15"/>
+      <c r="X10" s="15"/>
+    </row>
+    <row r="11" spans="1:24" s="17" customFormat="1" ht="43.2">
+      <c r="A11" s="6">
         <v>10</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="B11" s="7">
+        <v>317</v>
+      </c>
+      <c r="C11" s="8">
+        <v>2</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="I11" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="J11" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="K11" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="L11" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="M11" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="N11" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="O11" s="16">
+        <v>26000</v>
+      </c>
+      <c r="P11" s="16">
+        <v>26000</v>
+      </c>
+      <c r="Q11" s="24">
+        <v>13500</v>
+      </c>
+      <c r="R11" s="16">
+        <v>1</v>
+      </c>
+      <c r="S11" s="15"/>
+      <c r="T11" s="15"/>
+      <c r="U11" s="15"/>
+      <c r="V11" s="15"/>
+      <c r="W11" s="15"/>
+      <c r="X11" s="15"/>
+    </row>
+    <row r="12" spans="1:24" s="17" customFormat="1" ht="28.8">
+      <c r="A12" s="6">
         <v>11</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="B12" s="25">
+        <v>968</v>
+      </c>
+      <c r="C12" s="26">
+        <v>4</v>
+      </c>
+      <c r="D12" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="E12" s="28" t="s">
+        <v>90</v>
+      </c>
+      <c r="F12" s="29" t="s">
+        <v>182</v>
+      </c>
+      <c r="G12" s="30" t="s">
+        <v>183</v>
+      </c>
+      <c r="H12" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="I12" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="J12" s="31" t="s">
+        <v>184</v>
+      </c>
+      <c r="K12" s="32" t="s">
+        <v>185</v>
+      </c>
+      <c r="L12" s="33" t="s">
+        <v>186</v>
+      </c>
+      <c r="M12" s="34" t="s">
+        <v>187</v>
+      </c>
+      <c r="N12" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="O12" s="35">
+        <v>30000</v>
+      </c>
+      <c r="P12" s="35">
+        <v>30000</v>
+      </c>
+      <c r="Q12" s="36">
+        <v>13000</v>
+      </c>
+      <c r="R12" s="16">
+        <v>0</v>
+      </c>
+      <c r="S12" s="15"/>
+      <c r="T12" s="15"/>
+      <c r="U12" s="15"/>
+      <c r="V12" s="15"/>
+      <c r="W12" s="15"/>
+      <c r="X12" s="15"/>
+    </row>
+    <row r="13" spans="1:24" s="17" customFormat="1" ht="62.25" customHeight="1">
+      <c r="A13" s="6">
         <v>12</v>
       </c>
-      <c r="F9" s="8" t="s">
+      <c r="B13" s="7">
+        <v>968</v>
+      </c>
+      <c r="C13" s="8">
+        <v>4</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="H13" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="I13" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="J13" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="K13" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="L13" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="M13" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="N13" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="O13" s="16">
+        <v>30000</v>
+      </c>
+      <c r="P13" s="16">
+        <v>30000</v>
+      </c>
+      <c r="Q13" s="24">
+        <v>15000</v>
+      </c>
+      <c r="R13" s="16">
+        <v>1</v>
+      </c>
+      <c r="S13" s="15"/>
+      <c r="T13" s="15"/>
+      <c r="U13" s="15"/>
+      <c r="V13" s="15"/>
+      <c r="W13" s="15"/>
+      <c r="X13" s="15"/>
+    </row>
+    <row r="14" spans="1:24" s="17" customFormat="1" ht="28.8">
+      <c r="A14" s="6">
         <v>13</v>
       </c>
-      <c r="G9" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="H9" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="I9" s="8" t="s">
+      <c r="B14" s="7">
+        <v>968</v>
+      </c>
+      <c r="C14" s="8">
+        <v>4</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="G14" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="H14" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="I14" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="J14" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="K14" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="L14" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="M14" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="N14" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="O14" s="16">
+        <v>67000</v>
+      </c>
+      <c r="P14" s="16">
+        <v>65000</v>
+      </c>
+      <c r="Q14" s="24">
+        <v>24000</v>
+      </c>
+      <c r="R14" s="16">
+        <v>1</v>
+      </c>
+      <c r="S14" s="15"/>
+      <c r="T14" s="15"/>
+      <c r="U14" s="15"/>
+      <c r="V14" s="15"/>
+      <c r="W14" s="15"/>
+      <c r="X14" s="15"/>
+    </row>
+    <row r="15" spans="1:24" s="17" customFormat="1" ht="86.4">
+      <c r="A15" s="6">
         <v>14</v>
       </c>
-      <c r="J9" s="8" t="s">
+      <c r="B15" s="7">
+        <v>1007</v>
+      </c>
+      <c r="C15" s="8">
+        <v>4</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="H15" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="I15" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="J15" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="K15" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="L15" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="M15" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="N15" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="O15" s="16">
+        <v>4760</v>
+      </c>
+      <c r="P15" s="16">
+        <v>4760</v>
+      </c>
+      <c r="Q15" s="24">
+        <v>1980</v>
+      </c>
+      <c r="R15" s="16">
+        <v>1</v>
+      </c>
+      <c r="S15" s="15"/>
+      <c r="T15" s="15"/>
+      <c r="U15" s="15"/>
+      <c r="V15" s="15"/>
+      <c r="W15" s="15"/>
+      <c r="X15" s="15"/>
+    </row>
+    <row r="16" spans="1:24" s="17" customFormat="1" ht="28.8">
+      <c r="A16" s="6">
         <v>15</v>
       </c>
-      <c r="K9" s="8" t="s">
+      <c r="B16" s="7">
+        <v>501</v>
+      </c>
+      <c r="C16" s="8">
+        <v>3</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="G16" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="H16" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="I16" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="J16" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="K16" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="L16" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="M16" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="N16" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="O16" s="16">
+        <v>9000</v>
+      </c>
+      <c r="P16" s="16">
+        <v>9000</v>
+      </c>
+      <c r="Q16" s="24">
+        <v>4218</v>
+      </c>
+      <c r="R16" s="16">
+        <v>1</v>
+      </c>
+      <c r="S16" s="15"/>
+      <c r="T16" s="15"/>
+      <c r="U16" s="15"/>
+      <c r="V16" s="15"/>
+      <c r="W16" s="15"/>
+      <c r="X16" s="15"/>
+    </row>
+    <row r="17" spans="1:24" s="17" customFormat="1" ht="43.2">
+      <c r="A17" s="6">
         <v>16</v>
       </c>
-      <c r="L9" s="9" t="s">
+      <c r="B17" s="7">
+        <v>675</v>
+      </c>
+      <c r="C17" s="8">
+        <v>4</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="G17" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="H17" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="I17" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="J17" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="K17" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="L17" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="M9" s="10" t="s">
-        <v>172</v>
-      </c>
-      <c r="N9" s="10" t="s">
+      <c r="M17" s="15" t="s">
+        <v>192</v>
+      </c>
+      <c r="N17" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="O17" s="16">
+        <v>40000</v>
+      </c>
+      <c r="P17" s="16">
+        <v>40000</v>
+      </c>
+      <c r="Q17" s="16"/>
+      <c r="R17" s="16">
+        <v>1</v>
+      </c>
+      <c r="S17" s="15"/>
+      <c r="T17" s="15"/>
+      <c r="U17" s="15"/>
+      <c r="V17" s="15"/>
+      <c r="W17" s="15"/>
+      <c r="X17" s="15"/>
+    </row>
+    <row r="18" spans="1:24" s="17" customFormat="1" ht="43.2">
+      <c r="A18" s="6">
+        <v>17</v>
+      </c>
+      <c r="B18" s="7">
+        <v>43</v>
+      </c>
+      <c r="C18" s="8">
+        <v>1</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="G18" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="H18" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="I18" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="J18" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="K18" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="L18" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="M18" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="N18" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="O18" s="16">
+        <v>103000</v>
+      </c>
+      <c r="P18" s="16">
+        <v>98000</v>
+      </c>
+      <c r="Q18" s="24">
+        <v>58000</v>
+      </c>
+      <c r="R18" s="16">
+        <v>1</v>
+      </c>
+      <c r="S18" s="15"/>
+      <c r="T18" s="15"/>
+      <c r="U18" s="15"/>
+      <c r="V18" s="15"/>
+      <c r="W18" s="15"/>
+      <c r="X18" s="15"/>
+    </row>
+    <row r="19" spans="1:24" s="17" customFormat="1" ht="43.2">
+      <c r="A19" s="6">
+        <v>18</v>
+      </c>
+      <c r="B19" s="7">
+        <v>134</v>
+      </c>
+      <c r="C19" s="8">
+        <v>4</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="F19" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="G19" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="H19" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="I19" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="J19" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="K19" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="L19" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="M19" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="N19" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="O19" s="16">
+        <v>125000</v>
+      </c>
+      <c r="P19" s="16">
+        <v>74500</v>
+      </c>
+      <c r="Q19" s="24">
+        <v>31000</v>
+      </c>
+      <c r="R19" s="16">
+        <v>1</v>
+      </c>
+      <c r="S19" s="15"/>
+      <c r="T19" s="15"/>
+      <c r="U19" s="15"/>
+      <c r="V19" s="15"/>
+      <c r="W19" s="15"/>
+      <c r="X19" s="15"/>
+    </row>
+    <row r="20" spans="1:24" s="17" customFormat="1" ht="43.2">
+      <c r="A20" s="6">
+        <v>19</v>
+      </c>
+      <c r="B20" s="7">
+        <v>134</v>
+      </c>
+      <c r="C20" s="8">
+        <v>4</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="G20" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="H20" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="I20" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="J20" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="K20" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="L20" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="M20" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="N20" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="O20" s="16">
+        <v>85000</v>
+      </c>
+      <c r="P20" s="16">
+        <v>54500</v>
+      </c>
+      <c r="Q20" s="24">
+        <v>23000</v>
+      </c>
+      <c r="R20" s="16">
+        <v>1</v>
+      </c>
+      <c r="S20" s="15"/>
+      <c r="T20" s="15"/>
+      <c r="U20" s="15"/>
+      <c r="V20" s="15"/>
+      <c r="W20" s="15"/>
+      <c r="X20" s="15"/>
+    </row>
+    <row r="21" spans="1:24" s="17" customFormat="1" ht="86.4">
+      <c r="A21" s="6">
+        <v>20</v>
+      </c>
+      <c r="B21" s="7">
+        <v>134</v>
+      </c>
+      <c r="C21" s="8">
+        <v>1</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="F21" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="G21" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="H21" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="I21" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="J21" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="K21" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="L21" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="M21" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="N21" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="O21" s="16">
+        <v>135000</v>
+      </c>
+      <c r="P21" s="16">
+        <v>135000</v>
+      </c>
+      <c r="Q21" s="24">
+        <v>92000</v>
+      </c>
+      <c r="R21" s="16">
+        <v>1</v>
+      </c>
+      <c r="S21" s="15"/>
+      <c r="T21" s="15"/>
+      <c r="U21" s="15"/>
+      <c r="V21" s="15"/>
+      <c r="W21" s="15"/>
+      <c r="X21" s="15"/>
+    </row>
+    <row r="22" spans="1:24" s="17" customFormat="1" ht="28.8">
+      <c r="A22" s="6">
+        <v>21</v>
+      </c>
+      <c r="B22" s="7">
+        <v>949</v>
+      </c>
+      <c r="C22" s="8">
+        <v>4</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="F22" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="G22" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="H22" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="I22" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="J22" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="K22" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="L22" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="M22" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="N22" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="O22" s="16">
+        <v>6950</v>
+      </c>
+      <c r="P22" s="16">
+        <v>6900</v>
+      </c>
+      <c r="Q22" s="24" t="e">
+        <f>55%*H22</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R22" s="16">
+        <v>1</v>
+      </c>
+      <c r="S22" s="18"/>
+      <c r="T22" s="18"/>
+      <c r="U22" s="18"/>
+      <c r="V22" s="18"/>
+      <c r="W22" s="18"/>
+      <c r="X22" s="18"/>
+    </row>
+    <row r="23" spans="1:24" s="17" customFormat="1" ht="57.6">
+      <c r="A23" s="6">
+        <v>22</v>
+      </c>
+      <c r="B23" s="7"/>
+      <c r="C23" s="8">
+        <v>4</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="F23" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="G23" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="H23" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="I23" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="J23" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="K23" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="L23" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="M23" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="N23" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="O23" s="16">
+        <v>130000</v>
+      </c>
+      <c r="P23" s="16">
+        <v>130000</v>
+      </c>
+      <c r="Q23" s="24">
+        <v>43000</v>
+      </c>
+      <c r="R23" s="16">
+        <v>1</v>
+      </c>
+      <c r="S23" s="15"/>
+      <c r="T23" s="15"/>
+      <c r="U23" s="15"/>
+      <c r="V23" s="15"/>
+      <c r="W23" s="15"/>
+      <c r="X23" s="15"/>
+    </row>
+    <row r="24" spans="1:24" s="17" customFormat="1" ht="28.8">
+      <c r="A24" s="6">
+        <v>23</v>
+      </c>
+      <c r="B24" s="7">
+        <v>529</v>
+      </c>
+      <c r="C24" s="8">
+        <v>2</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="F24" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="G24" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="H24" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="I24" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="J24" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="K24" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="L24" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="M24" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="N24" s="15" t="s">
         <v>162</v>
       </c>
-      <c r="O9" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="P9" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="Q9" s="8" t="s">
-        <v>175</v>
-      </c>
-      <c r="R9" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="S9" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="T9" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="U9" s="10" t="s">
-        <v>178</v>
-      </c>
+      <c r="O24" s="16">
+        <v>10920</v>
+      </c>
+      <c r="P24" s="16">
+        <v>10000</v>
+      </c>
+      <c r="Q24" s="24">
+        <v>5343</v>
+      </c>
+      <c r="R24" s="16">
+        <v>1</v>
+      </c>
+      <c r="S24" s="19"/>
+      <c r="T24" s="19"/>
+      <c r="U24" s="19"/>
+      <c r="V24" s="19"/>
+      <c r="W24" s="19"/>
+      <c r="X24" s="19"/>
     </row>
-    <row r="10" spans="1:21" s="22" customFormat="1" ht="28.8">
-      <c r="A10" s="11">
+    <row r="25" spans="1:24" ht="28.8">
+      <c r="A25" s="6">
+        <v>24</v>
+      </c>
+      <c r="B25" s="7">
+        <v>949</v>
+      </c>
+      <c r="C25" s="8">
+        <v>4</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="F25" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="G25" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="H25" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="I25" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="J25" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="K25" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="L25" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="M25" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="N25" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="O25" s="16">
+        <v>40000</v>
+      </c>
+      <c r="P25" s="16">
+        <v>40000</v>
+      </c>
+      <c r="Q25" s="24">
+        <v>16000</v>
+      </c>
+      <c r="R25" s="16">
         <v>1</v>
       </c>
-      <c r="B10" s="12">
-        <v>72</v>
-      </c>
-      <c r="C10" s="13">
+    </row>
+    <row r="26" spans="1:24" ht="72">
+      <c r="A26" s="6">
+        <v>25</v>
+      </c>
+      <c r="B26" s="7">
+        <v>778</v>
+      </c>
+      <c r="C26" s="8">
+        <v>4</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="F26" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="G26" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="H26" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="I26" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="J26" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="K26" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="L26" s="14" t="s">
+        <v>199</v>
+      </c>
+      <c r="M26" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="N26" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="O26" s="16">
+        <v>12000</v>
+      </c>
+      <c r="P26" s="16">
+        <v>6000</v>
+      </c>
+      <c r="Q26" s="24">
+        <v>2290</v>
+      </c>
+      <c r="R26" s="16">
         <v>1</v>
       </c>
-      <c r="D10" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="F10" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="G10" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="H10" s="16" t="s">
-        <v>164</v>
-      </c>
-      <c r="I10" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="J10" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="K10" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="L10" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="M10" s="20" t="s">
-        <v>180</v>
-      </c>
-      <c r="N10" s="20" t="s">
-        <v>166</v>
-      </c>
-      <c r="O10" s="21">
-        <v>7690</v>
-      </c>
-      <c r="P10" s="21">
-        <v>7690</v>
-      </c>
-      <c r="Q10" s="33">
-        <v>2800</v>
-      </c>
-      <c r="R10" s="21">
-        <v>1</v>
-      </c>
-      <c r="S10" s="20"/>
-      <c r="T10" s="20"/>
-      <c r="U10" s="20"/>
     </row>
-    <row r="11" spans="1:21" s="22" customFormat="1" ht="28.8">
-      <c r="A11" s="11">
+    <row r="27" spans="1:24" ht="28.8">
+      <c r="A27" s="6">
+        <v>26</v>
+      </c>
+      <c r="B27" s="7">
+        <v>96</v>
+      </c>
+      <c r="C27" s="8">
         <v>2</v>
       </c>
-      <c r="B11" s="12">
-        <v>548</v>
-      </c>
-      <c r="C11" s="13">
-        <v>1</v>
-      </c>
-      <c r="D11" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="F11" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="G11" s="16" t="s">
-        <v>181</v>
-      </c>
-      <c r="H11" s="16" t="s">
-        <v>164</v>
-      </c>
-      <c r="I11" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="J11" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="K11" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="L11" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="M11" s="20" t="s">
-        <v>182</v>
-      </c>
-      <c r="N11" s="20" t="s">
-        <v>169</v>
-      </c>
-      <c r="O11" s="21">
-        <v>15500</v>
-      </c>
-      <c r="P11" s="21">
-        <v>15400</v>
-      </c>
-      <c r="Q11" s="33">
-        <v>6800</v>
-      </c>
-      <c r="R11" s="21">
-        <v>1</v>
-      </c>
-      <c r="S11" s="20"/>
-      <c r="T11" s="20"/>
-      <c r="U11" s="20"/>
+      <c r="D27" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="F27" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="G27" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="H27" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="I27" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="J27" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="K27" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="L27" s="14" t="s">
+        <v>199</v>
+      </c>
+      <c r="M27" s="15" t="s">
+        <v>206</v>
+      </c>
+      <c r="N27" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="O27" s="16">
+        <v>52000</v>
+      </c>
+      <c r="P27" s="16">
+        <v>52000</v>
+      </c>
+      <c r="Q27" s="24"/>
+      <c r="R27" s="16">
+        <v>0</v>
+      </c>
     </row>
-    <row r="12" spans="1:21" s="22" customFormat="1" ht="28.8">
-      <c r="A12" s="11">
-        <v>3</v>
-      </c>
-      <c r="B12" s="12">
-        <v>48</v>
-      </c>
-      <c r="C12" s="13">
-        <v>1</v>
-      </c>
-      <c r="D12" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="E12" s="11" t="s">
+    <row r="28" spans="1:24" ht="43.2">
+      <c r="A28" s="6">
         <v>27</v>
       </c>
-      <c r="F12" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="G12" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="H12" s="16" t="s">
-        <v>164</v>
-      </c>
-      <c r="I12" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="J12" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="K12" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="L12" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="M12" s="20" t="s">
-        <v>183</v>
-      </c>
-      <c r="N12" s="20" t="s">
-        <v>184</v>
-      </c>
-      <c r="O12" s="21">
-        <v>8500</v>
-      </c>
-      <c r="P12" s="21">
-        <v>7791</v>
-      </c>
-      <c r="Q12" s="33">
-        <v>3750</v>
-      </c>
-      <c r="R12" s="21">
-        <v>1</v>
-      </c>
-      <c r="S12" s="20"/>
-      <c r="T12" s="20"/>
-      <c r="U12" s="20"/>
+      <c r="B28" s="7">
+        <v>450</v>
+      </c>
+      <c r="C28" s="8">
+        <v>4</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="F28" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="G28" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="H28" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="I28" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="J28" s="37" t="s">
+        <v>210</v>
+      </c>
+      <c r="K28" s="38" t="s">
+        <v>211</v>
+      </c>
+      <c r="L28" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="M28" s="15" t="s">
+        <v>212</v>
+      </c>
+      <c r="N28" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="O28" s="16">
+        <v>16000</v>
+      </c>
+      <c r="P28" s="16">
+        <v>16000</v>
+      </c>
+      <c r="Q28" s="24">
+        <v>4000</v>
+      </c>
+      <c r="R28" s="16">
+        <v>0</v>
+      </c>
     </row>
-    <row r="13" spans="1:21" s="22" customFormat="1" ht="28.8">
-      <c r="A13" s="11">
-        <v>4</v>
-      </c>
-      <c r="B13" s="12">
-        <v>155</v>
-      </c>
-      <c r="C13" s="13">
-        <v>1</v>
-      </c>
-      <c r="D13" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="E13" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="F13" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="G13" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="H13" s="16" t="s">
-        <v>164</v>
-      </c>
-      <c r="I13" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="J13" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="K13" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="L13" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="M13" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="N13" s="20" t="s">
-        <v>169</v>
-      </c>
-      <c r="O13" s="21">
-        <v>8000</v>
-      </c>
-      <c r="P13" s="21">
-        <v>6800</v>
-      </c>
-      <c r="Q13" s="33">
-        <v>3400</v>
-      </c>
-      <c r="R13" s="21">
-        <v>1</v>
-      </c>
-      <c r="S13" s="20"/>
-      <c r="T13" s="20"/>
-      <c r="U13" s="20"/>
+    <row r="29" spans="1:24">
+      <c r="B29" s="20"/>
     </row>
-    <row r="14" spans="1:21" s="22" customFormat="1" ht="28.8">
-      <c r="A14" s="11">
-        <v>5</v>
-      </c>
-      <c r="B14" s="12">
-        <v>427</v>
-      </c>
-      <c r="C14" s="13">
-        <v>2</v>
-      </c>
-      <c r="D14" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="E14" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="F14" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="G14" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="H14" s="16" t="s">
-        <v>164</v>
-      </c>
-      <c r="I14" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="J14" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="K14" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="L14" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="M14" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="N14" s="20" t="s">
-        <v>167</v>
-      </c>
-      <c r="O14" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="P14" s="21">
-        <v>4000</v>
-      </c>
-      <c r="Q14" s="33">
-        <v>1050</v>
-      </c>
-      <c r="R14" s="21">
-        <v>1</v>
-      </c>
-      <c r="S14" s="20"/>
-      <c r="T14" s="20"/>
-      <c r="U14" s="20"/>
+    <row r="30" spans="1:24">
+      <c r="B30" s="20"/>
+      <c r="L30" s="22"/>
     </row>
-    <row r="15" spans="1:21" s="22" customFormat="1" ht="43.2">
-      <c r="A15" s="11">
-        <v>6</v>
-      </c>
-      <c r="B15" s="12">
-        <v>317</v>
-      </c>
-      <c r="C15" s="13">
-        <v>2</v>
-      </c>
-      <c r="D15" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="E15" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="F15" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="G15" s="16" t="s">
-        <v>185</v>
-      </c>
-      <c r="H15" s="16" t="s">
-        <v>164</v>
-      </c>
-      <c r="I15" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="J15" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="K15" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="L15" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="M15" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="N15" s="20" t="s">
-        <v>170</v>
-      </c>
-      <c r="O15" s="21">
-        <v>62000</v>
-      </c>
-      <c r="P15" s="21">
-        <v>62000</v>
-      </c>
-      <c r="Q15" s="33">
-        <v>32000</v>
-      </c>
-      <c r="R15" s="21">
-        <v>1</v>
-      </c>
-      <c r="S15" s="20"/>
-      <c r="T15" s="20"/>
-      <c r="U15" s="20"/>
+    <row r="31" spans="1:24">
+      <c r="B31" s="20"/>
     </row>
-    <row r="16" spans="1:21" s="22" customFormat="1" ht="43.2">
-      <c r="A16" s="11">
-        <v>7</v>
-      </c>
-      <c r="B16" s="12">
-        <v>43</v>
-      </c>
-      <c r="C16" s="13">
-        <v>2</v>
-      </c>
-      <c r="D16" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="E16" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="F16" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="G16" s="16" t="s">
-        <v>186</v>
-      </c>
-      <c r="H16" s="16" t="s">
-        <v>164</v>
-      </c>
-      <c r="I16" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="J16" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="K16" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="L16" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="M16" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="N16" s="20" t="s">
-        <v>170</v>
-      </c>
-      <c r="O16" s="21">
-        <v>98000</v>
-      </c>
-      <c r="P16" s="21">
-        <v>98000</v>
-      </c>
-      <c r="Q16" s="33">
-        <v>36600</v>
-      </c>
-      <c r="R16" s="21">
-        <v>1</v>
-      </c>
-      <c r="S16" s="20"/>
-      <c r="T16" s="20"/>
-      <c r="U16" s="20"/>
+    <row r="32" spans="1:24">
+      <c r="B32" s="20"/>
     </row>
-    <row r="17" spans="1:21" s="22" customFormat="1" ht="57.6">
-      <c r="A17" s="11">
-        <v>8</v>
-      </c>
-      <c r="B17" s="12">
-        <v>169</v>
-      </c>
-      <c r="C17" s="13">
-        <v>4</v>
-      </c>
-      <c r="D17" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="E17" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="F17" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="G17" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="H17" s="16" t="s">
-        <v>164</v>
-      </c>
-      <c r="I17" s="17" t="s">
-        <v>93</v>
-      </c>
-      <c r="J17" s="17" t="s">
-        <v>94</v>
-      </c>
-      <c r="K17" s="18" t="s">
-        <v>95</v>
-      </c>
-      <c r="L17" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="M17" s="20" t="s">
-        <v>96</v>
-      </c>
-      <c r="N17" s="20" t="s">
-        <v>167</v>
-      </c>
-      <c r="O17" s="21">
-        <v>4550</v>
-      </c>
-      <c r="P17" s="21">
-        <v>4550</v>
-      </c>
-      <c r="Q17" s="33">
-        <v>2843</v>
-      </c>
-      <c r="R17" s="21">
-        <v>1</v>
-      </c>
-      <c r="S17" s="20"/>
-      <c r="T17" s="20"/>
-      <c r="U17" s="20"/>
+    <row r="33" spans="2:2">
+      <c r="B33" s="20"/>
     </row>
-    <row r="18" spans="1:21" s="22" customFormat="1" ht="43.2">
-      <c r="A18" s="11">
-        <v>9</v>
-      </c>
-      <c r="B18" s="12">
-        <v>962</v>
-      </c>
-      <c r="C18" s="13">
-        <v>4</v>
-      </c>
-      <c r="D18" s="14" t="s">
-        <v>105</v>
-      </c>
-      <c r="E18" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="F18" s="15" t="s">
-        <v>107</v>
-      </c>
-      <c r="G18" s="16" t="s">
-        <v>186</v>
-      </c>
-      <c r="H18" s="16" t="s">
-        <v>164</v>
-      </c>
-      <c r="I18" s="17" t="s">
-        <v>100</v>
-      </c>
-      <c r="J18" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="K18" s="18" t="s">
-        <v>109</v>
-      </c>
-      <c r="L18" s="19" t="s">
-        <v>73</v>
-      </c>
-      <c r="M18" s="20" t="s">
-        <v>187</v>
-      </c>
-      <c r="N18" s="20" t="s">
-        <v>167</v>
-      </c>
-      <c r="O18" s="21">
-        <v>49000</v>
-      </c>
-      <c r="P18" s="21">
-        <v>49000</v>
-      </c>
-      <c r="Q18" s="33">
-        <v>25000</v>
-      </c>
-      <c r="R18" s="21">
-        <v>1</v>
-      </c>
-      <c r="S18" s="20"/>
-      <c r="T18" s="20"/>
-      <c r="U18" s="20"/>
+    <row r="34" spans="2:2">
+      <c r="B34" s="20"/>
     </row>
-    <row r="19" spans="1:21" s="22" customFormat="1" ht="43.2">
-      <c r="A19" s="11">
-        <v>10</v>
-      </c>
-      <c r="B19" s="12">
-        <v>317</v>
-      </c>
-      <c r="C19" s="13">
-        <v>2</v>
-      </c>
-      <c r="D19" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="E19" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="F19" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="G19" s="16" t="s">
-        <v>188</v>
-      </c>
-      <c r="H19" s="16" t="s">
-        <v>189</v>
-      </c>
-      <c r="I19" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="J19" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="K19" s="18" t="s">
-        <v>72</v>
-      </c>
-      <c r="L19" s="19" t="s">
-        <v>73</v>
-      </c>
-      <c r="M19" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="N19" s="20" t="s">
-        <v>171</v>
-      </c>
-      <c r="O19" s="21">
-        <v>26000</v>
-      </c>
-      <c r="P19" s="21">
-        <v>26000</v>
-      </c>
-      <c r="Q19" s="33">
-        <v>13500</v>
-      </c>
-      <c r="R19" s="21">
-        <v>1</v>
-      </c>
-      <c r="S19" s="20"/>
-      <c r="T19" s="20"/>
-      <c r="U19" s="20"/>
+    <row r="35" spans="2:2">
+      <c r="B35" s="20"/>
     </row>
-    <row r="20" spans="1:21" s="22" customFormat="1" ht="28.8">
-      <c r="A20" s="11">
-        <v>11</v>
-      </c>
-      <c r="B20" s="34">
-        <v>968</v>
-      </c>
-      <c r="C20" s="35">
-        <v>4</v>
-      </c>
-      <c r="D20" s="36" t="s">
-        <v>97</v>
-      </c>
-      <c r="E20" s="37" t="s">
-        <v>98</v>
-      </c>
-      <c r="F20" s="38" t="s">
-        <v>190</v>
-      </c>
-      <c r="G20" s="39" t="s">
-        <v>191</v>
-      </c>
-      <c r="H20" s="16" t="s">
-        <v>164</v>
-      </c>
-      <c r="I20" s="40" t="s">
-        <v>62</v>
-      </c>
-      <c r="J20" s="40" t="s">
-        <v>192</v>
-      </c>
-      <c r="K20" s="41" t="s">
-        <v>193</v>
-      </c>
-      <c r="L20" s="42" t="s">
-        <v>194</v>
-      </c>
-      <c r="M20" s="43" t="s">
-        <v>195</v>
-      </c>
-      <c r="N20" s="20" t="s">
-        <v>167</v>
-      </c>
-      <c r="O20" s="44">
-        <v>30000</v>
-      </c>
-      <c r="P20" s="44">
-        <v>30000</v>
-      </c>
-      <c r="Q20" s="45">
-        <v>13000</v>
-      </c>
-      <c r="R20" s="21">
-        <v>0</v>
-      </c>
-      <c r="S20" s="20"/>
-      <c r="T20" s="20"/>
-      <c r="U20" s="20"/>
+    <row r="36" spans="2:2">
+      <c r="B36" s="20"/>
     </row>
-    <row r="21" spans="1:21" s="22" customFormat="1" ht="62.25" customHeight="1">
-      <c r="A21" s="11">
-        <v>12</v>
-      </c>
-      <c r="B21" s="12">
-        <v>968</v>
-      </c>
-      <c r="C21" s="13">
-        <v>4</v>
-      </c>
-      <c r="D21" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="E21" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="F21" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="G21" s="16" t="s">
-        <v>196</v>
-      </c>
-      <c r="H21" s="16" t="s">
-        <v>164</v>
-      </c>
-      <c r="I21" s="17" t="s">
-        <v>100</v>
-      </c>
-      <c r="J21" s="17" t="s">
-        <v>101</v>
-      </c>
-      <c r="K21" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="L21" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="M21" s="20" t="s">
-        <v>103</v>
-      </c>
-      <c r="N21" s="20" t="s">
-        <v>167</v>
-      </c>
-      <c r="O21" s="21">
-        <v>30000</v>
-      </c>
-      <c r="P21" s="21">
-        <v>30000</v>
-      </c>
-      <c r="Q21" s="33">
-        <v>15000</v>
-      </c>
-      <c r="R21" s="21">
-        <v>1</v>
-      </c>
-      <c r="S21" s="20"/>
-      <c r="T21" s="20"/>
-      <c r="U21" s="20"/>
+    <row r="37" spans="2:2">
+      <c r="B37" s="20"/>
     </row>
-    <row r="22" spans="1:21" s="22" customFormat="1" ht="28.8">
-      <c r="A22" s="11">
-        <v>13</v>
-      </c>
-      <c r="B22" s="12">
-        <v>968</v>
-      </c>
-      <c r="C22" s="13">
-        <v>4</v>
-      </c>
-      <c r="D22" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="E22" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="F22" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="G22" s="16" t="s">
-        <v>196</v>
-      </c>
-      <c r="H22" s="16" t="s">
-        <v>164</v>
-      </c>
-      <c r="I22" s="17" t="s">
-        <v>100</v>
-      </c>
-      <c r="J22" s="17" t="s">
-        <v>101</v>
-      </c>
-      <c r="K22" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="L22" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="M22" s="20" t="s">
-        <v>103</v>
-      </c>
-      <c r="N22" s="20" t="s">
-        <v>167</v>
-      </c>
-      <c r="O22" s="21">
-        <v>67000</v>
-      </c>
-      <c r="P22" s="21">
-        <v>65000</v>
-      </c>
-      <c r="Q22" s="33">
-        <v>24000</v>
-      </c>
-      <c r="R22" s="21">
-        <v>1</v>
-      </c>
-      <c r="S22" s="20"/>
-      <c r="T22" s="20"/>
-      <c r="U22" s="20"/>
+    <row r="38" spans="2:2">
+      <c r="B38" s="20"/>
     </row>
-    <row r="23" spans="1:21" s="22" customFormat="1" ht="86.4">
-      <c r="A23" s="11">
-        <v>14</v>
-      </c>
-      <c r="B23" s="12">
-        <v>1007</v>
-      </c>
-      <c r="C23" s="13">
-        <v>4</v>
-      </c>
-      <c r="D23" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="E23" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="F23" s="15" t="s">
-        <v>112</v>
-      </c>
-      <c r="G23" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="H23" s="16" t="s">
-        <v>164</v>
-      </c>
-      <c r="I23" s="17" t="s">
-        <v>93</v>
-      </c>
-      <c r="J23" s="17" t="s">
-        <v>114</v>
-      </c>
-      <c r="K23" s="18" t="s">
-        <v>115</v>
-      </c>
-      <c r="L23" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="M23" s="20" t="s">
-        <v>116</v>
-      </c>
-      <c r="N23" s="20" t="s">
-        <v>167</v>
-      </c>
-      <c r="O23" s="21">
-        <v>4760</v>
-      </c>
-      <c r="P23" s="21">
-        <v>4760</v>
-      </c>
-      <c r="Q23" s="33">
-        <v>1980</v>
-      </c>
-      <c r="R23" s="21">
-        <v>1</v>
-      </c>
-      <c r="S23" s="20"/>
-      <c r="T23" s="20"/>
-      <c r="U23" s="20"/>
+    <row r="39" spans="2:2">
+      <c r="B39" s="20"/>
     </row>
-    <row r="24" spans="1:21" s="22" customFormat="1" ht="28.8">
-      <c r="A24" s="11">
-        <v>15</v>
-      </c>
-      <c r="B24" s="12">
-        <v>501</v>
-      </c>
-      <c r="C24" s="13">
-        <v>3</v>
-      </c>
-      <c r="D24" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="E24" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="F24" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="G24" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="H24" s="16" t="s">
-        <v>164</v>
-      </c>
-      <c r="I24" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="J24" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="K24" s="18" t="s">
-        <v>87</v>
-      </c>
-      <c r="L24" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="M24" s="20" t="s">
-        <v>88</v>
-      </c>
-      <c r="N24" s="20" t="s">
-        <v>167</v>
-      </c>
-      <c r="O24" s="21">
-        <v>9000</v>
-      </c>
-      <c r="P24" s="21">
-        <v>9000</v>
-      </c>
-      <c r="Q24" s="33">
-        <v>4218</v>
-      </c>
-      <c r="R24" s="21">
-        <v>1</v>
-      </c>
-      <c r="S24" s="20"/>
-      <c r="T24" s="20"/>
-      <c r="U24" s="20"/>
+    <row r="40" spans="2:2">
+      <c r="B40" s="20"/>
     </row>
-    <row r="25" spans="1:21" s="22" customFormat="1" ht="43.2">
-      <c r="A25" s="11">
-        <v>16</v>
-      </c>
-      <c r="B25" s="12">
-        <v>675</v>
-      </c>
-      <c r="C25" s="13">
-        <v>4</v>
-      </c>
-      <c r="D25" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="E25" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="F25" s="15" t="s">
-        <v>197</v>
-      </c>
-      <c r="G25" s="16" t="s">
-        <v>125</v>
-      </c>
-      <c r="H25" s="16" t="s">
-        <v>165</v>
-      </c>
-      <c r="I25" s="17" t="s">
-        <v>126</v>
-      </c>
-      <c r="J25" s="17" t="s">
-        <v>198</v>
-      </c>
-      <c r="K25" s="18" t="s">
-        <v>199</v>
-      </c>
-      <c r="L25" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="M25" s="20" t="s">
-        <v>200</v>
-      </c>
-      <c r="N25" s="20" t="s">
-        <v>167</v>
-      </c>
-      <c r="O25" s="21">
-        <v>40000</v>
-      </c>
-      <c r="P25" s="21">
-        <v>40000</v>
-      </c>
-      <c r="Q25" s="21"/>
-      <c r="R25" s="21">
-        <v>1</v>
-      </c>
-      <c r="S25" s="20"/>
-      <c r="T25" s="20"/>
-      <c r="U25" s="20"/>
+    <row r="41" spans="2:2">
+      <c r="B41" s="20"/>
     </row>
-    <row r="26" spans="1:21" s="22" customFormat="1" ht="43.2">
-      <c r="A26" s="11">
-        <v>17</v>
-      </c>
-      <c r="B26" s="12">
-        <v>43</v>
-      </c>
-      <c r="C26" s="13">
-        <v>1</v>
-      </c>
-      <c r="D26" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="E26" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="F26" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="G26" s="16" t="s">
-        <v>201</v>
-      </c>
-      <c r="H26" s="16" t="s">
-        <v>164</v>
-      </c>
-      <c r="I26" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="J26" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="K26" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="L26" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="M26" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="N26" s="20" t="s">
-        <v>166</v>
-      </c>
-      <c r="O26" s="21">
-        <v>103000</v>
-      </c>
-      <c r="P26" s="21">
-        <v>98000</v>
-      </c>
-      <c r="Q26" s="33">
-        <v>58000</v>
-      </c>
-      <c r="R26" s="21">
-        <v>1</v>
-      </c>
-      <c r="S26" s="20"/>
-      <c r="T26" s="20"/>
-      <c r="U26" s="20"/>
+    <row r="42" spans="2:2">
+      <c r="B42" s="20"/>
     </row>
-    <row r="27" spans="1:21" s="22" customFormat="1" ht="43.2">
-      <c r="A27" s="11">
-        <v>18</v>
-      </c>
-      <c r="B27" s="12">
-        <v>134</v>
-      </c>
-      <c r="C27" s="13">
-        <v>4</v>
-      </c>
-      <c r="D27" s="14" t="s">
-        <v>128</v>
-      </c>
-      <c r="E27" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="F27" s="15" t="s">
-        <v>130</v>
-      </c>
-      <c r="G27" s="16" t="s">
-        <v>131</v>
-      </c>
-      <c r="H27" s="16" t="s">
-        <v>165</v>
-      </c>
-      <c r="I27" s="17" t="s">
-        <v>126</v>
-      </c>
-      <c r="J27" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="K27" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="L27" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="M27" s="20" t="s">
-        <v>134</v>
-      </c>
-      <c r="N27" s="20" t="s">
-        <v>167</v>
-      </c>
-      <c r="O27" s="21">
-        <v>125000</v>
-      </c>
-      <c r="P27" s="21">
-        <v>74500</v>
-      </c>
-      <c r="Q27" s="33">
-        <v>31000</v>
-      </c>
-      <c r="R27" s="21">
-        <v>1</v>
-      </c>
-      <c r="S27" s="20"/>
-      <c r="T27" s="20"/>
-      <c r="U27" s="20"/>
+    <row r="43" spans="2:2">
+      <c r="B43" s="20"/>
     </row>
-    <row r="28" spans="1:21" s="22" customFormat="1" ht="43.2">
-      <c r="A28" s="11">
-        <v>19</v>
-      </c>
-      <c r="B28" s="12">
-        <v>134</v>
-      </c>
-      <c r="C28" s="13">
-        <v>4</v>
-      </c>
-      <c r="D28" s="14" t="s">
-        <v>135</v>
-      </c>
-      <c r="E28" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="F28" s="15" t="s">
-        <v>137</v>
-      </c>
-      <c r="G28" s="16" t="s">
-        <v>131</v>
-      </c>
-      <c r="H28" s="16" t="s">
-        <v>165</v>
-      </c>
-      <c r="I28" s="17" t="s">
-        <v>126</v>
-      </c>
-      <c r="J28" s="17" t="s">
-        <v>138</v>
-      </c>
-      <c r="K28" s="18" t="s">
-        <v>139</v>
-      </c>
-      <c r="L28" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="M28" s="20" t="s">
-        <v>134</v>
-      </c>
-      <c r="N28" s="20" t="s">
-        <v>167</v>
-      </c>
-      <c r="O28" s="21">
-        <v>85000</v>
-      </c>
-      <c r="P28" s="21">
-        <v>54500</v>
-      </c>
-      <c r="Q28" s="33">
-        <v>23000</v>
-      </c>
-      <c r="R28" s="21">
-        <v>1</v>
-      </c>
-      <c r="S28" s="20"/>
-      <c r="T28" s="20"/>
-      <c r="U28" s="20"/>
+    <row r="44" spans="2:2">
+      <c r="B44" s="20"/>
     </row>
-    <row r="29" spans="1:21" s="22" customFormat="1" ht="86.4">
-      <c r="A29" s="11">
-        <v>20</v>
-      </c>
-      <c r="B29" s="12">
-        <v>134</v>
-      </c>
-      <c r="C29" s="13">
-        <v>1</v>
-      </c>
-      <c r="D29" s="14" t="s">
-        <v>140</v>
-      </c>
-      <c r="E29" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="F29" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="G29" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="H29" s="16" t="s">
-        <v>165</v>
-      </c>
-      <c r="I29" s="17" t="s">
-        <v>126</v>
-      </c>
-      <c r="J29" s="17" t="s">
-        <v>144</v>
-      </c>
-      <c r="K29" s="18" t="s">
-        <v>145</v>
-      </c>
-      <c r="L29" s="19" t="s">
-        <v>127</v>
-      </c>
-      <c r="M29" s="20" t="s">
-        <v>146</v>
-      </c>
-      <c r="N29" s="20" t="s">
-        <v>168</v>
-      </c>
-      <c r="O29" s="21">
-        <v>135000</v>
-      </c>
-      <c r="P29" s="21">
-        <v>135000</v>
-      </c>
-      <c r="Q29" s="33">
-        <v>92000</v>
-      </c>
-      <c r="R29" s="21">
-        <v>1</v>
-      </c>
-      <c r="S29" s="20"/>
-      <c r="T29" s="20"/>
-      <c r="U29" s="20"/>
+    <row r="45" spans="2:2">
+      <c r="B45" s="20"/>
     </row>
-    <row r="30" spans="1:21" s="22" customFormat="1" ht="28.8">
-      <c r="A30" s="11">
-        <v>21</v>
-      </c>
-      <c r="B30" s="12">
-        <v>949</v>
-      </c>
-      <c r="C30" s="13">
-        <v>4</v>
-      </c>
-      <c r="D30" s="14" t="s">
-        <v>147</v>
-      </c>
-      <c r="E30" s="11" t="s">
-        <v>148</v>
-      </c>
-      <c r="F30" s="15" t="s">
-        <v>149</v>
-      </c>
-      <c r="G30" s="16" t="s">
-        <v>191</v>
-      </c>
-      <c r="H30" s="16" t="s">
-        <v>164</v>
-      </c>
-      <c r="I30" s="17" t="s">
-        <v>150</v>
-      </c>
-      <c r="J30" s="17" t="s">
-        <v>151</v>
-      </c>
-      <c r="K30" s="18" t="s">
-        <v>152</v>
-      </c>
-      <c r="L30" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="M30" s="23" t="s">
-        <v>153</v>
-      </c>
-      <c r="N30" s="20" t="s">
-        <v>167</v>
-      </c>
-      <c r="O30" s="21">
-        <v>6950</v>
-      </c>
-      <c r="P30" s="21">
-        <v>6900</v>
-      </c>
-      <c r="Q30" s="33" t="e">
-        <f>55%*H30</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="R30" s="21">
-        <v>1</v>
-      </c>
-      <c r="S30" s="23"/>
-      <c r="T30" s="23"/>
-      <c r="U30" s="23"/>
+    <row r="46" spans="2:2">
+      <c r="B46" s="20"/>
     </row>
-    <row r="31" spans="1:21" s="22" customFormat="1" ht="57.6">
-      <c r="A31" s="11">
-        <v>22</v>
-      </c>
-      <c r="B31" s="12"/>
-      <c r="C31" s="13">
-        <v>4</v>
-      </c>
-      <c r="D31" s="14" t="s">
-        <v>154</v>
-      </c>
-      <c r="E31" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="F31" s="15" t="s">
-        <v>156</v>
-      </c>
-      <c r="G31" s="16" t="s">
-        <v>157</v>
-      </c>
-      <c r="H31" s="16" t="s">
-        <v>164</v>
-      </c>
-      <c r="I31" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="J31" s="17" t="s">
-        <v>158</v>
-      </c>
-      <c r="K31" s="18" t="s">
-        <v>159</v>
-      </c>
-      <c r="L31" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="M31" s="20" t="s">
-        <v>160</v>
-      </c>
-      <c r="N31" s="20" t="s">
-        <v>167</v>
-      </c>
-      <c r="O31" s="21">
-        <v>130000</v>
-      </c>
-      <c r="P31" s="21">
-        <v>130000</v>
-      </c>
-      <c r="Q31" s="33">
-        <v>43000</v>
-      </c>
-      <c r="R31" s="21">
-        <v>1</v>
-      </c>
-      <c r="S31" s="20"/>
-      <c r="T31" s="20"/>
-      <c r="U31" s="20"/>
+    <row r="47" spans="2:2">
+      <c r="B47" s="20"/>
     </row>
-    <row r="32" spans="1:21" s="22" customFormat="1" ht="28.8">
-      <c r="A32" s="11">
-        <v>23</v>
-      </c>
-      <c r="B32" s="12">
-        <v>529</v>
-      </c>
-      <c r="C32" s="13">
-        <v>2</v>
-      </c>
-      <c r="D32" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="E32" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="F32" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="G32" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="H32" s="16" t="s">
-        <v>164</v>
-      </c>
-      <c r="I32" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="J32" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="K32" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="L32" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="M32" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="N32" s="20" t="s">
-        <v>170</v>
-      </c>
-      <c r="O32" s="21">
-        <v>10920</v>
-      </c>
-      <c r="P32" s="21">
-        <v>10000</v>
-      </c>
-      <c r="Q32" s="33">
-        <v>5343</v>
-      </c>
-      <c r="R32" s="21">
-        <v>1</v>
-      </c>
-      <c r="S32" s="24"/>
-      <c r="T32" s="24"/>
-      <c r="U32" s="24"/>
+    <row r="48" spans="2:2">
+      <c r="B48" s="20"/>
     </row>
-    <row r="33" spans="1:18" ht="28.8">
-      <c r="A33" s="11">
-        <v>24</v>
-      </c>
-      <c r="B33" s="12">
-        <v>949</v>
-      </c>
-      <c r="C33" s="13">
-        <v>4</v>
-      </c>
-      <c r="D33" s="14" t="s">
-        <v>117</v>
-      </c>
-      <c r="E33" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="F33" s="15" t="s">
-        <v>119</v>
-      </c>
-      <c r="G33" s="16" t="s">
-        <v>120</v>
-      </c>
-      <c r="H33" s="16" t="s">
-        <v>164</v>
-      </c>
-      <c r="I33" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="J33" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="K33" s="18" t="s">
-        <v>121</v>
-      </c>
-      <c r="L33" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="M33" s="20" t="s">
-        <v>122</v>
-      </c>
-      <c r="N33" s="20" t="s">
-        <v>167</v>
-      </c>
-      <c r="O33" s="21">
-        <v>40000</v>
-      </c>
-      <c r="P33" s="21">
-        <v>40000</v>
-      </c>
-      <c r="Q33" s="33">
-        <v>16000</v>
-      </c>
-      <c r="R33" s="21">
-        <v>1</v>
-      </c>
+    <row r="49" spans="2:8">
+      <c r="B49" s="20"/>
     </row>
-    <row r="34" spans="1:18" ht="72">
-      <c r="A34" s="11">
-        <v>25</v>
-      </c>
-      <c r="B34" s="12">
-        <v>778</v>
-      </c>
-      <c r="C34" s="13">
-        <v>4</v>
-      </c>
-      <c r="D34" s="14" t="s">
-        <v>202</v>
-      </c>
-      <c r="E34" s="11" t="s">
-        <v>203</v>
-      </c>
-      <c r="F34" s="15" t="s">
-        <v>204</v>
-      </c>
-      <c r="G34" s="16" t="s">
-        <v>205</v>
-      </c>
-      <c r="H34" s="16" t="s">
-        <v>164</v>
-      </c>
-      <c r="I34" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="J34" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="K34" s="18" t="s">
-        <v>206</v>
-      </c>
-      <c r="L34" s="19" t="s">
-        <v>207</v>
-      </c>
-      <c r="M34" s="20" t="s">
-        <v>208</v>
-      </c>
-      <c r="N34" s="20" t="s">
-        <v>167</v>
-      </c>
-      <c r="O34" s="21">
-        <v>12000</v>
-      </c>
-      <c r="P34" s="21">
-        <v>6000</v>
-      </c>
-      <c r="Q34" s="33">
-        <v>2290</v>
-      </c>
-      <c r="R34" s="21">
-        <v>1</v>
-      </c>
+    <row r="50" spans="2:8">
+      <c r="B50" s="20"/>
     </row>
-    <row r="35" spans="1:18" ht="28.8">
-      <c r="A35" s="11">
-        <v>26</v>
-      </c>
-      <c r="B35" s="12">
-        <v>96</v>
-      </c>
-      <c r="C35" s="13">
-        <v>2</v>
-      </c>
-      <c r="D35" s="14" t="s">
-        <v>209</v>
-      </c>
-      <c r="E35" s="11" t="s">
-        <v>210</v>
-      </c>
-      <c r="F35" s="15" t="s">
-        <v>211</v>
-      </c>
-      <c r="G35" s="16" t="s">
-        <v>191</v>
-      </c>
-      <c r="H35" s="16" t="s">
-        <v>164</v>
-      </c>
-      <c r="I35" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="J35" s="17" t="s">
-        <v>212</v>
-      </c>
-      <c r="K35" s="18" t="s">
-        <v>213</v>
-      </c>
-      <c r="L35" s="19" t="s">
-        <v>207</v>
-      </c>
-      <c r="M35" s="20" t="s">
-        <v>214</v>
-      </c>
-      <c r="N35" s="20" t="s">
-        <v>170</v>
-      </c>
-      <c r="O35" s="21">
-        <v>52000</v>
-      </c>
-      <c r="P35" s="21">
-        <v>52000</v>
-      </c>
-      <c r="Q35" s="33"/>
-      <c r="R35" s="21">
-        <v>0</v>
-      </c>
+    <row r="51" spans="2:8">
+      <c r="B51" s="20"/>
     </row>
-    <row r="36" spans="1:18" ht="43.2">
-      <c r="A36" s="11">
-        <v>27</v>
-      </c>
-      <c r="B36" s="12">
-        <v>450</v>
-      </c>
-      <c r="C36" s="13">
-        <v>4</v>
-      </c>
-      <c r="D36" s="14" t="s">
-        <v>215</v>
-      </c>
-      <c r="E36" s="11" t="s">
-        <v>216</v>
-      </c>
-      <c r="F36" s="15" t="s">
-        <v>217</v>
-      </c>
-      <c r="G36" s="16" t="s">
-        <v>120</v>
-      </c>
-      <c r="H36" s="16" t="s">
-        <v>164</v>
-      </c>
-      <c r="I36" s="17" t="s">
-        <v>93</v>
-      </c>
-      <c r="J36" s="46" t="s">
-        <v>218</v>
-      </c>
-      <c r="K36" s="47" t="s">
-        <v>219</v>
-      </c>
-      <c r="L36" s="19" t="s">
-        <v>127</v>
-      </c>
-      <c r="M36" s="20" t="s">
-        <v>220</v>
-      </c>
-      <c r="N36" s="20" t="s">
-        <v>167</v>
-      </c>
-      <c r="O36" s="21">
-        <v>16000</v>
-      </c>
-      <c r="P36" s="21">
-        <v>16000</v>
-      </c>
-      <c r="Q36" s="33">
-        <v>4000</v>
-      </c>
-      <c r="R36" s="21">
-        <v>0</v>
-      </c>
+    <row r="52" spans="2:8">
+      <c r="B52" s="20"/>
     </row>
-    <row r="37" spans="1:18">
-      <c r="B37" s="25"/>
+    <row r="53" spans="2:8">
+      <c r="B53" s="20"/>
     </row>
-    <row r="38" spans="1:18">
-      <c r="B38" s="25"/>
-      <c r="L38" s="27"/>
+    <row r="54" spans="2:8">
+      <c r="B54" s="20"/>
     </row>
-    <row r="39" spans="1:18">
-      <c r="B39" s="25"/>
+    <row r="55" spans="2:8">
+      <c r="B55" s="20"/>
     </row>
-    <row r="40" spans="1:18">
-      <c r="B40" s="25"/>
+    <row r="56" spans="2:8">
+      <c r="B56" s="20"/>
     </row>
-    <row r="41" spans="1:18">
-      <c r="B41" s="25"/>
+    <row r="57" spans="2:8">
+      <c r="B57" s="20"/>
     </row>
-    <row r="42" spans="1:18">
-      <c r="B42" s="25"/>
+    <row r="58" spans="2:8">
+      <c r="B58" s="20"/>
     </row>
-    <row r="43" spans="1:18">
-      <c r="B43" s="25"/>
+    <row r="59" spans="2:8">
+      <c r="B59" s="20"/>
     </row>
-    <row r="44" spans="1:18">
-      <c r="B44" s="25"/>
+    <row r="60" spans="2:8">
+      <c r="B60" s="20"/>
     </row>
-    <row r="45" spans="1:18">
-      <c r="B45" s="25"/>
-    </row>
-    <row r="46" spans="1:18">
-      <c r="B46" s="25"/>
-    </row>
-    <row r="47" spans="1:18">
-      <c r="B47" s="25"/>
-    </row>
-    <row r="48" spans="1:18">
-      <c r="B48" s="25"/>
-    </row>
-    <row r="49" spans="2:2">
-      <c r="B49" s="25"/>
-    </row>
-    <row r="50" spans="2:2">
-      <c r="B50" s="25"/>
-    </row>
-    <row r="51" spans="2:2">
-      <c r="B51" s="25"/>
-    </row>
-    <row r="52" spans="2:2">
-      <c r="B52" s="25"/>
-    </row>
-    <row r="53" spans="2:2">
-      <c r="B53" s="25"/>
-    </row>
-    <row r="54" spans="2:2">
-      <c r="B54" s="25"/>
-    </row>
-    <row r="55" spans="2:2">
-      <c r="B55" s="25"/>
-    </row>
-    <row r="56" spans="2:2">
-      <c r="B56" s="25"/>
-    </row>
-    <row r="57" spans="2:2">
-      <c r="B57" s="25"/>
-    </row>
-    <row r="58" spans="2:2">
-      <c r="B58" s="25"/>
-    </row>
-    <row r="59" spans="2:2">
-      <c r="B59" s="25"/>
-    </row>
-    <row r="60" spans="2:2">
-      <c r="B60" s="25"/>
-    </row>
-    <row r="61" spans="2:2">
-      <c r="B61" s="25"/>
-    </row>
-    <row r="62" spans="2:2">
-      <c r="B62" s="25"/>
-    </row>
-    <row r="63" spans="2:2">
-      <c r="B63" s="25"/>
-    </row>
-    <row r="64" spans="2:2">
-      <c r="B64" s="25"/>
-    </row>
-    <row r="65" spans="2:8">
-      <c r="B65" s="25"/>
-    </row>
-    <row r="66" spans="2:8">
-      <c r="B66" s="25"/>
-    </row>
-    <row r="67" spans="2:8">
-      <c r="B67" s="25"/>
-    </row>
-    <row r="68" spans="2:8">
-      <c r="B68" s="25"/>
-    </row>
-    <row r="72" spans="2:8">
-      <c r="G72" s="28"/>
-      <c r="H72" s="28"/>
+    <row r="64" spans="2:8">
+      <c r="G64" s="23"/>
+      <c r="H64" s="23"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="G5:P5"/>
-    <mergeCell ref="A6:Q6"/>
-    <mergeCell ref="A7:Q7"/>
-    <mergeCell ref="A8:Q8"/>
-  </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Lưu ý" error="Nhập số lớn hơn 0 và nhỏ hơn 1,000,000,000,000,000" promptTitle="Lưu ý" prompt="Nhập số lớn hơn 0 và nhỏ hơn 1,000,000,000,000,000" sqref="O23:P24 P26 P32 P15:P22" xr:uid="{BA17F4A6-11C5-4835-98B4-28FE5305606A}">
+    <dataValidation type="decimal" showErrorMessage="1" errorTitle="Lưu ý" error="Nhập số lớn hơn 0 và nhỏ hơn 1,000,000,000,000,000" promptTitle="Lưu ý" prompt="Nhập số lớn hơn 0 và nhỏ hơn 1,000,000,000,000,000" sqref="O15:P16 P18 P24 P7:P14" xr:uid="{BA17F4A6-11C5-4835-98B4-28FE5305606A}">
       <formula1>0.0001</formula1>
       <formula2>1000000000000000</formula2>
     </dataValidation>

--- a/database/imports/bang-gia-thuoc.xlsx
+++ b/database/imports/bang-gia-thuoc.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4b1c315fe3860ed0/Van/02032021/Máy tính/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="33" documentId="13_ncr:1_{27C6129C-FA7D-4442-BCC0-77FA2B85DE1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F1793C04-6BE2-49E7-A471-FC7F517A4F62}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1AB2BAB-314D-45E3-8117-5785ED8CAA1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{AA2AB357-8B43-4900-A8BE-9AF4115D18D6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AA2AB357-8B43-4900-A8BE-9AF4115D18D6}"/>
   </bookViews>
   <sheets>
     <sheet name="banggia" sheetId="1" r:id="rId1"/>
@@ -107,7 +107,7 @@
     <definedName name="hyîa" hidden="1">{"'Sheet1'!$L$16"}</definedName>
     <definedName name="khoi" hidden="1">{"'Sheet1'!$L$16"}</definedName>
     <definedName name="MÊ_KONG">#REF!</definedName>
-    <definedName name="MINH">'[1]N.T.Minh'!$B$9:$AM$60</definedName>
+    <definedName name="MINH">[1]N.T.Minh!$B$9:$AM$60</definedName>
     <definedName name="minhư">#REF!</definedName>
     <definedName name="NAM_BỘ">#REF!</definedName>
     <definedName name="NAM_TRUNG_BỘ">#REF!</definedName>
@@ -148,19 +148,10 @@
     <definedName name="TTT">#REF!</definedName>
     <definedName name="TTYT_HUYEN_CHAU_THANH_TRI">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -199,7 +190,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="219">
   <si>
     <t>STT</t>
   </si>
@@ -323,12 +314,6 @@
     <t>Goldridons</t>
   </si>
   <si>
-    <t>Hộp</t>
-  </si>
-  <si>
-    <t>Hộp 1 chai 100ml</t>
-  </si>
-  <si>
     <t>560100424523</t>
   </si>
   <si>
@@ -367,12 +352,6 @@
   </si>
   <si>
     <t>Monizol</t>
-  </si>
-  <si>
-    <t>Chai</t>
-  </si>
-  <si>
-    <t>Hộp 1 chai 60ml</t>
   </si>
   <si>
     <t>VN-22077-19</t>
@@ -464,12 +443,6 @@
     <t>Bột pha hỗn dịch uống</t>
   </si>
   <si>
-    <t>Gói</t>
-  </si>
-  <si>
-    <t>Hộp 12 gói x 2,1g</t>
-  </si>
-  <si>
     <t>VD-35204-21</t>
   </si>
   <si>
@@ -510,9 +483,6 @@
     <t>Sallet</t>
   </si>
   <si>
-    <t>Hộp 1 lọ 150ml</t>
-  </si>
-  <si>
     <t>VD-34495-20</t>
   </si>
   <si>
@@ -526,9 +496,6 @@
   </si>
   <si>
     <t>Thuốc bột uống</t>
-  </si>
-  <si>
-    <t>Hộp 20 gói x 2,5g</t>
   </si>
   <si>
     <t>VD-22498-15</t>
@@ -564,9 +531,6 @@
     <t>Dung dich tiêm</t>
   </si>
   <si>
-    <t>ống</t>
-  </si>
-  <si>
     <t>24 tháng</t>
   </si>
   <si>
@@ -580,9 +544,6 @@
   </si>
   <si>
     <t>dung dịch đậm đặc pha tiêm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hộp 2 vỉ x 5 ống x 8ml, hộp 10 vỉ x 5 ống x 8ml </t>
   </si>
   <si>
     <t>893110251024</t>
@@ -600,9 +561,6 @@
     <t>Noradrenalin 5mg/5ml</t>
   </si>
   <si>
-    <t xml:space="preserve">Hộp 2 vỉ x 5 ống x 5ml, hộp 10 vỉ x 5 ống x 5ml </t>
-  </si>
-  <si>
     <t>893110250924</t>
   </si>
   <si>
@@ -616,9 +574,6 @@
   </si>
   <si>
     <t>Dung dịch đậm đặc pha tiêm truyền</t>
-  </si>
-  <si>
-    <t>Hộp 10 ống x 10ml</t>
   </si>
   <si>
     <t>858110353424</t>
@@ -637,12 +592,6 @@
     <t>Saihasin</t>
   </si>
   <si>
-    <t>Ống</t>
-  </si>
-  <si>
-    <t>Hộp 4 vỉ x 5 ống 5 ml</t>
-  </si>
-  <si>
     <t xml:space="preserve">VD-25526-16 </t>
   </si>
   <si>
@@ -659,9 +608,6 @@
   </si>
   <si>
     <t>Sirô uống</t>
-  </si>
-  <si>
-    <t>Hộp 01 chai x 70ml (chai nhựa HDPE)</t>
   </si>
   <si>
     <t>893110292324</t>
@@ -764,9 +710,6 @@
     <t>Dung dịch uống</t>
   </si>
   <si>
-    <t>Hộp 1 chai x 50ml</t>
-  </si>
-  <si>
     <t>893100153400</t>
   </si>
   <si>
@@ -780,9 +723,6 @@
   </si>
   <si>
     <t>Famotidin 20mg/2ml</t>
-  </si>
-  <si>
-    <t>Hộp 10 ống x2ml Hộp 20 ống x2ml Hộp 50 ống x2ml</t>
   </si>
   <si>
     <t>893110150900</t>
@@ -828,9 +768,6 @@
     <t>Alesof</t>
   </si>
   <si>
-    <t>Hộp 1 chai x 60ml, kèm cốc phân liều</t>
-  </si>
-  <si>
     <t>890100316125</t>
   </si>
   <si>
@@ -844,9 +781,6 @@
   </si>
   <si>
     <t>Furemin</t>
-  </si>
-  <si>
-    <t>Hộp 20 gói x 10ml, Uống</t>
   </si>
   <si>
     <t>893100084825</t>
@@ -863,6 +797,72 @@
   <si>
     <t>Hạn dùng GMP</t>
   </si>
+  <si>
+    <t>Chai 60ml</t>
+  </si>
+  <si>
+    <t>Hộp 1 chai</t>
+  </si>
+  <si>
+    <t>Chai 100ml</t>
+  </si>
+  <si>
+    <t>Gói 2,1g</t>
+  </si>
+  <si>
+    <t>Hộp 12 gói</t>
+  </si>
+  <si>
+    <t>Lọ 150ml</t>
+  </si>
+  <si>
+    <t>Hộp 1 lọ</t>
+  </si>
+  <si>
+    <t>Chai 50ml</t>
+  </si>
+  <si>
+    <t>Gói 2,5g</t>
+  </si>
+  <si>
+    <t>Hộp 20 gói</t>
+  </si>
+  <si>
+    <t>Hộp 10 ống</t>
+  </si>
+  <si>
+    <t>ống 2ml</t>
+  </si>
+  <si>
+    <t>Hộp 2 vỉ x 5 ống</t>
+  </si>
+  <si>
+    <t>ống 5ml</t>
+  </si>
+  <si>
+    <t>ống 8ml</t>
+  </si>
+  <si>
+    <t>ống 10ml</t>
+  </si>
+  <si>
+    <t>Ống 5ml</t>
+  </si>
+  <si>
+    <t>Hộp 4 vỉ x 5 ống</t>
+  </si>
+  <si>
+    <t>Hộp 01 chai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chai 70ml </t>
+  </si>
+  <si>
+    <t>Hộp 1 chai  kèm cốc phân liều</t>
+  </si>
+  <si>
+    <t>Gói 10ml</t>
+  </si>
 </sst>
 </file>
 
@@ -876,7 +876,7 @@
     <numFmt numFmtId="167" formatCode="_-* #,##0.00\ _₫_-;\-* #,##0.00\ _₫_-;_-* &quot;-&quot;??\ _₫_-;_-@_-"/>
     <numFmt numFmtId="168" formatCode="_-* #,##0\ _₫_-;\-* #,##0\ _₫_-;_-* &quot;-&quot;??\ _₫_-;_-@_-"/>
   </numFmts>
-  <fonts count="19">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="14"/>
       <color theme="1"/>
@@ -1068,7 +1068,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
@@ -1120,9 +1120,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
@@ -3453,7 +3450,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Tổng KV1"/>
@@ -30405,7 +30402,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="01. KH THUONG"/>
@@ -30548,7 +30545,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Thong_tin_co_hoi"/>
@@ -31537,7 +31534,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="CHiet tinh may khuay"/>
@@ -31924,1617 +31921,1617 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8326482F-38D0-4A78-9C12-23F885EAB698}">
   <dimension ref="A1:X64"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="S18" sqref="S18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.36328125" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultColWidth="8.33203125" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.36328125" style="21" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.453125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="19.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.81640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="13.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.33203125" style="20" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="19.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.77734375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="15" style="1" customWidth="1"/>
-    <col min="12" max="12" width="8.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="14" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.6328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="18" max="24" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="175" width="7.81640625" style="1" customWidth="1"/>
-    <col min="176" max="176" width="5.6328125" style="1" customWidth="1"/>
-    <col min="177" max="178" width="10.90625" style="1" customWidth="1"/>
-    <col min="179" max="179" width="9.08984375" style="1" customWidth="1"/>
-    <col min="180" max="181" width="8.6328125" style="1" customWidth="1"/>
+    <col min="25" max="175" width="7.77734375" style="1" customWidth="1"/>
+    <col min="176" max="176" width="5.6640625" style="1" customWidth="1"/>
+    <col min="177" max="178" width="10.88671875" style="1" customWidth="1"/>
+    <col min="179" max="179" width="9.109375" style="1" customWidth="1"/>
+    <col min="180" max="181" width="8.6640625" style="1" customWidth="1"/>
     <col min="182" max="182" width="24" style="1" customWidth="1"/>
-    <col min="183" max="183" width="17.81640625" style="1" customWidth="1"/>
-    <col min="184" max="185" width="12.81640625" style="1" customWidth="1"/>
-    <col min="186" max="186" width="20.1796875" style="1" customWidth="1"/>
-    <col min="187" max="222" width="8.36328125" style="1"/>
-    <col min="223" max="223" width="6.453125" style="1" customWidth="1"/>
-    <col min="224" max="226" width="8.6328125" style="1" customWidth="1"/>
-    <col min="227" max="227" width="21.08984375" style="1" customWidth="1"/>
-    <col min="228" max="228" width="25.08984375" style="1" customWidth="1"/>
-    <col min="229" max="229" width="14.90625" style="1" customWidth="1"/>
-    <col min="230" max="230" width="16.90625" style="1" customWidth="1"/>
-    <col min="231" max="231" width="7.81640625" style="1" customWidth="1"/>
-    <col min="232" max="232" width="14.90625" style="1" customWidth="1"/>
-    <col min="233" max="233" width="9.1796875" style="1" customWidth="1"/>
-    <col min="234" max="234" width="11.1796875" style="1" customWidth="1"/>
-    <col min="235" max="235" width="16.1796875" style="1" customWidth="1"/>
-    <col min="236" max="236" width="13.08984375" style="1" customWidth="1"/>
-    <col min="237" max="239" width="12.81640625" style="1" customWidth="1"/>
-    <col min="240" max="240" width="11.90625" style="1" customWidth="1"/>
-    <col min="241" max="241" width="12.81640625" style="1" customWidth="1"/>
-    <col min="242" max="431" width="7.81640625" style="1" customWidth="1"/>
-    <col min="432" max="432" width="5.6328125" style="1" customWidth="1"/>
-    <col min="433" max="434" width="10.90625" style="1" customWidth="1"/>
-    <col min="435" max="435" width="9.08984375" style="1" customWidth="1"/>
-    <col min="436" max="437" width="8.6328125" style="1" customWidth="1"/>
+    <col min="183" max="183" width="17.77734375" style="1" customWidth="1"/>
+    <col min="184" max="185" width="12.77734375" style="1" customWidth="1"/>
+    <col min="186" max="186" width="20.21875" style="1" customWidth="1"/>
+    <col min="187" max="222" width="8.33203125" style="1"/>
+    <col min="223" max="223" width="6.44140625" style="1" customWidth="1"/>
+    <col min="224" max="226" width="8.6640625" style="1" customWidth="1"/>
+    <col min="227" max="227" width="21.109375" style="1" customWidth="1"/>
+    <col min="228" max="228" width="25.109375" style="1" customWidth="1"/>
+    <col min="229" max="229" width="14.88671875" style="1" customWidth="1"/>
+    <col min="230" max="230" width="16.88671875" style="1" customWidth="1"/>
+    <col min="231" max="231" width="7.77734375" style="1" customWidth="1"/>
+    <col min="232" max="232" width="14.88671875" style="1" customWidth="1"/>
+    <col min="233" max="233" width="9.21875" style="1" customWidth="1"/>
+    <col min="234" max="234" width="11.21875" style="1" customWidth="1"/>
+    <col min="235" max="235" width="16.21875" style="1" customWidth="1"/>
+    <col min="236" max="236" width="13.109375" style="1" customWidth="1"/>
+    <col min="237" max="239" width="12.77734375" style="1" customWidth="1"/>
+    <col min="240" max="240" width="11.88671875" style="1" customWidth="1"/>
+    <col min="241" max="241" width="12.77734375" style="1" customWidth="1"/>
+    <col min="242" max="431" width="7.77734375" style="1" customWidth="1"/>
+    <col min="432" max="432" width="5.6640625" style="1" customWidth="1"/>
+    <col min="433" max="434" width="10.88671875" style="1" customWidth="1"/>
+    <col min="435" max="435" width="9.109375" style="1" customWidth="1"/>
+    <col min="436" max="437" width="8.6640625" style="1" customWidth="1"/>
     <col min="438" max="438" width="24" style="1" customWidth="1"/>
-    <col min="439" max="439" width="17.81640625" style="1" customWidth="1"/>
-    <col min="440" max="441" width="12.81640625" style="1" customWidth="1"/>
-    <col min="442" max="442" width="20.1796875" style="1" customWidth="1"/>
-    <col min="443" max="478" width="8.36328125" style="1"/>
-    <col min="479" max="479" width="6.453125" style="1" customWidth="1"/>
-    <col min="480" max="482" width="8.6328125" style="1" customWidth="1"/>
-    <col min="483" max="483" width="21.08984375" style="1" customWidth="1"/>
-    <col min="484" max="484" width="25.08984375" style="1" customWidth="1"/>
-    <col min="485" max="485" width="14.90625" style="1" customWidth="1"/>
-    <col min="486" max="486" width="16.90625" style="1" customWidth="1"/>
-    <col min="487" max="487" width="7.81640625" style="1" customWidth="1"/>
-    <col min="488" max="488" width="14.90625" style="1" customWidth="1"/>
-    <col min="489" max="489" width="9.1796875" style="1" customWidth="1"/>
-    <col min="490" max="490" width="11.1796875" style="1" customWidth="1"/>
-    <col min="491" max="491" width="16.1796875" style="1" customWidth="1"/>
-    <col min="492" max="492" width="13.08984375" style="1" customWidth="1"/>
-    <col min="493" max="495" width="12.81640625" style="1" customWidth="1"/>
-    <col min="496" max="496" width="11.90625" style="1" customWidth="1"/>
-    <col min="497" max="497" width="12.81640625" style="1" customWidth="1"/>
-    <col min="498" max="687" width="7.81640625" style="1" customWidth="1"/>
-    <col min="688" max="688" width="5.6328125" style="1" customWidth="1"/>
-    <col min="689" max="690" width="10.90625" style="1" customWidth="1"/>
-    <col min="691" max="691" width="9.08984375" style="1" customWidth="1"/>
-    <col min="692" max="693" width="8.6328125" style="1" customWidth="1"/>
+    <col min="439" max="439" width="17.77734375" style="1" customWidth="1"/>
+    <col min="440" max="441" width="12.77734375" style="1" customWidth="1"/>
+    <col min="442" max="442" width="20.21875" style="1" customWidth="1"/>
+    <col min="443" max="478" width="8.33203125" style="1"/>
+    <col min="479" max="479" width="6.44140625" style="1" customWidth="1"/>
+    <col min="480" max="482" width="8.6640625" style="1" customWidth="1"/>
+    <col min="483" max="483" width="21.109375" style="1" customWidth="1"/>
+    <col min="484" max="484" width="25.109375" style="1" customWidth="1"/>
+    <col min="485" max="485" width="14.88671875" style="1" customWidth="1"/>
+    <col min="486" max="486" width="16.88671875" style="1" customWidth="1"/>
+    <col min="487" max="487" width="7.77734375" style="1" customWidth="1"/>
+    <col min="488" max="488" width="14.88671875" style="1" customWidth="1"/>
+    <col min="489" max="489" width="9.21875" style="1" customWidth="1"/>
+    <col min="490" max="490" width="11.21875" style="1" customWidth="1"/>
+    <col min="491" max="491" width="16.21875" style="1" customWidth="1"/>
+    <col min="492" max="492" width="13.109375" style="1" customWidth="1"/>
+    <col min="493" max="495" width="12.77734375" style="1" customWidth="1"/>
+    <col min="496" max="496" width="11.88671875" style="1" customWidth="1"/>
+    <col min="497" max="497" width="12.77734375" style="1" customWidth="1"/>
+    <col min="498" max="687" width="7.77734375" style="1" customWidth="1"/>
+    <col min="688" max="688" width="5.6640625" style="1" customWidth="1"/>
+    <col min="689" max="690" width="10.88671875" style="1" customWidth="1"/>
+    <col min="691" max="691" width="9.109375" style="1" customWidth="1"/>
+    <col min="692" max="693" width="8.6640625" style="1" customWidth="1"/>
     <col min="694" max="694" width="24" style="1" customWidth="1"/>
-    <col min="695" max="695" width="17.81640625" style="1" customWidth="1"/>
-    <col min="696" max="697" width="12.81640625" style="1" customWidth="1"/>
-    <col min="698" max="698" width="20.1796875" style="1" customWidth="1"/>
-    <col min="699" max="734" width="8.36328125" style="1"/>
-    <col min="735" max="735" width="6.453125" style="1" customWidth="1"/>
-    <col min="736" max="738" width="8.6328125" style="1" customWidth="1"/>
-    <col min="739" max="739" width="21.08984375" style="1" customWidth="1"/>
-    <col min="740" max="740" width="25.08984375" style="1" customWidth="1"/>
-    <col min="741" max="741" width="14.90625" style="1" customWidth="1"/>
-    <col min="742" max="742" width="16.90625" style="1" customWidth="1"/>
-    <col min="743" max="743" width="7.81640625" style="1" customWidth="1"/>
-    <col min="744" max="744" width="14.90625" style="1" customWidth="1"/>
-    <col min="745" max="745" width="9.1796875" style="1" customWidth="1"/>
-    <col min="746" max="746" width="11.1796875" style="1" customWidth="1"/>
-    <col min="747" max="747" width="16.1796875" style="1" customWidth="1"/>
-    <col min="748" max="748" width="13.08984375" style="1" customWidth="1"/>
-    <col min="749" max="751" width="12.81640625" style="1" customWidth="1"/>
-    <col min="752" max="752" width="11.90625" style="1" customWidth="1"/>
-    <col min="753" max="753" width="12.81640625" style="1" customWidth="1"/>
-    <col min="754" max="943" width="7.81640625" style="1" customWidth="1"/>
-    <col min="944" max="944" width="5.6328125" style="1" customWidth="1"/>
-    <col min="945" max="946" width="10.90625" style="1" customWidth="1"/>
-    <col min="947" max="947" width="9.08984375" style="1" customWidth="1"/>
-    <col min="948" max="949" width="8.6328125" style="1" customWidth="1"/>
+    <col min="695" max="695" width="17.77734375" style="1" customWidth="1"/>
+    <col min="696" max="697" width="12.77734375" style="1" customWidth="1"/>
+    <col min="698" max="698" width="20.21875" style="1" customWidth="1"/>
+    <col min="699" max="734" width="8.33203125" style="1"/>
+    <col min="735" max="735" width="6.44140625" style="1" customWidth="1"/>
+    <col min="736" max="738" width="8.6640625" style="1" customWidth="1"/>
+    <col min="739" max="739" width="21.109375" style="1" customWidth="1"/>
+    <col min="740" max="740" width="25.109375" style="1" customWidth="1"/>
+    <col min="741" max="741" width="14.88671875" style="1" customWidth="1"/>
+    <col min="742" max="742" width="16.88671875" style="1" customWidth="1"/>
+    <col min="743" max="743" width="7.77734375" style="1" customWidth="1"/>
+    <col min="744" max="744" width="14.88671875" style="1" customWidth="1"/>
+    <col min="745" max="745" width="9.21875" style="1" customWidth="1"/>
+    <col min="746" max="746" width="11.21875" style="1" customWidth="1"/>
+    <col min="747" max="747" width="16.21875" style="1" customWidth="1"/>
+    <col min="748" max="748" width="13.109375" style="1" customWidth="1"/>
+    <col min="749" max="751" width="12.77734375" style="1" customWidth="1"/>
+    <col min="752" max="752" width="11.88671875" style="1" customWidth="1"/>
+    <col min="753" max="753" width="12.77734375" style="1" customWidth="1"/>
+    <col min="754" max="943" width="7.77734375" style="1" customWidth="1"/>
+    <col min="944" max="944" width="5.6640625" style="1" customWidth="1"/>
+    <col min="945" max="946" width="10.88671875" style="1" customWidth="1"/>
+    <col min="947" max="947" width="9.109375" style="1" customWidth="1"/>
+    <col min="948" max="949" width="8.6640625" style="1" customWidth="1"/>
     <col min="950" max="950" width="24" style="1" customWidth="1"/>
-    <col min="951" max="951" width="17.81640625" style="1" customWidth="1"/>
-    <col min="952" max="953" width="12.81640625" style="1" customWidth="1"/>
-    <col min="954" max="954" width="20.1796875" style="1" customWidth="1"/>
-    <col min="955" max="990" width="8.36328125" style="1"/>
-    <col min="991" max="991" width="6.453125" style="1" customWidth="1"/>
-    <col min="992" max="994" width="8.6328125" style="1" customWidth="1"/>
-    <col min="995" max="995" width="21.08984375" style="1" customWidth="1"/>
-    <col min="996" max="996" width="25.08984375" style="1" customWidth="1"/>
-    <col min="997" max="997" width="14.90625" style="1" customWidth="1"/>
-    <col min="998" max="998" width="16.90625" style="1" customWidth="1"/>
-    <col min="999" max="999" width="7.81640625" style="1" customWidth="1"/>
-    <col min="1000" max="1000" width="14.90625" style="1" customWidth="1"/>
-    <col min="1001" max="1001" width="9.1796875" style="1" customWidth="1"/>
-    <col min="1002" max="1002" width="11.1796875" style="1" customWidth="1"/>
-    <col min="1003" max="1003" width="16.1796875" style="1" customWidth="1"/>
-    <col min="1004" max="1004" width="13.08984375" style="1" customWidth="1"/>
-    <col min="1005" max="1007" width="12.81640625" style="1" customWidth="1"/>
-    <col min="1008" max="1008" width="11.90625" style="1" customWidth="1"/>
-    <col min="1009" max="1009" width="12.81640625" style="1" customWidth="1"/>
-    <col min="1010" max="1199" width="7.81640625" style="1" customWidth="1"/>
-    <col min="1200" max="1200" width="5.6328125" style="1" customWidth="1"/>
-    <col min="1201" max="1202" width="10.90625" style="1" customWidth="1"/>
-    <col min="1203" max="1203" width="9.08984375" style="1" customWidth="1"/>
-    <col min="1204" max="1205" width="8.6328125" style="1" customWidth="1"/>
+    <col min="951" max="951" width="17.77734375" style="1" customWidth="1"/>
+    <col min="952" max="953" width="12.77734375" style="1" customWidth="1"/>
+    <col min="954" max="954" width="20.21875" style="1" customWidth="1"/>
+    <col min="955" max="990" width="8.33203125" style="1"/>
+    <col min="991" max="991" width="6.44140625" style="1" customWidth="1"/>
+    <col min="992" max="994" width="8.6640625" style="1" customWidth="1"/>
+    <col min="995" max="995" width="21.109375" style="1" customWidth="1"/>
+    <col min="996" max="996" width="25.109375" style="1" customWidth="1"/>
+    <col min="997" max="997" width="14.88671875" style="1" customWidth="1"/>
+    <col min="998" max="998" width="16.88671875" style="1" customWidth="1"/>
+    <col min="999" max="999" width="7.77734375" style="1" customWidth="1"/>
+    <col min="1000" max="1000" width="14.88671875" style="1" customWidth="1"/>
+    <col min="1001" max="1001" width="9.21875" style="1" customWidth="1"/>
+    <col min="1002" max="1002" width="11.21875" style="1" customWidth="1"/>
+    <col min="1003" max="1003" width="16.21875" style="1" customWidth="1"/>
+    <col min="1004" max="1004" width="13.109375" style="1" customWidth="1"/>
+    <col min="1005" max="1007" width="12.77734375" style="1" customWidth="1"/>
+    <col min="1008" max="1008" width="11.88671875" style="1" customWidth="1"/>
+    <col min="1009" max="1009" width="12.77734375" style="1" customWidth="1"/>
+    <col min="1010" max="1199" width="7.77734375" style="1" customWidth="1"/>
+    <col min="1200" max="1200" width="5.6640625" style="1" customWidth="1"/>
+    <col min="1201" max="1202" width="10.88671875" style="1" customWidth="1"/>
+    <col min="1203" max="1203" width="9.109375" style="1" customWidth="1"/>
+    <col min="1204" max="1205" width="8.6640625" style="1" customWidth="1"/>
     <col min="1206" max="1206" width="24" style="1" customWidth="1"/>
-    <col min="1207" max="1207" width="17.81640625" style="1" customWidth="1"/>
-    <col min="1208" max="1209" width="12.81640625" style="1" customWidth="1"/>
-    <col min="1210" max="1210" width="20.1796875" style="1" customWidth="1"/>
-    <col min="1211" max="1246" width="8.36328125" style="1"/>
-    <col min="1247" max="1247" width="6.453125" style="1" customWidth="1"/>
-    <col min="1248" max="1250" width="8.6328125" style="1" customWidth="1"/>
-    <col min="1251" max="1251" width="21.08984375" style="1" customWidth="1"/>
-    <col min="1252" max="1252" width="25.08984375" style="1" customWidth="1"/>
-    <col min="1253" max="1253" width="14.90625" style="1" customWidth="1"/>
-    <col min="1254" max="1254" width="16.90625" style="1" customWidth="1"/>
-    <col min="1255" max="1255" width="7.81640625" style="1" customWidth="1"/>
-    <col min="1256" max="1256" width="14.90625" style="1" customWidth="1"/>
-    <col min="1257" max="1257" width="9.1796875" style="1" customWidth="1"/>
-    <col min="1258" max="1258" width="11.1796875" style="1" customWidth="1"/>
-    <col min="1259" max="1259" width="16.1796875" style="1" customWidth="1"/>
-    <col min="1260" max="1260" width="13.08984375" style="1" customWidth="1"/>
-    <col min="1261" max="1263" width="12.81640625" style="1" customWidth="1"/>
-    <col min="1264" max="1264" width="11.90625" style="1" customWidth="1"/>
-    <col min="1265" max="1265" width="12.81640625" style="1" customWidth="1"/>
-    <col min="1266" max="1455" width="7.81640625" style="1" customWidth="1"/>
-    <col min="1456" max="1456" width="5.6328125" style="1" customWidth="1"/>
-    <col min="1457" max="1458" width="10.90625" style="1" customWidth="1"/>
-    <col min="1459" max="1459" width="9.08984375" style="1" customWidth="1"/>
-    <col min="1460" max="1461" width="8.6328125" style="1" customWidth="1"/>
+    <col min="1207" max="1207" width="17.77734375" style="1" customWidth="1"/>
+    <col min="1208" max="1209" width="12.77734375" style="1" customWidth="1"/>
+    <col min="1210" max="1210" width="20.21875" style="1" customWidth="1"/>
+    <col min="1211" max="1246" width="8.33203125" style="1"/>
+    <col min="1247" max="1247" width="6.44140625" style="1" customWidth="1"/>
+    <col min="1248" max="1250" width="8.6640625" style="1" customWidth="1"/>
+    <col min="1251" max="1251" width="21.109375" style="1" customWidth="1"/>
+    <col min="1252" max="1252" width="25.109375" style="1" customWidth="1"/>
+    <col min="1253" max="1253" width="14.88671875" style="1" customWidth="1"/>
+    <col min="1254" max="1254" width="16.88671875" style="1" customWidth="1"/>
+    <col min="1255" max="1255" width="7.77734375" style="1" customWidth="1"/>
+    <col min="1256" max="1256" width="14.88671875" style="1" customWidth="1"/>
+    <col min="1257" max="1257" width="9.21875" style="1" customWidth="1"/>
+    <col min="1258" max="1258" width="11.21875" style="1" customWidth="1"/>
+    <col min="1259" max="1259" width="16.21875" style="1" customWidth="1"/>
+    <col min="1260" max="1260" width="13.109375" style="1" customWidth="1"/>
+    <col min="1261" max="1263" width="12.77734375" style="1" customWidth="1"/>
+    <col min="1264" max="1264" width="11.88671875" style="1" customWidth="1"/>
+    <col min="1265" max="1265" width="12.77734375" style="1" customWidth="1"/>
+    <col min="1266" max="1455" width="7.77734375" style="1" customWidth="1"/>
+    <col min="1456" max="1456" width="5.6640625" style="1" customWidth="1"/>
+    <col min="1457" max="1458" width="10.88671875" style="1" customWidth="1"/>
+    <col min="1459" max="1459" width="9.109375" style="1" customWidth="1"/>
+    <col min="1460" max="1461" width="8.6640625" style="1" customWidth="1"/>
     <col min="1462" max="1462" width="24" style="1" customWidth="1"/>
-    <col min="1463" max="1463" width="17.81640625" style="1" customWidth="1"/>
-    <col min="1464" max="1465" width="12.81640625" style="1" customWidth="1"/>
-    <col min="1466" max="1466" width="20.1796875" style="1" customWidth="1"/>
-    <col min="1467" max="1502" width="8.36328125" style="1"/>
-    <col min="1503" max="1503" width="6.453125" style="1" customWidth="1"/>
-    <col min="1504" max="1506" width="8.6328125" style="1" customWidth="1"/>
-    <col min="1507" max="1507" width="21.08984375" style="1" customWidth="1"/>
-    <col min="1508" max="1508" width="25.08984375" style="1" customWidth="1"/>
-    <col min="1509" max="1509" width="14.90625" style="1" customWidth="1"/>
-    <col min="1510" max="1510" width="16.90625" style="1" customWidth="1"/>
-    <col min="1511" max="1511" width="7.81640625" style="1" customWidth="1"/>
-    <col min="1512" max="1512" width="14.90625" style="1" customWidth="1"/>
-    <col min="1513" max="1513" width="9.1796875" style="1" customWidth="1"/>
-    <col min="1514" max="1514" width="11.1796875" style="1" customWidth="1"/>
-    <col min="1515" max="1515" width="16.1796875" style="1" customWidth="1"/>
-    <col min="1516" max="1516" width="13.08984375" style="1" customWidth="1"/>
-    <col min="1517" max="1519" width="12.81640625" style="1" customWidth="1"/>
-    <col min="1520" max="1520" width="11.90625" style="1" customWidth="1"/>
-    <col min="1521" max="1521" width="12.81640625" style="1" customWidth="1"/>
-    <col min="1522" max="1711" width="7.81640625" style="1" customWidth="1"/>
-    <col min="1712" max="1712" width="5.6328125" style="1" customWidth="1"/>
-    <col min="1713" max="1714" width="10.90625" style="1" customWidth="1"/>
-    <col min="1715" max="1715" width="9.08984375" style="1" customWidth="1"/>
-    <col min="1716" max="1717" width="8.6328125" style="1" customWidth="1"/>
+    <col min="1463" max="1463" width="17.77734375" style="1" customWidth="1"/>
+    <col min="1464" max="1465" width="12.77734375" style="1" customWidth="1"/>
+    <col min="1466" max="1466" width="20.21875" style="1" customWidth="1"/>
+    <col min="1467" max="1502" width="8.33203125" style="1"/>
+    <col min="1503" max="1503" width="6.44140625" style="1" customWidth="1"/>
+    <col min="1504" max="1506" width="8.6640625" style="1" customWidth="1"/>
+    <col min="1507" max="1507" width="21.109375" style="1" customWidth="1"/>
+    <col min="1508" max="1508" width="25.109375" style="1" customWidth="1"/>
+    <col min="1509" max="1509" width="14.88671875" style="1" customWidth="1"/>
+    <col min="1510" max="1510" width="16.88671875" style="1" customWidth="1"/>
+    <col min="1511" max="1511" width="7.77734375" style="1" customWidth="1"/>
+    <col min="1512" max="1512" width="14.88671875" style="1" customWidth="1"/>
+    <col min="1513" max="1513" width="9.21875" style="1" customWidth="1"/>
+    <col min="1514" max="1514" width="11.21875" style="1" customWidth="1"/>
+    <col min="1515" max="1515" width="16.21875" style="1" customWidth="1"/>
+    <col min="1516" max="1516" width="13.109375" style="1" customWidth="1"/>
+    <col min="1517" max="1519" width="12.77734375" style="1" customWidth="1"/>
+    <col min="1520" max="1520" width="11.88671875" style="1" customWidth="1"/>
+    <col min="1521" max="1521" width="12.77734375" style="1" customWidth="1"/>
+    <col min="1522" max="1711" width="7.77734375" style="1" customWidth="1"/>
+    <col min="1712" max="1712" width="5.6640625" style="1" customWidth="1"/>
+    <col min="1713" max="1714" width="10.88671875" style="1" customWidth="1"/>
+    <col min="1715" max="1715" width="9.109375" style="1" customWidth="1"/>
+    <col min="1716" max="1717" width="8.6640625" style="1" customWidth="1"/>
     <col min="1718" max="1718" width="24" style="1" customWidth="1"/>
-    <col min="1719" max="1719" width="17.81640625" style="1" customWidth="1"/>
-    <col min="1720" max="1721" width="12.81640625" style="1" customWidth="1"/>
-    <col min="1722" max="1722" width="20.1796875" style="1" customWidth="1"/>
-    <col min="1723" max="1758" width="8.36328125" style="1"/>
-    <col min="1759" max="1759" width="6.453125" style="1" customWidth="1"/>
-    <col min="1760" max="1762" width="8.6328125" style="1" customWidth="1"/>
-    <col min="1763" max="1763" width="21.08984375" style="1" customWidth="1"/>
-    <col min="1764" max="1764" width="25.08984375" style="1" customWidth="1"/>
-    <col min="1765" max="1765" width="14.90625" style="1" customWidth="1"/>
-    <col min="1766" max="1766" width="16.90625" style="1" customWidth="1"/>
-    <col min="1767" max="1767" width="7.81640625" style="1" customWidth="1"/>
-    <col min="1768" max="1768" width="14.90625" style="1" customWidth="1"/>
-    <col min="1769" max="1769" width="9.1796875" style="1" customWidth="1"/>
-    <col min="1770" max="1770" width="11.1796875" style="1" customWidth="1"/>
-    <col min="1771" max="1771" width="16.1796875" style="1" customWidth="1"/>
-    <col min="1772" max="1772" width="13.08984375" style="1" customWidth="1"/>
-    <col min="1773" max="1775" width="12.81640625" style="1" customWidth="1"/>
-    <col min="1776" max="1776" width="11.90625" style="1" customWidth="1"/>
-    <col min="1777" max="1777" width="12.81640625" style="1" customWidth="1"/>
-    <col min="1778" max="1967" width="7.81640625" style="1" customWidth="1"/>
-    <col min="1968" max="1968" width="5.6328125" style="1" customWidth="1"/>
-    <col min="1969" max="1970" width="10.90625" style="1" customWidth="1"/>
-    <col min="1971" max="1971" width="9.08984375" style="1" customWidth="1"/>
-    <col min="1972" max="1973" width="8.6328125" style="1" customWidth="1"/>
+    <col min="1719" max="1719" width="17.77734375" style="1" customWidth="1"/>
+    <col min="1720" max="1721" width="12.77734375" style="1" customWidth="1"/>
+    <col min="1722" max="1722" width="20.21875" style="1" customWidth="1"/>
+    <col min="1723" max="1758" width="8.33203125" style="1"/>
+    <col min="1759" max="1759" width="6.44140625" style="1" customWidth="1"/>
+    <col min="1760" max="1762" width="8.6640625" style="1" customWidth="1"/>
+    <col min="1763" max="1763" width="21.109375" style="1" customWidth="1"/>
+    <col min="1764" max="1764" width="25.109375" style="1" customWidth="1"/>
+    <col min="1765" max="1765" width="14.88671875" style="1" customWidth="1"/>
+    <col min="1766" max="1766" width="16.88671875" style="1" customWidth="1"/>
+    <col min="1767" max="1767" width="7.77734375" style="1" customWidth="1"/>
+    <col min="1768" max="1768" width="14.88671875" style="1" customWidth="1"/>
+    <col min="1769" max="1769" width="9.21875" style="1" customWidth="1"/>
+    <col min="1770" max="1770" width="11.21875" style="1" customWidth="1"/>
+    <col min="1771" max="1771" width="16.21875" style="1" customWidth="1"/>
+    <col min="1772" max="1772" width="13.109375" style="1" customWidth="1"/>
+    <col min="1773" max="1775" width="12.77734375" style="1" customWidth="1"/>
+    <col min="1776" max="1776" width="11.88671875" style="1" customWidth="1"/>
+    <col min="1777" max="1777" width="12.77734375" style="1" customWidth="1"/>
+    <col min="1778" max="1967" width="7.77734375" style="1" customWidth="1"/>
+    <col min="1968" max="1968" width="5.6640625" style="1" customWidth="1"/>
+    <col min="1969" max="1970" width="10.88671875" style="1" customWidth="1"/>
+    <col min="1971" max="1971" width="9.109375" style="1" customWidth="1"/>
+    <col min="1972" max="1973" width="8.6640625" style="1" customWidth="1"/>
     <col min="1974" max="1974" width="24" style="1" customWidth="1"/>
-    <col min="1975" max="1975" width="17.81640625" style="1" customWidth="1"/>
-    <col min="1976" max="1977" width="12.81640625" style="1" customWidth="1"/>
-    <col min="1978" max="1978" width="20.1796875" style="1" customWidth="1"/>
-    <col min="1979" max="2014" width="8.36328125" style="1"/>
-    <col min="2015" max="2015" width="6.453125" style="1" customWidth="1"/>
-    <col min="2016" max="2018" width="8.6328125" style="1" customWidth="1"/>
-    <col min="2019" max="2019" width="21.08984375" style="1" customWidth="1"/>
-    <col min="2020" max="2020" width="25.08984375" style="1" customWidth="1"/>
-    <col min="2021" max="2021" width="14.90625" style="1" customWidth="1"/>
-    <col min="2022" max="2022" width="16.90625" style="1" customWidth="1"/>
-    <col min="2023" max="2023" width="7.81640625" style="1" customWidth="1"/>
-    <col min="2024" max="2024" width="14.90625" style="1" customWidth="1"/>
-    <col min="2025" max="2025" width="9.1796875" style="1" customWidth="1"/>
-    <col min="2026" max="2026" width="11.1796875" style="1" customWidth="1"/>
-    <col min="2027" max="2027" width="16.1796875" style="1" customWidth="1"/>
-    <col min="2028" max="2028" width="13.08984375" style="1" customWidth="1"/>
-    <col min="2029" max="2031" width="12.81640625" style="1" customWidth="1"/>
-    <col min="2032" max="2032" width="11.90625" style="1" customWidth="1"/>
-    <col min="2033" max="2033" width="12.81640625" style="1" customWidth="1"/>
-    <col min="2034" max="2223" width="7.81640625" style="1" customWidth="1"/>
-    <col min="2224" max="2224" width="5.6328125" style="1" customWidth="1"/>
-    <col min="2225" max="2226" width="10.90625" style="1" customWidth="1"/>
-    <col min="2227" max="2227" width="9.08984375" style="1" customWidth="1"/>
-    <col min="2228" max="2229" width="8.6328125" style="1" customWidth="1"/>
+    <col min="1975" max="1975" width="17.77734375" style="1" customWidth="1"/>
+    <col min="1976" max="1977" width="12.77734375" style="1" customWidth="1"/>
+    <col min="1978" max="1978" width="20.21875" style="1" customWidth="1"/>
+    <col min="1979" max="2014" width="8.33203125" style="1"/>
+    <col min="2015" max="2015" width="6.44140625" style="1" customWidth="1"/>
+    <col min="2016" max="2018" width="8.6640625" style="1" customWidth="1"/>
+    <col min="2019" max="2019" width="21.109375" style="1" customWidth="1"/>
+    <col min="2020" max="2020" width="25.109375" style="1" customWidth="1"/>
+    <col min="2021" max="2021" width="14.88671875" style="1" customWidth="1"/>
+    <col min="2022" max="2022" width="16.88671875" style="1" customWidth="1"/>
+    <col min="2023" max="2023" width="7.77734375" style="1" customWidth="1"/>
+    <col min="2024" max="2024" width="14.88671875" style="1" customWidth="1"/>
+    <col min="2025" max="2025" width="9.21875" style="1" customWidth="1"/>
+    <col min="2026" max="2026" width="11.21875" style="1" customWidth="1"/>
+    <col min="2027" max="2027" width="16.21875" style="1" customWidth="1"/>
+    <col min="2028" max="2028" width="13.109375" style="1" customWidth="1"/>
+    <col min="2029" max="2031" width="12.77734375" style="1" customWidth="1"/>
+    <col min="2032" max="2032" width="11.88671875" style="1" customWidth="1"/>
+    <col min="2033" max="2033" width="12.77734375" style="1" customWidth="1"/>
+    <col min="2034" max="2223" width="7.77734375" style="1" customWidth="1"/>
+    <col min="2224" max="2224" width="5.6640625" style="1" customWidth="1"/>
+    <col min="2225" max="2226" width="10.88671875" style="1" customWidth="1"/>
+    <col min="2227" max="2227" width="9.109375" style="1" customWidth="1"/>
+    <col min="2228" max="2229" width="8.6640625" style="1" customWidth="1"/>
     <col min="2230" max="2230" width="24" style="1" customWidth="1"/>
-    <col min="2231" max="2231" width="17.81640625" style="1" customWidth="1"/>
-    <col min="2232" max="2233" width="12.81640625" style="1" customWidth="1"/>
-    <col min="2234" max="2234" width="20.1796875" style="1" customWidth="1"/>
-    <col min="2235" max="2270" width="8.36328125" style="1"/>
-    <col min="2271" max="2271" width="6.453125" style="1" customWidth="1"/>
-    <col min="2272" max="2274" width="8.6328125" style="1" customWidth="1"/>
-    <col min="2275" max="2275" width="21.08984375" style="1" customWidth="1"/>
-    <col min="2276" max="2276" width="25.08984375" style="1" customWidth="1"/>
-    <col min="2277" max="2277" width="14.90625" style="1" customWidth="1"/>
-    <col min="2278" max="2278" width="16.90625" style="1" customWidth="1"/>
-    <col min="2279" max="2279" width="7.81640625" style="1" customWidth="1"/>
-    <col min="2280" max="2280" width="14.90625" style="1" customWidth="1"/>
-    <col min="2281" max="2281" width="9.1796875" style="1" customWidth="1"/>
-    <col min="2282" max="2282" width="11.1796875" style="1" customWidth="1"/>
-    <col min="2283" max="2283" width="16.1796875" style="1" customWidth="1"/>
-    <col min="2284" max="2284" width="13.08984375" style="1" customWidth="1"/>
-    <col min="2285" max="2287" width="12.81640625" style="1" customWidth="1"/>
-    <col min="2288" max="2288" width="11.90625" style="1" customWidth="1"/>
-    <col min="2289" max="2289" width="12.81640625" style="1" customWidth="1"/>
-    <col min="2290" max="2479" width="7.81640625" style="1" customWidth="1"/>
-    <col min="2480" max="2480" width="5.6328125" style="1" customWidth="1"/>
-    <col min="2481" max="2482" width="10.90625" style="1" customWidth="1"/>
-    <col min="2483" max="2483" width="9.08984375" style="1" customWidth="1"/>
-    <col min="2484" max="2485" width="8.6328125" style="1" customWidth="1"/>
+    <col min="2231" max="2231" width="17.77734375" style="1" customWidth="1"/>
+    <col min="2232" max="2233" width="12.77734375" style="1" customWidth="1"/>
+    <col min="2234" max="2234" width="20.21875" style="1" customWidth="1"/>
+    <col min="2235" max="2270" width="8.33203125" style="1"/>
+    <col min="2271" max="2271" width="6.44140625" style="1" customWidth="1"/>
+    <col min="2272" max="2274" width="8.6640625" style="1" customWidth="1"/>
+    <col min="2275" max="2275" width="21.109375" style="1" customWidth="1"/>
+    <col min="2276" max="2276" width="25.109375" style="1" customWidth="1"/>
+    <col min="2277" max="2277" width="14.88671875" style="1" customWidth="1"/>
+    <col min="2278" max="2278" width="16.88671875" style="1" customWidth="1"/>
+    <col min="2279" max="2279" width="7.77734375" style="1" customWidth="1"/>
+    <col min="2280" max="2280" width="14.88671875" style="1" customWidth="1"/>
+    <col min="2281" max="2281" width="9.21875" style="1" customWidth="1"/>
+    <col min="2282" max="2282" width="11.21875" style="1" customWidth="1"/>
+    <col min="2283" max="2283" width="16.21875" style="1" customWidth="1"/>
+    <col min="2284" max="2284" width="13.109375" style="1" customWidth="1"/>
+    <col min="2285" max="2287" width="12.77734375" style="1" customWidth="1"/>
+    <col min="2288" max="2288" width="11.88671875" style="1" customWidth="1"/>
+    <col min="2289" max="2289" width="12.77734375" style="1" customWidth="1"/>
+    <col min="2290" max="2479" width="7.77734375" style="1" customWidth="1"/>
+    <col min="2480" max="2480" width="5.6640625" style="1" customWidth="1"/>
+    <col min="2481" max="2482" width="10.88671875" style="1" customWidth="1"/>
+    <col min="2483" max="2483" width="9.109375" style="1" customWidth="1"/>
+    <col min="2484" max="2485" width="8.6640625" style="1" customWidth="1"/>
     <col min="2486" max="2486" width="24" style="1" customWidth="1"/>
-    <col min="2487" max="2487" width="17.81640625" style="1" customWidth="1"/>
-    <col min="2488" max="2489" width="12.81640625" style="1" customWidth="1"/>
-    <col min="2490" max="2490" width="20.1796875" style="1" customWidth="1"/>
-    <col min="2491" max="2526" width="8.36328125" style="1"/>
-    <col min="2527" max="2527" width="6.453125" style="1" customWidth="1"/>
-    <col min="2528" max="2530" width="8.6328125" style="1" customWidth="1"/>
-    <col min="2531" max="2531" width="21.08984375" style="1" customWidth="1"/>
-    <col min="2532" max="2532" width="25.08984375" style="1" customWidth="1"/>
-    <col min="2533" max="2533" width="14.90625" style="1" customWidth="1"/>
-    <col min="2534" max="2534" width="16.90625" style="1" customWidth="1"/>
-    <col min="2535" max="2535" width="7.81640625" style="1" customWidth="1"/>
-    <col min="2536" max="2536" width="14.90625" style="1" customWidth="1"/>
-    <col min="2537" max="2537" width="9.1796875" style="1" customWidth="1"/>
-    <col min="2538" max="2538" width="11.1796875" style="1" customWidth="1"/>
-    <col min="2539" max="2539" width="16.1796875" style="1" customWidth="1"/>
-    <col min="2540" max="2540" width="13.08984375" style="1" customWidth="1"/>
-    <col min="2541" max="2543" width="12.81640625" style="1" customWidth="1"/>
-    <col min="2544" max="2544" width="11.90625" style="1" customWidth="1"/>
-    <col min="2545" max="2545" width="12.81640625" style="1" customWidth="1"/>
-    <col min="2546" max="2735" width="7.81640625" style="1" customWidth="1"/>
-    <col min="2736" max="2736" width="5.6328125" style="1" customWidth="1"/>
-    <col min="2737" max="2738" width="10.90625" style="1" customWidth="1"/>
-    <col min="2739" max="2739" width="9.08984375" style="1" customWidth="1"/>
-    <col min="2740" max="2741" width="8.6328125" style="1" customWidth="1"/>
+    <col min="2487" max="2487" width="17.77734375" style="1" customWidth="1"/>
+    <col min="2488" max="2489" width="12.77734375" style="1" customWidth="1"/>
+    <col min="2490" max="2490" width="20.21875" style="1" customWidth="1"/>
+    <col min="2491" max="2526" width="8.33203125" style="1"/>
+    <col min="2527" max="2527" width="6.44140625" style="1" customWidth="1"/>
+    <col min="2528" max="2530" width="8.6640625" style="1" customWidth="1"/>
+    <col min="2531" max="2531" width="21.109375" style="1" customWidth="1"/>
+    <col min="2532" max="2532" width="25.109375" style="1" customWidth="1"/>
+    <col min="2533" max="2533" width="14.88671875" style="1" customWidth="1"/>
+    <col min="2534" max="2534" width="16.88671875" style="1" customWidth="1"/>
+    <col min="2535" max="2535" width="7.77734375" style="1" customWidth="1"/>
+    <col min="2536" max="2536" width="14.88671875" style="1" customWidth="1"/>
+    <col min="2537" max="2537" width="9.21875" style="1" customWidth="1"/>
+    <col min="2538" max="2538" width="11.21875" style="1" customWidth="1"/>
+    <col min="2539" max="2539" width="16.21875" style="1" customWidth="1"/>
+    <col min="2540" max="2540" width="13.109375" style="1" customWidth="1"/>
+    <col min="2541" max="2543" width="12.77734375" style="1" customWidth="1"/>
+    <col min="2544" max="2544" width="11.88671875" style="1" customWidth="1"/>
+    <col min="2545" max="2545" width="12.77734375" style="1" customWidth="1"/>
+    <col min="2546" max="2735" width="7.77734375" style="1" customWidth="1"/>
+    <col min="2736" max="2736" width="5.6640625" style="1" customWidth="1"/>
+    <col min="2737" max="2738" width="10.88671875" style="1" customWidth="1"/>
+    <col min="2739" max="2739" width="9.109375" style="1" customWidth="1"/>
+    <col min="2740" max="2741" width="8.6640625" style="1" customWidth="1"/>
     <col min="2742" max="2742" width="24" style="1" customWidth="1"/>
-    <col min="2743" max="2743" width="17.81640625" style="1" customWidth="1"/>
-    <col min="2744" max="2745" width="12.81640625" style="1" customWidth="1"/>
-    <col min="2746" max="2746" width="20.1796875" style="1" customWidth="1"/>
-    <col min="2747" max="2782" width="8.36328125" style="1"/>
-    <col min="2783" max="2783" width="6.453125" style="1" customWidth="1"/>
-    <col min="2784" max="2786" width="8.6328125" style="1" customWidth="1"/>
-    <col min="2787" max="2787" width="21.08984375" style="1" customWidth="1"/>
-    <col min="2788" max="2788" width="25.08984375" style="1" customWidth="1"/>
-    <col min="2789" max="2789" width="14.90625" style="1" customWidth="1"/>
-    <col min="2790" max="2790" width="16.90625" style="1" customWidth="1"/>
-    <col min="2791" max="2791" width="7.81640625" style="1" customWidth="1"/>
-    <col min="2792" max="2792" width="14.90625" style="1" customWidth="1"/>
-    <col min="2793" max="2793" width="9.1796875" style="1" customWidth="1"/>
-    <col min="2794" max="2794" width="11.1796875" style="1" customWidth="1"/>
-    <col min="2795" max="2795" width="16.1796875" style="1" customWidth="1"/>
-    <col min="2796" max="2796" width="13.08984375" style="1" customWidth="1"/>
-    <col min="2797" max="2799" width="12.81640625" style="1" customWidth="1"/>
-    <col min="2800" max="2800" width="11.90625" style="1" customWidth="1"/>
-    <col min="2801" max="2801" width="12.81640625" style="1" customWidth="1"/>
-    <col min="2802" max="2991" width="7.81640625" style="1" customWidth="1"/>
-    <col min="2992" max="2992" width="5.6328125" style="1" customWidth="1"/>
-    <col min="2993" max="2994" width="10.90625" style="1" customWidth="1"/>
-    <col min="2995" max="2995" width="9.08984375" style="1" customWidth="1"/>
-    <col min="2996" max="2997" width="8.6328125" style="1" customWidth="1"/>
+    <col min="2743" max="2743" width="17.77734375" style="1" customWidth="1"/>
+    <col min="2744" max="2745" width="12.77734375" style="1" customWidth="1"/>
+    <col min="2746" max="2746" width="20.21875" style="1" customWidth="1"/>
+    <col min="2747" max="2782" width="8.33203125" style="1"/>
+    <col min="2783" max="2783" width="6.44140625" style="1" customWidth="1"/>
+    <col min="2784" max="2786" width="8.6640625" style="1" customWidth="1"/>
+    <col min="2787" max="2787" width="21.109375" style="1" customWidth="1"/>
+    <col min="2788" max="2788" width="25.109375" style="1" customWidth="1"/>
+    <col min="2789" max="2789" width="14.88671875" style="1" customWidth="1"/>
+    <col min="2790" max="2790" width="16.88671875" style="1" customWidth="1"/>
+    <col min="2791" max="2791" width="7.77734375" style="1" customWidth="1"/>
+    <col min="2792" max="2792" width="14.88671875" style="1" customWidth="1"/>
+    <col min="2793" max="2793" width="9.21875" style="1" customWidth="1"/>
+    <col min="2794" max="2794" width="11.21875" style="1" customWidth="1"/>
+    <col min="2795" max="2795" width="16.21875" style="1" customWidth="1"/>
+    <col min="2796" max="2796" width="13.109375" style="1" customWidth="1"/>
+    <col min="2797" max="2799" width="12.77734375" style="1" customWidth="1"/>
+    <col min="2800" max="2800" width="11.88671875" style="1" customWidth="1"/>
+    <col min="2801" max="2801" width="12.77734375" style="1" customWidth="1"/>
+    <col min="2802" max="2991" width="7.77734375" style="1" customWidth="1"/>
+    <col min="2992" max="2992" width="5.6640625" style="1" customWidth="1"/>
+    <col min="2993" max="2994" width="10.88671875" style="1" customWidth="1"/>
+    <col min="2995" max="2995" width="9.109375" style="1" customWidth="1"/>
+    <col min="2996" max="2997" width="8.6640625" style="1" customWidth="1"/>
     <col min="2998" max="2998" width="24" style="1" customWidth="1"/>
-    <col min="2999" max="2999" width="17.81640625" style="1" customWidth="1"/>
-    <col min="3000" max="3001" width="12.81640625" style="1" customWidth="1"/>
-    <col min="3002" max="3002" width="20.1796875" style="1" customWidth="1"/>
-    <col min="3003" max="3038" width="8.36328125" style="1"/>
-    <col min="3039" max="3039" width="6.453125" style="1" customWidth="1"/>
-    <col min="3040" max="3042" width="8.6328125" style="1" customWidth="1"/>
-    <col min="3043" max="3043" width="21.08984375" style="1" customWidth="1"/>
-    <col min="3044" max="3044" width="25.08984375" style="1" customWidth="1"/>
-    <col min="3045" max="3045" width="14.90625" style="1" customWidth="1"/>
-    <col min="3046" max="3046" width="16.90625" style="1" customWidth="1"/>
-    <col min="3047" max="3047" width="7.81640625" style="1" customWidth="1"/>
-    <col min="3048" max="3048" width="14.90625" style="1" customWidth="1"/>
-    <col min="3049" max="3049" width="9.1796875" style="1" customWidth="1"/>
-    <col min="3050" max="3050" width="11.1796875" style="1" customWidth="1"/>
-    <col min="3051" max="3051" width="16.1796875" style="1" customWidth="1"/>
-    <col min="3052" max="3052" width="13.08984375" style="1" customWidth="1"/>
-    <col min="3053" max="3055" width="12.81640625" style="1" customWidth="1"/>
-    <col min="3056" max="3056" width="11.90625" style="1" customWidth="1"/>
-    <col min="3057" max="3057" width="12.81640625" style="1" customWidth="1"/>
-    <col min="3058" max="3247" width="7.81640625" style="1" customWidth="1"/>
-    <col min="3248" max="3248" width="5.6328125" style="1" customWidth="1"/>
-    <col min="3249" max="3250" width="10.90625" style="1" customWidth="1"/>
-    <col min="3251" max="3251" width="9.08984375" style="1" customWidth="1"/>
-    <col min="3252" max="3253" width="8.6328125" style="1" customWidth="1"/>
+    <col min="2999" max="2999" width="17.77734375" style="1" customWidth="1"/>
+    <col min="3000" max="3001" width="12.77734375" style="1" customWidth="1"/>
+    <col min="3002" max="3002" width="20.21875" style="1" customWidth="1"/>
+    <col min="3003" max="3038" width="8.33203125" style="1"/>
+    <col min="3039" max="3039" width="6.44140625" style="1" customWidth="1"/>
+    <col min="3040" max="3042" width="8.6640625" style="1" customWidth="1"/>
+    <col min="3043" max="3043" width="21.109375" style="1" customWidth="1"/>
+    <col min="3044" max="3044" width="25.109375" style="1" customWidth="1"/>
+    <col min="3045" max="3045" width="14.88671875" style="1" customWidth="1"/>
+    <col min="3046" max="3046" width="16.88671875" style="1" customWidth="1"/>
+    <col min="3047" max="3047" width="7.77734375" style="1" customWidth="1"/>
+    <col min="3048" max="3048" width="14.88671875" style="1" customWidth="1"/>
+    <col min="3049" max="3049" width="9.21875" style="1" customWidth="1"/>
+    <col min="3050" max="3050" width="11.21875" style="1" customWidth="1"/>
+    <col min="3051" max="3051" width="16.21875" style="1" customWidth="1"/>
+    <col min="3052" max="3052" width="13.109375" style="1" customWidth="1"/>
+    <col min="3053" max="3055" width="12.77734375" style="1" customWidth="1"/>
+    <col min="3056" max="3056" width="11.88671875" style="1" customWidth="1"/>
+    <col min="3057" max="3057" width="12.77734375" style="1" customWidth="1"/>
+    <col min="3058" max="3247" width="7.77734375" style="1" customWidth="1"/>
+    <col min="3248" max="3248" width="5.6640625" style="1" customWidth="1"/>
+    <col min="3249" max="3250" width="10.88671875" style="1" customWidth="1"/>
+    <col min="3251" max="3251" width="9.109375" style="1" customWidth="1"/>
+    <col min="3252" max="3253" width="8.6640625" style="1" customWidth="1"/>
     <col min="3254" max="3254" width="24" style="1" customWidth="1"/>
-    <col min="3255" max="3255" width="17.81640625" style="1" customWidth="1"/>
-    <col min="3256" max="3257" width="12.81640625" style="1" customWidth="1"/>
-    <col min="3258" max="3258" width="20.1796875" style="1" customWidth="1"/>
-    <col min="3259" max="3294" width="8.36328125" style="1"/>
-    <col min="3295" max="3295" width="6.453125" style="1" customWidth="1"/>
-    <col min="3296" max="3298" width="8.6328125" style="1" customWidth="1"/>
-    <col min="3299" max="3299" width="21.08984375" style="1" customWidth="1"/>
-    <col min="3300" max="3300" width="25.08984375" style="1" customWidth="1"/>
-    <col min="3301" max="3301" width="14.90625" style="1" customWidth="1"/>
-    <col min="3302" max="3302" width="16.90625" style="1" customWidth="1"/>
-    <col min="3303" max="3303" width="7.81640625" style="1" customWidth="1"/>
-    <col min="3304" max="3304" width="14.90625" style="1" customWidth="1"/>
-    <col min="3305" max="3305" width="9.1796875" style="1" customWidth="1"/>
-    <col min="3306" max="3306" width="11.1796875" style="1" customWidth="1"/>
-    <col min="3307" max="3307" width="16.1796875" style="1" customWidth="1"/>
-    <col min="3308" max="3308" width="13.08984375" style="1" customWidth="1"/>
-    <col min="3309" max="3311" width="12.81640625" style="1" customWidth="1"/>
-    <col min="3312" max="3312" width="11.90625" style="1" customWidth="1"/>
-    <col min="3313" max="3313" width="12.81640625" style="1" customWidth="1"/>
-    <col min="3314" max="3503" width="7.81640625" style="1" customWidth="1"/>
-    <col min="3504" max="3504" width="5.6328125" style="1" customWidth="1"/>
-    <col min="3505" max="3506" width="10.90625" style="1" customWidth="1"/>
-    <col min="3507" max="3507" width="9.08984375" style="1" customWidth="1"/>
-    <col min="3508" max="3509" width="8.6328125" style="1" customWidth="1"/>
+    <col min="3255" max="3255" width="17.77734375" style="1" customWidth="1"/>
+    <col min="3256" max="3257" width="12.77734375" style="1" customWidth="1"/>
+    <col min="3258" max="3258" width="20.21875" style="1" customWidth="1"/>
+    <col min="3259" max="3294" width="8.33203125" style="1"/>
+    <col min="3295" max="3295" width="6.44140625" style="1" customWidth="1"/>
+    <col min="3296" max="3298" width="8.6640625" style="1" customWidth="1"/>
+    <col min="3299" max="3299" width="21.109375" style="1" customWidth="1"/>
+    <col min="3300" max="3300" width="25.109375" style="1" customWidth="1"/>
+    <col min="3301" max="3301" width="14.88671875" style="1" customWidth="1"/>
+    <col min="3302" max="3302" width="16.88671875" style="1" customWidth="1"/>
+    <col min="3303" max="3303" width="7.77734375" style="1" customWidth="1"/>
+    <col min="3304" max="3304" width="14.88671875" style="1" customWidth="1"/>
+    <col min="3305" max="3305" width="9.21875" style="1" customWidth="1"/>
+    <col min="3306" max="3306" width="11.21875" style="1" customWidth="1"/>
+    <col min="3307" max="3307" width="16.21875" style="1" customWidth="1"/>
+    <col min="3308" max="3308" width="13.109375" style="1" customWidth="1"/>
+    <col min="3309" max="3311" width="12.77734375" style="1" customWidth="1"/>
+    <col min="3312" max="3312" width="11.88671875" style="1" customWidth="1"/>
+    <col min="3313" max="3313" width="12.77734375" style="1" customWidth="1"/>
+    <col min="3314" max="3503" width="7.77734375" style="1" customWidth="1"/>
+    <col min="3504" max="3504" width="5.6640625" style="1" customWidth="1"/>
+    <col min="3505" max="3506" width="10.88671875" style="1" customWidth="1"/>
+    <col min="3507" max="3507" width="9.109375" style="1" customWidth="1"/>
+    <col min="3508" max="3509" width="8.6640625" style="1" customWidth="1"/>
     <col min="3510" max="3510" width="24" style="1" customWidth="1"/>
-    <col min="3511" max="3511" width="17.81640625" style="1" customWidth="1"/>
-    <col min="3512" max="3513" width="12.81640625" style="1" customWidth="1"/>
-    <col min="3514" max="3514" width="20.1796875" style="1" customWidth="1"/>
-    <col min="3515" max="3550" width="8.36328125" style="1"/>
-    <col min="3551" max="3551" width="6.453125" style="1" customWidth="1"/>
-    <col min="3552" max="3554" width="8.6328125" style="1" customWidth="1"/>
-    <col min="3555" max="3555" width="21.08984375" style="1" customWidth="1"/>
-    <col min="3556" max="3556" width="25.08984375" style="1" customWidth="1"/>
-    <col min="3557" max="3557" width="14.90625" style="1" customWidth="1"/>
-    <col min="3558" max="3558" width="16.90625" style="1" customWidth="1"/>
-    <col min="3559" max="3559" width="7.81640625" style="1" customWidth="1"/>
-    <col min="3560" max="3560" width="14.90625" style="1" customWidth="1"/>
-    <col min="3561" max="3561" width="9.1796875" style="1" customWidth="1"/>
-    <col min="3562" max="3562" width="11.1796875" style="1" customWidth="1"/>
-    <col min="3563" max="3563" width="16.1796875" style="1" customWidth="1"/>
-    <col min="3564" max="3564" width="13.08984375" style="1" customWidth="1"/>
-    <col min="3565" max="3567" width="12.81640625" style="1" customWidth="1"/>
-    <col min="3568" max="3568" width="11.90625" style="1" customWidth="1"/>
-    <col min="3569" max="3569" width="12.81640625" style="1" customWidth="1"/>
-    <col min="3570" max="3759" width="7.81640625" style="1" customWidth="1"/>
-    <col min="3760" max="3760" width="5.6328125" style="1" customWidth="1"/>
-    <col min="3761" max="3762" width="10.90625" style="1" customWidth="1"/>
-    <col min="3763" max="3763" width="9.08984375" style="1" customWidth="1"/>
-    <col min="3764" max="3765" width="8.6328125" style="1" customWidth="1"/>
+    <col min="3511" max="3511" width="17.77734375" style="1" customWidth="1"/>
+    <col min="3512" max="3513" width="12.77734375" style="1" customWidth="1"/>
+    <col min="3514" max="3514" width="20.21875" style="1" customWidth="1"/>
+    <col min="3515" max="3550" width="8.33203125" style="1"/>
+    <col min="3551" max="3551" width="6.44140625" style="1" customWidth="1"/>
+    <col min="3552" max="3554" width="8.6640625" style="1" customWidth="1"/>
+    <col min="3555" max="3555" width="21.109375" style="1" customWidth="1"/>
+    <col min="3556" max="3556" width="25.109375" style="1" customWidth="1"/>
+    <col min="3557" max="3557" width="14.88671875" style="1" customWidth="1"/>
+    <col min="3558" max="3558" width="16.88671875" style="1" customWidth="1"/>
+    <col min="3559" max="3559" width="7.77734375" style="1" customWidth="1"/>
+    <col min="3560" max="3560" width="14.88671875" style="1" customWidth="1"/>
+    <col min="3561" max="3561" width="9.21875" style="1" customWidth="1"/>
+    <col min="3562" max="3562" width="11.21875" style="1" customWidth="1"/>
+    <col min="3563" max="3563" width="16.21875" style="1" customWidth="1"/>
+    <col min="3564" max="3564" width="13.109375" style="1" customWidth="1"/>
+    <col min="3565" max="3567" width="12.77734375" style="1" customWidth="1"/>
+    <col min="3568" max="3568" width="11.88671875" style="1" customWidth="1"/>
+    <col min="3569" max="3569" width="12.77734375" style="1" customWidth="1"/>
+    <col min="3570" max="3759" width="7.77734375" style="1" customWidth="1"/>
+    <col min="3760" max="3760" width="5.6640625" style="1" customWidth="1"/>
+    <col min="3761" max="3762" width="10.88671875" style="1" customWidth="1"/>
+    <col min="3763" max="3763" width="9.109375" style="1" customWidth="1"/>
+    <col min="3764" max="3765" width="8.6640625" style="1" customWidth="1"/>
     <col min="3766" max="3766" width="24" style="1" customWidth="1"/>
-    <col min="3767" max="3767" width="17.81640625" style="1" customWidth="1"/>
-    <col min="3768" max="3769" width="12.81640625" style="1" customWidth="1"/>
-    <col min="3770" max="3770" width="20.1796875" style="1" customWidth="1"/>
-    <col min="3771" max="3806" width="8.36328125" style="1"/>
-    <col min="3807" max="3807" width="6.453125" style="1" customWidth="1"/>
-    <col min="3808" max="3810" width="8.6328125" style="1" customWidth="1"/>
-    <col min="3811" max="3811" width="21.08984375" style="1" customWidth="1"/>
-    <col min="3812" max="3812" width="25.08984375" style="1" customWidth="1"/>
-    <col min="3813" max="3813" width="14.90625" style="1" customWidth="1"/>
-    <col min="3814" max="3814" width="16.90625" style="1" customWidth="1"/>
-    <col min="3815" max="3815" width="7.81640625" style="1" customWidth="1"/>
-    <col min="3816" max="3816" width="14.90625" style="1" customWidth="1"/>
-    <col min="3817" max="3817" width="9.1796875" style="1" customWidth="1"/>
-    <col min="3818" max="3818" width="11.1796875" style="1" customWidth="1"/>
-    <col min="3819" max="3819" width="16.1796875" style="1" customWidth="1"/>
-    <col min="3820" max="3820" width="13.08984375" style="1" customWidth="1"/>
-    <col min="3821" max="3823" width="12.81640625" style="1" customWidth="1"/>
-    <col min="3824" max="3824" width="11.90625" style="1" customWidth="1"/>
-    <col min="3825" max="3825" width="12.81640625" style="1" customWidth="1"/>
-    <col min="3826" max="4015" width="7.81640625" style="1" customWidth="1"/>
-    <col min="4016" max="4016" width="5.6328125" style="1" customWidth="1"/>
-    <col min="4017" max="4018" width="10.90625" style="1" customWidth="1"/>
-    <col min="4019" max="4019" width="9.08984375" style="1" customWidth="1"/>
-    <col min="4020" max="4021" width="8.6328125" style="1" customWidth="1"/>
+    <col min="3767" max="3767" width="17.77734375" style="1" customWidth="1"/>
+    <col min="3768" max="3769" width="12.77734375" style="1" customWidth="1"/>
+    <col min="3770" max="3770" width="20.21875" style="1" customWidth="1"/>
+    <col min="3771" max="3806" width="8.33203125" style="1"/>
+    <col min="3807" max="3807" width="6.44140625" style="1" customWidth="1"/>
+    <col min="3808" max="3810" width="8.6640625" style="1" customWidth="1"/>
+    <col min="3811" max="3811" width="21.109375" style="1" customWidth="1"/>
+    <col min="3812" max="3812" width="25.109375" style="1" customWidth="1"/>
+    <col min="3813" max="3813" width="14.88671875" style="1" customWidth="1"/>
+    <col min="3814" max="3814" width="16.88671875" style="1" customWidth="1"/>
+    <col min="3815" max="3815" width="7.77734375" style="1" customWidth="1"/>
+    <col min="3816" max="3816" width="14.88671875" style="1" customWidth="1"/>
+    <col min="3817" max="3817" width="9.21875" style="1" customWidth="1"/>
+    <col min="3818" max="3818" width="11.21875" style="1" customWidth="1"/>
+    <col min="3819" max="3819" width="16.21875" style="1" customWidth="1"/>
+    <col min="3820" max="3820" width="13.109375" style="1" customWidth="1"/>
+    <col min="3821" max="3823" width="12.77734375" style="1" customWidth="1"/>
+    <col min="3824" max="3824" width="11.88671875" style="1" customWidth="1"/>
+    <col min="3825" max="3825" width="12.77734375" style="1" customWidth="1"/>
+    <col min="3826" max="4015" width="7.77734375" style="1" customWidth="1"/>
+    <col min="4016" max="4016" width="5.6640625" style="1" customWidth="1"/>
+    <col min="4017" max="4018" width="10.88671875" style="1" customWidth="1"/>
+    <col min="4019" max="4019" width="9.109375" style="1" customWidth="1"/>
+    <col min="4020" max="4021" width="8.6640625" style="1" customWidth="1"/>
     <col min="4022" max="4022" width="24" style="1" customWidth="1"/>
-    <col min="4023" max="4023" width="17.81640625" style="1" customWidth="1"/>
-    <col min="4024" max="4025" width="12.81640625" style="1" customWidth="1"/>
-    <col min="4026" max="4026" width="20.1796875" style="1" customWidth="1"/>
-    <col min="4027" max="4062" width="8.36328125" style="1"/>
-    <col min="4063" max="4063" width="6.453125" style="1" customWidth="1"/>
-    <col min="4064" max="4066" width="8.6328125" style="1" customWidth="1"/>
-    <col min="4067" max="4067" width="21.08984375" style="1" customWidth="1"/>
-    <col min="4068" max="4068" width="25.08984375" style="1" customWidth="1"/>
-    <col min="4069" max="4069" width="14.90625" style="1" customWidth="1"/>
-    <col min="4070" max="4070" width="16.90625" style="1" customWidth="1"/>
-    <col min="4071" max="4071" width="7.81640625" style="1" customWidth="1"/>
-    <col min="4072" max="4072" width="14.90625" style="1" customWidth="1"/>
-    <col min="4073" max="4073" width="9.1796875" style="1" customWidth="1"/>
-    <col min="4074" max="4074" width="11.1796875" style="1" customWidth="1"/>
-    <col min="4075" max="4075" width="16.1796875" style="1" customWidth="1"/>
-    <col min="4076" max="4076" width="13.08984375" style="1" customWidth="1"/>
-    <col min="4077" max="4079" width="12.81640625" style="1" customWidth="1"/>
-    <col min="4080" max="4080" width="11.90625" style="1" customWidth="1"/>
-    <col min="4081" max="4081" width="12.81640625" style="1" customWidth="1"/>
-    <col min="4082" max="4271" width="7.81640625" style="1" customWidth="1"/>
-    <col min="4272" max="4272" width="5.6328125" style="1" customWidth="1"/>
-    <col min="4273" max="4274" width="10.90625" style="1" customWidth="1"/>
-    <col min="4275" max="4275" width="9.08984375" style="1" customWidth="1"/>
-    <col min="4276" max="4277" width="8.6328125" style="1" customWidth="1"/>
+    <col min="4023" max="4023" width="17.77734375" style="1" customWidth="1"/>
+    <col min="4024" max="4025" width="12.77734375" style="1" customWidth="1"/>
+    <col min="4026" max="4026" width="20.21875" style="1" customWidth="1"/>
+    <col min="4027" max="4062" width="8.33203125" style="1"/>
+    <col min="4063" max="4063" width="6.44140625" style="1" customWidth="1"/>
+    <col min="4064" max="4066" width="8.6640625" style="1" customWidth="1"/>
+    <col min="4067" max="4067" width="21.109375" style="1" customWidth="1"/>
+    <col min="4068" max="4068" width="25.109375" style="1" customWidth="1"/>
+    <col min="4069" max="4069" width="14.88671875" style="1" customWidth="1"/>
+    <col min="4070" max="4070" width="16.88671875" style="1" customWidth="1"/>
+    <col min="4071" max="4071" width="7.77734375" style="1" customWidth="1"/>
+    <col min="4072" max="4072" width="14.88671875" style="1" customWidth="1"/>
+    <col min="4073" max="4073" width="9.21875" style="1" customWidth="1"/>
+    <col min="4074" max="4074" width="11.21875" style="1" customWidth="1"/>
+    <col min="4075" max="4075" width="16.21875" style="1" customWidth="1"/>
+    <col min="4076" max="4076" width="13.109375" style="1" customWidth="1"/>
+    <col min="4077" max="4079" width="12.77734375" style="1" customWidth="1"/>
+    <col min="4080" max="4080" width="11.88671875" style="1" customWidth="1"/>
+    <col min="4081" max="4081" width="12.77734375" style="1" customWidth="1"/>
+    <col min="4082" max="4271" width="7.77734375" style="1" customWidth="1"/>
+    <col min="4272" max="4272" width="5.6640625" style="1" customWidth="1"/>
+    <col min="4273" max="4274" width="10.88671875" style="1" customWidth="1"/>
+    <col min="4275" max="4275" width="9.109375" style="1" customWidth="1"/>
+    <col min="4276" max="4277" width="8.6640625" style="1" customWidth="1"/>
     <col min="4278" max="4278" width="24" style="1" customWidth="1"/>
-    <col min="4279" max="4279" width="17.81640625" style="1" customWidth="1"/>
-    <col min="4280" max="4281" width="12.81640625" style="1" customWidth="1"/>
-    <col min="4282" max="4282" width="20.1796875" style="1" customWidth="1"/>
-    <col min="4283" max="4318" width="8.36328125" style="1"/>
-    <col min="4319" max="4319" width="6.453125" style="1" customWidth="1"/>
-    <col min="4320" max="4322" width="8.6328125" style="1" customWidth="1"/>
-    <col min="4323" max="4323" width="21.08984375" style="1" customWidth="1"/>
-    <col min="4324" max="4324" width="25.08984375" style="1" customWidth="1"/>
-    <col min="4325" max="4325" width="14.90625" style="1" customWidth="1"/>
-    <col min="4326" max="4326" width="16.90625" style="1" customWidth="1"/>
-    <col min="4327" max="4327" width="7.81640625" style="1" customWidth="1"/>
-    <col min="4328" max="4328" width="14.90625" style="1" customWidth="1"/>
-    <col min="4329" max="4329" width="9.1796875" style="1" customWidth="1"/>
-    <col min="4330" max="4330" width="11.1796875" style="1" customWidth="1"/>
-    <col min="4331" max="4331" width="16.1796875" style="1" customWidth="1"/>
-    <col min="4332" max="4332" width="13.08984375" style="1" customWidth="1"/>
-    <col min="4333" max="4335" width="12.81640625" style="1" customWidth="1"/>
-    <col min="4336" max="4336" width="11.90625" style="1" customWidth="1"/>
-    <col min="4337" max="4337" width="12.81640625" style="1" customWidth="1"/>
-    <col min="4338" max="4527" width="7.81640625" style="1" customWidth="1"/>
-    <col min="4528" max="4528" width="5.6328125" style="1" customWidth="1"/>
-    <col min="4529" max="4530" width="10.90625" style="1" customWidth="1"/>
-    <col min="4531" max="4531" width="9.08984375" style="1" customWidth="1"/>
-    <col min="4532" max="4533" width="8.6328125" style="1" customWidth="1"/>
+    <col min="4279" max="4279" width="17.77734375" style="1" customWidth="1"/>
+    <col min="4280" max="4281" width="12.77734375" style="1" customWidth="1"/>
+    <col min="4282" max="4282" width="20.21875" style="1" customWidth="1"/>
+    <col min="4283" max="4318" width="8.33203125" style="1"/>
+    <col min="4319" max="4319" width="6.44140625" style="1" customWidth="1"/>
+    <col min="4320" max="4322" width="8.6640625" style="1" customWidth="1"/>
+    <col min="4323" max="4323" width="21.109375" style="1" customWidth="1"/>
+    <col min="4324" max="4324" width="25.109375" style="1" customWidth="1"/>
+    <col min="4325" max="4325" width="14.88671875" style="1" customWidth="1"/>
+    <col min="4326" max="4326" width="16.88671875" style="1" customWidth="1"/>
+    <col min="4327" max="4327" width="7.77734375" style="1" customWidth="1"/>
+    <col min="4328" max="4328" width="14.88671875" style="1" customWidth="1"/>
+    <col min="4329" max="4329" width="9.21875" style="1" customWidth="1"/>
+    <col min="4330" max="4330" width="11.21875" style="1" customWidth="1"/>
+    <col min="4331" max="4331" width="16.21875" style="1" customWidth="1"/>
+    <col min="4332" max="4332" width="13.109375" style="1" customWidth="1"/>
+    <col min="4333" max="4335" width="12.77734375" style="1" customWidth="1"/>
+    <col min="4336" max="4336" width="11.88671875" style="1" customWidth="1"/>
+    <col min="4337" max="4337" width="12.77734375" style="1" customWidth="1"/>
+    <col min="4338" max="4527" width="7.77734375" style="1" customWidth="1"/>
+    <col min="4528" max="4528" width="5.6640625" style="1" customWidth="1"/>
+    <col min="4529" max="4530" width="10.88671875" style="1" customWidth="1"/>
+    <col min="4531" max="4531" width="9.109375" style="1" customWidth="1"/>
+    <col min="4532" max="4533" width="8.6640625" style="1" customWidth="1"/>
     <col min="4534" max="4534" width="24" style="1" customWidth="1"/>
-    <col min="4535" max="4535" width="17.81640625" style="1" customWidth="1"/>
-    <col min="4536" max="4537" width="12.81640625" style="1" customWidth="1"/>
-    <col min="4538" max="4538" width="20.1796875" style="1" customWidth="1"/>
-    <col min="4539" max="4574" width="8.36328125" style="1"/>
-    <col min="4575" max="4575" width="6.453125" style="1" customWidth="1"/>
-    <col min="4576" max="4578" width="8.6328125" style="1" customWidth="1"/>
-    <col min="4579" max="4579" width="21.08984375" style="1" customWidth="1"/>
-    <col min="4580" max="4580" width="25.08984375" style="1" customWidth="1"/>
-    <col min="4581" max="4581" width="14.90625" style="1" customWidth="1"/>
-    <col min="4582" max="4582" width="16.90625" style="1" customWidth="1"/>
-    <col min="4583" max="4583" width="7.81640625" style="1" customWidth="1"/>
-    <col min="4584" max="4584" width="14.90625" style="1" customWidth="1"/>
-    <col min="4585" max="4585" width="9.1796875" style="1" customWidth="1"/>
-    <col min="4586" max="4586" width="11.1796875" style="1" customWidth="1"/>
-    <col min="4587" max="4587" width="16.1796875" style="1" customWidth="1"/>
-    <col min="4588" max="4588" width="13.08984375" style="1" customWidth="1"/>
-    <col min="4589" max="4591" width="12.81640625" style="1" customWidth="1"/>
-    <col min="4592" max="4592" width="11.90625" style="1" customWidth="1"/>
-    <col min="4593" max="4593" width="12.81640625" style="1" customWidth="1"/>
-    <col min="4594" max="4783" width="7.81640625" style="1" customWidth="1"/>
-    <col min="4784" max="4784" width="5.6328125" style="1" customWidth="1"/>
-    <col min="4785" max="4786" width="10.90625" style="1" customWidth="1"/>
-    <col min="4787" max="4787" width="9.08984375" style="1" customWidth="1"/>
-    <col min="4788" max="4789" width="8.6328125" style="1" customWidth="1"/>
+    <col min="4535" max="4535" width="17.77734375" style="1" customWidth="1"/>
+    <col min="4536" max="4537" width="12.77734375" style="1" customWidth="1"/>
+    <col min="4538" max="4538" width="20.21875" style="1" customWidth="1"/>
+    <col min="4539" max="4574" width="8.33203125" style="1"/>
+    <col min="4575" max="4575" width="6.44140625" style="1" customWidth="1"/>
+    <col min="4576" max="4578" width="8.6640625" style="1" customWidth="1"/>
+    <col min="4579" max="4579" width="21.109375" style="1" customWidth="1"/>
+    <col min="4580" max="4580" width="25.109375" style="1" customWidth="1"/>
+    <col min="4581" max="4581" width="14.88671875" style="1" customWidth="1"/>
+    <col min="4582" max="4582" width="16.88671875" style="1" customWidth="1"/>
+    <col min="4583" max="4583" width="7.77734375" style="1" customWidth="1"/>
+    <col min="4584" max="4584" width="14.88671875" style="1" customWidth="1"/>
+    <col min="4585" max="4585" width="9.21875" style="1" customWidth="1"/>
+    <col min="4586" max="4586" width="11.21875" style="1" customWidth="1"/>
+    <col min="4587" max="4587" width="16.21875" style="1" customWidth="1"/>
+    <col min="4588" max="4588" width="13.109375" style="1" customWidth="1"/>
+    <col min="4589" max="4591" width="12.77734375" style="1" customWidth="1"/>
+    <col min="4592" max="4592" width="11.88671875" style="1" customWidth="1"/>
+    <col min="4593" max="4593" width="12.77734375" style="1" customWidth="1"/>
+    <col min="4594" max="4783" width="7.77734375" style="1" customWidth="1"/>
+    <col min="4784" max="4784" width="5.6640625" style="1" customWidth="1"/>
+    <col min="4785" max="4786" width="10.88671875" style="1" customWidth="1"/>
+    <col min="4787" max="4787" width="9.109375" style="1" customWidth="1"/>
+    <col min="4788" max="4789" width="8.6640625" style="1" customWidth="1"/>
     <col min="4790" max="4790" width="24" style="1" customWidth="1"/>
-    <col min="4791" max="4791" width="17.81640625" style="1" customWidth="1"/>
-    <col min="4792" max="4793" width="12.81640625" style="1" customWidth="1"/>
-    <col min="4794" max="4794" width="20.1796875" style="1" customWidth="1"/>
-    <col min="4795" max="4830" width="8.36328125" style="1"/>
-    <col min="4831" max="4831" width="6.453125" style="1" customWidth="1"/>
-    <col min="4832" max="4834" width="8.6328125" style="1" customWidth="1"/>
-    <col min="4835" max="4835" width="21.08984375" style="1" customWidth="1"/>
-    <col min="4836" max="4836" width="25.08984375" style="1" customWidth="1"/>
-    <col min="4837" max="4837" width="14.90625" style="1" customWidth="1"/>
-    <col min="4838" max="4838" width="16.90625" style="1" customWidth="1"/>
-    <col min="4839" max="4839" width="7.81640625" style="1" customWidth="1"/>
-    <col min="4840" max="4840" width="14.90625" style="1" customWidth="1"/>
-    <col min="4841" max="4841" width="9.1796875" style="1" customWidth="1"/>
-    <col min="4842" max="4842" width="11.1796875" style="1" customWidth="1"/>
-    <col min="4843" max="4843" width="16.1796875" style="1" customWidth="1"/>
-    <col min="4844" max="4844" width="13.08984375" style="1" customWidth="1"/>
-    <col min="4845" max="4847" width="12.81640625" style="1" customWidth="1"/>
-    <col min="4848" max="4848" width="11.90625" style="1" customWidth="1"/>
-    <col min="4849" max="4849" width="12.81640625" style="1" customWidth="1"/>
-    <col min="4850" max="5039" width="7.81640625" style="1" customWidth="1"/>
-    <col min="5040" max="5040" width="5.6328125" style="1" customWidth="1"/>
-    <col min="5041" max="5042" width="10.90625" style="1" customWidth="1"/>
-    <col min="5043" max="5043" width="9.08984375" style="1" customWidth="1"/>
-    <col min="5044" max="5045" width="8.6328125" style="1" customWidth="1"/>
+    <col min="4791" max="4791" width="17.77734375" style="1" customWidth="1"/>
+    <col min="4792" max="4793" width="12.77734375" style="1" customWidth="1"/>
+    <col min="4794" max="4794" width="20.21875" style="1" customWidth="1"/>
+    <col min="4795" max="4830" width="8.33203125" style="1"/>
+    <col min="4831" max="4831" width="6.44140625" style="1" customWidth="1"/>
+    <col min="4832" max="4834" width="8.6640625" style="1" customWidth="1"/>
+    <col min="4835" max="4835" width="21.109375" style="1" customWidth="1"/>
+    <col min="4836" max="4836" width="25.109375" style="1" customWidth="1"/>
+    <col min="4837" max="4837" width="14.88671875" style="1" customWidth="1"/>
+    <col min="4838" max="4838" width="16.88671875" style="1" customWidth="1"/>
+    <col min="4839" max="4839" width="7.77734375" style="1" customWidth="1"/>
+    <col min="4840" max="4840" width="14.88671875" style="1" customWidth="1"/>
+    <col min="4841" max="4841" width="9.21875" style="1" customWidth="1"/>
+    <col min="4842" max="4842" width="11.21875" style="1" customWidth="1"/>
+    <col min="4843" max="4843" width="16.21875" style="1" customWidth="1"/>
+    <col min="4844" max="4844" width="13.109375" style="1" customWidth="1"/>
+    <col min="4845" max="4847" width="12.77734375" style="1" customWidth="1"/>
+    <col min="4848" max="4848" width="11.88671875" style="1" customWidth="1"/>
+    <col min="4849" max="4849" width="12.77734375" style="1" customWidth="1"/>
+    <col min="4850" max="5039" width="7.77734375" style="1" customWidth="1"/>
+    <col min="5040" max="5040" width="5.6640625" style="1" customWidth="1"/>
+    <col min="5041" max="5042" width="10.88671875" style="1" customWidth="1"/>
+    <col min="5043" max="5043" width="9.109375" style="1" customWidth="1"/>
+    <col min="5044" max="5045" width="8.6640625" style="1" customWidth="1"/>
     <col min="5046" max="5046" width="24" style="1" customWidth="1"/>
-    <col min="5047" max="5047" width="17.81640625" style="1" customWidth="1"/>
-    <col min="5048" max="5049" width="12.81640625" style="1" customWidth="1"/>
-    <col min="5050" max="5050" width="20.1796875" style="1" customWidth="1"/>
-    <col min="5051" max="5086" width="8.36328125" style="1"/>
-    <col min="5087" max="5087" width="6.453125" style="1" customWidth="1"/>
-    <col min="5088" max="5090" width="8.6328125" style="1" customWidth="1"/>
-    <col min="5091" max="5091" width="21.08984375" style="1" customWidth="1"/>
-    <col min="5092" max="5092" width="25.08984375" style="1" customWidth="1"/>
-    <col min="5093" max="5093" width="14.90625" style="1" customWidth="1"/>
-    <col min="5094" max="5094" width="16.90625" style="1" customWidth="1"/>
-    <col min="5095" max="5095" width="7.81640625" style="1" customWidth="1"/>
-    <col min="5096" max="5096" width="14.90625" style="1" customWidth="1"/>
-    <col min="5097" max="5097" width="9.1796875" style="1" customWidth="1"/>
-    <col min="5098" max="5098" width="11.1796875" style="1" customWidth="1"/>
-    <col min="5099" max="5099" width="16.1796875" style="1" customWidth="1"/>
-    <col min="5100" max="5100" width="13.08984375" style="1" customWidth="1"/>
-    <col min="5101" max="5103" width="12.81640625" style="1" customWidth="1"/>
-    <col min="5104" max="5104" width="11.90625" style="1" customWidth="1"/>
-    <col min="5105" max="5105" width="12.81640625" style="1" customWidth="1"/>
-    <col min="5106" max="5295" width="7.81640625" style="1" customWidth="1"/>
-    <col min="5296" max="5296" width="5.6328125" style="1" customWidth="1"/>
-    <col min="5297" max="5298" width="10.90625" style="1" customWidth="1"/>
-    <col min="5299" max="5299" width="9.08984375" style="1" customWidth="1"/>
-    <col min="5300" max="5301" width="8.6328125" style="1" customWidth="1"/>
+    <col min="5047" max="5047" width="17.77734375" style="1" customWidth="1"/>
+    <col min="5048" max="5049" width="12.77734375" style="1" customWidth="1"/>
+    <col min="5050" max="5050" width="20.21875" style="1" customWidth="1"/>
+    <col min="5051" max="5086" width="8.33203125" style="1"/>
+    <col min="5087" max="5087" width="6.44140625" style="1" customWidth="1"/>
+    <col min="5088" max="5090" width="8.6640625" style="1" customWidth="1"/>
+    <col min="5091" max="5091" width="21.109375" style="1" customWidth="1"/>
+    <col min="5092" max="5092" width="25.109375" style="1" customWidth="1"/>
+    <col min="5093" max="5093" width="14.88671875" style="1" customWidth="1"/>
+    <col min="5094" max="5094" width="16.88671875" style="1" customWidth="1"/>
+    <col min="5095" max="5095" width="7.77734375" style="1" customWidth="1"/>
+    <col min="5096" max="5096" width="14.88671875" style="1" customWidth="1"/>
+    <col min="5097" max="5097" width="9.21875" style="1" customWidth="1"/>
+    <col min="5098" max="5098" width="11.21875" style="1" customWidth="1"/>
+    <col min="5099" max="5099" width="16.21875" style="1" customWidth="1"/>
+    <col min="5100" max="5100" width="13.109375" style="1" customWidth="1"/>
+    <col min="5101" max="5103" width="12.77734375" style="1" customWidth="1"/>
+    <col min="5104" max="5104" width="11.88671875" style="1" customWidth="1"/>
+    <col min="5105" max="5105" width="12.77734375" style="1" customWidth="1"/>
+    <col min="5106" max="5295" width="7.77734375" style="1" customWidth="1"/>
+    <col min="5296" max="5296" width="5.6640625" style="1" customWidth="1"/>
+    <col min="5297" max="5298" width="10.88671875" style="1" customWidth="1"/>
+    <col min="5299" max="5299" width="9.109375" style="1" customWidth="1"/>
+    <col min="5300" max="5301" width="8.6640625" style="1" customWidth="1"/>
     <col min="5302" max="5302" width="24" style="1" customWidth="1"/>
-    <col min="5303" max="5303" width="17.81640625" style="1" customWidth="1"/>
-    <col min="5304" max="5305" width="12.81640625" style="1" customWidth="1"/>
-    <col min="5306" max="5306" width="20.1796875" style="1" customWidth="1"/>
-    <col min="5307" max="5342" width="8.36328125" style="1"/>
-    <col min="5343" max="5343" width="6.453125" style="1" customWidth="1"/>
-    <col min="5344" max="5346" width="8.6328125" style="1" customWidth="1"/>
-    <col min="5347" max="5347" width="21.08984375" style="1" customWidth="1"/>
-    <col min="5348" max="5348" width="25.08984375" style="1" customWidth="1"/>
-    <col min="5349" max="5349" width="14.90625" style="1" customWidth="1"/>
-    <col min="5350" max="5350" width="16.90625" style="1" customWidth="1"/>
-    <col min="5351" max="5351" width="7.81640625" style="1" customWidth="1"/>
-    <col min="5352" max="5352" width="14.90625" style="1" customWidth="1"/>
-    <col min="5353" max="5353" width="9.1796875" style="1" customWidth="1"/>
-    <col min="5354" max="5354" width="11.1796875" style="1" customWidth="1"/>
-    <col min="5355" max="5355" width="16.1796875" style="1" customWidth="1"/>
-    <col min="5356" max="5356" width="13.08984375" style="1" customWidth="1"/>
-    <col min="5357" max="5359" width="12.81640625" style="1" customWidth="1"/>
-    <col min="5360" max="5360" width="11.90625" style="1" customWidth="1"/>
-    <col min="5361" max="5361" width="12.81640625" style="1" customWidth="1"/>
-    <col min="5362" max="5551" width="7.81640625" style="1" customWidth="1"/>
-    <col min="5552" max="5552" width="5.6328125" style="1" customWidth="1"/>
-    <col min="5553" max="5554" width="10.90625" style="1" customWidth="1"/>
-    <col min="5555" max="5555" width="9.08984375" style="1" customWidth="1"/>
-    <col min="5556" max="5557" width="8.6328125" style="1" customWidth="1"/>
+    <col min="5303" max="5303" width="17.77734375" style="1" customWidth="1"/>
+    <col min="5304" max="5305" width="12.77734375" style="1" customWidth="1"/>
+    <col min="5306" max="5306" width="20.21875" style="1" customWidth="1"/>
+    <col min="5307" max="5342" width="8.33203125" style="1"/>
+    <col min="5343" max="5343" width="6.44140625" style="1" customWidth="1"/>
+    <col min="5344" max="5346" width="8.6640625" style="1" customWidth="1"/>
+    <col min="5347" max="5347" width="21.109375" style="1" customWidth="1"/>
+    <col min="5348" max="5348" width="25.109375" style="1" customWidth="1"/>
+    <col min="5349" max="5349" width="14.88671875" style="1" customWidth="1"/>
+    <col min="5350" max="5350" width="16.88671875" style="1" customWidth="1"/>
+    <col min="5351" max="5351" width="7.77734375" style="1" customWidth="1"/>
+    <col min="5352" max="5352" width="14.88671875" style="1" customWidth="1"/>
+    <col min="5353" max="5353" width="9.21875" style="1" customWidth="1"/>
+    <col min="5354" max="5354" width="11.21875" style="1" customWidth="1"/>
+    <col min="5355" max="5355" width="16.21875" style="1" customWidth="1"/>
+    <col min="5356" max="5356" width="13.109375" style="1" customWidth="1"/>
+    <col min="5357" max="5359" width="12.77734375" style="1" customWidth="1"/>
+    <col min="5360" max="5360" width="11.88671875" style="1" customWidth="1"/>
+    <col min="5361" max="5361" width="12.77734375" style="1" customWidth="1"/>
+    <col min="5362" max="5551" width="7.77734375" style="1" customWidth="1"/>
+    <col min="5552" max="5552" width="5.6640625" style="1" customWidth="1"/>
+    <col min="5553" max="5554" width="10.88671875" style="1" customWidth="1"/>
+    <col min="5555" max="5555" width="9.109375" style="1" customWidth="1"/>
+    <col min="5556" max="5557" width="8.6640625" style="1" customWidth="1"/>
     <col min="5558" max="5558" width="24" style="1" customWidth="1"/>
-    <col min="5559" max="5559" width="17.81640625" style="1" customWidth="1"/>
-    <col min="5560" max="5561" width="12.81640625" style="1" customWidth="1"/>
-    <col min="5562" max="5562" width="20.1796875" style="1" customWidth="1"/>
-    <col min="5563" max="5598" width="8.36328125" style="1"/>
-    <col min="5599" max="5599" width="6.453125" style="1" customWidth="1"/>
-    <col min="5600" max="5602" width="8.6328125" style="1" customWidth="1"/>
-    <col min="5603" max="5603" width="21.08984375" style="1" customWidth="1"/>
-    <col min="5604" max="5604" width="25.08984375" style="1" customWidth="1"/>
-    <col min="5605" max="5605" width="14.90625" style="1" customWidth="1"/>
-    <col min="5606" max="5606" width="16.90625" style="1" customWidth="1"/>
-    <col min="5607" max="5607" width="7.81640625" style="1" customWidth="1"/>
-    <col min="5608" max="5608" width="14.90625" style="1" customWidth="1"/>
-    <col min="5609" max="5609" width="9.1796875" style="1" customWidth="1"/>
-    <col min="5610" max="5610" width="11.1796875" style="1" customWidth="1"/>
-    <col min="5611" max="5611" width="16.1796875" style="1" customWidth="1"/>
-    <col min="5612" max="5612" width="13.08984375" style="1" customWidth="1"/>
-    <col min="5613" max="5615" width="12.81640625" style="1" customWidth="1"/>
-    <col min="5616" max="5616" width="11.90625" style="1" customWidth="1"/>
-    <col min="5617" max="5617" width="12.81640625" style="1" customWidth="1"/>
-    <col min="5618" max="5807" width="7.81640625" style="1" customWidth="1"/>
-    <col min="5808" max="5808" width="5.6328125" style="1" customWidth="1"/>
-    <col min="5809" max="5810" width="10.90625" style="1" customWidth="1"/>
-    <col min="5811" max="5811" width="9.08984375" style="1" customWidth="1"/>
-    <col min="5812" max="5813" width="8.6328125" style="1" customWidth="1"/>
+    <col min="5559" max="5559" width="17.77734375" style="1" customWidth="1"/>
+    <col min="5560" max="5561" width="12.77734375" style="1" customWidth="1"/>
+    <col min="5562" max="5562" width="20.21875" style="1" customWidth="1"/>
+    <col min="5563" max="5598" width="8.33203125" style="1"/>
+    <col min="5599" max="5599" width="6.44140625" style="1" customWidth="1"/>
+    <col min="5600" max="5602" width="8.6640625" style="1" customWidth="1"/>
+    <col min="5603" max="5603" width="21.109375" style="1" customWidth="1"/>
+    <col min="5604" max="5604" width="25.109375" style="1" customWidth="1"/>
+    <col min="5605" max="5605" width="14.88671875" style="1" customWidth="1"/>
+    <col min="5606" max="5606" width="16.88671875" style="1" customWidth="1"/>
+    <col min="5607" max="5607" width="7.77734375" style="1" customWidth="1"/>
+    <col min="5608" max="5608" width="14.88671875" style="1" customWidth="1"/>
+    <col min="5609" max="5609" width="9.21875" style="1" customWidth="1"/>
+    <col min="5610" max="5610" width="11.21875" style="1" customWidth="1"/>
+    <col min="5611" max="5611" width="16.21875" style="1" customWidth="1"/>
+    <col min="5612" max="5612" width="13.109375" style="1" customWidth="1"/>
+    <col min="5613" max="5615" width="12.77734375" style="1" customWidth="1"/>
+    <col min="5616" max="5616" width="11.88671875" style="1" customWidth="1"/>
+    <col min="5617" max="5617" width="12.77734375" style="1" customWidth="1"/>
+    <col min="5618" max="5807" width="7.77734375" style="1" customWidth="1"/>
+    <col min="5808" max="5808" width="5.6640625" style="1" customWidth="1"/>
+    <col min="5809" max="5810" width="10.88671875" style="1" customWidth="1"/>
+    <col min="5811" max="5811" width="9.109375" style="1" customWidth="1"/>
+    <col min="5812" max="5813" width="8.6640625" style="1" customWidth="1"/>
     <col min="5814" max="5814" width="24" style="1" customWidth="1"/>
-    <col min="5815" max="5815" width="17.81640625" style="1" customWidth="1"/>
-    <col min="5816" max="5817" width="12.81640625" style="1" customWidth="1"/>
-    <col min="5818" max="5818" width="20.1796875" style="1" customWidth="1"/>
-    <col min="5819" max="5854" width="8.36328125" style="1"/>
-    <col min="5855" max="5855" width="6.453125" style="1" customWidth="1"/>
-    <col min="5856" max="5858" width="8.6328125" style="1" customWidth="1"/>
-    <col min="5859" max="5859" width="21.08984375" style="1" customWidth="1"/>
-    <col min="5860" max="5860" width="25.08984375" style="1" customWidth="1"/>
-    <col min="5861" max="5861" width="14.90625" style="1" customWidth="1"/>
-    <col min="5862" max="5862" width="16.90625" style="1" customWidth="1"/>
-    <col min="5863" max="5863" width="7.81640625" style="1" customWidth="1"/>
-    <col min="5864" max="5864" width="14.90625" style="1" customWidth="1"/>
-    <col min="5865" max="5865" width="9.1796875" style="1" customWidth="1"/>
-    <col min="5866" max="5866" width="11.1796875" style="1" customWidth="1"/>
-    <col min="5867" max="5867" width="16.1796875" style="1" customWidth="1"/>
-    <col min="5868" max="5868" width="13.08984375" style="1" customWidth="1"/>
-    <col min="5869" max="5871" width="12.81640625" style="1" customWidth="1"/>
-    <col min="5872" max="5872" width="11.90625" style="1" customWidth="1"/>
-    <col min="5873" max="5873" width="12.81640625" style="1" customWidth="1"/>
-    <col min="5874" max="6063" width="7.81640625" style="1" customWidth="1"/>
-    <col min="6064" max="6064" width="5.6328125" style="1" customWidth="1"/>
-    <col min="6065" max="6066" width="10.90625" style="1" customWidth="1"/>
-    <col min="6067" max="6067" width="9.08984375" style="1" customWidth="1"/>
-    <col min="6068" max="6069" width="8.6328125" style="1" customWidth="1"/>
+    <col min="5815" max="5815" width="17.77734375" style="1" customWidth="1"/>
+    <col min="5816" max="5817" width="12.77734375" style="1" customWidth="1"/>
+    <col min="5818" max="5818" width="20.21875" style="1" customWidth="1"/>
+    <col min="5819" max="5854" width="8.33203125" style="1"/>
+    <col min="5855" max="5855" width="6.44140625" style="1" customWidth="1"/>
+    <col min="5856" max="5858" width="8.6640625" style="1" customWidth="1"/>
+    <col min="5859" max="5859" width="21.109375" style="1" customWidth="1"/>
+    <col min="5860" max="5860" width="25.109375" style="1" customWidth="1"/>
+    <col min="5861" max="5861" width="14.88671875" style="1" customWidth="1"/>
+    <col min="5862" max="5862" width="16.88671875" style="1" customWidth="1"/>
+    <col min="5863" max="5863" width="7.77734375" style="1" customWidth="1"/>
+    <col min="5864" max="5864" width="14.88671875" style="1" customWidth="1"/>
+    <col min="5865" max="5865" width="9.21875" style="1" customWidth="1"/>
+    <col min="5866" max="5866" width="11.21875" style="1" customWidth="1"/>
+    <col min="5867" max="5867" width="16.21875" style="1" customWidth="1"/>
+    <col min="5868" max="5868" width="13.109375" style="1" customWidth="1"/>
+    <col min="5869" max="5871" width="12.77734375" style="1" customWidth="1"/>
+    <col min="5872" max="5872" width="11.88671875" style="1" customWidth="1"/>
+    <col min="5873" max="5873" width="12.77734375" style="1" customWidth="1"/>
+    <col min="5874" max="6063" width="7.77734375" style="1" customWidth="1"/>
+    <col min="6064" max="6064" width="5.6640625" style="1" customWidth="1"/>
+    <col min="6065" max="6066" width="10.88671875" style="1" customWidth="1"/>
+    <col min="6067" max="6067" width="9.109375" style="1" customWidth="1"/>
+    <col min="6068" max="6069" width="8.6640625" style="1" customWidth="1"/>
     <col min="6070" max="6070" width="24" style="1" customWidth="1"/>
-    <col min="6071" max="6071" width="17.81640625" style="1" customWidth="1"/>
-    <col min="6072" max="6073" width="12.81640625" style="1" customWidth="1"/>
-    <col min="6074" max="6074" width="20.1796875" style="1" customWidth="1"/>
-    <col min="6075" max="6110" width="8.36328125" style="1"/>
-    <col min="6111" max="6111" width="6.453125" style="1" customWidth="1"/>
-    <col min="6112" max="6114" width="8.6328125" style="1" customWidth="1"/>
-    <col min="6115" max="6115" width="21.08984375" style="1" customWidth="1"/>
-    <col min="6116" max="6116" width="25.08984375" style="1" customWidth="1"/>
-    <col min="6117" max="6117" width="14.90625" style="1" customWidth="1"/>
-    <col min="6118" max="6118" width="16.90625" style="1" customWidth="1"/>
-    <col min="6119" max="6119" width="7.81640625" style="1" customWidth="1"/>
-    <col min="6120" max="6120" width="14.90625" style="1" customWidth="1"/>
-    <col min="6121" max="6121" width="9.1796875" style="1" customWidth="1"/>
-    <col min="6122" max="6122" width="11.1796875" style="1" customWidth="1"/>
-    <col min="6123" max="6123" width="16.1796875" style="1" customWidth="1"/>
-    <col min="6124" max="6124" width="13.08984375" style="1" customWidth="1"/>
-    <col min="6125" max="6127" width="12.81640625" style="1" customWidth="1"/>
-    <col min="6128" max="6128" width="11.90625" style="1" customWidth="1"/>
-    <col min="6129" max="6129" width="12.81640625" style="1" customWidth="1"/>
-    <col min="6130" max="6319" width="7.81640625" style="1" customWidth="1"/>
-    <col min="6320" max="6320" width="5.6328125" style="1" customWidth="1"/>
-    <col min="6321" max="6322" width="10.90625" style="1" customWidth="1"/>
-    <col min="6323" max="6323" width="9.08984375" style="1" customWidth="1"/>
-    <col min="6324" max="6325" width="8.6328125" style="1" customWidth="1"/>
+    <col min="6071" max="6071" width="17.77734375" style="1" customWidth="1"/>
+    <col min="6072" max="6073" width="12.77734375" style="1" customWidth="1"/>
+    <col min="6074" max="6074" width="20.21875" style="1" customWidth="1"/>
+    <col min="6075" max="6110" width="8.33203125" style="1"/>
+    <col min="6111" max="6111" width="6.44140625" style="1" customWidth="1"/>
+    <col min="6112" max="6114" width="8.6640625" style="1" customWidth="1"/>
+    <col min="6115" max="6115" width="21.109375" style="1" customWidth="1"/>
+    <col min="6116" max="6116" width="25.109375" style="1" customWidth="1"/>
+    <col min="6117" max="6117" width="14.88671875" style="1" customWidth="1"/>
+    <col min="6118" max="6118" width="16.88671875" style="1" customWidth="1"/>
+    <col min="6119" max="6119" width="7.77734375" style="1" customWidth="1"/>
+    <col min="6120" max="6120" width="14.88671875" style="1" customWidth="1"/>
+    <col min="6121" max="6121" width="9.21875" style="1" customWidth="1"/>
+    <col min="6122" max="6122" width="11.21875" style="1" customWidth="1"/>
+    <col min="6123" max="6123" width="16.21875" style="1" customWidth="1"/>
+    <col min="6124" max="6124" width="13.109375" style="1" customWidth="1"/>
+    <col min="6125" max="6127" width="12.77734375" style="1" customWidth="1"/>
+    <col min="6128" max="6128" width="11.88671875" style="1" customWidth="1"/>
+    <col min="6129" max="6129" width="12.77734375" style="1" customWidth="1"/>
+    <col min="6130" max="6319" width="7.77734375" style="1" customWidth="1"/>
+    <col min="6320" max="6320" width="5.6640625" style="1" customWidth="1"/>
+    <col min="6321" max="6322" width="10.88671875" style="1" customWidth="1"/>
+    <col min="6323" max="6323" width="9.109375" style="1" customWidth="1"/>
+    <col min="6324" max="6325" width="8.6640625" style="1" customWidth="1"/>
     <col min="6326" max="6326" width="24" style="1" customWidth="1"/>
-    <col min="6327" max="6327" width="17.81640625" style="1" customWidth="1"/>
-    <col min="6328" max="6329" width="12.81640625" style="1" customWidth="1"/>
-    <col min="6330" max="6330" width="20.1796875" style="1" customWidth="1"/>
-    <col min="6331" max="6366" width="8.36328125" style="1"/>
-    <col min="6367" max="6367" width="6.453125" style="1" customWidth="1"/>
-    <col min="6368" max="6370" width="8.6328125" style="1" customWidth="1"/>
-    <col min="6371" max="6371" width="21.08984375" style="1" customWidth="1"/>
-    <col min="6372" max="6372" width="25.08984375" style="1" customWidth="1"/>
-    <col min="6373" max="6373" width="14.90625" style="1" customWidth="1"/>
-    <col min="6374" max="6374" width="16.90625" style="1" customWidth="1"/>
-    <col min="6375" max="6375" width="7.81640625" style="1" customWidth="1"/>
-    <col min="6376" max="6376" width="14.90625" style="1" customWidth="1"/>
-    <col min="6377" max="6377" width="9.1796875" style="1" customWidth="1"/>
-    <col min="6378" max="6378" width="11.1796875" style="1" customWidth="1"/>
-    <col min="6379" max="6379" width="16.1796875" style="1" customWidth="1"/>
-    <col min="6380" max="6380" width="13.08984375" style="1" customWidth="1"/>
-    <col min="6381" max="6383" width="12.81640625" style="1" customWidth="1"/>
-    <col min="6384" max="6384" width="11.90625" style="1" customWidth="1"/>
-    <col min="6385" max="6385" width="12.81640625" style="1" customWidth="1"/>
-    <col min="6386" max="6575" width="7.81640625" style="1" customWidth="1"/>
-    <col min="6576" max="6576" width="5.6328125" style="1" customWidth="1"/>
-    <col min="6577" max="6578" width="10.90625" style="1" customWidth="1"/>
-    <col min="6579" max="6579" width="9.08984375" style="1" customWidth="1"/>
-    <col min="6580" max="6581" width="8.6328125" style="1" customWidth="1"/>
+    <col min="6327" max="6327" width="17.77734375" style="1" customWidth="1"/>
+    <col min="6328" max="6329" width="12.77734375" style="1" customWidth="1"/>
+    <col min="6330" max="6330" width="20.21875" style="1" customWidth="1"/>
+    <col min="6331" max="6366" width="8.33203125" style="1"/>
+    <col min="6367" max="6367" width="6.44140625" style="1" customWidth="1"/>
+    <col min="6368" max="6370" width="8.6640625" style="1" customWidth="1"/>
+    <col min="6371" max="6371" width="21.109375" style="1" customWidth="1"/>
+    <col min="6372" max="6372" width="25.109375" style="1" customWidth="1"/>
+    <col min="6373" max="6373" width="14.88671875" style="1" customWidth="1"/>
+    <col min="6374" max="6374" width="16.88671875" style="1" customWidth="1"/>
+    <col min="6375" max="6375" width="7.77734375" style="1" customWidth="1"/>
+    <col min="6376" max="6376" width="14.88671875" style="1" customWidth="1"/>
+    <col min="6377" max="6377" width="9.21875" style="1" customWidth="1"/>
+    <col min="6378" max="6378" width="11.21875" style="1" customWidth="1"/>
+    <col min="6379" max="6379" width="16.21875" style="1" customWidth="1"/>
+    <col min="6380" max="6380" width="13.109375" style="1" customWidth="1"/>
+    <col min="6381" max="6383" width="12.77734375" style="1" customWidth="1"/>
+    <col min="6384" max="6384" width="11.88671875" style="1" customWidth="1"/>
+    <col min="6385" max="6385" width="12.77734375" style="1" customWidth="1"/>
+    <col min="6386" max="6575" width="7.77734375" style="1" customWidth="1"/>
+    <col min="6576" max="6576" width="5.6640625" style="1" customWidth="1"/>
+    <col min="6577" max="6578" width="10.88671875" style="1" customWidth="1"/>
+    <col min="6579" max="6579" width="9.109375" style="1" customWidth="1"/>
+    <col min="6580" max="6581" width="8.6640625" style="1" customWidth="1"/>
     <col min="6582" max="6582" width="24" style="1" customWidth="1"/>
-    <col min="6583" max="6583" width="17.81640625" style="1" customWidth="1"/>
-    <col min="6584" max="6585" width="12.81640625" style="1" customWidth="1"/>
-    <col min="6586" max="6586" width="20.1796875" style="1" customWidth="1"/>
-    <col min="6587" max="6622" width="8.36328125" style="1"/>
-    <col min="6623" max="6623" width="6.453125" style="1" customWidth="1"/>
-    <col min="6624" max="6626" width="8.6328125" style="1" customWidth="1"/>
-    <col min="6627" max="6627" width="21.08984375" style="1" customWidth="1"/>
-    <col min="6628" max="6628" width="25.08984375" style="1" customWidth="1"/>
-    <col min="6629" max="6629" width="14.90625" style="1" customWidth="1"/>
-    <col min="6630" max="6630" width="16.90625" style="1" customWidth="1"/>
-    <col min="6631" max="6631" width="7.81640625" style="1" customWidth="1"/>
-    <col min="6632" max="6632" width="14.90625" style="1" customWidth="1"/>
-    <col min="6633" max="6633" width="9.1796875" style="1" customWidth="1"/>
-    <col min="6634" max="6634" width="11.1796875" style="1" customWidth="1"/>
-    <col min="6635" max="6635" width="16.1796875" style="1" customWidth="1"/>
-    <col min="6636" max="6636" width="13.08984375" style="1" customWidth="1"/>
-    <col min="6637" max="6639" width="12.81640625" style="1" customWidth="1"/>
-    <col min="6640" max="6640" width="11.90625" style="1" customWidth="1"/>
-    <col min="6641" max="6641" width="12.81640625" style="1" customWidth="1"/>
-    <col min="6642" max="6831" width="7.81640625" style="1" customWidth="1"/>
-    <col min="6832" max="6832" width="5.6328125" style="1" customWidth="1"/>
-    <col min="6833" max="6834" width="10.90625" style="1" customWidth="1"/>
-    <col min="6835" max="6835" width="9.08984375" style="1" customWidth="1"/>
-    <col min="6836" max="6837" width="8.6328125" style="1" customWidth="1"/>
+    <col min="6583" max="6583" width="17.77734375" style="1" customWidth="1"/>
+    <col min="6584" max="6585" width="12.77734375" style="1" customWidth="1"/>
+    <col min="6586" max="6586" width="20.21875" style="1" customWidth="1"/>
+    <col min="6587" max="6622" width="8.33203125" style="1"/>
+    <col min="6623" max="6623" width="6.44140625" style="1" customWidth="1"/>
+    <col min="6624" max="6626" width="8.6640625" style="1" customWidth="1"/>
+    <col min="6627" max="6627" width="21.109375" style="1" customWidth="1"/>
+    <col min="6628" max="6628" width="25.109375" style="1" customWidth="1"/>
+    <col min="6629" max="6629" width="14.88671875" style="1" customWidth="1"/>
+    <col min="6630" max="6630" width="16.88671875" style="1" customWidth="1"/>
+    <col min="6631" max="6631" width="7.77734375" style="1" customWidth="1"/>
+    <col min="6632" max="6632" width="14.88671875" style="1" customWidth="1"/>
+    <col min="6633" max="6633" width="9.21875" style="1" customWidth="1"/>
+    <col min="6634" max="6634" width="11.21875" style="1" customWidth="1"/>
+    <col min="6635" max="6635" width="16.21875" style="1" customWidth="1"/>
+    <col min="6636" max="6636" width="13.109375" style="1" customWidth="1"/>
+    <col min="6637" max="6639" width="12.77734375" style="1" customWidth="1"/>
+    <col min="6640" max="6640" width="11.88671875" style="1" customWidth="1"/>
+    <col min="6641" max="6641" width="12.77734375" style="1" customWidth="1"/>
+    <col min="6642" max="6831" width="7.77734375" style="1" customWidth="1"/>
+    <col min="6832" max="6832" width="5.6640625" style="1" customWidth="1"/>
+    <col min="6833" max="6834" width="10.88671875" style="1" customWidth="1"/>
+    <col min="6835" max="6835" width="9.109375" style="1" customWidth="1"/>
+    <col min="6836" max="6837" width="8.6640625" style="1" customWidth="1"/>
     <col min="6838" max="6838" width="24" style="1" customWidth="1"/>
-    <col min="6839" max="6839" width="17.81640625" style="1" customWidth="1"/>
-    <col min="6840" max="6841" width="12.81640625" style="1" customWidth="1"/>
-    <col min="6842" max="6842" width="20.1796875" style="1" customWidth="1"/>
-    <col min="6843" max="6878" width="8.36328125" style="1"/>
-    <col min="6879" max="6879" width="6.453125" style="1" customWidth="1"/>
-    <col min="6880" max="6882" width="8.6328125" style="1" customWidth="1"/>
-    <col min="6883" max="6883" width="21.08984375" style="1" customWidth="1"/>
-    <col min="6884" max="6884" width="25.08984375" style="1" customWidth="1"/>
-    <col min="6885" max="6885" width="14.90625" style="1" customWidth="1"/>
-    <col min="6886" max="6886" width="16.90625" style="1" customWidth="1"/>
-    <col min="6887" max="6887" width="7.81640625" style="1" customWidth="1"/>
-    <col min="6888" max="6888" width="14.90625" style="1" customWidth="1"/>
-    <col min="6889" max="6889" width="9.1796875" style="1" customWidth="1"/>
-    <col min="6890" max="6890" width="11.1796875" style="1" customWidth="1"/>
-    <col min="6891" max="6891" width="16.1796875" style="1" customWidth="1"/>
-    <col min="6892" max="6892" width="13.08984375" style="1" customWidth="1"/>
-    <col min="6893" max="6895" width="12.81640625" style="1" customWidth="1"/>
-    <col min="6896" max="6896" width="11.90625" style="1" customWidth="1"/>
-    <col min="6897" max="6897" width="12.81640625" style="1" customWidth="1"/>
-    <col min="6898" max="7087" width="7.81640625" style="1" customWidth="1"/>
-    <col min="7088" max="7088" width="5.6328125" style="1" customWidth="1"/>
-    <col min="7089" max="7090" width="10.90625" style="1" customWidth="1"/>
-    <col min="7091" max="7091" width="9.08984375" style="1" customWidth="1"/>
-    <col min="7092" max="7093" width="8.6328125" style="1" customWidth="1"/>
+    <col min="6839" max="6839" width="17.77734375" style="1" customWidth="1"/>
+    <col min="6840" max="6841" width="12.77734375" style="1" customWidth="1"/>
+    <col min="6842" max="6842" width="20.21875" style="1" customWidth="1"/>
+    <col min="6843" max="6878" width="8.33203125" style="1"/>
+    <col min="6879" max="6879" width="6.44140625" style="1" customWidth="1"/>
+    <col min="6880" max="6882" width="8.6640625" style="1" customWidth="1"/>
+    <col min="6883" max="6883" width="21.109375" style="1" customWidth="1"/>
+    <col min="6884" max="6884" width="25.109375" style="1" customWidth="1"/>
+    <col min="6885" max="6885" width="14.88671875" style="1" customWidth="1"/>
+    <col min="6886" max="6886" width="16.88671875" style="1" customWidth="1"/>
+    <col min="6887" max="6887" width="7.77734375" style="1" customWidth="1"/>
+    <col min="6888" max="6888" width="14.88671875" style="1" customWidth="1"/>
+    <col min="6889" max="6889" width="9.21875" style="1" customWidth="1"/>
+    <col min="6890" max="6890" width="11.21875" style="1" customWidth="1"/>
+    <col min="6891" max="6891" width="16.21875" style="1" customWidth="1"/>
+    <col min="6892" max="6892" width="13.109375" style="1" customWidth="1"/>
+    <col min="6893" max="6895" width="12.77734375" style="1" customWidth="1"/>
+    <col min="6896" max="6896" width="11.88671875" style="1" customWidth="1"/>
+    <col min="6897" max="6897" width="12.77734375" style="1" customWidth="1"/>
+    <col min="6898" max="7087" width="7.77734375" style="1" customWidth="1"/>
+    <col min="7088" max="7088" width="5.6640625" style="1" customWidth="1"/>
+    <col min="7089" max="7090" width="10.88671875" style="1" customWidth="1"/>
+    <col min="7091" max="7091" width="9.109375" style="1" customWidth="1"/>
+    <col min="7092" max="7093" width="8.6640625" style="1" customWidth="1"/>
     <col min="7094" max="7094" width="24" style="1" customWidth="1"/>
-    <col min="7095" max="7095" width="17.81640625" style="1" customWidth="1"/>
-    <col min="7096" max="7097" width="12.81640625" style="1" customWidth="1"/>
-    <col min="7098" max="7098" width="20.1796875" style="1" customWidth="1"/>
-    <col min="7099" max="7134" width="8.36328125" style="1"/>
-    <col min="7135" max="7135" width="6.453125" style="1" customWidth="1"/>
-    <col min="7136" max="7138" width="8.6328125" style="1" customWidth="1"/>
-    <col min="7139" max="7139" width="21.08984375" style="1" customWidth="1"/>
-    <col min="7140" max="7140" width="25.08984375" style="1" customWidth="1"/>
-    <col min="7141" max="7141" width="14.90625" style="1" customWidth="1"/>
-    <col min="7142" max="7142" width="16.90625" style="1" customWidth="1"/>
-    <col min="7143" max="7143" width="7.81640625" style="1" customWidth="1"/>
-    <col min="7144" max="7144" width="14.90625" style="1" customWidth="1"/>
-    <col min="7145" max="7145" width="9.1796875" style="1" customWidth="1"/>
-    <col min="7146" max="7146" width="11.1796875" style="1" customWidth="1"/>
-    <col min="7147" max="7147" width="16.1796875" style="1" customWidth="1"/>
-    <col min="7148" max="7148" width="13.08984375" style="1" customWidth="1"/>
-    <col min="7149" max="7151" width="12.81640625" style="1" customWidth="1"/>
-    <col min="7152" max="7152" width="11.90625" style="1" customWidth="1"/>
-    <col min="7153" max="7153" width="12.81640625" style="1" customWidth="1"/>
-    <col min="7154" max="7343" width="7.81640625" style="1" customWidth="1"/>
-    <col min="7344" max="7344" width="5.6328125" style="1" customWidth="1"/>
-    <col min="7345" max="7346" width="10.90625" style="1" customWidth="1"/>
-    <col min="7347" max="7347" width="9.08984375" style="1" customWidth="1"/>
-    <col min="7348" max="7349" width="8.6328125" style="1" customWidth="1"/>
+    <col min="7095" max="7095" width="17.77734375" style="1" customWidth="1"/>
+    <col min="7096" max="7097" width="12.77734375" style="1" customWidth="1"/>
+    <col min="7098" max="7098" width="20.21875" style="1" customWidth="1"/>
+    <col min="7099" max="7134" width="8.33203125" style="1"/>
+    <col min="7135" max="7135" width="6.44140625" style="1" customWidth="1"/>
+    <col min="7136" max="7138" width="8.6640625" style="1" customWidth="1"/>
+    <col min="7139" max="7139" width="21.109375" style="1" customWidth="1"/>
+    <col min="7140" max="7140" width="25.109375" style="1" customWidth="1"/>
+    <col min="7141" max="7141" width="14.88671875" style="1" customWidth="1"/>
+    <col min="7142" max="7142" width="16.88671875" style="1" customWidth="1"/>
+    <col min="7143" max="7143" width="7.77734375" style="1" customWidth="1"/>
+    <col min="7144" max="7144" width="14.88671875" style="1" customWidth="1"/>
+    <col min="7145" max="7145" width="9.21875" style="1" customWidth="1"/>
+    <col min="7146" max="7146" width="11.21875" style="1" customWidth="1"/>
+    <col min="7147" max="7147" width="16.21875" style="1" customWidth="1"/>
+    <col min="7148" max="7148" width="13.109375" style="1" customWidth="1"/>
+    <col min="7149" max="7151" width="12.77734375" style="1" customWidth="1"/>
+    <col min="7152" max="7152" width="11.88671875" style="1" customWidth="1"/>
+    <col min="7153" max="7153" width="12.77734375" style="1" customWidth="1"/>
+    <col min="7154" max="7343" width="7.77734375" style="1" customWidth="1"/>
+    <col min="7344" max="7344" width="5.6640625" style="1" customWidth="1"/>
+    <col min="7345" max="7346" width="10.88671875" style="1" customWidth="1"/>
+    <col min="7347" max="7347" width="9.109375" style="1" customWidth="1"/>
+    <col min="7348" max="7349" width="8.6640625" style="1" customWidth="1"/>
     <col min="7350" max="7350" width="24" style="1" customWidth="1"/>
-    <col min="7351" max="7351" width="17.81640625" style="1" customWidth="1"/>
-    <col min="7352" max="7353" width="12.81640625" style="1" customWidth="1"/>
-    <col min="7354" max="7354" width="20.1796875" style="1" customWidth="1"/>
-    <col min="7355" max="7390" width="8.36328125" style="1"/>
-    <col min="7391" max="7391" width="6.453125" style="1" customWidth="1"/>
-    <col min="7392" max="7394" width="8.6328125" style="1" customWidth="1"/>
-    <col min="7395" max="7395" width="21.08984375" style="1" customWidth="1"/>
-    <col min="7396" max="7396" width="25.08984375" style="1" customWidth="1"/>
-    <col min="7397" max="7397" width="14.90625" style="1" customWidth="1"/>
-    <col min="7398" max="7398" width="16.90625" style="1" customWidth="1"/>
-    <col min="7399" max="7399" width="7.81640625" style="1" customWidth="1"/>
-    <col min="7400" max="7400" width="14.90625" style="1" customWidth="1"/>
-    <col min="7401" max="7401" width="9.1796875" style="1" customWidth="1"/>
-    <col min="7402" max="7402" width="11.1796875" style="1" customWidth="1"/>
-    <col min="7403" max="7403" width="16.1796875" style="1" customWidth="1"/>
-    <col min="7404" max="7404" width="13.08984375" style="1" customWidth="1"/>
-    <col min="7405" max="7407" width="12.81640625" style="1" customWidth="1"/>
-    <col min="7408" max="7408" width="11.90625" style="1" customWidth="1"/>
-    <col min="7409" max="7409" width="12.81640625" style="1" customWidth="1"/>
-    <col min="7410" max="7599" width="7.81640625" style="1" customWidth="1"/>
-    <col min="7600" max="7600" width="5.6328125" style="1" customWidth="1"/>
-    <col min="7601" max="7602" width="10.90625" style="1" customWidth="1"/>
-    <col min="7603" max="7603" width="9.08984375" style="1" customWidth="1"/>
-    <col min="7604" max="7605" width="8.6328125" style="1" customWidth="1"/>
+    <col min="7351" max="7351" width="17.77734375" style="1" customWidth="1"/>
+    <col min="7352" max="7353" width="12.77734375" style="1" customWidth="1"/>
+    <col min="7354" max="7354" width="20.21875" style="1" customWidth="1"/>
+    <col min="7355" max="7390" width="8.33203125" style="1"/>
+    <col min="7391" max="7391" width="6.44140625" style="1" customWidth="1"/>
+    <col min="7392" max="7394" width="8.6640625" style="1" customWidth="1"/>
+    <col min="7395" max="7395" width="21.109375" style="1" customWidth="1"/>
+    <col min="7396" max="7396" width="25.109375" style="1" customWidth="1"/>
+    <col min="7397" max="7397" width="14.88671875" style="1" customWidth="1"/>
+    <col min="7398" max="7398" width="16.88671875" style="1" customWidth="1"/>
+    <col min="7399" max="7399" width="7.77734375" style="1" customWidth="1"/>
+    <col min="7400" max="7400" width="14.88671875" style="1" customWidth="1"/>
+    <col min="7401" max="7401" width="9.21875" style="1" customWidth="1"/>
+    <col min="7402" max="7402" width="11.21875" style="1" customWidth="1"/>
+    <col min="7403" max="7403" width="16.21875" style="1" customWidth="1"/>
+    <col min="7404" max="7404" width="13.109375" style="1" customWidth="1"/>
+    <col min="7405" max="7407" width="12.77734375" style="1" customWidth="1"/>
+    <col min="7408" max="7408" width="11.88671875" style="1" customWidth="1"/>
+    <col min="7409" max="7409" width="12.77734375" style="1" customWidth="1"/>
+    <col min="7410" max="7599" width="7.77734375" style="1" customWidth="1"/>
+    <col min="7600" max="7600" width="5.6640625" style="1" customWidth="1"/>
+    <col min="7601" max="7602" width="10.88671875" style="1" customWidth="1"/>
+    <col min="7603" max="7603" width="9.109375" style="1" customWidth="1"/>
+    <col min="7604" max="7605" width="8.6640625" style="1" customWidth="1"/>
     <col min="7606" max="7606" width="24" style="1" customWidth="1"/>
-    <col min="7607" max="7607" width="17.81640625" style="1" customWidth="1"/>
-    <col min="7608" max="7609" width="12.81640625" style="1" customWidth="1"/>
-    <col min="7610" max="7610" width="20.1796875" style="1" customWidth="1"/>
-    <col min="7611" max="7646" width="8.36328125" style="1"/>
-    <col min="7647" max="7647" width="6.453125" style="1" customWidth="1"/>
-    <col min="7648" max="7650" width="8.6328125" style="1" customWidth="1"/>
-    <col min="7651" max="7651" width="21.08984375" style="1" customWidth="1"/>
-    <col min="7652" max="7652" width="25.08984375" style="1" customWidth="1"/>
-    <col min="7653" max="7653" width="14.90625" style="1" customWidth="1"/>
-    <col min="7654" max="7654" width="16.90625" style="1" customWidth="1"/>
-    <col min="7655" max="7655" width="7.81640625" style="1" customWidth="1"/>
-    <col min="7656" max="7656" width="14.90625" style="1" customWidth="1"/>
-    <col min="7657" max="7657" width="9.1796875" style="1" customWidth="1"/>
-    <col min="7658" max="7658" width="11.1796875" style="1" customWidth="1"/>
-    <col min="7659" max="7659" width="16.1796875" style="1" customWidth="1"/>
-    <col min="7660" max="7660" width="13.08984375" style="1" customWidth="1"/>
-    <col min="7661" max="7663" width="12.81640625" style="1" customWidth="1"/>
-    <col min="7664" max="7664" width="11.90625" style="1" customWidth="1"/>
-    <col min="7665" max="7665" width="12.81640625" style="1" customWidth="1"/>
-    <col min="7666" max="7855" width="7.81640625" style="1" customWidth="1"/>
-    <col min="7856" max="7856" width="5.6328125" style="1" customWidth="1"/>
-    <col min="7857" max="7858" width="10.90625" style="1" customWidth="1"/>
-    <col min="7859" max="7859" width="9.08984375" style="1" customWidth="1"/>
-    <col min="7860" max="7861" width="8.6328125" style="1" customWidth="1"/>
+    <col min="7607" max="7607" width="17.77734375" style="1" customWidth="1"/>
+    <col min="7608" max="7609" width="12.77734375" style="1" customWidth="1"/>
+    <col min="7610" max="7610" width="20.21875" style="1" customWidth="1"/>
+    <col min="7611" max="7646" width="8.33203125" style="1"/>
+    <col min="7647" max="7647" width="6.44140625" style="1" customWidth="1"/>
+    <col min="7648" max="7650" width="8.6640625" style="1" customWidth="1"/>
+    <col min="7651" max="7651" width="21.109375" style="1" customWidth="1"/>
+    <col min="7652" max="7652" width="25.109375" style="1" customWidth="1"/>
+    <col min="7653" max="7653" width="14.88671875" style="1" customWidth="1"/>
+    <col min="7654" max="7654" width="16.88671875" style="1" customWidth="1"/>
+    <col min="7655" max="7655" width="7.77734375" style="1" customWidth="1"/>
+    <col min="7656" max="7656" width="14.88671875" style="1" customWidth="1"/>
+    <col min="7657" max="7657" width="9.21875" style="1" customWidth="1"/>
+    <col min="7658" max="7658" width="11.21875" style="1" customWidth="1"/>
+    <col min="7659" max="7659" width="16.21875" style="1" customWidth="1"/>
+    <col min="7660" max="7660" width="13.109375" style="1" customWidth="1"/>
+    <col min="7661" max="7663" width="12.77734375" style="1" customWidth="1"/>
+    <col min="7664" max="7664" width="11.88671875" style="1" customWidth="1"/>
+    <col min="7665" max="7665" width="12.77734375" style="1" customWidth="1"/>
+    <col min="7666" max="7855" width="7.77734375" style="1" customWidth="1"/>
+    <col min="7856" max="7856" width="5.6640625" style="1" customWidth="1"/>
+    <col min="7857" max="7858" width="10.88671875" style="1" customWidth="1"/>
+    <col min="7859" max="7859" width="9.109375" style="1" customWidth="1"/>
+    <col min="7860" max="7861" width="8.6640625" style="1" customWidth="1"/>
     <col min="7862" max="7862" width="24" style="1" customWidth="1"/>
-    <col min="7863" max="7863" width="17.81640625" style="1" customWidth="1"/>
-    <col min="7864" max="7865" width="12.81640625" style="1" customWidth="1"/>
-    <col min="7866" max="7866" width="20.1796875" style="1" customWidth="1"/>
-    <col min="7867" max="7902" width="8.36328125" style="1"/>
-    <col min="7903" max="7903" width="6.453125" style="1" customWidth="1"/>
-    <col min="7904" max="7906" width="8.6328125" style="1" customWidth="1"/>
-    <col min="7907" max="7907" width="21.08984375" style="1" customWidth="1"/>
-    <col min="7908" max="7908" width="25.08984375" style="1" customWidth="1"/>
-    <col min="7909" max="7909" width="14.90625" style="1" customWidth="1"/>
-    <col min="7910" max="7910" width="16.90625" style="1" customWidth="1"/>
-    <col min="7911" max="7911" width="7.81640625" style="1" customWidth="1"/>
-    <col min="7912" max="7912" width="14.90625" style="1" customWidth="1"/>
-    <col min="7913" max="7913" width="9.1796875" style="1" customWidth="1"/>
-    <col min="7914" max="7914" width="11.1796875" style="1" customWidth="1"/>
-    <col min="7915" max="7915" width="16.1796875" style="1" customWidth="1"/>
-    <col min="7916" max="7916" width="13.08984375" style="1" customWidth="1"/>
-    <col min="7917" max="7919" width="12.81640625" style="1" customWidth="1"/>
-    <col min="7920" max="7920" width="11.90625" style="1" customWidth="1"/>
-    <col min="7921" max="7921" width="12.81640625" style="1" customWidth="1"/>
-    <col min="7922" max="8111" width="7.81640625" style="1" customWidth="1"/>
-    <col min="8112" max="8112" width="5.6328125" style="1" customWidth="1"/>
-    <col min="8113" max="8114" width="10.90625" style="1" customWidth="1"/>
-    <col min="8115" max="8115" width="9.08984375" style="1" customWidth="1"/>
-    <col min="8116" max="8117" width="8.6328125" style="1" customWidth="1"/>
+    <col min="7863" max="7863" width="17.77734375" style="1" customWidth="1"/>
+    <col min="7864" max="7865" width="12.77734375" style="1" customWidth="1"/>
+    <col min="7866" max="7866" width="20.21875" style="1" customWidth="1"/>
+    <col min="7867" max="7902" width="8.33203125" style="1"/>
+    <col min="7903" max="7903" width="6.44140625" style="1" customWidth="1"/>
+    <col min="7904" max="7906" width="8.6640625" style="1" customWidth="1"/>
+    <col min="7907" max="7907" width="21.109375" style="1" customWidth="1"/>
+    <col min="7908" max="7908" width="25.109375" style="1" customWidth="1"/>
+    <col min="7909" max="7909" width="14.88671875" style="1" customWidth="1"/>
+    <col min="7910" max="7910" width="16.88671875" style="1" customWidth="1"/>
+    <col min="7911" max="7911" width="7.77734375" style="1" customWidth="1"/>
+    <col min="7912" max="7912" width="14.88671875" style="1" customWidth="1"/>
+    <col min="7913" max="7913" width="9.21875" style="1" customWidth="1"/>
+    <col min="7914" max="7914" width="11.21875" style="1" customWidth="1"/>
+    <col min="7915" max="7915" width="16.21875" style="1" customWidth="1"/>
+    <col min="7916" max="7916" width="13.109375" style="1" customWidth="1"/>
+    <col min="7917" max="7919" width="12.77734375" style="1" customWidth="1"/>
+    <col min="7920" max="7920" width="11.88671875" style="1" customWidth="1"/>
+    <col min="7921" max="7921" width="12.77734375" style="1" customWidth="1"/>
+    <col min="7922" max="8111" width="7.77734375" style="1" customWidth="1"/>
+    <col min="8112" max="8112" width="5.6640625" style="1" customWidth="1"/>
+    <col min="8113" max="8114" width="10.88671875" style="1" customWidth="1"/>
+    <col min="8115" max="8115" width="9.109375" style="1" customWidth="1"/>
+    <col min="8116" max="8117" width="8.6640625" style="1" customWidth="1"/>
     <col min="8118" max="8118" width="24" style="1" customWidth="1"/>
-    <col min="8119" max="8119" width="17.81640625" style="1" customWidth="1"/>
-    <col min="8120" max="8121" width="12.81640625" style="1" customWidth="1"/>
-    <col min="8122" max="8122" width="20.1796875" style="1" customWidth="1"/>
-    <col min="8123" max="8158" width="8.36328125" style="1"/>
-    <col min="8159" max="8159" width="6.453125" style="1" customWidth="1"/>
-    <col min="8160" max="8162" width="8.6328125" style="1" customWidth="1"/>
-    <col min="8163" max="8163" width="21.08984375" style="1" customWidth="1"/>
-    <col min="8164" max="8164" width="25.08984375" style="1" customWidth="1"/>
-    <col min="8165" max="8165" width="14.90625" style="1" customWidth="1"/>
-    <col min="8166" max="8166" width="16.90625" style="1" customWidth="1"/>
-    <col min="8167" max="8167" width="7.81640625" style="1" customWidth="1"/>
-    <col min="8168" max="8168" width="14.90625" style="1" customWidth="1"/>
-    <col min="8169" max="8169" width="9.1796875" style="1" customWidth="1"/>
-    <col min="8170" max="8170" width="11.1796875" style="1" customWidth="1"/>
-    <col min="8171" max="8171" width="16.1796875" style="1" customWidth="1"/>
-    <col min="8172" max="8172" width="13.08984375" style="1" customWidth="1"/>
-    <col min="8173" max="8175" width="12.81640625" style="1" customWidth="1"/>
-    <col min="8176" max="8176" width="11.90625" style="1" customWidth="1"/>
-    <col min="8177" max="8177" width="12.81640625" style="1" customWidth="1"/>
-    <col min="8178" max="8367" width="7.81640625" style="1" customWidth="1"/>
-    <col min="8368" max="8368" width="5.6328125" style="1" customWidth="1"/>
-    <col min="8369" max="8370" width="10.90625" style="1" customWidth="1"/>
-    <col min="8371" max="8371" width="9.08984375" style="1" customWidth="1"/>
-    <col min="8372" max="8373" width="8.6328125" style="1" customWidth="1"/>
+    <col min="8119" max="8119" width="17.77734375" style="1" customWidth="1"/>
+    <col min="8120" max="8121" width="12.77734375" style="1" customWidth="1"/>
+    <col min="8122" max="8122" width="20.21875" style="1" customWidth="1"/>
+    <col min="8123" max="8158" width="8.33203125" style="1"/>
+    <col min="8159" max="8159" width="6.44140625" style="1" customWidth="1"/>
+    <col min="8160" max="8162" width="8.6640625" style="1" customWidth="1"/>
+    <col min="8163" max="8163" width="21.109375" style="1" customWidth="1"/>
+    <col min="8164" max="8164" width="25.109375" style="1" customWidth="1"/>
+    <col min="8165" max="8165" width="14.88671875" style="1" customWidth="1"/>
+    <col min="8166" max="8166" width="16.88671875" style="1" customWidth="1"/>
+    <col min="8167" max="8167" width="7.77734375" style="1" customWidth="1"/>
+    <col min="8168" max="8168" width="14.88671875" style="1" customWidth="1"/>
+    <col min="8169" max="8169" width="9.21875" style="1" customWidth="1"/>
+    <col min="8170" max="8170" width="11.21875" style="1" customWidth="1"/>
+    <col min="8171" max="8171" width="16.21875" style="1" customWidth="1"/>
+    <col min="8172" max="8172" width="13.109375" style="1" customWidth="1"/>
+    <col min="8173" max="8175" width="12.77734375" style="1" customWidth="1"/>
+    <col min="8176" max="8176" width="11.88671875" style="1" customWidth="1"/>
+    <col min="8177" max="8177" width="12.77734375" style="1" customWidth="1"/>
+    <col min="8178" max="8367" width="7.77734375" style="1" customWidth="1"/>
+    <col min="8368" max="8368" width="5.6640625" style="1" customWidth="1"/>
+    <col min="8369" max="8370" width="10.88671875" style="1" customWidth="1"/>
+    <col min="8371" max="8371" width="9.109375" style="1" customWidth="1"/>
+    <col min="8372" max="8373" width="8.6640625" style="1" customWidth="1"/>
     <col min="8374" max="8374" width="24" style="1" customWidth="1"/>
-    <col min="8375" max="8375" width="17.81640625" style="1" customWidth="1"/>
-    <col min="8376" max="8377" width="12.81640625" style="1" customWidth="1"/>
-    <col min="8378" max="8378" width="20.1796875" style="1" customWidth="1"/>
-    <col min="8379" max="8414" width="8.36328125" style="1"/>
-    <col min="8415" max="8415" width="6.453125" style="1" customWidth="1"/>
-    <col min="8416" max="8418" width="8.6328125" style="1" customWidth="1"/>
-    <col min="8419" max="8419" width="21.08984375" style="1" customWidth="1"/>
-    <col min="8420" max="8420" width="25.08984375" style="1" customWidth="1"/>
-    <col min="8421" max="8421" width="14.90625" style="1" customWidth="1"/>
-    <col min="8422" max="8422" width="16.90625" style="1" customWidth="1"/>
-    <col min="8423" max="8423" width="7.81640625" style="1" customWidth="1"/>
-    <col min="8424" max="8424" width="14.90625" style="1" customWidth="1"/>
-    <col min="8425" max="8425" width="9.1796875" style="1" customWidth="1"/>
-    <col min="8426" max="8426" width="11.1796875" style="1" customWidth="1"/>
-    <col min="8427" max="8427" width="16.1796875" style="1" customWidth="1"/>
-    <col min="8428" max="8428" width="13.08984375" style="1" customWidth="1"/>
-    <col min="8429" max="8431" width="12.81640625" style="1" customWidth="1"/>
-    <col min="8432" max="8432" width="11.90625" style="1" customWidth="1"/>
-    <col min="8433" max="8433" width="12.81640625" style="1" customWidth="1"/>
-    <col min="8434" max="8623" width="7.81640625" style="1" customWidth="1"/>
-    <col min="8624" max="8624" width="5.6328125" style="1" customWidth="1"/>
-    <col min="8625" max="8626" width="10.90625" style="1" customWidth="1"/>
-    <col min="8627" max="8627" width="9.08984375" style="1" customWidth="1"/>
-    <col min="8628" max="8629" width="8.6328125" style="1" customWidth="1"/>
+    <col min="8375" max="8375" width="17.77734375" style="1" customWidth="1"/>
+    <col min="8376" max="8377" width="12.77734375" style="1" customWidth="1"/>
+    <col min="8378" max="8378" width="20.21875" style="1" customWidth="1"/>
+    <col min="8379" max="8414" width="8.33203125" style="1"/>
+    <col min="8415" max="8415" width="6.44140625" style="1" customWidth="1"/>
+    <col min="8416" max="8418" width="8.6640625" style="1" customWidth="1"/>
+    <col min="8419" max="8419" width="21.109375" style="1" customWidth="1"/>
+    <col min="8420" max="8420" width="25.109375" style="1" customWidth="1"/>
+    <col min="8421" max="8421" width="14.88671875" style="1" customWidth="1"/>
+    <col min="8422" max="8422" width="16.88671875" style="1" customWidth="1"/>
+    <col min="8423" max="8423" width="7.77734375" style="1" customWidth="1"/>
+    <col min="8424" max="8424" width="14.88671875" style="1" customWidth="1"/>
+    <col min="8425" max="8425" width="9.21875" style="1" customWidth="1"/>
+    <col min="8426" max="8426" width="11.21875" style="1" customWidth="1"/>
+    <col min="8427" max="8427" width="16.21875" style="1" customWidth="1"/>
+    <col min="8428" max="8428" width="13.109375" style="1" customWidth="1"/>
+    <col min="8429" max="8431" width="12.77734375" style="1" customWidth="1"/>
+    <col min="8432" max="8432" width="11.88671875" style="1" customWidth="1"/>
+    <col min="8433" max="8433" width="12.77734375" style="1" customWidth="1"/>
+    <col min="8434" max="8623" width="7.77734375" style="1" customWidth="1"/>
+    <col min="8624" max="8624" width="5.6640625" style="1" customWidth="1"/>
+    <col min="8625" max="8626" width="10.88671875" style="1" customWidth="1"/>
+    <col min="8627" max="8627" width="9.109375" style="1" customWidth="1"/>
+    <col min="8628" max="8629" width="8.6640625" style="1" customWidth="1"/>
     <col min="8630" max="8630" width="24" style="1" customWidth="1"/>
-    <col min="8631" max="8631" width="17.81640625" style="1" customWidth="1"/>
-    <col min="8632" max="8633" width="12.81640625" style="1" customWidth="1"/>
-    <col min="8634" max="8634" width="20.1796875" style="1" customWidth="1"/>
-    <col min="8635" max="8670" width="8.36328125" style="1"/>
-    <col min="8671" max="8671" width="6.453125" style="1" customWidth="1"/>
-    <col min="8672" max="8674" width="8.6328125" style="1" customWidth="1"/>
-    <col min="8675" max="8675" width="21.08984375" style="1" customWidth="1"/>
-    <col min="8676" max="8676" width="25.08984375" style="1" customWidth="1"/>
-    <col min="8677" max="8677" width="14.90625" style="1" customWidth="1"/>
-    <col min="8678" max="8678" width="16.90625" style="1" customWidth="1"/>
-    <col min="8679" max="8679" width="7.81640625" style="1" customWidth="1"/>
-    <col min="8680" max="8680" width="14.90625" style="1" customWidth="1"/>
-    <col min="8681" max="8681" width="9.1796875" style="1" customWidth="1"/>
-    <col min="8682" max="8682" width="11.1796875" style="1" customWidth="1"/>
-    <col min="8683" max="8683" width="16.1796875" style="1" customWidth="1"/>
-    <col min="8684" max="8684" width="13.08984375" style="1" customWidth="1"/>
-    <col min="8685" max="8687" width="12.81640625" style="1" customWidth="1"/>
-    <col min="8688" max="8688" width="11.90625" style="1" customWidth="1"/>
-    <col min="8689" max="8689" width="12.81640625" style="1" customWidth="1"/>
-    <col min="8690" max="8879" width="7.81640625" style="1" customWidth="1"/>
-    <col min="8880" max="8880" width="5.6328125" style="1" customWidth="1"/>
-    <col min="8881" max="8882" width="10.90625" style="1" customWidth="1"/>
-    <col min="8883" max="8883" width="9.08984375" style="1" customWidth="1"/>
-    <col min="8884" max="8885" width="8.6328125" style="1" customWidth="1"/>
+    <col min="8631" max="8631" width="17.77734375" style="1" customWidth="1"/>
+    <col min="8632" max="8633" width="12.77734375" style="1" customWidth="1"/>
+    <col min="8634" max="8634" width="20.21875" style="1" customWidth="1"/>
+    <col min="8635" max="8670" width="8.33203125" style="1"/>
+    <col min="8671" max="8671" width="6.44140625" style="1" customWidth="1"/>
+    <col min="8672" max="8674" width="8.6640625" style="1" customWidth="1"/>
+    <col min="8675" max="8675" width="21.109375" style="1" customWidth="1"/>
+    <col min="8676" max="8676" width="25.109375" style="1" customWidth="1"/>
+    <col min="8677" max="8677" width="14.88671875" style="1" customWidth="1"/>
+    <col min="8678" max="8678" width="16.88671875" style="1" customWidth="1"/>
+    <col min="8679" max="8679" width="7.77734375" style="1" customWidth="1"/>
+    <col min="8680" max="8680" width="14.88671875" style="1" customWidth="1"/>
+    <col min="8681" max="8681" width="9.21875" style="1" customWidth="1"/>
+    <col min="8682" max="8682" width="11.21875" style="1" customWidth="1"/>
+    <col min="8683" max="8683" width="16.21875" style="1" customWidth="1"/>
+    <col min="8684" max="8684" width="13.109375" style="1" customWidth="1"/>
+    <col min="8685" max="8687" width="12.77734375" style="1" customWidth="1"/>
+    <col min="8688" max="8688" width="11.88671875" style="1" customWidth="1"/>
+    <col min="8689" max="8689" width="12.77734375" style="1" customWidth="1"/>
+    <col min="8690" max="8879" width="7.77734375" style="1" customWidth="1"/>
+    <col min="8880" max="8880" width="5.6640625" style="1" customWidth="1"/>
+    <col min="8881" max="8882" width="10.88671875" style="1" customWidth="1"/>
+    <col min="8883" max="8883" width="9.109375" style="1" customWidth="1"/>
+    <col min="8884" max="8885" width="8.6640625" style="1" customWidth="1"/>
     <col min="8886" max="8886" width="24" style="1" customWidth="1"/>
-    <col min="8887" max="8887" width="17.81640625" style="1" customWidth="1"/>
-    <col min="8888" max="8889" width="12.81640625" style="1" customWidth="1"/>
-    <col min="8890" max="8890" width="20.1796875" style="1" customWidth="1"/>
-    <col min="8891" max="8926" width="8.36328125" style="1"/>
-    <col min="8927" max="8927" width="6.453125" style="1" customWidth="1"/>
-    <col min="8928" max="8930" width="8.6328125" style="1" customWidth="1"/>
-    <col min="8931" max="8931" width="21.08984375" style="1" customWidth="1"/>
-    <col min="8932" max="8932" width="25.08984375" style="1" customWidth="1"/>
-    <col min="8933" max="8933" width="14.90625" style="1" customWidth="1"/>
-    <col min="8934" max="8934" width="16.90625" style="1" customWidth="1"/>
-    <col min="8935" max="8935" width="7.81640625" style="1" customWidth="1"/>
-    <col min="8936" max="8936" width="14.90625" style="1" customWidth="1"/>
-    <col min="8937" max="8937" width="9.1796875" style="1" customWidth="1"/>
-    <col min="8938" max="8938" width="11.1796875" style="1" customWidth="1"/>
-    <col min="8939" max="8939" width="16.1796875" style="1" customWidth="1"/>
-    <col min="8940" max="8940" width="13.08984375" style="1" customWidth="1"/>
-    <col min="8941" max="8943" width="12.81640625" style="1" customWidth="1"/>
-    <col min="8944" max="8944" width="11.90625" style="1" customWidth="1"/>
-    <col min="8945" max="8945" width="12.81640625" style="1" customWidth="1"/>
-    <col min="8946" max="9135" width="7.81640625" style="1" customWidth="1"/>
-    <col min="9136" max="9136" width="5.6328125" style="1" customWidth="1"/>
-    <col min="9137" max="9138" width="10.90625" style="1" customWidth="1"/>
-    <col min="9139" max="9139" width="9.08984375" style="1" customWidth="1"/>
-    <col min="9140" max="9141" width="8.6328125" style="1" customWidth="1"/>
+    <col min="8887" max="8887" width="17.77734375" style="1" customWidth="1"/>
+    <col min="8888" max="8889" width="12.77734375" style="1" customWidth="1"/>
+    <col min="8890" max="8890" width="20.21875" style="1" customWidth="1"/>
+    <col min="8891" max="8926" width="8.33203125" style="1"/>
+    <col min="8927" max="8927" width="6.44140625" style="1" customWidth="1"/>
+    <col min="8928" max="8930" width="8.6640625" style="1" customWidth="1"/>
+    <col min="8931" max="8931" width="21.109375" style="1" customWidth="1"/>
+    <col min="8932" max="8932" width="25.109375" style="1" customWidth="1"/>
+    <col min="8933" max="8933" width="14.88671875" style="1" customWidth="1"/>
+    <col min="8934" max="8934" width="16.88671875" style="1" customWidth="1"/>
+    <col min="8935" max="8935" width="7.77734375" style="1" customWidth="1"/>
+    <col min="8936" max="8936" width="14.88671875" style="1" customWidth="1"/>
+    <col min="8937" max="8937" width="9.21875" style="1" customWidth="1"/>
+    <col min="8938" max="8938" width="11.21875" style="1" customWidth="1"/>
+    <col min="8939" max="8939" width="16.21875" style="1" customWidth="1"/>
+    <col min="8940" max="8940" width="13.109375" style="1" customWidth="1"/>
+    <col min="8941" max="8943" width="12.77734375" style="1" customWidth="1"/>
+    <col min="8944" max="8944" width="11.88671875" style="1" customWidth="1"/>
+    <col min="8945" max="8945" width="12.77734375" style="1" customWidth="1"/>
+    <col min="8946" max="9135" width="7.77734375" style="1" customWidth="1"/>
+    <col min="9136" max="9136" width="5.6640625" style="1" customWidth="1"/>
+    <col min="9137" max="9138" width="10.88671875" style="1" customWidth="1"/>
+    <col min="9139" max="9139" width="9.109375" style="1" customWidth="1"/>
+    <col min="9140" max="9141" width="8.6640625" style="1" customWidth="1"/>
     <col min="9142" max="9142" width="24" style="1" customWidth="1"/>
-    <col min="9143" max="9143" width="17.81640625" style="1" customWidth="1"/>
-    <col min="9144" max="9145" width="12.81640625" style="1" customWidth="1"/>
-    <col min="9146" max="9146" width="20.1796875" style="1" customWidth="1"/>
-    <col min="9147" max="9182" width="8.36328125" style="1"/>
-    <col min="9183" max="9183" width="6.453125" style="1" customWidth="1"/>
-    <col min="9184" max="9186" width="8.6328125" style="1" customWidth="1"/>
-    <col min="9187" max="9187" width="21.08984375" style="1" customWidth="1"/>
-    <col min="9188" max="9188" width="25.08984375" style="1" customWidth="1"/>
-    <col min="9189" max="9189" width="14.90625" style="1" customWidth="1"/>
-    <col min="9190" max="9190" width="16.90625" style="1" customWidth="1"/>
-    <col min="9191" max="9191" width="7.81640625" style="1" customWidth="1"/>
-    <col min="9192" max="9192" width="14.90625" style="1" customWidth="1"/>
-    <col min="9193" max="9193" width="9.1796875" style="1" customWidth="1"/>
-    <col min="9194" max="9194" width="11.1796875" style="1" customWidth="1"/>
-    <col min="9195" max="9195" width="16.1796875" style="1" customWidth="1"/>
-    <col min="9196" max="9196" width="13.08984375" style="1" customWidth="1"/>
-    <col min="9197" max="9199" width="12.81640625" style="1" customWidth="1"/>
-    <col min="9200" max="9200" width="11.90625" style="1" customWidth="1"/>
-    <col min="9201" max="9201" width="12.81640625" style="1" customWidth="1"/>
-    <col min="9202" max="9391" width="7.81640625" style="1" customWidth="1"/>
-    <col min="9392" max="9392" width="5.6328125" style="1" customWidth="1"/>
-    <col min="9393" max="9394" width="10.90625" style="1" customWidth="1"/>
-    <col min="9395" max="9395" width="9.08984375" style="1" customWidth="1"/>
-    <col min="9396" max="9397" width="8.6328125" style="1" customWidth="1"/>
+    <col min="9143" max="9143" width="17.77734375" style="1" customWidth="1"/>
+    <col min="9144" max="9145" width="12.77734375" style="1" customWidth="1"/>
+    <col min="9146" max="9146" width="20.21875" style="1" customWidth="1"/>
+    <col min="9147" max="9182" width="8.33203125" style="1"/>
+    <col min="9183" max="9183" width="6.44140625" style="1" customWidth="1"/>
+    <col min="9184" max="9186" width="8.6640625" style="1" customWidth="1"/>
+    <col min="9187" max="9187" width="21.109375" style="1" customWidth="1"/>
+    <col min="9188" max="9188" width="25.109375" style="1" customWidth="1"/>
+    <col min="9189" max="9189" width="14.88671875" style="1" customWidth="1"/>
+    <col min="9190" max="9190" width="16.88671875" style="1" customWidth="1"/>
+    <col min="9191" max="9191" width="7.77734375" style="1" customWidth="1"/>
+    <col min="9192" max="9192" width="14.88671875" style="1" customWidth="1"/>
+    <col min="9193" max="9193" width="9.21875" style="1" customWidth="1"/>
+    <col min="9194" max="9194" width="11.21875" style="1" customWidth="1"/>
+    <col min="9195" max="9195" width="16.21875" style="1" customWidth="1"/>
+    <col min="9196" max="9196" width="13.109375" style="1" customWidth="1"/>
+    <col min="9197" max="9199" width="12.77734375" style="1" customWidth="1"/>
+    <col min="9200" max="9200" width="11.88671875" style="1" customWidth="1"/>
+    <col min="9201" max="9201" width="12.77734375" style="1" customWidth="1"/>
+    <col min="9202" max="9391" width="7.77734375" style="1" customWidth="1"/>
+    <col min="9392" max="9392" width="5.6640625" style="1" customWidth="1"/>
+    <col min="9393" max="9394" width="10.88671875" style="1" customWidth="1"/>
+    <col min="9395" max="9395" width="9.109375" style="1" customWidth="1"/>
+    <col min="9396" max="9397" width="8.6640625" style="1" customWidth="1"/>
     <col min="9398" max="9398" width="24" style="1" customWidth="1"/>
-    <col min="9399" max="9399" width="17.81640625" style="1" customWidth="1"/>
-    <col min="9400" max="9401" width="12.81640625" style="1" customWidth="1"/>
-    <col min="9402" max="9402" width="20.1796875" style="1" customWidth="1"/>
-    <col min="9403" max="9438" width="8.36328125" style="1"/>
-    <col min="9439" max="9439" width="6.453125" style="1" customWidth="1"/>
-    <col min="9440" max="9442" width="8.6328125" style="1" customWidth="1"/>
-    <col min="9443" max="9443" width="21.08984375" style="1" customWidth="1"/>
-    <col min="9444" max="9444" width="25.08984375" style="1" customWidth="1"/>
-    <col min="9445" max="9445" width="14.90625" style="1" customWidth="1"/>
-    <col min="9446" max="9446" width="16.90625" style="1" customWidth="1"/>
-    <col min="9447" max="9447" width="7.81640625" style="1" customWidth="1"/>
-    <col min="9448" max="9448" width="14.90625" style="1" customWidth="1"/>
-    <col min="9449" max="9449" width="9.1796875" style="1" customWidth="1"/>
-    <col min="9450" max="9450" width="11.1796875" style="1" customWidth="1"/>
-    <col min="9451" max="9451" width="16.1796875" style="1" customWidth="1"/>
-    <col min="9452" max="9452" width="13.08984375" style="1" customWidth="1"/>
-    <col min="9453" max="9455" width="12.81640625" style="1" customWidth="1"/>
-    <col min="9456" max="9456" width="11.90625" style="1" customWidth="1"/>
-    <col min="9457" max="9457" width="12.81640625" style="1" customWidth="1"/>
-    <col min="9458" max="9647" width="7.81640625" style="1" customWidth="1"/>
-    <col min="9648" max="9648" width="5.6328125" style="1" customWidth="1"/>
-    <col min="9649" max="9650" width="10.90625" style="1" customWidth="1"/>
-    <col min="9651" max="9651" width="9.08984375" style="1" customWidth="1"/>
-    <col min="9652" max="9653" width="8.6328125" style="1" customWidth="1"/>
+    <col min="9399" max="9399" width="17.77734375" style="1" customWidth="1"/>
+    <col min="9400" max="9401" width="12.77734375" style="1" customWidth="1"/>
+    <col min="9402" max="9402" width="20.21875" style="1" customWidth="1"/>
+    <col min="9403" max="9438" width="8.33203125" style="1"/>
+    <col min="9439" max="9439" width="6.44140625" style="1" customWidth="1"/>
+    <col min="9440" max="9442" width="8.6640625" style="1" customWidth="1"/>
+    <col min="9443" max="9443" width="21.109375" style="1" customWidth="1"/>
+    <col min="9444" max="9444" width="25.109375" style="1" customWidth="1"/>
+    <col min="9445" max="9445" width="14.88671875" style="1" customWidth="1"/>
+    <col min="9446" max="9446" width="16.88671875" style="1" customWidth="1"/>
+    <col min="9447" max="9447" width="7.77734375" style="1" customWidth="1"/>
+    <col min="9448" max="9448" width="14.88671875" style="1" customWidth="1"/>
+    <col min="9449" max="9449" width="9.21875" style="1" customWidth="1"/>
+    <col min="9450" max="9450" width="11.21875" style="1" customWidth="1"/>
+    <col min="9451" max="9451" width="16.21875" style="1" customWidth="1"/>
+    <col min="9452" max="9452" width="13.109375" style="1" customWidth="1"/>
+    <col min="9453" max="9455" width="12.77734375" style="1" customWidth="1"/>
+    <col min="9456" max="9456" width="11.88671875" style="1" customWidth="1"/>
+    <col min="9457" max="9457" width="12.77734375" style="1" customWidth="1"/>
+    <col min="9458" max="9647" width="7.77734375" style="1" customWidth="1"/>
+    <col min="9648" max="9648" width="5.6640625" style="1" customWidth="1"/>
+    <col min="9649" max="9650" width="10.88671875" style="1" customWidth="1"/>
+    <col min="9651" max="9651" width="9.109375" style="1" customWidth="1"/>
+    <col min="9652" max="9653" width="8.6640625" style="1" customWidth="1"/>
     <col min="9654" max="9654" width="24" style="1" customWidth="1"/>
-    <col min="9655" max="9655" width="17.81640625" style="1" customWidth="1"/>
-    <col min="9656" max="9657" width="12.81640625" style="1" customWidth="1"/>
-    <col min="9658" max="9658" width="20.1796875" style="1" customWidth="1"/>
-    <col min="9659" max="9694" width="8.36328125" style="1"/>
-    <col min="9695" max="9695" width="6.453125" style="1" customWidth="1"/>
-    <col min="9696" max="9698" width="8.6328125" style="1" customWidth="1"/>
-    <col min="9699" max="9699" width="21.08984375" style="1" customWidth="1"/>
-    <col min="9700" max="9700" width="25.08984375" style="1" customWidth="1"/>
-    <col min="9701" max="9701" width="14.90625" style="1" customWidth="1"/>
-    <col min="9702" max="9702" width="16.90625" style="1" customWidth="1"/>
-    <col min="9703" max="9703" width="7.81640625" style="1" customWidth="1"/>
-    <col min="9704" max="9704" width="14.90625" style="1" customWidth="1"/>
-    <col min="9705" max="9705" width="9.1796875" style="1" customWidth="1"/>
-    <col min="9706" max="9706" width="11.1796875" style="1" customWidth="1"/>
-    <col min="9707" max="9707" width="16.1796875" style="1" customWidth="1"/>
-    <col min="9708" max="9708" width="13.08984375" style="1" customWidth="1"/>
-    <col min="9709" max="9711" width="12.81640625" style="1" customWidth="1"/>
-    <col min="9712" max="9712" width="11.90625" style="1" customWidth="1"/>
-    <col min="9713" max="9713" width="12.81640625" style="1" customWidth="1"/>
-    <col min="9714" max="9903" width="7.81640625" style="1" customWidth="1"/>
-    <col min="9904" max="9904" width="5.6328125" style="1" customWidth="1"/>
-    <col min="9905" max="9906" width="10.90625" style="1" customWidth="1"/>
-    <col min="9907" max="9907" width="9.08984375" style="1" customWidth="1"/>
-    <col min="9908" max="9909" width="8.6328125" style="1" customWidth="1"/>
+    <col min="9655" max="9655" width="17.77734375" style="1" customWidth="1"/>
+    <col min="9656" max="9657" width="12.77734375" style="1" customWidth="1"/>
+    <col min="9658" max="9658" width="20.21875" style="1" customWidth="1"/>
+    <col min="9659" max="9694" width="8.33203125" style="1"/>
+    <col min="9695" max="9695" width="6.44140625" style="1" customWidth="1"/>
+    <col min="9696" max="9698" width="8.6640625" style="1" customWidth="1"/>
+    <col min="9699" max="9699" width="21.109375" style="1" customWidth="1"/>
+    <col min="9700" max="9700" width="25.109375" style="1" customWidth="1"/>
+    <col min="9701" max="9701" width="14.88671875" style="1" customWidth="1"/>
+    <col min="9702" max="9702" width="16.88671875" style="1" customWidth="1"/>
+    <col min="9703" max="9703" width="7.77734375" style="1" customWidth="1"/>
+    <col min="9704" max="9704" width="14.88671875" style="1" customWidth="1"/>
+    <col min="9705" max="9705" width="9.21875" style="1" customWidth="1"/>
+    <col min="9706" max="9706" width="11.21875" style="1" customWidth="1"/>
+    <col min="9707" max="9707" width="16.21875" style="1" customWidth="1"/>
+    <col min="9708" max="9708" width="13.109375" style="1" customWidth="1"/>
+    <col min="9709" max="9711" width="12.77734375" style="1" customWidth="1"/>
+    <col min="9712" max="9712" width="11.88671875" style="1" customWidth="1"/>
+    <col min="9713" max="9713" width="12.77734375" style="1" customWidth="1"/>
+    <col min="9714" max="9903" width="7.77734375" style="1" customWidth="1"/>
+    <col min="9904" max="9904" width="5.6640625" style="1" customWidth="1"/>
+    <col min="9905" max="9906" width="10.88671875" style="1" customWidth="1"/>
+    <col min="9907" max="9907" width="9.109375" style="1" customWidth="1"/>
+    <col min="9908" max="9909" width="8.6640625" style="1" customWidth="1"/>
     <col min="9910" max="9910" width="24" style="1" customWidth="1"/>
-    <col min="9911" max="9911" width="17.81640625" style="1" customWidth="1"/>
-    <col min="9912" max="9913" width="12.81640625" style="1" customWidth="1"/>
-    <col min="9914" max="9914" width="20.1796875" style="1" customWidth="1"/>
-    <col min="9915" max="9950" width="8.36328125" style="1"/>
-    <col min="9951" max="9951" width="6.453125" style="1" customWidth="1"/>
-    <col min="9952" max="9954" width="8.6328125" style="1" customWidth="1"/>
-    <col min="9955" max="9955" width="21.08984375" style="1" customWidth="1"/>
-    <col min="9956" max="9956" width="25.08984375" style="1" customWidth="1"/>
-    <col min="9957" max="9957" width="14.90625" style="1" customWidth="1"/>
-    <col min="9958" max="9958" width="16.90625" style="1" customWidth="1"/>
-    <col min="9959" max="9959" width="7.81640625" style="1" customWidth="1"/>
-    <col min="9960" max="9960" width="14.90625" style="1" customWidth="1"/>
-    <col min="9961" max="9961" width="9.1796875" style="1" customWidth="1"/>
-    <col min="9962" max="9962" width="11.1796875" style="1" customWidth="1"/>
-    <col min="9963" max="9963" width="16.1796875" style="1" customWidth="1"/>
-    <col min="9964" max="9964" width="13.08984375" style="1" customWidth="1"/>
-    <col min="9965" max="9967" width="12.81640625" style="1" customWidth="1"/>
-    <col min="9968" max="9968" width="11.90625" style="1" customWidth="1"/>
-    <col min="9969" max="9969" width="12.81640625" style="1" customWidth="1"/>
-    <col min="9970" max="10159" width="7.81640625" style="1" customWidth="1"/>
-    <col min="10160" max="10160" width="5.6328125" style="1" customWidth="1"/>
-    <col min="10161" max="10162" width="10.90625" style="1" customWidth="1"/>
-    <col min="10163" max="10163" width="9.08984375" style="1" customWidth="1"/>
-    <col min="10164" max="10165" width="8.6328125" style="1" customWidth="1"/>
+    <col min="9911" max="9911" width="17.77734375" style="1" customWidth="1"/>
+    <col min="9912" max="9913" width="12.77734375" style="1" customWidth="1"/>
+    <col min="9914" max="9914" width="20.21875" style="1" customWidth="1"/>
+    <col min="9915" max="9950" width="8.33203125" style="1"/>
+    <col min="9951" max="9951" width="6.44140625" style="1" customWidth="1"/>
+    <col min="9952" max="9954" width="8.6640625" style="1" customWidth="1"/>
+    <col min="9955" max="9955" width="21.109375" style="1" customWidth="1"/>
+    <col min="9956" max="9956" width="25.109375" style="1" customWidth="1"/>
+    <col min="9957" max="9957" width="14.88671875" style="1" customWidth="1"/>
+    <col min="9958" max="9958" width="16.88671875" style="1" customWidth="1"/>
+    <col min="9959" max="9959" width="7.77734375" style="1" customWidth="1"/>
+    <col min="9960" max="9960" width="14.88671875" style="1" customWidth="1"/>
+    <col min="9961" max="9961" width="9.21875" style="1" customWidth="1"/>
+    <col min="9962" max="9962" width="11.21875" style="1" customWidth="1"/>
+    <col min="9963" max="9963" width="16.21875" style="1" customWidth="1"/>
+    <col min="9964" max="9964" width="13.109375" style="1" customWidth="1"/>
+    <col min="9965" max="9967" width="12.77734375" style="1" customWidth="1"/>
+    <col min="9968" max="9968" width="11.88671875" style="1" customWidth="1"/>
+    <col min="9969" max="9969" width="12.77734375" style="1" customWidth="1"/>
+    <col min="9970" max="10159" width="7.77734375" style="1" customWidth="1"/>
+    <col min="10160" max="10160" width="5.6640625" style="1" customWidth="1"/>
+    <col min="10161" max="10162" width="10.88671875" style="1" customWidth="1"/>
+    <col min="10163" max="10163" width="9.109375" style="1" customWidth="1"/>
+    <col min="10164" max="10165" width="8.6640625" style="1" customWidth="1"/>
     <col min="10166" max="10166" width="24" style="1" customWidth="1"/>
-    <col min="10167" max="10167" width="17.81640625" style="1" customWidth="1"/>
-    <col min="10168" max="10169" width="12.81640625" style="1" customWidth="1"/>
-    <col min="10170" max="10170" width="20.1796875" style="1" customWidth="1"/>
-    <col min="10171" max="10206" width="8.36328125" style="1"/>
-    <col min="10207" max="10207" width="6.453125" style="1" customWidth="1"/>
-    <col min="10208" max="10210" width="8.6328125" style="1" customWidth="1"/>
-    <col min="10211" max="10211" width="21.08984375" style="1" customWidth="1"/>
-    <col min="10212" max="10212" width="25.08984375" style="1" customWidth="1"/>
-    <col min="10213" max="10213" width="14.90625" style="1" customWidth="1"/>
-    <col min="10214" max="10214" width="16.90625" style="1" customWidth="1"/>
-    <col min="10215" max="10215" width="7.81640625" style="1" customWidth="1"/>
-    <col min="10216" max="10216" width="14.90625" style="1" customWidth="1"/>
-    <col min="10217" max="10217" width="9.1796875" style="1" customWidth="1"/>
-    <col min="10218" max="10218" width="11.1796875" style="1" customWidth="1"/>
-    <col min="10219" max="10219" width="16.1796875" style="1" customWidth="1"/>
-    <col min="10220" max="10220" width="13.08984375" style="1" customWidth="1"/>
-    <col min="10221" max="10223" width="12.81640625" style="1" customWidth="1"/>
-    <col min="10224" max="10224" width="11.90625" style="1" customWidth="1"/>
-    <col min="10225" max="10225" width="12.81640625" style="1" customWidth="1"/>
-    <col min="10226" max="10415" width="7.81640625" style="1" customWidth="1"/>
-    <col min="10416" max="10416" width="5.6328125" style="1" customWidth="1"/>
-    <col min="10417" max="10418" width="10.90625" style="1" customWidth="1"/>
-    <col min="10419" max="10419" width="9.08984375" style="1" customWidth="1"/>
-    <col min="10420" max="10421" width="8.6328125" style="1" customWidth="1"/>
+    <col min="10167" max="10167" width="17.77734375" style="1" customWidth="1"/>
+    <col min="10168" max="10169" width="12.77734375" style="1" customWidth="1"/>
+    <col min="10170" max="10170" width="20.21875" style="1" customWidth="1"/>
+    <col min="10171" max="10206" width="8.33203125" style="1"/>
+    <col min="10207" max="10207" width="6.44140625" style="1" customWidth="1"/>
+    <col min="10208" max="10210" width="8.6640625" style="1" customWidth="1"/>
+    <col min="10211" max="10211" width="21.109375" style="1" customWidth="1"/>
+    <col min="10212" max="10212" width="25.109375" style="1" customWidth="1"/>
+    <col min="10213" max="10213" width="14.88671875" style="1" customWidth="1"/>
+    <col min="10214" max="10214" width="16.88671875" style="1" customWidth="1"/>
+    <col min="10215" max="10215" width="7.77734375" style="1" customWidth="1"/>
+    <col min="10216" max="10216" width="14.88671875" style="1" customWidth="1"/>
+    <col min="10217" max="10217" width="9.21875" style="1" customWidth="1"/>
+    <col min="10218" max="10218" width="11.21875" style="1" customWidth="1"/>
+    <col min="10219" max="10219" width="16.21875" style="1" customWidth="1"/>
+    <col min="10220" max="10220" width="13.109375" style="1" customWidth="1"/>
+    <col min="10221" max="10223" width="12.77734375" style="1" customWidth="1"/>
+    <col min="10224" max="10224" width="11.88671875" style="1" customWidth="1"/>
+    <col min="10225" max="10225" width="12.77734375" style="1" customWidth="1"/>
+    <col min="10226" max="10415" width="7.77734375" style="1" customWidth="1"/>
+    <col min="10416" max="10416" width="5.6640625" style="1" customWidth="1"/>
+    <col min="10417" max="10418" width="10.88671875" style="1" customWidth="1"/>
+    <col min="10419" max="10419" width="9.109375" style="1" customWidth="1"/>
+    <col min="10420" max="10421" width="8.6640625" style="1" customWidth="1"/>
     <col min="10422" max="10422" width="24" style="1" customWidth="1"/>
-    <col min="10423" max="10423" width="17.81640625" style="1" customWidth="1"/>
-    <col min="10424" max="10425" width="12.81640625" style="1" customWidth="1"/>
-    <col min="10426" max="10426" width="20.1796875" style="1" customWidth="1"/>
-    <col min="10427" max="10462" width="8.36328125" style="1"/>
-    <col min="10463" max="10463" width="6.453125" style="1" customWidth="1"/>
-    <col min="10464" max="10466" width="8.6328125" style="1" customWidth="1"/>
-    <col min="10467" max="10467" width="21.08984375" style="1" customWidth="1"/>
-    <col min="10468" max="10468" width="25.08984375" style="1" customWidth="1"/>
-    <col min="10469" max="10469" width="14.90625" style="1" customWidth="1"/>
-    <col min="10470" max="10470" width="16.90625" style="1" customWidth="1"/>
-    <col min="10471" max="10471" width="7.81640625" style="1" customWidth="1"/>
-    <col min="10472" max="10472" width="14.90625" style="1" customWidth="1"/>
-    <col min="10473" max="10473" width="9.1796875" style="1" customWidth="1"/>
-    <col min="10474" max="10474" width="11.1796875" style="1" customWidth="1"/>
-    <col min="10475" max="10475" width="16.1796875" style="1" customWidth="1"/>
-    <col min="10476" max="10476" width="13.08984375" style="1" customWidth="1"/>
-    <col min="10477" max="10479" width="12.81640625" style="1" customWidth="1"/>
-    <col min="10480" max="10480" width="11.90625" style="1" customWidth="1"/>
-    <col min="10481" max="10481" width="12.81640625" style="1" customWidth="1"/>
-    <col min="10482" max="10671" width="7.81640625" style="1" customWidth="1"/>
-    <col min="10672" max="10672" width="5.6328125" style="1" customWidth="1"/>
-    <col min="10673" max="10674" width="10.90625" style="1" customWidth="1"/>
-    <col min="10675" max="10675" width="9.08984375" style="1" customWidth="1"/>
-    <col min="10676" max="10677" width="8.6328125" style="1" customWidth="1"/>
+    <col min="10423" max="10423" width="17.77734375" style="1" customWidth="1"/>
+    <col min="10424" max="10425" width="12.77734375" style="1" customWidth="1"/>
+    <col min="10426" max="10426" width="20.21875" style="1" customWidth="1"/>
+    <col min="10427" max="10462" width="8.33203125" style="1"/>
+    <col min="10463" max="10463" width="6.44140625" style="1" customWidth="1"/>
+    <col min="10464" max="10466" width="8.6640625" style="1" customWidth="1"/>
+    <col min="10467" max="10467" width="21.109375" style="1" customWidth="1"/>
+    <col min="10468" max="10468" width="25.109375" style="1" customWidth="1"/>
+    <col min="10469" max="10469" width="14.88671875" style="1" customWidth="1"/>
+    <col min="10470" max="10470" width="16.88671875" style="1" customWidth="1"/>
+    <col min="10471" max="10471" width="7.77734375" style="1" customWidth="1"/>
+    <col min="10472" max="10472" width="14.88671875" style="1" customWidth="1"/>
+    <col min="10473" max="10473" width="9.21875" style="1" customWidth="1"/>
+    <col min="10474" max="10474" width="11.21875" style="1" customWidth="1"/>
+    <col min="10475" max="10475" width="16.21875" style="1" customWidth="1"/>
+    <col min="10476" max="10476" width="13.109375" style="1" customWidth="1"/>
+    <col min="10477" max="10479" width="12.77734375" style="1" customWidth="1"/>
+    <col min="10480" max="10480" width="11.88671875" style="1" customWidth="1"/>
+    <col min="10481" max="10481" width="12.77734375" style="1" customWidth="1"/>
+    <col min="10482" max="10671" width="7.77734375" style="1" customWidth="1"/>
+    <col min="10672" max="10672" width="5.6640625" style="1" customWidth="1"/>
+    <col min="10673" max="10674" width="10.88671875" style="1" customWidth="1"/>
+    <col min="10675" max="10675" width="9.109375" style="1" customWidth="1"/>
+    <col min="10676" max="10677" width="8.6640625" style="1" customWidth="1"/>
     <col min="10678" max="10678" width="24" style="1" customWidth="1"/>
-    <col min="10679" max="10679" width="17.81640625" style="1" customWidth="1"/>
-    <col min="10680" max="10681" width="12.81640625" style="1" customWidth="1"/>
-    <col min="10682" max="10682" width="20.1796875" style="1" customWidth="1"/>
-    <col min="10683" max="10718" width="8.36328125" style="1"/>
-    <col min="10719" max="10719" width="6.453125" style="1" customWidth="1"/>
-    <col min="10720" max="10722" width="8.6328125" style="1" customWidth="1"/>
-    <col min="10723" max="10723" width="21.08984375" style="1" customWidth="1"/>
-    <col min="10724" max="10724" width="25.08984375" style="1" customWidth="1"/>
-    <col min="10725" max="10725" width="14.90625" style="1" customWidth="1"/>
-    <col min="10726" max="10726" width="16.90625" style="1" customWidth="1"/>
-    <col min="10727" max="10727" width="7.81640625" style="1" customWidth="1"/>
-    <col min="10728" max="10728" width="14.90625" style="1" customWidth="1"/>
-    <col min="10729" max="10729" width="9.1796875" style="1" customWidth="1"/>
-    <col min="10730" max="10730" width="11.1796875" style="1" customWidth="1"/>
-    <col min="10731" max="10731" width="16.1796875" style="1" customWidth="1"/>
-    <col min="10732" max="10732" width="13.08984375" style="1" customWidth="1"/>
-    <col min="10733" max="10735" width="12.81640625" style="1" customWidth="1"/>
-    <col min="10736" max="10736" width="11.90625" style="1" customWidth="1"/>
-    <col min="10737" max="10737" width="12.81640625" style="1" customWidth="1"/>
-    <col min="10738" max="10927" width="7.81640625" style="1" customWidth="1"/>
-    <col min="10928" max="10928" width="5.6328125" style="1" customWidth="1"/>
-    <col min="10929" max="10930" width="10.90625" style="1" customWidth="1"/>
-    <col min="10931" max="10931" width="9.08984375" style="1" customWidth="1"/>
-    <col min="10932" max="10933" width="8.6328125" style="1" customWidth="1"/>
+    <col min="10679" max="10679" width="17.77734375" style="1" customWidth="1"/>
+    <col min="10680" max="10681" width="12.77734375" style="1" customWidth="1"/>
+    <col min="10682" max="10682" width="20.21875" style="1" customWidth="1"/>
+    <col min="10683" max="10718" width="8.33203125" style="1"/>
+    <col min="10719" max="10719" width="6.44140625" style="1" customWidth="1"/>
+    <col min="10720" max="10722" width="8.6640625" style="1" customWidth="1"/>
+    <col min="10723" max="10723" width="21.109375" style="1" customWidth="1"/>
+    <col min="10724" max="10724" width="25.109375" style="1" customWidth="1"/>
+    <col min="10725" max="10725" width="14.88671875" style="1" customWidth="1"/>
+    <col min="10726" max="10726" width="16.88671875" style="1" customWidth="1"/>
+    <col min="10727" max="10727" width="7.77734375" style="1" customWidth="1"/>
+    <col min="10728" max="10728" width="14.88671875" style="1" customWidth="1"/>
+    <col min="10729" max="10729" width="9.21875" style="1" customWidth="1"/>
+    <col min="10730" max="10730" width="11.21875" style="1" customWidth="1"/>
+    <col min="10731" max="10731" width="16.21875" style="1" customWidth="1"/>
+    <col min="10732" max="10732" width="13.109375" style="1" customWidth="1"/>
+    <col min="10733" max="10735" width="12.77734375" style="1" customWidth="1"/>
+    <col min="10736" max="10736" width="11.88671875" style="1" customWidth="1"/>
+    <col min="10737" max="10737" width="12.77734375" style="1" customWidth="1"/>
+    <col min="10738" max="10927" width="7.77734375" style="1" customWidth="1"/>
+    <col min="10928" max="10928" width="5.6640625" style="1" customWidth="1"/>
+    <col min="10929" max="10930" width="10.88671875" style="1" customWidth="1"/>
+    <col min="10931" max="10931" width="9.109375" style="1" customWidth="1"/>
+    <col min="10932" max="10933" width="8.6640625" style="1" customWidth="1"/>
     <col min="10934" max="10934" width="24" style="1" customWidth="1"/>
-    <col min="10935" max="10935" width="17.81640625" style="1" customWidth="1"/>
-    <col min="10936" max="10937" width="12.81640625" style="1" customWidth="1"/>
-    <col min="10938" max="10938" width="20.1796875" style="1" customWidth="1"/>
-    <col min="10939" max="10974" width="8.36328125" style="1"/>
-    <col min="10975" max="10975" width="6.453125" style="1" customWidth="1"/>
-    <col min="10976" max="10978" width="8.6328125" style="1" customWidth="1"/>
-    <col min="10979" max="10979" width="21.08984375" style="1" customWidth="1"/>
-    <col min="10980" max="10980" width="25.08984375" style="1" customWidth="1"/>
-    <col min="10981" max="10981" width="14.90625" style="1" customWidth="1"/>
-    <col min="10982" max="10982" width="16.90625" style="1" customWidth="1"/>
-    <col min="10983" max="10983" width="7.81640625" style="1" customWidth="1"/>
-    <col min="10984" max="10984" width="14.90625" style="1" customWidth="1"/>
-    <col min="10985" max="10985" width="9.1796875" style="1" customWidth="1"/>
-    <col min="10986" max="10986" width="11.1796875" style="1" customWidth="1"/>
-    <col min="10987" max="10987" width="16.1796875" style="1" customWidth="1"/>
-    <col min="10988" max="10988" width="13.08984375" style="1" customWidth="1"/>
-    <col min="10989" max="10991" width="12.81640625" style="1" customWidth="1"/>
-    <col min="10992" max="10992" width="11.90625" style="1" customWidth="1"/>
-    <col min="10993" max="10993" width="12.81640625" style="1" customWidth="1"/>
-    <col min="10994" max="11183" width="7.81640625" style="1" customWidth="1"/>
-    <col min="11184" max="11184" width="5.6328125" style="1" customWidth="1"/>
-    <col min="11185" max="11186" width="10.90625" style="1" customWidth="1"/>
-    <col min="11187" max="11187" width="9.08984375" style="1" customWidth="1"/>
-    <col min="11188" max="11189" width="8.6328125" style="1" customWidth="1"/>
+    <col min="10935" max="10935" width="17.77734375" style="1" customWidth="1"/>
+    <col min="10936" max="10937" width="12.77734375" style="1" customWidth="1"/>
+    <col min="10938" max="10938" width="20.21875" style="1" customWidth="1"/>
+    <col min="10939" max="10974" width="8.33203125" style="1"/>
+    <col min="10975" max="10975" width="6.44140625" style="1" customWidth="1"/>
+    <col min="10976" max="10978" width="8.6640625" style="1" customWidth="1"/>
+    <col min="10979" max="10979" width="21.109375" style="1" customWidth="1"/>
+    <col min="10980" max="10980" width="25.109375" style="1" customWidth="1"/>
+    <col min="10981" max="10981" width="14.88671875" style="1" customWidth="1"/>
+    <col min="10982" max="10982" width="16.88671875" style="1" customWidth="1"/>
+    <col min="10983" max="10983" width="7.77734375" style="1" customWidth="1"/>
+    <col min="10984" max="10984" width="14.88671875" style="1" customWidth="1"/>
+    <col min="10985" max="10985" width="9.21875" style="1" customWidth="1"/>
+    <col min="10986" max="10986" width="11.21875" style="1" customWidth="1"/>
+    <col min="10987" max="10987" width="16.21875" style="1" customWidth="1"/>
+    <col min="10988" max="10988" width="13.109375" style="1" customWidth="1"/>
+    <col min="10989" max="10991" width="12.77734375" style="1" customWidth="1"/>
+    <col min="10992" max="10992" width="11.88671875" style="1" customWidth="1"/>
+    <col min="10993" max="10993" width="12.77734375" style="1" customWidth="1"/>
+    <col min="10994" max="11183" width="7.77734375" style="1" customWidth="1"/>
+    <col min="11184" max="11184" width="5.6640625" style="1" customWidth="1"/>
+    <col min="11185" max="11186" width="10.88671875" style="1" customWidth="1"/>
+    <col min="11187" max="11187" width="9.109375" style="1" customWidth="1"/>
+    <col min="11188" max="11189" width="8.6640625" style="1" customWidth="1"/>
     <col min="11190" max="11190" width="24" style="1" customWidth="1"/>
-    <col min="11191" max="11191" width="17.81640625" style="1" customWidth="1"/>
-    <col min="11192" max="11193" width="12.81640625" style="1" customWidth="1"/>
-    <col min="11194" max="11194" width="20.1796875" style="1" customWidth="1"/>
-    <col min="11195" max="11230" width="8.36328125" style="1"/>
-    <col min="11231" max="11231" width="6.453125" style="1" customWidth="1"/>
-    <col min="11232" max="11234" width="8.6328125" style="1" customWidth="1"/>
-    <col min="11235" max="11235" width="21.08984375" style="1" customWidth="1"/>
-    <col min="11236" max="11236" width="25.08984375" style="1" customWidth="1"/>
-    <col min="11237" max="11237" width="14.90625" style="1" customWidth="1"/>
-    <col min="11238" max="11238" width="16.90625" style="1" customWidth="1"/>
-    <col min="11239" max="11239" width="7.81640625" style="1" customWidth="1"/>
-    <col min="11240" max="11240" width="14.90625" style="1" customWidth="1"/>
-    <col min="11241" max="11241" width="9.1796875" style="1" customWidth="1"/>
-    <col min="11242" max="11242" width="11.1796875" style="1" customWidth="1"/>
-    <col min="11243" max="11243" width="16.1796875" style="1" customWidth="1"/>
-    <col min="11244" max="11244" width="13.08984375" style="1" customWidth="1"/>
-    <col min="11245" max="11247" width="12.81640625" style="1" customWidth="1"/>
-    <col min="11248" max="11248" width="11.90625" style="1" customWidth="1"/>
-    <col min="11249" max="11249" width="12.81640625" style="1" customWidth="1"/>
-    <col min="11250" max="11439" width="7.81640625" style="1" customWidth="1"/>
-    <col min="11440" max="11440" width="5.6328125" style="1" customWidth="1"/>
-    <col min="11441" max="11442" width="10.90625" style="1" customWidth="1"/>
-    <col min="11443" max="11443" width="9.08984375" style="1" customWidth="1"/>
-    <col min="11444" max="11445" width="8.6328125" style="1" customWidth="1"/>
+    <col min="11191" max="11191" width="17.77734375" style="1" customWidth="1"/>
+    <col min="11192" max="11193" width="12.77734375" style="1" customWidth="1"/>
+    <col min="11194" max="11194" width="20.21875" style="1" customWidth="1"/>
+    <col min="11195" max="11230" width="8.33203125" style="1"/>
+    <col min="11231" max="11231" width="6.44140625" style="1" customWidth="1"/>
+    <col min="11232" max="11234" width="8.6640625" style="1" customWidth="1"/>
+    <col min="11235" max="11235" width="21.109375" style="1" customWidth="1"/>
+    <col min="11236" max="11236" width="25.109375" style="1" customWidth="1"/>
+    <col min="11237" max="11237" width="14.88671875" style="1" customWidth="1"/>
+    <col min="11238" max="11238" width="16.88671875" style="1" customWidth="1"/>
+    <col min="11239" max="11239" width="7.77734375" style="1" customWidth="1"/>
+    <col min="11240" max="11240" width="14.88671875" style="1" customWidth="1"/>
+    <col min="11241" max="11241" width="9.21875" style="1" customWidth="1"/>
+    <col min="11242" max="11242" width="11.21875" style="1" customWidth="1"/>
+    <col min="11243" max="11243" width="16.21875" style="1" customWidth="1"/>
+    <col min="11244" max="11244" width="13.109375" style="1" customWidth="1"/>
+    <col min="11245" max="11247" width="12.77734375" style="1" customWidth="1"/>
+    <col min="11248" max="11248" width="11.88671875" style="1" customWidth="1"/>
+    <col min="11249" max="11249" width="12.77734375" style="1" customWidth="1"/>
+    <col min="11250" max="11439" width="7.77734375" style="1" customWidth="1"/>
+    <col min="11440" max="11440" width="5.6640625" style="1" customWidth="1"/>
+    <col min="11441" max="11442" width="10.88671875" style="1" customWidth="1"/>
+    <col min="11443" max="11443" width="9.109375" style="1" customWidth="1"/>
+    <col min="11444" max="11445" width="8.6640625" style="1" customWidth="1"/>
     <col min="11446" max="11446" width="24" style="1" customWidth="1"/>
-    <col min="11447" max="11447" width="17.81640625" style="1" customWidth="1"/>
-    <col min="11448" max="11449" width="12.81640625" style="1" customWidth="1"/>
-    <col min="11450" max="11450" width="20.1796875" style="1" customWidth="1"/>
-    <col min="11451" max="11486" width="8.36328125" style="1"/>
-    <col min="11487" max="11487" width="6.453125" style="1" customWidth="1"/>
-    <col min="11488" max="11490" width="8.6328125" style="1" customWidth="1"/>
-    <col min="11491" max="11491" width="21.08984375" style="1" customWidth="1"/>
-    <col min="11492" max="11492" width="25.08984375" style="1" customWidth="1"/>
-    <col min="11493" max="11493" width="14.90625" style="1" customWidth="1"/>
-    <col min="11494" max="11494" width="16.90625" style="1" customWidth="1"/>
-    <col min="11495" max="11495" width="7.81640625" style="1" customWidth="1"/>
-    <col min="11496" max="11496" width="14.90625" style="1" customWidth="1"/>
-    <col min="11497" max="11497" width="9.1796875" style="1" customWidth="1"/>
-    <col min="11498" max="11498" width="11.1796875" style="1" customWidth="1"/>
-    <col min="11499" max="11499" width="16.1796875" style="1" customWidth="1"/>
-    <col min="11500" max="11500" width="13.08984375" style="1" customWidth="1"/>
-    <col min="11501" max="11503" width="12.81640625" style="1" customWidth="1"/>
-    <col min="11504" max="11504" width="11.90625" style="1" customWidth="1"/>
-    <col min="11505" max="11505" width="12.81640625" style="1" customWidth="1"/>
-    <col min="11506" max="11695" width="7.81640625" style="1" customWidth="1"/>
-    <col min="11696" max="11696" width="5.6328125" style="1" customWidth="1"/>
-    <col min="11697" max="11698" width="10.90625" style="1" customWidth="1"/>
-    <col min="11699" max="11699" width="9.08984375" style="1" customWidth="1"/>
-    <col min="11700" max="11701" width="8.6328125" style="1" customWidth="1"/>
+    <col min="11447" max="11447" width="17.77734375" style="1" customWidth="1"/>
+    <col min="11448" max="11449" width="12.77734375" style="1" customWidth="1"/>
+    <col min="11450" max="11450" width="20.21875" style="1" customWidth="1"/>
+    <col min="11451" max="11486" width="8.33203125" style="1"/>
+    <col min="11487" max="11487" width="6.44140625" style="1" customWidth="1"/>
+    <col min="11488" max="11490" width="8.6640625" style="1" customWidth="1"/>
+    <col min="11491" max="11491" width="21.109375" style="1" customWidth="1"/>
+    <col min="11492" max="11492" width="25.109375" style="1" customWidth="1"/>
+    <col min="11493" max="11493" width="14.88671875" style="1" customWidth="1"/>
+    <col min="11494" max="11494" width="16.88671875" style="1" customWidth="1"/>
+    <col min="11495" max="11495" width="7.77734375" style="1" customWidth="1"/>
+    <col min="11496" max="11496" width="14.88671875" style="1" customWidth="1"/>
+    <col min="11497" max="11497" width="9.21875" style="1" customWidth="1"/>
+    <col min="11498" max="11498" width="11.21875" style="1" customWidth="1"/>
+    <col min="11499" max="11499" width="16.21875" style="1" customWidth="1"/>
+    <col min="11500" max="11500" width="13.109375" style="1" customWidth="1"/>
+    <col min="11501" max="11503" width="12.77734375" style="1" customWidth="1"/>
+    <col min="11504" max="11504" width="11.88671875" style="1" customWidth="1"/>
+    <col min="11505" max="11505" width="12.77734375" style="1" customWidth="1"/>
+    <col min="11506" max="11695" width="7.77734375" style="1" customWidth="1"/>
+    <col min="11696" max="11696" width="5.6640625" style="1" customWidth="1"/>
+    <col min="11697" max="11698" width="10.88671875" style="1" customWidth="1"/>
+    <col min="11699" max="11699" width="9.109375" style="1" customWidth="1"/>
+    <col min="11700" max="11701" width="8.6640625" style="1" customWidth="1"/>
     <col min="11702" max="11702" width="24" style="1" customWidth="1"/>
-    <col min="11703" max="11703" width="17.81640625" style="1" customWidth="1"/>
-    <col min="11704" max="11705" width="12.81640625" style="1" customWidth="1"/>
-    <col min="11706" max="11706" width="20.1796875" style="1" customWidth="1"/>
-    <col min="11707" max="11742" width="8.36328125" style="1"/>
-    <col min="11743" max="11743" width="6.453125" style="1" customWidth="1"/>
-    <col min="11744" max="11746" width="8.6328125" style="1" customWidth="1"/>
-    <col min="11747" max="11747" width="21.08984375" style="1" customWidth="1"/>
-    <col min="11748" max="11748" width="25.08984375" style="1" customWidth="1"/>
-    <col min="11749" max="11749" width="14.90625" style="1" customWidth="1"/>
-    <col min="11750" max="11750" width="16.90625" style="1" customWidth="1"/>
-    <col min="11751" max="11751" width="7.81640625" style="1" customWidth="1"/>
-    <col min="11752" max="11752" width="14.90625" style="1" customWidth="1"/>
-    <col min="11753" max="11753" width="9.1796875" style="1" customWidth="1"/>
-    <col min="11754" max="11754" width="11.1796875" style="1" customWidth="1"/>
-    <col min="11755" max="11755" width="16.1796875" style="1" customWidth="1"/>
-    <col min="11756" max="11756" width="13.08984375" style="1" customWidth="1"/>
-    <col min="11757" max="11759" width="12.81640625" style="1" customWidth="1"/>
-    <col min="11760" max="11760" width="11.90625" style="1" customWidth="1"/>
-    <col min="11761" max="11761" width="12.81640625" style="1" customWidth="1"/>
-    <col min="11762" max="11951" width="7.81640625" style="1" customWidth="1"/>
-    <col min="11952" max="11952" width="5.6328125" style="1" customWidth="1"/>
-    <col min="11953" max="11954" width="10.90625" style="1" customWidth="1"/>
-    <col min="11955" max="11955" width="9.08984375" style="1" customWidth="1"/>
-    <col min="11956" max="11957" width="8.6328125" style="1" customWidth="1"/>
+    <col min="11703" max="11703" width="17.77734375" style="1" customWidth="1"/>
+    <col min="11704" max="11705" width="12.77734375" style="1" customWidth="1"/>
+    <col min="11706" max="11706" width="20.21875" style="1" customWidth="1"/>
+    <col min="11707" max="11742" width="8.33203125" style="1"/>
+    <col min="11743" max="11743" width="6.44140625" style="1" customWidth="1"/>
+    <col min="11744" max="11746" width="8.6640625" style="1" customWidth="1"/>
+    <col min="11747" max="11747" width="21.109375" style="1" customWidth="1"/>
+    <col min="11748" max="11748" width="25.109375" style="1" customWidth="1"/>
+    <col min="11749" max="11749" width="14.88671875" style="1" customWidth="1"/>
+    <col min="11750" max="11750" width="16.88671875" style="1" customWidth="1"/>
+    <col min="11751" max="11751" width="7.77734375" style="1" customWidth="1"/>
+    <col min="11752" max="11752" width="14.88671875" style="1" customWidth="1"/>
+    <col min="11753" max="11753" width="9.21875" style="1" customWidth="1"/>
+    <col min="11754" max="11754" width="11.21875" style="1" customWidth="1"/>
+    <col min="11755" max="11755" width="16.21875" style="1" customWidth="1"/>
+    <col min="11756" max="11756" width="13.109375" style="1" customWidth="1"/>
+    <col min="11757" max="11759" width="12.77734375" style="1" customWidth="1"/>
+    <col min="11760" max="11760" width="11.88671875" style="1" customWidth="1"/>
+    <col min="11761" max="11761" width="12.77734375" style="1" customWidth="1"/>
+    <col min="11762" max="11951" width="7.77734375" style="1" customWidth="1"/>
+    <col min="11952" max="11952" width="5.6640625" style="1" customWidth="1"/>
+    <col min="11953" max="11954" width="10.88671875" style="1" customWidth="1"/>
+    <col min="11955" max="11955" width="9.109375" style="1" customWidth="1"/>
+    <col min="11956" max="11957" width="8.6640625" style="1" customWidth="1"/>
     <col min="11958" max="11958" width="24" style="1" customWidth="1"/>
-    <col min="11959" max="11959" width="17.81640625" style="1" customWidth="1"/>
-    <col min="11960" max="11961" width="12.81640625" style="1" customWidth="1"/>
-    <col min="11962" max="11962" width="20.1796875" style="1" customWidth="1"/>
-    <col min="11963" max="11998" width="8.36328125" style="1"/>
-    <col min="11999" max="11999" width="6.453125" style="1" customWidth="1"/>
-    <col min="12000" max="12002" width="8.6328125" style="1" customWidth="1"/>
-    <col min="12003" max="12003" width="21.08984375" style="1" customWidth="1"/>
-    <col min="12004" max="12004" width="25.08984375" style="1" customWidth="1"/>
-    <col min="12005" max="12005" width="14.90625" style="1" customWidth="1"/>
-    <col min="12006" max="12006" width="16.90625" style="1" customWidth="1"/>
-    <col min="12007" max="12007" width="7.81640625" style="1" customWidth="1"/>
-    <col min="12008" max="12008" width="14.90625" style="1" customWidth="1"/>
-    <col min="12009" max="12009" width="9.1796875" style="1" customWidth="1"/>
-    <col min="12010" max="12010" width="11.1796875" style="1" customWidth="1"/>
-    <col min="12011" max="12011" width="16.1796875" style="1" customWidth="1"/>
-    <col min="12012" max="12012" width="13.08984375" style="1" customWidth="1"/>
-    <col min="12013" max="12015" width="12.81640625" style="1" customWidth="1"/>
-    <col min="12016" max="12016" width="11.90625" style="1" customWidth="1"/>
-    <col min="12017" max="12017" width="12.81640625" style="1" customWidth="1"/>
-    <col min="12018" max="12207" width="7.81640625" style="1" customWidth="1"/>
-    <col min="12208" max="12208" width="5.6328125" style="1" customWidth="1"/>
-    <col min="12209" max="12210" width="10.90625" style="1" customWidth="1"/>
-    <col min="12211" max="12211" width="9.08984375" style="1" customWidth="1"/>
-    <col min="12212" max="12213" width="8.6328125" style="1" customWidth="1"/>
+    <col min="11959" max="11959" width="17.77734375" style="1" customWidth="1"/>
+    <col min="11960" max="11961" width="12.77734375" style="1" customWidth="1"/>
+    <col min="11962" max="11962" width="20.21875" style="1" customWidth="1"/>
+    <col min="11963" max="11998" width="8.33203125" style="1"/>
+    <col min="11999" max="11999" width="6.44140625" style="1" customWidth="1"/>
+    <col min="12000" max="12002" width="8.6640625" style="1" customWidth="1"/>
+    <col min="12003" max="12003" width="21.109375" style="1" customWidth="1"/>
+    <col min="12004" max="12004" width="25.109375" style="1" customWidth="1"/>
+    <col min="12005" max="12005" width="14.88671875" style="1" customWidth="1"/>
+    <col min="12006" max="12006" width="16.88671875" style="1" customWidth="1"/>
+    <col min="12007" max="12007" width="7.77734375" style="1" customWidth="1"/>
+    <col min="12008" max="12008" width="14.88671875" style="1" customWidth="1"/>
+    <col min="12009" max="12009" width="9.21875" style="1" customWidth="1"/>
+    <col min="12010" max="12010" width="11.21875" style="1" customWidth="1"/>
+    <col min="12011" max="12011" width="16.21875" style="1" customWidth="1"/>
+    <col min="12012" max="12012" width="13.109375" style="1" customWidth="1"/>
+    <col min="12013" max="12015" width="12.77734375" style="1" customWidth="1"/>
+    <col min="12016" max="12016" width="11.88671875" style="1" customWidth="1"/>
+    <col min="12017" max="12017" width="12.77734375" style="1" customWidth="1"/>
+    <col min="12018" max="12207" width="7.77734375" style="1" customWidth="1"/>
+    <col min="12208" max="12208" width="5.6640625" style="1" customWidth="1"/>
+    <col min="12209" max="12210" width="10.88671875" style="1" customWidth="1"/>
+    <col min="12211" max="12211" width="9.109375" style="1" customWidth="1"/>
+    <col min="12212" max="12213" width="8.6640625" style="1" customWidth="1"/>
     <col min="12214" max="12214" width="24" style="1" customWidth="1"/>
-    <col min="12215" max="12215" width="17.81640625" style="1" customWidth="1"/>
-    <col min="12216" max="12217" width="12.81640625" style="1" customWidth="1"/>
-    <col min="12218" max="12218" width="20.1796875" style="1" customWidth="1"/>
-    <col min="12219" max="12254" width="8.36328125" style="1"/>
-    <col min="12255" max="12255" width="6.453125" style="1" customWidth="1"/>
-    <col min="12256" max="12258" width="8.6328125" style="1" customWidth="1"/>
-    <col min="12259" max="12259" width="21.08984375" style="1" customWidth="1"/>
-    <col min="12260" max="12260" width="25.08984375" style="1" customWidth="1"/>
-    <col min="12261" max="12261" width="14.90625" style="1" customWidth="1"/>
-    <col min="12262" max="12262" width="16.90625" style="1" customWidth="1"/>
-    <col min="12263" max="12263" width="7.81640625" style="1" customWidth="1"/>
-    <col min="12264" max="12264" width="14.90625" style="1" customWidth="1"/>
-    <col min="12265" max="12265" width="9.1796875" style="1" customWidth="1"/>
-    <col min="12266" max="12266" width="11.1796875" style="1" customWidth="1"/>
-    <col min="12267" max="12267" width="16.1796875" style="1" customWidth="1"/>
-    <col min="12268" max="12268" width="13.08984375" style="1" customWidth="1"/>
-    <col min="12269" max="12271" width="12.81640625" style="1" customWidth="1"/>
-    <col min="12272" max="12272" width="11.90625" style="1" customWidth="1"/>
-    <col min="12273" max="12273" width="12.81640625" style="1" customWidth="1"/>
-    <col min="12274" max="12463" width="7.81640625" style="1" customWidth="1"/>
-    <col min="12464" max="12464" width="5.6328125" style="1" customWidth="1"/>
-    <col min="12465" max="12466" width="10.90625" style="1" customWidth="1"/>
-    <col min="12467" max="12467" width="9.08984375" style="1" customWidth="1"/>
-    <col min="12468" max="12469" width="8.6328125" style="1" customWidth="1"/>
+    <col min="12215" max="12215" width="17.77734375" style="1" customWidth="1"/>
+    <col min="12216" max="12217" width="12.77734375" style="1" customWidth="1"/>
+    <col min="12218" max="12218" width="20.21875" style="1" customWidth="1"/>
+    <col min="12219" max="12254" width="8.33203125" style="1"/>
+    <col min="12255" max="12255" width="6.44140625" style="1" customWidth="1"/>
+    <col min="12256" max="12258" width="8.6640625" style="1" customWidth="1"/>
+    <col min="12259" max="12259" width="21.109375" style="1" customWidth="1"/>
+    <col min="12260" max="12260" width="25.109375" style="1" customWidth="1"/>
+    <col min="12261" max="12261" width="14.88671875" style="1" customWidth="1"/>
+    <col min="12262" max="12262" width="16.88671875" style="1" customWidth="1"/>
+    <col min="12263" max="12263" width="7.77734375" style="1" customWidth="1"/>
+    <col min="12264" max="12264" width="14.88671875" style="1" customWidth="1"/>
+    <col min="12265" max="12265" width="9.21875" style="1" customWidth="1"/>
+    <col min="12266" max="12266" width="11.21875" style="1" customWidth="1"/>
+    <col min="12267" max="12267" width="16.21875" style="1" customWidth="1"/>
+    <col min="12268" max="12268" width="13.109375" style="1" customWidth="1"/>
+    <col min="12269" max="12271" width="12.77734375" style="1" customWidth="1"/>
+    <col min="12272" max="12272" width="11.88671875" style="1" customWidth="1"/>
+    <col min="12273" max="12273" width="12.77734375" style="1" customWidth="1"/>
+    <col min="12274" max="12463" width="7.77734375" style="1" customWidth="1"/>
+    <col min="12464" max="12464" width="5.6640625" style="1" customWidth="1"/>
+    <col min="12465" max="12466" width="10.88671875" style="1" customWidth="1"/>
+    <col min="12467" max="12467" width="9.109375" style="1" customWidth="1"/>
+    <col min="12468" max="12469" width="8.6640625" style="1" customWidth="1"/>
     <col min="12470" max="12470" width="24" style="1" customWidth="1"/>
-    <col min="12471" max="12471" width="17.81640625" style="1" customWidth="1"/>
-    <col min="12472" max="12473" width="12.81640625" style="1" customWidth="1"/>
-    <col min="12474" max="12474" width="20.1796875" style="1" customWidth="1"/>
-    <col min="12475" max="12510" width="8.36328125" style="1"/>
-    <col min="12511" max="12511" width="6.453125" style="1" customWidth="1"/>
-    <col min="12512" max="12514" width="8.6328125" style="1" customWidth="1"/>
-    <col min="12515" max="12515" width="21.08984375" style="1" customWidth="1"/>
-    <col min="12516" max="12516" width="25.08984375" style="1" customWidth="1"/>
-    <col min="12517" max="12517" width="14.90625" style="1" customWidth="1"/>
-    <col min="12518" max="12518" width="16.90625" style="1" customWidth="1"/>
-    <col min="12519" max="12519" width="7.81640625" style="1" customWidth="1"/>
-    <col min="12520" max="12520" width="14.90625" style="1" customWidth="1"/>
-    <col min="12521" max="12521" width="9.1796875" style="1" customWidth="1"/>
-    <col min="12522" max="12522" width="11.1796875" style="1" customWidth="1"/>
-    <col min="12523" max="12523" width="16.1796875" style="1" customWidth="1"/>
-    <col min="12524" max="12524" width="13.08984375" style="1" customWidth="1"/>
-    <col min="12525" max="12527" width="12.81640625" style="1" customWidth="1"/>
-    <col min="12528" max="12528" width="11.90625" style="1" customWidth="1"/>
-    <col min="12529" max="12529" width="12.81640625" style="1" customWidth="1"/>
-    <col min="12530" max="12719" width="7.81640625" style="1" customWidth="1"/>
-    <col min="12720" max="12720" width="5.6328125" style="1" customWidth="1"/>
-    <col min="12721" max="12722" width="10.90625" style="1" customWidth="1"/>
-    <col min="12723" max="12723" width="9.08984375" style="1" customWidth="1"/>
-    <col min="12724" max="12725" width="8.6328125" style="1" customWidth="1"/>
+    <col min="12471" max="12471" width="17.77734375" style="1" customWidth="1"/>
+    <col min="12472" max="12473" width="12.77734375" style="1" customWidth="1"/>
+    <col min="12474" max="12474" width="20.21875" style="1" customWidth="1"/>
+    <col min="12475" max="12510" width="8.33203125" style="1"/>
+    <col min="12511" max="12511" width="6.44140625" style="1" customWidth="1"/>
+    <col min="12512" max="12514" width="8.6640625" style="1" customWidth="1"/>
+    <col min="12515" max="12515" width="21.109375" style="1" customWidth="1"/>
+    <col min="12516" max="12516" width="25.109375" style="1" customWidth="1"/>
+    <col min="12517" max="12517" width="14.88671875" style="1" customWidth="1"/>
+    <col min="12518" max="12518" width="16.88671875" style="1" customWidth="1"/>
+    <col min="12519" max="12519" width="7.77734375" style="1" customWidth="1"/>
+    <col min="12520" max="12520" width="14.88671875" style="1" customWidth="1"/>
+    <col min="12521" max="12521" width="9.21875" style="1" customWidth="1"/>
+    <col min="12522" max="12522" width="11.21875" style="1" customWidth="1"/>
+    <col min="12523" max="12523" width="16.21875" style="1" customWidth="1"/>
+    <col min="12524" max="12524" width="13.109375" style="1" customWidth="1"/>
+    <col min="12525" max="12527" width="12.77734375" style="1" customWidth="1"/>
+    <col min="12528" max="12528" width="11.88671875" style="1" customWidth="1"/>
+    <col min="12529" max="12529" width="12.77734375" style="1" customWidth="1"/>
+    <col min="12530" max="12719" width="7.77734375" style="1" customWidth="1"/>
+    <col min="12720" max="12720" width="5.6640625" style="1" customWidth="1"/>
+    <col min="12721" max="12722" width="10.88671875" style="1" customWidth="1"/>
+    <col min="12723" max="12723" width="9.109375" style="1" customWidth="1"/>
+    <col min="12724" max="12725" width="8.6640625" style="1" customWidth="1"/>
     <col min="12726" max="12726" width="24" style="1" customWidth="1"/>
-    <col min="12727" max="12727" width="17.81640625" style="1" customWidth="1"/>
-    <col min="12728" max="12729" width="12.81640625" style="1" customWidth="1"/>
-    <col min="12730" max="12730" width="20.1796875" style="1" customWidth="1"/>
-    <col min="12731" max="12766" width="8.36328125" style="1"/>
-    <col min="12767" max="12767" width="6.453125" style="1" customWidth="1"/>
-    <col min="12768" max="12770" width="8.6328125" style="1" customWidth="1"/>
-    <col min="12771" max="12771" width="21.08984375" style="1" customWidth="1"/>
-    <col min="12772" max="12772" width="25.08984375" style="1" customWidth="1"/>
-    <col min="12773" max="12773" width="14.90625" style="1" customWidth="1"/>
-    <col min="12774" max="12774" width="16.90625" style="1" customWidth="1"/>
-    <col min="12775" max="12775" width="7.81640625" style="1" customWidth="1"/>
-    <col min="12776" max="12776" width="14.90625" style="1" customWidth="1"/>
-    <col min="12777" max="12777" width="9.1796875" style="1" customWidth="1"/>
-    <col min="12778" max="12778" width="11.1796875" style="1" customWidth="1"/>
-    <col min="12779" max="12779" width="16.1796875" style="1" customWidth="1"/>
-    <col min="12780" max="12780" width="13.08984375" style="1" customWidth="1"/>
-    <col min="12781" max="12783" width="12.81640625" style="1" customWidth="1"/>
-    <col min="12784" max="12784" width="11.90625" style="1" customWidth="1"/>
-    <col min="12785" max="12785" width="12.81640625" style="1" customWidth="1"/>
-    <col min="12786" max="12975" width="7.81640625" style="1" customWidth="1"/>
-    <col min="12976" max="12976" width="5.6328125" style="1" customWidth="1"/>
-    <col min="12977" max="12978" width="10.90625" style="1" customWidth="1"/>
-    <col min="12979" max="12979" width="9.08984375" style="1" customWidth="1"/>
-    <col min="12980" max="12981" width="8.6328125" style="1" customWidth="1"/>
+    <col min="12727" max="12727" width="17.77734375" style="1" customWidth="1"/>
+    <col min="12728" max="12729" width="12.77734375" style="1" customWidth="1"/>
+    <col min="12730" max="12730" width="20.21875" style="1" customWidth="1"/>
+    <col min="12731" max="12766" width="8.33203125" style="1"/>
+    <col min="12767" max="12767" width="6.44140625" style="1" customWidth="1"/>
+    <col min="12768" max="12770" width="8.6640625" style="1" customWidth="1"/>
+    <col min="12771" max="12771" width="21.109375" style="1" customWidth="1"/>
+    <col min="12772" max="12772" width="25.109375" style="1" customWidth="1"/>
+    <col min="12773" max="12773" width="14.88671875" style="1" customWidth="1"/>
+    <col min="12774" max="12774" width="16.88671875" style="1" customWidth="1"/>
+    <col min="12775" max="12775" width="7.77734375" style="1" customWidth="1"/>
+    <col min="12776" max="12776" width="14.88671875" style="1" customWidth="1"/>
+    <col min="12777" max="12777" width="9.21875" style="1" customWidth="1"/>
+    <col min="12778" max="12778" width="11.21875" style="1" customWidth="1"/>
+    <col min="12779" max="12779" width="16.21875" style="1" customWidth="1"/>
+    <col min="12780" max="12780" width="13.109375" style="1" customWidth="1"/>
+    <col min="12781" max="12783" width="12.77734375" style="1" customWidth="1"/>
+    <col min="12784" max="12784" width="11.88671875" style="1" customWidth="1"/>
+    <col min="12785" max="12785" width="12.77734375" style="1" customWidth="1"/>
+    <col min="12786" max="12975" width="7.77734375" style="1" customWidth="1"/>
+    <col min="12976" max="12976" width="5.6640625" style="1" customWidth="1"/>
+    <col min="12977" max="12978" width="10.88671875" style="1" customWidth="1"/>
+    <col min="12979" max="12979" width="9.109375" style="1" customWidth="1"/>
+    <col min="12980" max="12981" width="8.6640625" style="1" customWidth="1"/>
     <col min="12982" max="12982" width="24" style="1" customWidth="1"/>
-    <col min="12983" max="12983" width="17.81640625" style="1" customWidth="1"/>
-    <col min="12984" max="12985" width="12.81640625" style="1" customWidth="1"/>
-    <col min="12986" max="12986" width="20.1796875" style="1" customWidth="1"/>
-    <col min="12987" max="13022" width="8.36328125" style="1"/>
-    <col min="13023" max="13023" width="6.453125" style="1" customWidth="1"/>
-    <col min="13024" max="13026" width="8.6328125" style="1" customWidth="1"/>
-    <col min="13027" max="13027" width="21.08984375" style="1" customWidth="1"/>
-    <col min="13028" max="13028" width="25.08984375" style="1" customWidth="1"/>
-    <col min="13029" max="13029" width="14.90625" style="1" customWidth="1"/>
-    <col min="13030" max="13030" width="16.90625" style="1" customWidth="1"/>
-    <col min="13031" max="13031" width="7.81640625" style="1" customWidth="1"/>
-    <col min="13032" max="13032" width="14.90625" style="1" customWidth="1"/>
-    <col min="13033" max="13033" width="9.1796875" style="1" customWidth="1"/>
-    <col min="13034" max="13034" width="11.1796875" style="1" customWidth="1"/>
-    <col min="13035" max="13035" width="16.1796875" style="1" customWidth="1"/>
-    <col min="13036" max="13036" width="13.08984375" style="1" customWidth="1"/>
-    <col min="13037" max="13039" width="12.81640625" style="1" customWidth="1"/>
-    <col min="13040" max="13040" width="11.90625" style="1" customWidth="1"/>
-    <col min="13041" max="13041" width="12.81640625" style="1" customWidth="1"/>
-    <col min="13042" max="13231" width="7.81640625" style="1" customWidth="1"/>
-    <col min="13232" max="13232" width="5.6328125" style="1" customWidth="1"/>
-    <col min="13233" max="13234" width="10.90625" style="1" customWidth="1"/>
-    <col min="13235" max="13235" width="9.08984375" style="1" customWidth="1"/>
-    <col min="13236" max="13237" width="8.6328125" style="1" customWidth="1"/>
+    <col min="12983" max="12983" width="17.77734375" style="1" customWidth="1"/>
+    <col min="12984" max="12985" width="12.77734375" style="1" customWidth="1"/>
+    <col min="12986" max="12986" width="20.21875" style="1" customWidth="1"/>
+    <col min="12987" max="13022" width="8.33203125" style="1"/>
+    <col min="13023" max="13023" width="6.44140625" style="1" customWidth="1"/>
+    <col min="13024" max="13026" width="8.6640625" style="1" customWidth="1"/>
+    <col min="13027" max="13027" width="21.109375" style="1" customWidth="1"/>
+    <col min="13028" max="13028" width="25.109375" style="1" customWidth="1"/>
+    <col min="13029" max="13029" width="14.88671875" style="1" customWidth="1"/>
+    <col min="13030" max="13030" width="16.88671875" style="1" customWidth="1"/>
+    <col min="13031" max="13031" width="7.77734375" style="1" customWidth="1"/>
+    <col min="13032" max="13032" width="14.88671875" style="1" customWidth="1"/>
+    <col min="13033" max="13033" width="9.21875" style="1" customWidth="1"/>
+    <col min="13034" max="13034" width="11.21875" style="1" customWidth="1"/>
+    <col min="13035" max="13035" width="16.21875" style="1" customWidth="1"/>
+    <col min="13036" max="13036" width="13.109375" style="1" customWidth="1"/>
+    <col min="13037" max="13039" width="12.77734375" style="1" customWidth="1"/>
+    <col min="13040" max="13040" width="11.88671875" style="1" customWidth="1"/>
+    <col min="13041" max="13041" width="12.77734375" style="1" customWidth="1"/>
+    <col min="13042" max="13231" width="7.77734375" style="1" customWidth="1"/>
+    <col min="13232" max="13232" width="5.6640625" style="1" customWidth="1"/>
+    <col min="13233" max="13234" width="10.88671875" style="1" customWidth="1"/>
+    <col min="13235" max="13235" width="9.109375" style="1" customWidth="1"/>
+    <col min="13236" max="13237" width="8.6640625" style="1" customWidth="1"/>
     <col min="13238" max="13238" width="24" style="1" customWidth="1"/>
-    <col min="13239" max="13239" width="17.81640625" style="1" customWidth="1"/>
-    <col min="13240" max="13241" width="12.81640625" style="1" customWidth="1"/>
-    <col min="13242" max="13242" width="20.1796875" style="1" customWidth="1"/>
-    <col min="13243" max="13278" width="8.36328125" style="1"/>
-    <col min="13279" max="13279" width="6.453125" style="1" customWidth="1"/>
-    <col min="13280" max="13282" width="8.6328125" style="1" customWidth="1"/>
-    <col min="13283" max="13283" width="21.08984375" style="1" customWidth="1"/>
-    <col min="13284" max="13284" width="25.08984375" style="1" customWidth="1"/>
-    <col min="13285" max="13285" width="14.90625" style="1" customWidth="1"/>
-    <col min="13286" max="13286" width="16.90625" style="1" customWidth="1"/>
-    <col min="13287" max="13287" width="7.81640625" style="1" customWidth="1"/>
-    <col min="13288" max="13288" width="14.90625" style="1" customWidth="1"/>
-    <col min="13289" max="13289" width="9.1796875" style="1" customWidth="1"/>
-    <col min="13290" max="13290" width="11.1796875" style="1" customWidth="1"/>
-    <col min="13291" max="13291" width="16.1796875" style="1" customWidth="1"/>
-    <col min="13292" max="13292" width="13.08984375" style="1" customWidth="1"/>
-    <col min="13293" max="13295" width="12.81640625" style="1" customWidth="1"/>
-    <col min="13296" max="13296" width="11.90625" style="1" customWidth="1"/>
-    <col min="13297" max="13297" width="12.81640625" style="1" customWidth="1"/>
-    <col min="13298" max="13487" width="7.81640625" style="1" customWidth="1"/>
-    <col min="13488" max="13488" width="5.6328125" style="1" customWidth="1"/>
-    <col min="13489" max="13490" width="10.90625" style="1" customWidth="1"/>
-    <col min="13491" max="13491" width="9.08984375" style="1" customWidth="1"/>
-    <col min="13492" max="13493" width="8.6328125" style="1" customWidth="1"/>
+    <col min="13239" max="13239" width="17.77734375" style="1" customWidth="1"/>
+    <col min="13240" max="13241" width="12.77734375" style="1" customWidth="1"/>
+    <col min="13242" max="13242" width="20.21875" style="1" customWidth="1"/>
+    <col min="13243" max="13278" width="8.33203125" style="1"/>
+    <col min="13279" max="13279" width="6.44140625" style="1" customWidth="1"/>
+    <col min="13280" max="13282" width="8.6640625" style="1" customWidth="1"/>
+    <col min="13283" max="13283" width="21.109375" style="1" customWidth="1"/>
+    <col min="13284" max="13284" width="25.109375" style="1" customWidth="1"/>
+    <col min="13285" max="13285" width="14.88671875" style="1" customWidth="1"/>
+    <col min="13286" max="13286" width="16.88671875" style="1" customWidth="1"/>
+    <col min="13287" max="13287" width="7.77734375" style="1" customWidth="1"/>
+    <col min="13288" max="13288" width="14.88671875" style="1" customWidth="1"/>
+    <col min="13289" max="13289" width="9.21875" style="1" customWidth="1"/>
+    <col min="13290" max="13290" width="11.21875" style="1" customWidth="1"/>
+    <col min="13291" max="13291" width="16.21875" style="1" customWidth="1"/>
+    <col min="13292" max="13292" width="13.109375" style="1" customWidth="1"/>
+    <col min="13293" max="13295" width="12.77734375" style="1" customWidth="1"/>
+    <col min="13296" max="13296" width="11.88671875" style="1" customWidth="1"/>
+    <col min="13297" max="13297" width="12.77734375" style="1" customWidth="1"/>
+    <col min="13298" max="13487" width="7.77734375" style="1" customWidth="1"/>
+    <col min="13488" max="13488" width="5.6640625" style="1" customWidth="1"/>
+    <col min="13489" max="13490" width="10.88671875" style="1" customWidth="1"/>
+    <col min="13491" max="13491" width="9.109375" style="1" customWidth="1"/>
+    <col min="13492" max="13493" width="8.6640625" style="1" customWidth="1"/>
     <col min="13494" max="13494" width="24" style="1" customWidth="1"/>
-    <col min="13495" max="13495" width="17.81640625" style="1" customWidth="1"/>
-    <col min="13496" max="13497" width="12.81640625" style="1" customWidth="1"/>
-    <col min="13498" max="13498" width="20.1796875" style="1" customWidth="1"/>
-    <col min="13499" max="13534" width="8.36328125" style="1"/>
-    <col min="13535" max="13535" width="6.453125" style="1" customWidth="1"/>
-    <col min="13536" max="13538" width="8.6328125" style="1" customWidth="1"/>
-    <col min="13539" max="13539" width="21.08984375" style="1" customWidth="1"/>
-    <col min="13540" max="13540" width="25.08984375" style="1" customWidth="1"/>
-    <col min="13541" max="13541" width="14.90625" style="1" customWidth="1"/>
-    <col min="13542" max="13542" width="16.90625" style="1" customWidth="1"/>
-    <col min="13543" max="13543" width="7.81640625" style="1" customWidth="1"/>
-    <col min="13544" max="13544" width="14.90625" style="1" customWidth="1"/>
-    <col min="13545" max="13545" width="9.1796875" style="1" customWidth="1"/>
-    <col min="13546" max="13546" width="11.1796875" style="1" customWidth="1"/>
-    <col min="13547" max="13547" width="16.1796875" style="1" customWidth="1"/>
-    <col min="13548" max="13548" width="13.08984375" style="1" customWidth="1"/>
-    <col min="13549" max="13551" width="12.81640625" style="1" customWidth="1"/>
-    <col min="13552" max="13552" width="11.90625" style="1" customWidth="1"/>
-    <col min="13553" max="13553" width="12.81640625" style="1" customWidth="1"/>
-    <col min="13554" max="13743" width="7.81640625" style="1" customWidth="1"/>
-    <col min="13744" max="13744" width="5.6328125" style="1" customWidth="1"/>
-    <col min="13745" max="13746" width="10.90625" style="1" customWidth="1"/>
-    <col min="13747" max="13747" width="9.08984375" style="1" customWidth="1"/>
-    <col min="13748" max="13749" width="8.6328125" style="1" customWidth="1"/>
+    <col min="13495" max="13495" width="17.77734375" style="1" customWidth="1"/>
+    <col min="13496" max="13497" width="12.77734375" style="1" customWidth="1"/>
+    <col min="13498" max="13498" width="20.21875" style="1" customWidth="1"/>
+    <col min="13499" max="13534" width="8.33203125" style="1"/>
+    <col min="13535" max="13535" width="6.44140625" style="1" customWidth="1"/>
+    <col min="13536" max="13538" width="8.6640625" style="1" customWidth="1"/>
+    <col min="13539" max="13539" width="21.109375" style="1" customWidth="1"/>
+    <col min="13540" max="13540" width="25.109375" style="1" customWidth="1"/>
+    <col min="13541" max="13541" width="14.88671875" style="1" customWidth="1"/>
+    <col min="13542" max="13542" width="16.88671875" style="1" customWidth="1"/>
+    <col min="13543" max="13543" width="7.77734375" style="1" customWidth="1"/>
+    <col min="13544" max="13544" width="14.88671875" style="1" customWidth="1"/>
+    <col min="13545" max="13545" width="9.21875" style="1" customWidth="1"/>
+    <col min="13546" max="13546" width="11.21875" style="1" customWidth="1"/>
+    <col min="13547" max="13547" width="16.21875" style="1" customWidth="1"/>
+    <col min="13548" max="13548" width="13.109375" style="1" customWidth="1"/>
+    <col min="13549" max="13551" width="12.77734375" style="1" customWidth="1"/>
+    <col min="13552" max="13552" width="11.88671875" style="1" customWidth="1"/>
+    <col min="13553" max="13553" width="12.77734375" style="1" customWidth="1"/>
+    <col min="13554" max="13743" width="7.77734375" style="1" customWidth="1"/>
+    <col min="13744" max="13744" width="5.6640625" style="1" customWidth="1"/>
+    <col min="13745" max="13746" width="10.88671875" style="1" customWidth="1"/>
+    <col min="13747" max="13747" width="9.109375" style="1" customWidth="1"/>
+    <col min="13748" max="13749" width="8.6640625" style="1" customWidth="1"/>
     <col min="13750" max="13750" width="24" style="1" customWidth="1"/>
-    <col min="13751" max="13751" width="17.81640625" style="1" customWidth="1"/>
-    <col min="13752" max="13753" width="12.81640625" style="1" customWidth="1"/>
-    <col min="13754" max="13754" width="20.1796875" style="1" customWidth="1"/>
-    <col min="13755" max="13790" width="8.36328125" style="1"/>
-    <col min="13791" max="13791" width="6.453125" style="1" customWidth="1"/>
-    <col min="13792" max="13794" width="8.6328125" style="1" customWidth="1"/>
-    <col min="13795" max="13795" width="21.08984375" style="1" customWidth="1"/>
-    <col min="13796" max="13796" width="25.08984375" style="1" customWidth="1"/>
-    <col min="13797" max="13797" width="14.90625" style="1" customWidth="1"/>
-    <col min="13798" max="13798" width="16.90625" style="1" customWidth="1"/>
-    <col min="13799" max="13799" width="7.81640625" style="1" customWidth="1"/>
-    <col min="13800" max="13800" width="14.90625" style="1" customWidth="1"/>
-    <col min="13801" max="13801" width="9.1796875" style="1" customWidth="1"/>
-    <col min="13802" max="13802" width="11.1796875" style="1" customWidth="1"/>
-    <col min="13803" max="13803" width="16.1796875" style="1" customWidth="1"/>
-    <col min="13804" max="13804" width="13.08984375" style="1" customWidth="1"/>
-    <col min="13805" max="13807" width="12.81640625" style="1" customWidth="1"/>
-    <col min="13808" max="13808" width="11.90625" style="1" customWidth="1"/>
-    <col min="13809" max="13809" width="12.81640625" style="1" customWidth="1"/>
-    <col min="13810" max="13999" width="7.81640625" style="1" customWidth="1"/>
-    <col min="14000" max="14000" width="5.6328125" style="1" customWidth="1"/>
-    <col min="14001" max="14002" width="10.90625" style="1" customWidth="1"/>
-    <col min="14003" max="14003" width="9.08984375" style="1" customWidth="1"/>
-    <col min="14004" max="14005" width="8.6328125" style="1" customWidth="1"/>
+    <col min="13751" max="13751" width="17.77734375" style="1" customWidth="1"/>
+    <col min="13752" max="13753" width="12.77734375" style="1" customWidth="1"/>
+    <col min="13754" max="13754" width="20.21875" style="1" customWidth="1"/>
+    <col min="13755" max="13790" width="8.33203125" style="1"/>
+    <col min="13791" max="13791" width="6.44140625" style="1" customWidth="1"/>
+    <col min="13792" max="13794" width="8.6640625" style="1" customWidth="1"/>
+    <col min="13795" max="13795" width="21.109375" style="1" customWidth="1"/>
+    <col min="13796" max="13796" width="25.109375" style="1" customWidth="1"/>
+    <col min="13797" max="13797" width="14.88671875" style="1" customWidth="1"/>
+    <col min="13798" max="13798" width="16.88671875" style="1" customWidth="1"/>
+    <col min="13799" max="13799" width="7.77734375" style="1" customWidth="1"/>
+    <col min="13800" max="13800" width="14.88671875" style="1" customWidth="1"/>
+    <col min="13801" max="13801" width="9.21875" style="1" customWidth="1"/>
+    <col min="13802" max="13802" width="11.21875" style="1" customWidth="1"/>
+    <col min="13803" max="13803" width="16.21875" style="1" customWidth="1"/>
+    <col min="13804" max="13804" width="13.109375" style="1" customWidth="1"/>
+    <col min="13805" max="13807" width="12.77734375" style="1" customWidth="1"/>
+    <col min="13808" max="13808" width="11.88671875" style="1" customWidth="1"/>
+    <col min="13809" max="13809" width="12.77734375" style="1" customWidth="1"/>
+    <col min="13810" max="13999" width="7.77734375" style="1" customWidth="1"/>
+    <col min="14000" max="14000" width="5.6640625" style="1" customWidth="1"/>
+    <col min="14001" max="14002" width="10.88671875" style="1" customWidth="1"/>
+    <col min="14003" max="14003" width="9.109375" style="1" customWidth="1"/>
+    <col min="14004" max="14005" width="8.6640625" style="1" customWidth="1"/>
     <col min="14006" max="14006" width="24" style="1" customWidth="1"/>
-    <col min="14007" max="14007" width="17.81640625" style="1" customWidth="1"/>
-    <col min="14008" max="14009" width="12.81640625" style="1" customWidth="1"/>
-    <col min="14010" max="14010" width="20.1796875" style="1" customWidth="1"/>
-    <col min="14011" max="14046" width="8.36328125" style="1"/>
-    <col min="14047" max="14047" width="6.453125" style="1" customWidth="1"/>
-    <col min="14048" max="14050" width="8.6328125" style="1" customWidth="1"/>
-    <col min="14051" max="14051" width="21.08984375" style="1" customWidth="1"/>
-    <col min="14052" max="14052" width="25.08984375" style="1" customWidth="1"/>
-    <col min="14053" max="14053" width="14.90625" style="1" customWidth="1"/>
-    <col min="14054" max="14054" width="16.90625" style="1" customWidth="1"/>
-    <col min="14055" max="14055" width="7.81640625" style="1" customWidth="1"/>
-    <col min="14056" max="14056" width="14.90625" style="1" customWidth="1"/>
-    <col min="14057" max="14057" width="9.1796875" style="1" customWidth="1"/>
-    <col min="14058" max="14058" width="11.1796875" style="1" customWidth="1"/>
-    <col min="14059" max="14059" width="16.1796875" style="1" customWidth="1"/>
-    <col min="14060" max="14060" width="13.08984375" style="1" customWidth="1"/>
-    <col min="14061" max="14063" width="12.81640625" style="1" customWidth="1"/>
-    <col min="14064" max="14064" width="11.90625" style="1" customWidth="1"/>
-    <col min="14065" max="14065" width="12.81640625" style="1" customWidth="1"/>
-    <col min="14066" max="14255" width="7.81640625" style="1" customWidth="1"/>
-    <col min="14256" max="14256" width="5.6328125" style="1" customWidth="1"/>
-    <col min="14257" max="14258" width="10.90625" style="1" customWidth="1"/>
-    <col min="14259" max="14259" width="9.08984375" style="1" customWidth="1"/>
-    <col min="14260" max="14261" width="8.6328125" style="1" customWidth="1"/>
+    <col min="14007" max="14007" width="17.77734375" style="1" customWidth="1"/>
+    <col min="14008" max="14009" width="12.77734375" style="1" customWidth="1"/>
+    <col min="14010" max="14010" width="20.21875" style="1" customWidth="1"/>
+    <col min="14011" max="14046" width="8.33203125" style="1"/>
+    <col min="14047" max="14047" width="6.44140625" style="1" customWidth="1"/>
+    <col min="14048" max="14050" width="8.6640625" style="1" customWidth="1"/>
+    <col min="14051" max="14051" width="21.109375" style="1" customWidth="1"/>
+    <col min="14052" max="14052" width="25.109375" style="1" customWidth="1"/>
+    <col min="14053" max="14053" width="14.88671875" style="1" customWidth="1"/>
+    <col min="14054" max="14054" width="16.88671875" style="1" customWidth="1"/>
+    <col min="14055" max="14055" width="7.77734375" style="1" customWidth="1"/>
+    <col min="14056" max="14056" width="14.88671875" style="1" customWidth="1"/>
+    <col min="14057" max="14057" width="9.21875" style="1" customWidth="1"/>
+    <col min="14058" max="14058" width="11.21875" style="1" customWidth="1"/>
+    <col min="14059" max="14059" width="16.21875" style="1" customWidth="1"/>
+    <col min="14060" max="14060" width="13.109375" style="1" customWidth="1"/>
+    <col min="14061" max="14063" width="12.77734375" style="1" customWidth="1"/>
+    <col min="14064" max="14064" width="11.88671875" style="1" customWidth="1"/>
+    <col min="14065" max="14065" width="12.77734375" style="1" customWidth="1"/>
+    <col min="14066" max="14255" width="7.77734375" style="1" customWidth="1"/>
+    <col min="14256" max="14256" width="5.6640625" style="1" customWidth="1"/>
+    <col min="14257" max="14258" width="10.88671875" style="1" customWidth="1"/>
+    <col min="14259" max="14259" width="9.109375" style="1" customWidth="1"/>
+    <col min="14260" max="14261" width="8.6640625" style="1" customWidth="1"/>
     <col min="14262" max="14262" width="24" style="1" customWidth="1"/>
-    <col min="14263" max="14263" width="17.81640625" style="1" customWidth="1"/>
-    <col min="14264" max="14265" width="12.81640625" style="1" customWidth="1"/>
-    <col min="14266" max="14266" width="20.1796875" style="1" customWidth="1"/>
-    <col min="14267" max="14302" width="8.36328125" style="1"/>
-    <col min="14303" max="14303" width="6.453125" style="1" customWidth="1"/>
-    <col min="14304" max="14306" width="8.6328125" style="1" customWidth="1"/>
-    <col min="14307" max="14307" width="21.08984375" style="1" customWidth="1"/>
-    <col min="14308" max="14308" width="25.08984375" style="1" customWidth="1"/>
-    <col min="14309" max="14309" width="14.90625" style="1" customWidth="1"/>
-    <col min="14310" max="14310" width="16.90625" style="1" customWidth="1"/>
-    <col min="14311" max="14311" width="7.81640625" style="1" customWidth="1"/>
-    <col min="14312" max="14312" width="14.90625" style="1" customWidth="1"/>
-    <col min="14313" max="14313" width="9.1796875" style="1" customWidth="1"/>
-    <col min="14314" max="14314" width="11.1796875" style="1" customWidth="1"/>
-    <col min="14315" max="14315" width="16.1796875" style="1" customWidth="1"/>
-    <col min="14316" max="14316" width="13.08984375" style="1" customWidth="1"/>
-    <col min="14317" max="14319" width="12.81640625" style="1" customWidth="1"/>
-    <col min="14320" max="14320" width="11.90625" style="1" customWidth="1"/>
-    <col min="14321" max="14321" width="12.81640625" style="1" customWidth="1"/>
-    <col min="14322" max="14511" width="7.81640625" style="1" customWidth="1"/>
-    <col min="14512" max="14512" width="5.6328125" style="1" customWidth="1"/>
-    <col min="14513" max="14514" width="10.90625" style="1" customWidth="1"/>
-    <col min="14515" max="14515" width="9.08984375" style="1" customWidth="1"/>
-    <col min="14516" max="14517" width="8.6328125" style="1" customWidth="1"/>
+    <col min="14263" max="14263" width="17.77734375" style="1" customWidth="1"/>
+    <col min="14264" max="14265" width="12.77734375" style="1" customWidth="1"/>
+    <col min="14266" max="14266" width="20.21875" style="1" customWidth="1"/>
+    <col min="14267" max="14302" width="8.33203125" style="1"/>
+    <col min="14303" max="14303" width="6.44140625" style="1" customWidth="1"/>
+    <col min="14304" max="14306" width="8.6640625" style="1" customWidth="1"/>
+    <col min="14307" max="14307" width="21.109375" style="1" customWidth="1"/>
+    <col min="14308" max="14308" width="25.109375" style="1" customWidth="1"/>
+    <col min="14309" max="14309" width="14.88671875" style="1" customWidth="1"/>
+    <col min="14310" max="14310" width="16.88671875" style="1" customWidth="1"/>
+    <col min="14311" max="14311" width="7.77734375" style="1" customWidth="1"/>
+    <col min="14312" max="14312" width="14.88671875" style="1" customWidth="1"/>
+    <col min="14313" max="14313" width="9.21875" style="1" customWidth="1"/>
+    <col min="14314" max="14314" width="11.21875" style="1" customWidth="1"/>
+    <col min="14315" max="14315" width="16.21875" style="1" customWidth="1"/>
+    <col min="14316" max="14316" width="13.109375" style="1" customWidth="1"/>
+    <col min="14317" max="14319" width="12.77734375" style="1" customWidth="1"/>
+    <col min="14320" max="14320" width="11.88671875" style="1" customWidth="1"/>
+    <col min="14321" max="14321" width="12.77734375" style="1" customWidth="1"/>
+    <col min="14322" max="14511" width="7.77734375" style="1" customWidth="1"/>
+    <col min="14512" max="14512" width="5.6640625" style="1" customWidth="1"/>
+    <col min="14513" max="14514" width="10.88671875" style="1" customWidth="1"/>
+    <col min="14515" max="14515" width="9.109375" style="1" customWidth="1"/>
+    <col min="14516" max="14517" width="8.6640625" style="1" customWidth="1"/>
     <col min="14518" max="14518" width="24" style="1" customWidth="1"/>
-    <col min="14519" max="14519" width="17.81640625" style="1" customWidth="1"/>
-    <col min="14520" max="14521" width="12.81640625" style="1" customWidth="1"/>
-    <col min="14522" max="14522" width="20.1796875" style="1" customWidth="1"/>
-    <col min="14523" max="14558" width="8.36328125" style="1"/>
-    <col min="14559" max="14559" width="6.453125" style="1" customWidth="1"/>
-    <col min="14560" max="14562" width="8.6328125" style="1" customWidth="1"/>
-    <col min="14563" max="14563" width="21.08984375" style="1" customWidth="1"/>
-    <col min="14564" max="14564" width="25.08984375" style="1" customWidth="1"/>
-    <col min="14565" max="14565" width="14.90625" style="1" customWidth="1"/>
-    <col min="14566" max="14566" width="16.90625" style="1" customWidth="1"/>
-    <col min="14567" max="14567" width="7.81640625" style="1" customWidth="1"/>
-    <col min="14568" max="14568" width="14.90625" style="1" customWidth="1"/>
-    <col min="14569" max="14569" width="9.1796875" style="1" customWidth="1"/>
-    <col min="14570" max="14570" width="11.1796875" style="1" customWidth="1"/>
-    <col min="14571" max="14571" width="16.1796875" style="1" customWidth="1"/>
-    <col min="14572" max="14572" width="13.08984375" style="1" customWidth="1"/>
-    <col min="14573" max="14575" width="12.81640625" style="1" customWidth="1"/>
-    <col min="14576" max="14576" width="11.90625" style="1" customWidth="1"/>
-    <col min="14577" max="14577" width="12.81640625" style="1" customWidth="1"/>
-    <col min="14578" max="14767" width="7.81640625" style="1" customWidth="1"/>
-    <col min="14768" max="14768" width="5.6328125" style="1" customWidth="1"/>
-    <col min="14769" max="14770" width="10.90625" style="1" customWidth="1"/>
-    <col min="14771" max="14771" width="9.08984375" style="1" customWidth="1"/>
-    <col min="14772" max="14773" width="8.6328125" style="1" customWidth="1"/>
+    <col min="14519" max="14519" width="17.77734375" style="1" customWidth="1"/>
+    <col min="14520" max="14521" width="12.77734375" style="1" customWidth="1"/>
+    <col min="14522" max="14522" width="20.21875" style="1" customWidth="1"/>
+    <col min="14523" max="14558" width="8.33203125" style="1"/>
+    <col min="14559" max="14559" width="6.44140625" style="1" customWidth="1"/>
+    <col min="14560" max="14562" width="8.6640625" style="1" customWidth="1"/>
+    <col min="14563" max="14563" width="21.109375" style="1" customWidth="1"/>
+    <col min="14564" max="14564" width="25.109375" style="1" customWidth="1"/>
+    <col min="14565" max="14565" width="14.88671875" style="1" customWidth="1"/>
+    <col min="14566" max="14566" width="16.88671875" style="1" customWidth="1"/>
+    <col min="14567" max="14567" width="7.77734375" style="1" customWidth="1"/>
+    <col min="14568" max="14568" width="14.88671875" style="1" customWidth="1"/>
+    <col min="14569" max="14569" width="9.21875" style="1" customWidth="1"/>
+    <col min="14570" max="14570" width="11.21875" style="1" customWidth="1"/>
+    <col min="14571" max="14571" width="16.21875" style="1" customWidth="1"/>
+    <col min="14572" max="14572" width="13.109375" style="1" customWidth="1"/>
+    <col min="14573" max="14575" width="12.77734375" style="1" customWidth="1"/>
+    <col min="14576" max="14576" width="11.88671875" style="1" customWidth="1"/>
+    <col min="14577" max="14577" width="12.77734375" style="1" customWidth="1"/>
+    <col min="14578" max="14767" width="7.77734375" style="1" customWidth="1"/>
+    <col min="14768" max="14768" width="5.6640625" style="1" customWidth="1"/>
+    <col min="14769" max="14770" width="10.88671875" style="1" customWidth="1"/>
+    <col min="14771" max="14771" width="9.109375" style="1" customWidth="1"/>
+    <col min="14772" max="14773" width="8.6640625" style="1" customWidth="1"/>
     <col min="14774" max="14774" width="24" style="1" customWidth="1"/>
-    <col min="14775" max="14775" width="17.81640625" style="1" customWidth="1"/>
-    <col min="14776" max="14777" width="12.81640625" style="1" customWidth="1"/>
-    <col min="14778" max="14778" width="20.1796875" style="1" customWidth="1"/>
-    <col min="14779" max="14814" width="8.36328125" style="1"/>
-    <col min="14815" max="14815" width="6.453125" style="1" customWidth="1"/>
-    <col min="14816" max="14818" width="8.6328125" style="1" customWidth="1"/>
-    <col min="14819" max="14819" width="21.08984375" style="1" customWidth="1"/>
-    <col min="14820" max="14820" width="25.08984375" style="1" customWidth="1"/>
-    <col min="14821" max="14821" width="14.90625" style="1" customWidth="1"/>
-    <col min="14822" max="14822" width="16.90625" style="1" customWidth="1"/>
-    <col min="14823" max="14823" width="7.81640625" style="1" customWidth="1"/>
-    <col min="14824" max="14824" width="14.90625" style="1" customWidth="1"/>
-    <col min="14825" max="14825" width="9.1796875" style="1" customWidth="1"/>
-    <col min="14826" max="14826" width="11.1796875" style="1" customWidth="1"/>
-    <col min="14827" max="14827" width="16.1796875" style="1" customWidth="1"/>
-    <col min="14828" max="14828" width="13.08984375" style="1" customWidth="1"/>
-    <col min="14829" max="14831" width="12.81640625" style="1" customWidth="1"/>
-    <col min="14832" max="14832" width="11.90625" style="1" customWidth="1"/>
-    <col min="14833" max="14833" width="12.81640625" style="1" customWidth="1"/>
-    <col min="14834" max="15023" width="7.81640625" style="1" customWidth="1"/>
-    <col min="15024" max="15024" width="5.6328125" style="1" customWidth="1"/>
-    <col min="15025" max="15026" width="10.90625" style="1" customWidth="1"/>
-    <col min="15027" max="15027" width="9.08984375" style="1" customWidth="1"/>
-    <col min="15028" max="15029" width="8.6328125" style="1" customWidth="1"/>
+    <col min="14775" max="14775" width="17.77734375" style="1" customWidth="1"/>
+    <col min="14776" max="14777" width="12.77734375" style="1" customWidth="1"/>
+    <col min="14778" max="14778" width="20.21875" style="1" customWidth="1"/>
+    <col min="14779" max="14814" width="8.33203125" style="1"/>
+    <col min="14815" max="14815" width="6.44140625" style="1" customWidth="1"/>
+    <col min="14816" max="14818" width="8.6640625" style="1" customWidth="1"/>
+    <col min="14819" max="14819" width="21.109375" style="1" customWidth="1"/>
+    <col min="14820" max="14820" width="25.109375" style="1" customWidth="1"/>
+    <col min="14821" max="14821" width="14.88671875" style="1" customWidth="1"/>
+    <col min="14822" max="14822" width="16.88671875" style="1" customWidth="1"/>
+    <col min="14823" max="14823" width="7.77734375" style="1" customWidth="1"/>
+    <col min="14824" max="14824" width="14.88671875" style="1" customWidth="1"/>
+    <col min="14825" max="14825" width="9.21875" style="1" customWidth="1"/>
+    <col min="14826" max="14826" width="11.21875" style="1" customWidth="1"/>
+    <col min="14827" max="14827" width="16.21875" style="1" customWidth="1"/>
+    <col min="14828" max="14828" width="13.109375" style="1" customWidth="1"/>
+    <col min="14829" max="14831" width="12.77734375" style="1" customWidth="1"/>
+    <col min="14832" max="14832" width="11.88671875" style="1" customWidth="1"/>
+    <col min="14833" max="14833" width="12.77734375" style="1" customWidth="1"/>
+    <col min="14834" max="15023" width="7.77734375" style="1" customWidth="1"/>
+    <col min="15024" max="15024" width="5.6640625" style="1" customWidth="1"/>
+    <col min="15025" max="15026" width="10.88671875" style="1" customWidth="1"/>
+    <col min="15027" max="15027" width="9.109375" style="1" customWidth="1"/>
+    <col min="15028" max="15029" width="8.6640625" style="1" customWidth="1"/>
     <col min="15030" max="15030" width="24" style="1" customWidth="1"/>
-    <col min="15031" max="15031" width="17.81640625" style="1" customWidth="1"/>
-    <col min="15032" max="15033" width="12.81640625" style="1" customWidth="1"/>
-    <col min="15034" max="15034" width="20.1796875" style="1" customWidth="1"/>
-    <col min="15035" max="15070" width="8.36328125" style="1"/>
-    <col min="15071" max="15071" width="6.453125" style="1" customWidth="1"/>
-    <col min="15072" max="15074" width="8.6328125" style="1" customWidth="1"/>
-    <col min="15075" max="15075" width="21.08984375" style="1" customWidth="1"/>
-    <col min="15076" max="15076" width="25.08984375" style="1" customWidth="1"/>
-    <col min="15077" max="15077" width="14.90625" style="1" customWidth="1"/>
-    <col min="15078" max="15078" width="16.90625" style="1" customWidth="1"/>
-    <col min="15079" max="15079" width="7.81640625" style="1" customWidth="1"/>
-    <col min="15080" max="15080" width="14.90625" style="1" customWidth="1"/>
-    <col min="15081" max="15081" width="9.1796875" style="1" customWidth="1"/>
-    <col min="15082" max="15082" width="11.1796875" style="1" customWidth="1"/>
-    <col min="15083" max="15083" width="16.1796875" style="1" customWidth="1"/>
-    <col min="15084" max="15084" width="13.08984375" style="1" customWidth="1"/>
-    <col min="15085" max="15087" width="12.81640625" style="1" customWidth="1"/>
-    <col min="15088" max="15088" width="11.90625" style="1" customWidth="1"/>
-    <col min="15089" max="15089" width="12.81640625" style="1" customWidth="1"/>
-    <col min="15090" max="15279" width="7.81640625" style="1" customWidth="1"/>
-    <col min="15280" max="15280" width="5.6328125" style="1" customWidth="1"/>
-    <col min="15281" max="15282" width="10.90625" style="1" customWidth="1"/>
-    <col min="15283" max="15283" width="9.08984375" style="1" customWidth="1"/>
-    <col min="15284" max="15285" width="8.6328125" style="1" customWidth="1"/>
+    <col min="15031" max="15031" width="17.77734375" style="1" customWidth="1"/>
+    <col min="15032" max="15033" width="12.77734375" style="1" customWidth="1"/>
+    <col min="15034" max="15034" width="20.21875" style="1" customWidth="1"/>
+    <col min="15035" max="15070" width="8.33203125" style="1"/>
+    <col min="15071" max="15071" width="6.44140625" style="1" customWidth="1"/>
+    <col min="15072" max="15074" width="8.6640625" style="1" customWidth="1"/>
+    <col min="15075" max="15075" width="21.109375" style="1" customWidth="1"/>
+    <col min="15076" max="15076" width="25.109375" style="1" customWidth="1"/>
+    <col min="15077" max="15077" width="14.88671875" style="1" customWidth="1"/>
+    <col min="15078" max="15078" width="16.88671875" style="1" customWidth="1"/>
+    <col min="15079" max="15079" width="7.77734375" style="1" customWidth="1"/>
+    <col min="15080" max="15080" width="14.88671875" style="1" customWidth="1"/>
+    <col min="15081" max="15081" width="9.21875" style="1" customWidth="1"/>
+    <col min="15082" max="15082" width="11.21875" style="1" customWidth="1"/>
+    <col min="15083" max="15083" width="16.21875" style="1" customWidth="1"/>
+    <col min="15084" max="15084" width="13.109375" style="1" customWidth="1"/>
+    <col min="15085" max="15087" width="12.77734375" style="1" customWidth="1"/>
+    <col min="15088" max="15088" width="11.88671875" style="1" customWidth="1"/>
+    <col min="15089" max="15089" width="12.77734375" style="1" customWidth="1"/>
+    <col min="15090" max="15279" width="7.77734375" style="1" customWidth="1"/>
+    <col min="15280" max="15280" width="5.6640625" style="1" customWidth="1"/>
+    <col min="15281" max="15282" width="10.88671875" style="1" customWidth="1"/>
+    <col min="15283" max="15283" width="9.109375" style="1" customWidth="1"/>
+    <col min="15284" max="15285" width="8.6640625" style="1" customWidth="1"/>
     <col min="15286" max="15286" width="24" style="1" customWidth="1"/>
-    <col min="15287" max="15287" width="17.81640625" style="1" customWidth="1"/>
-    <col min="15288" max="15289" width="12.81640625" style="1" customWidth="1"/>
-    <col min="15290" max="15290" width="20.1796875" style="1" customWidth="1"/>
-    <col min="15291" max="15326" width="8.36328125" style="1"/>
-    <col min="15327" max="15327" width="6.453125" style="1" customWidth="1"/>
-    <col min="15328" max="15330" width="8.6328125" style="1" customWidth="1"/>
-    <col min="15331" max="15331" width="21.08984375" style="1" customWidth="1"/>
-    <col min="15332" max="15332" width="25.08984375" style="1" customWidth="1"/>
-    <col min="15333" max="15333" width="14.90625" style="1" customWidth="1"/>
-    <col min="15334" max="15334" width="16.90625" style="1" customWidth="1"/>
-    <col min="15335" max="15335" width="7.81640625" style="1" customWidth="1"/>
-    <col min="15336" max="15336" width="14.90625" style="1" customWidth="1"/>
-    <col min="15337" max="15337" width="9.1796875" style="1" customWidth="1"/>
-    <col min="15338" max="15338" width="11.1796875" style="1" customWidth="1"/>
-    <col min="15339" max="15339" width="16.1796875" style="1" customWidth="1"/>
-    <col min="15340" max="15340" width="13.08984375" style="1" customWidth="1"/>
-    <col min="15341" max="15343" width="12.81640625" style="1" customWidth="1"/>
-    <col min="15344" max="15344" width="11.90625" style="1" customWidth="1"/>
-    <col min="15345" max="15345" width="12.81640625" style="1" customWidth="1"/>
-    <col min="15346" max="15535" width="7.81640625" style="1" customWidth="1"/>
-    <col min="15536" max="15536" width="5.6328125" style="1" customWidth="1"/>
-    <col min="15537" max="15538" width="10.90625" style="1" customWidth="1"/>
-    <col min="15539" max="15539" width="9.08984375" style="1" customWidth="1"/>
-    <col min="15540" max="15541" width="8.6328125" style="1" customWidth="1"/>
+    <col min="15287" max="15287" width="17.77734375" style="1" customWidth="1"/>
+    <col min="15288" max="15289" width="12.77734375" style="1" customWidth="1"/>
+    <col min="15290" max="15290" width="20.21875" style="1" customWidth="1"/>
+    <col min="15291" max="15326" width="8.33203125" style="1"/>
+    <col min="15327" max="15327" width="6.44140625" style="1" customWidth="1"/>
+    <col min="15328" max="15330" width="8.6640625" style="1" customWidth="1"/>
+    <col min="15331" max="15331" width="21.109375" style="1" customWidth="1"/>
+    <col min="15332" max="15332" width="25.109375" style="1" customWidth="1"/>
+    <col min="15333" max="15333" width="14.88671875" style="1" customWidth="1"/>
+    <col min="15334" max="15334" width="16.88671875" style="1" customWidth="1"/>
+    <col min="15335" max="15335" width="7.77734375" style="1" customWidth="1"/>
+    <col min="15336" max="15336" width="14.88671875" style="1" customWidth="1"/>
+    <col min="15337" max="15337" width="9.21875" style="1" customWidth="1"/>
+    <col min="15338" max="15338" width="11.21875" style="1" customWidth="1"/>
+    <col min="15339" max="15339" width="16.21875" style="1" customWidth="1"/>
+    <col min="15340" max="15340" width="13.109375" style="1" customWidth="1"/>
+    <col min="15341" max="15343" width="12.77734375" style="1" customWidth="1"/>
+    <col min="15344" max="15344" width="11.88671875" style="1" customWidth="1"/>
+    <col min="15345" max="15345" width="12.77734375" style="1" customWidth="1"/>
+    <col min="15346" max="15535" width="7.77734375" style="1" customWidth="1"/>
+    <col min="15536" max="15536" width="5.6640625" style="1" customWidth="1"/>
+    <col min="15537" max="15538" width="10.88671875" style="1" customWidth="1"/>
+    <col min="15539" max="15539" width="9.109375" style="1" customWidth="1"/>
+    <col min="15540" max="15541" width="8.6640625" style="1" customWidth="1"/>
     <col min="15542" max="15542" width="24" style="1" customWidth="1"/>
-    <col min="15543" max="15543" width="17.81640625" style="1" customWidth="1"/>
-    <col min="15544" max="15545" width="12.81640625" style="1" customWidth="1"/>
-    <col min="15546" max="15546" width="20.1796875" style="1" customWidth="1"/>
-    <col min="15547" max="15582" width="8.36328125" style="1"/>
-    <col min="15583" max="15583" width="6.453125" style="1" customWidth="1"/>
-    <col min="15584" max="15586" width="8.6328125" style="1" customWidth="1"/>
-    <col min="15587" max="15587" width="21.08984375" style="1" customWidth="1"/>
-    <col min="15588" max="15588" width="25.08984375" style="1" customWidth="1"/>
-    <col min="15589" max="15589" width="14.90625" style="1" customWidth="1"/>
-    <col min="15590" max="15590" width="16.90625" style="1" customWidth="1"/>
-    <col min="15591" max="15591" width="7.81640625" style="1" customWidth="1"/>
-    <col min="15592" max="15592" width="14.90625" style="1" customWidth="1"/>
-    <col min="15593" max="15593" width="9.1796875" style="1" customWidth="1"/>
-    <col min="15594" max="15594" width="11.1796875" style="1" customWidth="1"/>
-    <col min="15595" max="15595" width="16.1796875" style="1" customWidth="1"/>
-    <col min="15596" max="15596" width="13.08984375" style="1" customWidth="1"/>
-    <col min="15597" max="15599" width="12.81640625" style="1" customWidth="1"/>
-    <col min="15600" max="15600" width="11.90625" style="1" customWidth="1"/>
-    <col min="15601" max="15601" width="12.81640625" style="1" customWidth="1"/>
-    <col min="15602" max="15791" width="7.81640625" style="1" customWidth="1"/>
-    <col min="15792" max="15792" width="5.6328125" style="1" customWidth="1"/>
-    <col min="15793" max="15794" width="10.90625" style="1" customWidth="1"/>
-    <col min="15795" max="15795" width="9.08984375" style="1" customWidth="1"/>
-    <col min="15796" max="15797" width="8.6328125" style="1" customWidth="1"/>
+    <col min="15543" max="15543" width="17.77734375" style="1" customWidth="1"/>
+    <col min="15544" max="15545" width="12.77734375" style="1" customWidth="1"/>
+    <col min="15546" max="15546" width="20.21875" style="1" customWidth="1"/>
+    <col min="15547" max="15582" width="8.33203125" style="1"/>
+    <col min="15583" max="15583" width="6.44140625" style="1" customWidth="1"/>
+    <col min="15584" max="15586" width="8.6640625" style="1" customWidth="1"/>
+    <col min="15587" max="15587" width="21.109375" style="1" customWidth="1"/>
+    <col min="15588" max="15588" width="25.109375" style="1" customWidth="1"/>
+    <col min="15589" max="15589" width="14.88671875" style="1" customWidth="1"/>
+    <col min="15590" max="15590" width="16.88671875" style="1" customWidth="1"/>
+    <col min="15591" max="15591" width="7.77734375" style="1" customWidth="1"/>
+    <col min="15592" max="15592" width="14.88671875" style="1" customWidth="1"/>
+    <col min="15593" max="15593" width="9.21875" style="1" customWidth="1"/>
+    <col min="15594" max="15594" width="11.21875" style="1" customWidth="1"/>
+    <col min="15595" max="15595" width="16.21875" style="1" customWidth="1"/>
+    <col min="15596" max="15596" width="13.109375" style="1" customWidth="1"/>
+    <col min="15597" max="15599" width="12.77734375" style="1" customWidth="1"/>
+    <col min="15600" max="15600" width="11.88671875" style="1" customWidth="1"/>
+    <col min="15601" max="15601" width="12.77734375" style="1" customWidth="1"/>
+    <col min="15602" max="15791" width="7.77734375" style="1" customWidth="1"/>
+    <col min="15792" max="15792" width="5.6640625" style="1" customWidth="1"/>
+    <col min="15793" max="15794" width="10.88671875" style="1" customWidth="1"/>
+    <col min="15795" max="15795" width="9.109375" style="1" customWidth="1"/>
+    <col min="15796" max="15797" width="8.6640625" style="1" customWidth="1"/>
     <col min="15798" max="15798" width="24" style="1" customWidth="1"/>
-    <col min="15799" max="15799" width="17.81640625" style="1" customWidth="1"/>
-    <col min="15800" max="15801" width="12.81640625" style="1" customWidth="1"/>
-    <col min="15802" max="15802" width="20.1796875" style="1" customWidth="1"/>
-    <col min="15803" max="15838" width="8.36328125" style="1"/>
-    <col min="15839" max="15839" width="6.453125" style="1" customWidth="1"/>
-    <col min="15840" max="15842" width="8.6328125" style="1" customWidth="1"/>
-    <col min="15843" max="15843" width="21.08984375" style="1" customWidth="1"/>
-    <col min="15844" max="15844" width="25.08984375" style="1" customWidth="1"/>
-    <col min="15845" max="15845" width="14.90625" style="1" customWidth="1"/>
-    <col min="15846" max="15846" width="16.90625" style="1" customWidth="1"/>
-    <col min="15847" max="15847" width="7.81640625" style="1" customWidth="1"/>
-    <col min="15848" max="15848" width="14.90625" style="1" customWidth="1"/>
-    <col min="15849" max="15849" width="9.1796875" style="1" customWidth="1"/>
-    <col min="15850" max="15850" width="11.1796875" style="1" customWidth="1"/>
-    <col min="15851" max="15851" width="16.1796875" style="1" customWidth="1"/>
-    <col min="15852" max="15852" width="13.08984375" style="1" customWidth="1"/>
-    <col min="15853" max="15855" width="12.81640625" style="1" customWidth="1"/>
-    <col min="15856" max="15856" width="11.90625" style="1" customWidth="1"/>
-    <col min="15857" max="15857" width="12.81640625" style="1" customWidth="1"/>
-    <col min="15858" max="16047" width="7.81640625" style="1" customWidth="1"/>
-    <col min="16048" max="16048" width="5.6328125" style="1" customWidth="1"/>
-    <col min="16049" max="16050" width="10.90625" style="1" customWidth="1"/>
-    <col min="16051" max="16051" width="9.08984375" style="1" customWidth="1"/>
-    <col min="16052" max="16053" width="8.6328125" style="1" customWidth="1"/>
+    <col min="15799" max="15799" width="17.77734375" style="1" customWidth="1"/>
+    <col min="15800" max="15801" width="12.77734375" style="1" customWidth="1"/>
+    <col min="15802" max="15802" width="20.21875" style="1" customWidth="1"/>
+    <col min="15803" max="15838" width="8.33203125" style="1"/>
+    <col min="15839" max="15839" width="6.44140625" style="1" customWidth="1"/>
+    <col min="15840" max="15842" width="8.6640625" style="1" customWidth="1"/>
+    <col min="15843" max="15843" width="21.109375" style="1" customWidth="1"/>
+    <col min="15844" max="15844" width="25.109375" style="1" customWidth="1"/>
+    <col min="15845" max="15845" width="14.88671875" style="1" customWidth="1"/>
+    <col min="15846" max="15846" width="16.88671875" style="1" customWidth="1"/>
+    <col min="15847" max="15847" width="7.77734375" style="1" customWidth="1"/>
+    <col min="15848" max="15848" width="14.88671875" style="1" customWidth="1"/>
+    <col min="15849" max="15849" width="9.21875" style="1" customWidth="1"/>
+    <col min="15850" max="15850" width="11.21875" style="1" customWidth="1"/>
+    <col min="15851" max="15851" width="16.21875" style="1" customWidth="1"/>
+    <col min="15852" max="15852" width="13.109375" style="1" customWidth="1"/>
+    <col min="15853" max="15855" width="12.77734375" style="1" customWidth="1"/>
+    <col min="15856" max="15856" width="11.88671875" style="1" customWidth="1"/>
+    <col min="15857" max="15857" width="12.77734375" style="1" customWidth="1"/>
+    <col min="15858" max="16047" width="7.77734375" style="1" customWidth="1"/>
+    <col min="16048" max="16048" width="5.6640625" style="1" customWidth="1"/>
+    <col min="16049" max="16050" width="10.88671875" style="1" customWidth="1"/>
+    <col min="16051" max="16051" width="9.109375" style="1" customWidth="1"/>
+    <col min="16052" max="16053" width="8.6640625" style="1" customWidth="1"/>
     <col min="16054" max="16054" width="24" style="1" customWidth="1"/>
-    <col min="16055" max="16055" width="17.81640625" style="1" customWidth="1"/>
-    <col min="16056" max="16057" width="12.81640625" style="1" customWidth="1"/>
-    <col min="16058" max="16058" width="20.1796875" style="1" customWidth="1"/>
-    <col min="16059" max="16094" width="8.36328125" style="1"/>
-    <col min="16095" max="16095" width="6.453125" style="1" customWidth="1"/>
-    <col min="16096" max="16098" width="8.6328125" style="1" customWidth="1"/>
-    <col min="16099" max="16099" width="21.08984375" style="1" customWidth="1"/>
-    <col min="16100" max="16100" width="25.08984375" style="1" customWidth="1"/>
-    <col min="16101" max="16101" width="14.90625" style="1" customWidth="1"/>
-    <col min="16102" max="16102" width="16.90625" style="1" customWidth="1"/>
-    <col min="16103" max="16103" width="7.81640625" style="1" customWidth="1"/>
-    <col min="16104" max="16104" width="14.90625" style="1" customWidth="1"/>
-    <col min="16105" max="16105" width="9.1796875" style="1" customWidth="1"/>
-    <col min="16106" max="16106" width="11.1796875" style="1" customWidth="1"/>
-    <col min="16107" max="16107" width="16.1796875" style="1" customWidth="1"/>
-    <col min="16108" max="16108" width="13.08984375" style="1" customWidth="1"/>
-    <col min="16109" max="16111" width="12.81640625" style="1" customWidth="1"/>
-    <col min="16112" max="16112" width="11.90625" style="1" customWidth="1"/>
-    <col min="16113" max="16113" width="12.81640625" style="1" customWidth="1"/>
-    <col min="16114" max="16303" width="7.81640625" style="1" customWidth="1"/>
-    <col min="16304" max="16304" width="5.6328125" style="1" customWidth="1"/>
-    <col min="16305" max="16306" width="10.90625" style="1" customWidth="1"/>
-    <col min="16307" max="16307" width="9.08984375" style="1" customWidth="1"/>
-    <col min="16308" max="16309" width="8.6328125" style="1" customWidth="1"/>
+    <col min="16055" max="16055" width="17.77734375" style="1" customWidth="1"/>
+    <col min="16056" max="16057" width="12.77734375" style="1" customWidth="1"/>
+    <col min="16058" max="16058" width="20.21875" style="1" customWidth="1"/>
+    <col min="16059" max="16094" width="8.33203125" style="1"/>
+    <col min="16095" max="16095" width="6.44140625" style="1" customWidth="1"/>
+    <col min="16096" max="16098" width="8.6640625" style="1" customWidth="1"/>
+    <col min="16099" max="16099" width="21.109375" style="1" customWidth="1"/>
+    <col min="16100" max="16100" width="25.109375" style="1" customWidth="1"/>
+    <col min="16101" max="16101" width="14.88671875" style="1" customWidth="1"/>
+    <col min="16102" max="16102" width="16.88671875" style="1" customWidth="1"/>
+    <col min="16103" max="16103" width="7.77734375" style="1" customWidth="1"/>
+    <col min="16104" max="16104" width="14.88671875" style="1" customWidth="1"/>
+    <col min="16105" max="16105" width="9.21875" style="1" customWidth="1"/>
+    <col min="16106" max="16106" width="11.21875" style="1" customWidth="1"/>
+    <col min="16107" max="16107" width="16.21875" style="1" customWidth="1"/>
+    <col min="16108" max="16108" width="13.109375" style="1" customWidth="1"/>
+    <col min="16109" max="16111" width="12.77734375" style="1" customWidth="1"/>
+    <col min="16112" max="16112" width="11.88671875" style="1" customWidth="1"/>
+    <col min="16113" max="16113" width="12.77734375" style="1" customWidth="1"/>
+    <col min="16114" max="16303" width="7.77734375" style="1" customWidth="1"/>
+    <col min="16304" max="16304" width="5.6640625" style="1" customWidth="1"/>
+    <col min="16305" max="16306" width="10.88671875" style="1" customWidth="1"/>
+    <col min="16307" max="16307" width="9.109375" style="1" customWidth="1"/>
+    <col min="16308" max="16309" width="8.6640625" style="1" customWidth="1"/>
     <col min="16310" max="16310" width="24" style="1" customWidth="1"/>
-    <col min="16311" max="16311" width="17.81640625" style="1" customWidth="1"/>
-    <col min="16312" max="16313" width="12.81640625" style="1" customWidth="1"/>
-    <col min="16314" max="16314" width="20.1796875" style="1" customWidth="1"/>
-    <col min="16315" max="16384" width="8.36328125" style="1"/>
+    <col min="16311" max="16311" width="17.77734375" style="1" customWidth="1"/>
+    <col min="16312" max="16313" width="12.77734375" style="1" customWidth="1"/>
+    <col min="16314" max="16314" width="20.21875" style="1" customWidth="1"/>
+    <col min="16315" max="16384" width="8.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="101.25" customHeight="1">
+    <row r="1" spans="1:24" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -33554,10 +33551,10 @@
         <v>5</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>153</v>
+        <v>138</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>6</v>
@@ -33572,43 +33569,43 @@
         <v>9</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="N1" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="R1" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="S1" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="T1" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="O1" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="R1" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="S1" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="T1" s="5" t="s">
-        <v>169</v>
-      </c>
       <c r="U1" s="5" t="s">
-        <v>170</v>
+        <v>155</v>
       </c>
       <c r="V1" s="5" t="s">
-        <v>213</v>
+        <v>194</v>
       </c>
       <c r="W1" s="5" t="s">
-        <v>214</v>
+        <v>195</v>
       </c>
       <c r="X1" s="5" t="s">
-        <v>215</v>
+        <v>196</v>
       </c>
     </row>
-    <row r="2" spans="1:24" s="17" customFormat="1" ht="28.8">
+    <row r="2" spans="1:24" s="17" customFormat="1" ht="45" x14ac:dyDescent="0.3">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -33631,7 +33628,7 @@
         <v>13</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="I2" s="12" t="s">
         <v>14</v>
@@ -33646,10 +33643,10 @@
         <v>17</v>
       </c>
       <c r="M2" s="15" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="N2" s="15" t="s">
-        <v>158</v>
+        <v>143</v>
       </c>
       <c r="O2" s="16">
         <v>7690</v>
@@ -33657,7 +33654,7 @@
       <c r="P2" s="16">
         <v>7690</v>
       </c>
-      <c r="Q2" s="24">
+      <c r="Q2" s="23">
         <v>2800</v>
       </c>
       <c r="R2" s="16">
@@ -33670,7 +33667,7 @@
       <c r="W2" s="15"/>
       <c r="X2" s="15"/>
     </row>
-    <row r="3" spans="1:24" s="17" customFormat="1" ht="28.8">
+    <row r="3" spans="1:24" s="17" customFormat="1" ht="30" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -33690,10 +33687,10 @@
         <v>26</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>173</v>
+        <v>158</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="I3" s="12" t="s">
         <v>14</v>
@@ -33708,10 +33705,10 @@
         <v>17</v>
       </c>
       <c r="M3" s="15" t="s">
-        <v>174</v>
+        <v>159</v>
       </c>
       <c r="N3" s="15" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="O3" s="16">
         <v>15500</v>
@@ -33719,7 +33716,7 @@
       <c r="P3" s="16">
         <v>15400</v>
       </c>
-      <c r="Q3" s="24">
+      <c r="Q3" s="23">
         <v>6800</v>
       </c>
       <c r="R3" s="16">
@@ -33732,7 +33729,7 @@
       <c r="W3" s="15"/>
       <c r="X3" s="15"/>
     </row>
-    <row r="4" spans="1:24" s="17" customFormat="1" ht="28.8">
+    <row r="4" spans="1:24" s="17" customFormat="1" ht="30" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <v>3</v>
       </c>
@@ -33755,7 +33752,7 @@
         <v>21</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="I4" s="12" t="s">
         <v>14</v>
@@ -33770,10 +33767,10 @@
         <v>17</v>
       </c>
       <c r="M4" s="15" t="s">
-        <v>175</v>
+        <v>160</v>
       </c>
       <c r="N4" s="15" t="s">
-        <v>176</v>
+        <v>161</v>
       </c>
       <c r="O4" s="16">
         <v>8500</v>
@@ -33781,7 +33778,7 @@
       <c r="P4" s="16">
         <v>7791</v>
       </c>
-      <c r="Q4" s="24">
+      <c r="Q4" s="23">
         <v>3750</v>
       </c>
       <c r="R4" s="16">
@@ -33794,7 +33791,7 @@
       <c r="W4" s="15"/>
       <c r="X4" s="15"/>
     </row>
-    <row r="5" spans="1:24" s="17" customFormat="1" ht="28.8">
+    <row r="5" spans="1:24" s="17" customFormat="1" ht="30" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -33817,7 +33814,7 @@
         <v>32</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="I5" s="12" t="s">
         <v>14</v>
@@ -33835,7 +33832,7 @@
         <v>35</v>
       </c>
       <c r="N5" s="15" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="O5" s="16">
         <v>8000</v>
@@ -33843,7 +33840,7 @@
       <c r="P5" s="16">
         <v>6800</v>
       </c>
-      <c r="Q5" s="24">
+      <c r="Q5" s="23">
         <v>3400</v>
       </c>
       <c r="R5" s="16">
@@ -33856,7 +33853,7 @@
       <c r="W5" s="15"/>
       <c r="X5" s="15"/>
     </row>
-    <row r="6" spans="1:24" s="17" customFormat="1" ht="28.8">
+    <row r="6" spans="1:24" s="17" customFormat="1" ht="30" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -33867,45 +33864,45 @@
         <v>2</v>
       </c>
       <c r="D6" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="F6" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="G6" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="F6" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="G6" s="11" t="s">
-        <v>46</v>
-      </c>
       <c r="H6" s="11" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="I6" s="12" t="s">
         <v>14</v>
       </c>
       <c r="J6" s="12" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K6" s="13" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="L6" s="14" t="s">
         <v>17</v>
       </c>
       <c r="M6" s="15" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="N6" s="15" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="O6" s="16" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="P6" s="16">
         <v>4000</v>
       </c>
-      <c r="Q6" s="24">
+      <c r="Q6" s="23">
         <v>1050</v>
       </c>
       <c r="R6" s="16">
@@ -33918,7 +33915,7 @@
       <c r="W6" s="15"/>
       <c r="X6" s="15"/>
     </row>
-    <row r="7" spans="1:24" s="17" customFormat="1" ht="43.2">
+    <row r="7" spans="1:24" s="17" customFormat="1" ht="45" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -33929,37 +33926,37 @@
         <v>2</v>
       </c>
       <c r="D7" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F7" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="G7" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="I7" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="J7" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="K7" s="13" t="s">
         <v>52</v>
-      </c>
-      <c r="F7" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="G7" s="11" t="s">
-        <v>177</v>
-      </c>
-      <c r="H7" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="I7" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="J7" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="K7" s="13" t="s">
-        <v>56</v>
       </c>
       <c r="L7" s="14" t="s">
         <v>17</v>
       </c>
       <c r="M7" s="15" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="N7" s="15" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="O7" s="16">
         <v>62000</v>
@@ -33967,7 +33964,7 @@
       <c r="P7" s="16">
         <v>62000</v>
       </c>
-      <c r="Q7" s="24">
+      <c r="Q7" s="23">
         <v>32000</v>
       </c>
       <c r="R7" s="16">
@@ -33980,7 +33977,7 @@
       <c r="W7" s="15"/>
       <c r="X7" s="15"/>
     </row>
-    <row r="8" spans="1:24" s="17" customFormat="1" ht="43.2">
+    <row r="8" spans="1:24" s="17" customFormat="1" ht="45" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -33997,31 +33994,31 @@
         <v>37</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>178</v>
+        <v>163</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="I8" s="12" t="s">
-        <v>39</v>
+        <v>199</v>
       </c>
       <c r="J8" s="12" t="s">
-        <v>40</v>
+        <v>198</v>
       </c>
       <c r="K8" s="13" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="L8" s="14" t="s">
         <v>17</v>
       </c>
       <c r="M8" s="15" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="N8" s="15" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="O8" s="16">
         <v>98000</v>
@@ -34029,7 +34026,7 @@
       <c r="P8" s="16">
         <v>98000</v>
       </c>
-      <c r="Q8" s="24">
+      <c r="Q8" s="23">
         <v>36600</v>
       </c>
       <c r="R8" s="16">
@@ -34042,7 +34039,7 @@
       <c r="W8" s="15"/>
       <c r="X8" s="15"/>
     </row>
-    <row r="9" spans="1:24" s="17" customFormat="1" ht="57.6">
+    <row r="9" spans="1:24" s="17" customFormat="1" ht="60" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <v>8</v>
       </c>
@@ -34053,37 +34050,37 @@
         <v>4</v>
       </c>
       <c r="D9" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="I9" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="J9" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="K9" s="13" t="s">
         <v>81</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="F9" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="G9" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="H9" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="I9" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="J9" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="K9" s="13" t="s">
-        <v>87</v>
       </c>
       <c r="L9" s="14" t="s">
         <v>17</v>
       </c>
       <c r="M9" s="15" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="N9" s="15" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="O9" s="16">
         <v>4550</v>
@@ -34091,7 +34088,7 @@
       <c r="P9" s="16">
         <v>4550</v>
       </c>
-      <c r="Q9" s="24">
+      <c r="Q9" s="23">
         <v>2843</v>
       </c>
       <c r="R9" s="16">
@@ -34104,7 +34101,7 @@
       <c r="W9" s="15"/>
       <c r="X9" s="15"/>
     </row>
-    <row r="10" spans="1:24" s="17" customFormat="1" ht="43.2">
+    <row r="10" spans="1:24" s="17" customFormat="1" ht="45" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
         <v>9</v>
       </c>
@@ -34115,37 +34112,37 @@
         <v>4</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>178</v>
+        <v>163</v>
       </c>
       <c r="H10" s="11" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="I10" s="12" t="s">
-        <v>92</v>
+        <v>202</v>
       </c>
       <c r="J10" s="12" t="s">
-        <v>100</v>
+        <v>203</v>
       </c>
       <c r="K10" s="13" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="L10" s="14" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="M10" s="15" t="s">
-        <v>179</v>
+        <v>164</v>
       </c>
       <c r="N10" s="15" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="O10" s="16">
         <v>49000</v>
@@ -34153,7 +34150,7 @@
       <c r="P10" s="16">
         <v>49000</v>
       </c>
-      <c r="Q10" s="24">
+      <c r="Q10" s="23">
         <v>25000</v>
       </c>
       <c r="R10" s="16">
@@ -34166,7 +34163,7 @@
       <c r="W10" s="15"/>
       <c r="X10" s="15"/>
     </row>
-    <row r="11" spans="1:24" s="17" customFormat="1" ht="43.2">
+    <row r="11" spans="1:24" s="17" customFormat="1" ht="45" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <v>10</v>
       </c>
@@ -34177,37 +34174,37 @@
         <v>2</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>180</v>
+        <v>165</v>
       </c>
       <c r="H11" s="11" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
       <c r="I11" s="12" t="s">
         <v>14</v>
       </c>
       <c r="J11" s="12" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="K11" s="13" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="L11" s="14" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="M11" s="15" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="N11" s="15" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="O11" s="16">
         <v>26000</v>
@@ -34215,7 +34212,7 @@
       <c r="P11" s="16">
         <v>26000</v>
       </c>
-      <c r="Q11" s="24">
+      <c r="Q11" s="23">
         <v>13500</v>
       </c>
       <c r="R11" s="16">
@@ -34228,56 +34225,56 @@
       <c r="W11" s="15"/>
       <c r="X11" s="15"/>
     </row>
-    <row r="12" spans="1:24" s="17" customFormat="1" ht="28.8">
+    <row r="12" spans="1:24" s="17" customFormat="1" ht="30" x14ac:dyDescent="0.3">
       <c r="A12" s="6">
         <v>11</v>
       </c>
-      <c r="B12" s="25">
+      <c r="B12" s="24">
         <v>968</v>
       </c>
-      <c r="C12" s="26">
+      <c r="C12" s="25">
         <v>4</v>
       </c>
-      <c r="D12" s="27" t="s">
-        <v>89</v>
-      </c>
-      <c r="E12" s="28" t="s">
-        <v>90</v>
-      </c>
-      <c r="F12" s="29" t="s">
-        <v>182</v>
-      </c>
-      <c r="G12" s="30" t="s">
-        <v>183</v>
+      <c r="D12" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="E12" s="27" t="s">
+        <v>84</v>
+      </c>
+      <c r="F12" s="28" t="s">
+        <v>167</v>
+      </c>
+      <c r="G12" s="29" t="s">
+        <v>168</v>
       </c>
       <c r="H12" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="I12" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="J12" s="31" t="s">
-        <v>184</v>
-      </c>
-      <c r="K12" s="32" t="s">
-        <v>185</v>
-      </c>
-      <c r="L12" s="33" t="s">
-        <v>186</v>
-      </c>
-      <c r="M12" s="34" t="s">
-        <v>187</v>
+        <v>141</v>
+      </c>
+      <c r="I12" s="30" t="s">
+        <v>204</v>
+      </c>
+      <c r="J12" s="30" t="s">
+        <v>198</v>
+      </c>
+      <c r="K12" s="31" t="s">
+        <v>169</v>
+      </c>
+      <c r="L12" s="32" t="s">
+        <v>170</v>
+      </c>
+      <c r="M12" s="33" t="s">
+        <v>171</v>
       </c>
       <c r="N12" s="15" t="s">
-        <v>159</v>
-      </c>
-      <c r="O12" s="35">
+        <v>144</v>
+      </c>
+      <c r="O12" s="34">
         <v>30000</v>
       </c>
-      <c r="P12" s="35">
+      <c r="P12" s="34">
         <v>30000</v>
       </c>
-      <c r="Q12" s="36">
+      <c r="Q12" s="35">
         <v>13000</v>
       </c>
       <c r="R12" s="16">
@@ -34290,7 +34287,7 @@
       <c r="W12" s="15"/>
       <c r="X12" s="15"/>
     </row>
-    <row r="13" spans="1:24" s="17" customFormat="1" ht="62.25" customHeight="1">
+    <row r="13" spans="1:24" s="17" customFormat="1" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="6">
         <v>12</v>
       </c>
@@ -34301,37 +34298,37 @@
         <v>4</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>188</v>
+        <v>172</v>
       </c>
       <c r="H13" s="11" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="I13" s="12" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="J13" s="12" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="K13" s="13" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="L13" s="14" t="s">
         <v>17</v>
       </c>
       <c r="M13" s="15" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="N13" s="15" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="O13" s="16">
         <v>30000</v>
@@ -34339,7 +34336,7 @@
       <c r="P13" s="16">
         <v>30000</v>
       </c>
-      <c r="Q13" s="24">
+      <c r="Q13" s="23">
         <v>15000</v>
       </c>
       <c r="R13" s="16">
@@ -34352,7 +34349,7 @@
       <c r="W13" s="15"/>
       <c r="X13" s="15"/>
     </row>
-    <row r="14" spans="1:24" s="17" customFormat="1" ht="28.8">
+    <row r="14" spans="1:24" s="17" customFormat="1" ht="30" x14ac:dyDescent="0.3">
       <c r="A14" s="6">
         <v>13</v>
       </c>
@@ -34363,37 +34360,37 @@
         <v>4</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>188</v>
+        <v>172</v>
       </c>
       <c r="H14" s="11" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="I14" s="12" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="J14" s="12" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="K14" s="13" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="L14" s="14" t="s">
         <v>17</v>
       </c>
       <c r="M14" s="15" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="N14" s="15" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="O14" s="16">
         <v>67000</v>
@@ -34401,7 +34398,7 @@
       <c r="P14" s="16">
         <v>65000</v>
       </c>
-      <c r="Q14" s="24">
+      <c r="Q14" s="23">
         <v>24000</v>
       </c>
       <c r="R14" s="16">
@@ -34414,7 +34411,7 @@
       <c r="W14" s="15"/>
       <c r="X14" s="15"/>
     </row>
-    <row r="15" spans="1:24" s="17" customFormat="1" ht="86.4">
+    <row r="15" spans="1:24" s="17" customFormat="1" ht="90" x14ac:dyDescent="0.3">
       <c r="A15" s="6">
         <v>14</v>
       </c>
@@ -34425,37 +34422,37 @@
         <v>4</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="H15" s="11" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="I15" s="12" t="s">
-        <v>85</v>
+        <v>205</v>
       </c>
       <c r="J15" s="12" t="s">
-        <v>106</v>
+        <v>206</v>
       </c>
       <c r="K15" s="13" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="L15" s="14" t="s">
         <v>17</v>
       </c>
       <c r="M15" s="15" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="N15" s="15" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="O15" s="16">
         <v>4760</v>
@@ -34463,7 +34460,7 @@
       <c r="P15" s="16">
         <v>4760</v>
       </c>
-      <c r="Q15" s="24">
+      <c r="Q15" s="23">
         <v>1980</v>
       </c>
       <c r="R15" s="16">
@@ -34476,7 +34473,7 @@
       <c r="W15" s="15"/>
       <c r="X15" s="15"/>
     </row>
-    <row r="16" spans="1:24" s="17" customFormat="1" ht="28.8">
+    <row r="16" spans="1:24" s="17" customFormat="1" ht="30" x14ac:dyDescent="0.3">
       <c r="A16" s="6">
         <v>15</v>
       </c>
@@ -34487,37 +34484,37 @@
         <v>3</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G16" s="11" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="H16" s="11" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="I16" s="12" t="s">
         <v>14</v>
       </c>
       <c r="J16" s="12" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="K16" s="13" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="L16" s="14" t="s">
         <v>17</v>
       </c>
       <c r="M16" s="15" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="N16" s="15" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="O16" s="16">
         <v>9000</v>
@@ -34525,7 +34522,7 @@
       <c r="P16" s="16">
         <v>9000</v>
       </c>
-      <c r="Q16" s="24">
+      <c r="Q16" s="23">
         <v>4218</v>
       </c>
       <c r="R16" s="16">
@@ -34538,7 +34535,7 @@
       <c r="W16" s="15"/>
       <c r="X16" s="15"/>
     </row>
-    <row r="17" spans="1:24" s="17" customFormat="1" ht="43.2">
+    <row r="17" spans="1:24" s="17" customFormat="1" ht="30" x14ac:dyDescent="0.3">
       <c r="A17" s="6">
         <v>16</v>
       </c>
@@ -34549,37 +34546,37 @@
         <v>4</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>189</v>
+        <v>173</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="H17" s="11" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="I17" s="12" t="s">
-        <v>118</v>
+        <v>208</v>
       </c>
       <c r="J17" s="12" t="s">
-        <v>190</v>
+        <v>207</v>
       </c>
       <c r="K17" s="13" t="s">
-        <v>191</v>
+        <v>174</v>
       </c>
       <c r="L17" s="14" t="s">
         <v>17</v>
       </c>
       <c r="M17" s="15" t="s">
-        <v>192</v>
+        <v>175</v>
       </c>
       <c r="N17" s="15" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="O17" s="16">
         <v>40000</v>
@@ -34587,7 +34584,9 @@
       <c r="P17" s="16">
         <v>40000</v>
       </c>
-      <c r="Q17" s="16"/>
+      <c r="Q17" s="23">
+        <v>13000</v>
+      </c>
       <c r="R17" s="16">
         <v>1</v>
       </c>
@@ -34598,7 +34597,7 @@
       <c r="W17" s="15"/>
       <c r="X17" s="15"/>
     </row>
-    <row r="18" spans="1:24" s="17" customFormat="1" ht="43.2">
+    <row r="18" spans="1:24" s="17" customFormat="1" ht="45" x14ac:dyDescent="0.3">
       <c r="A18" s="6">
         <v>17</v>
       </c>
@@ -34618,28 +34617,28 @@
         <v>38</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>193</v>
+        <v>176</v>
       </c>
       <c r="H18" s="11" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="I18" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="J18" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="K18" s="13" t="s">
         <v>39</v>
-      </c>
-      <c r="J18" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="K18" s="13" t="s">
-        <v>41</v>
       </c>
       <c r="L18" s="14" t="s">
         <v>17</v>
       </c>
       <c r="M18" s="15" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="N18" s="15" t="s">
-        <v>158</v>
+        <v>143</v>
       </c>
       <c r="O18" s="16">
         <v>103000</v>
@@ -34647,7 +34646,7 @@
       <c r="P18" s="16">
         <v>98000</v>
       </c>
-      <c r="Q18" s="24">
+      <c r="Q18" s="23">
         <v>58000</v>
       </c>
       <c r="R18" s="16">
@@ -34660,7 +34659,7 @@
       <c r="W18" s="15"/>
       <c r="X18" s="15"/>
     </row>
-    <row r="19" spans="1:24" s="17" customFormat="1" ht="43.2">
+    <row r="19" spans="1:24" s="17" customFormat="1" ht="30" x14ac:dyDescent="0.3">
       <c r="A19" s="6">
         <v>18</v>
       </c>
@@ -34671,37 +34670,37 @@
         <v>4</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="G19" s="11" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="H19" s="11" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="I19" s="12" t="s">
-        <v>118</v>
+        <v>211</v>
       </c>
       <c r="J19" s="12" t="s">
-        <v>124</v>
+        <v>209</v>
       </c>
       <c r="K19" s="13" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="L19" s="14" t="s">
         <v>17</v>
       </c>
       <c r="M19" s="15" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="N19" s="15" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="O19" s="16">
         <v>125000</v>
@@ -34709,7 +34708,7 @@
       <c r="P19" s="16">
         <v>74500</v>
       </c>
-      <c r="Q19" s="24">
+      <c r="Q19" s="23">
         <v>31000</v>
       </c>
       <c r="R19" s="16">
@@ -34722,7 +34721,7 @@
       <c r="W19" s="15"/>
       <c r="X19" s="15"/>
     </row>
-    <row r="20" spans="1:24" s="17" customFormat="1" ht="43.2">
+    <row r="20" spans="1:24" s="17" customFormat="1" ht="30" x14ac:dyDescent="0.3">
       <c r="A20" s="6">
         <v>19</v>
       </c>
@@ -34733,37 +34732,37 @@
         <v>4</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="F20" s="10" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="G20" s="11" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="H20" s="11" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="I20" s="12" t="s">
-        <v>118</v>
+        <v>210</v>
       </c>
       <c r="J20" s="12" t="s">
-        <v>130</v>
+        <v>209</v>
       </c>
       <c r="K20" s="13" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="L20" s="14" t="s">
         <v>17</v>
       </c>
       <c r="M20" s="15" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="N20" s="15" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="O20" s="16">
         <v>85000</v>
@@ -34771,7 +34770,7 @@
       <c r="P20" s="16">
         <v>54500</v>
       </c>
-      <c r="Q20" s="24">
+      <c r="Q20" s="23">
         <v>23000</v>
       </c>
       <c r="R20" s="16">
@@ -34784,7 +34783,7 @@
       <c r="W20" s="15"/>
       <c r="X20" s="15"/>
     </row>
-    <row r="21" spans="1:24" s="17" customFormat="1" ht="86.4">
+    <row r="21" spans="1:24" s="17" customFormat="1" ht="90" x14ac:dyDescent="0.3">
       <c r="A21" s="6">
         <v>20</v>
       </c>
@@ -34795,37 +34794,37 @@
         <v>1</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="F21" s="10" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="G21" s="11" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="H21" s="11" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="I21" s="12" t="s">
-        <v>118</v>
+        <v>212</v>
       </c>
       <c r="J21" s="12" t="s">
-        <v>136</v>
+        <v>207</v>
       </c>
       <c r="K21" s="13" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="L21" s="14" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="M21" s="15" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="N21" s="15" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
       <c r="O21" s="16">
         <v>135000</v>
@@ -34833,7 +34832,7 @@
       <c r="P21" s="16">
         <v>135000</v>
       </c>
-      <c r="Q21" s="24">
+      <c r="Q21" s="23">
         <v>92000</v>
       </c>
       <c r="R21" s="16">
@@ -34846,7 +34845,7 @@
       <c r="W21" s="15"/>
       <c r="X21" s="15"/>
     </row>
-    <row r="22" spans="1:24" s="17" customFormat="1" ht="28.8">
+    <row r="22" spans="1:24" s="17" customFormat="1" ht="30" x14ac:dyDescent="0.3">
       <c r="A22" s="6">
         <v>21</v>
       </c>
@@ -34857,37 +34856,37 @@
         <v>4</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="F22" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="G22" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="H22" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="G22" s="11" t="s">
-        <v>183</v>
-      </c>
-      <c r="H22" s="11" t="s">
-        <v>156</v>
-      </c>
       <c r="I22" s="12" t="s">
-        <v>142</v>
+        <v>213</v>
       </c>
       <c r="J22" s="12" t="s">
-        <v>143</v>
+        <v>214</v>
       </c>
       <c r="K22" s="13" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="L22" s="14" t="s">
         <v>17</v>
       </c>
       <c r="M22" s="18" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="N22" s="15" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="O22" s="16">
         <v>6950</v>
@@ -34895,7 +34894,7 @@
       <c r="P22" s="16">
         <v>6900</v>
       </c>
-      <c r="Q22" s="24" t="e">
+      <c r="Q22" s="23" t="e">
         <f>55%*H22</f>
         <v>#VALUE!</v>
       </c>
@@ -34909,7 +34908,7 @@
       <c r="W22" s="18"/>
       <c r="X22" s="18"/>
     </row>
-    <row r="23" spans="1:24" s="17" customFormat="1" ht="57.6">
+    <row r="23" spans="1:24" s="17" customFormat="1" ht="60" x14ac:dyDescent="0.3">
       <c r="A23" s="6">
         <v>22</v>
       </c>
@@ -34918,37 +34917,37 @@
         <v>4</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="F23" s="10" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="G23" s="11" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="H23" s="11" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="I23" s="12" t="s">
-        <v>54</v>
+        <v>216</v>
       </c>
       <c r="J23" s="12" t="s">
-        <v>150</v>
+        <v>215</v>
       </c>
       <c r="K23" s="13" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
       <c r="L23" s="14" t="s">
         <v>17</v>
       </c>
       <c r="M23" s="15" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="N23" s="15" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="O23" s="16">
         <v>130000</v>
@@ -34956,7 +34955,7 @@
       <c r="P23" s="16">
         <v>130000</v>
       </c>
-      <c r="Q23" s="24">
+      <c r="Q23" s="23">
         <v>43000</v>
       </c>
       <c r="R23" s="16">
@@ -34969,7 +34968,7 @@
       <c r="W23" s="15"/>
       <c r="X23" s="15"/>
     </row>
-    <row r="24" spans="1:24" s="17" customFormat="1" ht="28.8">
+    <row r="24" spans="1:24" s="17" customFormat="1" ht="30" x14ac:dyDescent="0.3">
       <c r="A24" s="6">
         <v>23</v>
       </c>
@@ -34980,37 +34979,37 @@
         <v>2</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F24" s="10" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="G24" s="11" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="H24" s="11" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="I24" s="12" t="s">
         <v>14</v>
       </c>
       <c r="J24" s="12" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="K24" s="13" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="L24" s="14" t="s">
         <v>17</v>
       </c>
       <c r="M24" s="15" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="N24" s="15" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="O24" s="16">
         <v>10920</v>
@@ -35018,20 +35017,20 @@
       <c r="P24" s="16">
         <v>10000</v>
       </c>
-      <c r="Q24" s="24">
+      <c r="Q24" s="23">
         <v>5343</v>
       </c>
       <c r="R24" s="16">
         <v>1</v>
       </c>
-      <c r="S24" s="19"/>
-      <c r="T24" s="19"/>
-      <c r="U24" s="19"/>
-      <c r="V24" s="19"/>
-      <c r="W24" s="19"/>
-      <c r="X24" s="19"/>
+      <c r="S24" s="15"/>
+      <c r="T24" s="15"/>
+      <c r="U24" s="15"/>
+      <c r="V24" s="15"/>
+      <c r="W24" s="15"/>
+      <c r="X24" s="15"/>
     </row>
-    <row r="25" spans="1:24" ht="28.8">
+    <row r="25" spans="1:24" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
         <v>24</v>
       </c>
@@ -35042,37 +35041,37 @@
         <v>4</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="F25" s="10" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="G25" s="11" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="H25" s="11" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="I25" s="12" t="s">
-        <v>54</v>
+        <v>197</v>
       </c>
       <c r="J25" s="12" t="s">
-        <v>55</v>
+        <v>198</v>
       </c>
       <c r="K25" s="13" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="L25" s="14" t="s">
         <v>17</v>
       </c>
       <c r="M25" s="15" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="N25" s="15" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="O25" s="16">
         <v>40000</v>
@@ -35080,14 +35079,20 @@
       <c r="P25" s="16">
         <v>40000</v>
       </c>
-      <c r="Q25" s="24">
+      <c r="Q25" s="23">
         <v>16000</v>
       </c>
       <c r="R25" s="16">
         <v>1</v>
       </c>
+      <c r="S25" s="15"/>
+      <c r="T25" s="15"/>
+      <c r="U25" s="15"/>
+      <c r="V25" s="15"/>
+      <c r="W25" s="15"/>
+      <c r="X25" s="15"/>
     </row>
-    <row r="26" spans="1:24" ht="72">
+    <row r="26" spans="1:24" ht="75" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
         <v>25</v>
       </c>
@@ -35098,37 +35103,37 @@
         <v>4</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>194</v>
+        <v>177</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>195</v>
+        <v>178</v>
       </c>
       <c r="F26" s="10" t="s">
-        <v>196</v>
+        <v>179</v>
       </c>
       <c r="G26" s="11" t="s">
-        <v>197</v>
+        <v>180</v>
       </c>
       <c r="H26" s="11" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="I26" s="12" t="s">
         <v>14</v>
       </c>
       <c r="J26" s="12" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="K26" s="13" t="s">
-        <v>198</v>
+        <v>181</v>
       </c>
       <c r="L26" s="14" t="s">
-        <v>199</v>
+        <v>182</v>
       </c>
       <c r="M26" s="15" t="s">
-        <v>200</v>
+        <v>183</v>
       </c>
       <c r="N26" s="15" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="O26" s="16">
         <v>12000</v>
@@ -35136,14 +35141,20 @@
       <c r="P26" s="16">
         <v>6000</v>
       </c>
-      <c r="Q26" s="24">
+      <c r="Q26" s="23">
         <v>2290</v>
       </c>
       <c r="R26" s="16">
         <v>1</v>
       </c>
+      <c r="S26" s="15"/>
+      <c r="T26" s="15"/>
+      <c r="U26" s="15"/>
+      <c r="V26" s="15"/>
+      <c r="W26" s="15"/>
+      <c r="X26" s="15"/>
     </row>
-    <row r="27" spans="1:24" ht="28.8">
+    <row r="27" spans="1:24" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="6">
         <v>26</v>
       </c>
@@ -35154,37 +35165,37 @@
         <v>2</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>201</v>
+        <v>184</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>202</v>
+        <v>185</v>
       </c>
       <c r="F27" s="10" t="s">
-        <v>203</v>
+        <v>186</v>
       </c>
       <c r="G27" s="11" t="s">
-        <v>183</v>
+        <v>168</v>
       </c>
       <c r="H27" s="11" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="I27" s="12" t="s">
-        <v>54</v>
+        <v>197</v>
       </c>
       <c r="J27" s="12" t="s">
-        <v>204</v>
+        <v>217</v>
       </c>
       <c r="K27" s="13" t="s">
-        <v>205</v>
+        <v>187</v>
       </c>
       <c r="L27" s="14" t="s">
-        <v>199</v>
+        <v>182</v>
       </c>
       <c r="M27" s="15" t="s">
-        <v>206</v>
+        <v>188</v>
       </c>
       <c r="N27" s="15" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="O27" s="16">
         <v>52000</v>
@@ -35192,12 +35203,18 @@
       <c r="P27" s="16">
         <v>52000</v>
       </c>
-      <c r="Q27" s="24"/>
+      <c r="Q27" s="23"/>
       <c r="R27" s="16">
         <v>0</v>
       </c>
+      <c r="S27" s="15"/>
+      <c r="T27" s="15"/>
+      <c r="U27" s="15"/>
+      <c r="V27" s="15"/>
+      <c r="W27" s="15"/>
+      <c r="X27" s="15"/>
     </row>
-    <row r="28" spans="1:24" ht="43.2">
+    <row r="28" spans="1:24" ht="45" x14ac:dyDescent="0.25">
       <c r="A28" s="6">
         <v>27</v>
       </c>
@@ -35208,37 +35225,37 @@
         <v>4</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>207</v>
+        <v>189</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>208</v>
+        <v>190</v>
       </c>
       <c r="F28" s="10" t="s">
-        <v>209</v>
+        <v>191</v>
       </c>
       <c r="G28" s="11" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="H28" s="11" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="I28" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="J28" s="37" t="s">
-        <v>210</v>
-      </c>
-      <c r="K28" s="38" t="s">
-        <v>211</v>
+        <v>218</v>
+      </c>
+      <c r="J28" s="36" t="s">
+        <v>206</v>
+      </c>
+      <c r="K28" s="37" t="s">
+        <v>192</v>
       </c>
       <c r="L28" s="14" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="M28" s="15" t="s">
-        <v>212</v>
+        <v>193</v>
       </c>
       <c r="N28" s="15" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="O28" s="16">
         <v>16000</v>
@@ -35246,113 +35263,119 @@
       <c r="P28" s="16">
         <v>16000</v>
       </c>
-      <c r="Q28" s="24">
+      <c r="Q28" s="23">
         <v>4000</v>
       </c>
       <c r="R28" s="16">
         <v>0</v>
       </c>
+      <c r="S28" s="15"/>
+      <c r="T28" s="15"/>
+      <c r="U28" s="15"/>
+      <c r="V28" s="15"/>
+      <c r="W28" s="15"/>
+      <c r="X28" s="15"/>
     </row>
-    <row r="29" spans="1:24">
-      <c r="B29" s="20"/>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B29" s="19"/>
     </row>
-    <row r="30" spans="1:24">
-      <c r="B30" s="20"/>
-      <c r="L30" s="22"/>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B30" s="19"/>
+      <c r="L30" s="21"/>
     </row>
-    <row r="31" spans="1:24">
-      <c r="B31" s="20"/>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B31" s="19"/>
     </row>
-    <row r="32" spans="1:24">
-      <c r="B32" s="20"/>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B32" s="19"/>
     </row>
-    <row r="33" spans="2:2">
-      <c r="B33" s="20"/>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B33" s="19"/>
     </row>
-    <row r="34" spans="2:2">
-      <c r="B34" s="20"/>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B34" s="19"/>
     </row>
-    <row r="35" spans="2:2">
-      <c r="B35" s="20"/>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B35" s="19"/>
     </row>
-    <row r="36" spans="2:2">
-      <c r="B36" s="20"/>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B36" s="19"/>
     </row>
-    <row r="37" spans="2:2">
-      <c r="B37" s="20"/>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B37" s="19"/>
     </row>
-    <row r="38" spans="2:2">
-      <c r="B38" s="20"/>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B38" s="19"/>
     </row>
-    <row r="39" spans="2:2">
-      <c r="B39" s="20"/>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B39" s="19"/>
     </row>
-    <row r="40" spans="2:2">
-      <c r="B40" s="20"/>
+    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B40" s="19"/>
     </row>
-    <row r="41" spans="2:2">
-      <c r="B41" s="20"/>
+    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B41" s="19"/>
     </row>
-    <row r="42" spans="2:2">
-      <c r="B42" s="20"/>
+    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B42" s="19"/>
     </row>
-    <row r="43" spans="2:2">
-      <c r="B43" s="20"/>
+    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B43" s="19"/>
     </row>
-    <row r="44" spans="2:2">
-      <c r="B44" s="20"/>
+    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B44" s="19"/>
     </row>
-    <row r="45" spans="2:2">
-      <c r="B45" s="20"/>
+    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B45" s="19"/>
     </row>
-    <row r="46" spans="2:2">
-      <c r="B46" s="20"/>
+    <row r="46" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B46" s="19"/>
     </row>
-    <row r="47" spans="2:2">
-      <c r="B47" s="20"/>
+    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B47" s="19"/>
     </row>
-    <row r="48" spans="2:2">
-      <c r="B48" s="20"/>
+    <row r="48" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B48" s="19"/>
     </row>
-    <row r="49" spans="2:8">
-      <c r="B49" s="20"/>
+    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B49" s="19"/>
     </row>
-    <row r="50" spans="2:8">
-      <c r="B50" s="20"/>
+    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B50" s="19"/>
     </row>
-    <row r="51" spans="2:8">
-      <c r="B51" s="20"/>
+    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B51" s="19"/>
     </row>
-    <row r="52" spans="2:8">
-      <c r="B52" s="20"/>
+    <row r="52" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B52" s="19"/>
     </row>
-    <row r="53" spans="2:8">
-      <c r="B53" s="20"/>
+    <row r="53" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B53" s="19"/>
     </row>
-    <row r="54" spans="2:8">
-      <c r="B54" s="20"/>
+    <row r="54" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B54" s="19"/>
     </row>
-    <row r="55" spans="2:8">
-      <c r="B55" s="20"/>
+    <row r="55" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B55" s="19"/>
     </row>
-    <row r="56" spans="2:8">
-      <c r="B56" s="20"/>
+    <row r="56" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B56" s="19"/>
     </row>
-    <row r="57" spans="2:8">
-      <c r="B57" s="20"/>
+    <row r="57" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B57" s="19"/>
     </row>
-    <row r="58" spans="2:8">
-      <c r="B58" s="20"/>
+    <row r="58" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B58" s="19"/>
     </row>
-    <row r="59" spans="2:8">
-      <c r="B59" s="20"/>
+    <row r="59" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B59" s="19"/>
     </row>
-    <row r="60" spans="2:8">
-      <c r="B60" s="20"/>
+    <row r="60" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B60" s="19"/>
     </row>
-    <row r="64" spans="2:8">
-      <c r="G64" s="23"/>
-      <c r="H64" s="23"/>
+    <row r="64" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="G64" s="22"/>
+      <c r="H64" s="22"/>
     </row>
   </sheetData>
   <dataValidations count="1">
